--- a/output/Total_time_range_data/贵州省/贵阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/贵州省/贵阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5758 +436,6300 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>245</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>筑府办函号市人民政府办公厅关于印发贵阳市政务服务标准化试点工作方案的通知</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2016-08-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qfbh/201810/t20181002_9599033.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['筑府办函〔2016〕142号市人民政府办公厅关于印发《贵阳市政务服务标准化试点工作方案》的通知', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位：', '《贵阳市政务服务标准化试点工作方案》已经市人民政府研究同意，现印发给你们，请结合实际，认真贯彻执行。', '为加快推进贵阳市省级政务服务标准化试点工作，进一步提升政务服务质量和管理水平，建立以规范服务为核心、效能提升为重点、公开监督为保障的政务服务标准体系，实现从制度化管理向标准化管理的升华，充分发挥标准体系建设在深化行政审批制度改革、促进依法行政和优化经济发展环境中的作用，加快政府职能从管理型向服务型转变，结合贵阳市实际，制定本方案。', '政务服务标准化试点工作通过明确质量方针，细化工作标准，优化质量标准，规范管理标准，注重持续改进，达到提高政务服务质量和服务效率的目的，是实现“服务质量目标化、服务方法规范化、服务过程程序化、服务流程信息化”的最佳途径，对于更好地深化行政体制改革、正确履行政府职能、提升政府治理现代化水平具有重要意义。', '（一）建立健全行政审批（服务）事项标准。根据行政审批服务发展的要求，建立健全适合政务服务工作需要、具有贵阳特色的政务服务标准，将审批服务事项办理、审批服务窗口管理和日常事务处理纳入标准化管理，实现“事事有标准可依、岗岗有标准规范、人人按标准履职”。', '（二）优化提升中心审批服务质量。以推进标准化试点为抓手，充分运用大数据和“互联网+”理念，全面提升行政审批服务质量和水平，在加强政务大厅自身建设、推进管理创新和优化政务服务环境上取得明显成效，推动政务服务工作再上新台阶。', '（三）打造一流的优质服务品牌。通过全面组织实施服务标准化，进一步增强服务意识、规范服务行为、提高服务质量、提升服务效能，创品牌、树形象，使政务大厅的管理和服务水平进入一流的政务服务行列。', '围绕实现政务服务的方针目标，依据政务服务所适用的法律法规以及标准化管理有关规定，建立以服务基础标准子体系为基础，服务质量标准子体系为核心，服务管理标准子体系和服务工作标准子体系为支持和保障的四个政务服务标准子体系，实现服务质量标准提供。', '（一）服务基础标准子体系。主要包括标准化管理基本规定、方针目标、标准体系编制原则，服务标准化工作指南，服务术语标准、文件编写要求以及标志、图形符号等方面等服务基础标准，作为其他标准的基础，具有广泛的指导意义并普遍使用。', '（二）服务质量标准子体系。主要为窗口提供的服务行为提供依据和规范，包含了窗口每一个行政审批事项名称、设定依据、申请材料、办理程序、承诺时限、收费项目和标准、公开方式以及审批流程图等具体标准。', '（三）服务管理标准子体系。主要对服务过程中涉及的关键环节和因素进行管理和控制，保证服务质量标准体系的顺利运行，包括业务事项管理、窗口管理、效能管理、服务规范、人员管理、考评考核、宣传报道、网络管理、设备与基础设施管理、党风廉政建设等管理方面的标准。', '（四）服务工作标准子体系。主要包括决策层工作标准、管理层工作标准、一般管理人员及窗口人员工作标准，在服务质量标准体系和服务管理标准体系共同制约下，做到“岗岗有标准规范，人人按标准履职”，使每个工作人员言行有规范、办事有程序、操作有原则、服务有方向。', '成立由市政府分管领导任组长的贵阳市政务服务标准化试点工作领导小组（领导小组成员名单附后），负责政务服务标准化试点的组织、协调和指导工作。领导小组下设办公室在市政务服务中心，负责试点工作的组织、协调、实施、监督和检查等。领导小组各成员单位工作职责如下：', '市政务服务中心：作为项目实施主体，负责组织、协调、推进贵阳市政务服务标准化试点工作；拟订《贵阳市政务服务标准化试点工作方案》，制定《贵阳市政务服务标准目录》，监督并考核标准实施过程等。', '市质监局：负责标准化知识培训的组织；指导有关部门收集、制定、修改体系标准；协调省质监局对我市政务服务标准化试点工作的培训、指导、检查和验收等相关工作。', '市政务服务大厅各进驻单位：确保本部门事项全部进厅，授权到位，杜绝“两头受理”；明确分管领导及专人负责按时限要求完成本部门标准编制和实施工作；确保本部门政务服务标准通过检查验收。', '贵阳市政务服务标准化试点工作分为宣传动员、基础标准收集及体系标准编制、标准发布实施试运行、体系自查自评及整改、申请验收5个阶段，力争于2018年4月完成并通过验收。', '组织标准化知识培训，通过专家授课、现场指导、学习考察外地先进经验等方法，加深对服务标准体系的理解，牢固树立标准化服务理念。', '召开动员大会，宣传政务服务标准化试点工作目的和意义，统一思想，提高标准化工作意识。', '组织相关人员到省外标准体系建设工作做得好的地区进行考察，学习借鉴各地管理的先进经验。', '邀请标准化领域专家共同分析我市政务服务管理现状，结合标准化工作要求，制定完善贵阳市政务服务标准化体系，力争达到进厅办理事项标准全覆盖。', '编制标准体系框架，按照“程序最简、环节最少、时间最短、效率最高”的要求，编写制定适合我市政务服务工作需要的服务提供和保障标准，实现对审批服务项目办理程序的全面优化。同时，注意处理好标准化与特色化的关系，在符合标准化要求的基础上，突出我市自身特色。', '根据体系要求编制标准文本,征求各方意见并修改完善，经领导小组组织专家评审后发布实施。', '采取多种形式，对发布实施的标准进行宣传、培训，确保全员参训率达100％，使各岗位人员熟练掌握体系标准，具备相应标准化知识。', '全面实施标准，加强标准实施管理。用标准规范服务，靠服务完善标准，培养良好的行为习惯，将标准化服务变为自觉行动，同时做好标准实施的相关记录。', '及时开展标准体系实施情况检查、督导工作，畅通内、外部监督渠道，接收反馈意见。做好体系实施检查记录和问题处理记录。', '对标准体系实施情况进行全面分析，及时总结成功经验和做法，查找、分析问题和不足，提出整改措施。', '（一）统一思想，提高认识。有关单位要充分认识开展政务服务标准化试点工作的重要性，把推进试点工作当作一项重要工作抓好抓实。各单位窗口要及时向后台部门汇报窗口标准编制工作情况，积极争取重视和支持，形成部门和窗口联动的工作局面。', '（二）明确目标，细化责任。有关单位要根据试点工作方案确定的目标、任务和要求，进行任务的再分解再细化，做到人人都参与，人人有任务，人人有责任。', '（三）形成合力，狠抓落实。有关单位既要立足岗位特色完成好本职工作，又要从工作大局出发，相互配合，密切协作，形成合力，共同把政务服务标准化试点工作落实到位。', '（四）加强督查，强化考核。市政务服务标准化试点工作领导小组办公室要对工作推进情况进行督促检查，将此项工作列入市政务服务工作专项考核的重要内容。', '领导小组下设办公室在市政务服务中心，办公室主任由黄平同志兼任，副主任由市政务服务中心常务副主任李琼、市政务服务中心副主任龙燕、市质监局副局长程宁和市政务服务中心副调研员陈平兼任。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>245</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>贵阳市氢能产业相关情况</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/nyzy/nyaqjdgl/202008/t20200813_62427408.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['氢资源：贵州振华电子科技有限公司、塘寨电厂有小型电解水制氢设备，所生产氢气主要用于企业自用；贵州磷化集团开阳化工公司的合成氨生产线不改变现有生产工艺及产能，仅靠增加提纯设备，每年可产氢9000吨。', '燃料电池：贵州海上丝路国际投资有限公司与德国HEE技术有限公司签订合作协议，拟在经开区建设年产值为5亿元的100kw固定式燃料电池生产工厂，目前已处于筹备阶段，预计2021年可投入生产。', '燃料电池汽车：奇瑞万达公司正在进行氢燃料汽车生产资质申报工作，已下线1台12米55kW氢燃料电池客车样车，正在国家客车实验中心做资质准入检验和申请产品公告，预计11月可具备销售条件。', '储氢装备：贵阳市铝及铝镁深加工产业基础，为制储氢设备的生产制造提供了原材料和一定技术支撑。', '重点项目：贵阳经开区正在建设贵阳（经开）氢能产业聚集区项目，该项目拟在贵阳经开区小孟工业园区建设一个包含生物质制氢、储运氢、氢能公交、氢能分布式能源供应、氢能数据中心的氢能全产业链综合示范项目。目前该项目已完成规划设计和可研报告，正在准备成立合资公司。', '2019年贵阳市委十届七次全会提出实施“发展新产业”等三大攻坚行动计划，将氢能产业纳入全市十大新兴产业链。2019年以来主要开展了建立工作机制、考察调研、规划编制等产业链发展的前期准备工作：', '工作机制建立情况：贵阳市于2019年末印发了《贵阳市氢能产业链工作专班工作方案》，初步建立了产业链工作机制。', '实地调研情况：2019年至今，贵阳市先后组织各有关单位赴上海市、苏州市、如皋市、佛山市、六盘水市考察学习氢能产业发展经验，并初步对接了一批国内氢能产业领军企业；多次对贵阳市、贵安新区、六盘水氢能产业关联企业进行了实地调研，梳理贵阳市氢能产业发展基础及下一步发展思路。', '氢能发展规划等政策性文件编制情况：为加强氢能产业发展顶层设计支撑，贵阳市出台了《2020年贵阳市氢能产业工作要点》，正在编制《贵阳市氢能产业发展利用规划（2020-2035）》。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>245</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>分送集报海关创新监管模式在贵阳综保区顺利落地</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-10-10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202310/t20231010_82717558.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['近日，贵阳综保区围网内企业贵州富之源供应链有限公司集中申报报关单在筑城海关顺利办结业务，标志着“分送集报”海关创新监管模式在贵阳综保区顺利落地。在该模式下，预计企业每年可节省运营成本约120万元。', '“分送集报”即“批次进出、集中申报”通关模式，是海关为特殊监管区域内企业货物进出区提供的一种高效通关模式。采用“分送集报”进出区的货物无需批批办理报关单申报手续，而是先以出入库单的形式完成货物实际进出区，在一段时间后再对已进出区的货物集中向海关申报，大大提高了通关效率。', '为了最大限度释放“分送集报”政策红利，同时也为了确保货物品质安全，筑城海关在贵阳海关的指导下创新性地实施“预检验＋分送集报”模式。“预检验”是将货物涉及的法检商品查验、抽样检测等海关监管环节移置在报关之前，突出对企业生产经营情况的“日常监管＋风险监测”，进一步提升海关服务水平和海关监管效能。', '近年来，贵阳综合保税区叠加贵阳国际陆港优势，引进了多家进境粮食加工企业。在获悉区内企业贵州富之源供应链有限公司加工成品批次多、进出区频次高、易腐保质期短、通关时间要求高等情况后，筑城海关主动对接帮扶企业，切实为企业纾困解难，积极研究探索既能满足进出境粮食安全要求又能帮助企业快速通关的“良方”，贵阳海关多次带队赴口岸海关实地考察学习，为开通“分送集报”做好前期准备工作。同时，指定重点企业联络员建立“一企一档”，按照企业加工实际和产业发展需要做好适用新模式的前期准备工作，并对企业生产经营情况、产品质量安全管控情况、进境粮食风险再次进行评估检查，建立以企业诚信为前提，以质量风险管控到位为基础的“预检验＋分送集报”监管模式。', '通过“分送集报”监管模式，企业的加工成品可先出区销售，再集中申报，解决了企业受“货物到齐逻辑”局限、“找车难”等问题，实现饲料当日产出当日出区，提高了企业交货频次和实效，减轻了库存压力。此外，“预检验”也帮助企业节省了取样检测时间，进一步提升通关效率。贵州富之源供应链有限公司表示，该模式可以为公司节约物流成本20%—30%，提高物流效率1倍以上。', '下一步，筑城海关将继续围绕落实党中央重要决策部署，贯彻落实海关总署优化营商环境相关措施，扩大政策影响力，发挥政策叠加优势，为贵阳综保区高质量打造内陆开放型经济新高地先行区积极贡献海关力量。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>245</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>开阳县三化工作法培育壮大黄桃产业</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202312/t20231212_83339955.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['近年来，开阳县依托自然资源优势，积极优化农业产业结构，探索“三化”工作法培育壮大黄桃产业，让黄桃成为助农增收的新引擎，筑牢乡村振兴基础。目前，黄桃投产面积1450亩，累计支付务工工资300余万元、土地租金90万元，增加经营性收入80余万元，覆盖农户80户以上，户均增收1000元以上。', '一是发展模式系统化。通过“企业+合作社+大户（农户）”等方式，以农民专业合作社为建设主体，引导农户以土地、桃林资源等入股入社，村级集体以资源、资金入股入社，整合农村的土地、资金、劳动力等资源、资产，实施土地流转、桃林入股、桃林托管、合作社统一经营等多种模式，形成“利益捆绑、资源共享、合作共赢”的黄桃产业经营体系。截至目前，流转农户土地3050亩，培育乡级企业1个、专业合作社2个、家庭农场5个，带动种植大户20户。', '二是种植技术标准化。选育中蟠36-3、中蟠11、中蟠13等23个黄桃系列优良品种，邀请农技专家定期开展“理论讲解+实地指导”专题培训，并组织村干部、种植大户外出考察学习，逐步精进黄桃种植技术。同时，对黄桃基地务工人员实行“竞聘上岗”，选择一批种植管护技术相对成熟的群众在基地务工，黄桃生长全周期严格按照相关技术标准进行管护，提升黄桃品质。截至目前，建设产业培训基地1个，培养专业化黄桃种植管理技术人才15名，长期聘请200余名专业技术相对成熟的脱贫群众及村民在产业园务工。', '三是产业品牌特色化。由乡平台公司联合七个村股份经济合作社成立玺桃产业总社，精心策划、倾心打造“玺运桃缘”产业品牌，通过统一品牌、统一产品包装、统一质量准入、统一宣传营运，不断擦亮米坪特色黄桃名片。积极举办“桃花季”“玺迎你来品桃盛宴”品鉴会等系列宣传活动，吸引省内外游客及客商到米坪赏桃购桃，全力推动米坪乡“玺运桃缘”系列商品融入“爽爽贵阳·硒养开阳”旅游品牌创塑。目前，累计开展各类活动10余次，今年6月首批黄桃已采摘上市2万余斤，销售金额达60余万元。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>245</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>筑府办发号市人民政府办公厅关于印发贵阳市贵安新区中小学幼儿园学科带头人评选命名暨工作站建设办法的通知</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020-12-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qfbf/202101/t20210129_66606555.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['筑府办发〔2020〕20号市人民政府办公厅关于印发贵阳市、贵安新区中小学（幼儿园）学科带头人评选命名暨工作站建设办法的通知', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位，市管企业，贵安新区有关部门，直管区各乡、镇：', '《贵阳市、贵安新区中小学（幼儿园）学科带头人评选命名暨工作站建设办法》已经市政府同意，现印发给你们，请认真抓好贯彻落实。', '第一条 为贯彻落实党的十九大和十九届历次全会精神，深入实施“教育立市”战略，加强新时代教师队伍建设，进一步发挥学科带头人教育领军人才示范引领作用，为贵阳市、贵安新区基础教育打造一支学者型教师队伍，整体提升贵阳市、贵安新区教师队伍专业能力和中小学学科建设水平，制定本办法。', '第二条 市级学科带头人是为贵阳市、贵安新区中小学（幼儿园）各学科领军教师设定的具有专业性和学术引领性的荣誉称号，领衔研究本学科的瓶颈、难点问题，创新教育教学成果，在本学科领域能起到带头、示范、引领作用。', '第三条 市级学科带头人工作站是以学科带头人为核心组建的学科团队，立足贵阳市、贵安新区教育中各学科实情，基于问题导向，坚持项目推进，聚焦核心能力，带动提升贵阳市、贵安新区教师队伍专业能力和中小学学科建设水平，提高贵阳市、贵安新区教育教学质量。', '第四条 市级学科带头人由市政府统一命名，每三年开展一次。市级学科带头人自命名之日起组建工作站，以三年为周期开展工作。', '贵阳市、贵安新区中小学（幼儿园）学科带头人面向贵阳市、贵安新区在职普通高中、初中、小学、幼儿园承担教学任务的一线教师开展遴选，学校校级干部、教研员不参与遴选。每个学科分学段评选命名人数原则上不超过3名。', '自觉遵守《教师法》和《新时代中小学教师职业行为十项准则》，模范遵守社会公德，严于律己，近五年来年度考核合格及以上，身心健康，热爱教育事业，充满职业幸福感。', '具有副高级及以上教师专业技术职务且获得市级及以上骨干教师称号，树立正确的教育理念，教育理论基础深厚，学科专业素养过硬，现代教育技术能力较强，在教师中享有很高威望。', '长期在教育教学一线任教，教育教学成效显著，具有较强的学科引领、专业指导的能力。开设一门及以上与本学科相关的校本课、选修课或活动课。在本学科领域具有较高的知名度和影响力。', '具有较高的学科素养。在深化课程改革、教材建设、推进素质教育等方面有一定创新性研究成果，五年内主持或参加过市级及以上教育科研课题的研究工作且已结题，或参加市级以上教学成果奖的评比并获奖。', '申报对象应当在教育教学实践中发挥带头作用，具备承担项目研究、学科建设、师资培训和组织协调等方面的能力。', '学科带头人评定采取自下而上，逐级评定的办法，由学校、区（市，县，贵安新区直管区乡、镇）、市逐级评定产生。', '符合条件的个人向所在学校提交申报书，并提交一篇有较高理论水平和实践意义的行动报告、教育叙事或本专业教育教学分析报告（不少于3000字），学校同意后校长填写推荐理由（不少于500字），经教育主管部门初审合格后择优报市教育局审核。市直属学校申报人提交相关材料并经学校同意后，由学校直接报市教育局审核。', '市教育局组织专家团队采取资格审查、业绩评审、到校调研、现场答辩相结合的方式进行评审，择优确定入选对象并予以公示，公示期满无异议后报市人民政府统一命名，任期三年。', '如某学科所有参评人员均未通过评审，则该学科本次评选命名不产生学科带头人，待条件成熟后再行评选命名。', '学科带头人工作站每学科每学段建立1个，每个工作站由站长、副站长、顾问、成员组成，其中站长1人、副站长不超过3人、顾问1—2人、成员不超过9人、其他进站人员若干。', '学科带头人工作站站长从本工作站学科带头人中产生，总体负责工作站的管理和运行，其余学科带头人担任副站长。工作站建在站长所在学校，学校安排一名校级领导担任副站长，负责工作站运行保障工作。若站长工作调动，工作站随之变化到站长调动后的学校。', '工作站成员由学科带头人在贵阳市、贵安新区学科市级及以上骨干中推荐产生，经被推荐人学校及所属教育行政部门同意，报市教育局审定同意后聘任。', '市级教坛新秀及以上称号获得者可向工作站提出申请，以研学方式进入工作站参与研究活动，作为其他进站人员，不占用工作站成员名额。', '（一）不断更新教育教学观念，系统掌握现代教育理论和技能，以学科文化研究为抓手，以贵阳市、贵安新区学情研究为根基，以学科课堂教学目标达成度为目的，主动跟踪本学科国内外前沿发展动态，引领工作站成员有序开展教育教学研究实践、形成有一定推广价值的教学成果。', '（二）每年在校内上示范课不少于2节，面向贵阳市及贵安新区上示范课至少1节，校内外听评课不少于20节。每年承担校内外教师培训任务不少于1次，至少参加1次送教下乡、支援民族地区、省内对口支援地区或按照市委、市政府统一安排纳入一体化发展的地区教育活动。', '（三）以贵阳市及贵安新区质量监测数据分析为切入口，对课堂教学中存在的不足进行跟踪指导，同时针对本学科教育教学实践中的重点、难点问题，主动申请主持或参与相关学科教育教学科研课题或教改实验项目，每年至少开设1次专题讲座或学术报告会。3年内至少撰写1篇发表在核心期刊上的学科教育教学论文、调研报告或完成一本学科教学研究的专著。', '（一）以教育改革发展中的热点、难点、关键点等问题为导向，以项目（课题）为载体，开展学科教育专题研究与创新，解决教育教学实际问题，形成一批具有操作性的研究创新成果。', '（二）制定工作站的三年工作规划和年度推进计划，确立工作的目标、内容和方式，明确站内人员的职责分工，提升工作站团队协作能力。', '（三）通过发表论文、撰写专著、课堂范式、课例研究、发布研究动态、开设讲座、举办论坛、研讨会、报告会等形式在贵阳市及贵安新区乃至全省范围内交流推广教育教学研究成果，邀请国内各学科领域的专家举办专题讲座，拓展我市学科教师视野。', '（四）“一人一案”制定工作站成员培养计划，引领工作站成员和其他进站人员针对学科实践中的热点、难点瓶颈问题，通过“研究——实践——再研究——再实践”的方式，工作站三年内研究成果在市级及以上教学成果评选中至少获得二等奖以上，并在贵阳市及贵安新区乃至全省具有推广价值。', '按照培养计划确立个人短期及三年成长计划，进站工作期间，每学期至少在贵阳市及贵安新区范围内开设1节示范课或讲座，三年内完成1项自选项目的研究。在学科内发挥骨干教师带头作用，主动融入学科教研，积极承担学科带头人安排的课堂教学研究、教学成果研究实践等专题任务，根据教研需要展示研修成果。', '围绕工作站工作的计划，制定个人学习计划，参与工作站各项研究和实践工作，完成相关工作任务，通过三年时间专业能力水平得到大幅提升。', '市教育局制定学科带头人及工作站考核办法，通过第三方组织专家团队，对学科带头人及工作站的工作实绩进行评价。从组织活动的覆盖面及有效性，从工作站成员的专业提升，从学科研究成果的品质、价值及意义入手，分年度对学科带头人及其工作站的工作成效进行过程性考核，三年周期结束进行终结性考核，依照综合评分情况，评定优秀、合格、不合格三个等级。', '终结性考核获得“优秀”的学科带头人和工作站将在贵阳市及贵安新区进行通报表彰，直接进入下一个周期。', '终结性考核获得“优秀”的学科带头人如工作期满达到退休年龄，原则上需重新评选替补人员，在身体条件允许、个人自愿、工作需要的前提下可续聘续任。', '过程性考核“不合格”的学科带头人和工作站限期整改，整改后仍不合格的取消学科带头人命名并撤销工作站。', '市教育局成立中小学（幼儿园）学科带头人工作站建设认定工作领导小组，领导小组办公室设在市教育局教师工作处，负责按照领导小组的安排，统筹学科带头人工作站建设和相关保障管理工作。各区（市、县）教育局、贵安新区教育管理处要将工作站建设和发展纳入本单位（部门）议事日程，做好本区域工作站的指导服务和保障工作。学科带头人的工作单位要安排分管领导联系带头人、指定专人负责工作站的保障和服务，要合理安排进站人员在本单位的工作任务，进站人员在站工作期间的工作量按所在单位总工作量的三分之一计入单位考核。', '市教育局对普通高中学科带头人工作站按每站每年30万，初中、小学、幼儿园学科带头人工作站每站每年20万的标准安排专项工作经费，主要用于学术交流活动、顾问工作补助、成员培训研修、外出考察学习、实践观摩、项目研究、成果推广、必要的设施设备、图书资料及工作站日常运行等。工作站经费管理使用办法另行制定，各工作站要按照经费管理办法做出明细的支出预算，严格专款专用。', '各工作站要根据市教育局制定的考核办法，建立健全工作站管理工作制度，确保工作的顺利开展。工作站进站人员所在单位要切实保障其权益不受损害，合理安排进站人员在本单位的工作任务。', '学科带头人工作站的硬件保障由各工作站相关经费承担，站长所在学校负责为工作站提供场地、办公设备设施、技术力量等，确保工作站的正常运转及相关教学教研科研活动高质量开展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>245</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>第四届中国城市水环境与水生态发展大会在贵阳开幕</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-07-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220709_75442977.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['7月8日，2022（第四届）中国城市水环境与水生态发展大会在贵州省贵阳市开幕。省委常委、市委书记、贵安新区党工委书记胡忠雄出席并致辞。', '中国工程院院士、中国城市科学研究会水环境与水生态分会会长曲久辉，中国工程院院士、贵州大学校长宋宝安，联合国环境规划署驻华代表涂瑞和致辞；中国科学院副院长、中国科学院院士张涛作视频致辞。中国工程院院士、中国水利水电科学研究院副院长胡春宏，中国工程院院士、南京大学环境学院院长任洪强，中国工程院院士、中国科学院兰州分院党委书记兼院长、中科院西北生态环境资源研究院党委书记冯起等出席。', '胡忠雄代表市委、市政府向与会嘉宾表示欢迎，向大会表示祝贺，向长期以来关注贵州、贵阳水环境水生态的各界人士表示感谢。他说，当前，贵阳正深入贯彻落实习近平生态文明思想和习近平总书记视察贵州重要讲话精神，抢抓新国发2号文件重大机遇，按照省第十三次党代会部署，牢牢守好发展和生态两条底线，立足“山水林田湖草”全要素生态禀赋，坚定不移推进生态立市，紧盯水源、水量、水质做好水资源文章，聚焦破解水多、水少、水脏难题做好水安全文章，围绕供水、雨水、污水做好水生态文章，坚持源头治理、系统治理、制度治理做好水治理文章，奋力在生态文明建设上出新绩。我们衷心希望与各界朋友携起手来，打通政产学研用协同创新通道，加快把大会成果转化为水环境水生态的生动实践，努力实现高质量发展和高水平保护有机统一。', '曲久辉代表组委会对与会嘉宾、贵阳市及各承办单位给予大会的支持表示感谢。他说，贵阳有气势磅礴的乌江、风景旖旎的南明河，还有百余条水质清澈的河流，充分体现了贵阳对生态保护和环境科技的高度重视。本次大会将组织政产学研等各方积极寻求城市水环境与水生态领域的突出问题解决策略，与贵阳一道共同做好水资源、水安全、水生态、水治理的文章，以实际行动践行好“绿水青山就是金山银山”理念。', '宋宝安代表贵州大学对与会嘉宾的到来表示欢迎，对中国城市水环境与水生态发展大会提供的广阔交流平台表示感谢。他说，近年来，在社会各界的支持下，贵州大学生态学科发展势头良好，形成了一批环境科技落地运用的典型案例，诚邀与会嘉宾前往考察指导。贵州大学希望依托大会搭建的平台，与各位专家学者保持良好交流互动，共同在学术研究、人才培育、学科建设等方面加强合作，为城市水环境与水生态发展贡献更多智慧和力量。', '涂瑞和对大会的邀请表示感谢，并预祝大会取得预期成果。他表示，贵阳南明河经过多年的治理，生态环境质量持续改善，期待通过本次考察学习，进一步了解南明河分布式下沉再生水生态系统的创新思路和技术路线。希望各位专家积极参加到联合国环境署相关活动中来，用自己的知识、经验和智慧，向国际社会，尤其向发展中国家分享中国改善环境质量的良好实践，助力实现2030年可持续发展目标，为保护全球生态环境贡献力量。', '张涛代表中国科学院对大会的召开表示祝贺。他表示，贵州的生态文明建设是中国生态文明建设成就的一个缩影，在贵阳形成的南明河水环境治理模式，对于我国大中城市的水环境治理具有重要的借鉴意义。中国城市水环境与水生态发展大会经过近年来的发展，为我国城市水生态文明建设、管理和决策提供了重要咨询建议。希望与会嘉宾在“爽爽贵阳”期间，一如既往积极为我国的城市水环境和水生态问题建言献策，为水生态文明建设贡献更多科技力量。', '据悉，本次大会以“面向水生态健康，谋划水科技未来”为主题，由中国城市科学研究会水环境与水生态分会主办，贵州大学、中国科学院地球化学研究所、中国水环境集团、贵州省科学技术协会、中关村汉德环境观察研究所承办。本次大会由开幕式及主旨报告、思享荟演讲、前沿讨论三个全体会议环节组成，同时还开设其他专题论坛。', '国家有关部委直属单位负责人，相关行业领域专家学者，部分企业、行业协会负责人，衡阳市、自贡市有关负责人，省、市有关部门负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>245</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>贵阳市公安交通管理局年度部门决算</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/sgajtglj_5624433/202105/t20210531_68339976.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['第一部分 贵阳市公安交通管理局2017年度部门决算目录 一、贵阳市公安交通管理局概况 （一）主要职能 （二）机构设置及部门决算单位构成 二、贵阳市公安交通管理局2017年度部门决算公开报表（见附表） 三、贵阳市公安交通管理局2017年度部门决算情况说明 （一）贵阳市公安交通管理局2017年度收入支出决算总体情况说明 （二）贵阳市公安交通管理局2017年度收入决算情况说明 （三）贵阳市公安交通管理局2017年度支出决算情况说明 （四）贵阳市公安交通管理局2017年度财政拨款收入支出决算总体情况说明 （五）贵阳市公安交通管理局2017年度一般公共预算财政拨款支出决算情况说明 （六）贵阳市公安交通管理局2017年度一般公共预算财政拨款基本支出决算情况说明 （七）贵阳市公安交通管理局2017年度一般公共预算财政拨款“三公”经费支出决算情况说明 （八）政府性基金预算收入支出决算情况说明 （九）其他重要事项的情况说明 四、名词解释 &lt;trs_page_separator pagetitle="" firstpagetitle=""&gt;&lt;/trs_page_separator&gt; 第二部分 贵阳市公安交通管理局2017年度部门决算情况 一、贵阳市公安交通管理局概况 （一）主要职能 1.承担《中华人民共和国道路交通安全法》规定的职责； 2.负责制定、实施全市道路交通组织方案；负责维护道路交通秩序及公路治安秩序，依法查处交通违法行为，处理道路交通事故，打击违法犯罪活动； 3.承担机动车安全检查、牌证发放、驾驶人考核和交通安全宣传、教育工作； 4.依法管理上级公安交通管理部门指定的贵阳市境内的高速公路道路交通安全工作； 5.参与城市建设与道路有关的设计、规划及交通设施建设；依法办理与道路交通有关的行政许可和各种机动车通行证件； 6.负责各项重大活动线路及现场交通安全； 7.负责涉牌、涉证等与交通管理有关的案件侦查、办理工作； 8.完成市委、市政府和上级公安机关交给的其他公安交通管理任务。 （二）机构设置及部门决算单位构成 本单位（部门）内设14个处室，下属18个单位。贵阳市公安交通管理局部门决算属本级决算。 二、贵阳市公安交通管理局2017年度部门决算公开报表（见附表） 三、贵阳市公安交通管理局2017年度部门决算情况说明 （一）贵阳市公安交通管理局2017年度收入支出决算总体情况说明 贵阳市公安交通管理局2017年度收支决算总计57,748.34万元，与2016年相比，减少11,190.75万元，降低16.23%。主要原因是：视频监控平台一期、二期集中在2016年付款，而2017年只付款视频监控平台三期，从而导致2017年收支决算总数减少。 （二）贵阳市公安交通管理局2017年度收入决算情况说明 本年收入合计49,202.97万元，其中：财政拨款收入47,979.75万元，占97.51%；上级补助收入0万元，占0%；事业收入0万元，占0%；经营收入0万元，占0%；附属单位缴款0万元，占0%；其他收入1,223.22万元，占2.49%。 （三）贵阳市公安交通管理局2017年度支出决算情况说明 本年支出合计50,239.35万元，其中：基本支出28,107.49万元，占55.95%；项目支出22,131.85万元，占44.05%；上缴上级支出0万元，占0%；经营支出0万元，占0%；对附属单位补助支出0万元，占0%。 （四）贵阳市公安交通管理局2017年度财政拨款收入支出决算总体情况说明 贵阳市公安交通管理局2017年度财政拨款收支决算总计48,843.46万元。与2016年相比，减少9,091.17万元，降低15.69%。主要原因是：视频监控平台一期、二期集中在2016年付款，而2017年只付款视频监控平台三期，从而导致2017年收支决算总数减少。 （五）贵阳市公安交通管理局2017年度一般公共预算财政拨款支出决算情况说明 1、一般公共财政拨款支出决算总体情况 贵阳市公安交通管理局2017年度一般公共预算财政拨款支出48,843.46万元，占本年支出合计的97.22%。与2016年相比，一般公共预算财政拨款支出减少8,222.45万元，降低14.41%。主要原因是：视频监控平台一期、二期集中在2016年付款，而2017年只付款视频监控平台三期，从而导致2017年收支决算总数减少。 2、一般公共预算财政拨款支出决算结构情况 贵阳市公安交通管理局2017年度一般公共预算财政拨款支出主要用于以下方面：公共安全支出科目（类）支出 47574.84万元，占 97.40%；住房保障支出科目（类）支出1268.62 万元，占2.6 %。 3、一般公共预算财政拨款支出决算具体情况 贵阳市公安交通管理局2017年度一般公共预算财政拨款支出当年预算为 39599.93万元，支出决算为 48843.46万元，完成当年预算的123.34 %。决算数大于预算数的主要原因是：2017年人民警察加班费及执勤补贴标准的调整预算增加、视频监控平台三期调整预算增加所致。其中： （1）公共安全支出科目（类）公安科目（款）行政运行科目（项）。当年预算为22，466.07 万元，支出决算为 26，032.17万元，完成当年预算的115.87 %。决算数大于预算数的主要原因是：2017年人民警察加班费及执勤补贴标准的增加所致。 （2）公共安全科目（类）公安科目（款）道路交通管理科目（项）。当年预算为16，225万元，支出决算为21，542.68万元，完成当年预算的132.77%。决算数大于预算数的主要原因是：视频监控平台三期调整预算增加所致。 （六）贵阳市公安交通管理局2017年度一般公共预算财政拨款基本支出决算情况说明 贵阳市公安交通管理局2017年度一般公共预算财政拨款基本支出27,300.79万元，其中：人员经费19,407.3万元，主要包括基本工资、津贴补贴、离退休费等；公用经费7,893.49万元，主要包括办公费、水电费、差旅费等。 （七）贵阳市公安交通管理局2017年度一般公共预算财政拨款“三公”经费支出决算情况说明 2017年度“三公”经费一般公共预算财政拨款支出决算823.65万元，比上年增加80.03万元，增长10.76%，增加原因是原贵州省交警总队直属支队管辖高速路段按属地下划地方交警支队导致车辆数增加、塔山交警大队地域划属贵阳交警六大队导致管辖里程增加、新开通贵遵复线等高速、2017年党代会、生态会、数博会、创文、党的十九大安保活动，导致行维护费增加增加；数据铁笼推广后，我局的大数据应用得到全国各地的认可，并前来参观考察学习，接待费增加。其中，因公出国（境）费支出0万元，占0%，比上年减少5.05万元，降低100%，减少原因是今年我局无人员出国；公务用车购置及运行维护费支出818.88万元，占99.42%，比上年增加82.52万元，增长11.21%，增加原因是原贵州省交警总队直属支队管辖高速路段按属地下划地方交警支队导致车辆数增加、塔山交警大队地域划属贵阳交警六大队导致管辖里程增加、新开通贵遵复线等高速、2017年党代会、生态会、数博会、创文、党的十九大安保活动等导致运行维护费增加。公务接待费支出4.78万元，占0.58%，比上年增加2.55万元，增长114.75%，增加原因是数据铁笼推广后，我局的大数据应用得到全国各地的认可，并前来参观考察学习，接待费增加。具体情况如下： （1）因公出国（境）费支出0万元。贵州省贵阳市公安交通管理局全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。 （2）公务用车购置及运行维护费818.88万元,其中，公务用车购置0万元，公务用车运行维护费818.88万元。主要用于车辆保养费、2017年党代会、生态会、数博会、创文、党的十九大安保活动油料费、执法车辆保养油料费。2017年，单位开支财政拨款的执法执勤用车保有量为258辆。 （3）公务接待费4.78万元。具体是： 国内公务接待支出4.78万元，主要是数据铁笼推广后，我局的大数据应用得到全国各地的认可，并前来参观考察学习，接待费增加等。贵州省贵阳市公安交通管理局2017年国内公务接待30批次，437人次。 （八）政府性基金预算收入支出决算情况说明 贵州省贵阳市公安交通管理局2017年政府性基金预算财政拨款本年收入0万元，本年支出0万元。 （九）其他重要事项的情况说明 1、机关运行经费支出情况 2017年贵阳市公安交通管理局机关运行经费支出7,893.49万元，比2016年增加4,842.23万元，增长158.7%，主要原因是开始发放车补和2016年补发车补、法定工作日外加班费和人民警察执勤岗位津贴标准提高和补发。 2、政府采购支出情况 2017年贵阳市公安交通管理局政府采购支出总额 4352.27万元，其中：政府采购货物支出 421.98万元、政府采购工程支出 1487.63万元、政府采购服务支出2179.66 万元，授予中小企业合同金额4352.27 万元，占政府采购支出总额的100 %，其中：授予小微企业合同金额 万元，占政府采购支出总额的 %。 3、国有资产占用情况 截至2017年12月31日，贵阳市公安交通管理局共有车辆258辆，其中一般执法执勤用车43辆、特种专业技术用车215辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。 4、2017年度预算绩效情况说明 （1）预算绩效管理工作开展情况 根据财政预算管理要求，我单位组织对2017年度一般公共预算项目支出开展了绩效自评工作。共计1个项目进行了绩效自评，涉及资金637.50万元，自评覆盖率达到3%。 （2）部分项目支出绩效自评结果 项目一：贵阳市视频监控平台（一期）维保运营经费项目 根据年初设定的绩效目标，本项目已完成全部（或部分）目标任务，自评得分为96分。发现的主要问题及原因：由于相当长一段时间都要持续进行，能否建立审批核招标绿色通道以便提高工作效率。 项目支出绩效自评表 （2017年度） 项目名称 贵阳市视频监控平台（一期）维保运营经费 主管部门及代码 贵阳市公安交通管理局 1152010000940081X5 实施单位 青岛海信网络科技股份有限公司 资金来源 资金总额 （万元） 637.5 财政资金 637.5 其中：本级安排 637.5 其他资金 0 绩效目标 项目绩效目标 目标完成情况 设施设备完好率98%主要设备完好率100%，客户满意率98%以上 通过向社会购买服务，为市高清视频监控平台一期项目提供专业、高效、高质的维护管理服务，保障前端设备正常可用，保障机房、网络、数据节点等基础设施有效支撑前端设备数据回传，保障中心系统有效支撑前端设备效果达成，以及保障项目范围内其它相关配套系统、设备正常运行。使非因客观原因影响的设施设备完好率98%以上，主要设备完好率达100%，客户满意率达98%以上，努力创建平安机关、生态文明机关，提升市公安交通管理局整体形象。 综上所述，市高清视频监控平台一期项目2017年项目实施效果较好，项目涉及的服务质量、运作管理以及服务成果都达到要求，完成绩效目标，该项目绩效目标评价总分为95分。扣分项目主要是预算偏差率，年初预算637.5万元，实际使用520.625万元，预算调整率18.33%，小于25%得2分，此项扣1分；预算支出率81.67%，大于80%得4分，此项扣3分，总计扣4分 自评价分数 96分 四、名词解释 （一）财政拨款收入：指同级财政当年拨付的资金。 （二）上级补助收入：指事业单位从主管部门和上级单位取得的非财政补助收入。 （三）事业收入：指事业单位开展专业业务活动及其辅助活动所取得的收入。 （四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。 （五）附属单位缴款：指事业单位附属的独立核算单位按有关规定上缴的收入。 （六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。 （七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 （八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （九）结余分配：反映单位当年结余的分配情况。 （十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 （十二）项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 （十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。 （十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。 （十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 （十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。 （十七）公共安全支出（类）公安（款）行政运行（项）：指反映贵阳市公安交通管理局的基本支出。 （十八）公共安全支出（类）公安（款）道路交通管理（项）：指反映贵阳市公安交通管理局的项目支出。 （十九）公共安全支出（类）公安（款）其他公安支出（项）：指反映贵阳市公安交通管理局单位行政单位（包括实行公务员管理的事业单位）的其他公安支出。 （二十）住房保障支出（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。） 贵阳市公安交通管理局 2018年8月2日 附件：贵阳市公安交通管理局2017年决算项目表单', '一、贵阳市公安交通管理局概况 （一）主要职能 （二）机构设置及部门决算单位构成 二、贵阳市公安交通管理局2017年度部门决算公开报表（见附表） 三、贵阳市公安交通管理局2017年度部门决算情况说明 （一）贵阳市公安交通管理局2017年度收入支出决算总体情况说明 （二）贵阳市公安交通管理局2017年度收入决算情况说明 （三）贵阳市公安交通管理局2017年度支出决算情况说明 （四）贵阳市公安交通管理局2017年度财政拨款收入支出决算总体情况说明 （五）贵阳市公安交通管理局2017年度一般公共预算财政拨款支出决算情况说明 （六）贵阳市公安交通管理局2017年度一般公共预算财政拨款基本支出决算情况说明 （七）贵阳市公安交通管理局2017年度一般公共预算财政拨款“三公”经费支出决算情况说明 （八）政府性基金预算收入支出决算情况说明 （九）其他重要事项的情况说明 四、名词解释', '通过向社会购买服务，为市高清视频监控平台一期项目提供专业、高效、高质的维护管理服务，保障前端设备正常可用，保障机房、网络、数据节点等基础设施有效支撑前端设备数据回传，保障中心系统有效支撑前端设备效果达成，以及保障项目范围内其它相关配套系统、设备正常运行。使非因客观原因影响的设施设备完好率98%以上，主要设备完好率达100%，客户满意率达98%以上，努力创建平安机关、生态文明机关，提升市公安交通管理局整体形象。', '四、名词解释 （一）财政拨款收入：指同级财政当年拨付的资金。 （二）上级补助收入：指事业单位从主管部门和上级单位取得的非财政补助收入。 （三）事业收入：指事业单位开展专业业务活动及其辅助活动所取得的收入。 （四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。 （五）附属单位缴款：指事业单位附属的独立核算单位按有关规定上缴的收入。 （六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。 （七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 （八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （九）结余分配：反映单位当年结余的分配情况。 （十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 （十二）项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 （十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。 （十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。 （十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 （十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。 （十七）公共安全支出（类）公安（款）行政运行（项）：指反映贵阳市公安交通管理局的基本支出。 （十八）公共安全支出（类）公安（款）道路交通管理（项）：指反映贵阳市公安交通管理局的项目支出。 （十九）公共安全支出（类）公安（款）其他公安支出（项）：指反映贵阳市公安交通管理局单位行政单位（包括实行公务员管理的事业单位）的其他公安支出。 （二十）住房保障支出（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>245</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市人民政府办公厅关于印发贵阳市步行街和特色商业街区规划建设及改造提升工作方案的通知解读</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019-11-26</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/jdhy/jdhyzcjd/jdhyzcjdwzjd/201911/t20191126_17182714.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['《市人民政府办公厅关于印发贵阳市步行街和特色商业街区规划建设及改造提升工作方案的通知》解读 - 贵阳市人民政府', '《市人民政府办公厅关于印发贵阳市步行街和特色商业街区规划建设及改造提升工作方案的通知》解读', '为深入贯彻落实《中共中央、国务院关于完善促进消费体制机制进一步激发居民消费潜力的若干意见》（中发〔2018〕32号）《国务院办公厅关于印发完善促进消费体制机制实施方案（2018—2020年）的通知》（国办发〔2018〕93号）和《中共贵阳市委关于大力实施高水平对外开放加快推动经济高质量发展的决定》（筑党发〔2019〕1号）《中共贵阳市委关于以高标准要求、高水平开放、高质量发展助推决战决胜脱贫攻坚的实施意见》（筑党发〔2019〕23号）精神，推动市领导领衔12条国家级及省级步行街建设任务的落地落实，加快西部地区有影响力的国际化都市、中高端消费品贸易之城建设目标，切实把步行街、特色商业街区打造成为我市促进消费升级、振兴商贸业的重要抓手、对外开放的重要平台、城市繁荣繁华的靓丽名片和满足人民美好生活需要的重要载体，为全市经济高质量发展注入新动能。', '（一）深入摸底调研。十届五次全会以来，贵阳市商务局对全市商业发展和步行街、特色商业街区等业态现状进行了深入的摸底调研，并在摸底调研的基础上，工梳理出建成运营的步行街6条，并结合商务部办公厅关于印发《步行街改造提升评价指标（2019版）》的通知，对标对表找出问题、找准差距，组织专门的考察调研组赴重庆、成都、西安等地的步行街、特色商业街区进行考察学习，力争取得真经。', '（二）广泛征求意见。方案初稿成型以来，贵阳市商务局先后组织各区（市、县）政府、高新区、经开区、综保区、双龙航空港经济区管委会，市直相关部门，相关步行街及特色商业街区的运营管理机构召开座谈会等形式广泛征求意见建议修改完善。', '工作方案主要包括总体要求、基本原则、工作目标、主攻方向、实施步骤、保障措施五个部分，重点以主攻方向做了五个方面的工作安排。', '一是优化街区环境。围绕交通路网、立面地面、设施设备、绿化亮化等要素，加强街区环境改造整治。按照“顺畅高效、规范有序”的原则，优化周边路网和交通设施，提升道路慢行系统，按国际规范完善区内公共信息图形符号标识及安全警示标识，让消费者“进得来、停得下、留得住、出得去”。', '二是提升商业品质。引入中高端业态。培育新兴业态。积极发展特色、颜值小店。增加离境退税商店布点，提升“进店率”、“提袋率”，让“旅游、网红流量”变现“经济产量”。', '三是打造智慧街区。加强5G应用，积极整合5G以及IOT等新兴技术优化全区公共资源，打造5G应用示范场景；开展智慧停车系统建设。推广应用微信、支付宝等移动支付智能服务，实现街区智慧停车系统全面升级。', '四是增强文化底蕴。大力聚集酒、烟、茶、中草药、特色食品等本省特色产品、特色文化、特色品牌IP（知识产权）资源，将步行街和特色商业街区打造成为展示多彩贵州文化特色的重要窗口和交易贵州特色产品的重要平台；突出文脉传承、风貌保护、功能提升、产业发展。支持本土“老字号”做精做强；多形式组织品牌文化节会活动。打好“文化牌”，组织举办丰富多彩、形式多样的主题宣传、消费促进活动，扩大贵阳步行街及特色商业街的知名度和美誉度。', '五是规范管理运营。成立专门的街区管理机构，积极探索实施临街业态管控机制，强化政府对资源的主导作用，加大优质项目的引进和扶持，围绕机构、安全、诚信等方面，加强组织保障和规范管理。', '筑府办函〔2019〕111号市人民政府办公厅关于印发贵阳市步行街和特色商业街区规划建设及改造提升工作方案的通知']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>245</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>贵阳市国防动员办公室年法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/rmfk_5618090/202406/t20240617_84879333.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['2023年以来，市国动办坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大精神，认真学习贯彻习近平法治思想，深入贯彻落实习近平总书记关于深化国防动员体制改革的重要论述，推动国防动员法治建设与深化国防动员体制改革相结合，持续深化人防行政权力“放管服”改革，全面推进法治建设“一规划两纲要”及省、市实施方案在市国动办落地落实，现将有关情况报告如下。', '一是将《习近平法治思想学习纲要》纳入市国动办党组理论学习中心组2023年学习计划，通过开展党组理论学习中心组专题学习研讨会、行政执法人员专题培训、读《纲要》原著、看法宣在线专题网课视频等抓好“领导干部”、执法人员等重点群体的学习；二是通过党组会专题学习、理论学习中心组学习研讨、班子成员带头宣讲等方式，深入学习宣传贯彻落实党的二十大精神。截至目前，办党组集中学习12次，党组理论学习中心组专题学习2次，机关党委专题学习4次，各党支部集中学习42次，深入企业、乡村开展宣讲4次。三是开展党内法规集中学习12次。组织举办了《国防动员法》、新修订《行政复议法》等专题讲座，常态化开展民法典宣传周、宪法宣传周等学法普法活动。2023年我办“法宣在线”学法考试参加人数77人，参与率、及格率均100%。', '一是扎实推进“放管服”改革。出台《进一步优化营商环境助力人防工程高质量发展实施方案》，围绕市、区国动部门职能交叉、权责不清等历史遗留问题，结合三县一市、6个行政区国动部门人员编制、专业力量等现实因素，采取分批下放、逐步交接的方式落实区县一级国动部门按照《人民防空法》规定全面履行人防行政管理职责，明确除“轨道交通兼顾人防工程建设审查”因涉及跨区域管理继续由市国动办行使外，其余人防行政权力全部下放至各区（市、县）国动办。二是落实“园区事园区办”。为深入贯彻落实市委、市政府有关推进“园区事园区办”的工作部署，强化属地人民政府国动办与开发区人防主管部门的协同联动，方便企业群众办事，推进简政放权。市国动办组织召开“园区事园区办”工作推进会，推动观山湖区、南明区、花溪区、白云区国动办与各自辖区所属高新区、经开区、双龙区、综保区人防主管部门签订委托协议。三是加强业务监督指导。市国动办在充分考虑基层国动办与开发区人防主管部门人员编制、专业力量、资金保障等情况的基础上，加强对“园区事园区办”工作的业务指导、技能培训，提供相关必要资料与其他帮助。按规定开展深化“放管服”改革助推“园区事园区办”的监督检查、跟踪评估工作，加强对开发区人防主管部门人防政务服务业务指导和执法监督，助力园区提高依法行政的能力和水平。', '一是健全行政执法机制。组织开展了权责清单集中调整,对现有人防行政权力依据、类型、责任进行全面梳理，确保了与国家、省级人防事项的统一衔接，大幅提升了行政权力事项标准化、规范化、高效化办理。调整后《贵阳市国动办权责清单目录（2023年版）》共计13项行政权力已在网站公布。结合国防动员体制改革，对已制定的人防行政执法“三项制度”、行刑衔接制度等10余项制度进行修改完善，对人防行政执法文书进行更新调整。二是加强行政执法培训。举办学习贯彻党的二十大精神暨干部“强省会”业务提升专题培训班，开展人防执法知识专题培训及现场教学。组织执法骨干参与市司法局执法培训，邀请省军区、贵阳警备区专家举办国防动员法律法规知识讲座等。大力提升国防动员系统干部职工法律素养。三是规范行政执法管理。2023年以来，市国动办依法对我市人防工程建设单位、管理单位及人防设备生产企业开展行政检查541次，主要包括对在建人防工程的质量监督检查（含竣工验收）、建成人防工程的使用维护监督检查及人防企业生产安全、质量及从业行为检查。7月，对执法人员在日常巡查中发现的一起破坏人防工程案件进行了立案调查，依照人防行政处罚程序对当事人处以罚款处罚并责令其整改。', '一是依法处理投诉举报。2023年以来，累计收到数智信访平台投诉2件、市长信箱投诉1件、融媒问政事务4件、“12345”公共政务服务热线事务84件，均已受理并按期办结；二是依法参加行政诉讼。2023年，我办无行政诉讼案件，故不存在负责人出庭应诉问题；三是充分发挥法律顾问作用。2023年法律顾问审查各类合同累计41件（次），其他法律审查2件。本年度无重大行政决策，未制定行政规范性文件。', '按照省委省政府、市委市政府关于实施“强省会”战略决策部署，紧密结合培育发展贵阳-贵安-安顺都市圈，形成贵阳、贵安、安顺、黔南、双龙协调联动一体化发展格局，市国动办结合自身职能职责，一是与安顺市国动办、平坝区发改局等有关单位就托管工作进行了多次研讨和协商，与安顺市国防动员办公室签订了委托协议，明确了安顺市平坝区马场镇、高峰镇区域人防行政许可、行政处罚事项委托托管要求。二是与黔南州国动办、龙里县发改局等有关单位就托管工作进行沟通，与黔南州国动办签订了委托协议，明确了黔南州龙里县谷脚镇部分行政区域范围内人防行政许可、行政处罚事项委托托管要求。三是分别组织花溪区国动办、贵安新区城乡建设局与南明区国动办、双龙区人防主管部门开展国动（人防）权力事项梳理座谈会，结合法律规定、政策要求、人员编制等因素，明确了托管后市国动办、花溪区国动办、贵安新区城乡建设局、南明区国动办、双龙区人防主管部门各自的人防行政权力履行职责。', '一是高度重视加强组织。根据《贵阳市人大常委会2023年立法计划》《&lt;贵阳市人民防空工程建设管理办法&gt;修订立法调研工作方案》《贵阳市人民政府2023年立法计划》等要求，我办成立了《贵阳市人民防空工程建设管理办法》《贵阳市结建防空地下室维护管理规定》修订立法调研工作小组，组织相关处室、单位及区（市、县）国动办、人防主管部门开展了9次工作研讨会，多次赴市人大、市司法局等相关单位汇报工作、征求意见建议。二是结合实践梳理问题。全面梳理人防领域法律法规和政策文件资料，从近年来人防工程建设管理、人防执法实际问题与困难出发，广泛征集基层人防主管部门、有关职能处室及单位对法规修订的意见建议。针对罚款数额过低、人防工程未批先建先用、人防工程产权不明等问题梳理意见建议35条，并逐条征求法律顾问专业法律意见，反复研讨后形成了法规规章修订草案初稿。三是对标先进学习经验。在市人大带领下赴杭州、温州考察学习人民防空工程建设管理工作，与该市人大、市国动办等有关单位就人民防空工程建设管理地方立法情况进行了座谈和交流，对人民防空工程建设、管理、使用、维护等进行了实地考察，对标经济发达地区优良做法作为本次修订立法借鉴，继续将《贵阳市人民防空工程建设管理办法》纳入2024年修订立法调研课题。', '一是完善机构设置。根据国家、省深化国防动员体制改革实施工作要求，2023年2月完成“贵阳市国防动员办公室”挂牌仪式，明确以贵阳市人民防空办公室为基础调整组建市国动办，同时保留市人防办牌子，按要求推进了市国动办机构、职能、权限、程序、责任等法定化工作。二是健全工作机制。参照国家、省级相关制度规定，市国动办拟制了系列国防动员工作制度文稿，进一步规范了涉及国防动员定期例会、文件办理、工作联系等制度，完成了国防动员工作印章的刻制和启用，规范国防动员相关单位按要求承担国防动员工作职责。三是加强协调联动。召开了市国动委第一次全体会议，研究部署了国防动员重点任务。市国动办、警备区动员处也分工组织相关成员单位召开了多次协调会议、联络会议、工作部署会议等落实省、市相关工作要求。组织各区（市、县）国动系统工作人员开展多次专题培训会，推动国防动员系统干部职工队伍加快实现理念转变、业务转型和能力转化，全市国防动员协调联动格局基本形成。', '2023年以来，市国动办主要负责人在市委、市政府的坚强领导下，在办领导班子成员的协作下，深刻领悟“两个确立”、坚决做到“两个维护”，以坚持抓住领导干部这个“关键少数”为立足点，以尊法、学法、守法、用法为切入点，不断推进国防动员工作制度化、规范化、法治化。一是强化组织统筹。组织制定了市国动办《关于贯彻落实&lt;中共贵阳市委全面依法治市委员会2023年工作要点&gt;的实施方案》《2023年法治政府建设工作要点》等工作计划，给全办各处室、各单位明确了47项具体工作任务指标。二是严格依法决策。出台《“三重一大”事项管理制度》《财务管理制度（试行）》等制度，规范化管理人、事、物的任免、决策、采购使用问题。三是落实督察整改。根据市委依法治市办《贵阳贵安贯彻落实中央依法治国办市县法治建设工作督察反馈意见整改工作方案》，结合2021年以来我办的实际情况，对照任务清单着力推动问题逐项整改、逐个销号，涉及我办的82个整改指标已完成整改。四是迎检普法评估。根据市委宣传部、市委依法治市办、市司法局、市法宣办四单位联合印发“八五”普法中期评估迎检通知，组织工作专班整理汇总5个评估项目15项迎检指标的198份纸质及电子版检查资料，全部通过审查并上传贵州省普法依法治理智慧管理平台。在职责范围内全面完成了2023年法治贵州建设10个关键性结果性指标工作任务，严格按照要求提交了个人年度述法报告，严格约束自己并督促班子成员依法办事，未出现干预司法活动、插手具体案件的情形，有力促进了社会公众对法治环境的满意率上升，有力推动了国防动员法治事业高质量发展。', '一是执法力量薄弱。区（县）基层国动办、人防主管部门普遍缺乏国防动员、人民防空专业人才，执法专业知识不足，导致部分区域没有完全行使人防执法权能；二是法律法规滞后。导致对部分违法行为执法时无法可依，国动执法的主体、内容、程序不清晰，在理清国防动员执法、人民防空执法体系上存在一定困难；三是普法宣传不够。社会群众、企业对人防工程维护应尽的法定义务、应履行的国防法定职责等没有完全应知应会，宣教活动仍有巨大发展空间。', '做好《贵阳市人民防空工程建设管理办法》《贵阳市结建防空地下室维护管理规定》的修订立法调研工作，聚焦职能职责研究制定一批规范性文件，逐步构建起完善的、科学的人防地方性法规、规章、行政规范性文件体系，为国防动员、人民防空全面迈入高质量发展提供坚强的法律支撑。', '聚焦“园区事园区办”落地见效，加强对开发区人防主管部门人防政务服务业务指导和执法监督，助力园区提高依法行政的能力和水平。统一市、县、开发区的人防权力事项办理标准，创新政务服务方式，推动行业“管理者”向行业“服务者”转变，增强群众满意度，营造更加有利于高质量发展的政策环境。', '适时实施权责清单动态调整，着力规范人防行政执法行为，逐步构建科学有效的内部执法监督体系。依法依规开展人防工程建设、使用、维护监管治理，加强对在建人防工程的质量监督、建成人防工程的使用监督等“双随机、一公开”行政检查工作，发挥好人防工程战备效益、社会效益、经济效益。', '根据国家、省、市“八五”普法规划及年度普法依法治理工作要点，深入推进国防动员法治宣传教育，严格落实“谁执法谁普法”“谁主管谁普法”“谁服务谁普法”普法责任制，对内紧抓领导干部、行政执法人员等重点群体法治学习培训，对外大力开展国防、人防宣传，擦亮国动宣教品牌。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>245</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>关于在我市大力发展氢能源示范项目的建议</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2020-11-04</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytazxtawfws/zwgkzdlyxxgkjytazxtawfwsgys/202011/t20201104_65006601.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['氢能源是一种世界公认的优质燃料，具有资源丰富、燃烧热量大等特点，是化石燃料以外的一种可持续发展的清洁能源。我国和美国、日本、加拿大、欧盟等都先后制定了氢能发展规划。2016年我国首次提出了氢能产业的发展路线图，并将其纳入国家能源战略；2019年，氢能源首次写入国务院《政府工作报告》；国家发改委等部门出台实施意见，在加强新能源生产使用和制造业绿色融合方面，将推动氢能产业创新、集聚发展，完善氢能制备、储运、加注等设施和服务；与此同时，我省六盘水市也已率先出台了《六盘水市氢能源产业发展规划(2019-2030年)》。 氢能源是下一代新能源的重要发展方向。氢能源是一种二次能源，它是通过一定的方法利用其它能源制取的，目前氢能源产业链包含上游的制氢、储存、运输；中游氢能源燃料电池制备；下游加氢站及燃料电池应用等各方面。氢能源产业的发展将会是带来又一次全新的产业升级，具有重要的战略意义。建议贵阳市将氢能源发展作为一项长远战略，大力发展示范项目，提前进行谋划布局。', '一、完善顶层设计，系统谋划发展。贵阳市产业基础较为薄弱，但拥有氢能制备所需的丰富煤电、水电资源，可围绕氢能产业生态链、氢能产业龙头企业，选取符合贵阳市产业基础和产业特点的氢能源发展方向，打造有竞争力的氢能源供应链与应用生态链，融合进入国家氢能源发展大规划中，将贵阳市打造成为氢能源产业链协同创新发展的重要环节。 二、强化对外开放，鼓励多方合作。目前我国已初步形成五大氢能产业集聚区，但在氢能源发展方面还存在诸多问题，特别是关键材料和核心技术还存在瓶颈，部份核心关键组件和制备工艺方面还跟国际存在较大差距，一些关键材料目前大都依靠进口且价格很高，基本上都是国外垄断。建议贵阳市以此为契机，以政策进行引导，加强对外开放合作，通过引进国外先进技术或与国外公司共同开发，提升氢能源相关核心技术水平；鼓励民营资本进入氢能源技术研发领域；制定新能源相关技术国际人才引进的优惠政策，吸引相关领域优秀国际人才，提高氢能源相关产业研发的整体水平。 三、整合优质资源，落地示范项目。氢能源产业属于新兴发展领域，包括绿色制氢产业和氢能基础设施项目，都属于尚未成熟的高风险投资领域。发展氢能源，营造良好的市场环境，建立有效的投融资机制，需要政府牵头进行示范引导。市政府可制定政策为绿色制氢创造可持续发展的市场条件，在具备可行性的基础上，提供部分政府采购项目，形成示范效应。', '贵委提出的《关于在我市大力发展氢能源示范项目的建议》收悉，感谢贵委对我市氢能源发展工作的关心。收到贵委的提案后，市政府、市政协高度重视，将此提案列为市政府副市长王嶒领衔督办件，并督促相关部门认真落实该提案的办理。现将办理情况答复如下：', '发展氢能产业，对于保障能源安全，推动能源生产利用方式变革、促进能源体系清洁低碳有重要意义。我市历来高度重视氢能产业发展，市委十届七次全会将氢能产业链纳入全市十大新兴产业链，并于2019年成立了以市政府副市长王嶒为链长，市发展改革委、市工业和信息化局、市投资促进局等部门以及各区（市、县）人民政府、有关市属单位等为成员单位的贵阳市氢能产业工作专班，负责全力推动产业发展。专班成立以来，组织各成员单位开展了考察调研、规划编制、招商对接等工作。', '为完善顶层设计，系统谋划产业发展，市氢能产业工作专班在对全市产业基础进行深入调研和对国内外先进地区考察学习的基础上，正在编制《贵阳市氢能产业发展利用规划（2020—2035）》，拟在《规划》中研究提出我市氢能产业发展方向、重点任务、保障措施。此外，专班还拟出台《贵阳市支持氢能产业发展若干措施》，提出氢能产业发展的资金、人才等要素保障政策。', '我市有一定氢能产业发展基础，但总体发展较为薄弱，关键材料和核心技术存在瓶颈与缺口，为提升产业发展水平、夯实发展基础，加强区域合作、引进先进地区的人才、技术、企业势在必行。一方面，我市积极引进国内外先进企业和先进技术。经开区已引入奥地利维也纳科技大学国际领先的生物质制氢技术，将在经开区建立一个生物质制氢项目；贵州海上丝路公司已与德国氢能时代公司签署合作协议，引进德国氢燃料电池技术在经开区建立固定式燃料电池生产基地；市领导与东方电气集团磋商洽谈，初步达成合作意向，拟于近期签署贵阳市政府与东方电气集团氢能产业合作协议，开展产业合作；专班也多次赴佛山、上海、苏州等地考察学习并同步开展招商对接工作。另一方面，积极推动区域间产业合作。目前，专班已与贵安新区、六盘水市接洽，拟在整车制造、氢源供应方面开展深化合作，进一步夯实产业发展基础、拓展发展空间的有效途径。', '目前，我市氢能源产业链建设将重点打造“贵阳（经开）氢能产业聚集区项目”，该项目为全产业链项目，在氢的制、储、配、用，氢能装备与燃料电池制造等环节均制定了实施计划，并结合示范区内氢能展示中心、大数据智能调度中心、安全监管中心和氢能创新技术研究及工程转化平台，为我市氢能示范核心区的招商引资、产业链补全、产业联动等注入新功能。下一步，我市将加大氢能产业项目包装储备和招商选资力度，引进一批优质氢能产业上下游项目，打造完整的氢能产业链。', '为进一步推动燃料电池汽车产业科学有序发展，国家财政部等五部委2020年9月印发了《关于开展燃料电池汽车示范应用的通知》，提出将当前对燃料电池汽车的购置补贴政策调整为燃料电池汽车示范应用支持政策，对符合条件的城市群开展燃料电池汽车关键核心技术产业化攻关和示范应用给予奖励。燃料电池汽车是氢能当前最主要的应用市场，是氢能产业发展的重要环节，燃料电池汽车推广应用对于带动制储氢、燃料电池制造等上下游产业链协同发展有重要促进作用。为抢抓示范申报机遇，我市正会同六盘水市等兄弟城市共同申报国家燃料电池汽车示范城市群，以燃料电池汽车带动上下游氢能产业提速发展。', '氢能产业作为新兴产业，在发展过程中还存在诸多问题。贵委提出的鼓励开放合作、加强人才引进、创新投融资机制等都是非常切实有效的建议和意见，市政府已责成工作专班认真参考，积极纳入进相关产业规划等文件，推进有关事宜早日落实，助力氢能产业取得突破发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>245</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>关于进一步改革完善医养结合工作的建议</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2020-11-10</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytazxtawfws/zwgkzdlyxxgkjytazxtawfwsgys/202011/t20201110_65118223.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['我国已进入老龄化社会，“未富先老”是我国老龄化的特点，而且老龄化发展速度非常快，老年人的医疗和养老衔接问题就显得尤为突出和迫切。十九大报告明确指出“推进医养结合，加快老龄事业和产业发展”。近年来，贵阳市作为全国养老服务业综合改革试点城市，积极推进养老服务工作，积极应对人口老龄化，出台《关于坚持人民健康优先发展战略全力推进健康贵阳建设的实施意见》，将《贵阳市全国养老服务业综合改革试点城市建设行动计划》和《贵阳市国家级医养结合试点单位建设行动计划》纳入“健康贵阳”整体推进，促使相关医保、医疗、养老等配套政策有效衔接，加快推进贵阳市医疗卫生与养老服务相结合工作，取得一定成效，但也存在一些不容忽视的问题。 一、基本情况 2014年8月和2016年9月，贵阳市分别被列入“全国养老服务业综合改革试点城市”和“第一批国家级医养结合试点单位”。目前，贵阳市60岁以上老年人有66.01万人，人口老龄化率16.2%，是全省老年化率较高的地区之一；60岁以上老年人参加城镇职工、城乡居民医保近61.3万人；全市共有128家养老机构，其中民办机构73家，共有21699养老床位，实际入住率达到45-50%，其中失能、半失能人员约占20-30%；养老机构中，获得医疗资格的养老机构有4家。据统计，贵阳市60岁以上常见大病中各类恶性肿瘤、慢性肾功能衰竭、器官移植抗排异治疗、白血病等贵阳市门诊大病共8种。慢性疾病常见有糖尿病、高血压、冠心病、慢性阻塞性肺病、帕金森病、支气管哮喘等11种。 二、需关注的问题 （一）统筹联动不顺畅。目前，政府负责养老方面工作的主要部门是民政部门，负责医疗方面工作的主要部门是卫健部门，负责医保报销方面工作的主要部门是医保部门。由于制度原因、行业差异、行政划分和财务分割等因素，且没有统一的医养结合机构专业资格准入标准，卫健、民政、人社等相关部门的优先优惠政策尚未实现有效衔接。 （二）统筹医保基金有风险。基本医疗保险是为补偿劳动者因疾病风险造成的经济损失而建立的一项社会保险制度。在医养结合工作中常常出现“医”“护”界限不清，医养结合中的护理费用没有从基本医疗保险支出中脱离出来，占用基本医疗保险基金支出，降低了基本医疗保险基金在疾病诊治中的使用效率，为基金筹资和平稳运行带来压力和负担。如果长期使用基本医疗统筹基金支付需要关注的弱势群体，如失能人员、失智人员、脑瘫儿童、残疾人等的长期护理费用，统筹医保基金将面临很大的挑战，具有不可持续性的风险。 （三）医保开通少不便捷。现贵阳市开通医保的民办机构数量不到6%。入住养老机构老人刷医保卡难是当前最棘手的问题，入住养老机构的老年人多为高龄老人、失能半失能老人，大多数老人都患有老年性疾病，需要长时间就医或康复治疗，而养老院未开通医保，导致老年人一旦患病就不得不往返于家庭、医疗机构和养老机构之间，增加了家庭和社会医疗护理的负担。 （四）优质医疗资源不足。贵阳市目前养老机构医生缺乏，特别是具有副高以上职称的医生欠缺。由于待遇、观念、择业等方面原因，养老机构享受医联体系统专家服务的人数不多，养老机构享受体制内医疗资源比较困难，同时，老年人护理和老年病专业人才尤其欠缺，全市具备专业资质护理人员不足5%，使得服务队伍专业化水平与入住老人的服务需求之间的矛盾日益凸显，缺乏优质医疗资源已成为制约医疗机构和养老机构协同发展的共同问题。', '二、几点建议 （一）进一步强化部门职责。建议强化各部门职责，民政部门要切实履行监督管理、行业规范、业务指导职责；卫健部门要将医养结合发展纳入社会发展规划；人社、医保部门要将有条件的养老机构纳入医养结合范畴；发展改革部门要将养老服务业发展纳入经济社会发展规划、专项规划和区域规划，将养老机构设施建设纳入各级发改部门基本建设投资项目计划并予以资助；财政部门要在现有资金渠道内对养老服务业给予财力保障；老龄工作机构要发挥综合协调作用，加强督促指导工作。同时，建立医养结合联席会议制度，推动养老、医疗、医保、社保等方面的协调发展，形成齐抓共管、整体推进的工作格局。 （二）进一步加大政策扶持。建议由卫健部门牵头，制定符合贵阳实际的医养结合机构准入标准，并纳入卫健部门管理，推进全市“国家级医养结合试点”工作；由医保部门牵头，逐步在医养结合养老机构开通医保，把护理、康复、医疗等服务费用纳入医保报销范围，对高龄、失能、失智老人适当放宽门诊医疗保险报销额度及比例，做好医保政策对医养结合的支持，完善医保有关政策措施，与医保政策有效衔接，总体上降低老年人医保支出压力。同时，建立协作机制，推进医疗卫生机构（包括中医特色诊疗机构）与养老机构的无缝对接，支持社会力量开办具有医疗卫生和养老服务资质和能力的医养结合机构，并同等享受医疗卫生和养老服务的优惠政策。 （三）进一步创新医养结合模式。建议针对老年人对基本医疗需求的不同，建立“四护一体化”医中有养、养中有医、医养签约、居家医养”的医养结合模式。探索建立以“以收定支、略有结余”为原则，根据基金收支预算，建立“总额控制、统筹管理、定额包干、节余奖励、超支不补”的结算管理办法，将基本医疗服务，包括慢性疾病的基础用药、基础治疗、常规检查、长期护理等医疗费用纳入包干范围，以解决老年人最为迫切的基本医疗护理需求。对“专科照护”、“院内照护”、“家庭照护”采取按床日包干的形式，“社区巡护”采取按人头包干的形式。四种照护模式均需制定基本医疗照护的流程，避免降低基本医疗照护水平，在优先保障失能、半失能老人基本医疗照护需求的同时，兼顾强化社区对慢性疾病及老年性疾病的管理，减少失能、半失能老人的并发症，达到降低参保老人的个人负担、降低医疗费用、提供医保基金有效使用率，促进不同级别医疗机构之间联动和共同发展，可持续性的实现“精准助力医养一体化”的目标。 （四）进一步探索建立长期护理保险。长期医疗照护保险是为因年老、疾病或伤残而需要长期照顾的被保险人提供护理服务费用补偿的保险。为了更好的推动医养结合，保障基本医疗保险基金安全，解决老龄化带来的一系列问题，建议加快探索建立第六个保险制度试点，即“长期护理保险”。建立长期医疗照护保险的专项基金，重点保障老年人尤其是失能、半失能老人长期医疗照护的问题，推动医养结合制度的可持续性开展，健全社会保障体系制度。 （五）进一步加快队伍建设。建议由教育部门牵头，在高等院校和职业技术学院增设养老服务和管理专业，加快培养老年医学、康复、护理、营养、心理和社会工作等专业人才。对医养结合机构医护人员在资格认定、职称评定、评先评优等方面，与医疗机构享受同等待遇。鼓励高校毕业生特别是医疗护理专业毕业生到养老服务机构就业。建立大学毕业生入职养老服务补助和养老护理员职业资格补助制度，提高养老护理人员工资福利待遇。对在养老机构就业的专业技术人员，执行与医疗机构相同的执业资格、注册考核政策，增强养老服务岗位吸引力。加大养老服务护理人员培训力度，通过多渠道、多形式培养养老服务人才，提高养老服务护理人员专业化水平。', '贵委提出的《关于进一步改革完善医养结合工作的建议》收悉，感谢贵委对我市医养结合工作的关心。收到该提案后，市政府、市政协高度重视，并督促相关部门认真落实该提案的办理。现将办理情况答复如下：', '2014年和2016年，贵阳市先后被确定为“全国养老服务业综合改革试点城市“和“第一批国家级医养结合试点单位”，市委市政府高度重视，加强顶层设计，强化各项措施，出台了《中共贵阳市委 贵阳市人民政府关于坚持人民健康优先发展战略全力推进健康贵阳建设的实施意见》（筑党发〔2017〕3号），将贵阳市医养结合纳入“健康贵阳”整体推进，不断满足养老多样化、多层次的需求，形成了以“居家为基础、社区为依托、机构为补充”的医养结合服务体系和以“公立、公建民营、民办公助、医养联合体”的医养结合多种经营模式。目前我市共有医养结合机构（具有养老资质和医疗资质）14个，医养结合床位2321张，医养结合机构人员数1175人，其中医疗服务人员751人，养老服务人员数424人。各级医疗机构为老年人提供挂号、就诊、取药、收费等就医便利服务。', '2020年，我市建立了贵阳市养老服务联席会议制度，由23家市直单位组成，贯彻落实党中央、国务院、省政府决策部署，统筹协调全市养老工作，研究解决养老服务重大问题；研究审议拟出台的养老服务法规和重大政策，部署实施养老服务改革创新重大事项；指导督促推动各地、各部门抓好养老服务工作任务落实。2020年贵州省十五部门出台《关于加快医疗健康服务和养老服务融合发展的实施方案》（黔卫健发〔2020〕4号），进一步促进医疗健康服务与养老服务融合发展。市卫健局牵头会同民政、医保、发改等部门草拟了《贵阳市加快推进医养结合实施方案》，进一步整合各部门资源，推动医养结合发展，《方案》正在报市政府审定过程中。', '（一）抓党建引领。凡有正式党员三人以上的医养结合机构，必须建立健全党组织。一是将党建工作与医养结合机构发展相结合，机构中党员服务人员“三亮”亮身份、亮标准、亮承诺，不断丰富服务内容和提高服务质量，充分发挥党员在机构中积极性和模范带头作用。二是坚持组织生活制度，根据机构中党员数，将机构中养老党员与机构内党员服务人员分成若干党小组，定期开展三会一课，邀请养老党员讲党史、讲党课，宣传党章、党纪，讲故事（在党的领导下自己的成长经历），不断丰富组织生活内容，实现养老党员“老有所学、老有所依、养有所养、老有所乐”。三是树立全身心服务的宗旨。在医养结合机构内倡导以人为本，关心、尊重、理解、爱护老年人，将其看成自己亲人，尽力满足需求，让老年人安心，让家庭放心。', '（二）抓机制创新。将部分政府建设的养老机构实行“公建民营”。整合社会资源，吸引民间资本投入开展医养结合，由专业的养老和医疗团队管理运营，提高服务质量，如我市云岩区中心养老院、乌当区中心养老院、花溪区麦坪镇中心敬老院、观山湖区中心敬老院、云岩区水东社区中西医结合医院、云岩区曦阳养老公寓均属“公建民营”模式。政府投入基础养老建设5.6亿元，拉动民间资本2.2亿元，投入养老设施装修、改扩建、医疗设施、设备购置，开展医养结合服务。该模式不仅充分发挥国有资产社会效应，更弥补了政府在资金和专业养老资源不足的问题。', '（三）抓部门联动。凡具备医养结合条件的机构，卫生健康部门和民政部门积极配合，相互协调，做到无缝对接。公立医疗机构建立医联体将医疗服务资源前移养老机构，二级以上医疗机构开设老年人科，为养老机构开通“绿色通道”。203家养老服务机构（含社区日间照料中心、农村幸福院），开设一级以上医疗机构的有10家，其余均设有医务室或卫生医疗点。同时，鼓励有条件的医疗机构开设养老服务，目前有8家医疗机构开设养老服务。此外，医保部门为医养结合示范单位开通绿色通道，市直相关部门按照职能抓好医养结合。', '（四）抓专业人才培养。加强政校企合作，由民政、学院、养老机构三方签订合作协议，民政部门提供养老人才需求，养老机构为学院老年康复提供实训基地，贵阳护理职业学院开设老年康复、护理专业，市属高校增设养老护工和社会工作者专业，为养老机构培训专业技术人才，并派驻师资指导养老机构的康复、护理等医疗服务管理，共同打造医养结合健康养老服务综合体，形成资源互补，共同发展的良好局面。如：云岩区民政局、贵阳护理职业学院、云岩区中心养老院签定合作协议，共同打造医养结合健康养老综合体。2016年以来，贵阳市卫生健康部门与民政部门每年要组织1—2批（次）医养结合培训，组织各区（市、县）分管领导、市直相关部门分管领导、医养结合工作人员、医养结合机构负责人及医护人员到广州、杭州、青岛考察学习和培训。目前，共培训专业人员1200余人，基本补齐医养结合人才短板。', '（五）抓服务延伸。在机构养老大多是失能、半失能或失智老人，我市99%老年人都以居家养老为主，如何为他们提供养老和医疗服务，卫健与民政部门作了积极探索。一是延伸养老和医疗服务进乡镇（社区），2020年已建成社区日间照料中心83个，实现了城市新型社区全覆盖，由社区卫生服务中心为日间照料中心提供医疗服务，指派专业医疗技术人员定期到日间照料中心开设健康、养生、康复、心理知识讲座，为日间照料中心提供慢病诊疗、治疗和管理，社区为居家老年人提供助餐、助浴及家政服务，使老年人不进养老院也可享受养老院的服务，同时又能照顾家庭，深受老年人的欢迎，如：云岩区延中社区、水东社区、中天社区、乌当区创新社区、修文县扎佐镇万江居委会。二是社区服务中心（乡镇卫生院）利用闲置床位，通过适老化改扩建后，向民政部门申办养老资质开展医养结合服务，辖区内老年人需要住养就近到社区卫生服务中心（乡镇卫生院），为其提供医养结合机构的服务。由社区卫生服务中心（乡镇卫生院）组建家庭医生团队，为辖区内65周岁以上老年人免费体检并建立健康档案，并通过广电、电信等视频对居家养老的老人进行健康咨询、健康指导、吃药提醒和监督，并可及时进行居家养老与机构养老转换。如：云岩区水东社区中西医结合医院、南明区铁建国际城社区、沙南社区等。加大对辖区高血压、糖尿病、风湿病等慢性病管理和高风险疾病管理，提高老年人晚年的生活质量。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>245</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>关于优化口岸营商环境提升贵阳市对外贸易便利化水平的建议</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2021-11-10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytazxtawfws/zwgkzdlyxxgkjytazxtawfwsgys/202111/t20211110_71609472.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['口岸作为内陆地区对外开放的窗口，是外贸进出口的主要通道，同时也是经济合作与交流的平台。贵阳市的口岸营商环境近几年来不断优化，但仍存在口岸单一、外贸进出口总体规模较小、产业基础较弱等问题。“十四五”期间，我们要紧扣党的十九届五中全会精神，抓住大力实施“强省会”五年行动机遇，着力推进贵阳贵安高质量发展，全力营造市场化法治化国际化营商开放环境，提升我市对外贸易便利化水平，更好的服务于全市、全省发展大局。 一、贵阳市口岸营商环境现状 （一）贵阳市对外贸易便利化水平 2020年1-11月，全市外贸进出口总额53.93亿美元，同比增长50.75%。预计全年完成54亿美元，同比增长51%。在口岸通关效率方面，贵阳海关进出口货物整体通关时间分别为17.04小时、0.63小时，排名分别位居全国第6位、第8位。在“单一窗口”使用方面，目前办理货物申报(报关、报检)及空运舱单业务已实现同期覆盖率100%。 （二）贵阳市口岸建设情况 一是2020年12月，贵阳改貌铁路口岸（海关监管场所）顺利通过运营验收，标志着贵阳对外开放通道建设取得重大突破。二是贵阳龙洞堡国际航空口岸快速发展。累计开通国际航线25条，国际通航城市24个。T3航站楼改扩建工程稳步推进，国际卫生机场创建成功。三是“一局四中心”（国际邮件互换局、保税物流中心型）、国际快件中心、国际货运中心及海关监管中心）建设有序推进，成为我国西南地区首个综合性口岸平台。 （三）高效通道物流体系初步构建 一是贵阳市已与重庆、成都、钦州、防城港等口岸城市签订区域合作协议，持续扩大“朋友圈”“交际圈”。目前已在贵阳农产品物流园设立东盟农产品贵阳分拨中心。二是陆海新通道班列班车建设持续深化。截至2020年11月底贵阳到发中欧班列326标箱。三是加快推进跨境贸易通道建设发展，正在积极筹划东盟国家进口农产品（水果）集散交易中心建设。 二、存在的主要问题 （一）口岸单一，多式联运体系建设亟待完善 目前贵阳市仅有一个对外开放一类航空口岸，缺乏公路、铁路等多种类立体化口岸协同规划布局，多式联运发展进程缓慢，导致口岸物流运输与外贸进出口量不匹配，通道促进贸易产业作用不明显。 （二）外贸进出口总体规模较小，货运补贴压力大 2020年1-7月外贸进出口总值 成都市 3898.3亿元 重庆市 3131.9亿元 长沙市 1223.2亿元 南宁市 535.7亿元 贵阳市 210.7亿元 从海关统计数据可以看出，与周边城市相比，贵阳市外贸进出口总体规模较小，与成都相比，尚不足其十分之一。长久以来，由于贵阳市外向型经济基础较差，进出口规模较小，截至目前尚未开通国际货运航线，导致我市大部分进出口货物外流，企业成本增加。此外，我市缺乏相应的航空货运发展的扶持政策，而周边成都市、重庆市、长沙市陆续出台航空货运政策，使各大企业、客户群体及货运销售代理人纷纷调整市场战略，给贵阳机场货邮吞吐量的提升带来一定的挑战。经初步测算，贵阳市开通1条东南亚及1条洲际航班货机，预计需要补贴资金约1.5亿元，市级财政压力较大。 （三）产业基础较弱 当前，我市制造业规模小，产业层次较低，贸易方式落后，新型消费比重低，对外贸易依存度远远低于全国平均水平。出口贸易多以资源型产品为主，附加值低，适合航空运输的高附加值货物总量小，货源分散，集货周期长。企业“走出去”对国际市场的开拓能力有待提升，急需要转型升级。', '（一）明确贵阳口岸发展定位 一方面，要发挥好地理区位优势，抢抓机遇，将贵阳口岸建设打造成为立足贵州、面向西部、辐射全国的区域性综合物流枢纽。明确航空、铁路口岸之间的差异化发展定位。另一方面，以顶层设计为统揽，做好物流枢纽等规划编制工作，推动运输便利化和大通关协作，逐步打造智能物流网络。 （二）推进口岸多式联运对接，强化区域联动 一方面，按照贵阳市高水平对外开放的总体要求，结合贵阳“贸易先行、以贸促工、工贸并进”发展路径，加快开通以改貌为集散地的货运班列，推动贵阳—北部湾、“黔新欧”班列常态化运行，研究开通航空货运包机，为实现打造中高端消费品贸易之城发展目标夯实基础。另一方面，加强与成都、重庆、昆明、南宁等兄弟城市及北部湾地区的交流与合作，以区域协同、产业联动、政策互补为原则，共建利益共同体，不断深化扩大贵阳口岸发展“朋友圈”，构建我市多式联运体系，形成以“黔新欧”和西部陆海新通道双向互济的全球物流配送体系。 （三）增强运营能力 一是培育壮大贵阳口岸运营主体，以本土平台公司为主体，积极招引国际货代、船公司、国际供应链、金融服务、物流大数据等方面的龙头企业共同参与贵阳口岸建设运营，增强口岸发展要素集聚加快形成口岸经济生态，努力实现贵阳口岸建设资源开发有序、运输服务保障有力、物流运营组织高效、区域协同机制创新的新格局。二是以运营项目为切入点，促进口岸通道发展，加快启动进口东南亚农产品集散平台等重点运营项目建设。 （四）加大口岸管理统筹力度 目前，贵阳仅有一个成立于2003年的外经贸口岸协调领导小组，无专人专职。作为一个议事协调机构，它更侧重于协调作用，难以发挥归口管理的作用。在市级相关部门的“三定”方案中也很难找到与口岸相关的工作职责。而省级层面，省政府口岸办为正处级单位，有数名行政编制的工作人员。因此，建议组建贵阳市口岸办，加大口岸工作的统筹协调力度。 （五）积极争取国家和省级的支持 一是国家层面，争取获得国家口岸办、发改委、铁路集团公司的支持，将贵阳作为立足全省、辐射西南的区域性综合物流枢纽进行发展定位，加大政策、资金、资源等倾斜力度。二是省级层面，争取设立口岸物流发展专项资金，对贵阳市在口岸基础设施建设，开通航空货运包机、铁路专列等方面给予政策资金支持，建立省市两级联动政策机制，按1:1资金比例两级匹配，形成合力加快推动口岸发展。', '贵委提出《关于优化口岸营商环境提升贵阳市对外贸易便利化水平的建议》的提案收悉。感谢贵委对我市对外开放工作的关心和支持。收到提案后，市政府、市政协高度重视，将此提案列为时任市委常委、市政府副市长陶平生领衔督办件，并督促有关部门认真落实该提案的办理。现将办理情况答复如下：', '近年来，贵阳市以“高标准要求、高水平开放、高质量发展”的总体要求，持续优化完善口岸开放体系，大力拓展国际战略通道，加快推进口岸物流高质量发展，支撑内陆开放型经济实验区的口岸物流体系基本形成。2020年，贵阳陆港型国家物流枢纽入选国家物流建设名单，我市正以此为重大战略机遇，努力将贵阳陆港枢纽打造为面向全球、辐射贵州，串接陆海新通道，联动成渝、滇中、粤港澳大湾区、长三角、北部湾等主要经济圈，全面融入“一带一路”和国家“枢纽+通道+网络”现代物流体系布局，西南地区重要的物流产业聚集发展高地、陆海新通道供应链组织中心和贵阳枢纽经济发展示范区。', '（一）持续深化顶层设计。一是充分借助第三方智库，携手中国集装箱行业协会完成了《贵阳西部陆海新通道产业联动发展》课题研究，为推动贵阳西部陆海新通道建设和通道产业发展提供思路和参考。二是市商务局委托国内知名智库北京亿邦动力公司编制了《贵阳市跨境电商高质量发展计划（2021—2023）》，目前已通过专家评审会。该文本主要为贵阳市跨境电商近3年的发展提供顶层设计和方向指引。', '（二）推进口岸设施建设。一是贵阳改貌铁路口岸项目。项目一期核心区主体已全部建成，通过海关验收，已达到开展海关业务条件；改貌铁路专用线已于2021年9月17日通过成都铁路局验收，正在申请专用线货运业务资质、产权变更、货品变更。二是“一局四中心”项目。国际邮件互换局已获批成立并正式开通运营；保税物流中心（B型）、国际快件中心、国际货运中心及海关监管中心全面启动建设，将与机场三期同步投入使用；已启动5个进境指定口岸申报工作，将与“一局四中心”项目同步建成投用。三是大力完善综保区口岸功能。贵阳综保区围网区二期围网基本完成，正大力推进厂房建设和招商入驻工作。都拉营国际物流港项目一期已全部完工通过竣工验收并投入运营。', '（三）推进贸易通道建设。积极推动改貌海关监管场所班列开行，制定了《关于推进改貌铁路海关监管区运营发展的工作方案》，组建了改貌海关监管场所铁路班列工作专班，多次组织省多式联运、市铁投集团、贵州轮胎、贵州商储等重点外贸企业和物流企业召开专题会议，研究贵阳始发中欧班列、南向班列可行性。多次组织市铁投集团等赴赣州、天津等地考察学习口岸建设运营经验，市铁投公司已与省多式联运公司、中远海运集团（贵州）、贵州商储集团等达成合作意向，将进一步完善运营主体，按照先合作、树品牌、常态化、成集散的实施路径，探索开通贵阳南下班列。目前，正在开展南向班列运行成本测算和运营方案制定工作。', '（四）打造贵阳进口农产品集散交易中心。为充分借助西部陆海新通道优势赋能进口农产品贸易流通，打造贵阳市进口农产品集散中心，我市于2020年9月26日在贵阳农产品物流园成功举办了“贵阳市东盟进口农产品嘉年华”活动，助力贵州农产品和东盟优质水果“走出去”和“引进来”。', '（五）不断优化营商环境。一是对全市56家重点外贸企业实行服务包保责任制，围绕企业用工、融资、法律援助、跨境物流等方面进行跟踪服务。二是组织开展了2次RCEP政策解读培训班，为14个区（市、县、开发区）商务主管部门及50家重点外贸企业提供培训，共培训200余人次，助力企业开拓RCEP市场。三是组织召开2次“银企对接会”，帮助外贸企业缓解融资难题。', '我市将以目标为导向，以更实更细更好的工作举措，推进口岸物流建设工作，加快打造成为全省内陆口岸开放新高地。', '（一）深化高效跨境物流体系建设。以顶层设计为统揽、多式联运为途径、枢纽建设为支撑，着力打造西部地区重要陆地港口和重要进出口货物集拼、分拨及中转中心。一是以贵阳龙洞堡国际机场三期建设为抓手，打造智慧空港，加快推进全货机服务落地。二是推进双龙——改貌综合物流枢纽区建设，加快改貌铁路海关监管区、“一局两中心”、都拉营国际陆海通物流港建设运营。三是以区域协同、产业联动、政策互补为原则，加强与中欧班列、西部陆海新通道进出境口岸港口合作，共建区域口岸利益共同体。', '（二）进一步增强口岸运营能力。一是指导贵州双龙航空港经济区、改貌铁路海关监管区申报肉类、水果、冰鲜、植物种苗、木材、食用水生动物等进境指定监管口岸，支撑口岸发展。二是积极争取铁路、港口等各方政策支持，整合贵阳、贵安进出口货物资源，适时开通国际航空货运包机和贵阳始发国际货运班列。三是强化部门联动，进一步统筹市直有关部门的职能职责，形成对外开放“一盘棋”的发展格局；加强与省商务厅、省口岸办、贵阳海关等省直部门的沟通对接，共同做好服务企业工作，不断优化口岸营商环境。', '（三）推进贵阳贵安口岸协同融合发展。统筹贵阳、贵安综合物流枢纽功能发展，引导贵阳改貌、都拉营和贵安湖潮铁路物流差异化发展，逐渐形成贵州省进出口货物集拼集运中心，构建一体化口岸物流体系。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>245</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>贵阳市城乡规划局年度部门决算</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2017-08-07</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/szrzyhghj_5624402/202001/t20200116_43359635.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['一、贵阳市城乡规划局概况 （一）主要职能 1.贯彻执行城乡规划法律、法规、规章及有关方针、政策，结合本市实际，研究拟订有关城乡规划管理的地方性法规、规章和政策措施，并组织实施。 2.负责承办市域城镇体系规划、城市总体规划、近期规划的组织编制、审查、报批、修改及实施情况评估过程中的相关工作；组织控制性详细规划、重要地块修建性详细规划的编制、审查、报批、修改及各类规划公示、公布等工作；参与经济与社会发展规划及各项专业规划的编制、审查、报批及修改工作。 3.负责规划区范围内各类建设项目选址、建设用地规划许可、建设工程规划许可、乡村建设规划许可、建设工程规划竣工核实认可，改变房屋使用性质，开矿采石、挖砂取土等改变地形地貌活动的规划审查、审批，核发相关规划许可证。 4.负责管理全市规划编制设计和测绘成果，加强对规划编制设计和测绘单位的监督，依法查处违反城乡规划法律、法规的行为。 5.负责全市历史风貌保护区、历史文化名镇、名村、优秀历史建筑和市级以上历史文物古迹、风景名胜区、水源保护区的规划管理工作。 6.负责有关规划法制建设和行政复议、行政诉讼应诉、信访应访工作。 7.负责全市城市规划展示、城市规划信息系统的规划、组织与管理工作。 8.指导、协调和监督所属分局及各县（市）的规划管理工作。 9.承担市城乡规划建设委员会办公室的日常工作。 10.承办市委、市人民政府和上级业务部门交办的其他事项。 （二）机构设置及部门决算单位构成 本单位（部门）内设11个处室，下属13个单位。从预算单位构成看，贵阳市城乡规划局部门决算包括：本级决算、所属贵阳市城乡规划局白云分局、云岩分局、南明分局、花溪分局、乌当分局、观山湖分局、经开分局、规划监察支队、规划信息中心、规划展览馆决算。 二、贵阳市城乡规划局2016年度部门决算公开报表（见附表） 三、贵阳市城乡规划局2016年度部门决算情况说明 （一）贵阳市城乡规划局2016年度收入支出决算总体情况说明 贵阳市城乡规划局2016年度收支决算总计23,649.43万元，与2015年相比，增加9,130.36万元，增长62.89%。主要原因是：基本支出（商品和服务支出）增加158.3万元，项目支出（规划展览馆一期回购款）增加11572万元，年初结余减少2448.76万元，信息服务中心收入减少113.25万元。 （二）贵阳市城乡规划局2016年度收入决算情况说明 本年收入合计22,700.08万元，其中：财政拨款收入21,227.42万元，占93.51%；上级补助收入0万元，占0%；事业收入0万元，占0%；经营收入1,185.25万元，占5.22%；附属单位缴款0万元，占0%；其他收入287.42万元，占1.27%。 （三）贵阳市城乡规划局2016年度支出决算情况说明 本年支出合计22,476.71万元，其中：基本支出2,629.55万元，占11.7%；项目支出18,998.62万元，占84.53%；上缴上级支出0万元，占0%；经营支出848.54万元，占3.78%；对附属单位补助支出0万元，占0%。 （四）贵阳市城乡规划局2016年度财政拨款收入支出决算总体情况说明 贵阳市城乡规划局2016年度财政拨款收支决算总计21,927.52万元。与2015年相比，增加9,222.27万元，增长72.59%。主要原因是：项目支出（规划展览馆一期回购款）增加11572万元，年初结余减少2448.76万元。 （五）贵阳市城乡规划局2016年度一般公共预算财政拨款支出决算情况说明 1、一般公共财政拨款支出决算总体情况 贵阳市城乡规划局2016年度一般公共预算财政拨款支出9,825.39万元，占本年支出合计的43.71%。与2015年相比，一般公共预算财政拨款支出减少1,978.91万元，降低16.76%。主要原因是：规划展览馆公共预算拨款项目支出减少2093.86万元。 2、一般公共预算财政拨款支出决算结构情况 贵阳市城乡规划局2016年度一般公共预算财政拨款支出主要用于以下方面：城乡社区支出（类）城乡社区管理事务（款）行政运行（项）支出 2378.22万元，占10%；城乡社区支出（类）城乡社区管理事务（款）一般行政管理事务（项）支出294.77万元，占1%；城乡社区支出（类）城乡社区管理事务（款）机关服务（项）支出90.72万元，占0.41%；城乡社区支出（类）城乡社区管理事务（款）其他城乡社区管理事务支出（项）支出2207.08万元，占10.2%；城乡社区支出（类）城乡社区规划与管理（款）城乡社区规划与管理（项）支出4979.16万元，占23.02%；城乡社区支出（类）城乡社区公共设施（款）其他城乡社区公共设施支出（项）支出104.28万元，占0.48%；城乡社区支出（类）城市公用事业附加及对应专项债务收入安排支出（款）其他城市公用事业附加安排支出11572万元，占53.5%；城乡社区支出（类）其他城乡社区支出（款）其他城乡社区支出1.95万元，占0%。 3、一般公共预算财政拨款支出决算具体情况 贵州省贵阳市城乡规划局2016年度一般公共预算财政拨款支出当年预算为9427.05万元，支出决算为 21628.17万元，完成当年预算的229 %。决算数大于预算数的主要原因是：项目支出（规划展览馆一期回购款）增加11572万元。其中： （1）城乡社区支出（类）城乡社区管理事务（款）行政运行（项）工资福利支出当年预算为1510.74万元，支出决算为1660.72万元，完成当年预算的109%。决算数大于预算数的主要原因是：工资福利支出增加149.98万元。 （2）城乡社区支出（类）城市公用事业附加及对应专项债务收入安排支出（款） 其他城市公用事业附加安排支出（项）当年预算为0万元，支出决算为11572万元。决算数大于预算数的主要原因是：项目支出（规划展览馆一期回购款）增加11572万元。 （六）贵阳市城乡规划局2016年度一般公共预算财政拨款基本支出决算情况说明 贵阳市城乡规划局2016年度一般公共预算财政拨款基本支出2,398.77万元，其中：人员经费2,130.09万元，主要包括基本工资、津贴补贴、离退休费等；公用经费268.68万元，主要包括办公费、水电费、差旅费等。 （七）贵阳市城乡规划局2016年度一般公共预算财政拨款“三公”经费支出决算情况说明 2016年度“三公”经费一般公共预算财政拨款支出决算36.36万元，比上年减少54.59万元，降低60.03%，减少原因是公务用车运行维护费减少。其中，因公出国（境）费支出9.49万元，占26.1%，比上年增加9.49万元，增长100%，增加原因是赴德国参加第七届国际工业遗址及德国进行工业资产保护交流；赴美国参加城市综合体智慧建筑技术与应用专题培训；赴韩国进行城市交通组织和智能交通管理考察学习。公务用车购置及运行维护费支出25.77万元，占70.87%，比上年减少63.25万元，降低71.05%，减少原因是公务车改革；公务接待费支出1.1万元，占3.03%，比上年减少0.83万元，降低43.07%，减少原因是其他城市来我局考察调研批次减少。具体情况如下： （1）因公出国（境）费支出9.49万元。贵州省贵阳市城乡规划局全年使用一般公共预算财政拨款安排的出国（境）团组3个，累计3人次。开支内容包括：赴德国参加第七届国际工业遗址及德国进行工业资产保护交流；赴美国参加城市综合体智慧建筑技术与应用专题培训；赴韩国进行城市交通组织和智能交通管理考察学习。 （2）公务用车购置及运行维护费25.77万元,其中，公务用车购置0万元，公务用车运行维护费25.77万元。主要用于车辆维修、保险、油料等。2016年，单位开支财政拨款的公务用车保有量为10辆。 （3）公务接待费1.1万元。具体是： 国内公务接待支出1.1万元，主要是其他省市政府、规划部门来我局考察调研等。贵州省贵阳市城乡规划局2016年国内公务接待8批次，76人次。 （八）政府性基金预算收入支出决算情况说明 贵阳市城乡规划局2016年政府性基金预算财政拨款本年收入11,625.18万元，本年支出11,572万元。具体支出情况如下： 城乡社区支出（类）城市公用事业附加及对应专项债务收入安排支出（款）其他城市公用事业附加安排支出（项）财政拨款支出11572万元，主要是用于项目支出（规划展览馆一期回购款）。 （九）其他重要事项的情况说明 1、机关运行经费支出情况。 2016年贵阳市城乡规划局机关运行经费支出248.23万元，比2015年增加88.21万元，增长55.13%，主要原因是车改以后其他交通费用增加。 2、政府采购支出情况。 2016年贵阳市城乡规划局政府采购支出总额4056.72万元，其中：政府采购服务支出4056.72万元，授予中小企业合同金额4056.72万元，占政府采购支出总额的100%， 3、国有资产占用情况。 截至2016年12月31日，贵阳市城乡规划局共有车辆30辆，其中，一般公务用车20辆、一般执法执勤用车0辆、特种专业技术用车0辆、其他用车10辆（其他用车主要是：规划监察用车）；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。 4、预算绩效管理工作开展情况 （1）项目绩效评价工作开展情况，进一步完善绩效管理工作，做好项目绩效目标、支出绩效评价等工作。 （2）绩效评价工作使我局的规划编制成果更好的应用于贵阳市城市的规划工作。 四、名词解释 (一)财政拨款收入：指同级财政当年拨付的资金。 （二）上级补助收入：指事业单位从主管部门和上级单位取得的非财政补助收入。 （三）事业收入：指事业单位开展专业业务活动及其辅助活动所取得的收入。 （四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。 （五）附属单位缴款：指事业单位附属的独立核算单位按有关规定上缴的收入。 （六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。 （七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 （八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （九）结余分配：反映单位当年结余的分配情况。 （十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 （十二）项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 （十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。 （十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。 （十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 （十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。 （十七） 行政运行：反映行政单位（包括实行公务员管理的事业单位）的基本支出。 （十八）一般行政管理事务：反映行政单位（包括实行公务员管理的事业单位）未单独设置项级科目的其他项目支出。 （十九）机关服务：反映为行政单位（包括实行公务员管理的事业单位）提供后勤服务的各类后勤服务中心、医务室等附属事业单位的支出。 （二十） 其他城乡社区管理事务支出：反映政府城乡社区管理事务支出中的其他用于城乡社区管理事务方面的支出。 （二十一）城乡社区规划与管理：指反映城乡社区、名胜风景区、防灾减灾、历史名域规划制定与管理等方面的支出。 （二十二） 其他城乡社区公共设施支出：反映其他用于其他城乡社区公共设施方面的支出。', '（二十三）其他城市基础设施配套费及对应专项债务收入安排的支出：反映其他城市基础设施配套费方面的支出。 （二十四）其他城市公用事业附加安排支出：反映城市公共设施、城市环境卫生、公有房屋、城市防洪项目以外的城市公用事业附加支出。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>245</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>关于满足游客舌尖上的需求实现我省旅游经济效益的提升的建议</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytazxtawfws/zwgkzdlyxxgkjytazxtawfwsqs/202208/t20220805_75980075.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['中共贵州省委、贵州省人民政府印发了《关于推动旅游业高质量发展加快旅游产业化建设多彩贵州旅游强省的意见》，要求着力推进全域旅游示范省建设，加快形成全域旅游发展新格局，各级党委政府围绕“两大提升”“四大行动”，把旅游产业化放在更加突出的位置，推进多彩贵州旅游强省建设。贵州旅游具有自然及人文环境独特，开发潜力大；气候条件优越，四季皆可旅游；贵州旅游可以是以独特自然风光为主的风景游、以少数民族文化为主的苗寨游、以革命历史为主的红色旅游，文化、历史、自然相互结合的旅游概念丰富了游客的综合体验。', '中共贵州省委、贵州省人民政府印发了《关于推动旅游业高质量发展加快旅游产业化建设多彩贵州旅游强省的意见》，要求着力推进全域旅游示范省建设，加快形成全域旅游发展新格局，各级党委政府围绕', '，把旅游产业化放在更加突出的位置，推进多彩贵州旅游强省建设。贵州旅游具有自然及人文环境独特，开发潜力大；气候条件优越，四季皆可旅游；贵州旅游可以是以独特自然风光为主的风景游、以少数民族文化为主的苗寨游、以革命历史为主的红色旅游，文化、历史、自然相互结合的旅游概念丰富了游客的综合体验。', '同时，我省要实现旅游综合实力和经济效益的大提升，将资源优势转化为经济优势，实现旅游GDP和人均消费翻番的目标，旅游业存在提供的旅游多元化不足，产业化效应不强，入境入黔的游客逗留时间短、人数少、消费低的困境。破解这一困境的方式，需要让入境入黔游客有全方位的旅游、休闲、度假体验，不仅来了还要逗留；不仅逗留更乐意消费。', '同时，我省要实现旅游综合实力和经济效益的大提升，将资源优势转化为经济优势，实现旅游', '满足游客“舌尖上的需求”，贵州的酒，飘香全国。可我们的餐饮业数量有限，用餐环境和服务接待能力均有待提升，性价比方面有待提升。打造黔菜中高端餐饮，培养黔菜烹饪人才，推广宣传黔味佳肴。 我省的各地区甚至各县区都有自己的特色小吃，例如安顺，地道小吃主要集中在老城区的儒林路-顾府街一带，黄果树大街旁的好吃街是近年来政府打造的美食街，引进了不少原先老城区的老字号小吃。作为省会城市的贵阳，可以具有全省小吃的集大成的优势，汇聚全省名优小吃。肠旺面、花溪牛肉粉都可以借鉴丝恋丝娃娃的成功打造经验。 贵阳的小吃数量虽多，但并不吸引游客游走街头巷尾寻访美味。不仅在知名度方面进一步推广宣传，店面还有规范和改进的空间，被戏称为“苍蝇馆子”，卫生条件差、装修很简陋。游客感觉不放心，肯定不愿意消费。如果每年按星级评选出顾客光临人数多、满意度高的小店，店面挂上评选招牌，在税收、资金和宣传上给予扶持，相信生意会越来越好。 贵阳市打造了大同街、陕西路、二七路、青云路等小吃街，还可以借助有些街道现有的夜市基础，加以合理的改造支持。如师大附近、大南门周边、红边门到友谊路都有基础提升现有的小吃品牌。 整治以上区域的人行道路，卫生、顺畅、安全通行，让游客有一个舒适的大街小巷的游走体验。 实施餐饮市场的主体培育，让“舌尖上的需求”提质增效，让四方的游客不仅选择游览多彩贵州的同时，满足游客“舌尖上的需求”，走街串巷寻找餐饮的同时，更多的认识了解贵阳的风土人情和历史文化，打造游客多逗留愿消费的新局面。', '，贵州的酒，飘香全国。可我们的餐饮业数量有限，用餐环境和服务接待能力均有待提升，性价比方面有待提升。打造黔菜中高端餐饮，培养黔菜烹饪人才，推广宣传黔味佳肴。 我省的各地区甚至各县区都有自己的特色小吃，例如安顺，地道小吃主要集中在老城区的儒林路-顾府街一带，黄果树大街旁的好吃街是近年来政府打造的美食街，引进了不少原先老城区的老字号小吃。作为省会城市的贵阳，可以具有全省小吃的集大成的优势，汇聚全省名优小吃。肠旺面、花溪牛肉粉都可以借鉴丝恋丝娃娃的成功打造经验。 贵阳的小吃数量虽多，但并不吸引游客游走街头巷尾寻访美味。不仅在知名度方面进一步推广宣传，店面还有规范和改进的空间，被戏称为', '，卫生条件差、装修很简陋。游客感觉不放心，肯定不愿意消费。如果每年按星级评选出顾客光临人数多、满意度高的小店，店面挂上评选招牌，在税收、资金和宣传上给予扶持，相信生意会越来越好。 贵阳市打造了大同街、陕西路、二七路、青云路等小吃街，还可以借助有些街道现有的夜市基础，加以合理的改造支持。如师大附近、大南门周边、红边门到友谊路都有基础提升现有的小吃品牌。 整治以上区域的人行道路，卫生、顺畅、安全通行，让游客有一个舒适的大街小巷的游走体验。 实施餐饮市场的主体培育，让', '，走街串巷寻找餐饮的同时，更多的认识了解贵阳的风土人情和历史文化，打造游客多逗留愿消费的新局面。', '赵小帆委员提出《关于满足游客“舌尖上的需求” 实现我省旅游经济效益的提升的建议》已收悉。我市会办意见如下：', '贵阳作为省会城市，拥有全省体量最大的餐饮终端消费市场，餐饮企业数量、销售额均占全省首位。随着经济社会快速发展，特别是强省会战略的推进实施、疫情的有效防控及餐饮行业复工复产的有序开展，政府及时出台引导消费市场回暖各项扶持政策，持续深入推进餐旅融合，餐饮业拉动贵阳旅游经济、促进社会发展优势效应日益凸显。', '（一）挖掘传统资源，宣传培育餐饮品牌。近年来，我市餐饮协会多次组织行业专家和餐饮文化研究人员对贵阳地方特色餐饮、小吃进行搜集和整理，编辑相关饮食典籍，2017年在贵厅组织推动下，我市积极配合参与，开展了“寻味黔菜”考察宣传活动，编撰了《中国黔菜大典》；深入挖掘、鼓励老字号餐饮商家申报“中华老字号”与“贵州老字号”；整合各类相关引导资金扶持餐饮品牌企业，大力发展连锁经营与品牌建设；我市从2006年起每年都举办各类餐饮评比展示及美食节活动，促进餐饮企业交流，其中，2017年，我市举办了“大美黔菜展示品鉴推广活动”，由省组委会评选出大美黔菜“最受欢迎菜品”及“名小吃”80余道，获得省市领导及市民的肯定与好评。2021年，我市成功举办“第七届国家钻级酒家年会暨贵阳餐饮产业招商推介会”，全国餐饮龙头企业负责人及专家600余人出席，对激发消费活力，增强餐饮市场信心，推动强省会战略具有积极而重要的意义。', '（二）着力平台培育，打造更具活力的市场环境。深入推进振兴商贸“百场千店万铺”攻坚行动计划，加快“两轴五圈多点”的商业布局，形成了43个大型城市综合体，7条商业步行街，3个夜间经济示范区的现代商贸产业体系，为餐饮业发展提供了巨大的市场机遇。餐饮业的积极融入，也为各大商圈提供了巨大的人流、物流、资金流，形成商贸和餐饮良好的互动。如泉上餐饮落户观山湖区CCPARK，打造人气网红商业步行街；雅园全力打造“青云市集”，力争打造全省夜间餐饮消费转型升级的范本。', '（三）开展技能培训，培育传承人才，提高餐饮从业人员业务素质。全市相关部门用足用活各类培训政策，如人社部门的技能培训及就业等专项资金及工信部门的小微企业创业创新基地城市示范中央财政资金，抓好餐饮服务和烹饪从业人员的岗前培训、在职培训、职业技能鉴定及创业创新等工作。贵阳市餐饮协会及贵阳市饮食服务商会多年来对餐饮服务单位的厨师队伍开展了各类培训与技能比赛，并组织派遣从业人员到餐饮发达地区如广州、上海、成都等地考察学习，从而培养一批高素质的专业人才和复合型人才。', '（四）着力培育中高端消费，推进餐饮业供给侧结构性改革。随着市场环境的改善，让贵阳特色餐饮与国内品牌融合发展，打造丰富多彩的饮食文化。一是黔菜餐饮品牌加快布局。泉上、醉苗乡、老凯里、雅园等各大餐饮品牌加快布局，在中高端餐饮消费上推陈出新，成为各大城市综合体的人气招牌，怪噜饭、包整、丝恋等特色小吃火爆全城。二是培育提升传统老字号和黔菜品牌店。培育打造了雅园、雷家豆腐圆子、醉苗乡、周记坝上人家等4家餐饮企业为“贵州省老字号”。积极组织餐饮企业参加全国酒家酒店等级评定委员会“国家钻级酒家”评选活动。目前，贵州省“国家钻级酒家”企业有43家，贵阳市就有38家，其中还涌现出鸿福盛宴、鸿福喜玛拉雅等“国家白金五钻级酒家”。三是国内餐饮连锁品牌纷纷入驻。近两年来，我市引进星巴克臻选、川西坝子、九田家烤肉、上合花园、凤厨海鲜、寻味顺德、顺昕楼等50多家国内知名餐饮品牌，喜茶、奈雪、鲍师傅、去茶山等网红潮品店也纷纷进驻贵阳。', '（五）聚焦安全卫生环境，打造特色小吃。以创建国家食品安全示范城市为抓手，扎实有序开展日常监督检查和各项专项整治工作。为提升人民群众、旅客对食品的安全感、幸福感，我市印发《贵阳市市场监管局关于开展“随机查餐厅”行动实施方案》，邀请人大代表、政协委员、食品安全协管员、消费者等与执法人员进行联合检查，营造食品安全卫生社会共治氛围。2021年共开展16次随机查餐厅活动，检查数量53家，共计有102名各界人士参加。为进一步完善游客和市民“舌尖上的需要”，2021年我市围绕节假日旅游景区开展食品安全专项整治和保障服务，制定《贵阳市市场监督管理局关于开展涉旅餐饮食品安全专项检查工作方案》，重点检查肉及肉制品、食用菌等食品质量安全，严厉打击景区食品欺诈、虚假宣传、无证经营等违法违规行为，共检查涉旅餐饮服务单位4357家次，出动执法人员3736人次，责令整改145户，立案查处3件，罚没金额2.6050万元。', '下一步，我市将以发挥省会城市优势、引进知名品牌、提升消费层级、补齐存在短板、丰富市场供给、传承和弘扬黔菜文化、形成多元化消费结构、促进行业高质量发展为目标，采取以下工作措施：', '（一）促进黔菜发展，发掘传统品牌。支持餐饮行业协会、餐饮龙头企业推进黔菜创新改良，研发适应省外乃至国外不同地域消费者习惯和口味的菜品，推进餐饮商品化发展，指导醉苗乡、雅园、泉上等企业开发真空包装食材、汤底及调味品等商品，拓展销售增长点和市场占有率。积极组织黔菜餐饮企业申报国家钻级酒家，打造更多更好的黔菜品牌。坚持保护与发展并重、继承与创新并举的原则，开展餐饮老字号评定工作，鼓励餐饮企业升级改造，传承和弘扬餐饮老字号优秀文化。', '（二）发挥政策优势，加大品牌引进。积极发挥政策引导作用，强化市场主体培育，加快推动特色步行街、商业综合体和商圈建设，大力开展餐饮行业招商，吸引国际国内知名餐饮品牌入驻，形成餐饮市场主力军。重点强化对南明区青云市集的指导，汇集贵州本土餐饮品牌及名优特色小吃，并引进省外知名小吃品牌，打造全省夜间餐饮消费升级提质的范本，做实做强“美食之都”，增强“吃在贵阳”的影响力。目前我市联络了粤菜、鲁菜、苏菜、徽菜等协会负责人员，准备在我市相关招商政策出台后，到各地进行招商推介。', '（三）大力宣传推介，完善消费引导。一是积极引导协调相关媒体资源，通过传统媒体、网络媒体、户外外宣、展会、旅游宣介等渠道向省内、国内、国际推广，配合《寻味贵阳》专题片的拍摄和播放，做好我市餐饮行业对外宣传和推介，有针对性地打造美食集聚区，加大黔味佳肴展示。二是鼓励餐饮企业走出去，积极参加省内外美食交流活动，扩大贵阳美食知名度和影响力，了解行业发展动态和趋势，增强创新发展意识。积极组织餐饮企业开展美食节、购物节等促销活动，活跃餐饮消费，促进餐饮业实现较好增长。三是完善旅游消费体中饮食业态引导，在旅游消费体中充分考虑游客餐饮消费需要，将满意度高、品牌性好的网红餐饮点纳入精品旅游线路考虑范围。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>245</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>贵州省贵阳市残疾人联合会年度部门决算</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgyscjrlhh/202002/t20200220_50349836.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['贵州省贵阳市残疾人联合会是将残疾人自身代表组织、社会福利团体和事业管理机构融为一体的残疾人事业团体，履行“代表、服务、管理”职能，由市政府领导同志联系。其主要职责是：', '团结、教育残疾人遵纪守法，履行应尽的义务，发扬乐观进取精神，自尊、自信、自强、自立，为社会主义建设贡献力量。', '弘扬人道主义，宣传残疾人事业，沟通政府、社会与残疾人之间的联系，推动社会理解、尊重、关心、帮助残疾人。', '对区（市、县）残疾人联合会领导班子的调整配备提出建议或意见，做好领导干部的业务培训工作。', '组织残疾人劳动就业。管理残联系统的残疾人福利企业，会同有关部门制定并实施残疾人福利企业的扶持保护政策。对残疾人福利企业中的残疾人就业状况进行监督。', '本单位（部门）内设6个处室，下属3个全额拨款事业单位。从预算单位构成看，贵州省贵阳市残疾人联合会部门决算包括：本级决算、所属贵阳市残疾人就业服务部、所属贵阳市残疾人康复教育培训中心和所属贵阳市残疾人康复托养中心决算。', '年度“三公”经费财政拨款支出预算为16.64万元，支出决算为10.63万元，决算数小于预算数，主要原因是公务用车运行维护费支出和公务接待费支出减少。', '全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计1人次。开支内容包括：去台湾考察学习费用。', '万元。主要用于车辆油费、过路费和保养费等。2018年，单位开支财政拨款的公务用车保有量为6辆。', '其他支出（类）彩票公益金及对应专项债务收入安排的支出（款）用于社会福利的彩票公益金支出（项）财政拨款支出75.06万元，主要是用于残疾人运动会（锦标赛）及运动队集训项目经费。', '其他支出（类）彩票公益金及对应专项债务收入安排的支出（款）用于残疾人事业的彩票公益金支出（项）财政拨款支出482.06万元，主要是用于2018年盲人读屏软件购置、残疾人体育及补助基层残疾人文化经费、2017年残疾人事业发展补助资金（中央专项彩金）、康复医疗设备采购、空调采购安装项目等 。', '截至2018年12月31日，贵州省贵阳市残疾人联合会共有车辆6辆，其中，主要领导干部用车0辆、机要通信用车0辆、应急保障用车0辆、执勤执法用车0辆、特种专业技术用车2辆、离退休干部用车1辆、其他用车3辆（其他用车主要是：一般公务用车）；单位价值50万元以上通用设备2台（套），单位价值100万元以上专用设备3台（套）。', '根据财政预算管理要求，我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计46个项目进行了绩效自评，涉及资金3088万元，自评覆盖率达到100%。', '按照运动会工作方案及市组团参赛方案开展具体筹备工作，通过招投标形式开展运动队集训工作并如期完成，在省六届残运会上取得了第一名的好成绩', '根据年初设定的绩效目标，本项目已完成部分目标任务，自评得分为95分。发现的主要问题及原因：因预算金额与评审金额不一致；导致项目预算执行未达到100%；', '通过举办全市11届残运会主要形式，选拔出参赛运动员后，组织各残疾人单项运动队开展集训参加全省六届残运会', '按照运动会工作方案及市组团参赛方案开展具体筹备工作，通过招投标形式开展运动队集训及参赛工作，在省六届残运会上取得了第一名的好成绩', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为90分。发现的主要问题及原因：由于康复门诊业务未能开展，采购的康复医疗设备未投入使用。', '购置医疗专用设备，为智力、肢体、精神等残疾人进行诊断及康复。提高为残疾人服务水平。', '完成一批医疗专用设备采购，将用于康复人员诊断及康复工作，提高中心的硬件水平，更好为需康复和托养的残疾人服务。', '不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（二十五）其他支出（类）彩票公益金及对应专项债务收入安排的支出（款）用于体育事业的彩票公益金支出（项）：', '）其他支出（类）彩票公益金及对应专项债务收入安排的支出（款）用于残疾人事业的彩票公益金支出（项）：']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>245</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>贵州省贵阳市食品药品监督管理局年度部门决算三公经费决算信息</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2016-08-08</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/scjgj/202001/t20200116_43376510.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['贵州省贵阳市食品药品监督管理局2015年度部门决算、“三公”经费决算信息 - 贵阳市人民政府', '1、贯彻实施国家和省、市有关食品（含食品添加剂、保健食品、酒类，下同）安全、药品（含中药、民族药，下同）、医疗器械、化妆品监督管理的法律法规和方针政策。2、参与起草食品安全、药品、医疗器械、化妆品监督管理的地方性法规、规章草案，拟定相关政策、规划并监督实施，推动建立食品安全企业主体责任、全市各级人民政府负总责的机制，建立食品药品重大信息直报制度，并组织实施和监督检查，着力防范区域性、系统性食品药品安全风险。3、负责生产、流通、消费环节的食品安全监督管理。建立食品安全隐患排查治理机制，制定全市食品安全检查年度计划、重大整顿治理方案并组织落实。负责建立食品安全信息统一公布制度，公布重大食品安全信息。参与制定食品安全风险监测计划、食品安全标准，根据食品安全风险监测计划开展食品安全风险监测工作。4、负责监督实施国家药典等药品和医疗器械标准、分类管理制度。监督实施药品和医疗器械生产、经营质量管理规范。负责药品、医疗器械监督管理。建立药品不良反应、医疗器械不良事件监测体系，并开展监测和处置工作。监督实施执业药师资格准入制度。配合有关部门实施国家基本药物制度。负责化妆品监督管理。5、负责制定食品、药品、医疗器械、化妆品监督管理的稽查制度并组织实施，组织查处重大违法行为。监督实施问题产品召回和处置制度。6、负责食品药品安全事故应急体系建设，开展食品药品安全事故应急处置和调查处理工作，监督事故查处落实情况。7、参与制定食品药品安全科技发展规划并组织实施，推动食品药品检验检测体系、电子监管追溯体系和信息化建设。8、负责开展食品药品安全宣传、教育培训、交流与合作。开展诚信体系建设。9、指导全市食品药品监督管理工作，规范行政执法行为，完善行政执法与刑事司法衔接机制。10、承担市人民政府食品安全委员会日常工作。负责食品安全监督管理综合协调，健全协调联动机制。督促检查区（市、县）人民政府履行食品安全监督管理职责并负责考核评价。11、承办市人民政府和省食品药品监督管理局以及市人民政府食品安全委员会交办的其他事项。', '市局本级内设12个处室，下属3个单位。从预算单位构成看，贵州省贵阳市食品药品监督管理局部门决算包括：本级决算、所属贵阳市食品药品监督管理局稽查局、贵阳市药品不良反应监测中心、和贵阳市食品药品检验检测中心共4个单位的决算。', '1、2015年年初结转结余资金比2014年增加的主要原因是中央补助地方专项资金于2014年11月到帐，项目实施在2015年完成；下属单位贵阳市食品药品检验检测中心尚在筹建中，需逐步购置食品药品检验检测仪器设备等，由于部分设备要求的技术参数高、专业性强，导致采购多次流标，至2014年12月，设备采购仍在政府采购过程中，尚未发生支出。', '贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款支出主要用于以下方面：医疗卫生与计划生育支出（类）支出4503.68万元，占一般公共预算财政拨款支出的100%。', '贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款支出当年预算为3828.48万元，支出决算为4503.68万元，完成当年预算的 117.64%。决算数大于预算数的主要原因是：人员增加和2015年工资改革追加的经费;使用上年财政拨款结转和结余资金；上级转移支付补助地方专项资金，年初无预算; 认真贯彻落实国家、省、市相关规定，厉行节约，在不影响专项工作开展的前提下节约支出。 其中： （1）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。当年预算0万元，支出决算为467.06万元。决算数大于预算数的主要原因是：中央补助地方开展食品、药品、化妆品、医疗器械等专项工作，年初无预算。', '（4）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）化妆品事务（项）。当年预算为66.50万元，支出决算为57.85万元，完成当年预算的86.99%。决算数小于预算数的主要原因是：上级有补助地方开展化妆品专项工作经费，开展专项工作时首先使用上级资金，市财政局已收回市级结转结余资金统筹安排。', '（5）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）医疗器械事务（项）。当年预算为67.00万元，支出决算为53.14万元，完成当年预算的79.31%。决算数小于预算数的主要原因是：上级有补助地方开展医疗器械专项工作经费，开展专项工作时首先使用上级资金。市财政局已收回市级结转结余资金统筹安排。 （6）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全事务（项）。当年预算为1415.95万元，支出决算为1045.53万元，完成当年预算的73.84%。决算数小于预算数的主要原因是：上级有补助地方开展食品专项工作经费，开展专项工作时首先使用上级资金；食品安全有奖举报经费预算80.00万元，实际兑现举报奖励0.27万元；按照相关文件要求匹配食品安全检测能力建设资金158.8万元，项目采购采取公开招标方式，至2015年底尚未到付款程序。市财政局已收回市级结转结余资金统筹安排。', '（7）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）事业运行（项）。当年预算为326.53万元，支出决算为444.66万元，完成当年预算的136.18%。决算数大于预算数的主要原因是：人员增加和工资改革中途追加的经费。 （8）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）其他食品和药品监督管理事务支出（项）。当年预算为540.10万元，支出决算为835.89万元，完成当年预算的154.77%。决算数大于预算数的主要原因是：使用以前年度财政拨款结转结余资金。', '（六）贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款基本支出决算情况说明', '（七）贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款“三公”经费支出决算情况说明', '（1）因公出国（境）费支出0万元。贵州省贵阳市食品药品监督管理局全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '（2）公务用车购置及运行维护费53.55万元,其中，公务用车购置0万元，公务用车运行维护费53.55万元。主要用于车辆保险费、维修费、燃料费、过路费等。2015年，单位开支财政拨款的公务用车保有量为11辆。', '国内公务接待支出0.93万元，主要接待广州、中山、内蒙古、南昌等食药监局到我市的考察学习；重庆、六盘水等食药监到我市协查食品；省政府参事、中国医药报等到我市的调研等。贵州省贵阳市食品药品监督管理局2015年国内公务接待11批次，72人次。', '贵州省贵阳市食品药品监督管理局2015年政府性基金预算财政拨款本年收入0万元，本年支出0万元。', '2015年贵州省贵阳市食品药品监督管理局政府采购支出总额 249.80万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出249.80万元，授予中小企业合同金额40.60万元，占政府采购支出总额的16.25%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '截至2015年12月31日，贵州省贵阳市食品药品监督管理局共有车辆11辆，其中，一般公务用车0辆、一般执法执勤用车10辆、特种专业技术用车1辆、其他用车0辆；单位价值200万元以上大型设备0台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）医疗卫生与计划生育支出（类）：反映政府医疗卫生与计划生育管理方面的支出。 （十八）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）：反映重大疾病预防控制等重大公共卫生服务项目支出。', '（十九）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。 （二十）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）药品事务（项）：反映用于药品（含中药、民族药）监督管理方面的支出。 （二十一）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）化妆品事务（项）：反映用于化妆品监督管理方面的支出。 （二十二）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）医疗器械事务（项）：反映用于医疗器械监督管理方面的支出。 （二十三）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全事务（项）：反映用于食品（含食品添加剂、保健食品）监督管理方面的支出。 （二十四）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）事业运行（项）：反映事业单位的基本支出，不包括行政单位（包括实行公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。 （二十五）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）其他食品和药品监督管理事务支出（项）：反映除上述项目以外其他用于食品和药品监督管理事务方面的支出。 附：《2015年决算公开表》（01表、02表、03表、04表、05表、06表、07表、08表）']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>245</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>贵州省贵阳市食品药品监督管理局年度部门决算三公经费决算信息</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2016-08-05</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/scjgj/202001/t20200116_43376509.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['2015贵州省贵阳市食品药品监督管理局2015年度部门决算、“三公”经费决算信息 - 贵阳市人民政府', '1、贯彻实施国家和省、市有关食品（含食品添加剂、保健食品、酒类，下同）安全、药品（含中药、民族药，下同）、医疗器械、化妆品监督管理的法律法规和方针政策。2、参与起草食品安全、药品、医疗器械、化妆品监督管理的地方性法规、规章草案，拟定相关政策、规划并监督实施，推动建立食品安全企业主体责任、全市各级人民政府负总责的机制，建立食品药品重大信息直报制度，并组织实施和监督检查，着力防范区域性、系统性食品药品安全风险。3、负责生产、流通、消费环节的食品安全监督管理。建立食品安全隐患排查治理机制，制定全市食品安全检查年度计划、重大整顿治理方案并组织落实。负责建立食品安全信息统一公布制度，公布重大食品安全信息。参与制定食品安全风险监测计划、食品安全标准，根据食品安全风险监测计划开展食品安全风险监测工作。4、负责监督实施国家药典等药品和医疗器械标准、分类管理制度。监督实施药品和医疗器械生产、经营质量管理规范。负责药品、医疗器械监督管理。建立药品不良反应、医疗器械不良事件监测体系，并开展监测和处置工作。监督实施执业药师资格准入制度。配合有关部门实施国家基本药物制度。负责化妆品监督管理。5、负责制定食品、药品、医疗器械、化妆品监督管理的稽查制度并组织实施，组织查处重大违法行为。监督实施问题产品召回和处置制度。6、负责食品药品安全事故应急体系建设，开展食品药品安全事故应急处置和调查处理工作，监督事故查处落实情况。7、参与制定食品药品安全科技发展规划并组织实施，推动食品药品检验检测体系、电子监管追溯体系和信息化建设。8、负责开展食品药品安全宣传、教育培训、交流与合作。开展诚信体系建设。9、指导全市食品药品监督管理工作，规范行政执法行为，完善行政执法与刑事司法衔接机制。10、承担市人民政府食品安全委员会日常工作。负责食品安全监督管理综合协调，健全协调联动机制。督促检查区（市、县）人民政府履行食品安全监督管理职责并负责考核评价。11、承办市人民政府和省食品药品监督管理局以及市人民政府食品安全委员会交办的其他事项。', '市局本级内设12个处室，下属3个单位。从预算单位构成看，贵州省贵阳市食品药品监督管理局部门决算包括：本级决算、所属贵阳市食品药品监督管理局稽查局、贵阳市药品不良反应监测中心、和贵阳市食品药品检验检测中心共4个单位的决算。', '1、2015年年初结转结余资金比2014年增加的主要原因是中央补助地方专项资金于2014年11月到帐，项目实施在2015年完成；下属单位贵阳市食品药品检验检测中心尚在筹建中，需逐步购置食品药品检验检测仪器设备等，由于部分设备要求的技术参数高、专业性强，导致采购多次流标，至2014年12月，设备采购仍在政府采购过程中，尚未发生支出。', '（五）贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款支出决算情况说明', '（2）项目支出增加：使用年初财政拨款结转和结余资金；由于单位职能的增加，2015年项目支出比2014年有所增加。', '贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款支出主要用于以下方面：医疗卫生与计划生育支出（类）支出4503.68万元，占一般公共预算财政拨款支出的100%。', '贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款支出当年预算为3828.48万元，支出决算为4503.68万元，完成当年预算的117.64%。决算数大于预算数的主要原因是：人员增加和2015年工资改革追加的经费;使用上年财政拨款结转和结余资金；上级转移支付补助地方专项资金，年初无预算;认真贯彻落实国家、省、市相关规定，厉行节约，在不影响专项工作开展的前提下节约支出。', '（1）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。当年预算0万元，支出决算为467.06万元。决算数大于预算数的主要原因是：中央补助地方开展食品、药品、化妆品、医疗器械等专项工作，年初无预算。', '（3）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）药品事务（项）。当年预算为360.45万元，支出决算为473.80万元，完成当年预算的131.45%。决算数大于预算数的主要原因是：使用以前年度财政拨款结转结余资金。', '（4）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）化妆品事务（项）。当年预算为66.50万元，支出决算为57.85万元，完成当年预算的86.99%。决算数小于预算数的主要原因是：上级有补助地方开展化妆品专项工作经费，开展专项工作时首先使用上级资金，市财政局已收回市级结转结余资金统筹安排。', '（5）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）医疗器械事务（项）。当年预算为67.00万元，支出决算为53.14万元，完成当年预算的79.31%。决算数小于预算数的主要原因是：上级有补助地方开展医疗器械专项工作经费，开展专项工作时首先使用上级资金。市财政局已收回市级结转结余资金统筹安排。', '（6）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全事务（项）。当年预算为1415.95万元，支出决算为1045.53万元，完成当年预算的73.84%。决算数小于预算数的主要原因是：上级有补助地方开展食品专项工作经费，开展专项工作时首先使用上级资金；食品安全有奖举报经费预算80.00万元，实际兑现举报奖励0.27万元；按照相关文件要求匹配食品安全检测能力建设资金158.8万元，项目采购采取公开招标方式，至2015年底尚未到付款程序。市财政局已收回市级结转结余资金统筹安排。', '（7）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）事业运行（项）。当年预算为326.53万元，支出决算为444.66万元，完成当年预算的136.18%。决算数大于预算数的主要原因是：人员增加和工资改革中途追加的经费。', '（8）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）其他食品和药品监督管理事务支出（项）。当年预算为540.10万元，支出决算为835.89万元，完成当年预算的154.77%。决算数大于预算数的主要原因是：使用以前年度财政拨款结转结余资金。', '（六）贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款基本支出决算情况说明', '（七）贵州省贵阳市食品药品监督管理局2015年度一般公共预算财政拨款“三公”经费支出决算情况说明', '（1）因公出国（境）费支出0万元。贵州省贵阳市食品药品监督管理局全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '（2）公务用车购置及运行维护费53.55万元,其中，公务用车购置0万元，公务用车运行维护费53.55万元。主要用于车辆保险费、维修费、燃料费、过路费等。2015年，单位开支财政拨款的公务用车保有量为11辆。', '国内公务接待支出0.93万元，主要接待广州、中山、内蒙、南昌等食药监局到我市的考察学习；重庆、六盘水等食药监到我市协查食品；省政府参事、中国医药报等到我市的调研等。贵州省贵阳市食品药品监督管理局2015年国内公务接待11批次，72人次。', '贵州省贵阳市食品药品监督管理局2015年政府性基金预算财政拨款本年收入0万元，本年支出0万元。', '2015年贵州省贵阳市食品药品监督管理局政府采购支出总额249.80万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出249.80万元，授予中小企业合同金额40.60万元，占政府采购支出总额的16.25%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '截至2015年12月31日，贵州省贵阳市食品药品监督管理局共有车辆11辆，其中，一般公务用车0辆、一般执法执勤用车10辆、特种专业技术用车1辆、其他用车0辆；单位价值200万元以上大型设备0台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十八）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）：反映重大疾病预防控制等重大公共卫生服务项目支出。', '（十九）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '（二十）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）药品事务（项）：反映用于药品（含中药、民族药）监督管理方面的支出。', '（二十一）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）化妆品事务（项）：反映用于化妆品监督管理方面的支出。', '（二十二）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）医疗器械事务（项）：反映用于医疗器械监督管理方面的支出。', '（二十三）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全事务（项）：反映用于食品（含食品添加剂、保健食品）监督管理方面的支出。', '（二十四）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）事业运行（项）：反映事业单位的基本支出，不包括行政单位（包括实行公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。', '（二十五）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）其他食品和药品监督管理事务支出（项）：反映除上述项目以外其他用于食品和药品监督管理事务方面的支出。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>245</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>贵阳市商务局关于口岸建设推进情况</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2019-12-20</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/sylt_5618016/kagl/202005/t20200515_60451320.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['市政府已于4月12日上报省政府《关于申报贵阳改貌口岸临时对外开放的请示》，省口岸办于6月25日已将请示正式上报国家口岸办。国家口岸办表态目前不会批复，待《口岸管理条例》出台明确相关内陆口岸定义、功能后，国家口岸办才能进行相关批复程序。会商贵阳海关先按照海关监管场所要求对改貌铁路口岸进行业务设置，确保在年底先把进出口业务做起来。', '施工单位于2月19日进场，截至目前项目建设有序推进。截至12月18日，各主要单体和专业进展如下：', '1.场坪土石方和富源二路相应段落道路基础工程已基本完成，预埋沟管基本完成，正在施工路灯等附属。海关监管作业对应封闭区域砖围墙完成90%，金属围网完成全部混凝土条带浇筑，立杆完成90%，正在安装金属网。', '2.海关业务用房已完成结构工程，完成内墙抹灰作业和外墙保温层施工，完成外墙龙骨。已完成电梯安装，地面贴砖完成90%，室内消防和给排水基本完成，本周继续安装负一层大厅墙地面、外墙石材、空调和墙地面装修装饰工程。', '3.海关附属用房已完成结构工程，完成内墙抹灰作业和外墙保温层施工，完成外墙龙骨。已完成电梯安装，地面贴砖完成90%，室内消防和给排水基本完成，安装大厅墙地面、外墙石材、空调和墙地面装修装饰工程正在进行，预计月底全部完工。', '4.中转仓库结构工程和地下室室外防水及防水保护层、填充墙施工已完成，正在施工冷库保温隔板，地下室地坪和电梯要等冷库隔板施工完成才能施工，正在安装货运电梯，继续进行装修工作。', '5.现场查验用房和检验检疫药品库完成结构施工，屋面防水、填充墙和基础装饰，本周继续施工室内装修和水电接入。', '6.H986查验设备用房钢结构基础施工已完成，防辐射墙主体已完成，网架全部完成，屋面已完成1/4，本周继续防辐射保护墙和网架屋面施工；H986设备主机已安装到位，核心设备待场地封闭条件具备后再行安装。', '7.监管区北关卡完成钢结构立柱和4个安全岛（剩余1个）、地磅基础施工，完成卡口用房施工，完成1/2网架结构，屋面未开始，地磅3台已安装完成，本周已开始安装卡口其它设备。', '8.南关卡完成钢结构立柱，完成卡口安全岛和地磅基础混凝土浇筑，完成卡口用房施工，完成网架结构，屋面已完成1/4。2台地磅已安装完成,本周已开始安装卡口其它设备。', '9.信息化工程完成业务楼和附属楼机房管线施工，基本完成各楼层预埋和机房装修的木工和天花、地板、外墙封闭，本周继续进行机房装修，各项工作有序推进。', '10.铁路专用线正在积极铺设；龙门吊桩基、地梁全部完成，本周继续施工轨道工程和龙门吊走行轨基础（受环场道路影响段）、地埋滑触线槽道（受环场道路影响段），正在安装龙门吊和大门施工。', '12.专用线作业区货车进出卡口已完成安全岛和地磅基础混凝土施工，卡口机房已完成，2台地磅已安装完成，本周继续安装其它相关设备。', '13.自来水接入，相关许可已办理完成，已开始破路施工下穿孟关大道的预埋管道施工，计划本周完成下穿孟关大道的施工，确保半个月通水。', '14.外电接入和施工方案已经市供电局审批，已开始变配电室基础施工，确保12月下旬外电供电。', '1.口岸运营公司筹备小组于7月18—25日赴兰州新区路港物流有限公司考察学习，结合贵阳改貌铁路口岸实际情况，完成《贵阳改貌铁路口岸运营方案（初稿）》。', '2.为加快推进贵阳改貌铁路口岸商贸物流运营项目，9月2—5日捷时特物流有限公司到贵阳考察，与市商务局、铁投公司交流合作事宜，初步拟定商贸物流合作项目。', '3.已成立筹备组，开始筹备地服管理公司，并指派管理人员参与口岸软件对流程的设置，正在编制口岸运营管理制度。', '5.正报请集团向市政府申请明确将铁投公司作为改貌铁路口岸运营主体，以确保铁路口岸能顺利通过验收及试运营。', '6.已与花溪区对接加快对捷时特物流和嘉里物流的招商引资工作，确保铁路口岸建成后能顺利开展贸易物流一体化业务。', '2.加快项目工程施工，同步加强工程建设安全和质量管理，确保该项目不发生任何安全和质量事故。', '4.已和中民集团签订专用线收购框架协议，后续继续加强与铁路方和中民集团的沟通对接，积极推进铁路专用线尽早开通。', '5.加强与省口岸办、贵阳海关等部门沟通，确保项目满足申报运行要求；积极配合商务部门开展口岸（特殊监管区）申报等工作。', '2.存在的问题。一是二堡西路建设进度影响项目施工进度；二是项目范围内无配套水资源；三是项目国有土地使用证、项目施工许可证明、建设工程规划许可证暂未办理。', '1.建设情况。一是国家邮政管理局已于11月7日批复同意建设贵州国际邮件互换局。双龙航空港区已开工进行配套设施建设，配合机场三期的通航时间，拟于2020年建成并投入使用。其余配套功能区将适时分期开工建设，目前正在准备前期工作；二是“一局三中心”设计方案征求意见函上报至各相关部门，已与海关、发改委等相关部门达成一致意见，待管委会与机场集团研究确定。贵阳国际邮件互换局房屋建筑需求正在根据该建设标准进一步优化设计，并出钻孔图。项目临时用电已通过竣工验收，并已通电，待审计完成后支付尾款。已签订项目跟踪审计合同。地勘单位已进场施工；三是种苗、肉类、冰鲜、水果四个进境指定海关监管场所已建设完成。', '2.存在问题。一是林城邮政度假村未拆迁；二是二堡西路建设进度影响项目场平施工进度；三是210国道暂不能切断影响项目场平施工进展；四是暂未获得林地使用许可；五是“一局三中心”项目国有土地使用证、项目施工许可证明、建设工程规划许可证暂未办理；六是关于种苗、肉类、冰鲜、水果四个进境指定海关监管场所的验收工作。根据海关总署关于进境指定监管场所的最新验收要求，需要从货物下机即开始验收流程，但目前由于我市机场货运站未建，货运跑道要2020年底才能完工，导致目前无法开展验收工作。', '贵阳综保区围网区（二期）规划调整方案已由国务院转海关总署牵头办理，由海关总署牵头推进发改委、财政部等国家部委的联合审查工作，经对接，目前自然资源部、国家市场监督管理总局、发改委等国家部委已全部反馈意见，海关总署正按程序上报国务院。', '一是二期围网区工程设计方案已基本完成；二是正在积极推进配套市政道路及围网区内汉墙产业园（一期）项目土地房屋征收、规划设计及项目建设等相关工作。 三是正推进土地报批及林地手续办理工作，其中，土地报批部分，项目用地已组件上报至省自然资源厅，省自然资源厅各处室已完成会审，已下达缴款通知，正在缴纳报批资金。四是截至目前，已签约149个房屋编号，迁坟410座，项目区内的土地已累计测量697.179亩。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>245</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市人民政府办公厅关于印发贵阳综合保税区政务大厅进驻部门调整方案的通知</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2016-04-06</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2016/201711/t20171126_11365603.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['市人民政府办公厅关于印发贵阳综合保税区政务大厅进驻部门调整方案的通知 - 贵阳市人民政府公报', '《贵阳综合保税区政务大厅进驻部门调整方案》已经市人民政府研究同意，现印发给你们，请遵照执行。', '下简称综保区）投资发展环境，根据《贵阳综合保税区管理条例》等有关政策法规规定，现将综保区政务服务大厅进驻部门窗口进行调整。调整后的方案如下：', '（一）先行先试原则。在综保区行政审批体制机制、运行模式、服务方式方面进行大胆探索、积极创新，不断优化投资环境，促进经济社会发展。', '（二）精简高效原则。紧密结合综保区实际，整合资源力量，科学设置审批机构和办事窗口，降低行政成本，优化审批流程，简化申报材料，改进服务方式，探索推行企业办事“一门进、一章结”，不断提高办事效率。', '（三）依法行政原则。依法明确纳入综保区政务服务中心的行政审批事项，进驻综保区的窗口单位执法主体资格不变、法定职权不变，窗口审批人员按照有关法律、法规的要求办理行政审批。项目审批涉及的行政事业性和服务性收费，须具有合法收费依据并进行公示，严格按规定项目和标准收取。', '凡综保区规划范围内的企业设立、投资项目、基本建设行政审批事项，应在综保区进行审批和办理。涉及由综保区管委会承接的审批事项，按照“谁审批、谁负责”的原则，由管委会依法完善授权手续后进行自主审批；涉及国税、地税、海关、国检的有关事项，由其派驻综保区的机构进行审批，其它需要市级统筹或按属地管理的未尽审批事项按上述原则由市级部门或白云区办理。', '具体审批和办理过程中，涉及由综保区管委会根据审批权限进行审批的，市级部门及白云区有关单位给予业务指导并及时发证；涉及不动产证等证件办理的，由综保区完善相关行政审批手续，国土、房产管理等部门应设立绿色通道，及时发证；涉及与审批关联的中介、公共服务，市行业主管部门应协调服务机构，为综保区项目提供快捷、优质服务。涉及进厅收费的事项，按国家、省、市收费目录及标准实行统一收费，缴入相应的财政非税收入专用账户。', '个）：工商、公安（印章刻制、交管、出入境）作为常驻窗口保留，对原派驻窗口人员要求的岗位和数量不变（即工商窗口', '个）：开发建设局、产业发展局、财政金融局、投资促进局、党工委办，由管委会根据各部门事项承接情况合理配备窗口人员，并完善相关授权手续。', '政务服务大厅设立建设项目专窗，原来入驻的国土、规划、公安消防、生态部门保留，对原派驻窗口人员要求的岗位和数量不变（即市国土资源局窗口', '人），入驻方式由常驻调整为轮岗坐班制，即按轮值表相关窗口单位依次安排固定的工作人员到窗口受理、办理业务，并完善相关授权手续。窗口产生业务未办结前不得撤岗，无业务量（或业务在轮岗期间办结）则每周（', '原入驻的市直部门：统计、交通、住建、城管、商务、人防、质监、人社（人才服务）、卫计、食药监等部门统一调整为联络制，不再直接入驻大厅。各单位明确', '（一）常驻窗口及轮换窗口部门要确定本部门的分管领导或首席代表，强化分管领导或首席代表现场审批、组织协调和监督检查职责，并确保“三到位”（即窗口人员必须是承担本部门审批职能且熟悉业务的正式员工，做到人员驻厅到位；进厅事项目录在本单位和综保区分别公告到位；对窗口人员书面委托授权到位），并在综保区窗口启用本单位的行政审批专用章。“三到位”工作请在文件下发之日起', '（二）为加快推进综保区建设项目审批手续办理，有关部门应针对综保区实际，建立事项办理绿色通道制度，提出简化审批手续、减少审批环节、减少材料重复报送、联合审批的具体措施和办法。同时，随着综保区对外开放力度不断加大，出国境商务考察、学习人数不断攀升，为方便出入境证件办理，请市公安局提出具体落实的便利化措施。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>245</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>贵阳和长沙将在教科研方面深入合作</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202404/t20240430_84385584.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['4月29日，贵阳市教育局考察团一行赴长沙市考察学习并举行座谈会。会上，长沙市教育科学研究院、贵阳市教育科学研究所签订合作协议，未来6年，双方将在学校评价体系、作业设计、新课程标准下中小学教育教学、教科研成果培育等方面开展合作。', '据悉，2023年5月，贵阳市教育局与长沙市教育局签订战略合作框架协议，双方在合作办学、师资共育、学生交流、资源共享等多方面进行了深度交流合作。一年来，在长沙市教育局的大力支持下，贵阳市成功引入了雅礼、长郡中学到筑办学，推动形成贵阳高中教育多元发展的新格局，让更多的省外优质教育资源惠及贵阳广大学生。', '会上，《长沙市教育科学研究院 贵阳市教育科学研究所合作协议》正式签订。该协议为期6年，双方将围绕学校评价体系、作业设计、新课程标准下中小学教育教学、教科研成果培育、视导机制探索等方面展开交流与合作，通过网络研训、教研沙龙、学术讲座等模式，定期组织两地学科教研员开展线上线下教研和工作交流，推动两地教科研资源共享、优势互补、共促发展、共同进步。贵阳市每年将派教研员到长沙市跟岗学习、交流，不断提升专业能力。双方还将逐步开展初中、高中统一命题的联考与质量分析、中高考备考及新高考新课程新教材研究，共同提高教育科研水平和教育教学质量。', '市教育局相关负责人表示，贵阳市教育系统将抓牢与长沙市教育系统的合作机遇，持续在深化认识上、发展理念上、加强保障上、改革创新上、教育评价上下足功夫。未来，将努力与长沙在深化教师交流学习、学生研学互派，缔结联盟校、姊妹校等方面扩展合作空间，提高我市教师队伍的教学科研能力，增加互派学生开展研学的机会，在实践中拓展贵阳学生的学识、见识。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>245</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>贵阳贵安党政代表团赴成都考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202208/t20220819_76126062.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['8月18日，省委常委、市委书记、贵安新区党工委书记胡忠雄率贵阳贵安党政代表团赴成都考察学习，四川省委常委、成都市委书记施小琳会见代表团一行并陪同考察。', '胡忠雄对成都长期以来给予贵阳贵安的支持表示感谢。他说，近年来，成都加快建设践行新发展理念的公园城市示范区，各项事业取得了显著成就，我们深表钦佩、深受鼓舞。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，牢牢把握新国发2号文件的重大机遇，认真贯彻落实省第十三次党代会精神，坚持以高质量发展统揽全局，带头实施主战略、实现主定位，深入实施“强省会”行动，落实“四主四市”工作思路，奋力谱写新时代“强省会”新篇章。本次考察是一次学习之旅、合作之旅，贵阳贵安将加强与成都的对接交流，认真学习借鉴成都在城市规划建设发展等方面的先进经验。希望双方围绕一个框架、一个机制、一个重点、一批项目，深入落实两省战略合作协议，建立健全沟通互动机制，深化天府新区和贵安新区的务实合作，积极谋划交通、环保、能源、旅游和数字经济等领域的合作项目，努力实现互利共赢发展，携手为两省合作走深走实贡献省会力量。', '施小琳代表成都市委、市政府对代表团一行表示欢迎，并简要介绍成都经济社会发展情况。她说，当前成都正深入学习贯彻习近平总书记来川视察重要指示精神和省第十二次党代会精神，认真落实省委“讲政治、抓发展、惠民生、保安全”的工作总思路，抢抓成渝地区双城经济圈建设等重大战略机遇，在落实成渝双核联动中服务国家战略全局，在建强现代化成都都市圈中带动区域协同共兴，以建设践行新发展理念的公园城市示范区为统领，积极探索山水人城和谐相融新实践、超大特大城市转型发展新路径，统筹疫情防控和经济社会发展，深入推进“三个做优做强”“四大结构”优化调整，大力实施产业“建圈强链”，加快建设中国西部具有全球影响力和美誉度的现代化国际大都市。贵阳市近年来在生态文明、创新发展、对外开放和数字经济等领域探索出许多好的经验做法，值得成都学习借鉴。希望两地共同落实两省合作协议明确的任务，深化交流合作，加强互学互鉴，推动双方合作再上新台阶。', '在蓉期间，代表团先后前往四川天府新区规划厅、成都超算中心、成都规划馆等实地考察公园城市、新区建设、科技创新等方面工作。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>245</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>贵阳市贵安新区深化医药卫生体制改革领导小组办公室关于赴黔南州长顺县考察学习的函</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/wsjk_5618035/tzgg_5618036/202206/t20220610_74741947.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['贵阳市贵安新区深化医药卫生体制改革领导小组办公室关于赴黔南州长顺县考察学习的函 - 贵阳市人民政府', '为学习贵县 “县乡村一体化发展”县域医共体管理模式，学习有关医防融合、医保支付方式改革等县域医改工作先进经验,进一步推进我市县域医共体建设工作，经省医改办推荐，我办拟组织市医保局、市卫健局及有关区县于 2022 年 5 月 10日(星期二) 到贵县考察学习县域医共体在创新人事、编制、职称、薪酬绩效、财政投入、医保支付方式改革、医防融合、信息化建设、药械等方面的政策措施以及管理方式,敬请接洽为谢!']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>245</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>筑府办发号市人民政府办公厅关于进一步加强三公经费管理的通知</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014-10-12</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qfbf/201810/t20181002_9598546.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区管委会，市政府各工作部门，市各直属事业单位：', '为贯彻落实中央八项规定，根据中央和省党政机关厉行节约反对浪费条例精神，进一步规范因公出国（境）费用、公务接待费、公务用车购置及运行维护费支出（以下简称“三公”经费）管理，降低行政成本，健全长效机制。现就加强我市“三公”经费管理有关事项通知如下：', '“三公”经费包括因公出国（境）经费、公务用车购置及运行费和公务接待费。其中，因公出国（境）经费反映单位工作人员公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）费用。', '各级各部门要从严从紧编制“三公”经费预算，严格控制“三公”经费总规模，增强预算约束，强化“三公”经费分项管理，确保“三公”经费年度预算总规模在本届政府任期内只减不增。', '本着厉行节约的原则要求，市直各部门和单位在每年编制部门预算时，须单独编制“三公”经费预算表，报送市级财政部门，并在市政府统一部署下，以单位为主体公开“三公”经费预算信息，“三公”经费预算一经公开，须按公开预算数严格执行，不得随意追加。', '（一）因公出国境。严格执行《贵州省财政厅贵州省外事办关于印发贵州省因公临时出国经费管理办法的通知》（黔财行〔', '号），实行出国（境）先行审批备案制度。外事部门对没有出访经费预算或超预算安排的出访任务，一律不得审批。财政部门要加强对因公出国（境）团组的经费审核管理，严格按照批准的出国团组人员、天数、路线、经费预算及有关开支标准核销，不得核销与出访任务无关的开支。各级各部门严禁以考察学习名义用公款组织出境旅游，财务部门不得核报与公务无关的开支和超标准、计划外发生的费用。', '（二）公务接待。严格按照《中共中央国务院关于印发党政机关厉行节约反对浪费条例的通知（中发〔', '号）》和《中共中央办公厅国务院办公厅关于印发党政机关国内公务接待管理规定的通知》（中办发〔', '号）要求，坚持“简化礼仪、务实节俭”的原则，严格控制开支标准和接待范围，各级各部门承办重大活动接待任务须按程序报同级政府审批，严禁发生先接待后审批或不审批现象，市直各部门和单位也要按照节约简朴、严禁奢侈浪费原则制定单位内部接待管控制度，市直各部门和单位确需公务接待的，原则上在单位食堂安排工作餐。', '（三）公务用车购置及运行经费支出。加强公务用车编制管理，严格按照公务用车编制和配备标准进行车辆的更新和购置，车辆更新和购置严格按程序审批和采购。按中发〔', '号文要求，除执法执勤、机要通信、应急和特种专业技术用车外，市级财政原则上不安排一般公务用车购置预算。严格按公务用车运行费用定额标准编制公务用车运行维护经费预算，在目前公务用车运行费定额标准不宜调整的情况下，市直各部门和单位可从包干经费中调剂或常规性工作专项经费中适当补充公务用车运行费，但每辆车运行费的补充额度原则上不得突破该车辆原定额标准的', '，市直各部门和单位要制定公务用车日常管理制度，对车辆实行统一管理，不得公车私用。不准利用职权向企业、下属单位和他人借用车辆。目前，中共中央办公厅国务院办公厅已出台全面推进公务用车制度改革的指导意见，下一步将全面推行公务用车制度改革，待省公务用车改革方案出台后，我市也将制定公务用车改革方案，届时再按相关规定执行。', '（一）严格报账审核。市直各部门和单位应按照行政事业单位会计制度和财经纪律要求，从严审核“三公”经费原始凭证的合法性、真实性和完整性，对不符合规定的一律不得报销。因公出国（境）费用、公务接待费和公务用车运行维护费原则上应以银行转账或公务卡方式结算。', '（二）细化会计科目列报。市直各部门和单位应根据政府收支分类科目的有关要求，分别按经济科目“因公出国（境）费用”“公务接待费”“公务用车购置”“公务用车运行维护费”在本单位如实核算“三公”经费，并结合实际情况下设明细科目，真实全面反映具体的支出用途及方向，年终决算时，应做到决算报表数据与会计账簿完全一致。', '（三）加强财务监管。市直各部门和单位应建立健全内部控制制度，加强对机关及下属单位“三公”经费的财务监管。', '（一）加快推进部门预算和“三公”经费预算信息公开工作。按照《财政部关于推进省以下预决算信息公开工作的通知》（财预〔', '家市直单位和部门，按照财政部规定的公开范围和标准，开展了部门预算和“三公”经费预算信息公开试点工作，', '（二）加强“三公”经费绩效评价。市直各单位和部门每年应开展“三公”经费绩效自评。财政部门要选择部分单位开展绩效评价，评价结果将运用于次年的预算安排，对违反规定和标准以及“三公”经费支出水平高的单位，将按程序采取措施核减单位预算。', '（三）加强“三公”经费审计监督。审计部门要加强“三公”经费审计监督。对“三公”经费实行经常性审计、常态化监管，在安排、实施审计项目时，要把对“三公”经费的审计监督与各类审计项目紧密结合起来，特别是每年开展的部门预算执行审计、经济责任审计、专项审计等项目中，都要把“三公”经费审计作为重点内容，对支出水平高和社会反映强烈的部门和单位，实行重点审计或专项审计，及时发现和纠正“三公”经费使用中存在的铺张浪费、挤占挪用、弄虚作假、财政资金损失等问题。', '（四）加强党风廉政监督。纪检监察部门要将“三公”经费管理情况纳入党风廉政建设监督考核内容，坚决抵制享乐主义和奢靡之风。严禁以会议、培训、调研、考察学习等名义组织公款旅游；严禁用公款购买提货卡（券）、支付凭证、礼品册、纪念品、土特产、邮票、书籍等作为接待赠品；严禁用公款购买香烟、高档酒和礼品；严禁驾驶公务车辆接送家属子女、举办婚丧宴请、娱乐旅游等私用滥用行为；严禁外借、出租公务车辆；严禁换用、占用下属单位和服务对象的公务车辆；严禁向下属单位和服务对象转嫁、摊派和报销“三公”经费。对在“三公”经费管理中骗取财政资金、假公济私、奢侈浪费等行为，将严肃追究相关直接责任人和相关领导的责任，涉嫌犯罪的，依法移交司法机关追究刑事责任。', '本意见执行单位为市政府各工作部门，市各直属事业单位，各区（市、县）人民政府参照执行。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>245</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>枚红手印印出村美民富新图景乌当区下坝镇岩山村积极探索村集体经济发展新路径</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202404/t20240430_84386863.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['18枚红手印印出村美民富新图景——乌当区下坝镇岩山村积极探索村集体经济发展新路径 - 贵阳市人民政府', '乌当区下坝镇岩山村是乌当区管辖面积最大的一个村，全村面积27.63平方公里，村民2540余人。岩山村山大石多，耕地面积有限，村民曾自嘲“山高石头多，出门就爬坡”。', '岩山村因独特的土壤条件，种植的樱桃品相好、口感佳，一度成为樱桃采摘的热点村寨，享有“樱桃之乡”美誉。', '但樱桃产业属于家庭式生产，经济效益发挥不明显，怎么办？“家庭式生产方式，已经不适宜发展了。”村党支部书记王光辉介绍，不管发展什么，关键是要把老百姓的思想统一起来，把全村有限资源整合起来，集中力量才能办好大事。', '2022年，岩山村借助下坝镇组建的贵阳乌当下坝乐耕农业发展有限公司，适度发展智慧化蛋鸡养殖，存栏蛋鸡15000羽，日产蛋10000余枚，实现月经营性收入25万余元。', '尝到村集体经济甜头的村民意识到单打独斗已经行不通。“村里资金、资源有限，岩山村要积极融入下坝镇和乌当区，甚至贵阳市的发展大局，抓住抱团发展的契机。”王光辉说。', '村“两委”通过入户走访，召开党员代表、人大代表座谈会，村民代表大会，村民小组会，多形式倾听民意，把党内协商、人大协商和村民协商有机贯通，使民意、民智、民力充分汇聚。经反复商议，确立了发展农业生产社会化服务的集体意愿。', '达成共识之后，岩山村组织村“两委”干部、人大代表和村民代表先后赴修文县六屯镇西冲村、乌当区新场镇王坝村等地考察，学习创办和管理农机合作社的经验，实地比较农机设备的配置和价格。通过多次学习交流，进一步提振了岩山村发展壮大村集体经济的信心。“看他们都能做得这么好，我们条件也不差，肯定也能干得好。”村民代表王章良信心满满地说。', '岩山村积极探索村集体经济“1+1”联结发展模式，即由农村集体经济组织以农村集体资金、资产和资源作为股本，吸纳村民股本，以及生产经营企业、其他社会组织等社会股本，共同组建市场化股份制公司合股经营的混合所有制经济发展方式。这一发展模式，能够破解村级集体经济组织在参与市场经济发展过程中经营主体不明、机制不活、激励不足、活力不强等问题。', '思路和方向明确后，岩山村列出发展清单，搬出经济账本，挨家入户宣传，从农业社会化服务的市场前景、村民入股分红的角度，引导村民积极参与到村集体经济发展中来，齐心共闯发展新路。“这段时间以来，村‘两委’班子、人大代表和村民代表多次开会，从经营管理模式、股东组成、股权分配到如何分红、如何定价，大家一直积极参与讨论。”镇人大代表刘家林说。', '在村“两委”和人大代表的带领下，今年年初，由岩山村股份经济合作社控股、18名村民入股的贵州丰农农业有限责任公司正式成立。3月20日，贵州丰农农业有限责任公司第一次股东大会顺利举行，18名股东在入股资金登记名单上签字、按手印。18枚鲜红的手印，见证了岩山村坚定信心发展集体经济的努力。该村将依托贵州丰农农业有限责任公司，重点发展林下中药材种植项目和林下养殖产业，推进以樱桃、桑葚等为主的水果种植产业更新，大力推进农旅融合，发展乡村旅游，让村集体经济的底子越来越厚，路子越走越宽。', '3月份，随着公司购置的第一台轮式旋耕机到现场作业，标志着岩山村团结群众、集中力量发展村集体经济进入实质阶段。“‘丰农’既寄托了岩山村全体村民增收致富的美好愿望，也饱含了岩山村不甘现状、敢于求变的奋斗精神。”王光辉说。', '“不管是发展种植、养殖，还是乡村旅游，全村都要同心同向，才能聚力成势。”王光辉说，下一步，岩山村将依托贵州丰农农业有限责任公司，进一步汇聚全村资源和力量，按照生态优先、宜粮则粮、宜果则果、宜游则游的思路，谋划岩山村更加美好的未来。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>245</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>贵阳市城乡规划局年公共预算财政拨款三公经费决算补充说明</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2016-05-23</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/szrzyhghj_5624402/202001/t20200116_43359641.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['贵阳市城乡规划局2014年公共预算财政拨款“三公”经费决算补充说明 - 贵阳市人民政府', '贵阳市城乡规划局2014年公共预算财政拨款“三公”经费决算为 131.28万元，与上年比较减少1.72万元，下降比率为1.29%，减少原因是严格按照中央八项规定和省市有关规定，本着厉行节约的原则使用三公经费。', '因公出国（境）团组数2个，人数2人，因公出国（境）费为3.52万元，与上年比较增长 3.52万元，增长比率为100%，增加原因是：根据黔府外出〔2014〕524号文，我单位一人参加赴韩国交通管理及城市规划管理考察学习，产生费用1.58万元；根据贵阳市政府批准的因公赴台交流项目，我单位一人参加赴台临空经济规划建设考察学习，产生费用1.94万元。', '公务用车购置数0辆，年末公务用车保有量26辆，公务用车购置费为0万元，与上年比较减少36.05万元，下降比率为100%，减少原因是未购置车辆。', '国内公务接待21批次，接待人次125人。接待费总额6.26万元，与上年比较增加0.81万元，增长比率为14.9%，增加原因是：接待北京市规委、中国城市规划学会、英国卡夫大学规划研究中心，住建部以及其他城市规划局等单位，接待批次和接待人数较上年有所增加，造成接待费用比上年增加了0.81万元。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>245</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>筑府办函号市人民政府办公厅关于印发贵阳综合保税区政务大厅进驻部门调整方案的通知</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2016-04-05</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qfbh/201810/t20181002_9599096.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['筑府办函〔2016〕49号市人民政府办公厅关于印发贵阳综合保税区政务大厅进驻部门调整方案的通知', '《贵阳综合保税区政务大厅进驻部门调整方案》已经市人民政府研究同意，现印发给你们，请遵照执行。', '为进一步创新行政审批体制机制和运行模式，优化贵阳综合保税区（以下简称综保区）投资发展环境，根据《贵阳综合保税区管理条例》等有关政策法规规定，现将综保区政务服务大厅进驻部门窗口进行调整。调整后的方案如下：', '（一）先行先试原则。在综保区行政审批体制机制、运行模式、服务方式方面进行大胆探索、积极创新，不断优化投资环境，促进经济社会发展。', '（二）精简高效原则。紧密结合综保区实际，整合资源力量，科学设置审批机构和办事窗口，降低行政成本，优化审批流程，简化申报材料，改进服务方式，探索推行企业办事“一门进、一章结”，不断提高办事效率。', '（三）依法行政原则。依法明确纳入综保区政务服务中心的行政审批事项，进驻综保区的窗口单位执法主体资格不变、法定职权不变，窗口审批人员按照有关法律、法规的要求办理行政审批。项目审批涉及的行政事业性和服务性收费，须具有合法收费依据并进行公示，严格按规定项目和标准收取。', '凡综保区规划范围内的企业设立、投资项目、基本建设行政审批事项，应在综保区进行审批和办理。涉及由综保区管委会承接的审批事项，按照“谁审批、谁负责”的原则，由管委会依法完善授权手续后进行自主审批；涉及国税、地税、海关、国检的有关事项，由其派驻综保区的机构进行审批，其它需要市级统筹或按属地管理的未尽审批事项按上述原则由市级部门或白云区办理。', '具体审批和办理过程中，涉及由综保区管委会根据审批权限进行审批的，市级部门及白云区有关单位给予业务指导并及时发证；涉及不动产证等证件办理的，由综保区完善相关行政审批手续，国土、房产管理等部门应设立绿色通道，及时发证；涉及与审批关联的中介、公共服务，市行业主管部门应协调服务机构，为综保区项目提供快捷、优质服务。涉及进厅收费的事项，按国家、省、市收费目录及标准实行统一收费，缴入相应的财政非税收入专用账户。', '市直窗口部门（2个）：工商、公安（印章刻制、交管、出入境）作为常驻窗口保留，对原派驻窗口人员要求的岗位和数量不变（即工商窗口2人，公安印章刻制、出入境窗口各1人，交管2人），并完善相关授权手续。', '综保区驻区单位（4个）：海关、国检、国税、地税，窗口人员配备和授权由驻区单位自行确定。', '综保区管委会部门（5个）：开发建设局、产业发展局、财政金融局、投资促进局、党工委办，由管委会根据各部门事项承接情况合理配备窗口人员，并完善相关授权手续。', '白云区政府部门（1个）：白云区市场监管局，派驻窗口人员1—2名，负责除企业注册登记之外的相关审批事项办理。', '政务服务大厅设立建设项目专窗，原来入驻的国土、规划、公安消防、生态部门保留，对原派驻窗口人员要求的岗位和数量不变（即市国土资源局窗口1人、市规划局白云分局窗口1人、市公安消防支队窗口1人、市生态文明委窗口1人），入驻方式由常驻调整为轮岗坐班制，即按轮值表相关窗口单位依次安排固定的工作人员到窗口受理、办理业务，并完善相关授权手续。窗口产生业务未办结前不得撤岗，无业务量（或业务在轮岗期间办结）则每周（5个工作日）进行一次轮换。', '原入驻的市直部门：统计、交通、住建、城管、商务、人防、质监、人社（人才服务）、卫计、食药监等部门统一调整为联络制，不再直接入驻大厅。各单位明确1名联系综保区的分管领导和具体工作人员，确保相关业务事项的对接。', '（一）常驻窗口及轮换窗口部门要确定本部门的分管领导或首席代表，强化分管领导或首席代表现场审批、组织协调和监督检查职责，并确保“三到位”（即窗口人员必须是承担本部门审批职能且熟悉业务的正式员工，做到人员驻厅到位；进厅事项目录在本单位和综保区分别公告到位；对窗口人员书面委托授权到位），并在综保区窗口启用本单位的行政审批专用章。“三到位”工作请在文件下发之日起10个工作日内完成。', '（二）为加快推进综保区建设项目审批手续办理，有关部门应针对综保区实际，建立事项办理绿色通道制度，提出简化审批手续、减少审批环节、减少材料重复报送、联合审批的具体措施和办法。同时，随着综保区对外开放力度不断加大，出国境商务考察、学习人数不断攀升，为方便出入境证件办理，请市公安局提出具体落实的便利化措施。', '（三）各入驻单位主要领导每年至少2次、分管领导每月至少1次到政务服务大厅窗口检查指导工作，关心窗口建设和工作人员。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>245</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>关于组织参加第二十四届中国国际高新技术成果交易会的通知</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-10-13</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgktzgg/zwgktzggbmgg/202210/t20221013_76731143.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['由科技部、商务部、工业和信息化部、国家发展和改革委员会和深圳市人民政府共同主办的第二十四届中国国际高新技术成果交易会（以下简称“高交会”）将于 11 月 16—20 日在深圳举办。为更好地展示推介我市高新技术成果，在坚持做好新冠疫情常态化防控前提下，积极应对疫情影响，助力企业复工复产，推动我市高新技术产业更多参与对外交流合作。同时，围绕产业发展需求，利用“高交会”平台加强科技招商工作，促进我市高新技术产业更好更快发展，市人民政府决定组织贵阳代表团参会参展。现将有关事宜通知如下:', '本届“高交会”贵阳代表团的组织工作，由贵阳市科技局牵头负责，为做好本届“高交会”贵阳代表团的组织筹备工作，贵阳市科技局委托贵阳生产力促进中心具体承办。', '各区（市、县、开发区）科技管理部门、贵阳市内各产业园区、各高新技术企业、科技型中小企业、科技企业孵化器、众创空间等各类创新主体均可报名参会。', '1.按照国家产业政策和省委、省政府发展战略，组织代表贵阳科技创新能力和发展水平的高新技术企业、科技型中小企业参展。重点展示以大数据、互联网＋为代表的新一代信息技术产业，先进制造、新材料、航空航天、新能源、节能环保等战略性新兴产业以及新医药大健康产业领域的技术成果和项目；', '2.贯彻“大众创业、万众创新”战略，重点组织我市优秀双创孵化载体和优秀双创企业（团队）参会参展；', '3.围绕我市产业发展需求，借助“高交会”平台，组织考察学习深圳市创新引领的先进经验，切实推动我市高新技术产业更多参与对外交流合作。', '1.经审核符合要求的参会参展单位，参会参展证件办理费用由财政专项经费补贴，不再对各参会参展单位收费；', '2.经审核符合要求的参展单位，展位费用及展位特装费用由市财政专项经费补贴，不再对各参展单位收费；', '1.拟参会参展单位请认真填写参会回执表、参展项目表、招商项目征集表（附后），于10月20日前报送贵阳生产力促进中心（参展项目表和招商项目征集表以电子文档形式电邮，以便编印贵州代表团宣传册及在“高交会”会刊和项目平台上发布）；', '2.拟参展单位请于10月25日前将用于制作展板的3-5张高清图片素材和文字介绍资料（500字以内）报送贵阳生产力促进中心；']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>245</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>关于组织参加第二十二届中国国际高新技术成果交易会的通知</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2020-10-19</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/kjcx_5617899/gxjs/202010/t20201029_64625508.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['由科技部、商务部、工业和信息化部、国家发展和改革委员会等国家部委和深圳市人民政府共同主办的第二十二届中国国际高新技术成果交易会（以下简称“高交会”）将于11月11—15日在深圳举办。为更好地展示推介我市高新技术成果，在坚持做好新冠疫情常态化防控前提下，积极应对疫情影响，助力企业复工复产，推动我市高新技术产业更多参与对外交流合作。同时，围绕产业发展需求，利用“高交会”平台加强科技招商工作，促进我市高新技术产业更好更快发展，市人民政府决定组织贵阳代表团参会参展。现将有关事宜通知如下:', '本届“高交会”贵阳代表团的组织工作，由贵阳市科技局牵头负责，为做好本届“高交会”贵阳代表团的组织筹备工作，贵阳市科技局委托贵阳生产力促进中心具体承办。', '各区（市、县）科技管理部门、贵阳市内各产业园区、各高新技术企业、科技型中小企业、科技企业孵化器、众创空间等各类创新主体均可报名参会。', '1.按照国家产业政策和省委省政府发展战略，组织代表贵阳科技创新能力和发展水平的高新技术企业、科技型中小企业参展。重点展示以大数据、互联网＋为代表的新一代信息技术产业，先进制造、新材料、航空航天、新能源、节能环保等战略性新兴产业以及新医药大健康产业领域的技术成果和项目；', '2.贯彻“大众创业、万众创新”战略，重点组织我市优秀双创孵化载体和优秀双创企业（团队）参会参展；', '3.围绕我市产业发展需求，借助“高交会”平台，组织考察学习深圳市创新引领的先进经验，切实推动我省高新技术产业更多参与对外交流合作。', '1.经审核符合要求的参会参展单位，参会参展证件办理费用由市财政专项经费补贴，不再对各参会参展单位收费；', '2.经审核符合要求的参展单位，展位费用及展位特装费用由市财政专项经费补贴，不再对各参展单位收费；', '1.拟参会参展单位请认真填写参会回执表、参展项目表、招商项目征集表(附后)，于10月25日前报送贵阳生产力促进中心（参展项目表和招商项目征集表以电子文档形式电邮，以便编印贵阳代表团宣传册及在“高交会”会刊和项目平台上发布）；', '2.拟参展单位请于10月29日前将用于制作展板的图片素材和文字介绍资料（500字以内）报送贵阳生产力促进中心；', '贵阳市科技局关于组织参加第二十二届中国国际高新技术成果交易会的通知.PDF.pdf']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>245</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>经济区小碧乡个村外出考察取经寻求发展路径</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202303/t20230320_78605269.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为深入推进村集体经济发展“1+1”模式，近日，经济区小碧乡党委班子带领16个村党支部书记及相关部门负责人赴开阳县高寨村、观山湖区金华镇，考察学习村集体经济发展及运营模式。', '为发展村集体经济，开阳县高寨村曾探索过多种发展模式，但最后只有“村集体经济组织+其他经济主体”的“1+1”混合发展模式，才让村集体经济发展起来。一方面，通过股份合作筹集资金，解决了村集体经济缺钱发展产业的问题，而随着产业的发展壮大，资金的放大效应也越来越突出，让产业规模实现了快速扩大。另一方面，通过广泛发动群众参与，可以有效聚集各类人才参与发展相关产业。同时，通过投资入股获得经营性收益及经济管理“奖励”，干部群众增加收入后，大大提高了大家干事创业的积极性和主动性。', '在带领村民致富和实施“乡村振兴”的实践中，观山湖区金华镇翁井村也摸索出了一套适合自身发展的“三转四股五红利”模式。村里把“三转、四股、五红利”作为文明村的建设方针，坚持党建引领，依托山地、林地优势，引进知名企业，大力发展林下经济项目、康养旅游项目、优质民宿项目等，初步形成了以农业科普教育、历史文化旅游、康养度假旅游和农业观光旅游为重点的特色服务业体系。如今的翁井村，发展势头良好。', '同处金华镇的何官村则结合地理优势，围绕“人”“地”“产业”三者，采取村企联营、整体出租、社会招租等方式，先后落地何官村整脏治乱综合体、金清大道甲醇综合加注站、失地农民再就业技能培训中心、驾驶培训科目三考场等项目，着力破解村集体经济发展难题，也为入股村民带来了实实在在的收益。', '通过此次考察学习，小碧乡的一些村党支部书记表示，高寨村的“1+1”发展模式、翁井村的农文旅融合发展途径、何官村“三变”改革经验，值得借鉴。接下来，将结合本村实际，因地制宜，探索一条适合本村发展的致富之路。', '“此次考察是学习先进经验，以期带动小碧乡16个村实现产业转型，促进村集体‘1+1’经济发展稳步前进。”经济区小碧乡党委书记陈涛表示，高寨、翁井、何官等村的先进经验为小碧乡提供了新的发展思路。接下来，小碧乡将紧紧围绕“找准一条路子”这一思路，结合经济区产业布局和小碧乡实际，扩大村集体收入。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>245</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市发改委关于赴江苏如皋参加第四届国际氢能与燃料电池汽车大会的简报</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2019-10-11</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/nyzy/xnyhkzsnygl/202009/t20200916_63170847.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['市发改委关于赴江苏如皋参加第四届国际氢能与燃料电池汽车大会的简报 - 贵阳市人民政府', '为加快我市氢能产业链建设、加快推动氢能产业高质量、高标准发展，经市领导批准，我委牵头组织，由副主任冯峻辉带队会同市工信局、市投促局、市商务局、市科技局、市住建局、市应急管理局、经开区产发局、市公交公司组成的考察学习组于9月25日-9月28日赴江苏如皋参加第四届国际氢能与燃料电池汽车大会考察学习。', '2019年9月26-28日，第四届国际氢能与燃料电池大会（FCVC 2019）在江苏如皋举办。中国工程院院士、中国汽车工程学会理事长李骏，中国工程院院士、上海交通大学氢科学中心主任丁文江，中国国际经济技术交流中心副主任张翼，江苏省人民政府副秘书长张乐夫，南通市委副书记、市长徐惠民，南通市委常委、常务副市长单晓鸣，联合国开发计划署亚洲及太平洋区域局高级经济顾问、一带一路倡议顾问郝博霖，南通市政府秘书长陈俊，日本原环境大臣原田羲昭等来自国内外政府部门、海内外知名领域的专家学者、国际组织、行业组织负责人、整车及零部件企业、能源企业、学术机构的1500余位专家、学者、业内精英出席，活动由中国汽车工程学会常务副理事长兼秘书长张进华主持。', '大会为期三天，来自国内外的氢能与燃料电池汽车领域的专家和相关产品制造商围绕氢能燃料电池技术市场化应用、燃料电池堆和关键零部件、制储氢技术、氢能基础设施建设、政策标准法规、市场投资等热点话题展开交流。由1场大会，11场分会，1场试乘试驾和1场大型展览组成，参会嘉宾超过1500人，111家氢燃料电池领军企业参展，50家参展企业亮相新技术、新产品。', '氢能作为一种清洁、高效、安全、可持续的新能源，凭借其来源广泛、存储稳定、应用前景广阔等特点，从众多新兴能源中“脱颖而出”。在如皋占地3.7平方公里的氢能小镇里，一条集制储运氢、加氢、氢燃料电池研发生产、氢燃料电池汽车开发制造、氢能产品示范应用“五位一体”的氢能产业链已经初步形成，而随着神华加氢站、氢能公交、氢能供电系统等在本次大会期间投入商用，如皋已经走在国内氢能发展的前列。', '会后，考察组成员纷纷表示参加本次国际氢能与燃料电池大会收获颇丰，有利于为我市转型创新高质量发展出谋划策提供经验支持、对我市布局新能源产业起到积极促进作用。', '省人民政府办公厅关于各市（州）人民政府2018年能源消耗总量和强度“双控”目标责任评价考核结果的通报']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>245</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>贵阳贵安党政代表团赴武汉考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202305/t20230512_79669237.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['5月11日，省委常委、市委书记胡忠雄率贵阳贵安党政代表团赴武汉考察学习，湖北省委常委、武汉市委书记郭元强，武汉市委副书记、市长程用文会见代表团一行。', '郭元强代表武汉市委、市政府对贵阳市党政代表团一行表示欢迎，对贵阳给予两地合作的关心支持表示感谢。他说，构建新发展格局，对武汉和贵阳都是重要的战略机遇。两地产业契合度高，经济互补性强，合作空间广阔。当前，武汉正全面贯彻党的二十大精神，深入学习贯彻习近平总书记考察湖北武汉重要讲话精神，牢牢把握高质量发展这个首要任务，加快把科教人才优势转化为创新发展优势、把交通区位优势转化为国内国际双循环枢纽链接优势，努力在湖北建设全国构建新发展格局先行区中当先锋、打头阵，担当主力军，加快打造新时代英雄城市，奋力谱写全面建设社会主义现代化国家武汉篇章。贵阳近年来在数字经济、产业创新、绿色发展等领域探索出很多好经验好做法，值得武汉学习借鉴。希望双方深化务实合作，加强互学互鉴，积极谋划合作项目，更好实现优势互补，共同为推进中国式现代化作出更大贡献。', '胡忠雄对武汉长期以来给予贵阳的支持表示感谢，对武汉高质量发展取得的成绩表示祝贺。他说，武汉是一座英雄之城、活力之城、希望之城，历史源远流长，交通区位优越，科教资源富集，产业基础雄厚，正在建设国家中心城市、长江经济带核心城市的征程上奋勇向前。当前，贵阳贵安正深入贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，牢牢把握新国发2号文件的重大机遇，深入实施“强省会”行动，积极融入长江经济带发展，奋力当好全省高质量发展的“排头兵”、现代化建设的“领头羊”。贵阳贵安将以本次考察学习为契机，认真学习借鉴武汉市在经济发展、城市建设、民生保障、生态文明等工作中的思路、理念、举措。希望双方建立良好沟通互动机制，持续深化在数字经济、文化旅游、科学教育等方面的务实合作，有效加强两城优势互补，携手推动两地高质量发展。', '当日，贵阳贵安党政代表团一行先后前往武汉市民之家、武汉规划展示馆、“武汉云”数字经济总部区等实地考察。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>245</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>贵阳市政府驻广州深圳办事处在广州考察招商</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202303/t20230331_78828928.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为进一步深化落实贵州党政代表团赴广东考察学习成果，持续跟进粤黔产业协作涉及贵阳项目合作。3月28日，贵阳市人民政府驻广州（深圳）办事处主任吴坤玲、副主任石忠益率队开展招商考察。', '在广东中科威蒂能源科技有限公司，吴坤玲主任向索华董事长介绍了贵阳贵安“1+7+1”产业布局，表示该公司产品和发展定位与贵阳贵安高度切合，有较好的发展机遇和空间，希望企业在贵阳贵安按照“区域总部+基地”的发展模式进行投资布局，同时入驻科研团队，助力贵阳贵安“招才引智”工作。索华董事长表示看好贵阳市场，一周内提供项目投资计划书，抓紧推进下步合作洽谈。', '在广州数据交易所有限公司，与魏东副总经理座谈交流。座谈中魏总对交易所的体系架构、服务模式、运营现状等进行介绍。吴坤玲主任表示，贵阳贵安是全国重要的大数据中心，希望通过交易所促进东西部协作，并诚挚邀请该所参加2023年数博会，同时也向交易所详细介绍贵阳贵安大数据发展情况。', '在全球溯源中心，相关负责人介绍了溯源中心体系建立、区域数字治理、产业数字化、数字经济和场景应用等情况。在参观过程中，吴坤玲主任表示，近年来，贵阳市坚定不移实施数字城市战略，逐渐形成了数字经济“一会一所一城一中心”品牌，希望能够加强交流，形成合作共识，共同推动东西部协作。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>245</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>胡忠雄在昆明与云南省委常委昆明市委书记滇中新区党工委书记刘洪建举行会见</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202308/t20230824_82012592.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['胡忠雄在昆明与云南省委常委、昆明市委书记、滇中新区党工委书记刘洪建举行会见 - 贵阳市人民政府', '胡忠雄对昆明市、滇中新区给予贵阳贵安党政代表团本次学习考察的热情接待和周到安排表示感谢。他说，当前，贵阳贵安正深入学习贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，坚定不移推进生态立市、工业强市、数字活市、人才兴市，奋力当好全省高质量发展“排头兵”、现代化建设“领头羊”。贵阳与昆明同为云贵高原明珠，贵安新区与滇中新区同为国家级新区，双方合作具有重大的战略和现实意义。贵阳贵安将把本次考察学习作为一次学习之旅、情感之旅、合作之旅，认真学习借鉴昆明市、滇中新区的发展思路、体制、规划、举措，不断巩固拓展双方各领域交流互动。希望双方深挖文旅、新区、口岸、通道等领域合作潜力，项目化、数字化、年度化推动合作落地，共同在高质量发展中实现互利共赢。', '刘洪建对贵阳贵安党政代表团一行的到来表示欢迎，并介绍了昆明市和滇中新区经济社会发展情况。刘洪建表示，当前，昆明市和滇中新区正深入学习贯彻党的二十大和习近平总书记考察云南重要讲话精神，主动服务和融入国家发展战略，按照省委提出的昆明要当好全省经济社会发展排头兵的部署要求，围绕打造“六个春城”的发展思路和发展路径，统筹抓好产业发展、磨憨国际口岸城市建设、滇中新区改革发展、生态文明建设、民族团结进步等重点工作，努力走出一条高质量跨越式发展的新路子。昆明市、滇中新区和贵阳市、贵安新区，地缘相近、人文相亲，产业关联度高、互补性强，合作空间十分广阔。希望双方立足自身比较优势，深化交流合作，加强互学互鉴，做好工作对接，推动各方面合作取得更多实质性成果，携手实现高质量发展。', '胡忠雄：加快把合作共识转化为合作项目发展成果 为深入实施“强省会”行动贡献更多力量']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>245</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>贵阳市自然资源和规划局推进园区事园区办助力民营经济高质量发展</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202305/t20230524_79876437.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['贵阳市自然资源和规划局推进“园区事园区办” 助力民营经济高质量发展 - 贵阳市人民政府', '按照《贵阳贵安支持民营经济发展若干措施》、《贵阳贵安深化“放管服”改革推进“园区事园区办”工作方案（试行）》', '有关工作要求和局党委工作安排，局分管领导亲自抓统筹调度，通过组织实地调研、座谈交流和考察学习等方式，有序推进相关审批管理职权下放,促进自然资源和规划领域审批效率提升，助力民营经济更好更快发展。', '贵阳市自然资源和规划局与贵阳经济技术开发区、贵阳国家高新区管委会、贵州双龙航空港经济区管委会签订自然资源和规划行政管理职权委托协议。根据委托协议，上述区域将依法实施划拨项目用地审批、工业用地出让、工业项目（含配套公共服务设施）及划拨类项目的《建设项目用地预审与选址意见书》、《建设用地规划许可证》、《建设工程规划许可证》和《建设工程竣工规划认可证》的受理、审查、核发以及建设项目规划批后监管等职权。', '今年五月，为深入推进审批管理职权下放工作，由分管领导带队，分别赴云岩区、南明区、观山湖区、花溪区开展“园区事园区办”等“放管服”改革工作实地调研', '。并组织各区政府、开发区管委会以及各区自然资源局、空间规划科召开会议，就如何落实好“园区事园区办”推进行政审批职权下放工作进行讨论研究。在明确委托下放', '工业项目（含配套公共服务设施）“一书三证”审批职权之外，我局还将参照试点开发区下放划拨项目用地审批、工业用地出让和划拨类项目“一书三证”审批等职权，保障区级政府拥有更多审批自主权，营造优质高效的民营经济发展环境，进一步提升服务民营经济能力水平。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>245</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>观山湖区年三公经费预算情况说明</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2017-01-23</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qsxyjsjsgjf/gshq_5624444/202001/t20200116_43361110.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['根据《预算法》和《关于深入推进地方预决算公开工作的通知》（财预（2014）36号）的有关规定，我区继续认真贯彻落实中央和省市关于改进工作作风、密切联系群众，厉行勤俭节约、反对铺张浪费的政策规定和要求，将厉行节约与部门预算管理紧密结合，从严从紧编制部门预算。2017年 “三公”经费要求各单位按较上年只减不增原则编制，控制行政成本，大力推进节约型政府建设，现将我区2017年“三公”经费预算情况说明如下：', '经观山湖区财政局汇总，2017年观山湖区各部门，包括行政单位（含参照公务员法管理的事业单位）、事业单位和其他单位使用财政拨款（含上年财政拨款预算和以前年度结转结余资金）安排“三公”经费预算情况。', '由于我区是新成立的建制区且成立时间较短（2012年12月成立），以前年度因机构不全等因素部门因公出国（境）工作开展少，造成我区因公出国（境）基数较小。如今，随着“一带一路”国家开放战略的积极推进，我省乃至我区进入高铁时代，开启了大数据时代，走向了生态文明新时代。2016年，我省获批建设内陆开放型经济实验区，机遇和挑战造成了我区外出考察、学习、交流的机会增多，再加上我区现有机构不断完善造成了因公出国（境）经费增加的情况。', '二、各级行政事业单位公务接待费由单位自行在部门预算公务费中开支，区财政不单独安排部门公务接待费。具体数据由区级部门自行公布。', '四、我区公务用车运行维护费实行“分类分档”的定额管理方式，根据单位性质、承担职能等情况，共分为6档管理，由区财政根据编制内实有车辆数核定。具体数据由区级各部门自行公布。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>245</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>贵阳市劳动模范管理办法已修改修改后文本进入现行有效政府规章查询</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2005-11-28</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/xzgz/zfl/202004/t20200422_56186262.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['《贵阳市劳动模范管理办法》已经2005年1月4日市人民政府常务会议通过。现予发布，自20', '本办法适用于本市市级劳动模范和先进工作者的评选、表彰、奖励及本市辖区内全国、省级劳动模范和先进工作者的服务管理工作。', '贵阳市劳动模范荣誉称号授予的对象是符合本办法规定的条件，按本办法规定评选出来的企业职工、个体劳动者、农民；贵阳市先进工作者荣誉称号授予的对象是符合本办法规定的条件，按本办法规定评选出来的国家机关、事业单位、社会团体的工作人员。', '有关部门应当认真总结、宣传、推广劳动模范和先进工作者的事迹和经验，充分发挥劳动模范的表率作用。', '各单位和各级工会组织要加强对劳动模范和先进工作者的培养，不断提高劳动模范和先进工作者的政治素质、业务素质，保持劳动模范的先进性。', '贵阳市总工会在评选劳动模范和先进工作者前，应会同市人事行政管理部门制订表彰方案，报市人民政府批准后实施。', '(四)积极投身社会主义现代化建设，为本地区经济社会发展和“三个文明建设”做出突出贡献；', '企业、事业组织、行政机关和社会团体推荐的劳动模范或先进工作者人选，应由本单位职工代表大会或职工代表团(组)长联席会议、职工大会讨论通过，张榜公示7日后没有异议，按隶属关系逐级上报。', '街道办事处、乡、镇推荐的个体劳动者、农民劳动模范人选应在推荐人选所在社区、村张榜公示7日后没有异议，按隶属关系逐级上报。', '市直各部门、区、县(市)人民政府，应对所属基层单位推荐的先进工作者人选进行审核，按规定上报。', '推荐的劳动模范和先进工作者人选，是企业、事业、机关主要负责人的，按有关规定，由有关部门签署审查意见。', '拟表彰的贵阳市劳动模范和先进工作者人选，经《贵阳日报》公示10日后没有异议，由市人民政府授予称号，召开大会予以表彰，并颁发荣誉证书、奖章和奖金。', '(一)生活补贴：市级以上(含市级)劳动模范和先进工作者生活补贴由劳动模范和先进工作者所在单位按市以上人民政府规定的标准执行。同时荣获全国、省、市级劳动模范和先进工作者称号的，按最高荣誉称号享受生活补贴，不重复享受。被兼并、租赁、重组、收购企业中的劳动模范生活补贴，由兼并、租赁、重组、收购方承担；因单位改制、破产与原单位脱离劳动关系的劳动模范生活补贴由原单位隶属关系的同级财政承担；农民劳动模范由所在区、县(市)人民政府承担；', '(二)健康检查：市级以上劳动模范和先进工作者身体检查每两年进行一次，并建立保健档案。体检所需费用由劳动模范、先进工作者所在单位承担；农民劳动模范由所在区、县(市)人民政府承担；', '(三)疗(休)养：贵阳市总工会有计划地组织市级以上劳动模范和先进工作者进行短期疗、休养。疗、休养期间的费用在劳动模范管理经费中开支。有条件的区、县(市)和单位，可自行组织；', '(四)医疗优待：市级以上劳动模范和先进工作者(含全国、省五一劳动奖章)凭劳动模范证在市属医院优先就诊、住院；免交挂号费，优惠收取仪器检查费；', '用人单位原则上不安排劳动模范、先进工作者下岗，对破产等原因下岗的劳动模范、先进工作者，企业安置职工再就业时，应当优先安排劳动模范上岗。', '从五十年代以来，贵阳市共评选出劳动模范3030人次。其中：全国劳模73人次、贵州省劳模1685人次、贵阳市劳模1083人次；全国“五一”劳动奖章获得者26人次、贵州省“五一”劳动奖章获得者136人次。他们在我市社会主义建设的各个时期，在自己的工作岗位上，努力学习、勤奋工作、无私奉献，为我市的经济社会发展做出了突出贡献，理应受到尊敬和爱戴，以及必要的奖励和优待。为了充分体现党和政府以及社会各界对劳模和先进工作者所作出贡献的肯定，加强管理工作、解决实际困难、落实待遇，使我市的劳模和先进工作者管理工作规范化、制度化，进一步激励劳模和先进工作者为建设大贵阳，全面实现建设小康社会目标做出新的、更大的贡献，制定《贵阳市劳动模范管理办法》(以下简称《办法》)，规范我市劳模和先进工作者的评选、表彰、奖励和管理工作显得尤为必要。', '市总工会于2002年10月组成了有人事局、财政局等单位参加的《办法》起草小组。2002年12月，起草小组先后赴沈阳、长春、黑龙江等地进行考察学习，借鉴外地先进经验，结合我市实际情况，起草出《办法》初稿。之后，多次召开有市劳模领导小组成员、各区县(市)政府分管劳模工作的领导、工会工作者、劳动模范代表参加的各种座谈会、论证会，并根据提出的意见、建议反复修改，征求并吸纳了市人大有关专委会领导的意见，经市法制办认真地审查修改，形成了《办法》草案送审，并经2005年1月4日市人民政府常务会议通过。', '按照《中华人民共和国工会法》的规定，工会受政府委托负责劳模的评优、表彰、培养和管理工作。为使劳动模范的评选、表彰和奖励工作更加规范，使管理职责更加分明，在《办法》中明确了市人民政府委托贵阳市总工会负责本市劳动模范和先进工作者的服务管理工作；明确贵阳市总工会会同市人事局制定表彰工作的方案，其内容包括：表彰人数、名额分配、评选条件、审批程序、奖励标准、经费预算，报市政府批准后实施。', '为确保劳模评选工作公平、公正，企业、事业组织、行政机关和社会团体推荐的劳动模范或先进工作者人选，应由本单位职工代表大会或职工代表团(组)长联席会议、职工大会讨论通过，张榜公示7日后没有异议，按隶属关系逐级上报；街道办事处、乡、镇推荐的个体劳动者、农民劳动模范人选应在推荐人选所在社区、村张榜公示7日后没有异议，按隶属关系逐级上报；市直各部门、区、县(市)人民政府，应对所属基层单位推荐的先进工作者人选进行审核，按规定上报。', '劳模在岗位时，勤奋工作，无私奉献，为社会作出了积极的贡献，为体现党和政府对劳模的关心和爱护，除在表彰时可荣获一次性奖励外，《办法》规定市劳动模范、先进工作者享受生活补贴、健康检查，疗休养、入公园优待、乘车优惠、子女参军同等条件优先等待遇。', '针对近几年来，部分劳动模范、先进工作者在工作、生活中存在的一些具体困难需得到关心和帮助解决的实际情况，《办法》中明确了应帮助他们解决夫妻两地分居、生活困难、医疗困难问题。关于优惠收取仪器检查费问题，是指“优惠30%收取磁共振扫描(MRI)、X线计算机体层扫描(CT)、彩色多普勒超声检查的仪器检查费”等。', '在多年的实际工作中，曾出现有些劳模由于放松学习和思想改造，不能与时俱进和不断进取，有的甚至违法、违纪，受到了处分。为严肃纪律，维护劳模和先进工作者称号的严肃性，因此，办法中明确了撤销市劳动模范或者市先进工作者称号、停止享受有关待遇的规定。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>245</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>市人民政府办公厅关于印发贵阳市政务服务标准化试点工作方案的通知</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2016-08-25</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2016/201711/t20171127_11365928.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['市人民政府办公厅关于印发《贵阳市政务服务标准化试点工作方案》的通知 - 贵阳市人民政府公报', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位：', '《贵阳市政务服务标准化试点工作方案》已经市人民政府研究同意，现印发给你们，请结合实际，认真贯彻执行。', '为加快推进贵阳市省级政务服务标准化试点工作，进一步提升政务服务质量和管理水平，建立以规范服务为核心、效能提升为重点、公开监督为保障的政务服务标准体系，实现从制度化管理向标准化管理的升华，充分发挥标准体系建设在深化行政审批制度改革、促进依法行政和优化经济发展环境中的作用，加快政府职能从管理型向服务型转变，结合贵阳市实际，制定本方案。', '政务服务标准化试点工作通过明确质量方针，细化工作标准，优化质量标准，规范管理标准，注重持续改进，达到提高政务服务质量和服务效率的目的，是实现“服务质量目标化、服务方法规范化、服务过程程序化、服务流程信息化”的最佳途径，对于更好地深化行政体制改革、正确履行政府职能、提升政府治理现代化水平具有重要意义。', '（一）建立健全行政审批（服务）事项标准。根据行政审批服务发展的要求，建立健全适合政务服务工作需要、具有贵阳特色的政务服务标准，将审批服务事项办理、审批服务窗口管理和日常事务处理纳入标准化管理，实现“事事有标准可依、岗岗有标准规范、人人按标准履职”。', '”理念，全面提升行政审批服务质量和水平，在加强政务大厅自身建设、推进管理创新和优化政务服务环境上取得明显成效，推动政务服务工作再上新台阶。', '（三）打造一流的优质服务品牌。通过全面组织实施服务标准化，进一步增强服务意识、规范服务行为、提高服务质量、提升服务效能，创品牌、树形象，使政务大厅的管理和服务水平进入一流的政务服务行列。', '围绕实现政务服务的方针目标，依据政务服务所适用的法律法规以及标准化管理有关规定，建立以服务基础标准子体系为基础，服务质量标准子体系为核心，服务管理标准子体系和服务工作标准子体系为支持和保障的四个政务服务标准子体系，实现服务质量标准提供。', '（一）服务基础标准子体系。主要包括标准化管理基本规定、方针目标、标准体系编制原则，服务标准化工作指南，服务术语标准、文件编写要求以及标志、图形符号等方面等服务基础标准，作为其他标准的基础，具有广泛的指导意义并普遍使用。', '（二）服务质量标准子体系。主要为窗口提供的服务行为提供依据和规范，包含了窗口每一个行政审批事项名称、设定依据、申请材料、办理程序、承诺时限、收费项目和标准、公开方式以及审批流程图等具体标准。', '（三）服务管理标准子体系。主要对服务过程中涉及的关键环节和因素进行管理和控制，保证服务质量标准体系的顺利运行，包括业务事项管理、窗口管理、效能管理、服务规范、人员管理、考评考核、宣传报道、网络管理、设备与基础设施管理、党风廉政建设等管理方面的标准。', '（四）服务工作标准子体系。主要包括决策层工作标准、管理层工作标准、一般管理人员及窗口人员工作标准，在服务质量标准体系和服务管理标准体系共同制约下，做到“岗岗有标准规范，人人按标准履职”，使每个工作人员言行有规范、办事有程序、操作有原则、服务有方向。', '成立由市政府分管领导任组长的贵阳市政务服务标准化试点工作领导小组（领导小组成员名单附后），负责政务服务标准化试点的组织、协调和指导工作。领导小组下设办公室在市政务服务中心，负责试点工作的组织、协调、实施、监督和检查等。领导小组各成员单位工作职责如下：', '市政务服务中心：作为项目实施主体，负责组织、协调、推进贵阳市政务服务标准化试点工作；拟订《贵阳市政务服务标准化试点工作方案》，制定《贵阳市政务服务标准目录》，监督并考核标准实施过程等。', '市质监局：负责标准化知识培训的组织；指导有关部门收集、制定、修改体系标准；协调省质监局对我市政务服务标准化试点工作的培训、指导、检查和验收等相关工作。', '市政务服务大厅各进驻单位：确保本部门事项全部进厅，授权到位，杜绝“两头受理”；明确分管领导及专人负责按时限要求完成本部门标准编制和实施工作；确保本部门政务服务标准通过检查验收。', '贵阳市政务服务标准化试点工作分为宣传动员、基础标准收集及体系标准编制、标准发布实施试运行、体系自查自评及整改、申请验收', '组织标准化知识培训，通过专家授课、现场指导、学习考察外地先进经验等方法，加深对服务标准体系的理解，牢固树立标准化服务理念。', '召开动员大会，宣传政务服务标准化试点工作目的和意义，统一思想，提高标准化工作意识。', '组织相关人员到省外标准体系建设工作做得好的地区进行考察，学习借鉴各地管理的先进经验。', '邀请标准化领域专家共同分析我市政务服务管理现状，结合标准化工作要求，制定完善贵阳市政务服务标准化体系，力争达到进厅办理事项标准全覆盖。', '编制标准体系框架，按照“程序最简、环节最少、时间最短、效率最高”的要求，编写制定适合我市政务服务工作需要的服务提供和保障标准，实现对审批服务项目办理程序的全面优化。同时，注意处理好标准化与特色化的关系，在符合标准化要求的基础上，突出我市自身特色。', '全面实施标准，加强标准实施管理。用标准规范服务，靠服务完善标准，培养良好的行为习惯，将标准化服务变为自觉行动，同时做好标准实施的相关记录。', '及时开展标准体系实施情况检查、督导工作，畅通内、外部监督渠道，接收反馈意见。做好体系实施检查记录和问题处理记录。', '对标准体系实施情况进行全面分析，及时总结成功经验和做法，查找、分析问题和不足，提出整改措施。', '（一）统一思想，提高认识。有关单位要充分认识开展政务服务标准化试点工作的重要性，把推进试点工作当作一项重要工作抓好抓实。各单位窗口要及时向后台部门汇报窗口标准编制工作情况，积极争取重视和支持，形成部门和窗口联动的工作局面。', '（二）明确目标，细化责任。有关单位要根据试点工作方案确定的目标、任务和要求，进行任务的再分解再细化，做到人人都参与，人人有任务，人人有责任。', '（三）形成合力，狠抓落实。有关单位既要立足岗位特色完成好本职工作，又要从工作大局出发，相互配合，密切协作，形成合力，共同把政务服务标准化试点工作落实到位。', '（四）加强督查，强化考核。市政务服务标准化试点工作领导小组办公室要对工作推进情况进行督促检查，将此项工作列入市政务服务工作专项考核的重要内容。', '领导小组下设办公室在市政务服务中心，办公室主任由黄平同志兼任，副主任由市政务服务中心常务副主任李琼、市政务服务中心副主任龙燕、市质监局副局长程宁和市政务服务中心副调研员陈平兼任。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>245</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>筑府办函号市人民政府办公厅关于成立市政府推进政府职能转变和放管服改革协调小组的通知</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2019-05-08</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qfbh/201906/t20190603_9599512.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['筑府办函〔2019〕49号 市人民政府办公厅关于成立市政府推进政府职能转变和“放管服”改革 协调小组的通知', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市直属各事业单位，市管企业：', '为深入推进简政放权、放管结合、优化服务改革，加快政府职能深刻转变，市政府决定成立推进政府职能转变和“放管服”改革协调小组（以下简称协调小组）。现将有关事项通知如下：', '以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党中央、国务院，省委、省政府和市委、市政府决策部署，围绕推动高质量发展，加快推进政府职能深刻转变，统筹研究推进政府职能转变和“放管服”改革重要领域、关键环节的重大政策措施，研究拟提请市政府常务会议审议的有关重要事项，协调推动解决重点难点问题，指导督促全市各级各部门落实改革措施，更大限度激发市场活力、调动人的积极性和社会创造力。', '协调小组办公室承担协调小组的日常工作，负责沟通协调各专题组、保障组工作，联系全市“放管服”改革工作；收集汇总相关信息资料及各区（市、县、开发区）、各部门改革工作推进情况；组织开展政府职能转变和“放管服”改革重大问题调查研究，提出需要由协调小组研究决策的问题及相关建议；督促落实协调小组议定事项；完成协调小组交办的其他任务。', '协调小组下设精简行政审批组、优化营商环境组、激励创业创新组、深化商事制度改革组、改善社会服务组5个专题组和法治组、督查组、专家组、大数据发展保障组4个保障组。', '负责牵头推进行政审批制度改革、投资审批制度改革、工程建设项目审批制度改革。放权方面，协调推进清理和规范各类行政许可等管理事项，清理规范审批中介服务事项，继续清理精简投资项目审批、工程建设项目审批、核准等事项，推行区域评估、联合评审、并联审批等。监管方面，规范行政审批行为，审核并督促落实取消下放审批事项的事中事后监管措施，清理规范“红顶中介”。服务方面，协调推进行政审批标准化，推进审批服务便民化，持续开展减证便民行动，提高政府服务质量和效率。', '负责牵头优化营商环境，提高综合竞争力，打造竞争新优势。放权方面，推进实行市场准入负面清单制度，清理废除妨碍统一市场和公平竞争的各种规定和做法。扩大外资市场准入，促进民间投资，提升贸易便利化水平。监管方面，清理规范审批中介服务收费，完善收费监管制度，持续清理规范涉企收费。服务方面，加强产权保护，推动健全知识产权保护体系。配合推进水电气讯、银行等公用事业领域改革，提升服务质量效率。加强政务诚信建设。建立健全营商环境评价机制。', '负责牵头推进实施创新驱动发展战略，打造大众创业、万众创新升级版，深化政府数字治理，推进新旧动能接续转换。放权方面，协调推进科研经费使用和管理方式改革创新，赋予科研单位和科研人员更大自主权，提高创新成果转化效率，激发创业创新活力。协调推进放宽大数据、互联网及电子商务等新兴产业市场准入，发展和培育大数据核心业态、关联业态、衍生业态。监管方面，对新兴产业量身定制包容审慎监管模式和标准规范，坚守安全和质量底线。全面打造“数据铁笼”，推动政府提升对重点领域、重点行业的监管水平。服务方面，协调推动各类主体融通创新，破解创业创新融资难题。改革分配机制，健全保障体系，促进人才合理流动。深化职业资格管理制度改革，加强就业和技能服务，完善对新就业形态的支持措施。', '负责牵头深化商事制度改革，加强和完善市场监管，维护公平竞争市场秩序。放权方面，压缩企业开办时间，全面推开“证照分离”改革，深化“多证合一”改革，推进工业产品生产许可证制度改革，推行简易注销改革。监管方面，健全以“双随机、一公开”监管为基本手段、以重点监管为补充、以信用监管为基础的新型监管机制，推进跨部门联合监管和“互联网+监管”。规范执法行为和自由裁量权。服务方面，发挥标准的引领和规范作用，强化标准体系，健全认证认可检验检测体系。', '牵头负责协调推进卫生健康、养老、社保、教育、医疗保障以及社会管理等领域“放管服”改革，为人民群众提供便捷高效、公平可及的公共服务。放权方面，协调推进放宽服务业市场准入，调动市场力量增加非基本公共服务供给。监管方面，强化对政府窗口服务的监督，加强公共服务质量监管。服务方面，简化优化民生事项办理流程和手续，推进养老保险、医疗保险等事项异地联网办理。充分运用“互联网+教育”“互联网+医疗”等模式，增强优质公共服务资源辐射效应。', '各专题组的日常工作由组长单位牵头。各专题组负责调查研究本领域社会反响大、群众意见集中的问题，协调相关部门对重点难点问题合作攻关，提出改革建议。各专题组的改革建议可在请示市政府分管领导同志后，按程序提交协调小组会议审议。专题组的职责和组成可根据工作需要调整。', '负责对政府职能转变和“放管服”改革措施进行合法性审核，及时提出制修订相关法规规章的建议方案，推动相关法规规章立改废释工作，及时将成熟的改革经验制度化等。', '负责督促检查政府职能转变和“放管服”改革各项措施贯彻落实情况，核查督办各专题组提出的部门和地方改革中存在的问题，以及社会对有关改革反映强烈的问题。', '专家组由协调小组办公室负责邀请知名专家组成。受协调小组委托，围绕政府职能转变和“放管服”改革开展理论研究，提供政策咨询，客观公正地提出意见建议。', '负责为“放管服”改革工作提供信息技术保障，配合建立全省政府一体化政务数据中心体系，推动政务数据资源规范管理、汇聚和共享开放，整合自建审批业务系统，接入贵州省数据共享交换平台，以各部门优化业务流程为基础，推动行政审批和公共服务事项一站式办理。', '（一）协调小组要按照党中央、国务院和省委、省政府、市委、市政府决策部署，切实发挥好推进政府职能转变和“放管服”改革工作的统筹指导和督促落实作用。各专题组和保障组要根据职责分工，细化分阶段重点工作，制定可量化、可考核、有时限的目标任务。对跨领域、跨部门、跨层级的重大问题，要加大研究协调力度，及时督促解决，推动各项改革协同配套、整体推进。要尊重基层首创精神，及时总结推广典型经验做法。', '（二）市政府各部门要自觉扛起改革重任，做深化“放管服”改革的表率，涉及本部门的改革任务要及早落实，该放的权坚决放，该办的事加快办，该服务的服务好，主动帮助全市各级解决实际困难问题，支持各地先行先试。部门主要负责同志要切实负起领导责任，亲自抓好部署、协调和落实。', '（三）各区（市、县）人民政府、开发区管委会要完善政府职能转变和“放管服”改革推进机制，因地制宜，明确专人负责，锐意探索创新，创造更多管用可行的“一招鲜”。要主动对标先进，相互学习借鉴，形成竞相推进改革的生动局面，更大激发市场活力、增强内生动力、释放内需潜力，推动经济社会持续健康发展。', '（四）协调小组成员和各专题组、保障组组长、副组长需要调整的，由所在单位书面向协调小组办公室提出并按程序报批。', '为贯彻落实《关于成立市政府推进政府职能转变和“放管服”改革协调小组的通知》精神，加强对全市“放管服”改革工作的领导，特制定本工作规则。', '第一条 市推进政府职能转变和“放管服”改革协调小组（以下简称市放管服协调小组）是市政府议事协调机构，统一部署和组织全市推进政府职能转变和“放管服”改革相关工作，直接受市政府领导。', '第二条 市放管服协调小组设组长1人，由常务副市长担任；副组长2人，由分管副市长和市政府秘书长担任；成员若干人，由市政府办公厅和市直部门有关负责同志组成。', '第三条 市放管服协调小组设5个专题组和4个保障组。专题组有精简行政审批组、优化营商环境组、激励创业创新组、深化商事制度改革组、改善社会服务组；保障组有法治组、督查组、专家组、大数据发展保障组。', '第四条 市放管服协调小组下设市推进政府职能转变和“放管服”改革协调小组办公室（以下简称市放管服协调小组办公室），办公室设在市政府办公厅，具体工作由放管服改革工作处承担，负责市放管服协调小组日常事务工作。', '第五条 市放管服协调小组负责全市政府职能转变和“放管服”改革的总体设计、统筹协调、整体推进、督促落实、理论研究、技术保障。', '第六条 市放管服协调小组的主要职责是：以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党中央、国务院，省委、省政府和市委、市政府决策部署，围绕推动高标准要求、高水平开放、高质量发展，加快推进政府职能深刻转变，统筹研究推进政府职能转变和“放管服”改革重要领域、关键环节的重大政策措施，研究拟提请市政府常务会议审议的有关重要事项，协调推动解决政府职能转变和“放管服”改革重点难点问题，指导督促全市各级各部门落实改革措施，更大限度激发市场活力、调动人的积极性和社会创造力。', '第七条 市放管服协调小组根据工作需要，定期或不定期进行专题调研，包括开展重大课题研究、实地调研、召开座谈会等。专题调研安排由市放管服协调小组办公室根据市放管服协调小组组长要求提出建议并组织实施。', '第八条 市放管服协调小组会议由组长（或由其委托副组长）召集和主持，根据工作需要不定期召开，会议的主要任务是对推进政府职能转变和“放管服”改革重大事项进行研究、部署。', '第九条 市放管服协调小组会议议题一般由市放管服协调小组办公室按照组长要求研究提出建议，报组长（或由其委托副组长）同意后确定；也可由专题组和保障组提请，经市放管服协调小组办公室报请组长同意后确定。', '第十条 市放管服协调小组会议纪要，需经副组长审阅后由组长签发。会议纪要印发市放管服协调小组组长、副组长、成员，专题组和保障组组长、副组长，以及与会议决定有关的领导同志和区（市、县）、开发区和市直有关部门。', '第十一条 根据需要，适时召开全市推进政府职能转变和“放管服”改革大会，主要任务是贯彻落实国务院关于政府职能转变和“放管服”改革有关精神，总结年度工作，安排部署相关工作。会议由市放管服协调小组办公室拟定方案并筹备，报市放管服协调小组组长同意后召开。', '第十二条 各区（市、县）人民政府，开发区管委会结合各自实际，比照省、市建立推进政府职能转变和“放管服”改革协调小组，根据省、市放管服协调小组的统一部署，负责组织本地政府职能转变和“放管服”改革有关工作。', '第十三条 各区（市、县）人民政府，开发区管委会和市直各单位，关于政府职能转变和“放管服”改革的重大决定和重要方案，应向市放管服协调小组办公室备案。', '为贯彻落实《关于成立市政府推进政府职能转变和“放管服”改革协调小组的通知》精神，加强对全市“放管服”改革工作的领导，特制定本工作细则。', '第一条 市推进政府职能转变和“放管服”改革协调小组办公室（以下简称市放管服协调小组办公室）是市推进政府职能转变和“放管服”改革协调小组（以下简称市放管服协调小组）常设办事机构，设在市政府办公厅，具体工作由市政府办公厅放管服改革工作处承担。', '第二条 市放管服协调小组办公室由市放管服协调小组领导，负责处理市放管服协调小组日常事务工作。市政府秘书长兼任市放管服协调小组办公室主任，市政府分管“放管服”改革工作的副秘书长兼任办公室常务副主任，各专题组、保障组组长兼任办公室副主任。', '第三条 市放管服协调小组办公室履行总调度和总协调职能，拟定工作要点，制定工作计划，起草工作总结，积极指导督促各专题组、保障组和各区（市、县）人民政府，开发区管委会及市有关单位贯彻落实“放管服”改革领域工作任务。', '第四条 市放管服协调小组办公室负责向市放管服协调小组报送年度推进政府职能转变和“放管服”改革工作报告和工作建议，研究处理有关方面向市放管服协调小组提出的重要改革事项等。', '第五条 市放管服协调小组办公室负责沟通协调各专题组和保障组工作，联系全市各级各部门推进政府职能转变和“放管服”改革工作，组织落实国务院放管服协调小组、省放管服协调小组和市放管服协调小组的各项决策部署，做好信息宣传等工作。', '第六条 市放管服协调小组办公室负责转发或办理涉及推进政府职能转变和“放管服”改革方面的来文和相关业务；负责协调办理涉及推进政府职能转变和“放管服”改革方面跨专题组和保障组，跨部门的来文和相关业务。', '第七条 根据工作需要，适时召开办公室会议及专题协调会议，专题组、保障组联络员会议等，沟通各领域“放管服”改革进展情况和动向、研究部署“放管服”改革相关工作。', '第九条 办公室会议由主任或由主任委托常务副主任召集和主持。会议主要任务是：研究需提交市放管服协调小组审议决定的事项，落实市放管服协调小组决议的工作部署；研究“放管服”改革的工作制度、推进方案、工作要点、工作总结；研究“放管服”改革事项的检查、督促和评估工作；研究专题组和保障组提议研究的重要工作；通报交流全市推进政府职能转变和“放管服”改革进展情况、做法、经验，征求“放管服”改革领域重大政策措施和重大改革事项的意见建议；其他需要研究的事项。', '第十条 专题协调会议、专题组和保障组联络员会议，由市放管服协调小组办公室主任或委托的副主任召集和主持，主要研究部署、沟通协调各组推进政府职能转变和“放管服”改革相关工作。具体会议内容和参会人员由市放管服协调小组办公室主任决定。', '第十一条 市放管服协调小组办公室承担办公室会议及专题协调会议、专题组和保障组联络员会议的会务工作，负责会议记录，按程序报签、印发和归档管理会议纪要。', '第十三条 市放管服协调小组及其办公室文件制度参照《党政机关公文处理工作条例》建立，执行相应拟制、办理、管理等规范。根据省政府要求，需要报备的严格按程序报备。', '第十四条 文件起草。市放管服协调小组及其办公室文件一般由市放管服协调小组办公室负责起草，也可指定由专题组和保障组、成员单位代拟。起草涉及面宽、综合性强的重要文件应充分征求成员单位及各区（市、县）人民政府、开发区管委会意见建议。', '第十五条 文件审核。市放管服协调小组及其办公室文件审批应当严格按照分工和权限进行。市放管服协调小组文件，由市放管服协调小组办公室主任审核，报市放管服协调小组组长签发；市放管服协调小组办公室文件由办公室主任签发。', '第十六条 行文规则。行文应当确有必要，讲求实效，注重针对性和可操作性。涉及多个部门职权范围内的事务，部门之间协商一致方可发文。各专题组和保障组相应职能职责的单项工作任务，需成员单位和区（市、县）人民政府、开发区管委会及相关部门知晓和共同执行的，可由市放管服协调小组办公室与相关部门联合行文。', '第十七条 工作调度。市放管服协调小组办公室负责根据年度工作要点督促并收集汇总各专题组报送相关领域“放管服”改革实施方案，形成总台账和时间表，向市放管服协调小组汇报。', '第十八条 督查工作。建立督查制度，每年年初由督查组拟定督查方案，报市放管服协调小组办公室备案后组织实施。督查组要采取规范、科学、高效的督查方式，督促和推动各地区各部门深化“放管服”改革，督查结果报市放管服协调小组办公室。', '第十九条 联络协调。市放管服协调小组办公室负责沟通协调各专题组和保障组工作，联系全市各级各部门推进政府职能转变和“放管服”改革工作。', '第二十条 调查研究。结合党中央、国务院和市委、市政府决策部署，委托专家组、法治组及市直有关单位，开展推进政府职能转变和“放管服”改革重大问题的调查研究，向市放管服协调小组提出工作建议。', '第二十一条 技术支撑。市放管服协调小组办公室依托大数据发展保障组，为“放管服”改革提供信息技术支撑保障。', '第二十二条 工作培训。市放管服协调小组办公室负责制定市推进政府职能转变和“放管服”改革培训计划、培训方案，按程序报协调小组组长或副组长批准实施。培训采取全面培训与专项培训、会议培训与考察学习相结合方式进行。', '第二十三条 信息编发。市放管服协调小组办公室负责收集汇总“放管服”改革领域相关信息资料、典型事例和工作推进落实情况，编制、报签和印发“放管服”改革工作简报、专报和通报，梳理汇编“放管服”改革工作相关政策文件和制度规范。', '第二十四条 宣传报道。市放管服协调小组办公室负责联系主管部门组织媒体对我市推进政府职能转变和“放管服”改革做好政策宣传解读和舆论引导工作，提高社会各界对我市推进政府职能转变和“放管服”改革工作的知晓度和支持度。', "第二十五条 印章管理。市放管服协调小组办公室文件加盖“贵阳市推进政府职能转变和'放管服'改革协调小组办公室”印章生效。“贵阳市推进政府职能转变和'放管服'改革协调小组”和“贵阳市推进政府职能转变和'放管服'改革协调小组办公室”印章由市放管服协调小组办公室明确专人负责管理，并按签批程序使用。", '第二十六条 各区（市、县）人民政府、开发区管委会，相应建立放管服协调小组办公室，负责组织本地推进政府职能转变和“放管服”改革有关工作。', '第二十七条 推进“放管服”改革的调研、宣传、督查、文件起草、会议及相关资料印刷等工作运行经费，按照分级分部门负担原则，由市、区（市、县、开发区）分别承担。市级“放管服”改革工作运行经费，由市放管服协调小组办公室测算、申报，列入市级财政预算。', '第一条 市推进政府职能转变和“放管服”改革协调小组专题组和保障组（以下简称专题组和保障组）是市推进政府职能转变和“放管服”改革协调小组（以下简称市放管服协调小组）下设两种类型的工作组，承担市放管服协调小组部署的工作任务。', '第二条 专题组有精简行政审批组、优化营商环境组、激励创业创新组、深化商事制度改革组、改善社会服务组等5个组，保障组有法治组、督查组、专家组、大数据发展保障组等4个组。', '第三条 各专题组设组长1人，由市政府副秘书长或市直部门主要负责同志担任；副组长若干人，由市直部门有关负责同志担任；各保障组设组长1人，由市政府副秘书长或市直部门主要负责同志等担任。', '第四条 专题组围绕精简行政审批、优化营商环境、激励创业创新、改善社会服务、深化商事制度改革等方面开展工作。', '（一）精简行政审批组。组长由市政府分管副秘书长担任，副组长由市发展改革委、市司法局、市住房城乡建设局、市市场监管局、市政务服务中心等单位有关负责同志担任。负责牵头推进行政审批制度改革、投资审批制度改革、工程建设项目审批制度改革等。', '（二）优化营商环境组。组长由市发展改革委、市投资促进局主要负责同志担任，副组长由市发展改革委、市工业和信息化局、市财政局、市自然资源和规划局、市生态环境局、市住房城乡建设局、市水务局、市商务局、市市场监管局、市大数据局、市金融办、市综合行政执法局、市公共资源交易中心、市政务服务中心等单位有关负责同志担任。负责牵头优化营商环境，提高综合竞争力，打造竞争新优势。', '（三）激励创业创新组。组长由市发展改革委主要负责同志担任，副组长由市教育局、市科技局、市工业和信息化局、市财政局、市人力资源和社会保障局、市大数据局、市国资委、市市场监管局、市金融办等单位有关负责同志担任。负责牵头推进实施创新驱动发展战略，打造大众创业、万众创新升级版，深化政府数字治理，推进新旧动能接续转换。', '（四）深化商事制度改革组。组长由市市场监管局主要负责同志担任，副组长由市发展改革委、市生态环境局、市交委、市农业农村局、市文化和旅游局、市大数据局、市商务局、市税务局等单位有关负责同志担任。负责牵头深化商事制度改革，加强和完善市场监管，维护公平竞争市场秩序。', '（五）改善社会服务组。组长由市政府分管副秘书长担任，副组长由市发展改革委、市教育局、市公安局、市司法局、市民政局、市人力资源和社会保障局、市卫生健康局、市医保局、市大数据局、市政务服务中心等单位有关负责同志担任。负责协调推进卫生健康、养老、社保、教育、医疗保障以及社会管理等领域“放管服”改革，为人民群众提供便捷高效、公平可及的公共服务。', '第五条 保障组主要从法律法规、督查落实、理论研究、大数据支撑等方面为政府职能转变和“放管服”改革提供保障。', '（一）法治组。组长由市司法局主要负责同志担任。承担推进政府职能转变和“放管服”改革措施的合法性审核等工作。', '（二）督查组。组长由市督办督查局主要负责同志担任。负责督促检查推进政府职能转变和“放管服”改革各项措施贯彻落实情况。督查组年初拟定督查方案，组织实施“放管服”改革督查，督促和推动全市各级各部门深化政府职能转变和“放管服”改革，督查结果报市放管服协调小组办公室。', '（三）专家组。由市政府办公厅邀请知名专家组成，围绕推进政府职能转变和“放管服”改革开展理论研究，提供政策咨询和决策参考。', '（四）大数据发展保障组。组长由市大数据局主要负责同志担任，副组长由市教育局、市公安局、市民政局、市人力资源和社会保障局、市自然资源和规划局、市生态环境局、市住房城乡建设局、市交委、市卫生健康局、市市场监管局、市医保局、市税务局、市公共资源交易中心、市政务服务中心等单位有关负责同志担任。承担为“放管服”改革工作提供信息技术保障，配合建立全省政府一体化政务数据中心体系，推动政务数据资源规范管理、汇聚和共享开放，整合自建审批业务系统，接入贵州省数据共享交换平台，以各部门优化业务流程为基础，推动行政审批和公共服务事项一站式办理。', '第六条 专题组和保障组根据工作需要召开全体会议和专题会议。会议由各组组长召集和主持，会议出席人员为专题组和保障组的组长、副组长、成员，根据会议议题可邀请其他相关单位负责同志列席会议。', '第七条 专题组和保障组会议主要任务是：围绕自身职能职责制定工作方案并推进相关领域“放管服”改革工作，贯彻落实协调小组决策部署，研究需提交市放管服协调小组审议决定的事项，协调解决相关领域推进“放管服”改革存在的困难问题，其他需要研究解决的事项。', '第九条 组长负责制。专题组和保障组实行组长负责制，各组组长对照中央、省、市出台的“放管服”改革领域重要方案和重大事项，紧紧围绕各组主要职责任务，及时组织研究对接跟进，出台贯彻落实的具体举措。专题组和保障组的日常工作由组长单位承担。', '第十条 工作报送。专题组和大数据发展保障组每年初向市放管服协调小组办公室报送相关领域推进政府职能转变和“放管服”改革实施方案，每月书面报送工作进展情况，半年和年终报送工作总结。', '第十一条 沟通协调。各专题组和保障组明确1名工作责任心强的业务骨干（原则上为科级干部）为联络员，加强与市放管服协调小组办公室联系，确保改革工作对接顺畅。拟提交市放管服协调小组会议审议的文件，需经专题组或保障组组长同意后方可提交。', '第十二条 人员调整。各专题组和保障组组长、副组长等人员需要调整的，由所在单位书面向市放管服协调小组办公室提出，由市放管服协调小组办公室按程序报市放管服协调小组组长审定，并通报有关地方和部门。', '第十三条 调查研究。专题组和保障组要适时组织专题调研，查找分析相关领域推进“放管服”改革存在的问题，总结提炼成功的做法和经验，提出政策建议，形成的调研成果报市放管服协调小组办公室备案。', '第十四条 信息报送。专题组和大数据发展保障组每月底前向市放管服协调小组办公室书面报送至少2篇工作信息或动态。', '第十五条 专题组和保障组推进相关领域“放管服”改革的调研、宣传、督查、文件起草、会议及相关资料印刷等工作运行经费，由组长单位承担，列入市级财政预算。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>245</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>贵阳市融入成渝经济圈金融市场融合发展的相关建议</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytazxtawfws/zwgkzdlyxxgkjytazxtawfwsqs/202306/t20230601_79992260.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['“成都、重庆、贵阳”三角区连续多年是我国经济发展增速最快的区域。从地理条件来说贵阳市不仅是成渝南下珠三角和北部湾的必经之路，甚至许多到达长三角的动车也必须经过贵阳，是西部地区的重要交通枢纽。从高新技术方面来说，贵阳市聚集三大运营商、华为公司、腾讯等特大型数据中心，已经产生存算一体的数据中心发展趋势布局，而且全国无人机、教练机生产基地，神州系列的许多零件也是贵州生产的。从生态环境来说，由于地理原因，身处大山的贵阳具有优越的生态环境，加之贵阳对城市的绿化建设非常重视，对于推动绿色金融能发挥更大的作用。贵阳交通四通八达，与川渝文化接近，贵阳的加入不仅有利于加速西南地区的经济发展，还可以对贵州的经济发展注入强大的动力。 一、贵阳市融入成渝经济圈金融市场融合发展的挑战 （一）科学规划和顶层设计缺失，亟须深化理论研究和国家层面的指导。从国家层面上，对贵阳市融入成渝经济圈金融市场融合的理论研究存在不足，对现阶段共建西部金融中心的新情况、新形势和经济空间结构的深刻变化的规律认识不足；贵阳融入成渝经济圈金融市场的发展系统性推进和融合发展还缺少相关制度支撑。 （二）金融机构跨区域开展业务仍然存在困难。成渝贵在金融资源分布上明显不均衡，金融机构和金融资源主要集中在成都和重庆，且机构跨区域经营受限较多，资源难以向稀缺地区流动。一方面地区政府是当地金融机构的主要参与者，担心其他金融机构进入会削弱其控制力。另一方', '面由于各地金融市场准入门槛差异较大，进入不同地区经营范围、服务收费、资金价格(利率、汇率等)管制程度不同，金融机构需适应不同监管要求，增加跨区域经营成本。', '（三）成渝黔三区缺少金融合作平台。成都、重庆、贵阳三地金融发展较慢，资源分布不均匀且三地之间互访常态化未形成，因此金融合作较少，且三地金融信息服务平台建设仍然不足，与此相关的金融信息共享机制、征信系统一体化等远未实现，推动金融产品跨区域流动的金融交易联网平台屈指可数，因而造成数据共享并未能完全实现。 二、贵阳市融入成渝经济圈金融市场融合发展的建议', '应尽快向国家发展改革委申请组织成渝贵三方参与的区域金融市场融合发展的理论和政策研究机构，深化对构建高质量发展金融市场、成渝贵经济发展战略价值理论和区域发展新机制、新思路的研究，丰富和发展国家区域协调发展战略构想和新经济地理理论体系，强化理论和政策研究对发展实践的指引，增强金融市场的融合发展，联合多方力量推动成渝贵经济圈金融市场发展上升为国家战略。', '一是三地金融部门建立成渝贵金融合作平台，加快贵阳金融产品交易市场的构建，同时鼓励在成都、重庆等地以风投机构与科技信贷企业之间进行全面合理的投资联动合作，鼓励风投机构参与科技信贷，加强风险的快速甄别与筛查。二是加强三地之间金融制度创新领域合作。商业银行可针对当前体制、机制与业务政策等方面不适应新发展格局下畅通国内大循环、促进国内国际双循环要求的领域，共同推进跨区域授信、资金管理、系统功能等领域的政策优化、流程重构、产品创新、系统整合。', '一是在成渝贵三地建立互相支持其他地区的企业上市的措施，本地政府部门建立绿色通道帮助其他两地企业协调解决改制中涉及的各项行政审批问题，简化审批手续，跟踪督办相关部门办事时效，帮助企业解决困难，降低成本，提高效益，尽快实现上市融资。二是对于成渝贵缺少资金的企业，三地金融部门可以放宽贷款条件或者放低贷款利息，缩短贷款程序，尽快解决企业资金瓶颈问题，帮助其', '鼓励三地各类金融机构、投资机构互相成为其他地的后备上市资源库。对于后备资源库的企业优先给予金融支持。支持各类金融机构为后备上市企业定制综合融资方案，开展灵活多样的融资服务。', '一是深化科创金融产品和服务创新。支持贵州地区符合条件的城市建设科创金融改革试验区。探索创建知识产权金融生态示范区。与成渝地区协商规范探索知识产权证券化。鼓励贵阳地区银行业金融机构设立科技支行或科技金融专营机构。支持保险机构创新科技保险产品和服务，探索建立科技保险奖补机制，推广专利保险试点。支持贵阳加快建设基于区块链技术的知识产权融资服务平台。和成渝地区一起建立覆盖西部地区的科创企业信息共享平台，搭建科创项目评审公共服务中心。二是打造中国（西部）金融科技发展高地。贵阳市结合自身大型数据中心的优势同成渝一起推进政务数据与金融数据融合共享。推动金融科技研究领先发展，开展金融科技领域基础、共性和关键技术研发以及重大应用试点示范，推进人工智能、大数据、云计算、区块链等金融科技领域研究成果在成渝贵率先落地应用。', '民建界提出的《贵阳市融入成渝经济圈金融市场融合发展的相关建议》收悉。我市会办意见如下：', '一直以来，贵阳市高度重视金融业发展，按照“服务实体经济、防控金融风险、深化金融改革”总体要求，不断完善金融组织体系、深化金融改革和对外开放，推动金融服务实体经济。同时，我市以成渝共建西部金融中心为契机，营造良好金融发展环境，加强与成渝地区的金融交流合作，共同提升区域金融市场功能，努力为地方经济高质量发展和高水平对外开放提供有力支撑。', '（一）支持成渝贵三地金融机构跨区域发展。支持重庆银行贵阳分行、四川天府银行贵阳分行在筑业务发展，充分发挥两家银行综合金融优势，与贵阳发展同频共振，持续推进产品与服务融合创新，提升服务实体经济效能。此外，我市积极支持贵阳银行成都分行业务发展，加快融入成渝经济圈建设，努力将贵阳银行成都分行打造成为实体转型、拓展省外市场和客户的桥头堡。', '（二）加强成渝贵三地金融监管部门信息互联互通、经验交流。2021年12月，贵阳市金融办与成都市地方金融监管局、昆明市金融办等省会城市地方金融（监管）工作部门共同签署了《部分省会城市地方金融（监管）工作部门沟通合作机制（试行）》，各方主动定期交换金融运行相关数据，相互通报年度金融工作重点，交流在完善中小微企业融资担保等诸多方面的经验做法，促进了更大范围、更高层次上的金融资源在成渝贵间的共享，合力促进区域金融协同高质量发展。如，2023年3月，贵局组织省有关部门及相关市（州）赴成都市开展实地考察学习；4月，我市责成市财政局、市金融办等有关部门，赴成都市学习有关融资担保等方面的先进经验及做法。', '（三）构建成渝贵三地金融领域交流合作平台。依托生态文明贵阳国际论坛、数博会、旅发大会等交流平台，积极举办绿色金融、金融科技等领域的主题论坛，着力邀请包括成渝地区在内的各类金融机构和相关行业主管部门负责人参加会议，加强金融领域的交流，深化互动合作。如，2023年第十七届贵州旅游产业发展大会期间，举办了全国盘活旅游存量资产投融资促进活动，邀请了相关金融机构总部负责人以及四川省、重庆市文化和旅游部门负责人参会，围绕金融推动文化和旅游产业项目高质量发展进行了交流研讨。', '（四）支持符合条件的企业上市融资。贵阳市充分发挥推进企业上市工作领导小组办公室统筹协调作用，建立了推进企业上市绿色通道，加大对拟上市企业的投融资服务，提供多层次、多元化的金融支持。同时，持续做好上市企业后备资源库优化、调整、更新相关工作，为推动企业上市挂牌汇入更多“源头活水”。', '贵阳市及有关部门将认真学习中国人民银行等部门联合印发的《成渝共建西部金融中心规划》，在贵局的统筹部署下，加快培育法人金融机构、健全金融中介服务和专业服务体系，积极学习借鉴成都与重庆在推进金融市场一体化等方面的先进做法，并结合贵阳市自身发展优势，积极融入成渝西部金融中心的发展当中，在推进地方金融改革创新、区域金融风险防范等方面加强交流合作，共同构建支持高质量发展的现代金融服务体系。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>245</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>贵阳市商务局关于优化口岸营商环境促进跨境贸易便利化工作情况</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2019-12-11</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/sylt_5618016/kagl/202005/t20200515_60451288.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['市政府已于4月12日上报省政府《关于申报贵阳改貌口岸临时对外开放的请示》。经对接省口岸办，省口岸办于上周（6月25日）已将请示正式上报国家口岸办。国家口岸办表态目前不会批复，待《口岸管理条例》出台明确相关内陆口岸定义、功能后，国家口岸办才能进行相关批复程序。省口岸办将于近期组织一次专题会，会商贵阳海关先按照海关监管场所要求对改貌铁路口岸进行业务设置，确保在年底先把进出口业务做起来。', '（1）场坪土石方和富源二路相应段落道路基础工程已基本完成，预埋沟管基本完成，正在施工路灯等附属。海关监管作业对应封闭区域砖围墙完成85%，金属围网完成全部混凝土条带浇筑，立杆完成85%，金属网预计12号到货安装。', '（2）海关业务用房已完成结构工程，完成内墙抹灰作业和外墙保温层施工，完成外墙龙骨。已完成电梯安装，地面贴砖完成90%，室内消防和给排水基本完成，本周继续安装负一层大厅墙地面、外墙石材、空调和墙地面装修装饰工程。', '（3）海关附属用房已完成结构工程，完成内墙抹灰作业和外墙保温层施工，完成外墙龙骨。已完成电梯安装，地面贴砖完成90%，室内消防和给排水基本完成，安装大厅墙地面、外墙石材、空调和墙地面装修装饰工程正在进行，预计月底全部完工。', '（4）中转仓库结构工程和地下室室外防水及防水保护层、填充墙施工已完成，正在施工冷库保温隔板，地下室地坪和电梯要等冷库隔板施工完成才能施工，货运电梯要等15号以后压缩机进场安装后才能施工，本周继续施工其它装修。', '（5）现场查验用房和检验检疫药品库完成结构施工，屋面防水、填充墙和基础装饰，本周继续施工室内装修和水电接入。', '（6）H986查验设备用房钢结构基础施工已完成，防辐射墙主体已完成，网架全部完成，屋面已完成1/4，本周继续防辐射保护墙和网架屋面施工；H986设备主机已安装到位，核心设备待场地封闭条件具备后再行安装。', '（7）监管区北关卡完成钢结构立柱和4个安全岛（剩余1个）、地磅基础施工，完成卡口用房施工，完成1/2网架结构，屋面未开始，地磅3台已安装完成，本周已开始安装卡口其它设备。', '(8)南关卡完成钢结构立柱，完成卡口安全岛和地磅基础混凝土浇筑，完成卡口用房施工，完成网架结构，屋面已完成1/4。2台地磅已安装完成,本周已开始安装卡口其它设备。', '（9）信息化工程完成业务楼和附属楼机房管线施工，基本完成各楼层预埋和机房装修的木工和天花、地板、外墙封闭，本周继续进行机房装修，各项工作有序推进。', '（10）铁路专用线正在积极铺设；龙门吊桩基、地梁全部完成，本周继续施工轨道工程和龙门吊走行轨基础（受环场道路影响段）、地埋滑触线槽道（受环场道路影响段），已达到龙门吊进场安装条件，预计12月15日进场。正在结构施工大门。', '（12）专用线作业区货车进出卡口已完成安全岛和地磅基础混凝土施工，卡口机房已完成，2台地磅已安装完成，本周继续安装其它相关设备。', '（13）自来水接入，相关许可已办理完成，已开始破路施工下穿孟关大道的预埋管道施工，计划本周完成下穿孟关大道的施工，确保半个月通水。', '（14）外电接入和施工方案已经市供电局审批，已开始变配电室基础施工，确保12月下旬外电供电。', '（15）光纤接入，已与中国电信完成报装和接入准备，外线已到口岸所在路段，待综合管沟完成后即刻可接入，确保12月中旬完成。', '已完成一期核心区涉及中民公司原还建地块一级开发，同步推进中民铁投燃气项目异地置换。', '一期配套区涉及成都铁路局土地征收，花溪区已致函成都铁路局，成都局已函复同意开展就近置换工作。', '口岸运营公司筹备小组于7月18—25日赴兰州新区路港物流有限公司考察学习，结合贵阳改貌铁路口岸实际情况，完成《贵阳改貌铁路口岸运营方案（初稿）》。', '为加快推进贵阳改貌铁路口岸商贸物流运营项目，9月2-5日捷时特物流有限公司到贵阳考察，与市商务局、铁投公司交流合作事宜，初步拟定商贸物流合作项目。', '已成立筹备组，开始筹备地服管理公司，并指派管理人员参与口岸软件流程的设置，正在编制口岸运营管理制度。', '）正报请集团向市政府申请明确将铁投公司作为改貌铁路口岸运营主体，以确保铁路口岸能顺利通过验收及试运营。', '）已与花溪区对接加快对捷时特物流和嘉里物流的招商引资工作，确保铁路口岸建成后能顺利开展贸易物流一体化业务。', '目前已将《关于“一局三中心”设计方案征求意见函》上报至各相关部门，已与海关、发改委等相关部门达成一致意见，待管委会与机场集团研究确定；', '已将边坡设计方案《关于“一局三中心”项目保税物流中心(B 型）南侧建设用地红线紧邻大龙滩河河道边坡解决方案的请示》上报集团总工办，待集团总工办提出专业指导意见，明确边坡解决方案，以便我司进一步深化设计，报管委评审；', '目前已收到中国邮政集团公司贵州省寄递事业部（市场部）《贵阳国际邮件互换局房屋建筑需求》（盖章文件将发送至园区办），正在根据该建设标准进一步优化设计，并出钻孔图；', '贵州一局两中心（国际快件中心）项目临时用电已通过竣工验收，并已通电，待审计完成后支付尾款', '贵阳综保区围网区（二期）规划调整方案已由国务院转海关总署牵头办理，由海关总署牵头推进发改委、财政部等国家部委的联合审查工作，经对接，目前自然资源部、国家市场监督管理总局、发改委等国家部委已全部反馈意见，海关总署正按程序上报国务院。', '正在积极推进配套市政道路及围网区内汉墙产业园（一期）项目土地房屋征收、规划设计及项目建设等相关工作。', '正推进土地报批及林地手续办理工作，其中，土地报批部分，项目用地已组件上报至省自然资源厅，省自然资源厅各处室已完成会审，已下达缴款通知，正在缴纳报批资金。', '实施报关报检资质融合，整合申报系统，推进“单一窗口”应用，报关覆盖率提升至100%。在跨境电商、监管场所管理、风险布控、查验放行等领域开展业务融合先行先试，现场综合业务融合顺利推进，“查检合一”“多查合一”等改革有效落地。深化“一次申报、分步', '处置”改革，检验检疫业务逐步融入海关业务环节。上线运行金关二期保税系统，实现关区加工贸易监管业务通关一体化。定期开展整体通关时间评估，清除难点堵点；推动关务、商务、港务、金融服务等联网联动和口岸部门“并联”作业，压缩整体通关时长，', '区正在推进贵州省贵阳市（都拉营）多式联运物流枢纽园项目建设，并启动园区基础建设工作。同时，深入研究降低物流成本的政策，以加工贸易企业物流运输需求为基础，积极探索打通贵阳综保区往返香港（直达）的专线公路运输专线（以下简称“贵港直通车”），实现中途无需换车直接从贵阳进出香港，打通进出境直通通道。在前期调研基础上，制定了《贵港直通物流项目工作方案》，提出工作建议，力争为加工贸易企业降低物流运输成本。在下一步工作中，', '区正在推进贵州省贵阳市（都拉营）多式联运物流枢纽园项目建设，并启动园区基础建设工作。同时，深入研究降低物流成本的政策，以加工贸易企业物流运输需求为基础，积极探索打通贵阳综保区往返香港（直达）的专线公路运输专线（以下简称', '持续推进贵州省贵阳市（都拉营）多式联运物流枢纽园项目建设，力争依托贵阳综保区政策和功能优势，将该项目打造成为多式联运标杆项目', '平均通关时间比上年压缩超三分之二，进出口通关时间大幅缩短，切实为外贸企业提供便利。在下一步工作中，将主动配合筑城海关，协助制定物流作业时限标准，便利企业合理制定运输计划。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>245</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>关于支持贵阳市推进集成电路产业发展的建议</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-07-13</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytazxtawfws/zwgkzdlyxxgkjytazxtawfwsqs/202007/t20200713_61585610.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['集成电路产业作为我国经济发展的先导性、支柱性行业，与大数据产业紧密关联、相互促进，发展势头良好。近年来中西部地区在国内集成电路产业中的地位不断上升，所占份额不断增加，将成为我国集成电路产业增长的重要动力。贵阳市作为国家大数据（贵州）综合试验区核心区，大力发展集成电路产业，符合贵州省振兴十大千亿级工业产业的需要，能够为全省新产业发展提供战略支撑，同时也将为我们坚持高标准要求、实施高水平开放、提供高质量发展提供不竭动力。', '目前，贵阳市共有集成电路企业24家，总体产值规模约15亿元。经前期调查，主要存在以下问题：一是总体规模不大，技术基础薄弱。企业主要集中在集成电路设计和封装测试领域，且以初创企业为主，龙头企业少并且产业带动作用不强，难以形成较好的产业集群。二是支持政策缺乏，招商力度有限。我省支持集成电路产业发展的政策相对缺乏，且支持方式单一，流程较长，不确定性较多，与成都、重庆等周边城市相比，吸引力度较弱，引进优秀企业难度较大。三是专业人才缺乏，产学研合作水平不高。我省开设集成电路专业课程的高校数量较少，培育专业人才的数量有限，且优秀人才向发达地区外流严重，本地企业普遍存在领军人才、专业人才匮乏的情况。四是资金较为缺乏，发展支撑不足。集成电路研发前期需要投入大量资金，行业成本较高，对企业资金周转有较高要求，特别是初创企业的资金压力较大。', '为抢抓国家大力发展集成电路产业机遇，充分发挥国家大数据综合试验区先发优势，推动集成电路产业链发展，现提出以下建议：', '依托贵州大学微电子专业博士点等机构，大力加强本土人才培养，同时推动与华中科技大学、中科院微电子所、中国振华集团等的合作，积极引进人才及研发资源，推进高校、企业和科研机构深度合作，为集成电路产业发展储备人才。', '针对集成电路存量企业及招商引资新落地企业，参照省级对磷石膏产业的支持政策，建立集成电路产业专项封闭运行资金池，利用债权投资模式，重点扶持集成电路产业重点项目，同时努力争取国家有关资金和项目支持，引导社会资本和金融资本助推集成电路产业发展。', '徐红委员提出的《关于支持贵阳市推进集成电路产业发展的建议》提案收悉。我市的会办意见如下：', '我市集成电路产业目前处于起步阶段，主要以集成电路设计为主，截至目前，集聚了26家集成电路企业，其中规上企业5家，2019年总产值13.8亿元，中国振华集团永光电子有限公司产值6亿元、贵州振华风光半导体有限公司产值3.3亿元、贵州中晟泰科智能技术有限公司产值2.8亿元，贵州雅光电子科技股份有限公司产值1.1亿，贵州威顿晶磷电子材料股份有限公司产值0.6亿；21家规下企业营业收入总计约为1.2亿元，2019年我市集成电路产业规模约15亿元。产业按照区县分布，高新区13家、南明区7家、乌当区4家、观山湖区1家，白云区1家。按产业链分布，涉及集成电路设计的企业18家，涉及集成电路设计和制造的企业1家(雅光电子)，涉及集成电路设计及测封的企业2家（木弓贵芯、振华风光），涉及集成电路设计、制造、封装测试的企业3家（安博声学、中晟泰科、振华永光），涉及集成电路原材料的企业2家（威顿晶磷、精一科技）。', '（一）加强组织领导。为贯彻落实贵阳市委十届七次会议工作部署和《市领导领衔推进三大攻坚行动计划重点任务工作制度》要求，为进一步推进集成电路产业建设，我市成立了集成电路产业链专班，专班由相关市直部门及重点区(市、县)组成，成立后积极开展走访和调研工作，实地走访了华中科技大学贵州芯火集成电路联合研究中心、中国振华集团有限公司、贵州雅光电子科技股份有限公司等企业；同时专班赴上海、深圳等地考察学习，前往上海集成电路技术与产业促进中心、国家集成电路设计深圳产业化基地、奥芯创新研究院、东科半导体科技(深圳)有限公司等企业学习先进经验及方法，并编写《贵阳市集成电路产业链调研报告》，专班于2019年底制定了《关于市领导领衔推进集成电路产业链发展的工作方案》。', '（二）加大政策支持。2019年，省、市共给予集成电路重点企业及项目相关扶持1380万元,其中通过“一事一议”支持中国振华贵阳集成电路设计公共服务平台资金1000万，支持华中科技大学贵州芯火集成电路研究中心及集成电路产业服务平台资金100万；2019年通过组织集成电路企业申报贵州省十大千亿级（大数据电子信息）产业振兴专项资金，中国振华、中晟泰科等2个项目获280万资金支持。支持南明区举办以“国产芯片与大数据产业融合发展”为主题的“双谷融合·甲秀论剑”，专班组织我市集成电路企业参会、发布产品，并推动由华中科技大学贵州集成电路产业服务平台、中国振华等企业组成的贵阳集成电路产业联盟成立。疫情防控期间为支持企业稳定发展我市出台了相关政策措施，按照《贵阳市人民政府办公厅关于疫情防控期间支持企业稳定发展若干措施的通知》(筑府办函〔2020〕4号）文件精神，工信部门下发了《贵阳市工业和信息化局关于组织企业申报疫情防控期间专项补助资金的通知》，积极支持企业复工复产，组织贵州中晟泰科智能技术有限公司申报疫情防控期间专项资金补助，获得补助资金100万元。', '（三）主推重点项目。一是中国振华电子集团有限公司军民融合半导体集成电路产业园（总投资约40亿元），产业园包括中国振华科技产业中心和半导体集成电路封测平台，其中中国振华科技产业中心总投资约10亿元，一期投资3.48亿元；半导体集成电路封测平台总投资30亿元，一期投资2.45亿元。目前，总部大楼基建已完工，正在开展装修工作，贵阳市集成电路设计公共服务平台已完成项目可研报告，集成电路封测平台2019年底完成的厂房设计单位招投标，受疫情影响，现中标单位申请退出，拟改为投标第二的单位中标，正在进行审批，该项目计划2020年完成基础工程建设及内部装修。二是中国振华集团永光电子有限公司半导体功能模块生产线（总投资3850万元），项目建成后，将形成年产20万块以IGBT（复合全控型电压驱动式功率半导体器件）模块为代表的半导体功能模块生产能力。目前已完成部分设备采购、安全评价、环境评价等工作，生产线已经小批量试产，计划2020年完成项目建设。三是贵州雅光电子科技股份有限公司贵州雅光电子沙文智能制造工业园项目（总投资3.56亿元），项目包括生产厂房及相关配套设施，并新建4条汽车发动机整流二极管生产线，2条汽车发动机整流组件生产线，1条磁敏效应传感器生产线，1条功能组建及模块生产线。目前，正在进行厂房装修及设备进驻，计划2020年6月完成项目建设。', '（四）强化金融服务。我市高度重视对集成电路等新兴产业的金融服务工作，积极做好融资协调服务，引导金融机构加大对包括集成电路在内的新兴产业发展的信贷支持力度。一是建立政银企合作机制，加强企业融资推介。我市金融、发改、工信、大数据等主管部门，通过组织政银企对接会等方式助推项目和产业融资。同时，做好协调服务，引导金融机构落实各项信贷支持政策，帮助企业缓解资金压力，全力满足企业的合理融资需求。二是建立企业融资风险分担机制。为缓解中小微企业融资难融资贵问题，我市设立了政策性信用贷款风险补偿资金池，引导在筑金融机构向我市中小微企业提供“免抵押、免担保、免服务费”的信用贷款，助推企业发展。截至2020年3月末，资金池合作银行累计发放信贷金额39.58亿元，实现资金池规模的12.6倍放大，支持企业8581户。三是大力发展股权投资基金。我市先后成立了贵阳市创新天使投资基金、贵阳工投生物医药产业创业投资基金、贵阳市服务外包及呼叫产业创业投资基金、贵阳市工业和信息化产业发展引导基金、贵阳市科技创新引导基金等多支投资基金，初步构建了覆盖企业发展全生命周期的创业投资基金体系。截至目前，市及各区(市、县、开发区)牵头成立的政府投资基金共计16只，基金计划总规模约102亿元。', '(一)推进产业发展。结合我市实际，充分发挥国家大数据综合试验区先发优势，抓住国家大力发展集成电路的产业机遇，按照主抓“两头”引“中间”的集成电路产业链发展思路，“两头”是积极引进及培育发展集成电路设计和封装测试企业，充分发挥集成电路设计龙头企业及高校的带动作用，推动集成电路设计、服务联动发展；“中间”是根据我市实际情况引进集成电路制造企业，积极发展先进数模混合电路、MEMS(微电子机械系统)、IGBT等特色工艺，支持研发计算机及网络、通信、数字音视频用关键芯片等。2020年,依托华中科技大学贵州集成电路联合研究中心及集成电路产业服务平台、中国振华集团等，积极开展产业链建设，力争建成3家博士后创新基地，集聚35家集成电路企业，集成电路产业营收达到25亿元规模。', '(二)支持产业建设。以“一事一议”方式，从光罩、首次流片补贴、场地租金减免等方面加强政策保障，持续打造产业发展生态环境，推动集成电路企业集聚发展。', '(三)强化金融扶持。充分发挥贵阳市工业和信息化产业发展引导基金作用，依托专业化、市场化投资运营团队，促进各类股权投资企业和社会资本进入集成电路投资领域，有针对性的扶持集成电路产业领域的企业或创业团队。并继续做好集成电路相关项目融资推介，积极引导社会资本和金融资本加大对我市集成电路产业发展支持，支持符合条件的集成电路项目纳入贵州省绿色金融项目库，享受低利率的绿色信贷政策，拓宽集成电路企业和项目融资渠道。', '(四)助力平台建设。支持中国振华建设贵阳市集成电路设计公共服务平台，面向全市集成电路企业提供低成本、优质平台服务，以中国振华为龙头，推动企业之间对接合作、创新发展；支持华中科技大学贵州集成电路联合研究中心及集成电路产业服务平台建设，为集成电路企业提供电子自动化设计公共服务、多项目晶圆流片快速通道服务、小批量和特殊芯片封装服务、测试验证等专业化服务。', '(五)加强产学研结合。加强对贵州大学微电子专业博士点支持，推动贵州大学与本地集成电路企业合作，鼓励微电子专业人才创新创业，同时促进贵州雅光电子科技股份有限公司与电子科技大学合作，加速集成电路产品设计研发，加快产品成果转换。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>245</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>农工党贵阳市委年市级部门预算及三公经费预算公开说明</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018-03-20</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszgngmzdgyswyh/201901/t20190123_32859485.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['农工党贵阳市委2018年市级部门预算及“三公”经费预算公开说明 - 贵阳市人民政府', '目录 一、中国农工民主党贵州省贵阳市委员会概况 （一）部门主要职能 （二）部门预算单位构成 （三）部门人员构成 二、中国农工民主党贵州省贵阳市委员会2018年度预算安排说明 （一）部门收支总体情况 （二）部门收入预算情况 （三）支出预算情况 （四）财政拨款收支预算总体情况 （五）一般公共预算支出预算情况 （六）一般公共预算基本支出预算情况 （七）一般公共预算 “三公”经费支出情况 （八）政府性基金预算支出情况 三、中国农工民主党贵州省贵阳市委员会其他重要事项说明 （一）机关运行经费 （二）政府采购情况 （三）国有资产占有使用情况 （四）预算绩效管理情况 （五）项目支出安排情况说明 （六）国有资本经营预算 四、专有名词解释（接之前公开内容） 五、中国农工民主党贵州省贵阳市委员会2018年度部门预算及“三公”经费预算公开报表 （一）2018年部门收支总表 （二）2018年部门收入总表 （三）2018年部门支出总表 （四）2018年财政拨款收支总表 （五）2018年一般公共预算支出表 （六）2018年一般公共预算基本支出明细表（按部门预算支出经济分类科目） （七）2018年一般公共预算基本支出明细表（按政府预算支出经济分类科目） （八）2018年一般公共预算“三公经费”支出预算表 （九）2018年部门政府性基金预算支出表', '负责管理和组织全市农工党员，认真开展参政议政、社会服务、民主监督、课题调研等重点工作，切实发挥好参政党职能作用，积极为贵阳市经济社会的健康发展献计出力。', '农工党贵阳市委为行政单位，共设三部一室，含组织部、宣传部、社会服务部和办公室。经费由财政全额拨付。', '本部门2018年收入预算166.98万元，全部为公共财政预算拨款收入。2018年支出预算166.98万元，其中：行政运行支出120.75万元，参政议政项目支出39.65万元，住房保障支出6.58万元。与2017年相比，收支总额均增加8.44万元。主要为行政运行收支中新增补缴以往年度社保经费3.04万元；参政议政项目收支中，业务工作经费收支增加2万元，新增脱贫攻坚民主监督工作经费4万元。本单位无二级单位，本预算仅为本单位预算。', '本部门2018年收入预算166.98万元，全部为公共财政预算拨款收入。与2017年相比，收入总额增加8.44万元，主要是补缴以往年度社保和参政议政项目的公共财政预算拨款增加。', '本部门2018年一般公共预算支出预算166.98万元，其中：行政运行支出120.75万元，参政议政项目支出39.65万元，住房保障支出6.58万元。与2017年相比，增加8.44万元。主要为行政运行收支中新增补缴以往年度社保经费3.04万元；参政议政项目支出预算中，业务工作经费预算增加2万元，新增脱贫攻坚民主监督工作经费预算4万元。', '1、公务接待费支出预算2万元，比去年减少1万元。具体支出内容：执行公务和开展业务活动发生的公务接待费用，与国内相关单位交流业务工作情况等发生的接待费用，其他按规定开支的各类公务接待费用。', '2、公务用车运行维护费支出预算2.12万元。具体支出内容：按照“贵阳市公务用车改革方案”保留的1辆单位机要用车的运行维护支出。按照贵阳市行政事业参公单位办公经费每年压缩8%的要求，2018年公务用车运行维护费比照公务用车2.3万元/辆/年的预算标准调整减少 0.18万元，当前我市实行了公务用车改革，我单位按照要求已将在编的公务用车上交了3辆，仅保留1辆通讯应急用车。', '3、因公出国（境）费、公务用车购置费均实行总额控制，年初未分配，年度间根据实际情况按照程序审批后据实列支。', '（3）国有资产占有使用情况：我单位机关共有车辆1辆，其中，一般公务用车1辆。单位无价值200 万元以上大型设备。', '（4）预算绩效管理情况：2018年我单位项目均实行绩效目标管理，实行绩效目标管理的预算资金为39.65万元。', '调研经费4万元，占项目支出预算总额的10.09%。用于围绕市委市政府中心工作开展调研，建言献策。我单位每年都将针对当年市委市政府的中心工作和党委政府关注，老百姓关心的重点难点问题，选择两到三个方向开展调研，一般年初定题，当年结题。具体工作流程为每年年初召开参政议政工作会确定调研方向和课题小组成员，年中召开项目跟进会了解工作进度，年底召开评审会结题。已建立相应的会议制度、工作经费保障制度和评审制度等。该项目为年度项目，所有调研工作当年完成。', '业务工作经费20万元，占项目支出预算总额的50.44%。该经费是党委政府针对民主党派履行参政党职能，开展各项工作安排的专项经费。主要用于组织各种类型的调研、考察、学习活动，以及开展送医送药、支边扶贫和组织各种类型的宣传活动等。我单位每年根据工作制度召开全委会、常委会、主委会，安排全年工作，组织市属各支部开展各种政治学习、调研、民主监督和社会服务活动。每年年初部署工作，年中跟进，年底总结。单位已建立各类会议制度，设立三部一室，各自负责市委及市属支部会议组织、社会服务活动协调保障等工作。经费主要用于单位当年各项工作开支，无中长期计划。', '基层党员活动经费6.65万元，占项目支出预算总额的16.77%。该经费是党委政府根据民主党派党员人数，按照人均80元/年的标准拨付给民主党派用于基层支部组织活动开支。我单位每年根据各基层支部人数按50%的比例将经费拨付给各支部，用于补贴支部组织各类活动的开支，剩余50%用于年底组织各支部集体活动和在支部组织活动时帮助租车等其他协调保障支出。一般年中拨付经费，年底检查活动组织情况，并要求各基层支部建立台帐登记各项开支。经费当年拨付当年使用，无中长期计划。', '主委专项经费5万元，占项目支出预算总额的12.61%。该经费是党委政府拨付给民主党派主委开展专项工作使用。由民主党派主委根据党派自身情况和当年党委政府工作要求，确定当年专项工作经费使用方向。具体流程为主委根据当年工作计划年初确定项目实施方向及责任人，年中跟踪，年底检查。本年该经费将主要用于纪念“五一口号”70周年专项活动。该经费当年拨付当年使用，无中长期工作计划。', '脱贫攻坚民主监督工作经费4万元，占项目支出预算总额的10.09%。该经费主要用于我单位对口花溪区脱贫攻坚民主监督工作。主要针对花溪区脱贫攻坚工作开展情况、低收入人口精准识别情况、低收入人口精准扶贫情况、落实脱贫攻坚责任制情况、扶贫重大政策措施执行情况、扶贫资金项目使用管理情况、开展健康扶贫、文化旅游扶贫等情况七个方面的工作内容进行民主监督。去年我单位已根据市委要求，制定了实施方案，成立了组织机构，并按计划开展民主监督工作。今年我单位将继续围绕市委市政府脱贫攻坚工作部署有针对性的开展专项调研、巡视和审计等监督工作。', '2、一般公共服务支出（类）民主党派及工商联事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '3、一般公共服务支出（类）民主党派及工商联事务（款）参政议政（项）：反映各民主党派为参政议政进行的调研、会议、检查等方面的支出。', '4、住房保障支出(类)住房改革支出(款)住房公积金(项)：指按照《住房公积金管理条例》的规定，由单位为职工缴纳的住房公积金。', '7、“三公”经费：纳入财政预决算管理的“三公”经费是指用财政拨款安排的因公出国(境)费、公务用车购置及运行维护费和公务接待费。其中，因公出国(境)费反映单位因公出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行维护费反映单位公务用车购置费及租用费、燃料费、过路过桥费、保险费、安全奖励费等支出;公务接待费指单位按规定开支的各类公务接待(含外宾接待)支出。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>245</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>市人民政府办公厅关于印发贵阳市贵安新区中小学幼儿园学科带头人评选命名暨工作站建设办法的通知</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2021-02-02</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2020/202102/t20210202_66649411.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['市人民政府办公厅关于印发 贵阳市、贵安新区中小学（幼儿园）学科 带头人评选命名暨工作站建设 办法的通知 - 贵阳市人民政府公报', '市人民政府办公厅关于印发 贵阳市、贵安新区中小学（幼儿园）学科 带头人评选命名暨工作站建设 办法的通知', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位，市管企业，贵安新区有关部门，直管区各乡、镇：', '《贵阳市、贵安新区中小学（幼儿园）学科带头人评选命名暨工作站建设办法》已经市政府同意，现印发给你们，请认真抓好贯彻落实。', '第一条 为贯彻落实党的十九大和十九届历次全会精神，深入实施“教育立市”战略，加强新时代教师队伍建设，进一步发挥学科带头人教育领军人才示范引领作用，为贵阳市、贵安新区基础教育打造一支学者型教师队伍，整体提升贵阳市、贵安新区教师队伍专业能力和中小学学科建设水平，制定本办法。', '第二条 市级学科带头人是为贵阳市、贵安新区中小学（幼儿园）各学科领军教师设定的具有专业性和学术引领性的荣誉称号，领衔研究本学科的瓶颈、难点问题，创新教育教学成果，在本学科领域能起到带头、示范、引领作用。', '第三条 市级学科带头人工作站是以学科带头人为核心组建的学科团队，立足贵阳市、贵安新区教育中各学科实情，基于问题导向，坚持项目推进，聚焦核心能力，带动提升贵阳市、贵安新区教师队伍专业能力和中小学学科建设水平，提高贵阳市、贵安新区教育教学质量。', '第四条 市级学科带头人由市政府统一命名，每三年开展一次。市级学科带头人自命名之日起组建工作站，以三年为周期开展工作。', '贵阳市、贵安新区中小学（幼儿园）学科带头人面向贵阳市、贵安新区在职普通高中、初中、小学、幼儿园承担教学任务的一线教师开展遴选，学校校级干部、教研员不参与遴选。每个学科分学段评选命名人数原则上不超过3名。', '自觉遵守《教师法》和《新时代中小学教师职业行为十项准则》，模范遵守社会公德，严于律己，近五年来年度考核合格及以上，身心健康，热爱教育事业，充满职业幸福感。', '具有副高级及以上教师专业技术职务且获得市级及以上骨干教师称号，树立正确的教育理念，教育理论基础深厚，学科专业素养过硬，现代教育技术能力较强，在教师中享有很高威望。', '长期在教育教学一线任教，教育教学成效显著，具有较强的学科引领、专业指导的能力。开设一门及以上与本学科相关的校本课、选修课或活动课。在本学科领域具有较高的知名度和影响力。', '具有较高的学科素养。在深化课程改革、教材建设、推进素质教育等方面有一定创新性研究成果，五年内主持或参加过市级及以上教育科研课题的研究工作且已结题，或参加市级以上教学成果奖的评比并获奖。', '申报对象应当在教育教学实践中发挥带头作用，具备承担项目研究、学科建设、师资培训和组织协调等方面的能力。', '学科带头人评定采取自下而上，逐级评定的办法，由学校、区（市，县，贵安新区直管区乡、镇）、市逐级评定产生。', '符合条件的个人向所在学校提交申报书，并提交一篇有较高理论水平和实践意义的行动报告、教育叙事或本专业教育教学分析报告（不少于3000字），学校同意后校长填写推荐理由（不少于500字），经教育主管部门初审合格后择优报市教育局审核。市直属学校申报人提交相关材料并经学校同意后，由学校直接报市教育局审核。', '市教育局组织专家团队采取资格审查、业绩评审、到校调研、现场答辩相结合的方式进行评审，择优确定入选对象并予以公示，公示期满无异议后报市人民政府统一命名，任期三年。', '如某学科所有参评人员均未通过评审，则该学科本次评选命名不产生学科带头人，待条件成熟后再行评选命名。', '学科带头人工作站每学科每学段建立1个，每个工作站由站长、副站长、顾问、成员组成，其中站长1人、副站长不超过3人、顾问1—2人、成员不超过9人、其他进站人员若干。', '学科带头人工作站站长从本工作站学科带头人中产生，总体负责工作站的管理和运行，其余学科带头人担任副站长。工作站建在站长所在学校，学校安排一名校级领导担任副站长，负责工作站运行保障工作。若站长工作调动，工作站随之变化到站长调动后的学校。', '工作站成员由学科带头人在贵阳市、贵安新区学科市级及以上骨干中推荐产生，经被推荐人学校及所属教育行政部门同意，报市教育局审定同意后聘任。', '市级教坛新秀及以上称号获得者可向工作站提出申请，以研学方式进入工作站参与研究活动，作为其他进站人员，不占用工作站成员名额。', '（一）不断更新教育教学观念，系统掌握现代教育理论和技能，以学科文化研究为抓手，以贵阳市、贵安新区学情研究为根基，以学科课堂教学目标达成度为目的，主动跟踪本学科国内外前沿发展动态，引领工作站成员有序开展教育教学研究实践、形成有一定推广价值的教学成果。', '（二）每年在校内上示范课不少于2节，面向贵阳市及贵安新区上示范课至少1节，校内外听评课不少于20节。每年承担校内外教师培训任务不少于1次，至少参加1次送教下乡、支援民族地区、省内对口支援地区或按照市委、市政府统一安排纳入一体化发展的地区教育活动。', '（三）以贵阳市及贵安新区质量监测数据分析为切入口，对课堂教学中存在的不足进行跟踪指导，同时针对本学科教育教学实践中的重点、难点问题，主动申请主持或参与相关学科教育教学科研课题或教改实验项目，每年至少开设1次专题讲座或学术报告会。3年内至少撰写1篇发表在核心期刊上的学科教育教学论文、调研报告或完成一本学科教学研究的专著。', '（一）以教育改革发展中的热点、难点、关键点等问题为导向，以项目（课题）为载体，开展学科教育专题研究与创新，解决教育教学实际问题，形成一批具有操作性的研究创新成果。', '（二）制定工作站的三年工作规划和年度推进计划，确立工作的目标、内容和方式，明确站内人员的职责分工，提升工作站团队协作能力。', '（三）通过发表论文、撰写专著、课堂范式、课例研究、发布研究动态、开设讲座、举办论坛、研讨会、报告会等形式在贵阳市及贵安新区乃至全省范围内交流推广教育教学研究成果，邀请国内各学科领域的专家举办专题讲座，拓展我市学科教师视野。', '（四）“一人一案”制定工作站成员培养计划，引领工作站成员和其他进站人员针对学科实践中的热点、难点瓶颈问题，通过“研究——实践——再研究——再实践”的方式，工作站三年内研究成果在市级及以上教学成果评选中至少获得二等奖以上，并在贵阳市及贵安新区乃至全省具有推广价值。', '按照培养计划确立个人短期及三年成长计划，进站工作期间，每学期至少在贵阳市及贵安新区范围内开设1节示范课或讲座，三年内完成1项自选项目的研究。在学科内发挥骨干教师带头作用，主动融入学科教研，积极承担学科带头人安排的课堂教学研究、教学成果研究实践等专题任务，根据教研需要展示研修成果。', '围绕工作站工作的计划，制定个人学习计划，参与工作站各项研究和实践工作，完成相关工作任务，通过三年时间专业能力水平得到大幅提升。', '市教育局制定学科带头人及工作站考核办法，通过第三方组织专家团队，对学科带头人及工作站的工作实绩进行评价。从组织活动的覆盖面及有效性，从工作站成员的专业提升，从学科研究成果的品质、价值及意义入手，分年度对学科带头人及其工作站的工作成效进行过程性考核，三年周期结束进行终结性考核，依照综合评分情况，评定优秀、合格、不合格三个等级。', '终结性考核获得“优秀”的学科带头人和工作站将在贵阳市及贵安新区进行通报表彰，直接进入下一个周期。', '终结性考核获得“优秀”的学科带头人如工作期满达到退休年龄，原则上需重新评选替补人员，在身体条件允许、个人自愿、工作需要的前提下可续聘续任。', '过程性考核“不合格”的学科带头人和工作站限期整改，整改后仍不合格的取消学科带头人命名并撤销工作站。', '市教育局成立中小学（幼儿园）学科带头人工作站建设认定工作领导小组，领导小组办公室设在市教育局教师工作处，负责按照领导小组的安排，统筹学科带头人工作站建设和相关保障管理工作。各区（市、县）教育局、贵安新区教育管理处要将工作站建设和发展纳入本单位（部门）议事日程，做好本区域工作站的指导服务和保障工作。学科带头人的工作单位要安排分管领导联系带头人、指定专人负责工作站的保障和服务，要合理安排进站人员在本单位的工作任务，进站人员在站工作期间的工作量按所在单位总工作量的三分之一计入单位考核。', '市教育局对普通高中学科带头人工作站按每站每年30万，初中、小学、幼儿园学科带头人工作站每站每年20万的标准安排专项工作经费，主要用于学术交流活动、顾问工作补助、成员培训研修、外出考察学习、实践观摩、项目研究、成果推广、必要的设施设备、图书资料及工作站日常运行等。工作站经费管理使用办法另行制定，各工作站要按照经费管理办法做出明细的支出预算，严格专款专用。', '各工作站要根据市教育局制定的考核办法，建立健全工作站管理工作制度，确保工作的顺利开展。工作站进站人员所在单位要切实保障其权益不受损害，合理安排进站人员在本单位的工作任务。', '学科带头人工作站的硬件保障由各工作站相关经费承担，站长所在学校负责为工作站提供场地、办公设备设施、技术力量等，确保工作站的正常运转及相关教学教研科研活动高质量开展。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>245</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>贵阳市城镇生活垃圾分类管理办法解读</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018-12-18</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/jdhy/jdhyzcjd/jdhyzcjdwzjd/201905/t20190527_8164568.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['市政府1998年9月公布施行了规章《贵阳市城市生活垃圾袋装管理规定》(以下简称《规定》)，2013年修改，对城市生活垃圾收集清运方式、提高城市环卫质量等发挥了积极作用。但随着本市城乡建设的快速发展和人口数量不断增长，物质消费水平大幅提高，生活垃圾总量逐年增加，因《规定》制定时间早、内容单一，已完全不适应实际需要，有必要重新制定规章。其必要性主要体现在以下方面：', '(一)是贯彻落实生活垃圾强制分类管理决策部署的需要生活垃圾是城乡管理和环境保护的重要内容，是城市文明程度的重要标志，关系群众切身利益。党的十九大提出：着力解决突出环境问题，坚持全民共治、源头防治，加强固体废弃物和垃圾处置，强化排污者责任，健全环保信用评价、信息强制性披露。党中央、国务院2018年6月《关于全面加强生态环境保护坚决打好污染防治攻坚战的意见》提出：加快推进垃圾分类处理，到2020年，实现所有城市和县城生活垃圾处理能力全覆盖，省会城市等基本建成生活垃圾分类处理系统，推进垃圾资源化利用。国务院办公厅《关于转发国家发展改革委住房城乡建设部生活垃圾分类制度实施方案的通知X国办发〔2017〕26号)，明确了生活垃圾分类管理的总体要求、原则、强制分类区域和具体要求，将省会城市城区范围列入先行实施生活垃圾强制分类，并要求推动地方立法。省政府办公厅《关于转发省发展改革委省住房城乡建设厅贵州省生活垃圾分类制度实施方案的通知》(黔府办发〔2017〕68号)要求:2020年底前，本市城区范围先行实施生活垃圾强制分类，要推动出台相关法规、规章，明确强制分类要求，细化垃圾分类类别、品种、投放、收运、处置等要求。《中共贵阳市委关于大生态战略贵阳行动的实施意见》(筑党发〔2017〕16号)提出：坚持环境治理，推进生活垃圾、餐厨垃圾资源利用，健全再生资源回收利用体系，健全垃圾处理制度。为贯彻落实上述工作部署，强化顶层设计，为本市生活垃圾分类管理提供法制保障，需要新制定政府规章。', '近年来，本市生活垃圾总量大幅上增，据统计，2011年产生量为2000吨/日，2017年上升为3829.7吨/日，已成为影响生态环境和城市形象、制约城乡发展的重要因素，经调研分析梳理，生活垃圾分类管理主要有以下方面的问题需立法解决：', '一是工作机制不健全，各类主体在分类管理中应承担的责任、义务不清晰，没有形成合力，共同参与力度不够，难以深入推进。', '二是相应配套设施缺乏统筹规划，建设力度不够，处置设施建设项目用地选址困难，处置设施明显不足，卫生填埋场地配套作业设施设备不到位，制约了分类处置。', '三是分类投放、收集、运输、回收、处置等环节系统管理制度不健全，分类缺乏强制约束力，实施存在难度。', '四是分类处置新技术应用重视不够，处置工艺单一、技术水平不高，导致资源严重浪费，臭气、污水难控制，二次污染突出，影响周边居民生产生活环境。', '五是管理力度不够，源头减量难实现，“前端基本不分类，后端处理大锅烩”现象突出，产品过度包装、回收利用行业不紧气影响减量化程度。', '六是宣传、动员、引导分类力度不够，分类知识欠缺、意识淡薄、知晓率不高、重视程度不够，长期形成的习惯难改变。', '《中华人民共和国环境保护法》(以下简称《环保法》)、《中华人民共和国固体废物污染环境防治法〉〉(以下简称《固废法》)、《城市市容和环境卫生管理条例》等法律、法规对生活垃圾分类管理的规定较为原则，操作性不强，需结合实际和垃圾分类每个环节的工作进行细化和系统规范。同时，本市作为国家确定的首批垃圾分类示范城市，近年来通过先行先试、积极探索，出台一系列政策措施，选择乌当区进行试点，取得了初步成效，在垃圾清运体系建设、无害化处理、综合利用等方面积累了一定经验，需总结提炼通过政府立法进行固化，形成长效机制，有利于深入推进生活垃圾分类管理。', '基于上述情况，制定《贵阳市城镇生活垃圾分类管理办法》(以下简称《办法》)，十分迫切和必要。', '为推进立法工作，市政府将制定《办法》列入2017年立法计划的调研类项目，市城管局积极开展前期调研准备工作，成立立法调研起草工作组，总结分析本市生活垃圾分类管理工作情况，会同市发展改革、财政等部门赴杭州、苏州、上海等地考察学习，形成立法调研报告，提出了立法建议。结合前期调研准备情况，《办法》立法条件基本成熟，市政府2018年立法计划作出安排，市城管局起草了《办法(初稿)》，经论证、修改形成送审稿报送市法制局。为进一步学习借鉴外地成功经验，2018年7月，市政府分管副市长亲自带队，由市政府应急办有关分管领导和市城管、法制、发展改革、公安、生态文明、司法、教育等部门的主要负责人组成调研组，带着问题赴厦门等地调研。', '一是按照国办发〔2017〕26号、黔府办发〔2017〕68号文关于本市城区范围先行实施生活垃圾强制分类的要求，依据《固废法》《城市市容和环境卫生管理条例》的相关规定，并与危险废物、餐厨废弃物、可回收物等涉及法律、法规、规章的规定衔接，条至第三条分别规定了立法目的、适用范围、生活垃圾的界定、衔接性规定和原则。', '二是生活垃圾分类管理是一项系统工程，为确保各级各部门依法履职，第四条、第五条对各级政府、有关部门、社区服务中心等的职责列举进行了规定，还规定了居(村)委会的协助配合职责。', '三是为解决生活垃圾分类投放知识欠缺、意识淡薄、知晓率不高、重视程度不够等问题，形成环境保护人人有责和垃圾分类人人参与以及家喻户晓、深入人心的良好氛围，第六条、第七条规定了相应措施。', '一是为补充、细化《固废法X城市市容和环境卫生管理条例》关于统筹安排建设城乡生活垃圾收集、运输、处置设施的原则规定，贯彻落实国办发〔2017〕26号、黔府办发〔2017〕68号文关于生活垃圾分类配套体系建设的要求，针对配套设施统筹规划建设力度不够等问题，防止漏建或不建，第八条至第十条对生活垃圾相应配套设施建设及管理的专项规划、实施方案编制的主体、程序和落实规划、方案的要求进行了详细规定。', '一是为确保正确、规范分类投放生活垃圾，按照国办[2017]26号、黔府办发〔2017〕68号文明确的分类要求，第十二条、第十三条对生活垃圾分类的品种、标准和投放要求进行了详细规定，还对调整标准的主体、程序进行了规定。', '二是为从源头上有效控制生活垃圾正确分类，强化分类投放责任，实现前端减量，并为分类运输、处置奠定良好基础，依据《固废法X〈城市市容和环境卫生管理条例》的相关规定，第十四条、第十五条、第十七条规定了生活垃圾分类投放管理责任人制度，明确了不同区域的责任主体，还规定了相应监管措施。', '三是为督促、引导单位、个人全面了解、知晓并自觉参与生活垃圾分类，依据《环保法X城市市容和环境 卫生管理条例》的相关规定，第十六条规定了制发、公布生活垃圾分类指南的责任主体和单位、个人应遵守的行为规范及相关要求。', '一是为确保已分类投放的生活垃圾严格实行分类收集、分类运输，依据《固废法》的规定，按照国办发〔2017〕26号、黔府办发[2017]68号文的要求，第十八条、第十九条规定了生活垃圾分类收集、运输的方式、具体要求和禁止性规范，第二十三条规定了保障运输车辆作业场地、道路正常使用的措施。', '二是生活垃圾经营性收集、运输、处置属市政公用事业，为保障公共利益和提高企业经营效率，除可回收物、有害垃圾执行有关法律、法规外，依据《固废法X城市市容和环境卫生管理条例〉X贵州省市政公用事业特许经营管理条例》，并结合《城市生活垃圾管理办法》的规定，第二十条规定了易腐垃圾和其他垃圾经营性收集、运输、处置实行特许经营制度，明确了择优选择特许经营企业的方式、程序，第二十一条、第二十二条、第二十六条、第二十七条规定了实施中的相应服务监管措施。', '三是为将垃圾变废为宝，实现资源化、减量化、无害化处理，大限度地防止污染，并针对生活垃圾处置新技术应用重视不够、技术水平不高等问题，第二十四条、第二十五条规定了相应措施。', '四是为促进生活垃圾减量化和资源化，并为垃圾处置提供稳定的资金保障，增强公众环保意识，按照国家有关规定，第二十八条强调了建立完善本市生活垃圾处置收费制度。五是为有效处置生活垃圾分类管理和污染防治突发事件，确保在紧急或特殊情况下生活垃圾分类投放、收集、运输、处置正常进行，第二十九条规定了相应措施。', '一是针对工作机制不健全、共同参与力度不够、监管制度不完善等问题，为深入推进工作有序开展，完善监管制度，加大督促力度，并发挥机关单位示范带动作用，第三十条至第三十四条对建立协调工作机制、考核制度、相关配套制度和相应措施进行了规定。', '二是为充分利于现代信息技术手段和“互联网+”强化生活垃圾分类管理，创新管理模式，加快推进智慧环卫系统研发建设，提升管理水平和效能，第三十五条规定了相应措施。', '三是为督促、引导涉及的各类主体自觉履行生活垃圾分类管理相应职责、义务，诚实信用，并广泛接受社会监督，第三十六条至第三十八条分别规定了信用管理、投诉举报和媒体舆论监督等措施。', '一是为确保《办法》规定有效实施，加大对违法行为的查处力度，依据《固废法X建设工程质量管理条例X〈城市市容和环境卫生管理条例》等法律、法规，结合《城市生活垃圾管理办法》的规定，第三十九条至第四十七条规定了相应行政处罚措施，第四十八条规定了与其他法律、法规和规章规定的行政处罚相衔接的规定。', '二是为督促有关部门及其工作人员依法履职，勤政廉洁，第四十九条规定了行政责任追究措施。', '文件原文：政府令第65号贵阳市城镇生活垃圾分类管理办法（已修改，修改后文本进入现行有效政府规章查询）', '《市人民政府关于做好被征地农民就业和社会保障工作的意见》（筑府发〔2018〕29号） 政策解读']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>245</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>关于贵阳市交通运输局年度市级部门决算及三公经费决算信息公开有关问题的说明</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2015-10-30</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/sjtwyh_5624405/202001/t20200116_43351948.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['关于贵阳市交通运输局2014年度市级部门决算及“三公”经费决算信息公开有关问题的说明 - 贵阳市人民政府', '关于贵阳市交通运输局2014年度市级部门决算及“三公”经费决算信息公开有关问题的说明', '一、部门概况 (一）部门主要职能: （1）贯彻执行国家有关交通运输业发展的方针、政策和法规，拟订全市公路、水路交通运输行业发展战略、方针政策并组织实施。 （2）拟订全市公路、水路交通运输业发展规划，中长期计划和年度计划并监督实施；负责公路、水路交通运输业统计和交通运输信息化建设，承担战备支前运输的有关工作。 （3）指导交通运输业体制改革；培育和管理交通运输市场和交通基础设施建设市场，维护公路、水路交通运输业的平等竞争秩序；调控和平衡全市交通运输运力；引导交通运输业优化结构和协调发展；指导交通运输业协会工作，发挥交通运输业协会的功能和作用。 （4）负责全市公路、水路的运政和路政管理，统一管理城乡公路、水路客货运输（含小轿车定线客运和旅游客运、汽车租赁、特殊物资运输）；管理城市客运（城市公共交通和出租车）；加强交通运输服务业的管理，指导公路、水路交通运输业安全生产和应急管理工作；对重点物资运输和紧急客货运输进行调控。 （5）负责市属公路、水路交通基础设施的建设、维护、工程质量与安全监督和造价管理。组织对交通基础设施建设、市重点公路、水路交通工程建设及客货运输站场的管理。 （6）负责全市汽车维修市场、汽车驾驶学校、驾驶员培训的行业管理；实施汽车综合性能检测工作的行业管理。 （7）负责全市水上港航监督、船舶检验、船员培训考核及交通安全管理和船舶维修市场管理。 （8）负责起草交通运输专项法规和规章草案；开展全市交通行政执法监督、检查。 （9）贯彻交通运输业科技发展规划和技术经济政策；监督实施交通运输技术标准和规范；组织对交通基础设施建设发展的重大科技项目攻关和成果推广，指导重大技术引进和创新工作。 （10）协调交通运输行业利用外资、开展国际交通经济技术合作与交流等涉外工作；管理涉及全市公路、水路交通运输与国际组织间合作的有关事宜。 （11）承办市委、市人民政府和上级业务部门交办的其他事项。 （二）部门机构组成： 我局系统由局机关及5个二级机构组成，分别为贵阳市交通运输局、贵阳市道路运输管理局、贵阳市公路处、贵阳市汽车维修行业管理处、贵州省贵阳市地方海事局、贵阳市交通技工学校。 （三）部门人员组成： 我局系统共有财政供养人员518人，其中在职人员312人，离休人员10人，退休人员196人。 我局系统在职人员312人，其中局机关35人，5个二级机构人员合计277人；局系统离休人员10人，其中局机关1人，系统内其他机构9人；局系统退休人员196人，其中局机关31人，系统内其他机构165人。 二、2014年度收入支出决算总表情况说明 (一）决算总收入说明 2014年我局决算总收入48345.91万元，其中公共财政预算拨款收入41153.49万元，事业收入654万元，经营收入360.12万元，其他收入6178.3万元。 我局系统经营收入主要包括贵阳市交通技工学校和贵阳市汽车维修行业管理处的预算外事业收入； 我局系统其他收入主要包含金阳建设公司为修建老富源路支付市公路处处项目专款、旅发大会公路改建项目贷款资金等； 我局系统经营收入为贵阳市交通技工学校开展驾驶员培训等经营收入。 (二）决算总支出说明 2014年部门决算支出53635.65万元，其中：一般公共服务支出350.84 万元、教育支出4836.85 万元、交通运输支出48447.96 万元。 （三）结余结转资金情况说明： 2014年,我局系统上年结转资金15561.72万元，本年部门决算总收入48345.91万元，本年部门决算支出53635.65万元，年底结余分配393.29万元，年终结转资金9878.69万元。 三、2014年度一般公共预算财政拨款支出决算表情况说明 （一）2014年公共预算拨款支出按照功能分类说明： 2014年度我局系统一般公共预算财政拨款支出48828.66万元，其中基本支出3813.86万元，项目支出45014.8万元。具体支出功能明细如下：（参见2014年度一般公共预算财政拨款支出决算表） 1.其他发展与改革事务支出350.84万元，具体包括：创建公交都市示范性城市工作经费、公交都市前期工作经费、贵阳市水运工程建设项目前期工作经费、贵阳市农村公路建设前期工作经费等。 2. 技校教育2327.53万元。具体为局属二级单位贵阳市交通技工学校校舍建设征拨土地款、校舍建设资金。 3.一般行政管理事务415.96万元。为保证系统正常运转所开支行政项目经费。主要包括：经济信息时报联建交通专刊费用、局属质监站工作经费、世界银行贷款办公室工作经费、局属原搬运公司和供销公司托管离退休人员离退休费、交通系统安全经费、公交都市前期工作经费等。 4. 公路改建9,002.91万元。具体包括：公路水毁预防及抢险费用、贵阳市农村公路扬尘治理设备购置费、农村公路建设资金。 5.公路养护1167.51万元，主要用于贵阳市农村公路建设、农村公路日常养护费用等。 6.公路路政管理362.44万元。主要用于路政恢复工程、城市治超工作经费。 7.公路运输管理1009.81万元。主要用于贵阳市道路运输管理局打击非法营运工作经费、出租车网络平台建设、对外宣传工作经费、农村招呼站、县乡客运站建设经费等 8.海事管理155.96万元。具体包括海事局基本支出、乡镇渡口建设专款、贵阳市水上搜救指挥中心建设经费、全市海事（航务）执法车、艇使用及维修经费等。 9.其他公路水路运输支出9000万元，具体为我局为配合城市建设支付的金云关收费站迁移补偿第一、第二期费用。 10.对城市公交的补贴11,955.51万元。具体为支付给城市公交车的燃油价格补贴。 11对出租车的补贴8,810.33万元，具体为支付给贵阳市出租车的燃油补贴。 12.车辆购置税其他支出456万元，具体为交通部下拨的2013年区域性绿色低碳交通运输体系试点项目中央补助资金，今年拨付给各区县试点项目补助资金。 （二）公共财政预算拨款收支预决算比较差异说明： 1.公共财政拨款预算收入差异说明： 我局2014年预算安排公共财政预算拨款收入24383.66万元，其中基本支出安排收入3673.66万元，项目支出安排收入20710万元；2014年决算安排公共财政预算拨款收入41153.49万元，其中基本支出安排收入3813.86万元，项目支出安排收37339.63万元。决算收入比预算收入高16769.83万元，其中基本支出拨款收入多140.2万元，项目拨款收入多16629.63万元。 2014年我局公共财政预算收入中，决算项目拨款收入比预算多16629.63万元。主要由几方面构成： （1）金关收费站迁移补偿费增加4000万元。由于在编制预算时，关于金关收费站迁移补偿的最终方案没有定案。只明确了14年初需要支付首期补偿款5000万元。所以在编制预算的时候只安排了首期补偿款5000万元。等补偿方案最终落实后，明确14年底还需要支付第二笔补偿费4000万元。所以在年终的时候我局追加了该笔预算收入。 （2）今年局属事业单位贵阳市道路运输管理局收到省财政厅下拨城市公交和出租车燃油补贴10189.77万元。自燃油税改革以来，每年交通部与财政部会根据汽柴油的价格波动情况核定相应的补贴金额。通过财政部门下拨至各各地区，用于公交车和出租车的燃油补助。由于燃油补贴属于上级补助收入，我们编制的预算是同级财政部门预算，所以不能将这项收入纳入预算编制范围内；同时，由于燃油价格会频繁波动，我们在做预算的时候无法预计，所以无法纳入预算管理。 （3）局属事业单位贵阳市交通技工学校今年收到“9+3”职业学校建设中央及省专项补助资金1934万元。同样，这部分资金属于上级补助资金，不能纳入我局的同级财政部门预算中反映。 （4）市财政根据我局系统项目具体实施进度到年终合理调增农村公路建设资金505.86万元。 2.公共财政预算支出差异说明： 2014年我局预算安排公共财政预算拨款支出24383.66万元，其中基本支出3673.66万元，项目支出20710万元；2014年决算发生公共财政预算拨款支出48828.66万元，其中基本支出3813.86万元，项目支出45014.8万元。决算支出数比预算支出数高24445万元，其中基本支出多140.2万元，项目支出多24304.8万元。 2014年我局公共财政预算支出中，决算项目支出比预算多24304.8万元。具体增项主要包括： （1）本年增加金关收费站第二期迁移补偿费4000万元。 （2）本年新增城市公交和出租车燃油补贴10056.62万元。 （3）局系统上年结转资金主要包括上年底收到的城市公交和出租车燃油补贴、“9+3”职业学校建设中央和省厅专项补助资金、建设公交都市示范城市项目资金、建设区域性绿色低碳交通运输体系试点项目等延续项目今年开展实施后的支出10248.18万元。 四、“三公”经费财政拨款支出情况说明： “三公经费”是指我局系统通过财政拨款资金安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，公务用车购置及运行费指单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费指单位按规定开支的各类公务接待（含外宾接待）支出。我局2014年“三公经费”具体开支明细如下说明： （一）公务接待费： 2014年我局系统年初预算安排公务接待费支出预算23万元、决算中实际支出10.05万元，共计节省公务接待费12.95万元。 （二）公务用车购置及运行费： 2014年我局系统新购车辆4辆，截至年底，我局系统共有公务用车101辆。2014年初我局预算安排公务用车运行维护费229.2万元。决算中实际支出237.62万元。超支8.42万元。原因为局属事业单位贵阳市道路运输管理局在年初预算公开时没有把项目中所预算的公务用车运行费纳入“三公经费”预算公开范围内。但年终决算所公布的公务用车运行费包括了基本和项目支出中所有的费用。如果把该局项目预算中所安排的公务用车运行费30万纳入同口径对比，我局年终公务用车运行费应该节省21.58万元。（30-8.42=21.58万元） （三）因公出国（境）费： 我局因公出国（境）费由我市实行统筹管理、总额控制，年初年我单位无预算。本年我局实际发生因公出国（镜）费用1.9万元。具体为： （1）根据黔府外出〔2014〕524号省政府出国任务批件，局属事业单位贵阳市道路运输管理局排一人到韩国考察学习公交都市项目建设和运行情况发生费用1.58万元。 （2）根据省公务员局《关于选派学员赴港参加2014年第2期小城填规划建设与管理培训班的通知》，局属事业单位贵阳市公路处选派一人参加培训，发生费用0.32万元。 附件：贵阳市交通运输局2014年度市级部门决算和“三公”经费决算公开表']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>245</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>中国民主同盟贵阳市委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszgmztmgyswyh/202008/t20200818_62554552.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['1、在中共贵阳市委的领导下，履行参政议政的职能。包括：参加我市的管理；参加政协组织，按政协章程开展工作；参与我市重要的人事协商；参与我市重大决策的协商；参与民主监督。', '2、对我市经济发展、社会进步、民主法制建设以及社会主义精神文明建设开展调查研究，为中共贵阳市委决策提供参考意见和建议。', '3、在中共贵阳市委领导下，高举邓小平建设有中国特色社会主义理论伟大旗帜，组织盟员学习贯彻党的路线、方针、政策和党的统战理论，维护安定团结的政治局面，积极投身于两个文明建设，鼓励盟员为富民兴筑作贡献。', '本单位内设4个处室。从预算单位构成看，中国民主同盟贵阳市委员会部门决算包括：本级决算。', '中国民主同盟贵阳市委员会2019年度一般公共预算财政拨款支出277.91万元，占本年支出合计的100%。与2018年相比，一般公共预算财政拨款支出增加29.8万元，增长12.01%。主要原因是：增加承办西部盟务研讨会会议经费支出，在职人员工资调整等。', '（六）中国民主同盟贵阳市委员会2019年度一般公共预算财政拨款基本支出决算情况说明', '中国民主同盟贵州省贵阳市委员会2019年度一般公共预算财政拨款基本支出221.51万元，其中：人员经费197.81万元，主要包括基本工资、津贴补贴、离退休费等；公用经费23.7万元，主要包括办公费、水电费、差旅费等。', '（七）中国民主同盟贵阳市委员会2019年度一般公共预算财政拨款“三公”经费支出决算情况说明', '（1）因公出国（境）费支出0万元。中国民主同盟贵阳市委员会全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '（2）公务用车购置及运行维护费1.53万元,其中，公务用车购置0万元，购置公务用车0辆；公务用车运行维护费1.53万元。主要用于燃油费、维修费等。2019年，单位开支财政拨款的公务用车保有量为1辆。', '国内公务接待支出1.04万元，主要是接待外地盟市委来贵阳考察调研等。中国民主同盟贵阳市委员会2019年国内公务接待10批次，120人次。', '中国民主同盟贵州省贵阳市委员会2019年政府性基金预算财政拨款本年收入0万元，本年支出0万元。', '根据财政预算管理要求，我单位组织对2019年度财政拨款项目支出开展了绩效自评工作。共计1个项目进行了绩效自评，涉及资金37.87万元，自评覆盖率达到100%。', '截至2019年12月31日，中国民主同盟贵州省贵阳市委员会共有车辆1辆，其中，主要领导干部用车0辆、机要通信用车0辆、应急保障用车1辆、执勤执法用车0辆、特种专业技术用车0辆、离退休干部用车0辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）一般公共服务支出（类）民主党派及工商联事务（款）行政运行（项）：指民盟贵阳市委员会的基本支出。', '（十八）一般公共服务支出（类）民主党派及工商联事务（款）参政议政（项）：指民盟贵阳市委员会的项目支出。', '（十九）住房保障支出（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。）', '（二十）社会保障和就业支出（类）行政事业单位养老支出（款）机关事业单位基本养老保险缴费支出（项）。指民盟贵阳市委基本养老保险缴费支出', '（二十一）卫生健康支出（类）行政单位医疗（款）行政单位医疗（项）。指民盟贵阳市委医疗保险缴费支出。', '（二十二）卫生健康支出（类）行政单位医疗（款）公务员医疗补助（项）。指民盟贵阳市委基本医疗保险缴费支出', '参政议政是民主党派两大基本职能之一。我委每年都要进行至少5个重点课题地调研，其中市委委托重点课题1个，省盟委托重点课题1-2个，根据当年市委市政府的中心工作和老百姓关心的重点难点问题，自选课题2-3个方向开展调研。一般年初定题，当年结题。该经费用于包括但不限于召开各类会议，组织各种类型的调研、考察、学习活动以及开展社会服务、民主监督、组织发展等工作。每年年初部署工作，年中跟进，年底总结。', '全面开展2019年度参政议政、民主监督及社会服务等各项工作。 已完成2019年参政议政、民主监督、社会服务等工作，调研课题、提案建议取得一定成绩，并得到中共贵阳市委主要领导批示。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>245</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>贵阳市残疾人联合会年度部门决算</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgyscjrlhh/202008/t20200817_62546674.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['贵阳市残疾人联合会是将残疾人自身代表组织、社会福利团体和事业管理机构融为一体的残疾人事业团体，履行“代表、服务、管理”职能，由市政府领导同志联系。其主要职责是：', '二是团结、教育残疾人遵纪守法，履行应尽的义务，发扬乐观进取精神，自尊、自信、自强、自立，为社会主义建设贡献力量。', '三是弘扬人道主义，宣传残疾人事业，沟通政府、社会与残疾人之间的联系，推动社会理解、尊重、关心、帮助残疾人。', '五是研究、拟定和实施残疾人事业的法规、政策、规划和计划，对相关业务进行指导和管理。', '六是对区（市、县）残疾人联合会领导班子的调整配备提出建议或意见，做好领导干部的业务培训工作。', '九是组织残疾人劳动就业。管理残联系统的残疾人福利企业，会同有关部门制定并实施残疾人福利企业的扶持保护政策。对残疾人福利企业中的残疾人就业状况进行监督。', '本部门内设6个处室，下属3个单位。从预算单位构成看，贵阳市残疾人联合会部门决算包括：本级决算、', '所属贵阳市残疾人就业服务部、所属贵阳市残疾人康复教育培训中心和所属贵阳市残疾人康复托养中心决算', '年度“三公”经费财政拨款支出预算为14.83万元，支出决算为8.35万元，决算数小于预算数，主要原因是因公出国境和公务用车次数减少。', '三公”经费一般公共预算财政拨款支出决算8.35万元，比上年减少2.28万元，降低21.45%，减少原因是因公出国境和公务接待次数减少。其中，因公出国（境）费支出', '万元，占0%，比上年减少1.51万元，降低100%，减少原因是本年无因公出国境；公务用车购置及运行维护费支出', '万元。主要用于车辆维修、保养、加油和过路费等。2019年，单位开支财政拨款的公务用车保有量为5辆。', '其他支出（类）彩票公益金安排的支出（款）用于残疾人事业的彩票公益金支出（项）财政拨款支出252.89万元，主要用于残疾人运动会锦标赛及运动队集训和群众性体育健身示范点建设。', '根据财政预算管理要求，我单位组织对2019年度财政拨款项目支出开展了绩效自评工作。共计17个项目进行了绩效自评，涉及资金1179.74万元，自评覆盖率达到96%。', '截至2019年12月31日，贵阳市残疾人联合会共有车辆5辆，其中，主要领导干部用车0辆、机要通信用车0辆、应急保障用车0辆、执勤执法用车0辆、特种专业技术用车2辆、离退休干部用车1辆、其他用车2辆（其他用车主要是：一般公务用车）；单位价值50万元以上通用设备2台（套），单位价值100万元以上专用设备3台（套）。', '不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（二十二）社会保障和就业支出(类)行政事业单位养老支出(款)机关事业单位基本养老保险缴费支出(项)：', '（二十三）社会保障和就业支出(类)行政事业单位养老支出(款)机关事业单位职业年金缴费支出(项)：', '（二十四）社会保障和就业支出(类)其他社会保障和就业支出(款)其他社会保障和就业支出(项)：', '（二十九）其他支出（类）彩票公益金安排的支出（款）用于残疾人事业的彩票公益金支出（项）：', '贵阳市残疾人康复托养中心（以下简称“中心”）建设项目经贵阳市发展和改革委员会《关于贵阳市残疾人康复托养中心建设项目可行性研究报告的批复》（筑发改社会〔2013〕124号）、《关于贵阳市残疾人康复托养中心初步设计的批复》（筑发改项目〔2013〕424号）批准实施。项目建设在2014、2015年连续两年被列为贵阳市委、市政府对民承诺的“十件实事”之一。具体情况如下：', '项目主要建设内容包括：康复门诊楼、精神康复楼、娱疗楼、综合康复楼、托养中心、公厕、车库、辅助用房、室外工程（道路、广场、建筑小品、围墙、堡坎等）、绿化。', '本次绩效考评量化指标评分对项目立项、资金落实、业务管理、资金管理、项目产出、项目效益六大方面的量化指标进行了评分。项目立项方面：立项规范、绩效目标合理、绩效指标明确；资金落实方面：资金到位率100%，到位及时率96%；业务管理方面：管理制度健全、制度执行情况良好、项目达到质量要求并形成了正式规范的自评报告；资金管理方面：资金使用率103%，项目资金使用规范符合相关的财务管理制度规定，项目资金按进度拨付项目资，实行专账管理、专款专用；项目产出方面：实际完成率90%、完成及时率90%、验收进入竣工验收阶段、项目实际投资在预算控制范围之内；项目效益方面：项目实施及运行不会对环境造成影响和破坏，作为专门为残疾人服务的特殊场所，本项目建设和投入使用，将取得显著的社会效益和不可估量的经济效益，残疾人对项目建成后投入使用的期望值和满意度高。', '建议在以后的项目建设中加强沟通协调、提高突发问题的处置能力，以加快项目建设进度，让贵阳市残疾人康复托养中心项目尽早发挥应有的社会效益。', '提高为残疾人服务水平，提升残疾人的整体生活质量，保障残疾人的权利，实现残疾人事业与经济社会协调发展', '“十三五”期间，我市坚持通过与体育部门密切协作，组织举办全市性残疾人运动会、选拔培养残疾人运动员，开展运动员集训，提高残疾人运动竞技水平，备战全省残运会，建立残疾人运动员后备梯队，向贵州省、国家残疾人运动队输送体育人才。持续组织实施系列群众性残疾人体育活动及学习交流，促进残疾人健身体育、康复体育、竞技体育的同步发展。', '年度市级经费预算“残疾人事业体育”项目，整体完成情况为“优”，年度各项任务均在12月31日前完成，社会效益良好，可持续发展和群众满意度较高。年度预算实际使用率为20%，原因为大部分体育竞赛项目转为“残疾人体育彩票公益金”项目开支，节约了财政一般预算的经费，另外因政府采购控制了成本，严格的采购流程也控制了预算支出，节约了财政支出，值得继续推广。', '、残联系统任务重、项目多、指标体系复杂繁琐、基层人员少，没有统一的绩效目标评价工作用表；', '用，组织开展系列残疾人体育活动，促进残疾人健身体育、康复体育、竞技体育的同步发展。', '完成贵阳市残疾人大数据服务平台各功能模块的开发，开展相关调试工作，并在息烽县进行测试3个月后，于2019年5月平台上线试运行。项目通过初验，待市大数据局牵头进行的综合验收。机关办公设备及网络安全得到有效维护。', '一是系统内设区划还需要根据2020年贵阳市行政区划（街道设立）进行实时调整，并划转残疾人数据，以便服务精准。二是培训力度不够，基层工作人员对系统操作不熟，对职能权级不清，使用时部分区县、部分项目使用不理想。三是系统层级开发还待完善，未能完全满足实施方案要求。四是部门间数据共享迟缓，造成数据分析、应用困难。五是系统角色账号有待进一步根据实际需要进行完善。六是宣传发动不够，残疾人通过系统自主申报不理想。七是残疾人基础数据不准确，有待进一步完善。', '一是进一步做好平台功能的修改完善，细化项目资料，完成项目综合验收。二是加强对区（市、县）、街道（乡、镇）残疾人工作者的培训工作，加大平台宣传力度，推广平台使用。', '完成贵阳市残疾人大数据服务平台各功能模块的开发，开展相关调试工作，并在息烽县进行测试', '月平台上线试运行。项目通过初验，待市大数据局牵头进行的综合验收。机关办公设备及网络安全得到有效维护。', '残疾人权益保障专项涉及组联维权部的内容为：1、开展律师法律座诊援助服务；2、召开一次组联维权工作会议；3、召开贵阳市第一期国家通用手语培训班；4、开展第十次全国肢残人活动、第六十二个国际聋人节活动、第36个世界盲人节活动；5、办理残疾人免费乘车卡；6、接待来访生活困难残疾群众。', '继续开展法律座诊援助服务，共为35名残疾人提供法律咨询服务；通过召开组联维权工作会议，总结了上半年工作，对下半年工作进行了部署；召开第一期国家通用手语培训班，帮助更多的听力残疾人和谐融合，回归主流社会；开展肢残人日活动、聋人节活动、盲人节活动，更好的帮助残疾人融入社会，加强了残疾人群体、协会与残联的关系；组织区县残联配合公交公司办理残疾人免费乘车卡，切实解决残疾人朋友的实际困难；接待来访生活困难残疾人5人。', '公交公司反映拨款金额过少（市级残联20万，区县残联30万），从2004年起就未变过，随着经济社会发展，希望拨款金额能适当增加；残疾人节日活动协会活动内容还不够丰富，同时因残疾人身体条件特殊，活动需要更多志愿者参与。', '创新残疾人节日和协会活动形式，加强已残疾人专门协会沟通交流，帮助促进残疾人专门协会各项活动地开展；积极引导残疾人学法守法，通过法律途径解决问题。', '保障组联维权部职能工作顺利实施；做好残疾人信访接待和信访件办理工作，教育、引导残疾人依法维权；帮助信访残疾人及其家庭解决诉求困难；维护残疾人合法权益，维护社会和谐稳定；完成其他工作。贯彻落实《贵阳市残疾人保障规定》，为有需求的符合条件的全部残疾人免费办理残疾人公交乘车卡。保障各类残疾人专门协会组织和工作正常运转，极开展涉残节日的庆祝与宣传活动,不断丰富残疾人精神文化生活，宣传残疾人事业，鼓励和引导残疾人积极参与社会建设和社会活动，开展残疾人权益保障的普法宣传与贯彻落实工作，增强残疾人法治意识，促进涉残政策落实，维护残疾人合法权益。', '为不断促进我市残联系统领导干部的知识结构优化、视野拓宽和综合素质提升，推进我市残疾人事业科学发展,结合全市工作中心和在2018年我市残联系统换届工作完成后各级残联领导干部调整的实际，根据贵阳市干部教育工作领导小组办公室《关于印发2019年干部教育培训计划的通知》要求和我会年度工作安排，我会于2019年5月中下旬，组织举办了一期“新时期贵阳市残联系统领导干部党性修养专题研修班”，培训时间为七天，计划参训人数40人，培训地点为哈尔滨工业大学（威海）校区。', '通过此次培训，在新时期促进了参训残联领导干部的党员修养不断提高，对于培养造就一支政治上靠得住、工作上有本事、作风上过得硬、残疾人信得过的高素质残联领导干部队伍具有促进作用。', '两名参训人员因特殊原因缺席。在临近研修班开班前两天，已报名参训的花溪区残联理事长熊忠及清镇市残联官芳等两名同志，遇到突发情况（省委巡视组进驻花溪，花溪区委、区政府要求全区各单位一把手在单位候命等待接受工作谈话；官芳丈夫突发重病）不能参训，我会收到花溪和清镇反馈此信息后，虽随即进行相应调训工作协调，但由于时间紧还是没能调整好补充人员，故最终实际参加此次研修班人数为38人。', '一是为使本次培训工作取得实效，我会在下发的培训通知文件中，就要求各有关单位精心挑选参训学员对象，同时强调参训学员要带着问题参训，培训结束后参训学员要结合工作实际撰写个人心得体会文章，确保学员能学用结合、学有所获。二是通过开班动员和加强学纪督导、班级管理等工作，学员们学习主动性、积极性得到提高，从而使学员们认真听课和积极与老师互动。', '“十三五”期间，我市坚持定期举办全市性残疾人艺术汇演、残疾人工艺美术书法摄影作品展；依托基层残疾人文体活动场所，开展残疾人特殊艺术节目排练及演出，培养残疾人特殊艺术人才，组队参加全省残疾人艺术汇演以及有关文化赛事；利用全国助残日、残疾人文化周等契机，组织开展群众性残疾人文化体育活动，丰富残疾人精神文化生活；坚持通过在电视台开办手语新闻等专题节目、电台开办残疾人事业专题栏目、贵阳日报刊登残疾人事业专版及残疾人工作的日常报道宣传、制作残疾人公益广告在电梯广告、LED大屏广告栏滚动播放等多种形式宣传残疾人事业发展，为残疾人事业的发展营造良好氛围。', '年度市级经费预算“残疾人文化艺术及宣传工作”项目，整体完成情况为“优”，年度各项任务均在12月31日前完成，社会效益良好，可持续发展，群众满意度较高。年度预算实际使用率为61%，原因为政府采购控制了成本，严格的采购流程也控制了预算支出，节约了财政支出，值得继续推广。', '建议合理增加“残疾人事业文化艺术和宣传工作”项目的财政资金投入力度，扩大残疾人受益面；', '、举办贵阳市第七届残疾人工艺美术书法摄影作品展，不少于120件作品面向社会展出（时间不少于5天），制作画册，面向社会宣传参展一千人（次）以上。', '、利用下属事业单位资源，与区县残联联合开展残疾人文体竞赛下基层活动10次，结合传统节日开展系列活动，丰富残疾人精神文化生活。', '、继续开办好贵阳电视台手语新闻节目1个（不少于50期）、贵阳电台残疾人工作专题节目1个（不少于50期），重点工作、典型宣传全年不少于20次。', '、分别开展1－6个月时间不等的电梯广告、户外大屏广告、公交车身等形式残疾人公益广告宣传。', '、组织开展1次“全国助残日”宣传活动，组织开展1场残疾人脱贫攻坚典型人物讲述活动，为残疾人事业的发展营造良好社会氛围。', '年1月起随着全国残疾人办证系统的上线，第三代残疾人证的更换迫在眉睫。第三代残疾人证带智能芯片，有益于残疾人身份的认定、业务办理，能够做到残疾人服务的留痕,按照档案管理要求，从2013年起的文书档案需进行扫描后形成电子化档案，按此要求需进行电子化处理，并形成长期规范工作。', '年，通过项目执行，总体完成了项目预期目标。一是完成了贵阳市第三代残疾人证制作及数据和应用标准的编制。二是完成了机关205-2018年文书档案整理及电子化。其中，三代证制作及数据和应用标准的制定，为我市下一步跟换智能化残疾人证，服务广大残疾人，有效提高社会识别残疾人证，提供了保障。机关文书档案的信息化，为档案查询提供了便捷途径，提高了档案利用率。', '一是部门间数据需打通接口，以便服务数据采集和更新。二是应用场景开发，需部门间加强协作，统一数据源，形成统一验证模式。三是日常档案收集和整理需进一步加强，要按照方案手机规范加强日常管理。', '计划在2019年，通过制定的三代证制卡和数据及应用标准在乌当区推行换证试点工作，由于中国残联卡面标准在年底变化，因而推迟进行。2020年，将中国残联卡面新标准应用于我市制卡标准中，加快推进乌当区试点工作。', '通过政府购买服务方式，与贵州大学合作，编制了贵阳市第三代残疾人证地方标准（制卡标准），使其数据写入和读取格式符合贵阳市大数据发展应用标准；在贵阳市残疾人大数据服务平台的基础上，实现第三代残疾人证智能场景应用数据接入和处理、分析的相应程序、信息、数据接', '每年完成对我市持证残疾人的基本服务状况与需求数据动态更新工作，维护数据库数据的真实、有效性和适时更新。', '较好的完成了持证残疾人调查85912人，额外完成非持证残疾人调查67888人。完成中国残联、省残联交办的调查任务；通过调查数据，形成了我市残疾人同步小康评析情况报告。为我市残疾人工作提供了数据支持。', '一是培训力度不够，对村居入户调查人员培训到位，入户调查不到位，对残疾人已享和应享政策掌握不透，调查数据不精准。二是填报调查率未达到100%。三是省调查软件缺乏逻辑关系控制，未打通数据比对通道，缺乏系统数据质量控制。', '一是针对未完成调查的910人为无法联系人员，将进一步加强对残疾人状况的跟踪。二是针对基层专职委员业务能力较弱，调查数据质量不高的问题，将采取数据交互比对、加强培训、政府购买服务等方式解决调查精准性问题。', '每年完成对我市持证残疾人的基本服务状况与需求数据动态更新工作，维护数据库数据的真实、有效性。', '“十三五”期间，我市坚持通过与体育部门密切协作，组织举办全市性残疾人运动会、选拔培养残疾人运动员，开展运动员集训，提高残疾人运动竞技水平，备战全省残运会，建立残疾人运动员后备梯队，向贵州省、国家残疾人运动队输送体育人才，促进残疾人健身体育、康复体育、竞技体育的同步发展。', '项目，整体完成情况为“优”，集训各项任务均在9月30日前完成，社会效益良好，可持续发展，群众满意度较高。', '项目通过政府公开招标采购控制了成本，严格的采购流程也控制了预算支出，节约了财政支出，值得继续推广。', '、对存在的问题进行整改，加强预算绩效管理人员的培训工作，建议省残联拟定全省残联系统统一的绩效目标评价工作用表；', '组建残疾人游泳等单项运动队集训；通过政府购买服务方式组织实施羽毛球队集训；组织开展了对宣文部实施彩金项目的绩效评估工作。', '残疾人体育是帮助残疾人增强体质、促进身体康复、参与融入社会生活、增强社会参与能力的重要途径，而其中残疾人竞技体育运动员在参与体育赛事、向社会宣传和展示残疾人的运动能力与风采的同时，更让残疾人朋友看到生活的希望，增强其生活的信心。为推进我市残疾人竞技体育事业的发展，2019年贵阳市残疾人旱地冰壶培训班工作（以下简称“旱地冰壶培训项目”）采用公开比选的方式进行，公开比选评标结果如下：贵州心欢喜文化传媒有限公司以14.66万元中标负责2019年贵阳市残疾人旱地冰壶培训班的培训工作，该项目需培训旱地冰壶残疾人50人。旱地冰壶培训项目培训合格率为100.00%。', '“十三五”期间，我市坚持通过与体育部门密切协作，组织开展特奥运动员培训，提高特奥运动竞技水平，备战国家级特奥运动会，建立特奥运动员后备梯队，向贵州省、国家特奥运动队输送体育人才，促进残疾人健身体育、康复体育、竞技体育的同步发展。', '旱地冰壶培训项目的总体绩效目标为普及推广残疾人群众体育项目，具体绩效目标为50名残疾人培训旱地冰壶项目，结合绩效评价结果，上述绩效目标已完全实现。', '一是预算绩效管理工作有待进一步加强；二是需进一步完善单位内控制度体系；三是项目实施单位培训质量监控措施有待进一步完善；四是特奥运动员培训项目特殊，培训对象生活自理能力较差，集中培训需要大量护理人员、需要合适的场地和培训老师，残联受场地、人员多方面影响，该项目执行比较困难。', '为切实加强服务部办公楼业务用房的规范管理，保障工作是正常运转，确保财政资金运行高效。用于服务部办公业务用房的运转，具体用于办公用房的物管、水电、办公业务用房修缮、公益性岗位人员的工作等支出。', '项目的实施的管理制度需进一步健全，项目使用要进一步规范，日常检查督导工作有待进一步提高。', '为进一步提高残联系统就业服务工作者的服务能力和管理水平，扎实开展各项工作，保障工作的正常运转，全面完成工作任务，为残疾人提供优质的就业服务。2019年度服务部安排预算资金10万元，用于服务部工作及残联系统残疾人就业服务工作者外出考察学习经费。', '通过项目经费的实施，提高就业服务工作人员的服务水平和能力，为进一步做好残疾人工作打好基础。', '为切实加强我市残疾人职业技能培训工作，为有就业需求、创业愿望的残疾人提供相应的职业技能培训、职业指导、创业扶持，提升残疾人职业素质和就业创业能力，促进残疾人就业增收，加快推进残疾人小康进程，维护社会公正和稳定，促进社会和谐发展，根据贵州省残联2019年残疾人职业技能培训工作任务，贵阳市应完成新增培训任务1300人。', '、职业技能培训资金量小且分散，项目资金带动效应不明显。由于地方政府对残疾人培训工作重视程度参差不齐，地方残保金中用于培训的支出少，市级财政的补贴项目资金是杯水车薪，起不到根本的作用。', '、设置项目考核办法，根据考核结果将项目资金向效果明显的地方集中，避免项目资金“撒胡椒面”。', '、督促地方政府逐步提高保障金对残疾人职业培训的支出比例，保障残疾人职业培训工作开展，确保完成培训目标任务。', '、开展培训前调查，了解残疾人的培训需求，有针对性开展职业教育培训，开展适应岗位需求的类别化培训，进行“量体裁衣”式个性化培训。', '、按要求程序实施职业技能培训项目。残联、培训机构和培训对象按规定签订相关协议,加强对培训档案的保存与管理，及时上报培训计划落实情况。', '加大培训力度，让有需求的残疾人能掌握一到两门技术，真正实现就业，增加家庭收入，实现同步小康。', '年，大楼总体面积5974平方（含中心办公区，心理咨询室、培训教室、辅具矫正室、多功能厅、舞蹈室、图书室、辅具展览厅等），中心', '人，合同制人员3人，劳务派遣人员6人，车辆编制数2辆。本项目开支全部为保障大楼运行和各项工作的开展，支付聘用人员工资（含保险）福利、水电费、消防、电梯等设备维护保养、保安、保洁人员一系列费用，确保各类残疾人活动的正常开展，保障残疾人基本权利。', '一是年初中心清退出2名（驾驶员1人、辅具展厅1人）合同人员，为中心节省部分人员项目经费支出，二是继续做好节能减排工作，中心建立健全完善节电、节水等相关节能管理制度和实施方案，加大节能减排宣传力度，也为中心节省一部分项目经费支出。', '1、后勤服务工作必须秉承着为残疾人事业服务的发展方向进行，坚持“服务和效率”的工作主题，充分发挥中心办公室“服务于保障”两大工作职能。', '2、坚持中心办公室后勤服务的改革和创新，增强服务理念，提高服务素质。逐步实现后勤服务原则化、专业化和规范化。', '进一步保障大楼运行和各项工作的开展，支付聘用人员工资（含保险）福利、水电费、消防、电梯等设备维护保养、保安、保洁人员一系列费用。确保各类残疾人活动的正常开展，保障残疾人基本权利。', '贵阳市残疾人康复教育培训中心（以下简称“中心”）文体服务项目依据本“中心”的业务范围和职能及年度工作计划而开展，是本“中心”的常规业务工作，包括长期走读式培训（书法、美术、法律、声乐初级班和提高班等）、短期集中式培训（电脑知识技术或摄影知识技术等）、“迎新春”全市残疾人文体竞赛及文体竞赛下基层到各区（县）等具体内容。内容根据残疾人的需求和场地、人员等各种因素变化而有可能调整变动。', '本次绩效考评量化指标评分对项目立项、资金落实、业务管理、资金管理、项目产出、项目效益六大方面的量化指标进行了评分。项目立项方面：立项规范、绩效目标合理、绩效指标明确；资金落实方面：资金到位率100%，到位及时率100%；业务管理方面：管理制度健全、制度执行情况良好、项目达到质量要求并形成了正式规范的自评报告；资金管理方面：资金使用率71.82%，项目资金使用规范符合相关的财务管理制度规定，实行专款专用；项目产出方面：实际完成率100%、完成及时率100%、项目实际投资在预算控制范围之内；项目效益方面：项目实施具有显著的社会效益、生态效益和可持续发展性，残疾人对本项目的满意度达到100%。', '考评工作主要集中在年底进行，对有些中途离训的残疾人的满意度无法调查收集，并且没有开展对培训老师或裁判意见的收集，因此，在考评的全面性和普遍性方面还有待提高，需进一步增强绩效管理理念，提升项目管理水平。', '残疾人文体竞赛下基层工作中，部分区（县）因场地限制、残疾人住所偏远等原因报名参赛残疾人数未达到本“中心”年度计划的人数导致奖品采购量不足以及奖品采购环节中低于奖品标准的资金节余共同形成该部分预算未使用完毕。', '为节约资金，年初采购培训项目中的耗材、学习用书用具等物资时没有饱和使用资金而留有节余。', '完成长期走读式培训5000人次（书法、美术、声乐初级和提高班）、短期集中式培训50余人（电脑知识技术）、“迎新春”全市残疾人文体竞赛150人及文体竞赛下基层到各区（县）700人。', '康复托养中心按照项目计划，有序推进，项目经费支出使用率45.4%，全部用于大楼运行维护。', '2、确保项目资金使用公正透明，确保项目实施达到预期的经济效益、社会效益、生态效益。', '3、项目资金严格按照规范程序申请、管理、使用，资金支付范围、支付标准、支付进度、支付依据合规合法。', '由于贵阳市残疾人康复托养中心大楼未验收转固，影响工作正常开展。中心将根据本年综合评价情况，建立以绩效为导向的项目选择和资金分配机制，实行科学决策，合理选择财政支出投向。通过对部门支出所产生的综合效益等的综合评价，为改进我单位预算管理、调整和优化预算支出的方向和结构及以后年度预算安排、合理配置资源提供依据。', '基本完成绩效目标，未发生安全问题，消防、电梯等设备安全稳定运行，绿化环境改善，完成项目目标']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>245</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>贵阳市食用农产品质量安全监督管理办法</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2013-01-15</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2013/201711/t20171119_11364486.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['为加强食用农产品生产、初级加工和经营的质量安全监督管理，维护公众健康和生命安全，根据《中华人民共和国农产品质量安全法》、《中华人民共和国食品安全法》、《国务院关于加强食品等产品安全监督管理的特别规定》和《贵州省农产品质量安全条例》等有关法律、法规的规定，结合本市实际，制定本办法。', '本市行政区域内的食用农产品生产单位、批发市场、农贸市场和超市、配送中心等各类市场主体销售食用农产品的生产经营活动，应当遵守本办法。', '本办法所称食用农产品，是指供食用源于农业的初级产品，即在农业活动中获得的植物、动物、微生物及其产品。', '进入市场的农产品质量安全监督管理，是指按照法律、法规、规章的规定，对经认证的无公害农产品、绿色食品、有机农产品和符合国家质量安全标准要求的农产品准予销售，对未经认证或者经检测不符合国家质量安全标准的农产品禁止销售的管理制度。', '市、区（市、县）人民政府应当将食用农产品质量安全管理工作纳入国民经济和社会发展规划，建立健全食用农产品质量安全保障工作机制。', '各级人民政府统一领导、协调本行政区域内的食用农产品质量安全监督管理工作，建立健全食用农产品质量安全监督管理制度，负责制定本行政区域内的食用农产品质量安全监督管理实施方案，并组织有关部门具体实施。', '工商、食品药品监管、质监、商务、卫生、环保等有关行政部门按照政府的统一安排部署，结合各自职责，做好食用农产品质量安全监督管理的相关工作。', '做好食用农产品生产基地的规划、建设。鼓励分散的农户与食用农产品生产基地合作生产经营。', '食用农产品的生产基地和其他生产场所应当符合国家和地方规定的环境质量标准。重金属、兽药残留、农药残留等有毒有害物质含量不符合标准的，不得进行食用农产品的生产。', '禁止向食用农产品的生产基地和其他生产场所排放重金属、硝酸盐、油类、酸液、碱液、有毒废液、放射性废水和未经处理的含病原体的污水，或者倾倒、填埋有害的废弃物和生活垃圾。', '农产品生产企业、农民专业合作经济组织、其他规模种植、养殖生产者应当建立农产品生产档案，完整记录农业投入品使用、病虫害防治、动物疫病防控等情况，生产档案保存期不得少于两年；建立农产品销售档案，完整记录农产品销售品种、数量和销售地等情况。', '农产品生产企业、农民专业合作经济组织、其他规模种植、养殖生产者应当建立农产品质量检验制度，对生产的食用农产品进行自检或者委托具备相应资质的机构检验、检测、检疫。', '食用农产品生产基地应当向经营者提供经检验合格的农产品，并附质量合格证明。鼓励农产品生产企业、农民专业合作经济组织、其他规模种植和养殖生产者制定实施严格的企业内控标准，积极开展内检、农产品产地认定和农产品质量认证工作，生产安全优质的农产品。', '食用农产品生产者应当按照有关规定使用农业投入品。鼓励使用有机肥、微生物肥料、生物农药和可降解农膜等生产资料。', '（二）使用盐酸克伦特罗（俗称“瘦肉精”）等国家禁止使用的有害化合物作为兽药和饲料添加剂；', '食用农产品生产者应当严格按照生产技术规程组织生产，适期收获、屠宰、捕捞和采集，提高食用农产品品质。蔬菜、水果等食用农产品的收获应当符合国家有关农药安全间隔期的规定。畜禽、水产等食用农产品的屠宰或者捕捞应当符合国家有关兽（渔）药休药期的规定。', '鼓励食用农产品生产者按照有关规定申请无公害农产品、绿色食品、有机食品等农产品质量安全认证。鼓励食用农产品生产者与销售者实行产销对接。', '食用农产品加工企业应当建立食用农产品安全跟踪制度。食用农产品加工企业采购食用农产品及其原料应当按照规定索取检验检疫合格证明，保留原材料、半成品的检验记录。', '食用农产品生产者应当对其生产的农产品质量负责，发现其生产的农产品不符合农产品质量安全标准，可能对人体健康或者生命安全造成危害的，应当立即向农业行政主管部门报告，通知销售者停止销售，主动召回农产品，告知消费者停止使用。', '农产品销售者发现其销售的农产品存在安全隐患，可能对人体健康和生命安全造成危害的，应当立即向工商或农业行政管理部门报告，停止销售该农产品。同时经农产品质量安全检测机构检测存在安全隐患的，应当及时采取封存并作无害化处理等有效措施。', '经初级加工、有包装的食用农产品，必须采用符合卫生标准的包装材料和容器，并且应当在产品包装物上附具标识。标识应当以中文标明产品标准代号、产品名称、净含量、生产基地、加工单位的名称和地址、生产日期、保质期等。', '家畜及其产品经过定点屠宰、集中检验检疫合格后方可销售。畜禽饲养场、屠宰场及其他畜禽生产场所发现经检疫不合格或者病死、死因不明的畜禽及产品，染疫的畜禽及其产品，染疫畜禽的排泄物，生产者应当在动物防疫监督机构的指导下进行无害化处理或送交指定的场所进行无害化处理。', '按照国家和省的有关规定应当包装或者附加标识的农产品，经包装或者附加标识后方可上市销售。', '包装上市的农产品，应当在包装上标注或者附加标识，标明品名、产地、生产者或者销售者名称、生产日期、保质期等。有分级标准或者使用添加剂的，还应当标明产品质量等级或者添加剂名称。', '不能包装的农产品，应当采取附加标签、标识牌、标识带、说明书等形式标明农产品的品名、生产地、生产者或者销售者名称等内容。', '销售获得无公害农产品、绿色食品、有机食品等质量标志使用权的农产品，应当标注相应标志和发证机构名称。', '符合下列条件之一的农产品，可以进入市场销售，但应当接受和配合有关管理部门定期或不定期的产品质量安全抽检，并提供相关有效证明材料。', '（一）在认证有效期内的无公害农产品、绿色食品、有机食品（凭认证证书和产地证明复印件或标识）；', '（三）与农产品销售市场签订销售合同的无公害农产品认定产地生产的农产品 (凭产地证明和销售合同)；', '（五）其他符合质量安全标准的农产品(凭有资质的检测机构出具的检测报告和县级农业行政主管部门或乡镇政府、村委会、农民专业合作经济组织等出具的产地证明);', '（六）实行定点屠宰并取得检验检疫合格证的猪肉（凭检验检疫合格标志，异地调入或其他需要依法实施检验检疫的动植物及其产品还需提供检疫合格证明）。', '（二）含有农药、兽药等化学物质残留或者重金属等有毒有害物质不符合农产品质量安全标准的；', '批发市场、农贸市场、超市、配送中心应当设立或者委托农产品质量安全检测机构，对进入市场销售的食用农产品质量安全状况进行抽查检测，其检测结果应当在经营场所的显著位置公示。不符合国家质量安全标准的农产品，不得进入该市场销售，也不得转销其他市场或者其他经营者，并依法向农业行政主管部门报告。', '批发市场、农贸市场的销售者和超市、配送中心必须建立农产品进货检查验收制度，验明产品的来源、合格证明和产品标识等，并建立进货台账和销售台账，如实记录产品品种、规格、数量、流向等内容。进货台账和销售台账保存期限不得少于两年。', '批发市场、农贸市场和超市、配送中心等各类市场主体应当配备农产品质量安全监督员和检测员，并建立健全食用农产品进货检查验收、质量抽检、问题农产品主动召回、不合格农产品处理、保存购销台账和质量追溯等制度。', '餐饮服务业和学校食堂、幼儿园食堂、机关食堂、建筑工地食堂等集体配餐、用餐单位应当建立并执行进货台帐、检查验收制度，采购食用农产品应当索票索证，不得采购不合格的食用农产品。', '各级人民政府应当根据本地实际，加强对食用农产品安全监管工作的领导，成立由政府主要领导任组长，相关部门负责人为成员的食用农产品质量安全监督管理领导小组。领导小组负责组织领导辖区内食用农产品质量安全监督管理工作。食用农产品监管工作纳入政府工作目标考核。', '各级人民政府应当根据实际，加大投入，建立健全食用农产品质量安全检验检测体系和监管体系。食用农产品质量安全检验检测和监管工作经费列入同级政府财政预算。', '各级人民政府农业行政主管部门负责根据本地实际，制定食用农产品质量安全监测计划，对生产中或者市场上销售的食用农产品进行监督抽查；按照有关规定，推行无公害农产品基地自检和例行检测；指导经营单位建立健全入市食用农产品的验证、检测、标识及公示制度；负责农产品批发市场、农产品生产基地农产品质量安全监督管理人员的业务培训。', '工商部门负责宣传贯彻有关农产品市场管理的法律、法规和规章；指导市场开办者制定市场经营秩序管理制度，并监督实施；审查确认经营者的主体资格，并对其交易行为进行监督管理；依据市场内的农产品质量检测结果，对农产品销售质量不合格的食用农产品的违法违规行为进行查处，配合做好质量不合格食用农产品的退市及无害化处理工作。', '食品药品监管部门负责餐饮服务和学校食堂等集体用餐单位使用食用农产品符合食品安全标准的监督管理。监督实施定点采购、索票索证和建立台帐制度；加强餐饮消费环节食用农产品质量安全监督管理，及时查处餐饮消费环节的质量安全违法行为。', '质监部门负责组织食用农产品生产技术规程的制订、备案和发布工作，会同农业等部门对规程的实施进行监督。', '商务部门负责流通领域内食用农产品行业管理，负责畜禽产品屠宰行业管理和安全监管。指导城区市场建立健全农产品质量安全自检机制。', '各级农业行政主管部门按照保障食用农产品质量安全的要求，制定并组织实施监测计划，对生产或市场上销售的食用农产品进行质量安全监督抽查，及时逐级上报监督抽查结果。', '农业行政主管部门对销售的食用农产品检测不符合质量安全标准的，应当将检测结果等案件资料移交相关行政部门依法进行处理。', '农产品生产者、销售者对监督抽查检测结果有异议的，可以自收到检测结果之日起五日内，向组织实施农产品质量安全监督抽查的农业行政主管部门或者其上级农业行政主管部门申请复检。', '采用快速检测方法进行农产品质量安全监督抽查检测，被抽查人对检测结果有异议的，可以自收到检测结果时起四小时内申请复检。复检不得采用快速检测方法。', '违反本办法第八条规定的，由环境保护行政管理部门依照有关环境保护法律、法规的规定处罚；造成损害的，依法承担赔偿责任。', '违反本办法第九条规定的，由农业行政管理部门责令限期改正；逾期不改正的，可以处二千元以下罚款。', '违反本办法第二十条、第二十一条、第二十二条规定，销售的食用农产品未按照规定包装或者未附加标识的，由农业行政主管部门责令限期改正；逾期不改正的，可以处二千元以下罚款。', '违反本办法第七条、第十二条、第十七条、第二十四条规定的，由有关行政管理部门依照有关法律、法规的规定处罚。', '违反本办法第二十六条规定，未建立进货台账和销售台账的，由相关行政部门处以三千元以上五千元以下罚款。', '有关监督管理部门及其工作人员不依法履行监督职责，或者玩忽职守、滥用职权、徇私舞弊的，依法给予行政处分。', '本办法自2013年3月1 日起施行。原《贵阳市食用农产品质量安全监督管理暂行规定》同时废止。', '从2001年4月农业部提出了“无公害食品行动计划”以来，国家高度重视食品安全问题，进一步加大食品安全工作的力度。2003年4月推出了无公害农产品国家认证。2007年8月开始，国务院在全国范围内开展产品质量和食品安全专项整治，并将全国省会城市农产品批发市场、农贸市场和超市全部纳入监测范围，重点检查认证农产品的资质、产地认定条件、生产过程和产品质量安全状况。加强产地监测和对进入市场销售认证产品资质的确认。2010年2月国务院成立了全国食品安全委员会。据目前对食用农产品安全的检测，全国范围内，从大城市到一般市、县，从主要农贸市场到一般农贸市场，从销售市场到生产基地，随着检测内容、检测品种、检测批次的增加，发现农产品安全问题依然形势严峻。主要表现为：高毒农药屡禁不止，农产品质量安全事件时有发生，出口贸易安全纠纷增多。最主要的是地方农产品保障制度还不够完善。针对上述问题，近几年来，全国大多数省份及城市高度重视地方农产品质量保障制度的建设，已经实行或正逐步实行农产品市场准入制度，体现了从源头抓好农产品质量安全的良好势态。贵阳市周边的省会城市中，昆明、成都、南宁、广州、重庆、长沙、武汉等相继实施了农产品市场准入制度，禁止不符合质量安全的食用农产品进入市场。由于我市目前尚未实行准入制度，大量不合格农产品涌入我市，禁止不符合质量的食用农产品进入市场，需要尽快制定贵阳市食用农产品质量安全保障制度。', '贵阳市作为省会城市，大力发展无公害农产品、绿色食品和有机食品，进一步提升农产品质量水平，确保农产品质量安全，是保障人民身体健康，提高我市农产品市场竞争力的基本要求。近年来，我市农产品安全状况在各级政府和有关部门的共同努力下，有了明显的改善，但仍存在不少问题。主要表现在：一是农产品质量安全管理机构不健全。我市县级农业部门没有农产品质量安全管理机构，多数工作都挂靠业务部门，人员变动大，导致农产品质量安全监管工作简单应付。二是农产品质量安全监管资金少，基础设施不完善。农产品质量安全监管面广，难度大，而部分区县未把农产品质量安全监管检测经费纳入到本级财政预算。这两个问题集中凸现了我市农产品质量安全工作的不足和软肋，严重影响了我市农产品质量安全工作的正常开展。因此，制定《贵阳市食用农产品质量安全监督管理办法》（以下简称《办法》）十分必要、刻不容缓。', '针对食用农产品安全管理的实际需要，市农委成立了《办法》起草小组，于2010年9月，由新增设的农产品质量安全监管机构，具体负责《办法》的调研起草工作。一是深入各区、县（市）开展调研工作，摸清了当前我市农产品质量安全工作方面存在的问题；二是组织人员到外省、市考察、学习，并借鉴其好的经验和做法；三是征求各区、县（市）人民政府和市相关部门的意见，同时还在网络上广泛征求社会各界的意见；四是召开论证会，2011年12月13日，召开了有省农委专家和市有关部门参加论证会。经过反复修改，形成了《办法》送审稿。市法制局收到送审稿后，根据有关法律、法规的规定进行认真审查，在综合各方意见的基础上面，经过进一步修改，形成《办法》（草案），报请市政府审定，已经2012年12月19日市政府常务会议通过。', '保障农产品质量安全，主要从生产的源头上抓起。我市在生产环节外部上有相关的监督制度和措施，但生产者的内部自律机制缺乏应的检验制度，因此本办法第十条规定：“农产品生产企业、农民专业合作经济组织、其他规模种植、养殖生产者应当建立农产品质量检验制度，对生产的食用农产品进行自检或者委托具备相应资质的机构检验、检测、检疫。食用农产品生产基地应当向经营者提供经检验合格的农产品，并附质量合格证明。鼓励农产品生产企业、农民专业合作经济组织、其他规模种植、养殖生产者制定、实施严格的企业内控标准，积极开展内检、农产品产地认定和农产品质量认证工作，生产高标准的优质农产品”。', '农产品进入市场时农产品安全应当严格控制第二道关口，需要农产品市场的经营者肩负起社会责任，即批发市场、农贸市场、超市、配送中心应当建立健全农产品进货检查验收制度，因此本办法第二十六条规定：“批发市场、农贸市场的销售者和超市、配送中心必须建立农产品进货检查验收制度，验明产品的来源、合格证明和产品标识等，并建立进货台账和销售台账，如实记录产品品种、规格、数量、流向等内容。进货台账和销售台账保存期限不得少于两年”。', '各类食堂是人群密集的“进口”关，为切实维护食用人群的安全，建立食堂进货登记制度是十分必要的，因此本办法第二十八条规定：“餐饮服务业和学校食堂、幼儿园食堂、机关食堂、建筑工地食堂等集体配餐、用餐单位应当建立进货台帐、检查验收制度，建立健全索票索证制度，不得采购不合格的食用农产品”。', '在实际管理中，有同一产地、同一品种的农产品经多次检测都不符合国家标准，间隔一段时间又再次进入市场，成为“疑问”农产品，因此本办法第三十八条规定：“经检验检测多次存在质量安全问题的食用农产品，进入市场应当增加监督检查频次”。', '各类市场主体销售农产品的经营活动，同样分布于广大农村的集贸市场，涉及食用农产品的质量安全管理问题，因此本办法第四十七条规定：“农村集贸市场由县级相关行政部门参照本办法监督管理”。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>245</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>贵阳市卫生和计划生育委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2016-08-08</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/swsjkj/202001/t20200116_43375761.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['贵阳市卫生和计划生育委员会是由原贵阳市卫生局和原贵阳市计划生育委员会合并设立的，其部门主要职能是：', '1、贯彻执行卫生、人口计划生育工作方针政策和法律法规；负责起草卫生和计划生育、中医药事业发展地方性法规、规章草案，拟订政策规划、标准和技术规范；负责协调推进医药卫生体制改革和医疗保障，统筹规划卫生和计划生育服务资源配， 指导区域卫生和计划生育规划的编制和实施。', '2、负责执行疾病预防控制规划、国家免疫规划、严重危害人民健康的公共卫生问题的干预措施，制定卫生应急和紧急医学救援预案、突发公共卫生事件监测和风险评估计划，组织和指导突发公共卫生事件预防控制和各类突发公共事件的医疗卫生救援，配合相关部门发布和报送传染病疫情信息和突发公共卫生事件应急处置信息；拟订和实施全市防治艾滋病规划和措施。', '3、负责制定职责范围内的职业卫生、放射卫生、环境卫生、学校卫生、公共场所卫生、饮用水卫生管理规范、标准和政策措施；组织开展食品安全风险监测、评估，组织实施并公布食品安全标准，负责食品、食品添加剂及相关产品新原料、新品种的安全性审查。', '4、负责组织拟订基层卫生和计划生育服务、妇幼卫生发展规划和政策措施，指导全市基层卫生和计划生育、妇幼卫生服务体系建设，推进基本公共卫生和计划生育服务均等化，完善基层运行新机制和乡村医生管理制度；负责新型农村合作医疗的综合管理。', '5、负责医疗机构和医疗服务的行业准入管理并监督实施。制定医疗机构及其医疗服务、医疗技术、医疗质量、医疗安全以及采供血机构管理的规范、标准并组织实施，会同有关部门制定和实施卫生专业技术人员准入、资格标准，制定和实施卫生专业技术人员执业规则和服务规范，建立医疗机构医疗服务评价和监督管理体系。', '6、负责组织推进公立医院改革，建立公益性为导向的绩效考核和评价运行机制，建设和谐医患关系，提出医疗服务和药品价格政策的建议。', '7、实施国家药物政策和国家基本药物制度，参与制定或增补基本药物目录；组织实施基本药物采购、配送、使用的管理制度，会同有关部门提出基本药物目录内药品生产的鼓励扶持政策建议，提出国家基本药物价格政策的建议，参与制定药品法典。', '8、组织实施计划生育综合治理目标管理，协调推进有关部门、群众团体履行计划生育工作职责，负责拟订计划生育“三结合”工作规划并组织实施；组织实施促进全市出生人口性别平衡的政策措施。', '9、组织建立计划生育利益导向、计划生育特殊困难家庭扶助和促进计划生育家庭发展等机制；研究提出促进计划生育家庭发展的政策建议，建立与经济社会发展政策的衔接机制，提出稳定低生育水平政策措施。', '10、组织监测计划生育发展动态，提出发布计划生育安全预警预报信息建议，负责卫生和计划生育的统计、数据分析、信息综合及信息化建设，参与全市人口基础信息库及基层卫生信息化建设，依法组织实施统计调查；组织编报市级卫生和计划生育事业经费和基本建设支出预决算及计划生育药具需求计划，监管直属事业单位财务和国有资产。', '11、制定流动人口计划生育服务管理制度并组织落实， 推动建立流动人口卫生和计划生育信息共享和公共服务工作机制。', '12、组织拟订卫生和计划生育科技发展、人才发展规划，指导卫生和计划生育人才队伍建设。加强全科医生等急需紧缺专业人才培养， 建立完善住院医师和专科医师规范化培训制度并指导实施。', '13、组织实施卫生和计划生育相关科研项目；制定实施全市卫生和计划生育干部教育培训规划；参与制定医学教育发展规划，协同指导院校医学和计划生育教育，组织实施毕业后医学教育和继续医学教育。', '14、指导、完善卫生和计划生育综合监督执法体系， 规范执法行为，监督检查法律法规和政策措施的落实，完善计划生育目标管理责任制。', '15、制定卫生和计划生育宣传教育工作规划，组织开展卫生和计划生育宣传教育、健康教育和健康促进等工作；开展国际交流合作与援外工作，开展与港澳台的交流与合作。', '17、承担贵阳市干部保健委员会、市防治艾滋病工作委员会日常工作，负责市重大活动与重要会议的医疗卫生保障工作。', '本单位（部门）内设22个处室，下属19个单位。从预算单位构成看，单位部门决算包括：本级决算、所属市第一人民医院、所属市第二人民医院、所属市第三人民医院、所属市第四人民医院、所属市第六人民医院、所属市口腔医院、所属市妇幼保健院、所属市公共卫生救治中心、所属市疾病预防控制中心、所属市卫生监督所、所属市急救中心、所属市妇幼保健研究所、所属市医学会、所属市计划生育宣传技术指导所、所属市计划生育药具管理站、所属市人口计生计算机信息管理中心、所属市人口和计划生育执法支队、所属市计生协会和所属市北京路社区卫生服务中心决算。', '贵阳市卫生和计划生育委员会2015年度一般公共预算财政拨款支出30956.63万元，占本年支出合计的10.28%。与2014年相比，一般公共预算财政拨款支出增加3041.68万元，增长10.9%。主要原因是：部分公共卫生、计划生育项目投入加大，如基本公共卫生服务、新型农村合作医疗项目、计生利益导向服务；新增加了民生保障项目，如疾病应急救助项目。', '贵阳市卫生和计划生育委员会2015年度一般公共预算财政拨款支出当年预算为50506.83万元，支出决算为30956.63万元，完成当年预算的61.29%。决算数小于预算数的主要原因是：当年中央和省级下拨资金因无法预计不能列入预算。其中：', '（1）一般公共服务支出（类）发展与改革事务（款）其他发展与改革事务（项）。当年预算为80万元，支出决算为150.5万元，完成当年预算的188%。决算数大于预算数的主要原因是：有部分支出使用的是上年结转资金。', '（3）社会保障和就业支出（类）其他社会保障和就业支出（款）其他社会保障和就业支出（项）。当年预算为12万元，支出决算为13.75万元，完成当年预算的115%。决算数大于预算数的主要原因是：有部分支出使用的是上年结转资金。', '（4）医疗卫生和计划生育支出（类）医疗卫生与计划生育管理事务（款）行政运行（项）。当年预算为1520.88万元，支出决算为1761.21万元，完成当年预算的116%。决算数大于预算数的主要原因是：有部分支出使用的是上年结转资金。', '（5）医疗卫生和计划生育支出（类）医疗卫生与计划生育管理事务（款）其他医疗卫生与计划生育管理事务支出（项）。当年预算为1945.84万元，支出决算为2660.24万元，完成当年预算的 137%。决算数大于预算数的主要原因是：有部分支出使用的是上年结转资金。', '（9）医疗卫生和计划生育支出（类）公立医院（款）其他公立医院支出（项）。支出决算为1100.41万元，主要是上级下拨的公立医院改革中央资金。', '（10）医疗卫生和计划生育支出（类）基层医疗卫生机构（款）城市社区卫生机构（项）。当年预算为632.27万元，支出决算为240.06万元，完成当年预算的38%。决算数小于预算数的主要原因是：预算资金中大部分下拨至区（市、县）社区卫生服务中心使用。', '（16）医疗卫生和计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。当年预算为335万元，支出决算为888.98万元，完成当年预算的265%。决算数大于预算数的主要原因是：上级下拨重大公共卫生专项资金，此资金因无法预计而不能列入预算。', '（17）医疗卫生和计划生育支出（类）公共卫生（款）突发公共卫生事件应急处理（项）。当年预算为170万元，支出决算为63.2万元，完成当年预算的37%。决算数小于预算数的主要原因是：该项资金主要用于处置突发公共卫生事件，如果突发卫生事件没有或很少，就会导致开支相应减少。', '（18）医疗卫生和计划生育支出（类）公共卫生（款）其他公共卫生支出（项）。当年预算为0万元，支出决算为3.14万元。决算数大于预算数的主要原因是：支出全部使用的是上年结转资金。', '（19）医疗卫生和计划生育支出（类）医疗保障（款）行政单位医疗（项）。当年预算为200万元，支出决算为178.54万元，完成当年预算的89%。决算数小于预算数的主要原因是：预算资金中部分下拨至区（市、县）使用。', '（20）医疗卫生和计划生育支出（类）公共卫生（款）城乡医疗救助（项）。预算是0万元，支出决算为31.94万元，决算数大于预算数的主要原因是：支出全部使用的是上年结转资金。', '（21）医疗卫生和计划生育支出（类）公共卫生（款）疾病应急救助（项）。当年预算为800万元，支出决算为1004.29万元，完成当年预算的126%。决算数大于预算数的主要原因是：上级下拨疾病应急救助资金，此资金因无法预计而不能列入预算。', '（22）医疗卫生和计划生育支出（类）中医药（款）中医（民族医）药专项（项）。当年预算为80万元，支出决算为20.47万元，完成当年预算的26%。决算数小于预算数的主要原因是：预算资金中大部分下拨至区（市、县）使用。', '（25）医疗卫生和计划生育支出（类）计划生育事务（款）其他计划生育事务支出（项）。当年预算为1543万元，支出决算为337.73万元，完成当年预算的22%。决算数小于预算数的主要原因是：预算资金中大部分下拨至区（市、县）使用。', '（26）医疗卫生和计划生育支出（类）其他医疗卫生与计划生育支出（款） 其他医疗卫生与计划生育支出（项）。当年预算为0万元，支出决算为250.16万元，决算数大于预算数的主要原因是：上级下拨省级资金，此资金因无法预计而不能列入预算', '（27）其他支出（类）其他支出（款）其他支出（项）。当年预算为0万元，支出决算为40万元，决算数大于预算数的主要原因是：上级下拨省级资金，此资金因无法预计而不能列入预算。', '（六）贵阳市卫生和计划生育委员会2015年度一般公共预算财政拨款基本支出决算情况说明', '（七）贵阳市卫生和计划生育委员会2015年度一般公共预算财政拨款“三公”经费支出决算情况说明', '（1）因公出国（境）费支出3.83万元。贵阳市卫生和计划生育委员会全年使用一般公共预算财政拨款安排的出国（境）团组2个，累计2人次。开支内容包括：因公派遣赴香港学习1人/次，因公出国赴西班牙、挪威学习考察1人/次。', '国内公务接待支出12.14万元，主要是上级单位检查、友邻城市相关单位来筑考察学习等。贵阳市卫生和计划生育委员会2015年国内公务接待52批次，602人次。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）一般公共服务支出（类）发展与改革事务（款）其他发展与改革事务（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（十八）科学技术支出（类）技术研究与开发（款）其他技术研究与开发支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（十九）社会保障和就业支出（类）其他社会保障和就业支出（款）其他社会保障和就业支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十）医疗卫生和计划生育支出（类）医疗卫生与计划生育管理事务（款）行政运行（项）：指贵阳市卫生和计划生育委员会（含下属参公事业单位）的基本支出。', '（二十一）医疗卫生和计划生育支出（类）医疗卫生与计划生育管理事务（款）其他医疗卫生与计划生育管理事务支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十二）医疗卫生和计划生育支出（类）公立医院（款）综合医院（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十三）医疗卫生和计划生育支出（类）公立医院（款）妇产医院（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十四）医疗卫生和计划生育支出（类）公立医院（款）其他专科医院（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十五）医疗卫生和计划生育支出（类）公立医院（款）其他公立医院支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十六）医疗卫生和计划生育支出（类）基层医疗卫生机构（款）城市社区卫生机构（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十七）医疗卫生和计划生育支出（类）公共卫生（款）疾病预防控制机构（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十八）医疗卫生和计划生育支出（类）公共卫生（款）卫生监督机构（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（二十九）医疗卫生和计划生育支出（类）公共卫生（款）妇幼保健机构（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十）医疗卫生和计划生育支出（类）公共卫生（款）应急救治机构（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十一）医疗卫生和计划生育支出（类）公共卫生（款）基本公共卫生服务（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十二）医疗卫生和计划生育支出（类）公共卫生（款）重大公共卫生专项（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十三）医疗卫生和计划生育支出（类）公共卫生（款）突发公共卫生事件应急处理（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十四）医疗卫生和计划生育支出（类）公共卫生（款）其他公共卫生支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十五）医疗卫生和计划生育支出（类）医疗保障（款）行政单位医疗（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十六）医疗卫生和计划生育支出（类）公共卫生（款）城乡医疗救助（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十七）医疗卫生和计划生育支出（类）公共卫生（款）疾病应急救助（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十八）医疗卫生和计划生育支出（类）中医药（款）中医（民族医）药专项（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（三十九）医疗卫生和计划生育支出（类）计划生育事务（款）计划生育机构（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（四十）医疗卫生和计划生育支出（类）计划生育事务（款）计划生育服务（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（四十一）医疗卫生和计划生育支出（类）计划生育事务（款）其他计划生育事务支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（四十二）医疗卫生和计划生育支出（类）其他医疗卫生与计划生育支出（款） 其他医疗卫生与计划生育支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '（四十三）其他支出（类）其他支出（款）其他支出（项）：指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>245</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>贵阳职业技术学院年度部门决算</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgyzyjsxy/202008/t20200817_62546787.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['贵阳职业技术学院是经贵州省人民政府（黔府函[2006]161号）批准，教育部备案、贵阳市人民政府主办的一所全日制、综合性、开放型的高等职业技术学院。主要以培养高等学历技术应用人才，促进科技文化发展为办学宗旨，业务范围：以高等职业教育为主，开设工学、理学、文学、管理学、工程学、经济学等学科的高职专科生的学历教育；同时举办中等职业的学历教育；开展上述学科门类的成人教育和各种职业培训；利用学院优势，采取多种方式，促进贵阳市生态文明城市建设的特色产业发展；承担省、市有关科研任务和学术交流以及相关社会服务工作。', '学院办学点包括院本部、二戈寨校区和清镇校区，以及以政校企合作方式建立的开磷校区和小河西工校区。内设26个行政处室，4个教学分院、10个系、5个教学管理部。根据贵州省经济社会和产业布局的发展需要，主要开设有铁道机车车辆专业、机电一体化专业、生物制药技术专业等48个专业。从预算单位构成看，贵阳职业技术学院部门决算包含本级决算及下属非独立核算单位决算。', '教育支出（类）普通教育（款）其他普通教育支出（项）当年预算0万元，支出决算数为70.66万元。决算数大于预算数的主要原因：一是由于其他普通教育支出主要是贵阳职业技术学院与安艾艾迪校企共建专业项目支出，是突发事件，故调整增加预算支出64.15万元。二是使用上年项目支出结转结余资金6.51万元，分别使用“2018年省级民族教育专项补助资金（黔财教[2018]83号）”项目结余资金4.41万元、“2018年教育科研经费省级专项补助（黔财教[2018]85号）” 项目结余资金2.10万元。', '教育支出（类）职业教育（款）中专教育（项）当年预算0万元，支出决算为379.95万元。决算数大于预算数的主要原因调整预算时增加了预算支出，主要追加了中职国家助学金、免学费、精准扶贫、职业院校特聘教师补助、中德贵阳职业技能培训中心、现代职业教育等专项支出379.95万元。', '社会保障和就业支出（类）行政事业单位离退休（款）机关事业单位基本养老保险缴费支出（项）当年预算672.00万元，支出决算为752.27万元，完成当年预算的111.94%。决算数大于预算数的主要原因是离退休人员的增加，年中追加了基本支出中的人员经费预算支出。', '卫生健康支出（类）行政事业单位医疗（款）事业单位医疗（项）当年预算300.80万元，支出决算为379.17万元，完成当年预算的126.05%。决算数大于预算数的主要原因是学院教职员工的增加，追加了基本支出预算中的人员经费支出78.37万元。', '卫生健康支出（类）行政事业单位医疗（款）公务员医疗补助（项）当年预算320.00万元，支出决算为371.02万元，完成当年预算的115.94%。决算数大于预算数的主要原因是决算数大于预算数的主要原因是学院教职员工的增加，追加了基本支出预算中的人员经费支出51.02万元。', '住房保障支出（类）保障性安居工程支出（款）公共租赁住房（项）当年预算0万元，支出决算为6.14万元。决算数大于预算数的主要原因是该项目使用了年初结转结余资金6.14万元。', '住房保障支出（类）住房改革支出（款） 住房公积金（项）当年预算993.11万元，支出决算为963.79万元，完成当年预算的97.05%。决算数小于预算数的主要原因是年初未能精准预算住房公积金所需经费支出。', '（七）贵阳职业技术学院2019年度一般公共预算财政拨款“三公”经费支出决算情况说明', '2019年度“三公”经费财政拨款支出预算为40万元，支出决算为17.19万元，决算数小于预算数，主要原因是因公出国境费大量减少，出国批次较去年同期减少了一批；二是我单位严格管控三公经费，压缩公务接待费开支。', '（1）因公出国（境）费支出11.85万元。贵阳职业技术学院全年使用一般公共预算财政拨款安排的出国（境）团组2个，累计4人次。开支内容包括：至德国执行职业教育交流及项目合作7.52万元；至新加坡工艺教育局西区学院交流学习费用11.85万元。', '（2）公务用车购置及运行维护费0万元,其中，公务用车购置0万元，购置公务用车0辆；公务用车运行维护费0万元。2019年，单位开支财政拨款的公务用车保有量为0辆。', '（3）公务接待费5.33万元。具体是：中德（贵阳）职业技能培训中心德方代表团住宿费及餐饮接待费3.36万元，柳州铁道职院来我院交流学习接待费0.05万元，金华职业技术学院来我院考察学习招待费0.18万元，东盟活动外宾接待住宿费0.45万元等等。', '国内公务接待支出5.33万元，主要是柳州铁道职院、湖南铁路科技职业技术学院、金华职业技术学院、中德（贵阳）职业技能培训中心德方代表团、北安普顿大学等合作院校来我院交流学习的接待费。贵阳职业技术学院2019年国内公务接待21批次、415人次。', '截至2019年12月31日，贵阳职业技术学院共有车辆26辆，其中，主要领导干部用车0辆、机要通信用车11辆、应急保障用车8辆、执勤执法用车0辆、特种专业技术用车0辆、离退休干部用车0辆、其他用车7辆；单位价值50万元以上通用设备9台（套），单位价值100万元以上专用设备16台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）教育支出（类）普通教育（款）高等教育（项）反映全日制普通高等院校的支出，包含政府部门的资助支出。', '（十九）教育支出（类）职业教育（款）中专教育（项）反应贵阳职业技术学院举办的中专教育支出。', '（二十）教育支出（类）职业教育（款）高等职业教育（项）反映贵阳职业技术学院专科职业教育方面的支出。', '（二十一）教育支出（类）职业教育（款）其他职业教育支出（项）反映贵阳职业技术学院用于职业教育的其他教育支出。', '（二十二）教育支出（类）留学教育（款）其他留学教育支出（项）反映贵阳职业技术学院用于留学教育方面的支出。', '（二十三）教育支出（类）其他教育支出（款）其他教育支出（项）反映贵阳职业技术学院用于除上述项目以外的其他教育方面的支出。', '（二十四）社会保障和就业支出（类）行政事业单位离退休（款）机关事业单位基本养老保险缴费支出（项）反映贵阳职业技术学院实施养老保险制度由单位缴纳的基本养老保险费支出。', '（二十五）社会保障和就业支出（类）其他社会保障和就业支出（款）其他社会保障和就业支出（项）反映贵阳职业技术学院用其他于社会保障和就业方面的支出。', '（二十六）卫生健康支出（类）行政事业单位医疗（款）事业单位医疗（项）反映财政部门安排的事业单位医疗保障缴费经费。', '（二十六）卫生健康支出（类）行政事业单位医疗（款）公务员医疗补助（项）反映财政部门安排的公务员医疗补助经费。', '（二十七）住房保障支出（类）保障性安居工程支出（款）公共租赁住房（项）反映用于新建、改建、购买、租赁、维护和管理贵阳职业技术学院公共租赁住房支出。', '（二十八）住房保障支出（类）住房改革支出（款） 住房公积金（项）反映贵阳职业技术学院按人力资源和社会保障部、财政部规定的基本工资和津补贴以及规定比例为职工缴纳的住房公积金。', '20个项目资金投入主要用于校内实训实验室的建设、实训基地建设改造、实训条件改善、课程资源建设等。旨在改善办学条件，建设重点实验室，培养和提高学生的动手能力，提升教学质量；强化复合型技术技能人才培养，提高学生职业技能水平；确保校园安全稳定，保障校园运行。', '我院按照“合理规划、统筹分配范围、规范管理、正向激励”的原则，规定了资金责任部门，明确了资金分配和奖罚制度，以加强和规范资金管理，提高资金使用效益。', '为改善实训条件、加强专业建设、课程建设及师资队伍建设，持续提升办学条件和教学质量、人才培养质量师生服务地方经济发展的能力，各项目根据申报时的建设任务书，积极推进建设，在学院的大力支持下，年初规划总体绩效目标完成情况良好。绩效指标完成情况如下：', '数量指标：对照年初工作目标计划，经考核，20个项目中，实际完成率为100%的项目有6个，分别是：①通过移机安装、维护保养、房屋基建、储气罐采购，完成压力容器的安全改造项目；②完成了食品药品检测开放实训基地配套设施安装装修，并通过了项目验收；③优化建设机械制造（数字化制造、精密加工）”的硬件建设，采购了立式加工中心2台、四轴加工中心1台、五轴五联动加工中心1台、智能冲压成型机1台、智能制造生产线1套，并完成了中德中心文化建设，建设中德（贵阳）职业技能培训中心---数字化设计与精密制造实训中心；④更换了学院部分监控设备防水箱、电源线，完成更换监控设备项目。⑤省级骨干专业计算机网络技术项目已按合同购建2间机房。⑥完成省级开放实训基地-食品药品检测开放实训基地建设。', '质量指标：对照年初工作目标计划，经考核，20个项目中，已完成项目验收，验收合格的项目有6个，质量均已达标，验收合格率为100%。分别是：实训基地压力容器实施安全改造项目、食品药品检测开放实训基地、数字化设计与精密制造实训中心、省级开放实训基地-食品药品检测开放实训基地、更换监控设备项目、计算机网络技术项目。其余14个项目中正在推进中，尚未达到验收阶段，验收合格率为0。', '时效指标：对照年初工作目标计划，经考核，已完成的5个项目均执行政府采购，其中提前完成的项目有2个，分别是食品药品检测（匹配）项目、级开放实训基地-食品药品检测开放实训基地项目，均提前1个月完成，提前完成及时率为8.3%。', '成本指标：对照年初工作目标计划，20个项目均在预算控制范围内执行，执行财政评审、政府采购程序后，共节约资金28.18万元。其中：清镇校区校舍改造、机房及汽车实训基地项目节约资金23.87万元，压力容器实施安全改造项目节约资金2.51万元，食品药品检测（匹配）0.1万元，中德（贵阳）职业技能培训0.2万元，更换监控设备项目1.5万元。', '经济、社会、生态效益指标：中央对地方转移支付项目的实施使学院显著受益，对专业建设质量提升有明显促进作用；实训基地建设水平稳步提升；理论研究和创新能力不断提高；教师课堂授课能力、师资水平、课堂教学效果不断提升；全年受益学生数13281人。', '可持续影响指标：中央对地方转移支付项目的实施有力促进了学院的持续健康发展，对提高学院科研水平有积极长期影响；对提高学院教学水平有积极长期影响；对校企合作企业的企业发展有积极长期影响；也为服务对地方产业培育技术应用型人才有积极长期影响，服务地方经济发展。', '满意度指标完成情况分析：中央对地方转移支付项目的实施使学生满意度、家长满意度、用人单位满意度及上级部门满意度均达到90%及以上。', '中央对地方转移支付项目资金用于购置仪器设备和软件等固定资产部分，属于政府采范围，由于招标、供货、安装、调试验收等各环节均需要一定周期，造成采购周期过长，导致部分资金未及时支付。今后，学院将进一步加大对包括政府采购项目等监管力度，积极协调政府采购部门简化采购手续，细化项目管理，加快预算执行进度，使投资的项目早规划、早建设、早使用，提高使用效益。', '应高度重视绩效评价结果的应用工作，积极探索和建立一套与预算管理相结合、多渠道应用评价结果的有效机制，着力提高绩效意识和财政资金使用效益，广泛接受社会监督。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>245</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>贵阳市年土壤地下水农村污染防治工作总结和年工作打算</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-02-26</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/sthj/trsthjgl/202009/t20200924_63385296.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['贵阳市2019年土壤、地下水、农村污染防治工作总结和2020年工作打算 - 贵阳市人民政府', '2019年贵阳市严格按照国家和省相关工作安排，切实做好辖区内土壤、地下水和农村污染防治工作的统筹推进，有关情况总结如下：', '一是牵头开展我市《贵州省土壤污染防治工作方案》2018年完成情况自查自评工作，统筹整理各部门、各区（市、县）相关资料迎接省级考核。', '二是按照《贵州省2019年土壤污染防治年度实施方案》，结合我市实际，经市人民政府同意，印发实施《贵阳市2019年土壤污染防治年度实施方案》，并召开土壤污染防治工作联席会议对各单位执行方案情况定期进行调度。', '持续开展重点行业企业用地土壤污染状况详查。一是强化统筹，市级成立重点行业企业用地调查工作组，市县两级全力配合共同开展调查工作。印发了《贵阳市重点行业企业用地土壤污染状况调查实施方案》和《贵阳市重点行业企业用地调查基础信息采集质量保证与质量控制工作方案》，组织相关技术人员参加了省生态环境厅组织的培训，各区（市、县）指派专人配合第三方调查机构到现场收集相关资料。二是完善相关企业基本信息。按照国家颁布的基本信息调查技术规范，对我市重点行业企业企业进行现场调查和资料收集，截至目前基本信息完成系统录入。三是再次筛查纳入详查企业名单。按照省生态环境厅要求，市生态环境局发文要求各区（市、县）生态环境分局会同工商、税务、工信、应急等部门再次对辖区内企业进行筛查，并结合第一次污普、第二次污普资料进行集中核对，确保应查尽查。四是定期调度重点行业企业用地土壤污染状况调查工作，积极与调查单位和质控单位对接沟通，根据任务时间节点，倒排工期，细化工作计划，已按时完成了重点行业企业调查和质控工作。', '为降低重点行业企业原址土地再利用对人体健康和环境安全造成的影响和风险，结合《污染地块土壤环境管理办法》及国家、省相关要求，市生态环境局联合自然资源和规划、住建等部门积极协调，探索开展建设用地土壤环境管理，并在2019年8月在全省率先印发实施《贵阳市土壤污染防治工作领导小组办公室关于进一步做好建设用地土壤环境管理工作的通知（试行）》（筑土壤办通〔2019〕4号），规范建设用地土壤环境管理工作流程。', '二是建立了贵阳市污染地块名录，并通过网络等方式向社会进行了公开，依托全国土壤污染信息系统，国土、规划、环保部门共同做好污染地块再开发利用，各区（市、县）国土部门结合日常工作，在土地征收等环节及时查询信息系统，并做好查询记录，规划部门在编制区域专项规划时也及时征求环保部门意见，环保部门对各区县、市直相关部门的平台使用、更新情况及时通报，充分利用数据系统共同做好污染地块的监管。', '三是建立贵阳市土壤污染重点监管单位名录。为贯彻落实《土壤污染防治法》有关规定，结合全市重点行业企业土壤污染状况详查及风险筛查初步结果，我市共有28家企事业单位被纳入贵阳市2019年土壤污染重点监管单位名录（第一批），并通过网络等方式向社会进行了公开。', '四是强化部门间沟通，环保、自然资源和规划等部门对工作中的遇到的问题及时沟通，通过函件、座谈会等形式，积极讨论，共同做好污染地块开发利用的联动监管。', '（1）积极配合省、市农业农村部门开展农用地土壤污染状况详查工作，目前，详查工作已基本完成。同时，根据全市工作安排，积极开展耕作层剥离利用相关工作，明确市自然资源和规划局会同市农业农村局和市生态环境局推进耕作层土壤污染状况调查工作。', '（2）配合做好农用地安全利用工作。一是开展拟开发为农用地区域土壤环境质量状况评估工作。市农业农村局联合市自然资源和规划局、市生态环境局印发《关于做好对拟开发为农用地区域土壤环境质量状况评估工作的通知》（筑农通〔2019〕46号），对各区（市、县）2016年至2018年以来未利用地和复垦土地等已开发为农用地的土壤进行环境质量状况评估。二是实施受污染耕地安全利用。由市农业农村局牵头，联合市生态环境局印发了《贵阳市农业农村局 贵阳市生态环境局关于做好受污染耕地安全利用工作的通知》（筑农通〔2019〕38号），明确2019年12月完成受污染耕地安全利用面积2.362万亩、完成受污染耕地治理与修复面积0.617万亩、完成清镇市和开阳县耕地质量类别划分工作的年度目标任务，组织编制《贵阳市受污染耕地安全利用实施方案》，确保完成安全利用目标任务。', '（1）圆满完成2019年度整治任务。经前期排查，2019年度，我市列入《贵阳市涉镉等重点重金属污染源整治清单》的企业只有贵州省宏诚昊宇节能科技有限公司，其整改内容为：原贵阳修文宏华冶炼有限公司遗留电石渣的处置。一年来，市生态环境局和修文县生态环境分局工作人员多次到现场督察，分局负责人主动协调调度，2019年12月20日原贵阳修文华宏冶炼有限公司地块上遗留的电石渣全部清理完毕。疑似污染地块土壤环境初步调查报告显示该厂各监测项目的监测结果均低于相应土壤环境风险筛选值，满足二类用地标准要求。', '原贵阳修文华宏冶炼有限公司遗留电石渣部分用于贵州金久水泥有限公司水泥生产，部分用于贵州贵鑫建材公司水泥添加剂生产。实现了既对废渣进行安全处置，又变废为宝，是我市循环经济与环境保护相辅相成的又一实例。', '（2）持续开展排查工作。为加强农用地土壤污染防治，杜绝工业污染对农用地土壤造成污染，按国家和省有关要求，结合农用地土壤污染状况详查等最新数据，我局分别于9月和11月，再次在全市范围内持续推进涉镉等重点重金属污染源排查整治工作。根据11月的排查情况，先期新增贵州黔能天和磷业有限公司进入我市涉镉等重点重金属污染源整治清单，结合现场排查情况，其整改内容确定为：通过综合利用减少黄磷渣场堆存量。', '为切实做好贵州黔能天和磷业有限公司整治工作，我局加强对其整治方案编制的指导， 2019年12月18日贵州黔能天和磷业有限公司按要求制定《贵州黔能天和磷业有限公司渣场整治方案》。下一步将依据整治方案内容，加快推进渣场整治工作。', '按照中央、省、市关于推进乡村振兴和提升农村人居环境整治工作的决策部署，为加强我市农村环境综合整治工作，改善农村人居环境，打好“五大战役”之一的乡村环境整治，全面推进省生态环境厅下达农村环境综合整治目标任务和市“千村整治•百村示范”农村污水治理任务，经局领导同意，2019年8月15日成立贵阳市生态环境局农村环境综合整治领导小组，统筹推进全局农村生态环境保护工作。2019年11月5日下午，贵阳市生态环境局党委书记、局长杨波同志召开专题会议研究农村生活污水治理和畜禽粪污资源化利用工作。', '（1）完成全市122个行政村农村环境综合整治任务。在《环境保护部关于下达“十三五”农村环境综合整治目标任务的通知》明确，贵阳市在“十三五”期间共需完成612个行政村农村环境整治目标任务，每年任务数为122个。我局确定每月25日定期调度了该项工作，对进度缓慢、推进不力的及时下发督促提醒告知单。同时，紧紧围绕生活污水处理率、生活垃圾无害化处理率、畜禽粪便综合利用率和饮用水卫生合格率四项指标，采取了季度排名和年度综合考评的方式来确保该目标的实现。截至目前，122个农村环境综合整治任务已全部实施完成并达标。', '（2）完成“千村整治•百村示范”96个农村生活污水治理工程。根据5月21日市人民政府办公厅《关于印发贵阳市2019年“千村整治•百村示范”实施方案的通知》（筑府办函〔2019〕57号）要求，由我局牵头农村生活污水治理工程的协调、指导工作，具体任务为督促区（市、县）新建96个小型生活污水处理设施。为全面推进该项工作，我局高度重视，明确具体分管领导和负责同志，立即开展调查摸底，及时掌握底数，多次组织召开调度会，通过倒排工期、挂图作战和现场指导督促等方式来确保该项工作快速推进。截至目前，96个污水处理设施已经全部开工建设，主体完工的有91个，其余5个工程预计本月底主体工程将全面完工并试运行。', '农村生活污水收集处理工作是贵阳市政府2019年第一次全委会明确由生态环境局负责牵头的新工作。为扎实推进我市“千村整治·百村示范”工作，保证年度96个农村污水处理设施目标任务按时完成，我局开展了大量的现场调研、调查和督促检查，及时细化目标分解至各区县。', '我局作为牵头部门，高度重视，及时印发了《贵阳市2019年“千村整治·百村示范”农村生活污水治理项目实施方案》，形成了每周一调度、每月一排名、不定期召开调度会的工作制度推进该项工作。同时，积极向市级财政申请，给每个项目提供了30万元的奖补资金，共2880万元，为项目的实施提供资金保障。', '根据市政府对农村生活污水治理工作安排，针对每个村的规模、人口及分布情况，编制生活污水治理专项规划。为此，我局组织编制了《贵阳市农村生活污水治理规划（2019-2021年）》，邀请了中国环境科学研究院专家进行了技术把关，并通过专家评审，2019年11月19日经市政府专题会议审议通过，将于近期印发实施。', '为推进我市农村生活污水治理工作，结合《贵阳市农村生活污水治理规划（2019-2021年）》，我局牵头组织制定《贵阳市农村生活污水治理专项行动实施方案》，多次组织相关市直部门、农村生活污水治理单位、各区市县相关负责人召开了专题座谈会对方案有关问题进行了研究。现已基本完成《贵阳市农村生活污水治理专项行动实施方案》编写工作，并征求了有关市直相关部门、各区市县政府的意见，现正在按省委农村工作领导小组办公室等十三部门关于印发《贵州省农村生活污水治理专项行动方案（2019-2020年）》的通知（黔农领办〔2019〕14号）进行修改完善。', '在积极配合省生态环境厅开展农村环境综合整治项目成效评估的同时，为准确摸清贵阳市现有农村生活污水治理设施的建、管、养、用情况，我局采取委托第三方的方式对贵阳市农村生活污水处理设施设备建管养用情况进行调查评估。调查评估结果将根据实际情况，科学建立现有污水处理设施“正常运行、需整改提升和废弃重建”的清单，并对需要整改提升的，有针对性提出整改方案或措施建议，该项目已于2019年12月9日通过专家评审。', '农村生活污水的实施由各区市县政府具体负责，部份单位采取市场化运作的方式，依法依规通过3P和EPC等模式吸引金融资本和社会资金参与污水收集处理建设和运营，如：清镇市采取3P模式将农村生活污水收集处理打包给公司和开阳县采取EPC方式将农村人居环境整治整体打包给公司，确保了农村生活污水处理设施的建设有效推进。', '（1）全面开展摸底排查，抓好排查问题整改。为全面摸清全市畜禽养殖情况，2019年5月，市农业农村局会同我局制定了《贵阳市畜禽养殖污染排查和整改工作方案》对全市养殖场（户）进行了全面摸排。经排查，共梳理出粪污配套处理设施设备不完善、运转不正常，无粪污处理设施违规直排、粪污量超过现有设施处理能力、粪污消纳用地超过土地承载能力等方面问题352个。针对发现的问题，制定印发《贵阳市2019年畜禽养殖废弃物资源化利用工作方案》，实行分级管理，层层压实责任，以问题为导向，细化压实责任，坚持边查边改、立行立改，全力推进问题整治整改工作。截至目前，全市排查出的352个问题，现已整改完成262个，正在推进整治整改的90个，预计2020年6月30日完成整改。', '紧紧围绕《贵州省农业农村污染治理攻坚战行动计划实施方案》关于农村面源污染防治工作要求，制定并印发了《贵阳市农业农村污染治理攻坚战行动计划实施方案》，落实全市各有关部门职责和工作要求，依职责抓好各项工作任务。方案明确通过三年攻坚，完成每年新增122个农村环境综合整治任务、2019年率先实现“一保”和2020年“两治”取得成效、持续推进“三减”、稳步实施“四提升”的主要目标。我局作为牵头部门，对该项工作实行一周一调度的工作制度。截至目前，各项工作有序推进中，基本完成年度目标任务。', '为推进我市地下水污染防治工作，摸清地下水环境基础状况，按照生态环境部和省生态环境厅工作要求，我局积极谋划地下水污染防治项目，并启动我市地下水污染防治研究项目的申报工作。经前期工作调研和层层筛选，共拟定《贵阳市地下水基础条件调查及综合研究》、《贵阳市区域地下水污染评价及监测网络设计》、《贵阳市地下水环境信息服务平台》三个项目方案。截至目前，《贵阳市地下水基础条件调查及综合研究》和《贵阳市区域地下水污染评价及监测网络设计》两个项目顺利通过省和国家组织的专家审查，顺利入选省级、中央地下水污染防治项目库。《贵阳市地下水基础条件调查及综合研究》项目获得690万元中央专项资金支持。', '根据省生环厅工作安排部署，2019年地下水工作的重点为加油站地下油罐防渗改造。2019年先后印发《贵阳市生态环境局关于开展加油站地下油罐防渗改造督察的通知》（筑环通〔2019〕110号）、《贵阳市生态环境局关于再次对加油站地下油罐防渗改造情况核查的通知》（筑环通〔2019〕160号）、《贵阳市生态环境局关于推进未完成油罐防渗改造的加油站实施改造的安排的通知》（筑环函〔2019〕181号），安排各区（市、县）生态环境分局对我市加油站地下油罐防渗改造工作进行督察、核实，并要求白云区、清镇市、修文县、开阳县生态环境分局对辖区内仍未开展防渗改造的加油站下发整改通知书，明确完成防渗改造的时限，明确建站10年及以上加油站必须在2019年12月1日前完成防渗改造，其他加油站必须在2020年6月1日前完成防渗改造。', '经多方努力，目前我市建站10年及以上加油站已全部完成改造。其他加油站除清镇东山加油站因2020年6月前必须完成拆迁，开阳武平加油站因为需确保龙岗镇供油，等星星加油站完成后才能改造外，均已全部完成改造，预计这两个加油站2020年6月能按时完成改造。', '（1）继续做好贵阳市土壤污染防治工作的统筹，定期召开土壤污染防治工作联席会议，协调各部门在工作开展中遇到的问题，确保打赢土壤污染防治攻坚战役。', '（2）按照省生态环境厅统一部署，持续开展土壤污染状况详查工作，组织相关单位开展点位布设、样品采集和样品流转保存及分析测试工作，确保2020年底全面完成我市重点行业企业用地土壤详查工作。', '（3）抓好建设用地土壤环境管理工作。继续做好污染地块监管，强化部门沟通协作，共同做好地块开发利用的联动监管。督促责任人依法开展土壤污染状况调查，对调查表明超过建设用地相关标准要求的，列入污染地块进行管理，实施风险评估、风险管控或治理修复。对列入污染地块或全省建设用地土壤污染风险管控和修复目录的地块，未按要求进行土壤调查、治理修复等活动，或经治理修复后仍未达到相关土壤环境质量要求的，不得作为住宅、公共管理与公共服务用地开发利用。规范建设用地土壤污染状况调查报告审查程序和要求，委托第三方依照规范组织专家审查地块土壤污染状况调查报告。', '（4）加强土壤污染重点监管单位监管，更新全市土壤污染重点监管单位目录，并向社会公开；督促土壤污染重点监管单位依法履行法律义务，建立土壤污染隐患排查制度，防止有毒有害物质渗漏、流失、扬散，制定自行监测方案并实施。', '（5）根据局工作部署，切实推进数博大道沿线未利用地土壤环境调查，按要求完成招投标和点位布设，按照相关规范开展调查，摸清沿线未利用地和拟开发用地土壤环境状况。', '（6）根据农用地土壤污染状况详查等最新数据，按国家和省有关要求，对涉及区域内的涉镉等重金属重点行业企业持续开展逐一排查。根据多级排查，形成最新污染源整治清单，并按要求及时更新整治清单。同时督促涉镉等重金属重点行业企业制定整治方案，并按照整治方案完成整治。', '（7）配合农业部门做好农用地污染防控工作，依据农用地土壤污染状况详查成果及耕地土壤环境质量类别划分结果，对耕地实施严格保护，优先保护未污染和轻微污染耕地，安全利用中轻度污染耕地，严格管控重度污染耕地。有效减少化肥、农药使用。深入推进科学施肥和农作物绿色防控，推动化肥、农药使用量负增长。加强农膜使用控制，推进农膜回收利用，禁止废弃农膜任意丢放。配合市自然资源和规划局及市农业农村局，依职责做好耕作层剥离再利用工作。', '（1）开展地下水环境状况调查，实施地下水基础条件调查、研究以及区域地下水污染现状评价，对主要的地下河、岩溶大泉、地下水开发利用现状、监测点位及其运行管理现状等开展调查，对地下水条件、系统划分、采样点筛选等进行研究，为未来全面开展地下水污染分区防治，提出分区防治措施打下基础。', '（2）持续推进加油站地下油罐防渗改造工作，2020年6月30日前，全面完成加油站地下油罐双层罐更新或防渗池设置任务，确保我市地下水污染防治工作顺利开展。', '（3）推进封井回填，积极开展报废矿井、钻井、取水井封井回填、以及地下水污染修复等方面的试点工作。', '（4）积极协调对接省生态环境厅和市自然资源和规划局，落实2020年地下水原监测点位的监测，确保地下水监测工作顺利开展。', '一是全市完成不低于122个农村生活污水收集处理设施建设，进一步提高农村生活污水处理设施行政村覆盖率和污水处理率。其中云岩区、南明区和观山湖区3个基础条件较好的城市近郊区农村生活污水治理率明显提高；花溪区、乌当区、白云区、清镇市、修文县、开阳县和息烽县7个基本具备条件的县（市、区）农村生活污水乱排乱放现象得到控制。', '二是制定污水治理方案。制定下发《贵阳市农村生活污水治理专项行动方案（2019-2021年）》；明确各区（市、县）政府责任分工，强化资金保障和工作措施。', '三是实施一批建设成本低、处理效果好、运行费用低、特别适宜推广的农村生活污水处理示范试点项目，结合农村生活污水处理设施建管养用评估工作的结论情况，逐步探索建立生活污水治理设施“建、管、养、用”运营维护长效机制。', '四是督促指导区（市、县）组织开展农村环境综合整治项目成效评估等工作，以县域为单位建立现状基础台账，依据《全国县域农村生活污水治理专项规划编制指南（试行）》等有关部署要求，及时启动并按时完成县域农村生活污水治理专项规划的编制工作。', '一是组织开展《贵阳市畜禽养殖污染防治规划（2020-2025年）》编制工作，对养殖行业情况进行现场排查核实，按照规模以上、规模以下（含散养）两部分，以畜禽养殖粪污“用”作为解决环境问题的重要途径，拟定畜禽养殖污染防治目标、要求、工作路径、工作职责。', '二是配合农业农村部门推进生态养殖，提高畜禽养殖标准化水平，推广生态循环农业模式，加强畜禽粪污处置和资源化利用，特别是规模以下养殖废弃物的处置利用，持续提高畜禽养殖污染物综合利用率和处置水平。按照“减量化、无害化、资源化、生态化”要求，发展适合不同养殖规模和养殖形式的畜禽养殖废弃物无害化处理模式和资源化综合利用模式。推进种养结合，污染防治措施优先考虑畜禽废弃物综合利用，逐步建立和完善农业产业结构的生态链，探索对散养户粪污集中处置利用的途径。2020年，鼓励有条件的区（市、县）学习借鉴省内外经验，选择不同的模式实施一批畜禽粪污治理试点示范项目，树立粪污收集治理样板工程，总结推广畜禽粪污收集处理模式。', '三是督促有关部门加大畜禽养殖污染执法力度，将规模化以上的重点养殖场列为重点污染源管理。探索建立以市级统筹农村环境保护现场监管，区县负责规模以上养殖场（小区）现场环境监管，乡镇人民政府、村（街道办事处）负责规模以下养殖户环境监管的农村环境监管网络。结合环评审批和排污许可证的发放，明确规模化养殖场（小区）管理要求，为环境现场执法提供有力支撑。', '（3）按照国家统一部署启动农村黑臭水体排查整治工作，抓好试点示范，以房前屋后河塘沟渠、排水沟为重点实施清淤疏浚，采取控源截污、清淤疏浚、岸坡整治、水系沟通、水体净化、生态修复等综合措施恢复水生态，逐步消除农村黑臭水体，2020年重点做好排查工作。', '（4）持续推进农村面源污染治理。按照《贵阳市农业农村污染治理攻坚战行动计划实施方案》明确各有关部门的职责和工作要求，督促和指导相关部门依职责抓好农村饮用水保护、垃圾整治、农药化肥减量化、养殖业污染防治等各项工作任务，持续推进全市农村面源污染治理。', '做好土壤、地下水和农村环境整治项目储备和申报工作，积极申请中央、省、市资金支持生态环境保护工作，切实推动各项工作顺利推进。', '一是邀请相关专家，组织各相关部门和重点监管企业负责人开展《中华人民共和国土壤污染防治法》宣传贯彻培训，以及农村污水治理有关知识的学习培训；二是组织赴省外先进城市开展畜禽粪污治理工作考察学习；三是计划在2020年3月组织一次农村生活污水治理推进工作现场会。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>245</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>贵阳市卫生和计划生育委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2017-08-09</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/swsjkj/202001/t20200116_43375758.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['一、贵阳市卫生和计划生育委员会概况 （一）主要职能 贵阳市卫生和计划生育委员会是由原贵阳市卫生局和原贵阳市计划生育委员会合并设立的，其部门主要职能是： 1、贯彻执行卫生、人口计划生育工作方针政策和法律法规；负责起草卫生和计划生育、中医药事业发展地方性法规、规章草案，拟订政策规划、标准和技术规范；负责协调推进医药卫生体制改革和医疗保障，统筹规划卫生和计划生育服务资源配， 指导区域卫生和计划生育规划的编制和实施。 2、负责执行疾病预防控制规划、国家免疫规划、严重危害人民健康的公共卫生问题的干预措施，制定卫生应急和紧急医学救援预案、突发公共卫生事件监测和风险评估计划，组织和指导突发公共卫生事件预防控制和各类突发公共事件的医疗卫生救援，配合相关部门发布和报送传染病疫情信息和突发公共卫生事件应急处置信息；拟订和实施全市防治艾滋病规划和措施。 3、负责制定职责范围内的职业卫生、放射卫生、环境卫生、学校卫生、公共场所卫生、饮用水卫生管理规范、标准和政策措施；组织开展食品安全风险监测、评估，组织实施并公布食品安全标准，负责食品、食品添加剂及相关产品新原料、新品种的安全性审查。 4、负责组织拟订基层卫生和计划生育服务、妇幼卫生发展规划和政策措施，指导全市基层卫生和计划生育、妇幼卫生服务体系建设，推进基本公共卫生和计划生育服务均等化，完善基层运行新机制和乡村医生管理制度；负责新型农村合作医疗的综合管理。 5、负责医疗机构和医疗服务的行业准入管理并监督实施。制定医疗机构及其医疗服务、医疗技术、医疗质量、医疗安全以及采供血机构管理的规范、标准并组织实施，会同有关部门制定和实施卫生专业技术人员准入、资格标准，制定和实施卫生专业技术人员执业规则和服务规范，建立医疗机构医疗服务评价和监督管理体系。 6、负责组织推进公立医院改革，建立公益性为导向的绩效考核和评价运行机制，建设和谐医患关系，提出医疗服务和药品价格政策的建议。 7、实施国家药物政策和国家基本药物制度，参与制定或增补基本药物目录；组织实施基本药物采购、配送、使用的管理制度，会同有关部门提出基本药物目录内药品生产的鼓励扶持政策建议，提出国家基本药物价格政策的建议，参与制定药品法典。 8、组织实施计划生育综合治理目标管理，协调推进有关部门、群众团体履行计划生育工作职责，负责拟订计划生育“三结合”工作规划并组织实施；组织实施促进全市出生人口性别平衡的政策措施。 9、组织建立计划生育利益导向、计划生育特殊困难家庭扶助和促进计划生育家庭发展等机制；研究提出促进计划生育家庭发展的政策建议，建立与经济社会发展政策的衔接机制，提出稳定低生育水平政策措施。 10、组织监测计划生育发展动态，提出发布计划生育安全预警预报信息建议，负责卫生和计划生育的统计、数据分析、信息综合及信息化建设，参与全市人口基础信息库及基层卫生信息化建设，依法组织实施统计调查；组织编报市级卫生和计划生育事业经费和基本建设支出预决算及计划生育药具需求计划，监管直属事业单位财务和国有资产。 11、制定流动人口计划生育服务管理制度并组织落实， 推动建立流动人口卫生和计划生育信息共享和公共服务工作机制。 12、组织拟订卫生和计划生育科技发展、人才发展规划，指导卫生和计划生育人才队伍建设。加强全科医生等急需紧缺专业人才培养， 建立完善住院医师和专科医师规范化培训制度并指导实施。 13、组织实施卫生和计划生育相关科研项目；制定实施全市卫生和计划生育干部教育培训规划；参与制定医学教育发展规划，协同指导院校医学和计划生育教育，组织实施毕业后医学教育和继续医学教育。 14、指导、完善卫生和计划生育综合监督执法体系， 规范执法行为，监督检查法律法规和政策措施的落实，完善计划生育目标管理责任制。 15、制定卫生和计划生育宣传教育工作规划，组织开展卫生和计划生育宣传教育、健康教育和健康促进等工作；开展国际交流合作与援外工作，开展与港澳台的交流与合作。 16、制定实施中医药和民族医药中长期发展规划。 17、承担贵阳市干部保健委员会、市防治艾滋病工作委员会日常工作，负责市重大活动与重要会议的医疗卫生保障工作。 18、承办市委、市政府和上级业务部门交办的其他事项。 （二）机构设置及部门决算单位构成 本单位（部门）内设22个处室，下属19个单位。从预算单位构成看，单位部门决算包括：本级决算、所属市第一人民医院、所属市第二人民医院、所属市第三人民医院、所属市第四人民医院、所属市第六人民医院、所属市口腔医院、所属市妇幼保健院、所属市公共卫生救治中心、所属市疾病预防控制中心、所属市卫生监督所、所属市急救中心、所属市妇幼保健研究所、所属市医学会、所属市计划生育宣传技术指导所、所属市计划生育药具管理站、所属市人口计生计算机信息管理中心、所属市人口和计划生育执法支队、所属市计生协会和所属市北京路社区卫生服务中心决算。 二、贵阳市卫生和计划生育委员会2016年度部门决算公开报表（见附表） 三、贵阳市卫生和计划生育委员会2016年度部门决算情况说明 （一）贵阳市卫生和计划生育委员会2016年度收入支出决算总体情况说明 贵阳市卫生和计划生育委员会2016年度收支决算总计360,872.41万元，与2015年相比，增加35,198.55万元，增长10.81%。主要原因是：中央转移支付、省级财政拨款、市级财政投入加大，与2015年相比增加了10.49%；事业收入与2015年相比增加了11.15% 。 （二）贵阳市卫生和计划生育委员会2016年度收入决算情况说明 本年收入合计344,514.42万元，其中：财政拨款收入43,369.7万元，占12.59%；上级补助收入0万元，占0%；事业收入293,854.05万元，占85.3%；经营收入0万元，占0%；附属单位缴款0万元，占0%；其他收入7,290.67万元，占2.12%。 （三）贵阳市卫生和计划生育委员会2016年度支出决算情况说明 本年支出合计333,800.9万元，其中：基本支出315,554.1万元，占94.53%；项目支出18,246.8万元，占5.47%；上缴上级支出0万元，占0%；经营支出0万元，占0%；对附属单位补助支出0万元，占0%。 （四）贵阳市卫生和计划生育委员会2016年度财政拨款收入支出决算总体情况说明 贵阳市卫生和计划生育委员会2016年度财政拨款收支决算总计56,768.06万元。与2015年相比，增加11,792.67万元，增长26.22%。主要原因是：中央转移支付、省级财政拨款、市级财政投入增加。 （五）贵阳市卫生和计划生育委员会2016年度一般公共预算财政拨款支出决算情况说明 1、一般公共财政拨款支出决算总体情况 贵阳市卫生和计划生育委员会2016年度一般公共预算财政拨款支出43,217.96万元，占本年支出合计的12.95%。与2015年相比，一般公共预算财政拨款支出增加12,261.33万元，增长39.61%。主要原因是：部分公共卫生、计划生育项目投入加大，如基本公共卫生服务、新型农村合作医疗项目、计生利益导向服务；加强了卫生计生信息化建设，如卫生健康信息云、数据铁笼项目建设力度较大。 。 2、一般公共预算财政拨款支出决算结构情况 贵阳市卫生和计划生育委员会2016年度一般公共预算财政拨款支出主要用于以下方面：医疗卫生与计划生育支出38,830.46万元，占89.85%；科学技术支出2,880万元，占6.67%，其他支出1507.5万元，占3.48 %。 3、一般公共预算财政拨款支出决算具体情况 贵阳市卫生和计划生育委员会2016年度一般公共预算财政拨款支出当年预算为56,771.03万元，支出决算为43,217.96万元，完成当年预算的76.13 %。决算数小于预算数的主要原因是：部分项目预算资金下拨至区（市、县），这部分资金不纳入本级决算之中。其中： （1）科学技术支出（类）技术研究与开发（款）科技成果转化与扩散（项）。当年预算为2,000万元，支出决算为2,000万元，完成当年预算的100 %。 （2）科学技术支出（类）技术研究与开发（款）科技条件专项（项）。当年预算为1,000万元，支出决算为880万元，完成当年预算的88%。决算数小于预算数的主要原因是：跨年支付。 （3）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）行政运行（项）。当年预算为1,704.44万元，支出决算为1,812.66万元，完成当年预算的106%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （4）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）其他医疗卫生与计划生育管理事务支出（项）。当年预算为2,714.59万元，支出决算为2,243.63万元，完成当年预算的82.65%。决算数大于预算数的主要原因是：有部分资金下拨至区（市、县）使用，不列入本级经费决算。 （5）医疗卫生与计划生育支出（类）公立医院（款）综合医院（项）。当年预算为11,824.52万元，支出决算为13,529.54万元，完成当年预算的114%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （6）医疗卫生与计划生育支出（类）公立医院（款）中医（民族）医院（项）。当年预算为0万元，支出决算为2.5万元。决算数大于预算数的主要原因是：增加了省级下拨资金，这部分资金不能列入预算。 （7）医疗卫生与计划生育支出（类）公立医院（款）妇产医院（项）。当年预算为1,808.45万元，支出决算为1,891.7万元，完成当年预算的105%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （8）医疗卫生与计划生育支出（类）公立医院（款）其他专科医院（项）。当年预算为478.02万元，支出决算为491.91万元，完成当年预算的103%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （9）医疗卫生与计划生育支出（类）公立医院（款）其他公立医院支出（项）。当年预算为0万元，支出决算为641.01万元。决算数大于预算数的主要原因是：增加了省级下拨资金，这部分资金未能列入预算。 （10）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）城市社区卫生机构（项）。当年预算为335.18万元，支出决算为405.44万元，完成当年预算的121%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （11）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）其他基层医疗卫生机构支出（项）。当年预算为0万元，支出决算为20.48万元。决算数大于预算数的主要原因是：增加了省级下拨资金，这部分资金未能列入预算。 （12）医疗卫生与计划生育支出（类）公共卫生（款）疾病预防控制机构（项）。当年预算为3,567.67万元，支出决算为3,556.22万元，完成当年预算的99.7%。决算数小于预算数的主要原因是：当年人员减少导致支出减少。 （13）医疗卫生与计划生育支出（类）公共卫生（款）卫生监督机构（项）。当年预算为653.9万元，支出决算为703.16万元，完成当年预算的108%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （14）医疗卫生与计划生育支出（类）公共卫生（款）妇幼保健机构（项）。当年预算为134.19万元，支出决算为134.15万元，完成当年预算的99.97%。决算数小于预算数的主要原因是：决算和预算不能完全做到一致。 （15）医疗卫生与计划生育支出（类）公共卫生（款）应急救治机构（项）。当年预算为501.26万元，支出决算为532.61万元，完成当年预算的106%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （16）医疗卫生与计划生育支出（类）公共卫生（款）基本公共卫生服务（项）。当年预算为7,681.76万元，支出决算为4,398.95万元，完成当年预算的57.26%。决算数大于预算数的主要原因是：部分资金下拨至区（市、县）使用，不列入本级经费决算。 （17）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。当年预算为3760万元，支出决算为3422.26万元，完成当年预算的91%。决算数大于预算数的主要原因是：部分资金下拨至区（市、县）使用，不列入本级经费决算。 （18）医疗卫生与计划生育支出（类）公共卫生（款）突发公共卫生事件应急处理（项）。当年预算为170万元，支出决算为203.19万元，完成当年预算的119%。决算数大于预算数的主要原因是：有部分资金属于省级下拨资金，此部分资金不能列入预算。 （19）医疗卫生与计划生育支出（类）医疗保障管理事务（款）新型农村合作医疗（项）。当年预算为2,360万元，支出决算为0万元，完成当年预算的0%。决算数大于预算数的主要原因是：全部资金下拨至区（市、县）使用，不列入本级经费决算。 （20）医疗卫生与计划生育支出（类）医疗保障管理事务（款）行政单位医疗（项）。当年预算为0万元，支出决算为99.66万元。决算数大于预算数的主要原因是：使用的是上年结转资金，这部分资金不列入当年预算。 （21）医疗卫生与计划生育支出（类）医疗保障管理事务（款）疾病应急救助（项）。当年预算为280万元，支出决算为200.88万元，完成当年预算的71.74%。决算数大于预算数的主要原因是：该资金很难预算，只能按实际发生额进行支付。 （22）医疗卫生与计划生育支出（类）中医药（款）中医（民族医）药专项（项）。当年预算为300万元，支出决算为128.75万元，完成当年预算的42.92%。决算数大于预算数的主要原因是：大部分资金下拨至区（市、县）使用，不列入本级经费决算。 （23）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育机构（项）。当年预算为761.05万元，支出决算为799.11万元，完成当年预算的105%。决算数大于预算数的主要原因是：新增加了退休人员养老金支出。 （24）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育服务（项）。当年预算为9,396万元，支出决算为1,370.56万元，完成当年预算的14.59%。决算数大于预算数的主要原因是：大部分资金下拨至区（市、县）使用，不列入本级经费决算。 （25）医疗卫生与计划生育支出（类）计划生育事务（款）其他计划生育事务支出（项）。当年预算为3,340万元，支出决算为128.75万元，完成当年预算的42.92%。决算数大于预算数的主要原因是：大部分资金下拨至区（市、县）使用，不列入本级经费决算。 （26）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全事务（项）。当年预算为0万元，支出决算为340万元。决算数大于预算数的主要原因是：属于省级下拨资金，该资金不能列入预算。 （27）医疗卫生与计划生育支出（类）其他医疗卫生与计划生育支出（款）其他医疗卫生与计划生育支出（项）。当年预算为0万元，支出决算为984.17万元。决算数大于预算数的主要原因是：全部资金都属于省级下拨资金，不能列入预算。 （28）城乡社区支出（类）其他城乡社区支出（款）其他城乡社区支出（项）。当年预算为0万元，支出决算为8.1万元。决算数大于预算数的主要原因是：全部资金都属于省级下拨资金，不能列入预算。 （29）资源勘探信息等支出（类）工业和信息产业监管（款）工业和信息产业支持（项）。当年预算为2,000万元，支出决算为1,499.4万元，完成当年预算的74.97%。决算数大于预算数的主要原因是：跨年支付。 （六）贵阳市卫生和计划生育委员会2016年度一般公共预算财政拨款基本支出决算情况说明 贵阳市卫生和计划生育委员会2016年度一般公共预算财政拨款基本支出25,066.03万元，其中：人员经费24,293.09万元，主要包括基本工资、津贴补贴、离退休费等；公用经费772.94万元，主要包括办公费、水电费、差旅费等。 （七）贵阳市卫生和计划生育委员会2016年度一般公共预算财政拨款“三公”经费支出决算情况说明 2016年度“三公”经费一般公共预算财政拨款支出决算107.7万元，，比上年减少75.55万元，降低41.23%，减少原因是公务车改革后公车数量减少导致相应开支降低。其中，因公出国（境）费支出0万元，占0%，比上年减少3.83万元，降低100%，减少原因是未发生因公出国等情况；公务用车购置及运行维护费支出104.73万元，占97.24%，比上年减少62.55万元，降低37.39%，减少原因是公车改革后大幅减少公务车运行维护开支；公务接待费支出2.97万元，占2.76%，比上年减少9.16万元，降低75.52%，减少原因是严格落实公务接待费管理规定，接待报销必须提供接待清单、公函、菜单，严格限制陪餐人数，接待以家常菜为主，不得提供烟和酒。具体情况如下： （1）因公出国（境）费支出0万元。贵阳市卫生和计划生育委员会全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。 （2）公务用车购置及运行维护费104.73万元,其中，公务用车购置0万元，公务用车运行维护费104.73万元。主要用于公务车保险、维修、停车洗车、过桥过路等。2016年，单位开支财政拨款的公务用车保有量为45辆。 （3）公务接待费2.97万元。具体是： 国内公务接待支出2.97万元，主要是上级单位检查、友邻城市相关单位来筑考察学习等。贵州省贵阳市卫生和计划生育委员会2016年国内公务接待30批次，273人次。 （八）政府性基金预算收入支出决算情况说明 贵阳市卫生和计划生育委员会2016年政府性基金预算财政拨款本年收入0万元，本年支出0万元。 （九）其他重要事项的情况说明 1、机关运行经费支出情况。 2016年贵阳市卫生和计划生育委员会机关运行经费支出269.22万元，比2015年增加79.36万元，增长41.8%，主要原因是公车改革后公务用车补贴列入了机关运行经费。 2、政府采购支出情况。 2016年贵阳市卫生和计划生育委员会政府采购支出总额2,006.67万元，其中：政府采购货物支出1,401.06万元、政府采购工程支出543.61万元、政府采购服务支出62万元，授予中小企业合同金额58.68万元，占政府采购支出总额的2.92%，其中：授予小微企业合同金额58.68万元，占政府采购支出总额的2.92%。 3、国有资产占用情况。 截至2016年12月31日，贵阳市卫生和计划生育委员会共有车辆140辆，其中， 一般公务用车29辆、一般执法执勤用车0辆、特种专业技术用车21辆、其他用车90辆（其他用车主要是：应急用车）；单位价值50万元以上通用设备137台（套），单位价值100万元以上专用设备162台（套）。 4、预算绩效管理工作开展情况 （1）项目绩效评价工作开展情况 2016年我委继续对卫生计生资金开展绩效评价。绩效评价分为整体评价和项目评价。项目评价抽取了基本公共卫生均等化服务和社区卫生服务中心标准化建设两个具有代表性的项目。 （2）绩效评价工作取得的成效 市财政局聘请社会中介机构对我单位的绩效评价进行了考核，总体情况比较满意。绩效评价得分位列贵阳市第一名。 四、名词解释 (一)财政拨款收入：指同级财政当年拨付的资金。 （二）上级补助收入：指事业单位从主管部门和上级单位取得的非财政补助收入。 （三）事业收入：指事业单位开展专业业务活动及其辅助活动所取得的收入。 （四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。 （五）附属单位缴款：指事业单位附属的独立核算单位按有关规定上缴的收入。 （六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。 （七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 （八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （九）结余分配：反映单位当年结余的分配情况。 （十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 （十二）项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 （十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。 （十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。 （十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 （十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。 （十七）科学技术支出（类）技术研究与开发（款）科技成果转化与扩散（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置用于信息化建设的项目支出。 （十八）科学技术支出（类）技术研究与开发（款）科技条件专项（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置用于信息化建设的项目支出。 （十九）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）行政运行（项）。指贵阳市卫生和计划生育委员会及下属单位用于行政事务支出。 （二十）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）其他医疗卫生与计划生育管理事务支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十一）医疗卫生与计划生育支出（类）公立医院（款）综合医院（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十二）医疗卫生与计划生育支出（类）公立医院（款）综合医院（项）。当年预算为0万元，支出决算为2.5万元。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十三）医疗卫生与计划生育支出（类）公立医院（款）妇产医院（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十四）医疗卫生与计划生育支出（类）公立医院（款）其他专科医院（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十五）医疗卫生与计划生育支出（类）公立医院（款）其他公立医院支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十六）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）城市社区卫生机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十七）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）其他基层医疗卫生机构支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十八）医疗卫生与计划生育支出（类）公共卫生（款）疾病预防控制机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十九）医疗卫生与计划生育支出（类）公共卫生（款）卫生监督机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十）医疗卫生与计划生育支出（类）公共卫生（款）妇幼保健机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十一）医疗卫生与计划生育支出（类）公共卫生（款）应急救治机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十二）医疗卫生与计划生育支出（类）公共卫生（款）基本公共卫生服务（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十三）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十四）医疗卫生与计划生育支出（类）公共卫生（款）突发公共卫生事件应急处理（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十五）医疗卫生与计划生育支出（类）医疗保障管理事务（款）新型农村合作医疗（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十六）医疗卫生与计划生育支出（类）医疗保障管理事务（款）行政单位医疗（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十七）医疗卫生与计划生育支出（类）医疗保障管理事务（款）疾病应急救助（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十八）医疗卫生与计划生育支出（类）中医药（款）中医（民族医）药专项（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十九）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的计划生育项目支出。 （四十）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育服务（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的计划生育项目支出。 （四十一）医疗卫生与计划生育支出（类）计划生育事务（款）其他计划生育事务支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的计划生育项目支出。 （四十二）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全事务（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的用于食品安全的项目支出。 （四十三）医疗卫生与计划生育支出（类）其他医疗卫生与计划生育支出（款）其他医疗卫生与计划生育支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的卫生项目支出。 （四十四）城乡社区支出（类）其他城乡社区支出（款）其他城乡社区支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。 （四十五）资源勘探信息等支出（类）工业和信息产业监管（款）工业和信息产业支持（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>245</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>贵州省贵阳市卫生和计划生育委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/swsjkj/202001/t20200116_43375753.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['目录 一、单位概况 （一）主要职能 （二）机构设置及部门决算单位构成 二、2018年度部门决算公开报表（见附表） 三、2018年度部门决算情况说明 （一）2018年度收入支出决算总体情况说明 （二）2018年度收入决算情况说明 （三）2018年度支出决算情况说明 （四）2018年度财政拨款收入支出决算总体情况说明 （五）2018年度一般公共预算财政拨款支出决算情况说明 （六）2018年度一般公共预算财政拨款基本支出决算情况说明 （七）2018年度一般公共预算财政拨款“三公”经费支出决算情况说明 （八）2018年度政府性基金预算收入支出决算情况说明 （九）其他重要事项的情况说明 四、名词解释 一、贵州省贵阳市卫生和计划生育委员会概况 （一）主要职能 1. 贯彻执行卫生、人口计划生育工作方针政策和法律法规；负责起草卫生和计划生育、中医药事业发展地方性法规、规章草案，拟订政策规划、标准和技术规范；负责协调推进医药卫生体制改革和医疗保障，统筹规划卫生和计划生育服务资源配， 指导区域卫生和计划生育规划的编制和实施。 2. 负责执行疾病预防控制规划、国家免疫规划、严重危害人民健康的公共卫生问题的干预措施，制定卫生应急和紧急医学救援预案、突发公共卫生事件监测和风险评估计划，组织和指导突发公共卫生事件预防控制和各类突发公共事件的医疗卫生救援，配合相关部门发布和报送传染病疫情信息和突发公共卫生事件应急处置信息；拟订和实施全市防治艾滋病规划和措施。 3. 负责制定职责范围内的职业卫生、放射卫生、环境卫生、学校卫生、公共场所卫生、饮用水卫生管理规范、标准和政策措施；组织开展食品安全风险监测、评估，组织实施并公布食品安全标准，负责食品、食品添加剂及相关产品新原料、新品种的安全性审查。 4. 负责组织拟订基层卫生和计划生育服务、妇幼卫生发展规划和政策措施，指导全市基层卫生和计划生育、妇幼卫生服务体系建设，推进基本公共卫生和计划生育服务均等化，完善基层运行新机制和乡村医生管理制度；负责新型农村合作医疗的综合管理。 5. 负责医疗机构和医疗服务的行业准入管理并监督实施。制定医疗机构及其医疗服务、医疗技术、医疗质量、医疗安全以及采供血机构管理的规范、标准并组织实施，会同有关部门制定和实施卫生专业技术人员准入、资格标准，制定和实施卫生专业技术人员执业规则和服务规范，建立医疗机构医疗服务评价和监督管理体系。 6. 负责组织推进公立医院改革，建立公益性为导向的绩效考核和评价运行机制，建设和谐医患关系，提出医疗服务和药品价格政策的建议。 7. 实施国家药物政策和国家基本药物制度，参与制定或增补基本药物目录；组织实施基本药物采购、配送、使用的管理制度，会同有关部门提出基本药物目录内药品生产的鼓励扶持政策建议，提出国家基本药物价格政策的建议，参与制定药品法典。 8. 组织实施计划生育综合治理目标管理，协调推进有关部门、群众团体履行计划生育工作职责，负责拟订计划生育“三结合”工作规划并组织实施；组织实施促进全市出生人口性别平衡的政策措施。 9. 组织建立计划生育利益导向、计划生育特殊困难家庭扶助和促进计划生育家庭发展等机制；研究提出促进计划生育家庭发展的政策建议，建立与经济社会发展政策的衔接机制，提出稳定低生育水平政策措施。 10. 组织监测计划生育发展动态，提出发布计划生育安全预警预报信息建议，负责卫生和计划生育的统计、数据分析、信息综合及信息化建设，参与全市人口基础信息库及基层卫生信息化建设，依法组织实施统计调查；组织编报市级卫生和计划生育事业经费和基本建设支出预决算及计划生育药具需求计划，监管直属事业单位财务和国有资产。 11. 制定流动人口计划生育服务管理制度并组织落实， 推动建立流动人口卫生和计划生育信息共享和公共服务工作机制。 12. 组织拟订卫生和计划生育科技发展、人才发展规划，指导卫生和计划生育人才队伍建设。加强全科医生等急需紧缺专业人才培养， 建立完善住院医师和专科医师规范化培训制度并指导实施。 13. 组织实施卫生和计划生育相关科研项目；制定实施全市卫生和计划生育干部教育培训规划；参与制定医学教育发展规划，协同指导院校医学和计划生育教育，组织实施毕业后医学教育和继续医学教育。 14. 指导、完善卫生和计划生育综合监督执法体系， 规范执法行为，监督检查法律法规和政策措施的落实，完善计划生育目标管理责任制。 15. 制定卫生和计划生育宣传教育工作规划，组织开展卫生和计划生育宣传教育、健康教育和健康促进等工作；开展国际交流合作与援外工作，开展与港澳台的交流与合作。 16. 制定实施中医药和民族医药中长期发展规划。 17. 承担贵阳市干部保健委员会、市防治艾滋病工作委员会日常工作，负责市重大活动与重要会议的医疗卫生保障工作。 18. 承办市委、市政府和上级业务部门交办的其他事项。 （二）机构设置及部门决算单位构成 本单位（部门）内设22个处室，下属20个单位。从预算单位构成看，单位部门决算包括：本级决算、所属市第一人民医院、所属市第二人民医院、所属市第三人民医院、所属市第四人民医院、所属市第六医院、所属市口腔医院、所属市妇幼保健院、所属市公共卫生救治中心、所属市疾病预防控制中心、所属市卫生监督所、所属市急救中心、所属市妇幼保健研究所、所属市医学会、所属市妇计中心、所属市计划生育药具管理站、所属市人口计生计算机信息管理中心、所属市人口和计划生育执法支队、所属市计生协会、所属市药用植物园、所属市北京路社区卫生服务中心决算。 二、贵州省贵阳市卫生和计划生育委员会2018年度部门决算公开报表（见附表） 三、贵州省贵阳市卫生和计划生育委员会2018年度部门决算情况说明 （一）贵州省贵阳市卫生和计划生育委员会2018年度收入支出决算总体情况说明 贵州省贵阳市卫生和计划生育委员会2018年度收支决算总计404,803.39万元，与2017年相比，增加18,609.53万元，增长4.82%。主要原因是：下属公立医院等事业单位经费收入相比往年有所增加。 （二）贵州省贵阳市卫生和计划生育委员会2018年度收入决算情况说明 本年收入合计398,233.11万元，其中：财政拨款收入38,348.69万元，占9.63%；上级补助收入0万元，占0%；事业收入350,372.78万元，占87.98%；经营收入149.88万元，占0.04%；附属单位缴款0万元，占0%；其他收入9,361.76万元，占2.35%。 （三）贵州省贵阳市卫生和计划生育委员会2018年度支出决算情况说明 本年支出合计381,203.19万元，其中：基本支出362,806.06万元，占95.17%；项目支出18,247.24万元，占4.79%；上缴上级支出0万元，占0%；经营支出149.88万元，占0.04%；对附属单位补助支出0万元，占0%。 （四）贵州省贵阳市卫生和计划生育委员会2018年度财政拨款收入支出决算总体情况说明 贵州省贵阳市卫生和计划生育委员会2018年度财政拨款收支决算总计44,369.63万元。与2017年相比，增加1,150.05万元，增长2.66%。主要原因是：基本公共卫生服务、新型农村合作医疗基金、公立医院改革、疾病应急救助等项目卫生投入增加。 （五）贵州省贵阳市卫生和计划生育委员会2018年度一般公共预算财政拨款支出决算情况说明 1、一般公共财政拨款支出决算总体情况 贵州省贵阳市卫生和计划生育委员会2018年度一般公共预算财政拨款支出35,811.84万元，占本年支出合计的9.39%。与2017年相比，一般公共预算财政拨款支出减少1,037.02万元，降低2.81%。主要原因是：部分项目由于未履行完政府采购程序导致在当年未形成支出。 2、一般公共预算财政拨款支出决算结构情况35811.84 贵州省贵阳市卫生和计划生育委员会2018年度一般公共预算财政拨款支出主要用于以下方面：一般公共服务支出11 万元，占0%；科学技术支出1096.65 万元，占3 %；医疗卫生与计划生育支出34291.80万元，占96%；住房保障支出403.17万元，占1%；其他支出9.22万元，占0%。 3、一般公共预算财政拨款支出决算具体情况 贵州省贵阳市卫生和计划生育委员会2018年度一般公共预算财政拨款支出当年预算为51227.73万元，支出决算为35,811.84万元，完成当年预算的70 %。决算数小于预算数的主要原因是：部分项目预算资金下拨至区（市、县）使用，这部分资金不纳入本级决算之中 。其中： （1）一般公共服务支出（类）其他一般公共服务支出（款）其他一般公共服务支出（项）。当年预算为0万元，支出决算为11万元。决算数大于预算数的主要原因是：属于省级下拨资金，因无法预计未列入当年预算。 （2）科学技术支出（类）技术研究与开发（款）应用技术研究开发（项）。当年预算为3125.18万元，支出决算为694.17万元，完成当年预算的22%。决算数小于预算数的主要原因是：部分项目当年未完成，跨年使用。 （3）科学技术支出（类）科技条件与服务（款）机构运行（项）。当年预算为357.48万元，支出决算为357.48万元，完成当年预算的100%。 （4）科学技术支出（类）其他科学技术支出（款）其他科学技术支出（项）。当年预算为0万元，支出决算为45万元。决算数大于预算数的主要原因是：属于省级下拨资金，因无法预计未列入当年预算。 （5）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）行政运行（项）。当年预算为1482.64万元，支出决算为1729.6万元，完成当年预算的117%。决算数大于预算数的主要原因是：基本支出调整增加。 （6）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）其他医疗卫生与计划生育管理事务支出（项）。当年预算为2358.65万元，支出决算为4299.60万元，完成当年预算的182%。决算数大于预算数的主要原因是：年中调整增加预算支出。 （7）医疗卫生与计划生育支出（类）公立医院（款）综合医院（项）。当年预算为7047.28万元，支出决算为8617.38万元，完成当年预算的122%。决算数大于预算数的主要原因是：基本支出调整增加。 （8）医疗卫生与计划生育支出（类）公立医院（款）妇产医院（项）。当年预算为1121.01万元，支出决算为1199.26万元，完成当年预算的107%。决算数大于预算数的主要原因是：基本支出调整增加。 （9）医疗卫生与计划生育支出（类）公立医院（款）其他专科医院（项）。当年预算为531.22万元，支出决算为621.21万元，完成当年预算的117%。决算数大于预算数的主要原因是：基本支出调整增加。 （10）医疗卫生与计划生育支出（类）公立医院（款）其他公立医院支出（项）。当年预算为0万元，支出决算为91.47万元。决算数大于预算数的主要原因是：增加了省级下拨资金，这部分资金因无法预计未列入当年预算。 （11）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）城市社区卫生机构（项）。当年预算为580.96万元，支出决算为448.70万元，完成当年预算的77%。决算数小于预算数的主要原因是：部分项目资金跨年支付。 （12）医疗卫生与计划生育支出（类）公共卫生（款）疾病预防控制机构（项）。当年预算为2666.74万元，支出决算为3171.20万元，完成当年预算的119%。决算数大于预算数的主要原因是：基本支出调整增加。 （13）医疗卫生与计划生育支出（类）公共卫生（款）卫生监督机构（项）。当年预算为622万元，支出决算为694.93万元，完成当年预算的112%。决算数大于预算数的主要原因是：基本支出调整增加。 （14）医疗卫生与计划生育支出（类）公共卫生（款）妇幼保健机构（项）。当年预算为78.49万元，支出决算为87.2万元，完成当年预算的111%。决算数大于预算数的主要原因是：基本支出调整增加。 （15）医疗卫生与计划生育支出（类）公共卫生（款）应急救治机构（项）。当年预算为509.65万元，支出决算为568.85万元，完成当年预算的112%。决算数大于预算数的主要原因是：基本支出调整增加。 （16）医疗卫生与计划生育支出（类）公共卫生（款）基本公共卫生服务（项）。当年预算为6974.53万元，支出决算为3374.88万元，完成当年预算的48%。决算数小于预算数的主要原因是：有部分资金下拨至区（市、县）使用，不列入本级经费决算。 （17）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。当年预算为5082.61万元，支出决算为4110.80万元，完成当年预算的81%。决算数小于预算数的主要原因是：部分资金下拨至区（市、县）使用，不列入本级经费决算。 （18）医疗卫生与计划生育支出（类）公共卫生（款）突发公共卫生事件应急处理（项）。当年预算为100万元，支出决算为81.14万元，完成当年预算的81%。决算数小于预算数的主要原因是：医疗卫生应急资金具有特殊性，主要为了应急使用，立项后当年可能只部分使用。 （19）医疗卫生与计划生育支出（类）中医药（款）中医（民族医）药专项（项）。当年预算为405万元，支出决算为14.6万元，完成当年预算的4%。决算数小于预算数的主要原因是：大部分资金下拨至区（市、县）使用，不列入本级经费决算。 （20）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育机构（项）。当年预算为700.58万元，支出决算为765.52万元，完成当年预算的109%。决算数大于预算数的主要原因是：基本支出调整增加。 （21）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育服务（项）。当年预算为9086.12万元，支出决算为1286.60万元，完成当年预算的14%。决算数小于预算数的主要原因是：大部分资金下拨至区（市、县）使用，不列入本级经费决算。 （22）医疗卫生与计划生育支出（类）计划生育事务（款）其他计划生育事务支出（项）。当年预算为1392.50万元，支出决算为216.36万元，完成当年预算的16%。决算数小于预算数的主要原因是：大部分资金下拨至区（市、县）使用，不列入本级经费决算。 （23）医疗卫生与计划生育支出（类）医疗救助★（款） 疾病应急救助★（项）。当年预算为0万元，支出决算为40.41万元。决算数大于预算数的主要原因是：属于中央下拨资金，因无法预计未列入当年预算。 （24）医疗卫生与计划生育支出（类）其他医疗卫生与计划生育支出（款）其他医疗卫生与计划生育支出（项）。当年预算为1598.05万元，支出决算为2872.08万元，完成当年预算的180%。决算数大于预算数的主要原因是：增加了当年省级下拨资金，因无法预计未列入当年预算。 （25）城乡社区支出（类）其他城乡社区支出（款）其他城乡社区支出（项）。当年预算为0万元，支出决算为30.37万元。决算数大于预算数的主要原因是：全部资金属于省级下拨资金，因无法预计未列入当年预算。 （26）住房保障支出（类）住房改革支出（款）住房公积金（项）。当年预算为399.96万元，支出决算为403.17万元，完成当年预算的100%。决算数大于预算数的主要原因是：人员增减调整导致决算和预算不可能完全做到一致。 （27）其他支出（类）其他支出（款）其他支出（项）。当年预算为2200万元，支出决算为9.22万元，完成当年预算的0%。决算数小于预算数的主要原因是：年中调整减少项目预算支出。 （六）贵州省贵阳市卫生和计划生育委员会2018年度一般公共预算财政拨款基本支出决算情况说明 贵州省贵阳市卫生和计划生育委员会2018年度一般公共预算财政拨款基本支出17,772.56万元，其中：人员经费17,215.11万元，主要包括基本工资、津贴补贴、离退休费等；公用经费557.45万元，主要包括办公费、水电费、差旅费等。 （七）贵州省贵阳市卫生和计划生育委员会2018年度一般公共预算财政拨款“三公”经费支出决算情况说明 2018年度“三公”经费一般公共预算财政拨款支出决算125.86万元，比上年增加26.55万元，增长26.74%，增加原因是主要是所属未实行车改的事业单位公务车运行费用增长较大。其中，因公出国（境）费支出3.81万元，占3.02%，比上年增加3.24万元，增长565.36%，增加原因是因公出境人数由市委市政府控制，当年增加的人数和批次相比上年增加较多；公务用车购置及运行维护费支出119.79万元，占95.18%，比上年增加23.81万元，增长24.81%，增加原因是所属未实行车改的事业单位公务车由于年限较长，维修费及保养费比上年均有所提高；公务接待费支出2.26万元，占1.8%，比上年减少0.5万元，降低18.03%，减少原因是继续严格落实市委市政府公务接待费管理规定，接待报销必须提供“三单一函”，严格限制陪餐人数，接待以家常菜为主，不得提供烟酒。具体情况如下： （1）因公出国（境）费支出3.81万元。贵州省贵阳市卫生和计划生育委员会全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计1人次。开支内容包括赴北欧国家对医疗卫生进行学习考察开支： （2）公务用车购置及运行维护费119.79万元,其中，公务用车购置14.76万元，购置公务用车1辆；公务用车运行维护费105.04万元。主要用于车辆维修、保险、油料、过桥过路及临停等开支。2018年，单位开支财政拨款的公务用车保有量为43辆。 （3）公务接待费2.26万元。具体是： 国内公务接待支出2.26万元，主要是接待上级工作组检查及其他城市来筑考察学习等。贵州省贵阳市卫生和计划生育委员会2018年国内公务接待18批次，128人次。 （八）政府性基金预算收入支出决算情况说明 贵州省贵阳市卫生和计划生育委员会2018年政府性基金预算财政拨款本年收入0万元，本年支出0万元。 （九）其他重要事项的情况说明 1、机关运行经费支出情况 2018年贵州省贵阳市卫生和计划生育委员会机关运行经费支出237.8万元，比2017年减少52.85万元，降低18.18%，主要原因是坚持继续压缩行政性开支，提倡环保办公，严控公务接待支出等。 2、政府采购支出情况 2018年贵州省贵阳市卫生和计划生育委员会政府采购支出总额11167.07万元，其中：政府采购货物支出10650.48万元、政府采购工程支出206.66万元、政府采购服务支出309.93万元，授予中小企业合同金额248.64万元，占政府采购支出总额的2%，其中：授予小微企业合同金额158.33万元，占政府采购支出总额的1%。 3、国有资产占用情况 截至2018年12月31日，贵州省贵阳市卫生和计划生育委员会共有车辆128辆，其中，主要领导干部用车0辆、机要通信用车0辆、应急保障用车5辆、执勤执法用车5辆、特种专业技术用车50辆、离退休干部用车1辆、其他用车67辆（其他用车主要是：医院院内转运车等）；单位价值50万元以上通用设备217台（套），单位价值100万元以上专用设备202台（套）。 4、2018年度预算绩效情况说明 （1）预算绩效管理工作开展情况 根据财政预算管理要求，我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计1个项目进行了绩效自评，涉及资金2400万元，自评覆盖率达到7%。 （2）部分项目支出绩效自评结果 项目名称：妇幼健康服务 根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为93分。发现的主要问题及原因：一是各级各部门绩效管理意识还需要加强；二是绩效管理的方法和措施较为单一；三是部分单位资料收集不够规范；四是还需要进一步加强档案建设。', '资金及时足额拨付到位；各项工作稳步推进；各项绩效指标完成较好，达到国家和省要求；档案建设真实有效。', '四、名词解释 （一）财政拨款收入：指同级财政当年拨付的资金。 （二）上级补助收入：指事业单位从主管部门和上级单位取得的非财政补助收入。 （三）事业收入：指事业单位开展专业业务活动及其辅助活动所取得的收入。 （四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。 （五）附属单位缴款：指事业单位附属的独立核算单位按有关规定上缴的收入。 （六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。 （七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 （八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （九）结余分配：反映单位当年结余的分配情况。 （十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 （十二）项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 （十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。 （十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。 （十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 （十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。 （十七）一般公共服务支出（类）其他一般公共服务支出（款）其他一般公共服务支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置用于一般公共服务项目支出。 （十八）科学技术支出（类）科技条件与服务（款）机构运行（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置用于信息化建设的项目支出。 （十九） 科学技术支出（类）其他科学技术支出（款）其他科学技术支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置用于信息化建设的项目支出。 （二十）科学技术支出（类）其他科学技术支出（款）其他科学技术支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置用于信息化建设的项目支出。 （二十一）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）行政运行（项）。指贵阳市卫生和计划生育委员会及下属单位用于行政事务支出。 （二十二）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）其他医疗卫生与计划生育管理事务支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十三）医疗卫生与计划生育支出（类）公立医院（款）综合医院（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十四）医疗卫生与计划生育支出（类）公立医院（款）综合医院（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十五）医疗卫生与计划生育支出（类）公立医院（款）妇产医院（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十六）医疗卫生与计划生育支出（类）公立医院（款）其他专科医院（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十七）医疗卫生与计划生育支出（类）公立医院（款）其他公立医院支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十八）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）城市社区卫生机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （二十九）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）其他基层医疗卫生机构支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十）医疗卫生与计划生育支出（类）公共卫生（款）疾病预防控制机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十一）医疗卫生与计划生育支出（类）公共卫生（款）卫生监督机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十二）医疗卫生与计划生育支出（类）公共卫生（款）妇幼保健机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十三）医疗卫生与计划生育支出（类）公共卫生（款）应急救治机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十四）医疗卫生与计划生育支出（类）公共卫生（款）基本公共卫生服务（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十五）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十六）医疗卫生与计划生育支出（类）公共卫生（款）突发公共卫生事件应急处理（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十七）医疗卫生与计划生育支出（类）中医药（款）中医（民族医）药专项（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生支出。 （三十八）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育机构（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的计划生育项目支出。 （三十九）医疗卫生与计划生育支出（类）计划生育事务（款）计划生育服务（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的计划生育项目支出。 （四十）医疗卫生与计划生育支出（类）计划生育事务（款）其他计划生育事务支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的计划生育项目支出。 （四十一）医疗卫生与计划生育支出（类）医疗救助★（款） 疾病应急救助★（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的医疗卫生项目支出。 （四十二）医疗卫生与计划生育支出（类）其他医疗卫生与计划生育支出（款）其他医疗卫生与计划生育支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的卫生项目支出。 （四十三）城乡社区支出（类）其他城乡社区支出（款）其他城乡社区支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。 （四十四）其他支出（类）其他支出（款）其他支出（项）。指贵阳市卫生和计划生育委员会及下属单位为单独设置项级科目的其他项目支出。', '）医疗卫生与计划生育支出（类）医疗卫生与计划生育管理事务（款）其他医疗卫生与计划生育管理事务支出（项）。', '）医疗卫生与计划生育支出（类）基层医疗卫生机构（款）其他基层医疗卫生机构支出（项）。', '（四十）医疗卫生与计划生育支出（类）计划生育事务（款）其他计划生育事务支出（项）。', '）医疗卫生与计划生育支出（类）其他医疗卫生与计划生育支出（款）其他医疗卫生与计划生育支出（项）。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>245</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>市人民政府办公厅关于成立市政府推进政府职能转变和放管服改革协调小组的通知</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019-06-15</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2019/201906/t20190615_11362151.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['市人民政府办公厅关于成立市政府推进政府职能转变和“放管服”改革协调小组的通知 - 贵阳市人民政府公报', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市直属各事业单位，市管企业：', '为深入推进简政放权、放管结合、优化服务改革，加快政府职能深刻转变，市政府决定成立推进政府职能转变和“放管服”改革协调小组（以下简称协调小组）。现将有关事项通知如下：', '以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党中央、国务院，省委、省政府和市委、市政府决策部署，围绕推动高质量发展，加快推进政府职能深刻转变，统筹研究推进政府职能转变和“放管服”改革重要领域、关键环节的重大政策措施，研究拟提请市政府常务会议审议的有关重要事项，协调推动解决重点难点问题，指导督促全市各级各部门落实改革措施，更大限度激发市场活力、调动人的积极性和社会创造力。', '协调小组办公室承担协调小组的日常工作，负责沟通协调各专题组、保障组工作，联系全市“放管服”改革工作；收集汇总相关信息资料及各区（市、县、开发区）、各部门改革工作推进情况；组织开展政府职能转变和“放管服”改革重大问题调查研究，提出需要由协调小组研究决策的问题及相关建议；督促落实协调小组议定事项；完成协调小组交办的其他任务。', '协调小组下设精简行政审批组、优化营商环境组、激励创业创新组、深化商事制度改革组、改善社会服务组5个专题组和法治组、督查组、专家组、大数据发展保障组4个保障组。', '负责牵头推进行政审批制度改革、投资审批制度改革、工程建设项目审批制度改革。放权方面，协调推进清理和规范各类行政许可等管理事项，清理规范审批中介服务事项，继续清理精简投资项目审批、工程建设项目审批、核准等事项，推行区域评估、联合评审、并联审批等。监管方面，规范行政审批行为，审核并督促落实取消下放审批事项的事中事后监管措施，清理规范“红顶中介”。服务方面，协调推进行政审批标准化，推进审批服务便民化，持续开展减证便民行动，提高政府服务质量和效率。', '负责牵头优化营商环境，提高综合竞争力，打造竞争新优势。放权方面，推进实行市场准入负面清单制度，清理废除妨碍统一市场和公平竞争的各种规定和做法。扩大外资市场准入，促进民间投资，提升贸易便利化水平。监管方面，清理规范审批中介服务收费，完善收费监管制度，持续清理规范涉企收费。服务方面，加强产权保护，推动健全知识产权保护体系。配合推进水电气讯、银行等公用事业领域改革，提升服务质量效率。加强政务诚信建设。建立健全营商环境评价机制。', '负责牵头推进实施创新驱动发展战略，打造大众创业、万众创新升级版，深化政府数字治理，推进新旧动能接续转换。放权方面，协调推进科研经费使用和管理方式改革创新，赋予科研单位和科研人员更大自主权，提高创新成果转化效率，激发创业创新活力。协调推进放宽大数据、互联网及电子商务等新兴产业市场准入，发展和培育大数据核心业态、关联业态、衍生业态。监管方面，对新兴产业量身定制包容审慎监管模式和标准规范，坚守安全和质量底线。全面打造“数据铁笼”，推动政府提升对重点领域、重点行业的监管水平。服务方面，协调推动各类主体融通创新，破解创业创新融资难题。改革分配机制，健全保障体系，促进人才合理流动。深化职业资格管理制度改革，加强就业和技能服务，完善对新就业形态的支持措施。', '负责牵头深化商事制度改革，加强和完善市场监管，维护公平竞争市场秩序。放权方面，压缩企业开办时间，全面推开“证照分离”改革，深化“多证合一”改革，推进工业产品生产许可证制度改革，推行简易注销改革。监管方面，健全以“双随机、一公开”监管为基本手段、以重点监管为补充、以信用监管为基础的新型监管机制，推进跨部门联合监管和“互联网+监管”。规范执法行为和自由裁量权。服务方面，发挥标准的引领和规范作用，强化标准体系，健全认证认可检验检测体系。', '牵头负责协调推进卫生健康、养老、社保、教育、医疗保障以及社会管理等领域“放管服”改革，为人民群众提供便捷高效、公平可及的公共服务。放权方面，协调推进放宽服务业市场准入，调动市场力量增加非基本公共服务供给。监管方面，强化对政府窗口服务的监督，加强公共服务质量监管。服务方面，简化优化民生事项办理流程和手续，推进养老保险、医疗保险等事项异地联网办理。充分运用“互联网+教育”“互联网+医疗”等模式，增强优质公共服务资源辐射效应。', '各专题组的日常工作由组长单位牵头。各专题组负责调查研究本领域社会反响大、群众意见集中的问题，协调相关部门对重点难点问题合作攻关，提出改革建议。各专题组的改革建议可在请示市政府分管领导同志后，按程序提交协调小组会议审议。专题组的职责和组成可根据工作需要调整。', '负责对政府职能转变和“放管服”改革措施进行合法性审核，及时提出制修订相关法规规章的建议方案，推动相关法规规章立改废释工作，及时将成熟的改革经验制度化等。', '负责督促检查政府职能转变和“放管服”改革各项措施贯彻落实情况，核查督办各专题组提出的部门和地方改革中存在的问题，以及社会对有关改革反映强烈的问题。', '专家组由协调小组办公室负责邀请知名专家组成。受协调小组委托，围绕政府职能转变和“放管服”改革开展理论研究，提供政策咨询，客观公正地提出意见建议。', '负责为“放管服”改革工作提供信息技术保障，配合建立全省政府一体化政务数据中心体系，推动政务数据资源规范管理、汇聚和共享开放，整合自建审批业务系统，接入贵州省数据共享交换平台，以各部门优化业务流程为基础，推动行政审批和公共服务事项一站式办理。', '（一）协调小组要按照党中央、国务院和省委、省政府、市委、市政府决策部署，切实发挥好推进政府职能转变和“放管服”改革工作的统筹指导和督促落实作用。各专题组和保障组要根据职责分工，细化分阶段重点工作，制定可量化、可考核、有时限的目标任务。对跨领域、跨部门、跨层级的重大问题，要加大研究协调力度，及时督促解决，推动各项改革协同配套、整体推进。要尊重基层首创精神，及时总结推广典型经验做法。', '（二）市政府各部门要自觉扛起改革重任，做深化“放管服”改革的表率，涉及本部门的改革任务要及早落实，该放的权坚决放，该办的事加快办，该服务的服务好，主动帮助全市各级解决实际困难问题，支持各地先行先试。部门主要负责同志要切实负起领导责任，亲自抓好部署、协调和落实。', '（三）各区（市、县）人民政府、开发区管委会要完善政府职能转变和“放管服”改革推进机制，因地制宜，明确专人负责，锐意探索创新，创造更多管用可行的“一招鲜”。要主动对标先进，相互学习借鉴，形成竞相推进改革的生动局面，更大激发市场活力、增强内生动力、释放内需潜力，推动经济社会持续健康发展。', '（四）协调小组成员和各专题组、保障组组长、副组长需要调整的，由所在单位书面向协调小组办公室提出并按程序报批。', '为贯彻落实《关于成立市政府推进政府职能转变和“放管服”改革协调小组的通知》精神，加强对全市“放管服”改革工作的领导，特制定本工作规则。', '第一条 市推进政府职能转变和“放管服”改革协调小组（以下简称市放管服协调小组）是市政府议事协调机构，统一部署和组织全市推进政府职能转变和“放管服”改革相关工作，直接受市政府领导。', '第二条 市放管服协调小组设组长1人，由常务副市长担任；副组长2人，由分管副市长和市政府秘书长担任；成员若干人，由市政府办公厅和市直部门有关负责同志组成。', '第三条 市放管服协调小组设5个专题组和4个保障组。专题组有精简行政审批组、优化营商环境组、激励创业创新组、深化商事制度改革组、改善社会服务组；保障组有法治组、督查组、专家组、大数据发展保障组。', '第四条 市放管服协调小组下设市推进政府职能转变和“放管服”改革协调小组办公室（以下简称市放管服协调小组办公室），办公室设在市政府办公厅，具体工作由放管服改革工作处承担，负责市放管服协调小组日常事务工作。', '第五条 市放管服协调小组负责全市政府职能转变和“放管服”改革的总体设计、统筹协调、整体推进、督促落实、理论研究、技术保障。', '第六条 市放管服协调小组的主要职责是：以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党中央、国务院，省委、省政府和市委、市政府决策部署，围绕推动高标准要求、高水平开放、高质量发展，加快推进政府职能深刻转变，统筹研究推进政府职能转变和“放管服”改革重要领域、关键环节的重大政策措施，研究拟提请市政府常务会议审议的有关重要事项，协调推动解决政府职能转变和“放管服”改革重点难点问题，指导督促全市各级各部门落实改革措施，更大限度激发市场活力、调动人的积极性和社会创造力。', '第七条 市放管服协调小组根据工作需要，定期或不定期进行专题调研，包括开展重大课题研究、实地调研、召开座谈会等。专题调研安排由市放管服协调小组办公室根据市放管服协调小组组长要求提出建议并组织实施。', '第八条 市放管服协调小组会议由组长（或由其委托副组长）召集和主持，根据工作需要不定期召开，会议的主要任务是对推进政府职能转变和“放管服”改革重大事项进行研究、部署。', '第九条 市放管服协调小组会议议题一般由市放管服协调小组办公室按照组长要求研究提出建议，报组长（或由其委托副组长）同意后确定；也可由专题组和保障组提请，经市放管服协调小组办公室报请组长同意后确定。', '第十条 市放管服协调小组会议纪要，需经副组长审阅后由组长签发。会议纪要印发市放管服协调小组组长、副组长、成员，专题组和保障组组长、副组长，以及与会议决定有关的领导同志和区（市、县）、开发区和市直有关部门。', '第十一条 根据需要，适时召开全市推进政府职能转变和“放管服”改革大会，主要任务是贯彻落实国务院关于政府职能转变和“放管服”改革有关精神，总结年度工作，安排部署相关工作。会议由市放管服协调小组办公室拟定方案并筹备，报市放管服协调小组组长同意后召开。', '第十二条 各区（市、县）人民政府，开发区管委会结合各自实际，比照省、市建立推进政府职能转变和“放管服”改革协调小组，根据省、市放管服协调小组的统一部署，负责组织本地政府职能转变和“放管服”改革有关工作。', '第十三条 各区（市、县）人民政府，开发区管委会和市直各单位，关于政府职能转变和“放管服”改革的重大决定和重要方案，应向市放管服协调小组办公室备案。', '为贯彻落实《关于成立市政府推进政府职能转变和“放管服”改革协调小组的通知》精神，加强对全市“放管服”改革工作的领导，特制定本工作细则。', '第一条 市推进政府职能转变和“放管服”改革协调小组办公室（以下简称市放管服协调小组办公室）是市推进政府职能转变和“放管服”改革协调小组（以下简称市放管服协调小组）常设办事机构，设在市政府办公厅，具体工作由市政府办公厅放管服改革工作处承担。', '第二条 市放管服协调小组办公室由市放管服协调小组领导，负责处理市放管服协调小组日常事务工作。市政府秘书长兼任市放管服协调小组办公室主任，市政府分管“放管服”改革工作的副秘书长兼任办公室常务副主任，各专题组、保障组组长兼任办公室副主任。', '第三条 市放管服协调小组办公室履行总调度和总协调职能，拟定工作要点，制定工作计划，起草工作总结，积极指导督促各专题组、保障组和各区（市、县）人民政府，开发区管委会及市有关单位贯彻落实“放管服”改革领域工作任务。', '第四条 市放管服协调小组办公室负责向市放管服协调小组报送年度推进政府职能转变和“放管服”改革工作报告和工作建议，研究处理有关方面向市放管服协调小组提出的重要改革事项等。', '第五条 市放管服协调小组办公室负责沟通协调各专题组和保障组工作，联系全市各级各部门推进政府职能转变和“放管服”改革工作，组织落实国务院放管服协调小组、省放管服协调小组和市放管服协调小组的各项决策部署，做好信息宣传等工作。', '第六条 市放管服协调小组办公室负责转发或办理涉及推进政府职能转变和“放管服”改革方面的来文和相关业务；负责协调办理涉及推进政府职能转变和“放管服”改革方面跨专题组和保障组，跨部门的来文和相关业务。', '第七条 根据工作需要，适时召开办公室会议及专题协调会议，专题组、保障组联络员会议等，沟通各领域“放管服”改革进展情况和动向、研究部署“放管服”改革相关工作。', '第九条 办公室会议由主任或由主任委托常务副主任召集和主持。会议主要任务是：研究需提交市放管服协调小组审议决定的事项，落实市放管服协调小组决议的工作部署；研究“放管服”改革的工作制度、推进方案、工作要点、工作总结；研究“放管服”改革事项的检查、督促和评估工作；研究专题组和保障组提议研究的重要工作；通报交流全市推进政府职能转变和“放管服”改革进展情况、做法、经验，征求“放管服”改革领域重大政策措施和重大改革事项的意见建议；其他需要研究的事项。', '第十条 专题协调会议、专题组和保障组联络员会议，由市放管服协调小组办公室主任或委托的副主任召集和主持，主要研究部署、沟通协调各组推进政府职能转变和“放管服”改革相关工作。具体会议内容和参会人员由市放管服协调小组办公室主任决定。', '第十一条 市放管服协调小组办公室承担办公室会议及专题协调会议、专题组和保障组联络员会议的会务工作，负责会议记录，按程序报签、印发和归档管理会议纪要。', '第十三条 市放管服协调小组及其办公室文件制度参照《党政机关公文处理工作条例》建立，执行相应拟制、办理、管理等规范。根据省政府要求，需要报备的严格按程序报备。', '第十四条 文件起草。市放管服协调小组及其办公室文件一般由市放管服协调小组办公室负责起草，也可指定由专题组和保障组、成员单位代拟。起草涉及面宽、综合性强的重要文件应充分征求成员单位及各区（市、县）人民政府、开发区管委会意见建议。', '第十五条 文件审核。市放管服协调小组及其办公室文件审批应当严格按照分工和权限进行。市放管服协调小组文件，由市放管服协调小组办公室主任审核，报市放管服协调小组组长签发；市放管服协调小组办公室文件由办公室主任签发。', '第十六条 行文规则。行文应当确有必要，讲求实效，注重针对性和可操作性。涉及多个部门职权范围内的事务，部门之间协商一致方可发文。各专题组和保障组相应职能职责的单项工作任务，需成员单位和区（市、县）人民政府、开发区管委会及相关部门知晓和共同执行的，可由市放管服协调小组办公室与相关部门联合行文。', '第十七条 工作调度。市放管服协调小组办公室负责根据年度工作要点督促并收集汇总各专题组报送相关领域“放管服”改革实施方案，形成总台账和时间表，向市放管服协调小组汇报。', '第十八条 督查工作。建立督查制度，每年年初由督查组拟定督查方案，报市放管服协调小组办公室备案后组织实施。督查组要采取规范、科学、高效的督查方式，督促和推动各地区各部门深化“放管服”改革，督查结果报市放管服协调小组办公室。', '第十九条 联络协调。市放管服协调小组办公室负责沟通协调各专题组和保障组工作，联系全市各级各部门推进政府职能转变和“放管服”改革工作。', '第二十条 调查研究。结合党中央、国务院和市委、市政府决策部署，委托专家组、法治组及市直有关单位，开展推进政府职能转变和“放管服”改革重大问题的调查研究，向市放管服协调小组提出工作建议。', '第二十一条 技术支撑。市放管服协调小组办公室依托大数据发展保障组，为“放管服”改革提供信息技术支撑保障。', '第二十二条 工作培训。市放管服协调小组办公室负责制定市推进政府职能转变和“放管服”改革培训计划、培训方案，按程序报协调小组组长或副组长批准实施。培训采取全面培训与专项培训、会议培训与考察学习相结合方式进行。', '第二十三条 信息编发。市放管服协调小组办公室负责收集汇总“放管服”改革领域相关信息资料、典型事例和工作推进落实情况，编制、报签和印发“放管服”改革工作简报、专报和通报，梳理汇编“放管服”改革工作相关政策文件和制度规范。', '第二十四条 宣传报道。市放管服协调小组办公室负责联系主管部门组织媒体对我市推进政府职能转变和“放管服”改革做好政策宣传解读和舆论引导工作，提高社会各界对我市推进政府职能转变和“放管服”改革工作的知晓度和支持度。', "第二十五条 印章管理。市放管服协调小组办公室文件加盖“贵阳市推进政府职能转变和'放管服'改革协调小组办公室”印章生效。“贵阳市推进政府职能转变和'放管服'改革协调小组”和“贵阳市推进政府职能转变和'放管服'改革协调小组办公室”印章由市放管服协调小组办公室明确专人负责管理，并按签批程序使用。", '第二十六条 各区（市、县）人民政府、开发区管委会，相应建立放管服协调小组办公室，负责组织本地推进政府职能转变和“放管服”改革有关工作。', '第二十七条 推进“放管服”改革的调研、宣传、督查、文件起草、会议及相关资料印刷等工作运行经费，按照分级分部门负担原则，由市、区（市、县、开发区）分别承担。市级“放管服”改革工作运行经费，由市放管服协调小组办公室测算、申报，列入市级财政预算。', '第一条 市推进政府职能转变和“放管服”改革协调小组专题组和保障组（以下简称专题组和保障组）是市推进政府职能转变和“放管服”改革协调小组（以下简称市放管服协调小组）下设两种类型的工作组，承担市放管服协调小组部署的工作任务。', '第二条 专题组有精简行政审批组、优化营商环境组、激励创业创新组、深化商事制度改革组、改善社会服务组等5个组，保障组有法治组、督查组、专家组、大数据发展保障组等4个组。', '第三条 各专题组设组长1人，由市政府副秘书长或市直部门主要负责同志担任；副组长若干人，由市直部门有关负责同志担任；各保障组设组长1人，由市政府副秘书长或市直部门主要负责同志等担任。', '第四条 专题组围绕精简行政审批、优化营商环境、激励创业创新、改善社会服务、深化商事制度改革等方面开展工作。', '（一）精简行政审批组。组长由市政府分管副秘书长担任，副组长由市发展改革委、市司法局、市住房城乡建设局、市市场监管局、市政务服务中心等单位有关负责同志担任。负责牵头推进行政审批制度改革、投资审批制度改革、工程建设项目审批制度改革等。', '（二）优化营商环境组。组长由市发展改革委、市投资促进局主要负责同志担任，副组长由市发展改革委、市工业和信息化局、市财政局、市自然资源和规划局、市生态环境局、市住房城乡建设局、市水务局、市商务局、市市场监管局、市大数据局、市金融办、市综合行政执法局、市公共资源交易中心、市政务服务中心等单位有关负责同志担任。负责牵头优化营商环境，提高综合竞争力，打造竞争新优势。', '（三）激励创业创新组。组长由市发展改革委主要负责同志担任，副组长由市教育局、市科技局、市工业和信息化局、市财政局、市人力资源和社会保障局、市大数据局、市国资委、市市场监管局、市金融办等单位有关负责同志担任。负责牵头推进实施创新驱动发展战略，打造大众创业、万众创新升级版，深化政府数字治理，推进新旧动能接续转换。', '（四）深化商事制度改革组。组长由市市场监管局主要负责同志担任，副组长由市发展改革委、市生态环境局、市交委、市农业农村局、市文化和旅游局、市大数据局、市商务局、市税务局等单位有关负责同志担任。负责牵头深化商事制度改革，加强和完善市场监管，维护公平竞争市场秩序。', '（五）改善社会服务组。组长由市政府分管副秘书长担任，副组长由市发展改革委、市教育局、市公安局、市司法局、市民政局、市人力资源和社会保障局、市卫生健康局、市医保局、市大数据局、市政务服务中心等单位有关负责同志担任。负责协调推进卫生健康、养老、社保、教育、医疗保障以及社会管理等领域“放管服”改革，为人民群众提供便捷高效、公平可及的公共服务。', '第五条 保障组主要从法律法规、督查落实、理论研究、大数据支撑等方面为政府职能转变和“放管服”改革提供保障。', '（一）法治组。组长由市司法局主要负责同志担任。承担推进政府职能转变和“放管服”改革措施的合法性审核等工作。', '（二）督查组。组长由市督办督查局主要负责同志担任。负责督促检查推进政府职能转变和“放管服”改革各项措施贯彻落实情况。督查组年初拟定督查方案，组织实施“放管服”改革督查，督促和推动全市各级各部门深化政府职能转变和“放管服”改革，督查结果报市放管服协调小组办公室。', '（三）专家组。由市政府办公厅邀请知名专家组成，围绕推进政府职能转变和“放管服”改革开展理论研究，提供政策咨询和决策参考。', '（四）大数据发展保障组。组长由市大数据局主要负责同志担任，副组长由市教育局、市公安局、市民政局、市人力资源和社会保障局、市自然资源和规划局、市生态环境局、市住房城乡建设局、市交委、市卫生健康局、市市场监管局、市医保局、市税务局、市公共资源交易中心、市政务服务中心等单位有关负责同志担任。承担为“放管服”改革工作提供信息技术保障，配合建立全省政府一体化政务数据中心体系，推动政务数据资源规范管理、汇聚和共享开放，整合自建审批业务系统，接入贵州省数据共享交换平台，以各部门优化业务流程为基础，推动行政审批和公共服务事项一站式办理。', '第六条 专题组和保障组根据工作需要召开全体会议和专题会议。会议由各组组长召集和主持，会议出席人员为专题组和保障组的组长、副组长、成员，根据会议议题可邀请其他相关单位负责同志列席会议。', '第七条 专题组和保障组会议主要任务是：围绕自身职能职责制定工作方案并推进相关领域“放管服”改革工作，贯彻落实协调小组决策部署，研究需提交市放管服协调小组审议决定的事项，协调解决相关领域推进“放管服”改革存在的困难问题，其他需要研究解决的事项。', '第九条 组长负责制。专题组和保障组实行组长负责制，各组组长对照中央、省、市出台的“放管服”改革领域重要方案和重大事项，紧紧围绕各组主要职责任务，及时组织研究对接跟进，出台贯彻落实的具体举措。专题组和保障组的日常工作由组长单位承担。', '第十条 工作报送。专题组和大数据发展保障组每年初向市放管服协调小组办公室报送相关领域推进政府职能转变和“放管服”改革实施方案，每月书面报送工作进展情况，半年和年终报送工作总结。', '第十一条 沟通协调。各专题组和保障组明确1名工作责任心强的业务骨干（原则上为科级干部）为联络员，加强与市放管服协调小组办公室联系，确保改革工作对接顺畅。拟提交市放管服协调小组会议审议的文件，需经专题组或保障组组长同意后方可提交。', '第十二条 人员调整。各专题组和保障组组长、副组长等人员需要调整的，由所在单位书面向市放管服协调小组办公室提出，由市放管服协调小组办公室按程序报市放管服协调小组组长审定，并通报有关地方和部门。', '第十三条 调查研究。专题组和保障组要适时组织专题调研，查找分析相关领域推进“放管服”改革存在的问题，总结提炼成功的做法和经验，提出政策建议，形成的调研成果报市放管服协调小组办公室备案。', '第十四条 信息报送。专题组和大数据发展保障组每月底前向市放管服协调小组办公室书面报送至少2篇工作信息或动态。', '第十五条 专题组和保障组推进相关领域“放管服”改革的调研、宣传、督查、文件起草、会议及相关资料印刷等工作运行经费，由组长单位承担，列入市级财政预算。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>245</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>贵阳贵安党政代表团在长沙市湘江新区学习考察</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240301_83868674.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['2月28日至29日，贵阳贵安党政代表团在长沙市、湘江新区学习考察。湖南省委常委、长沙市委书记吴桂英，贵州省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄，湖南省政府副省长，长沙市委副书记、市长周海兵参加。', '贵阳市委副书记、市长，贵安新区党工委副书记、管委会主任马宁宇；长沙市委副书记，湖南湘江新区（长沙高新区）党工委书记，岳麓区委书记谭勇；长沙市、湘江新区领导何朝晖、彭华松、陈澎、邹特、肖正波、李伟群、张能峰、彭涛、陈剑文、李舜，贵阳市、贵安新区领导刘本立、黄波、杨志伟、黄成虹、王启云、龙丛、刘岚、付涛参加。', '长沙市是长江中游地区重要的中心城市，当前正全面落实“三高四新”美好蓝图，全力推动长沙高质量发展和现代化建设。来到长沙规划展示馆，代表团一行认真听取介绍，通过展板、图片、视频等方式，详细了解长沙历史、规划、产业等方面情况。胡忠雄、马宁宇指出，长沙建设“十个重大城市片区”的做法十分值得学习，贵阳贵安各级各部门要深入学习贯彻习近平总书记视察贵州重要讲话精神，合理划分城市功能区域，不断优化“强省会”的空间载体，更好实现以产兴城、以城促产、产城融合的良性互动。在马栏山视频文创园，代表团一行实地察看园区建设，详细了解产业布局、规模和技术优势等方面情况。胡忠雄、马宁宇说，希望双方牢牢把握数字经济发展机遇，积极在算力、数字技术等领域寻求合作，为促进两地文化事业、文化产业高质量发展贡献更多力量。在长沙经济技术开发区，代表团一行先后走进三一集团、博世汽车、星朝汽车、蓝思科技、铁建重工，实地参观企业展厅、生产线，详细了解企业发展现状、技术优势、智能制造等情况。胡忠雄、马宁宇强调，充分学习借鉴长沙在智能制造领域形成的好经验好做法，是本次学习考察的重要课题之一。贵阳贵安要找准产业定位，高起点做好智能制造发展规划，积极鼓励和引导企业进行数字化改造，不断优化生产要素配置，为培育和形成新质生产力提供有力支撑。在太平老街、贾谊故居，代表团一行认真听取历史文化街区保护、利用介绍，详细了解街区规划建设、业态布局等情况。胡忠雄、马宁宇指出，历史文化是一座城市的宝贵财富。贵阳贵安要深刻把握历史文脉、文化传承、文物保护利用之间的关系，着力强化科技赋能，全力打造一批叫得响、立得住、有特色的文化品牌，让城市建设与文化文脉传承相得益彰。', '湖南湘江新区是中部地区首个国家级新区，范围涵盖岳麓区全境、望城区和宁乡市部分街镇。来到新区城市馆，代表团一行仔细听取讲解、详细询问情况，系统了解新区规划及近年发展成果。胡忠雄、马宁宇要求贵安新区紧盯“一极一高地两示范”战略定位，认真学习借鉴湘江新区发展经验，完善两区优势互补合作机制，加快推动相关学习考察成果落地转化，持续巩固新区高质量发展良好势头。在岳麓书院、岳麓山大学科技城，代表团一行认真听取书院发展历史介绍，深入了解科技城体制机制、人才培养、科技创新等方面情况。胡忠雄、马宁宇说，希望两地聚焦科技课题、科技平台及科技成果转化，积极探索合作路径、模式，更好把科技创新这个“关键变量”真正转化为推动高质量发展的“最大增量”。在橘子洲、大王山旅游度假区形象展示中心，代表团一行实地考察旅游资源管理、运营维护、发展思路等情况，胡忠雄、马宁宇指出，要坚持以文塑旅、以旅彰文，扎实做好产业定位、建设主体培育、运营管理优化各项工作，不断擦亮“爽爽贵阳”靓丽名片。在水羊集团、中联智慧产业城，代表团一行详细了解企业科研投入及数字技术应用情况。胡忠雄、马宁宇强调，要坚定不移把科技创新摆在更加重要位置，扎实做好科技型企业梯次培育、分类指导、精准服务各项工作，为“强省会”提供有力支撑。', '长沙市有关区（县、开发区），贵阳市各区（市、县、开发区），长沙市和贵阳贵安有关部门负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>245</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>贵阳市十二五循环经济发展专项规划</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2012-10-30</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/ztzl/rdzt/ghgj/zxgh_5888934/202111/t20211115_71669571.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['《贵阳市“十二五”循环经济发展专项规划》已经市人民政府批复同意，现印发给你们，请认真贯彻执行。', '循环经济是一种以资源的高效利用和循环利用为核心，以“减量化、再利用、资源化”为原则，以低消耗、低排放、高效率为基本特征，符合可持续发展理念的经济增长模式，是对“大量生产、大量消费、大量废弃”的传统增长模式的根本变革。加快发展循环经济，是调整经济结构、转变发展方式的有效途径。近几年，中央提出了科学发展观的重大战略思想，并就全面协调可持续发展作出了一系列重大部署。国务院先后发布了《关于加快发展循环经济的若干意见》、《关于加强节能工作的决定》、《关于促进资源型城市可持续发展的若干意见》等重要文件，明确了建设生态文明、发展循环经济的战略目标。《中华人民共和国循环经济促进法》于2009年1月起正式实施。各地区、各部门认真落实中央决策，从多方面采取措施推进循环经济发展，取得积极成效。', '贵阳市较早开展循环经济发展探索，是国家发展改革委确定的全国首批循环经济试点城市之一，先后制定和实施了《贵阳市循环经济城市试点建设方案》、《贵阳市加快发展循环经济的决定》、《贵阳市循环经济实施条例》，将发展循环经济、建设资源节约型和环境友好型社会列入政府工作重点。全市各区（市、县）、市直各部门也将该项工作纳入重要工作内容，不断深化壮大循环经济，全市发展循环经济工作呈现良好态势。', '“十一五”以来，贵阳市循环经济持续发展，取得了阶段性的进展，循环经济产业初步建立，保障循环经济发展的机构、制度逐步完善。但是，从总体上来看，仍处于试点探索阶段，推进循环经济发展还面临诸多问题和困难，需进一步综合协调各种因素，加强规划引导规范，拓展循环经济领域，壮大循环经济规模、促进合理布局。', '为理清思路，明确重点，加强保障，使循环经济试点工作稳步推进，促进经济社会可持续发展，按照市政府安排，贵阳市发展改革委组织编制《贵阳市“十二五”发展循环经济专项规划》（以下简称《规划》）。', '2、《中华人民共和国国民经济和社会发展第十二个五年规划纲要》（十一届全国人大第四次会议通过）；', '5、《贵州省国民经济和社会发展第十二个五年规划纲要》（贵州省第十一届人民代表大会第五次会议通过）；', '贵阳是低纬度高海拔的高原地区，处于费德尔环流圈，常年受西风带控制，属于亚热带湿润温和型气候，兼有高原性和季风性气候特点。年平均气温为，年极端最高温度为，年极端最低温度为，年平均相对湿度为77%，年平均总降水量为，年平均阴天日数为235.1天，年平均日照时数为1148.3小时，年降雪日数少，平均仅为11.3天。夏无酷暑，冬无严寒，空气不干燥，四季无风沙，气候宜人。', '经过多年发展，贵阳市已形成装备制造业、磷煤化工业、烟草制品业、现代制药业、铝及铝加工业、特色食品业六大特色产业。', '贵阳市已形成小河、高新区装备制造业聚集区和小河—孟关装备制造生态工业园、麦架-沙文高新技术产业园，正在推进修文扎佐装备制造业用特殊钢生产基地建设。形成了开阳县、息烽县磷煤化工循环经济产业带和清镇市煤化工、煤焦油精细加工产业园区。形成了白云铝及铝加工基地、清镇生产基地。医药产业方面，逐步向修文扎佐、乌当、清镇医药工业园区集聚。在小河区建设完成了贵州中烟工业公司贵阳卷烟生产基地，初步形成以南明区、乌当区为主体的特色食品企业聚集地产业园区。优化物流节点及空间布局，以《贵阳市现代物流发展规划(2008——2020)》的“一环、三带、九结点”物流空间布局为基础，着力推进重点产业物流配套，初步形成了服务于六大产业的物流体系和城乡物流配送体系。', '自2006年被国家发展改革委列为首批试点城市以后，贵阳市按照国家试点的要求，加强循环经济发展研究，切实抓好《贵阳市循环经济试点城市实施方案》的制定和实施，取得了积极成效。', '贵阳市出台了《中共贵阳市委、贵阳市人民政府关于加快发展循环经济的决定》，设立了1000万元的市级循环经济发展专项资金，并明确市级其他有关专项资金必须大力支持各领域循环经济发展。', '将《贵阳市循环经济促进条例》列为市政府立法内容并进入了立法程序，开展了《贵阳市餐厨废弃物管理办法》的拟定和报批工作。形成了《贵阳市循环经济发展的回顾与前瞻》、《贵阳市十一五循环经济发展报告》、《贵阳市循环经济发展案例报告》等一批循环经济理论研究成果。编制完成了《息烽磷煤化工循环经济园区规划》、《开阳磷煤化工生态工业园区控制性详细规划》等园区生态化规划。', '在市发展改革委成立资源节约与环境保护处，承担市循环经济试点办公室职能。市环保局、市科技局、市工信委、市农委、市住建局等有关部门均为市循环经济办公室成员单位，各区（市、县）也对应成立了相关机构，循环经济发展基本具备了较为完善的法律、政策、制度保障。', '贵阳市对各领域循环经济项目进行资金支持。从2008年起，通过贷款贴息、项目补助等方式，累计安排3000余万元用于企业发展循环经济项目。同时，明确市级科技发展专项资金、技术改造资金、乡镇企业发展资金均不少于30%用于发展循环经济。通过市级各类资金引导扶持，形成企业小循环、园区中循环、社会大循环的循环经济格局。', '企业层面，实施完成了磷都公司黄磷尾气综合利用制甲酸，新鑫公司黄磷尾气及磷渣综合利用制草酸酯、加气混凝土，开磷集团磷石膏综合利用制磷石膏砖等循环经济项目。', '园区层面，实施完成了开磷120吨磷铵、开阳化工公司50万吨合成氨项目，启动了安达公司氯碱项目，基本形成磷—煤—碱共生耦合产业体系；实施完成了紫江水泥公司综合利用黄磷渣生产特种水泥，市公交公司回收利用开磷集团合成氨驰放气制车用燃料（LNG）及配套的城市公交油改气工程，工业废物利用能力快速提升。', '社会层面，建成了覆盖城乡的绿色回收站（亭）500余个和贵阳废旧金属市场、贵阳金恒再生资源交易中心、贵阳报废汽车拆解中心、贵阳市再生资源分拣中心等城市废弃物利用项目，开办了全省首家收废网站——贵阳收废网，编制完成了《贵阳市城市矿产基地实施方案》，开展了贵阳市城市废弃物循环经济综合处理厂前期选址等工作。', '农业循环经济方面，建成了台农公司生猪养殖基地沼气利用、南江现代农业公司沼气利用及畜禽粪便生产有机肥等项目，形成了以“草、畜、沼、（菜）果”为代表的农业循环经济发展模式。', '通过多年建设，贵阳市循环经济产业体系形成了年综合利用工业废气9000余万立方米以上，工业固体废物240余万吨、农业废弃物5万吨的循环经济项目产能。通过试点项目实施，黄磷尾气、焦化尾气、合成氨尾气等尾气综合利用为基础的碳一化工技术、纯低温余热发电、湿法磷酸节能降耗萃取工艺、工业废渣制建材等一批先进适用技术得到应用，一批成熟的农业循环经济技术得到推广，循环经济发展的科技支撑能力逐步增强。', '贵阳市围绕大力发展循环经济主题，开展了形式多样的系列宣传教育活动，各类媒体加大了循环经济理念、实践和先进典型经验的宣传力度，开展了形式多样的循环经济、绿色经济宣传。通过论坛、培训、展览会和普及宣传等形式，使循环经济、低碳发展理念逐步深入人心，发展循环经济正逐步成为各级政府部门、各类企业和广大人民群众的自觉行动。', '贵阳市正处于工业化、城市化加速发展阶段。2010年，全市GDP突破1000亿元，完成了“十一五”节能减排任务，但是，与中东部省会城市相比，在经济发展质量、规模上还存在较大差距，节能减排面临的形势依然十分严峻。“十一五”以来，由于主要产品市场和销售价格的急剧动荡，我市吨磷矿资源产出率一直在400～500元之间徘徊，吨铝土矿资源产出率也仅为1300元左右。资源性产业比重高，产业之间耦合度不强，产业链短、加工深度不高的状况需要尽快改变。随着能源、优势原材料等产业的快速发展，加上人口增长、城镇化进程加速，能源、水、土地、矿产等资源不足的矛盾将日显突出，生态和环境压力也会越来越大。贵阳市必须要在“十一五”的基础上，深入推进国家循环经济城市试点建设，进一步转变全社会观念，加大科学技术支撑，完善法规和政策约束，加强资金引导和激励，才能实现“又好又快发展”和可持续发展的目标。', '（1）《国家十二五规划纲要》明确提出了要大力发展循环经济，按照减量化、再利用、资源化的原则，减量化优先，以提高资源产出效率为目标，推进生产、流通、消费各环节循环经济发展，加快构建覆盖全社会的资源循环利用体系。', '（２）贵州省在“十二五”规划将“加速发展，加快转型，推动跨越”确定为贵州“十二五”发展的主基调，把推进经济结构战略性调整作为加快转变经济发展方式的主攻方向；把贵阳市作为带动全省发展和黔中经济区崛起的“火车头”、“发动机”，举全省之力支持贵阳加快发展。', '（3）贵阳市在《国民经济和社会发展第十二个五年规划纲要》中提出巩固提升生态优势，增强可持续发展能力作为“十二五”发展的主要任务之一，为加大环境保护力度，加强生态建设，合理开发利用资源，进一步发展循环经济，巩固试点成果，扩大循环经济活动规模提供有力的支持和保障。', '（4）贵阳市2011年6月被财政部、国家发展改革委列为全国节能减排财政政策综合示范试点，按照试点要求，需从工业低碳化、交通清洁化、主要污染物减量化等6个方面编制实施方案。试点方案通过后，国家将按照财政政策给予支持。对贵阳市加快循环经济、摸清项目底数、做好项目储备等工作具有积极重要意义。', '（5）贵阳市作为全国首批循环经济试点城市，通过试点工作，部分生态产业基地已经初具规模。开阳、息烽磷化工产业基地，清镇煤化工基地及扎佐医药工业园等循环经济园区已具备一定规模，部分企业层面循环格局已经形成。公众的资源意识、环境意识进一步增强，对产品和消费的绿色环保要求不断提高。支撑循环经济发展的体制机制、人才技术、政策法规等都取得较大进展，已经具备较好的工作基础。', '（6）2011年，贵阳市循环经济工作被选入全国循环经济发展典型案例模式，2012年，在国务院出台的《关于进一步促进贵州经济社会又好又快发展的若干意见》（国发〔2012〕2号）意见中，明确提出支持贵阳市循环经济试点城市建设。贵阳市循环经济发展已经拥有较好的外部政策条件。', '经过多年试点建设，全社会对循环经济理念逐步接受，但在部分地区、部分企业也还存在重发展速度、轻发展质量或者是理解片面等问题，有的简单地认为循环经济等同于环境保护，对清洁生产、集约发展、循环利用资源、提倡绿色消费、建设生态文明的意识尚待深化。', '由于基础条件不同，贵阳市循环经济的发展在地区之间、行业之间、企业之间、工业和农业之间还存在较大差距，相比较而言，工业循环经济、农业循环经济发展较好，已经积累了较好的经验，总结出了一套推广模式，但还有一些关键的资源综合利用技术尚未取得最终突破，城市废弃物回收利用，特别是综合利用方面还存在不足。另外循环经济管理、技术研发人才等还相对缺乏。', '贵阳市促进循环经济发展的科技研发能力较弱，发展循环经济仍存在很多技术瓶颈，如磷石膏、赤泥等大宗工业固废利用，工业园区能源梯级利用、绿色制造、相关产业链接技术的研发和推广有待加强。', '由于生产者责任延伸制度不完备，更加严格的环保执法欠到位，企业缺乏加大投入的内在动力和外在压力；各级政府由于人力财力原因，支持发展循环经济的稳定投入机制也尚未形成。', '若干资源性产品的价格形成机制未能充分反映资源稀缺程度、环境损害成本及供求关系，“污染者付费”的原则尚未完全落实，资源循环利用还存在某些政策障碍。', '2009年《中华人民共和国循环经济促进法》实施以来，国家还没有出台相关配套法规和考核体系，缺乏外在动力和内在利益形成机制，必然导致难以全面纵深推进，难以激励企业发展循环经济。目前我市尚未形成发展循环经济的政策保障体系，还需完善技术改造、税收优惠、生态补偿、人才引进等方面的鼓励性政策。', '进一步深入落实科学发展观，紧扣科学发展的主题，围绕转变经济发展方式的主线，突出加速发展、加快转型、推动跨越的主基调，结合国家循环经济城市试点建设，充分发挥比较优势，以建设资源节约型、环境友好型社会为目标，遵循统筹规划、合理布局、因地制宜、注重实效、政府推动、市场引导、企业实施、公众参与的方针，在生产、流通、消费领域全面贯彻“减量化、再利用、资源化”原则，健全法律法规，完善政策措施，促进产业结构优化，形成节约能源资源和保护生态环境的增长方式和消费模式，不断提高能源资源利用水平，纵深推进生态文明城市建设，实现可持续发展。', '1、坚持 “减量化、再利用、资源化”的原则。坚持走新型工业化道路，加快经济结构调整，促进产业结构优化升级，优化生产力空间布局，实现低消耗、低排放和高效率，形成有利于节约资源、保护环境的生产方式和消费方式。', '2、坚持立足市情、科学发展的原则。充分发挥优势和突出特色，将循环经济发展与实施可持续发展、生态文明城市建设紧密结合，并纳入贵阳市经济社会又好又快、更好更快发展总体战略框架。', '3、坚持科技创新与制度创新并举的原则。大力推动科技创新，努力开发提高废物利用率、资源生产率和回用率，降低污染排放率、降低生产成本的先进实用技术，使企业逐步实现向循环经济转型。加快实现制度创新，通过制度创新激励企业和人才从事科技创新，降低可再生资源交易成本，建立发展循环经济的激励和约束机制。', '4、坚持试点示范与面上推广相结合的原则。实现企业、园区、区域社会三个层面循环经济的和谐发展。抓好企业层面的“小循环”、园区层面的“中循环”和区域社会层面的“大循环”。', '5、坚持政府、企业与公众互动的原则。构建政府、企业、公众各行其职，互相促进的制度结构，形成“政府推动、市场主导、企业与公众广泛参与”的循环经济发展新格局。', '6、坚持与生态文明城市建设协同增效的原则。循环经济与建设生态文明城市的总体目标一致，都是以人与自然和谐为主线，以提高人民群众生活质量为根本出发点，以体制创新、科技创新为动力。生态文明城市建设统领循环经济发展，发展循环经济是建设生态文明城市总体战略的重要组成部分。', '到2015年，建立起较为完善的循环经济法规政策体系、技术创新体系、绿色产业体系。三次产业结构更趋合理，资源利用效率明显提高，能源消费结构明显优化，清洁能源和可再生资源占有比重有较大提升。初步建成较为完善的废旧物分类收集系统和综合利用处理系统，城市矿产资源化水平大大提升，再制造工业规模和竞争力明显提高，农业循环经济拉动民生的效益更为显著，工业循环经济进一步带动企业、产业、园区互动发展。社会经济可持续发展能力有了较大提高，有效促进资源节约型和环境友好型社会建设。', '1、单位国内生产总值能耗比十一五末下降16%，氧化铝、电解铝、黄磷、水泥、合成氨等重点耗能产品能耗达到同行业国内领先水平。', '2、规模以上单位工业增加值用水量达到国家和省要求，单位工业产值废水排放量比2010年下降15%左右，工业用水重复利用率力争达到80%上，城市生活污水集中处理率稳定在95%以上。', '在2007年国家发展改革委、环保总局、统计局联合编制发布的循环经济评价指标体系的基础上，结合贵阳市实际情况，制定“十二五”贵阳市循环经济发展的目标。', '“十二五”期间，贵阳市发展循环经济的基本任务是：遵照《贵阳市国民经济和社会发展第十二个五年规划纲要》的总体部署，以提高资源产出效率为中心，积极推进生产、流通、消费各环节循环经济发展，加快构建覆盖全社会的资源循环利用体系。在生产领域，以磷煤化工、有色金属、装备制造、建材、食品轻工等特色优势产业和生态农业为重点，构建工业、农业循环经济产业体系。在流通、消费及全社会推进循环型社会体系建设：开展循环社会实践，完善再生资源回收利用体系，推进可持续消费，建设节约型政府。', '提高资源产出率为中心，通过自主创新和引进先进技术，大力开发高端产品，加快磷煤化工产业循环经济发展步伐。', '热法磷化工方向，加强黄磷精制技术研究和应用，开发高纯磷化物和含磷新材料等精细磷化工产品，推进磷化工精细化发展；湿法磷化工方向，加强湿法磷酸深度净化技术应用，发展高效专用磷复肥、饲料级、工业级磷酸盐产品。煤化工积极引进和开发煤基合成草酸二甲酯、乙二醇、碳酸二甲酯和聚碳酸酯等技术，形成较大规模化生产能力。', '加快氯碱化工项目建设，完善产业发展平台，与磷化工、煤化工耦合，建设氯碱—黄磷—合成氨—磷肥—磷酸钠盐—有机磷产业链，提高磷煤资源附加值。大力开展黄磷尾气、磷渣、磷石膏、粉煤灰及磷矿伴生氟资源综合利用，壮大黄磷尾气净化制甲酸、甲酰胺等产品规模；开展黄磷尾气净化制草酸脂进而合成乙二醇以及湿法磷酸生产过程中氟回收制取无水氟化氢等先进技术研究和产业化应用，支持氟回收副产品高端化发展；支持多元化利用黄磷渣、磷石膏的技术及产品开发。支持低品位资源高效价利用的技术开发；鼓励企业开展工业余热余压利用、合同能源管理等项目，降低工业能耗水平。', '按照“适度发展氧化铝，挖潜改扩电解铝，加快研发材料铝”的发展路径，以中铝贵州分公司等大型企业为龙头，加大对白云铝及铝加工基地、清镇铝及铝加工基地的投入力度，尽快完善基地基础设施建设，提升产业集聚效应。大力引进国内外关联企业参与铝及铝加工深度开发及产业配套，加快清镇广铝80万吨/年氧化铝及深加工项目、中铝贵州分公司160万吨/年氧化铝改造项目建设，推进金飞年产100万套铝合金汽车轮毂项目建设，形成较为完善的现代铝工业体系。', '加大铝合金材料的研发，抓好高性能铝合金科技成果产业化，尽快形成向航空、航天领域提供产品供货的生产能力，提升铝及铝加工产业整体实力，提高资源产出率。加强节能降耗管理、氧化铝、电解铝综合能耗达到同行业领先水平。抓好电解铝生产电力直供试点；开展废弃物综合利用和废渣、废水、废气等综合治理，开展再生铝工业相关的废铝分类检测和再生技术、赤泥综合利用技术等应用研究，扩大再生铝加工利用规模，逐步形成资源高度循环再生的新格局。', '重点建设小河-孟关装备制造生态工业园和麦架-沙文高新技术产业园，推进装备制造业与电子信息产业融合，大力发展工程机械、专用数控机床、客车、专用汽车等优势装备主机和汽车零部件、关键基础件、电子元器件及特色机械零部件等产品的研发和生产，积极引导装备制造企业向园区集中，实现集约化发展。加快园区循环化改造。', '大力推行绿色制造战略，对生产过程中的工艺、设备、原料、生产组织和环境等进行规范化和优化管理，提高产品质量，增加产品的可靠性和耐久性，减少返修率和退货率，延长产品的技术寿命周期。加强产品回收再制造，扩大再制造试点；鼓励企业产品结构设计选用易于连接与分离的联结方式，对可重复使用零件实行状态（如磨损、腐蚀等）识别，在回收零部件满足工作性能、质量特性、使用寿命等要求的情况下，尽可能将其应用于新产品的设计或生产，减少资源、能源消耗，降低成本，有效保护环境。', '发挥贵阳市的生态环境和资源优势，加快龙洞堡食品工业园、乌当食品工业园升级发展，推进食品产业结构优化。加强园区基础设施建设，引导特色食品企业向园区集聚发展。积极探索铝塑分离等食品包装新技术的工业化应用，实现食品包装循环利用。加大园区节能减排力度，开展锅炉清洁能源改造、余热余压利用、废渣沼气发电等循环经济项目建设，加强园区废水统一收集和中水回用，做到污水排放最小化、废物资源化和无害化。加强中药提取生产新工艺研究，将药用植物非药用部位和提取后的药渣等废弃物进行加工处理，开展废渣加工生物肥料、废渣加工还土技术应用。', '加快金石石材工业循环经济推广园区建设，制定园区循环经济实施方案，对石粉、碎石进行集中管理、处理和回收利用。开展石粉制加气混凝土砌块、石粉制天然石漆、轻质硅酸盐混凝土砌块等循环经济项目建设，“消化”石材加工过程中产生的石粉。开发石材边角料利用技术，发展石材边角料生产马赛克拼图、人造大理石等产品，提高石材资源利用率。加强节水实施建设，大力开展企业中水回用。大力发展以磷渣、磷石膏、粉煤灰综合利用为主的环保建材产品，大力开展电石渣综合利用，优先支持利用电石渣的建材项目。在建筑砂浆、混凝土和其他建材产品生产中推行城市建筑垃圾回收处理再利用。争取成为全国资源综合利用示范基地。', '结合信息电子产业发展，完善和实施电子信息制造业节能环保指标体系，建立重点企业节能减排监控制度。发展半导体照明、太阳能电池、电力电子器件等清洁高效的新型电子节能产品，做好电子信息产品污染防治和废旧电子产品回收利用。', '结合贵阳区域资源和自然环境状况，实行生物措施、农艺措施与工程措施相结合，逐步实现农业生产结构合理化、生产技术生态化、生产过程清洁化，形成经济、生态、社会效益相统一的农业循环经济发展模式。推广配方施肥、滴灌施肥等新技术，提高化肥使用效率；改造农田排水系统，建设生态型沟渠，有效吸收农田排水中的氮、磷等影响水质的物质，推广节肥节水农业。', '推进农业废弃物能源化、肥料化和饲料化，加强畜牧业与种植业结合，发展农作秸秆等废弃物和家畜排泄物沼气发酵、生产有机肥料、生物燃料、家畜饲料、蘑菇培养基地等，实现资源再利用。发展猪－沼－菜、猪－沼－果、猪－鱼－菜等符合生态农业发展的循环经济模式，探索农业－工业、农业—观光旅游业等新型循环模式。加强农村户用沼气池的建设维护，减少农村燃煤消耗。以现代生态农业规模化养殖企业建设为重点，加快大、中型沼气池的建设，探索农村沼气集中供给机制，提高农村清洁能源的利用程度。', '扩大交通基础设施投资规模,加大公路、铁路、水运和城市配送等设施的建设力度，支持贵阳公共交通油改气、甲醇汽车燃料应用研究，大力实施公交优先战略，提高道路通行率。加快贵阳市轨道交通、市域快速铁路网等项目建设，提高交通运输能效。抓好《贵阳市现代物流业发展规划(2008—2020年)》的实施，加快二戈寨、金阳、扎佐、清镇物流园区建设，以降低物流成本和提高物流运行效率为核心，科学的整合各物流园区规模、布局、功能，加快完善综合交通运输网络,大力发展多式联运。', '建设完善物流信息系统，发展全面质量管理(TQM)、电子数据交换(EDI)、全球定位系统(GPS)、企业资源计划(ERP)等技术，全面提高企业信息管理水平，实现资源共享、数据共用、信息互通,降低运输工具空驶率，减少燃油等能源消耗，发展绿色物流。', '积极推广使用地热能、水热能、太阳能等可再生能源，大力推广节能门窗、墙体保温隔热、建筑物遮阳等建筑节能产品与技术。充分利用自然光和风来增加光照度和通风，减少使用人工空调制冷和供暖负荷，加强热、电、水的计量和调节控制。发展省地型公共建筑和住宅，实现城乡建设集约用地，加大建筑产品结构调整力度，推广利用以工业固体废弃物为原料的环保型墙体材料、加气混凝土砌块和轻质墙板等建筑节能材料，提高资源综合利用率。在市政设施、公用建筑领域推广半导体照明、节能灯具，全面推行和严格执行国家新建建筑节能50%的设计标准，实现建筑节能。', '加快再生资源绿色回收利用产业发展，培育一批废旧物资拆解、处理、再生利用的示范企业。探索实施生产者责任延伸制度，建立以废旧轮胎、废弃电器电子产品等为重点的回收处理和利用体系。结合贵阳实际，“城市矿产”基地为载体，加快各类资源回收利用处理中心建设，促进再生资源回收利用产业发展。', '加大“餐厨废弃物资源化利用和无害化处理试点”、“ 中日合作城市典型废弃物试点”建设力度，加快餐厨垃圾回收利用处理技术的研究和应用，以城市再生资源循环利用基地建设为载体，实施餐厨垃圾分离回收、利用餐厨垃圾生产沼气、生物柴油燃料等项目建设。加强垃圾分类回收基础设施建设，进一步完善垃圾分类回收利用体系。', '加快水能资源开发，在有条件的地区，适时启动水电蓄能电站建设；依托国家液化天然气管道，做好城市管网建设规划，提高城市天然气气化率；推进地热、太阳能、风能等可再生能源的开发，加快贵阳市地源热泵、污水源热泵示范项目建设，建设一批风电开发项目。加强城市和农村有条件的地区太阳能热水器等节能产品推广。积极发展城市垃圾发电。', '引导公众自觉做到节能、节水、垃圾分类回收，培养和转变消费观念，逐渐减少对过度包装的消费需求，促进企业产品包装的轻量化和再利用；在全省范围内禁止生产一次性发泡塑料餐具和超薄新一次性塑料袋，逐步在商场、酒店、机场、车站、公园和旅游景点取消不可降解、不可循环使用的一次性产品的使用。加大对农贸市场和农村集市“限塑令“的执行力度，争取社会塑料购物袋综合使用量下降65%。突出抓好公共机构节能节水。严格公务车辆节能管理，注重政府建筑节能管理，大力实行集约使用土地，实施政府绿色采购。', '（1）贵阳扎佐“新特材料”基地，通过煤（焦、化）、钢、电、建材间产业耦合，突出资源的循环利用、能源梯级利用，构建“煤（焦、化）－钢－电－建材”一体化循环经济产业链。', '（2）建设清镇煤、铝工业园，改造贵阳白云铝及铝加工基地，构建“煤－电－铝－铝加工－再生铝”一体化循环产业链。基地尾矿综合利用率达到50%以上；赤泥综合利用率达到30%。', '（3）继续完善国家级开阳磷煤化工生态工业基地和息烽精细磷煤化工工业园，推进开磷集团循环经济产业发展，实现磷煤化工的共生耦合，强化热、湿法磷化工结合，突出精细磷煤化工产业链的延伸与拓展。构建“煤－电－化－建材产业耦合、循环”产业链。通过煤- 电- 高能载体产业支链，煤- 电- 建材产业支链,，煤- 气- 化产业支链的构建，强化与磷共生、伴生氟元素回收，加大副产磷石膏的大宗资源化利用公关，提高磷资源产出率。', '（4）建设“贵阳小河－孟关装备制造业生态工业园区，打造装备制造－再制造循环产业链，实现装备制造业的跨越式发展。', '（5）建设贵阳城市再生资源循环经济产业基地。大力推进城市污泥和生活垃圾资源化处理工程，积极开展“城市矿产”基地建设。', '深入推广种植——养殖——沼气农业循环经济模式，大力开展农业废物综合利用，推进台农公司、丰泰农业、清镇特驱猪业、开阳由由农业等农业循环经济示范项目建设，构建农业循环经济产业链。', '重点推进国家餐厨废弃物资源化利用与无害化处理试点工程、国家中日合作城市典型废弃物资源化利用工程、贵阳市城市垃圾综合处理利用工程，推进贵阳市城市污水处理厂污泥处置项目。', '为推进贵阳市特色优势产业更好更快发展，针对构建和完善循环产业链存在的技术瓶颈，鼓励和支持通过自主创新、集成创新、引进消化吸收创新研发循环经济的核心技术、关键技术和共性技术，以及先进技术装备，加快研发成果产业化进程，并大力推广成熟的先进实用技术。', '在磷化工产品的生产过程中，磷酸是最关键的中间体。磷酸产品按纯度分为农用级、饲料级、食品级、医药级、电子级、半导体级逐渐递增，产品加工难度和附加值也随之提高。高纯磷酸提纯技术的研究，是提升磷化工产业的重要技术。', '磷石膏资源化综合利用技术的开发与突破，是磷化工发展摆脱环境“瓶颈”约束，实现可持续发展的关键。磷石膏的大规模资源化利用是湿法磷化工产业循环体系基本建成的重要标志。采用磷石膏生产硫酸联产水泥或石灰，是有别于生产建材，实现硫资源循环利用的大宗减量化技术，应全力突破其工程化的关键技术。', '国内磷化工行业在经历了2009年产能过剩的剧痛之后，深刻体会到向“精细化、深加工”转型才是唯一的求生存谋发展之路。尽管贵州磷化工已在国内占有相对的强势地位，但“磷肥独大”的结构格局仍未得到根本改变，“精、深加工”依然是我们的薄弱环节，应大力推广应用发展精细磷化工的新技术。主要方向是磷系阻燃剂、水处理剂、抗氧剂、增塑剂、表面活性剂、纺织印染助剂、皮革加工助剂、油品添加剂、催化剂和有机磷农药等。', '目前省内普遍采用的二水法湿法磷酸萃取工艺，虽然具有对磷矿适应性广、水平衡容易、设备作业率高、设备材料易解决、建设投资较低等诸多优点，但也存在过滤酸浓度低，浓缩能耗高，磷损失较高，副产磷石膏难于直接利用等缺点。针对贵州磷矿特性，选择一些二水法磷酸装置改用半水－二水物工艺，将是高浓度磷复肥工业发展循环经济的一项新课题。', '利用黄磷尾气、焦化尾气、合成氨驰放气中的CO、H2等，开发碳一化工，以及含碳气体加氢甲烷化研究，延长基于磷煤化工体系下的废弃利用产业链条。', '随着清镇广铝铝业80万吨氧化铝的建成，氧化铝产能将出现较大增长，赤泥年排放量将大幅增加。必须加强赤泥的大宗资源化综合利用技术的研究。', '用电解铝液直接生产铝板带、铝箔坯料、铝合金铸件。可减少二次重熔，降低金属烧损，减少电能消耗。', '城市污水处理厂污泥处置技术。城市污水处理厂污泥是污水处理厂处置中的伴生物，贵阳市每天大约污泥产生300吨以上，目前利用方式主要有焚烧、沼气处理、堆肥，需加强此方面技术的研究和实践应用。', '此外，“十二五”期间，随着我市符合行业准入条件的干法水泥熟料生产线产能上规模，装置水平跨上一个新台阶，普遍推广低温余热发电、节能粉磨、高效收尘、第四代高效篦冷机、大电机功率变频调速、工业废弃物再造资源化利用等节能减排新技术，将是水泥行业发展循环经济的重要措施。', '进一步完善贵阳市循环经济领导小组以及办公室统筹协调的工作机制，切实落实循环经济规划提出的各项任务和目标；建立贵阳市循环经济建设联合办公及议事制度，把循环经济建设作为重要工作，列入议事日程。建立和完善循环经济建设的工作目标责任制和激励机制，把循环经济建设的重点任务和政府部门、单位的重点工作紧密结合起来，确保责任、措施、投入、成效落实，做到政策到位，措施到位，行动到位，使各项工作围绕发展循环经济、实现经济增长方式根本转变形成合力，全面推进贵阳市循环经济建设。按照科学发展观和建立和谐社会的要求，把贵阳市循环经济建设的目标任务列为各级领导干部和企业单位政绩、业绩考核，制定相关考核指标，建立考核和奖惩制度。', '按照《中华人民共和国循环经济促进法》等有关法律法规，修订完善《贵阳市循环经济实施条例》等地方性法规；逐步制定《节约能源管理条例》、《资源综合利用管理条例》，《循环经济定量考核制度实施办法》、《企业清洁生产审计实施办法》、《促进政府绿色采购以及居民绿色购物实施办法》、《容器和包装物使用回收管理办法》、《家用电器回收管理办法》、《城市垃圾处置实施条例》、《建筑材料回收管理办法》、《促进资源有效利用实施办法》、《乡镇垃圾处置条例》、《餐厨垃圾暂行管理办法》等涉及循环经济的专门条例、实施办法和管理办法，构架完备的循环经济型生态城市建设法规、制度，保障全市循环经济的顺利发展。', '要把发展循环经济、建设资源节约型和环境友好型社会主要目标列入区（市、县）和各部门的绩效考核。各相关部门根据工作职能，分别制定系统的循环经济评估、认定和考核办法。对出台的发展循环经济政策、推广的循环经济适用技术以及列入政府扶持的循环经济示范工程和项目，有重点地进行评价。同时，建立推进循环经济工作的信息反馈机制，加强及时跟踪和适时考评，对循环经济重点项目和工作方案的落实情况实行动态管理。', '建立科学的循环经济评价指标体系，研究制定各行业的技术标准和以资源节约为主的统计体系及考核标准，并逐步纳入对重点企业的考核内容。制定重要产品、单位产品能耗、水耗、物耗定额指标体系和发展循环经济的考核标准，对重点企业和重点单位进行考核。加强企业节能工作，制定重点产品电力消耗限额，对重点用能设备实施能源利用监测、能效管理和电力需求侧管理。建立健全工业产品用水定额制度，抓好高耗水行业的工业节水、废水资源化工作。充分发挥循环经济试点和低碳城市试点的先行先试作用，探索建立出较科学、系统的循环经济和低碳发展指标体系，建立完善生产者责任延伸制度、低碳产品标识制度等。', '充分发挥市循环经济的有关专项资金作用，支持循环经济的科技研究开发、循环经济技术和产品的示范与推广、重大循环经济项目的实施、发展循环经济的信息服务、资源综合利用等方面工作。同时，从产业政策、财税政策、土地政策、人力资源政策、科技政策、政府采购政策等方面引导和规范循环经济发展，创造有利于企业自觉开展节约资源、循环利用资源的良好政策环境，形成循环经济的激励机制。', '对列入循环经济重点建设项目、试点企业、试点园区、生态镇村建设，综合运用投资准入、财税优惠、价格调节、土地供给等形式有选择地给予优惠,将企业和个人保护环境的行为同其经济效益直接挂钩，调动各方面保护环境的积极性。发挥好政府投资对社会投资、金融支持的引导作用。继续完善资源综合利用税收优惠政策，积极探索建立生态恢复和环境保护的经济补偿机制。紧紧抓住中央实施西部大开发的机遇，认真调查研究，积极谋划、储备一批能够充分发挥贵阳资源优势，增强企业核心竞争力的循环经济项目，做好项目前期工作，积极争取国家、省的大力支持。', '推进产学研结合，鼓励企业介入相关技术的前期开发、科研单位介入后期效益分配的合作模式，释放科技进步的动力加快循环经济技术开发。建立循环经济技术咨询服务体系。积极创造条件争取国家支持在贵阳建立磷化工循环经济国家工程中心，建立国家级循环经济企业技术中心，示范企业要建立省级企业技术中心，试点企业要建立市级企业技术中心。大力推动延长产业链技术攻关和项目建设，组织开发有重大推广意义的资源节约技术、清洁生产技术、替代技术、再利用技术、资源化技术、系统化技术等。大力引进重点行业延长产品链关键技术，建立生态工业技术孵化基地，实现生态工业技术产业化。落实人才引进政策，重点引进创新型研发设计人才、开拓型经营管理人才、高级技能人才等专业人才来贵阳市发展。鼓励企业与院校院所联合培养一批科技管理人才和高级技能人才。建立和完善人才激励机制。', '采取引进来和走出去的方式积极开展国际合作。积极引进国外循环经济发展的资金和先进技术；推进碳排放权交易的国际交流与合作，逐步建立和完善碳排放权交易市场；举办不同层次和范围的培训，邀请有关专家、学者讲授循环经济理论与实践；适时组织有关人员赴外考察学习发展循环经济的成功经验。', '抓住循环经济促进法颁布实施的历史机遇，建立一支纪律严明、执法有力的循环经济执法队伍，切实保障人员、经费及装备，加强执法培训，全面提高执法人员的政治素质和专业素质，加大执法和监督检查力度，认真执行《中华人民共和国节约能源法》、《固定资产投资项目节能评估和审查暂行办法》等法规，强化对企业污染排放的监督管理，加大执法和监督检查力度，淘汰污染严重、高耗材和高耗能的工艺和装备，对违反循环经济促进法的违法行为，要严厉打击，决不手软，切实转变工业污染防治观念，从“末端治理”向预防为主、生产全过程控制转变，努力营造发展循环经济的良好社会及法制环境。', '利用中小学课本、广播电视、报刊杂志等宣传媒体，开展论坛、培训等多种形式，向社会公众宣传绿色消费、低碳生活等方面的知识和理念，举办循环经济进社区、低碳生活从我做起等巡回展览、废弃物回收处理知识讲座、“节能减排宣传周”、节能减排趣味知识竞赛等各种形式循环经济科普教育和循环经济主题宣传活动。使社会各阶层人群了解并认可循环经济，大力培育和形成有利于循环经济发展的社会文化；大力宣传国内外循环经济发展的成功经验和贵阳市发展循环经济的先进典型和示范单位，及时总结、推广有效做法和成功经验，引导社会公众积极参与循环经济建设，形成共同推动循环经济发展的强大合力；利用贵阳循环经济网，及时向社会发布有关循环经济的技术、管理和政策等方面的信息，收集汇总循环经济发展动态和信息，开展相关教育培训、交流与合作；鼓励和支持中介机构、学会和其他社会组织开展循环经济宣传、技术推广和咨询服务，促进循环经济发展；完善节能减排信息发布制度，拓展信息发布渠道，增加公众参与和监督的途径，充分发挥新闻媒体的舆论监督和导向作用，营造良好的社会氛围。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>245</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在中卫市学习考察</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202406/t20240628_84924713.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['6月27日，省委常委、市委书记、贵安新区党工委书记胡忠雄率贵阳贵安代表团在中卫市学习考察。中卫市委书记、市人大常委会党组书记张利参加。', '中卫地处宁夏中西部，是国家新型互联网交换中心节点、全国一体化算力网络国家枢纽节点“双节点”城市，正加快建设大数据产业中心市。来到中卫市科技馆（云展馆），胡忠雄一行通过图片、视频、实物等方式，了解中卫数字经济发展情况。他指出，中卫充分发挥比较优势，推动大数据产业快速发展，形成的经验非常值得贵阳贵安学习借鉴。贵阳贵安要用好全国一体化算力网络国家（贵州）枢纽节点政策，立足自身实际、发挥比较优势，与其他枢纽节点城市错位发展、协同共进，推动数字经济高质量发展。', '在中国联通中卫云数据中心，胡忠雄一行实地察看数据中心和新型互联网交换中心建设运行情况，他指出，通信网络设施是算力发展的重要支撑，贵阳贵安要发挥好国家级互联网骨干直联点优势，加快升级算力输送通道，缩短至发达地区网络时延，让数据“跑”的速度更快、“跑”的量更大。在中国移动中卫数据中心，胡忠雄参观中心机房，询问中心技术创新、优势特色等情况。他强调，贵阳贵安数据中心规划建设要高度契合市场需求，扎实做好数据中心设备部署、技术升级、招商引资等工作，持续降低建设、运行、管理综合成本，更好适应数字经济发展需要。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>245</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在乌兰察布市学习考察</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202406/t20240627_84917808.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['6月26日，省委常委、市委书记、贵安新区党工委书记胡忠雄率贵阳贵安代表团在乌兰察布市学习考察。乌兰察布市委书记隋维钧参加。', '乌兰察布是连接东北、华北、西北的重要枢纽，是全国一体化算力网络国家枢纽节点城市。在乌兰察布（京蒙）人才科创园，代表团详细了解乌兰察布数字经济发展、人才培育等情况。胡忠雄说，近年来，乌兰察布算力产业发展迅猛，我们要学习借鉴乌兰察布发展数字经济的好思路、好经验，在大数据产业发展规则制定、数据价值化、数据中心建设、算力调度等方面强化合作，携手实现互利共赢。在阿里巴巴乌兰察布数据中心、华为云数据中心，代表团实地察看机房运行情况。胡忠雄说，智算技术发展飞速、日新月异，贵阳贵安要以等不起的紧迫感、慢不得的危机感推动智能算力发展，加快壮大算力产业。', '在三峡现代能源创新示范园，代表团参观展厅，观看源网荷储能量管理系统演示，了解储能设备技术。胡忠雄指出，电力是算力的核心保障要素，贵阳贵安要立足源网荷储一体化建设，大力提升绿电供给占比，实现数字经济与能源保障精准匹配。在内蒙古中弘紫晶科技有限责任公司，代表团观看光存储产品展示，了解企业生产研发情况。胡忠雄强调，数据备份是数据中心集群的基础性功能，贵阳贵安和乌兰察布形成一南一北呼应格局，希望两地探索开展重要数据相互备份合作，共同为落实国家战略贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>245</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在三亚市学习考察</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202405/t20240517_84650539.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['5月15日至16日，省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄率贵阳贵安代表团在三亚市学习考察。海南省委常委、三亚市委书记周红波参加。', '三亚作为海南自贸港建设的前沿阵地和重要窗口，正在全力推进国际旅游消费中心核心功能区建设。在后海村，胡忠雄沿途认真察看旅游业态，仔细询问产业规划、客群构成、旅游产品、村集体经济、群众增收等情况，他叮嘱贵阳贵安有关部门要认真学习借鉴三亚的创新做法，抓好规划定位、运营机制、配套服务各项工作，高质量推进旅游产业化。调研中，胡忠雄走进在三亚创业的黔籍商户，与他们面对面深入交流，关心询问生活和经营情况，希望他们积极宣传贵阳的特色美食和民族文化，当好“爽爽贵阳”城市品牌的传播者、展示者。在亚特兰蒂斯酒店，胡忠雄仔细听取酒店经营、业态打造等情况介绍，他要求贵阳贵安有关部门要立足资源禀赋，发挥比较优势，吃透消费需求，做好客源、资源、服务三篇文章。在三亚CDF国际免税城，胡忠雄实地了解离岛免税政策落地、免税城经营管理等情况，他强调，贵阳贵安有关部门要积极培育旅游消费新业态、新模式，做好“吃住行游购娱”精细化服务，更好满足市民游客的个性化、多元化需求。', '近年来，三亚加快发展南繁种业、深海科技两个未来产业，积极打造自贸港科创高地。在崖州湾科技城产业促进中心，胡忠雄一路边走边看，仔细听取南繁硅谷建设、深海产业发展、知识产权保护、管理体制机制等情况介绍，他强调，崖州湾科技城建设成果丰硕，十分值得学习借鉴。贵阳贵安要认真贯彻落实省委、省政府关于推动贵州科学城、贵阳大数据科创城、花溪大学城、清镇职教城“四城”联动发展的决策部署，坚持科技是第一生产力、人才是第一资源、创新是第一动力，推动“四城”联动发展取得新成效、实现新突破，为高质量发展注入强劲动能。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>245</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在银川市学习考察</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202406/t20240628_84924631.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['6月27日，省委常委、市委书记、贵安新区党工委书记胡忠雄率贵阳贵安代表团在银川市学习考察。宁夏回族自治区党委常委、银川市委书记赵旭辉参加。', '银川市是“一带一路”重要节点城市，当前正抢抓“东数西算”战略机遇，大力发展算力产业，全力打造“算力之都”。在宁夏希望信息产业公司，胡忠雄一行观看企业有关系统平台功能演示，听取政务行业大模型应用、场景开发等方面情况介绍。他指出，银川在政务服务数字化等领域开展的积极探索，非常值得我们学习借鉴。贵阳贵安各级各部门要进一步解放思想，以更大力度、更实举措打通数据壁垒，不断促进应用场景开放，推进“一网通办”取得更大成效。', '在中国建材互联网产业园数据中心，胡忠雄一行实地了解企业产品研发、数据中心建设等情况，观看智能算力赋能企业生产经营演示。他强调，贵阳贵安要加快推进产业数字化，紧盯重点领域引进和培育一批行业大模型，积极推动产业全方位、全角度、全链条数字化改造。在宁夏产业数字化运营中心，胡忠雄一行听取数字新基建、数字城市运营等情况介绍，他说，银川在数字化治理方面探索了很多好经验、好做法，贵阳贵安要认真学习借鉴，依托数字技术推动治理流程优化、模式创新、手段拓展，更好以数字化驱动治理方式变革。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>245</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在呼和浩特市学习考察胡忠雄包钢参加</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202406/t20240626_84913140.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['6月25日，省委常委、市委书记、贵安新区党工委书记胡忠雄率贵阳贵安代表团在呼和浩特市学习考察。内蒙古自治区党委常委、呼和浩特市委书记包钢参加。', '呼和浩特是内蒙古自治区首府，全区政治、经济、文化、科教和金融中心。在城市展示中心，胡忠雄一行通过图片、实物、多媒体等方式，了解该市历史文化和发展规划。他指出，呼和浩特是美丽青城、草原都市，在城市规划上有很多做法经验。我们要学习借鉴呼和浩特在城市规划、产业规划、交通规划等方面的先进经验，坚持规划为先、产业为要、民生为本，加快做强省会城市功能。在伊利现代智慧健康谷，胡忠雄一行参观展厅和生产车间，听取企业发展情况介绍。他说，伊利是民族工业的代表，现代智慧健康谷是食品工业的“灯塔工厂”，希望与伊利在具有贵州特色的产品开发、市场销售、研学旅游等方面开展合作，携手实现互利共赢。', '来到和林格尔新区城市大脑及数字化展示中心，胡忠雄一行听取新区发展情况介绍。他说，和林格尔和贵安两个数据中心集群呈南北呼应之势，希望围绕算力加强合作，建立健全跨区域算力调度机制，共同推动数字经济高质量发展。在中国移动呼和浩特数据中心、中国银行总行金融数据中心，胡忠雄一行实地参观机房，与企业负责人深入交流，他要求贵安新区要学习借鉴和林格尔数据中心建设经验，抢占智算、行业大模型培育、数据训练制高点，打造面向全国的算力保障基地。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>245</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在海口市江东新区学习考察</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202405/t20240516_84640327.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['5月14日至15日，省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄率贵阳贵安代表团在海口市、江东新区学习考察。海南省委常委、海口市委书记罗增斌参加。', '海口市人大常委会主任王艳萍，海口市领导王英诚、黄舸，贵阳贵安领导刘本立、黄波、龙丛参加。', '海口市是我国对外开放重要窗口和“一带一路”重要节点。在海口湾畅通工程，胡忠雄认真听取项目建设和运行情况介绍，沿途参观云洞图书馆、世纪海角商业街，他叮嘱贵阳贵安有关部门要坚持经济效益、社会效益、生态效益相统一，高质量做好项目的规划、建设、管理、运营。在海口骑楼建筑历史文化街区，胡忠雄实地察看商圈业态、历史文化保护利用等工作，要求学习借鉴海口的经验做法，抓好历史文化保护，有效推动历史文化遗存“用”起来、“活”起来，更好让历史文脉延续、市民游客受益。在龙华区政务服务中心，胡忠雄详细听取龙华区“一枚印章管审批”、优化营商环境等情况介绍，实地察看全流程智能化制证、24小时自助服务超市运行情况，并现场观看城市运行联动平台演示，他强调，要认真学习借鉴海口市、龙华区的创新做法，强化数字赋能、推动流程再造、做实网格治理，不断提升城市治理科学化、精细化、智能化水平，让群众和企业办事更方便、基层治理更高效。在海南金盘智能科技股份有限公司，胡忠雄步入数字化工厂，了解企业生产经营情况，要求贵阳贵安有关部门紧扣“高端化、智能化、绿色化”重要要求，坚持工业强市战略，强化科技创新，因地制宜发展新质生产力。', '海口江东新区是建设海南自由贸易试验区和中国特色自由贸易港的重点先行区域。在海口江东新区展示中心，胡忠雄在认真听取新区规划建设、产业聚集、政策落地等情况介绍后指出，贵阳贵安要学习借鉴江东新区的开放经验，积极拓宽开放通道、培育开放主体、建强开放平台、优化开放环境，全力做大做强做优开放型经济。在江东天地项目，胡忠雄实地考察新区CBD和有关项目规划建设情况，他强调，贵阳贵安有关部门要牢牢抓住项目建设这个“牛鼻子”，为高质量发展提供有力支撑。在大唐海口江东新区智慧综合能源服务项目，胡忠雄走进企业展厅，实地考察企业发展情况，他强调，贵阳贵安要认真谋划布局多元化、多种类、多点位的电源支撑，结合实际抓好清洁能源开发利用、新型储能项目建设。在海南自贸港一站式飞机维修产业基地，胡忠雄与企业负责人深入交流，了解产业发展现状、优势、趋势等情况，要求贵阳贵安有关部门牢固树立产业链思维，一体抓好企业、培育产业、打造产业链、形成产业集群、构建产业生态圈，加快构建现代化产业体系。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>245</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在合肥市学习考察</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240321_83971006.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['3月19日，贵阳贵安代表团在合肥市学习考察。省委常委、市委书记、贵安新区党工委书记胡忠雄，安徽省委常委、合肥市委书记张红文参加。', '贵州省大数据发展管理局局长景亚萍，贵州省发展改革委副主任黄鹏举，贵州省科技厅副厅长杨松，贵阳市委副书记滕伟华，合肥市领导张泉、单虎、赵明，贵阳贵安领导吴宏春、刘岚参加。', '安徽创新馆位于合肥市巢湖之滨，是全国首座以创新为主题的展馆。来到这里，胡忠雄走进展厅，认真听取讲解，通过一组组图片、一件件展品，详细了解安徽科技创新、创新馆体制机制等方面情况。他指出，创新是引领发展的第一动力，加快科技创新是推动高质量发展的必然要求。贵阳贵安要深入学习贯彻习近平总书记在全国两会期间的重要讲话精神，认真落实全国两会部署要求，充分学习借鉴安徽省、合肥市在创新发展中形成的好思路、好经验，坚持以科技创新推动产业创新，加快发展新质生产力，更好塑造贵阳贵安高质量发展新动能新优势。', '合肥是安徽省政治、经济、文化、信息、交通、金融和商贸中心，当前正进一步做大做强新能源汽车、先进光伏和新型储能、新型显示、集成电路、人工智能、生物医药等产业集群，加快构建以先进制造业为骨干的现代化产业体系。在京东方，胡忠雄走进企业展厅，观看产品演示，详细了解企业技术优势、研发创新等方面情况。他对企业在技术创新中作出的积极探索表示钦佩，要求贵阳贵安有关部门要深刻认识和把握新质生产力的内涵和特点，积极营造有利于新质生产力成长的体制机制环境，有效推动创新要素汇聚、新兴产业加快发展。在晶合集成，胡忠雄走进企业生产车间，认真听取技术路径、创新发展等情况介绍，他强调，要树牢产业链思维，加快培育壮大产业集群，不断拉长产业链、提升附加值。在阳光电源，胡忠雄认真听取企业发展历程及光风储电氢等五大赛道介绍。他指出，智能制造是实现制造业质量、效率和效益全面提升的重要手段，叮嘱有关部门要加强工业互联网平台运用，积极鼓励企业进行数字化改造，更好推动产业技术变革和优化升级。在科大讯飞，胡忠雄观看讯飞星火大模型演示，实地考察人工智能技术在汽车、工业、教育、医疗、城市等方面的应用，要求有关部门要牢牢把握数字经济发展机遇，深化区域合作、政企合作，加强协同创新、场景应用，以新质生产力引领支撑高质量发展。', '中安创谷科技园是“资本、政策、技术、人才、创新、产业”融合发展的大科创生态平台。来到这里，胡忠雄走进展厅，听取园区发展建设、招商引资等工作介绍，并面对面与园区企业深入交流，了解园区创新环境、配套政策等情况。他表示，贵阳贵安要认真学习借鉴合肥在产业投资、资本运作方面的创新做法，扎实做好产业基金建、募、投、管、招各项工作，有效推动政府与市场形成发展合力，为建设现代化产业体系提供有力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>245</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在杭州市学习考察</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240321_83971047.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['3月20日，贵阳贵安代表团在杭州市学习考察。省委常委、市委书记、贵安新区党工委书记胡忠雄参加。', '杭州市领导朱华、刘颖、陈瑾，贵州省大数据发展管理局局长景亚萍，贵州省科技厅副厅长杨松，贵阳市委副书记滕伟华，贵阳贵安领导吴宏春、刘岚参加。', '近年来，浙江坚持以“八八战略”为重要遵循，一张蓝图绘到底，推动浙江经济社会发展取得了历史性成就。在浙江省创新馆，胡忠雄认真听取讲解，深入学习“八八战略”理论内涵和时代价值，详细了解浙江在创新发展中形成的好经验、好思路。他强调，贵阳贵安要深入学习贯彻习近平总书记关于新质生产力的重要论述，发挥优势加大科技创新力度，因地制宜发展新质生产力，加快塑造高质量发展新动能新优势。杭州未来科技城是浙江重点打造的“面向世界、引领未来、服务全国、带动全省”的杭州城西科创大走廊核心区域。在杭州未来科技城城市展馆，胡忠雄详细了解杭州城西科创大走廊核心区域规划建设情况，关切询问科技城人才政策有关工作。他指出，杭州市人才政策含金量高、匹配性强，值得贵阳贵安深入学习。贵阳贵安要坚定不移实施人才兴市战略，加快建立健全人才评价体系，有效发挥省市人才政策叠加效应，精准做好“卡、钱、户、房、岗”各项工作，让各类人才在贵阳贵安创业安心、工作顺心、生活舒心。杭州市城市规划展览馆是了解杭州城市规划和建设发展全貌的“窗口”。在这里，胡忠雄详细询问杭州空间规划和产业布局。他强调，贵阳贵安要坚持人民城市人民建、人民城市为人民，持续推动城市空间结构优化和品质提升，让城市更健康、更安全、更宜居。', '人工智能小镇是中国首批“人工智能示范园区”，当前已经汇聚一大批人工智能领域优强企业。来到这里，胡忠雄认真听取小镇规划、管理和有关产业配套政策介绍，实地走访强脑科技有限公司。他要求有关部门要积极鼓励和引导企业加强科技攻关，加快成果转化，让科技更好造福群众。经过多年发展，杭州高新区（滨江）培育出一大批行业领军企业，已基本形成以数字经济为核心的现代产业体系和数字经济全产业链。在正泰集团股份有限公司，胡忠雄认真观看企业产品和系统平台功能演示，详细了解企业发展情况，叮嘱有关部门要深入学习企业在智能制造领域的先进经验，加强两地企业交流交往，更好实现合作共赢。在大华技术股份有限公司，胡忠雄实地察看企业数字技术应用、产品研发创新等情况，要求有关部门要坚定不移实施数字活市战略，丰富数字应用场景，有效运用大数据技术，更好为城市治理、园区运营、产业发展、民生服务赋能添力。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>245</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在青岛市青岛西海岸新区学习考察</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202404/t20240425_84352328.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['4月24日，省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄率贵阳贵安代表团在青岛市、青岛西海岸新区学习考察。山东省委常委、青岛市委书记曾赞荣参加。', '青岛市是我国沿海重要中心城市、滨海度假旅游城市、国际性港口城市，青岛西海岸新区是国务院批复设立的第九个国家级新区。来到青岛西海岸新区城市之窗，胡忠雄一行认真听取新区规划、建设、发展情况介绍，他说，青岛一直走在改革开放前沿，近年来经济社会发展保持强劲势头，在城市规划、产业发展、文化旅游等领域取得了显著成绩，贵阳贵安要认真学习借鉴青岛好思路、好经验、好做法，深化双方互动交流，围绕产业协同、科技创新、数字经济、文旅经济等领域开展务实合作。他指出，青岛西海岸新区经济总量占青岛市的三分之一，为青岛经济社会高质量发展提供了重要支撑。贵安新区要认真学习西海岸新区发展思路和发展举措，锚定“一年一个样、三年大变样”目标，积极构建现代化产业体系，加快打造创新平台，做大经济体量、企业数量、人口总量、就业容量，为“强省会”注入强大动力。', '在青岛东方影都影视产业园，胡忠雄一行实地察看园区展厅、置景车间、数字化拍摄设施等，详细了解园区建设运营管理和电影拍摄制作情况。他强调，随着数字技术的发展，影视制作和发行方式发生了深刻改变。要抢抓影视行业数字化转型机遇，推动发达地区影视拍摄制作算力需求与贵阳贵安算力服务有效对接，为促进两地文化事业、文化产业高质量发展贡献更多力量。在青岛海尔特种制冷电器有限公司，胡忠雄一行步入企业展厅和厂房，认真观看企业发展历程介绍，了解产品制造和技术创新情况。他指出，智能制造是制造业发展的重大趋势，是因地制宜发展新质生产力的重要抓手。贵阳贵安要深化数实相融、智企互联，大力实施“万企融合”大赋能行动，加强工业互联网平台运用，鼓励企业进行数字化改造，打造一批“灯塔工厂”，为制造业升级插上数字化翅膀。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>245</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在哈尔滨市哈尔滨新区学习考察</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202404/t20240424_84346503.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['4月23日，贵阳贵安代表团在哈尔滨市、哈尔滨新区学习考察。省委常委、市委书记、贵安新区党工委书记胡忠雄参加。', '哈尔滨是东北北部政治、经济、文化中心，正加快构建“4567”现代化产业体系，奋力开创推动高质量发展、可持续振兴新局面。来到哈尔滨规划展览馆，胡忠雄一行通过一幅幅图片、一个个视频，了解哈尔滨历史渊源、城乡规划、经济发展等方面情况。胡忠雄指出，哈尔滨城市规划建设非常值得学习借鉴，贵阳贵安要自觉从区域、城乡整体协调的高度谋划城市发展，为深入实施“强省会”行动提供有力空间支撑。在航空工业哈飞集团，胡忠雄一行看展厅、观产线，详细了解企业发展历程、科技创新、生产经营等情况。他强调，航空航天是贵阳贵安重点发展的产业，要学习哈尔滨先进经验，在产业延链补链强链上下功夫，积极拓展民用航空市场，打造航空、航天、航发三个百亿级产业生态圈。来到中国移动（哈尔滨）数据中心、智能计算（哈尔滨）有限公司和黑龙江360数字安全科技有限公司，胡忠雄一行认真听取企业技术研发、场景应用、运营管理等情况介绍，他说，哈尔滨发展数字经济的思路做法给贵阳贵安提供了很好启示，要奋力抢占智算、行业大模型培育、数据训练“三个制高点”，扩大智能算力规模，丰富和开放应用场景，筑牢数字安全屏障，打造具有国际影响力的中国数谷。', '哈尔滨新区是国务院批复设立的第16个国家级新区。来到深圳（哈尔滨）产业园区，胡忠雄一行认真听取园区规划建设、产业发展、管理运营情况介绍，他强调，哈尔滨新区园区运营模式对贵安新区有很强的借鉴意义，要持续优化管理体制机制，全面加强科技创新，大力打造高端产业集群，奋力推动贵安发展一年一个样、三年大变样。在哈尔滨极地公园，胡忠雄一行详细察看园区规划、设施布局、文旅融合等情况，他指出，贵阳贵安与哈尔滨都具有生态良好、气候凉爽的优势，希望双方加强旅游业合作，在促进两地资源共享、客源互送上做文章，推动文旅经济高质量发展。', '胡忠雄在哈尔滨与黑龙江省委常委、哈尔滨市委书记于洪涛 市委副书记、市长张起翔举行会见']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>245</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>贵阳市十二五工业和信息化发展专项规划</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2012-09-03</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/ztzl/rdzt/ghgj/zxgh_5888934/202111/t20211115_71669566.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['《贵阳市“十二五”工业和信息化发展专项规划》已经市人民政府批复同意，现印发给你们，请认真贯彻执行。', '国际金融危机之后，全球经济发展模式面临深度调整，经济增长存在较大的不确定性，经济全球化进程将更加曲折复杂，外需增长放缓，对我国长期形成的出口导向战略带来严峻挑战，客观上形成了对我国调整结构、扩大内需的倒逼机制。能源短缺、环境污染、气候变化已成为全球关注的焦点，绿色经济、低碳经济和循环经济将引领世界经济转型。', '本世纪前二十年是我国经济与社会发展的重要战略机遇期。国民经济和社会发展长期向好，国家继续实施西部大开发战略，出台《关于进一步促进贵州经济社会又好又快发展的若干意见》（国发〔2012〕2号，以下简称国发2号文件），明确将贵州定位为全国重要的能源基地、资源深加工基地、特色轻工业基地、以航空航天为重点的装备制造基地和西南重要陆路交通枢纽，把支持黔中经济区发展和贵安新区建设作为全国区域经济发展的重要内容，贵州必将迎来更多、更好的发展机遇。省委、省政府抢抓机遇，提出“加速发展、加快转型、推动跨越”的主基调，大力实施“工业强省”和“城镇化带动”战略，把全力推进工业化、城镇化作为“十二五”时期贵州省经济社会发展的首要任务。', '“十二五”时期，是贵阳市深入落实“建设生态文明城市”战略构想和国发2号文件精神，全面实施新修编的贵阳城市建设规划、建设新型工业化的现代产业体系、完成节能减排任务、大力推进工业和信息化融合的关键时期。当前，贵阳经济发展已进入了转变发展方式和调整结构的关键阶段，贵阳工业和信息化发展面临着新的要求和挑战。为更好更快推进我市工业和信息化加快发展，实现“赶超”，根据《贵阳市国民经济和社会发展第十二个五年规划纲要》要求，制订本规划。', '“十一五”期间，贵阳工业固定资产投资不断加大。2010年，全市工业完成固定资产投资268亿元，其中：工业技改完成投资215.6亿元，比“十五”末增长187%，占全省技术改造总投资40%左右。实施了一批龙头型、基地型的重大产业项目及配套项目，产业集群效应初步显现，为进一步促进工业向高端化、集群化、特色化发展奠定了基础。', '“十一五”以来，贵阳市以提高工业企业科技进步水平为目标，大力推进企业技术进步和科技创新，增强自主开发和创新能力，推进产业和产品升级。五年来，全市共建成国家级重点实验室3个,省级重点实验室18个；国家级企业技术中心7个,省级企业技术中心40个；国家级工程技术中心2个、省级工程技术中心23个、市级工程技术中心108个；省级高新技术企业84家。在科技创新支撑和引领下，高新技术产业加快发展，2010年实现工业总产值233.14亿元，占贵阳市规模以上工业总产值的22%，成为工业经济发展中的一大亮点。', '“十一五”期间，按照产业园区化、园区特色化的目标，确立了以各工业园区为主要载体引领工业经济发展的产业格局。其中，小河—孟关装备制造业生态工业园、麦架—沙文高新技术产业园、乌当医药食品工业园、南明龙洞堡食品轻工业园、开阳磷煤化工生态工业示范基地、息烽磷煤精细化工工业园、清镇市铝工业及煤化工循环经济生态工业园、白云铝及铝加工基地、修文扎佐医药工业园等九大园区控制性详细规划全部通过市规委会审批，进入实质性建设阶段，花溪金石石材产业园区启动建设。', '2010年，全市非公有制经济完成增加值479.1亿元，同比增长15.5%，与“十五”期末相比实现翻番，年均增幅达到14.9%。培育了老干妈风味食品、益佰制药等一批龙头企业。“十一五”期间，中小微企业、非公有制就业人数达29.25万人，占全市城乡统筹就业的75%以上，其中，下岗失业人员再就业的有14万人，占实现再就业的人数的70%以上，中小微企业和非公有制企业已成为全市就业和再就业的主渠道。', '“十一五”期间，贵阳市加大循环经济发展力度，大力推进节能降耗和资源综合利用，促进生态文明建设，节能监督管理、节能技术推广应用力度进一步加强。实施了一批余热余压利用、能量系统优化、资源综合利用、清洁生产等资源节约和环境保护重点项目，重点企业和重点产品单位产品综合能耗有所降低。2010年，全市规模以上单位工业增加值能耗为2.23吨标准煤，比“十五”期末降低36%（未经省评估）。环保产业快速发展，形成一批资源综合利用和环保产业骨干企业。全市资源节约和综合利用水平大幅提高，成为国家第一批循环经济试点城市之一，启动了开阳循环经济磷煤化工生态工业基地等三个循环经济生态工业基地建设，开磷集团被列为国家第一批循环经济试点企业之一。', '2010年，全市每万人城域网出口带宽达到/万人；城域骨干传输网覆盖面积为8034平方公里，覆盖人口331.57万人；每百户计算机拥有量57台；上网企业数占企业总数的比重达到90%；电话及电视普及率在全国同类城市中处于先进水平。', '信息资源库建设初具规模。贵阳市直各部门、企业大部分建设了业务数据库。宏观经济数据库、地理信息数据库、法人数据库的基础数据开始集中，空间地理共享数据库基本成型，初具规模，为国民经济和广大公众提供了良好的共享信息资源服务。', '信息安全保障体系初步建立。贵阳CA认证中心建成并投入使用，企业与政府部门采用防火墙、杀毒软件、系统用户身份认证和权限管理等信息安全保障技术的应用已较为普遍。电子商务、电子政务内、外网安全保障措施基本符合国家有关规定要求。', '企业信息化进展顺利。全面完成信息化应用环境及网络建设目标和“1261”工程项目进度目标，效益目标在优势行业完成较好，企业信息化培训工作得到加强，普遍进行了企业信息化知识培训。', '贵阳工业规模仍然偏小，在西部十个省会城市中仅排名倒数第三；发展速度偏低，与兄弟省会城市的差距不断拉大；优势弱化，规模以上工业总产值占全省的比重由2006年的32.4%下降到2010年的25.4%，在九个地州市中规模以上工业增加值增速仅排倒数第三。', '工业园区开发建设进度总体滞后，水、电、气、土地等生产要素受指标、限量、价格等因素的影响较大，工业投入总量不足，产业配套体系不完善，没有形成对产业发展的有效支撑。', '主导产业中除医药、食品及装备制造业外，以原材料加工为主的高载能行业在工业结构中比重仍然较大，粗放式、外延式的发展模式亟待转变。此外，特色产业也多处于产业链中低端，龙头企业和企业集团数量较少，规模偏小，辐射带动能力不足。', '“两化融合”有较好基础，但融合深度不够，还未在提升传统产业及衍生新兴产业方面充分发挥作用。大中型企业信息系统集成度不高；中小微企业信息化应用水平低；园区信息化基础设施和应用普遍不足；终端产品及行业的“两化”融合仍然在摸索；信息化发展深度不够，缺少对工业经济有带动作用的大项目；缺乏统筹全市工业和信息化融合发展的政策、法规与规范；信息产业缺乏本地化大型企业。', '根据新一轮西部大开发和国发2号文件的战略布局，国家将进一步加大对西部地区尤其是贵州的政策扶持力度，将贵州打造成全国重要的能源基地、资源深加工基地、特色轻工业基地、以航空航天为重点的装备制造基地和西南重要陆路交通枢纽，大力实施优势资源转化战略，构建特色鲜明、结构合理、功能配套、竞争力强的现代产业体系，建设对内对外大通道，打造西部地区重要的经济增长极。同时，黔中经济区正式纳入国家区域发展战略，贵阳作为黔中经济区和贵安新区的核心城市，在装备制造、磷煤化工、铝及铝加工、战略性新兴产业等领域具有较好的产业基础，并蕴含向汽车整车生产、航空航天零部件扩展的潜力。依托黔中经济区和贵安新区的产业优势，紧紧抓住新一轮西部大开发战略和国发2号文件带来的机遇，贵阳市工业将迎来新的快速发展期。', '省委、省政府敏锐把握新一轮西部大开发机遇，进一步强化“工业强省”战略，并于2010年10月召开了全省工业发展大会，将工业经济发展提升到国民经济和社会发展重中之重的地位。贵阳市工业总产值占全省的四分之一，高新技术产值占全省的60%以上，是贵州工业发展的关键和核心。省委、省政府将贵阳市定位为贵州经济社会发展的“火车头”、黔中经济区崛起的“发动机”、全省新型工业化的“排头兵”，并出台了《关于支持贵阳市加快经济社会发展的意见》，提出了进一步支持贵阳市加快发展的总体要求、政策和保障措施，必将助推贵阳市工业经济实现历史性跨越。', '贵阳已形成以两条国道，六条高等级公路及五条省道为骨架的市域公路交通网络，2009年底通车的环城高速公路，连接穿越贵州的国道主干线和即将完工的厦蓉高速公路，使贵阳融入全国高速主干公路网中。贵广、长昆、渝黔、成贵等多条高速铁路的开通，使贵阳成为西部连接珠三角的重要交通枢纽。省内城市快速铁路网将建成，由贵阳到全省8个地（州、市）均有快速铁路相连。贵阳龙洞堡机场二期工程已进入倒计时，完工后可满足年旅客吞吐量1550万人次、货邮吞吐量22万吨、飞机起降量14.6万架次。', '推进战略性新兴产业发展，是转变经济发展方式、培育新的经济增长点、调整产业结构、提高区域竞争力的重要举措。贵阳市工业基础相对较好，战略性新兴产业中的新材料、新能源和节能环保产业已有不同程度的发展，具备发展战略性新兴产业的基础和条件。培养并推动相关战略性新兴产业发展，是贵阳推进工业增长和调整结构，并将两者有机结合起来全面推动的有力抓手，将有利于贵阳工业经济实现长期平稳较快发展。', '贵阳工业化进程正处于加速发展阶段，将进一步推进区域、行业、企业层面实现工业化和信息化融合发展。一方面，通过信息化提升传统产业，振兴基础工业，支撑节能减排，支持绿色发展；另一方面，紧紧把握物联网、三网融合、智能电网、云计算等战略性新技术的兴起，通过工业和信息化融合，大力发展以新材料、新能源、高端制造、信息产业为代表的战略性新兴产业。', '随着黔中经济区的逐步形成，贵阳市将引领贵州城镇化进程，各种资源要素（如人口、物流、信息等）自由流动、组合配置，给社会服务、城市管理带来更高的要求（降低城市管理成本、提高城市综合管理水平和效率等）。贵阳市信息化建设也将通过继续完善城市信息基础设施建设，推进城市综合信息服务平台建设，加强电子政务及信息资源共享建设，建设数字社区使政务服务向下延伸，数字福利惠及民众等工程获得较快发展。', '近年来，贵阳周边城市竞相发展，区域竞争加剧。在黔中经济区北部，成渝经济区“十一五”以来迅猛发展，已发展成中国西部龙头经济区；南部广西北部湾经济区在电子信息产业、先进制造业、高技术产业方面成绩卓著，未来将辐射东南亚；西部滇中经济区正在全力打造中国—东盟自由贸易区桥头堡，谋求成为西部地区通向东南亚和南亚的窗口。相邻经济区的发展对黔中经济区产业的培育壮大形成了强大压力。在黔中经济区内，遵义的机械电子、冶金、化工、酒业等产业迅速发展，力求成为黔北及全省的现代物流基地；安顺市确立了能源、制药、化工、食品、汽车五大支柱产业，随着安顺经济技术开发区和黎阳高新技术工业园的建设，经济将获得加速发展。目前，贵阳的特色产业虽已形成，但产业链较短，产品附加值低，战略性新兴产业发展较慢，在周边激烈的竞争态势下，挑战显著。', '在未来一段时间内，部分行业粗放式、外延式的发展模式难有根本性改变，并将在资源、环境等方面形成更大压力。2009年，火电、铝、钢铁、铁合金、化工、建材等行业工业综合能源消费量占全市规模以上工业企业综合能源消费量的89%，而工业增加值仅占全市总量的28%。与此相伴随的是，贵阳市人口密度大，生态环境相对脆弱，资源承载能力不强。怎样解决好经济发展与资源承载能力的矛盾，大力推进发展方式的转变，是今后发展中必须予以重点解决的问题。', '贵阳市目前高端产业研发能力弱，缺少关键核心技术人才，人力资源多项指标低于全国平均水平。智力资源匮乏、层次不高，人才结构性矛盾突出；企业普遍缺乏科学的竞争、分配和激励机制；人力资源开发体系不健全，人才观念有待突破，人力资源潜力利用和发挥受到制约。科技实力薄弱和人才缺乏将对贵阳市进一步发展战略性新兴产业形成挑战。', '随着信息化程度的加深，信息资源共享已成为一种必然趋势，信息资源共享在政府、企业间搭建起了相互交流、合作的平台，提高信息资源共享程度是贵阳市信息化建设取得更大发展的必由之路。目前，在贵阳的社会信息化建设中，打造城市新型服务业形态，形成智能化的城市综合信息服务方面仍存不足，面向工业经济的信息资源整合共享平台尚未建立，这对提升贵阳市信息化的社会效益、经济效益带来不利影响。', '贯彻落实科学发展观，紧紧抓住国家新一轮西部大开发和国发2号文件的历史性机遇，以及贵州“工业强省”的战略要求，遵循“走科学发展路、建生态文明市”的发展路径，坚持“加速发展、加快转型、推动跨越”的主基调，大力实施工业强市战略和城镇化带动战略，切实转变工业发展方式，增强产业自主创新能力，提升特色优势产业，推进战略性新兴产业发展，进一步优化空间布局，构建贵阳现代工业体系。优化产业发展环境，以十大特色园区为重点，加快工业园区建设，树立绿色低碳发展理念，构建资源节约、环境友好的生产方式，促进工业化、城镇化、信息化融合发展。加快装备制造、磷煤化工、铝及铝加工、现代药业、烟草和特色食品六大产业发展，将贵阳建设成引领黔中经济区的煤电磷、煤电铝、煤电钢、煤电化四个一体化资源深加工基地、特色轻工业基地、装备制造业基地、战略性新兴产业基地、产业低碳化示范区和西部特色优势产业发展示范区，促进我市工业经济实现“又好又快、更好更快”的跨越式发展。', '以加速发展为核心。紧紧抓住国家实施新一轮西部大开发和国发2号文件以及省委、省政府实施工业强省战略的历史机遇，千方百计扩大工业经济总量，努力实现工业经济的全面提速。', '以加快转型为主线。推进资源初加工向结构优化和产业升级转变, 在加速发展、扩大总量中调整优化结构，实现发展方式的转型。', '以工业园区为依托。着力加快工业园区基础设施建设，提升工业园区承载和辐射能力，为加速发展、加快转型、推动跨越创造条件。', '以“两化”融合为抓手。坚持以信息化带动工业化，以工业化促进信息化，通过信息技术实现传统产业改造升级，培育新的经济增长点，增强产业整体实力。', '以推动跨越为目的。推动工业化、信息化、城镇化水平显著提高，推动经济总量登上新的重要台阶，推动人民生活水平由总体小康迈向全面小康，实现社会经济的跨越式发展。', '2015年，确保全市工业总产值达到“十一五”期末的1.5倍，突破2500亿元，年均增长超过20%；力争达到3500亿元，在西部十个省会城市中排名上升二位，成为西部地区工业经济跨越式发展的成功典范。', '完成基础设施投资确保达到600亿元，力争达720亿元；工业园区完成工业总产值占全市的75%以上；完成十大工业园区向省级新型工业化示范园区的升级，力争四个达到国家级新型工业化产业示范基地标准。', '六大支柱产业增加值占全市工业增加值的比重达75%以上，规模以上高新技术产业增加值占规模以上工业增加值的比重达35%以上。', '完成市重点技术创新项目100项，产学研项目30项，新增2-3家国家级企业技术中心，新增15—25家省级认定企业技术中心，重点企业研发投入占到销售收入的比重达3%以上', '主要产品单位能耗总体接近或达到国内平均水平，优势行业主要产品单位能耗达到全国先进水平。磷矿石、铝矾土矿资源就地转化率达到100%。', '信息化基础设施实现三个“全覆盖”，即光纤主干网覆盖全市，第三代移动通信网覆盖全市，无线宽带覆盖市区。有效实现黔中经济区区域信息资源开发、整合和利用，建立较为完备的社会信息资源体系，实现城市综合管理数字化，公共服务数字化，感知贵阳体系基本形成。', '完成民营经济倍增计划，全市非公有制经济增加值力争达到1100亿元；全市非公有制经济增加值力争达到1500亿元以上，占全市国内生产总值的比重达到55%左右。', '按照资源型产业实现精细化、装备制造业实现高端化、药业及食品业实现地方特色化的发展思路，以五大产业为重点，大力推动煤电磷、煤电铝、煤电钢、煤电化四个一体化资源型产业发展，做大做强做精做优特色产业。2015年，五大特色优势产业及其他产业工业产值年均增长20%以上。', '按照“装备主机和终端产品为龙头、专业化协作配套为支撑、产业基础平台建设为保障、集群式发展为目标”的发展路径，坚持装备智能化、控制数字化的发展方向，大力推进装备制造业与电子信息产业的融合；加快小河—孟关装备制造生态工业园和麦架—沙文高新技术产业园建设，形成产业集群；发展壮大军民结合产业，推动军工经济与地方经济融合发展；优化装备制造业所有制结构，推动我市企业与国内外优强企业的联合、重组，借助外力做强做大装备制造业。到2015年，装备制造业工业总产值力争达到1000亿元，年均增长30.9%，比“十一五”期末增长2.8倍，建成以铸锻造、工模具及热表处理装备制造业基础工艺平台为主的装备制造业五大平台，成为西南乃至全国知名的特色装备工业基地。', '重点支持工程机械、特种车辆、专用数控机床、飞机零部件、汽车零部件、关键基础件、电子元器件及特色机械零部件等产品的研发和生产。重点发展工程机械、专用数控机床、客车、乘用车及特种（改装）车辆及汽车零部件、专用机械及配套零部件、关键基础件及仪器仪表、液压件、飞机零部件、装备用特殊钢等。', '重点抓好首钢贵阳特殊钢有限公司新特材料循环经济工业基地、贵州轮胎股份有限公司异地发展项目、中航工业航空发动机制造及维修基地、贵航小河军转民高新技术产业园项目、奇瑞客车贵阳项目、中国普天新能源及装备物流工业园项目、中煤盘江煤机生产项目等重大项目的建设。', '以提高资源产出效益为中心，依托磷、煤、水、电的资源组合优势，全力构建精细磷化工、煤化工、氯碱化工、氟化工、硅化工及新型建材等多产业配套、耦合共生的磷煤化工生态产业体系，推进产业结构调整和优化产业布局，加快产业升级步伐。积极推进“煤、电、磷”联营一体化，大力推动重点企业和重大项目电力直供试点工作，努力提高磷煤化工产业的经济效益和发展水平，不断提高资源就地转化率，推进磷煤化工产业跨越式发展。到2015年，磷及磷化工工业总产值力争达到860亿元，年均增长36.8%，比“十一五”期末增长5.9倍；煤及煤化工工业总产值力争达到140亿元，年均增长36.8%，比“十一五”期末增长5.9倍。磷资源开采实现总量控制，逐年降低；大中型磷矿企业矿产资源回采率大于80%；全市磷资源100%就地转化，形成1-2家年产值过100亿元的骨干企业，建成西南乃至全国的重要磷煤化工基地。', '大力推动资源综合利用技术，积极鼓励发展磷煤化工循环经济和绿色经济。重点突破湿法磷酸深度净化和黄磷精制技术，开发高纯磷化物、含磷新材料、磷系阻燃剂等产品，积极引进和研发煤基合成有机化工原料、焦化粗苯精制、磷煤化工“三废”资源化利用先进技术。加快利用磷矿中氟、碘等共伴生资源的技术开发进度。鼓励开发中低品位磷矿的工业化利用技术。严格执行国家颁布的黄磷、过磷酸钙、焦炭、电石、磷矿山等行业准入条件，坚决淘汰落后产能。', '完善配套磷煤化工工业园区建设，提高产业聚集度。在开阳县、息烽县建立资源开采、基础产品、精细化工、功能性产品多层次共同发展的产业模式，大力延伸发展硫基高效专用复合肥、磷精细化工、由磷化工资源综合利用衍生的煤化工及相关循环经济产业。在清镇市重点发展煤基合成有机化工原料、煤焦油精细加工、尿基高效专用复合肥及其相关产业。', '重点抓好中国昊华烧碱与聚氯乙烯项目、开阳化工股份合作公司合成氨与乙二醇项目、息烽循环经济磷煤精细化生态工业基地项目、开磷集团精细磷化工与绿色矿山项目、开阳安达有机膦与磷酸铁锂等重大项目建设。', '积极推进“煤、电、铝”联营一体化，依托贵阳资源优势和现有产业基础，结合国内铝新型材料发展趋势，引进国内外关联企业参与铝及铝精深加工及产业配套，全力支持贵阳铝土矿、氧化铝向下游铝精深产业转化，做大做强有色金属产业，大力推进铝精深加工、新型铝合金材料、铝基新材料发展，建设一批铝板、带、箔及新型铝合金、铝合金汽车轮毂、型材等铝精深加工项目，着力提升铝资源就地加工深度，实现铝及铝加工发展的重大突破。到2015年，铝及铝加工产业工业总产值力争达到500亿元，年均增长42.2%，比“十一五”期末增长5.6倍，全市氧化铝年产能控制在300万吨以内、铝精深加工达50万吨以上、碳素制品35万吨；铝矿资源就地转化率力争达到100%，使之成为中国西部重点铝资源深加工基地。', '支持中铝贵州分公司纳入国家电力直供改革试点，推动“煤、电、铝”联营一体化，提高铝及铝加工产业的经济效益和发展水平。依托贵州省华科铝材料工程技术研究中心等科研单位，加大铝合金材料的研发和成果就地转化力度，推进高性能铝合金等尽快实现产业化，尽快形成向航空、航天领域提供产品供货的生产能力。加大对白云铝及铝加工基地、清镇铝及铝加工基地基础设施的建设力度，推进铝及铝加工产业向白云、清镇铝及铝加工生产基地集中。加强废弃物综合利用和废渣、废水、废气等综合治理。', '重点抓好中国铝业贵州分公司清镇煤电铝一体化项目、贵州华科铝材料工程技术研究有限公司航空航天高性能铝合金材料项目、清镇市铝工业及煤化工循环经济生态工业园项目、白云铝及铝加工基地项目、贵州广铝铝业有限公司年产80万吨氧化铝及年产40万吨电解铝项目、贵州中铝铝业有限公司年产15万吨铝板带项目、贵州创新轻金属工艺装备工程技术研究中心有限公司新型内衬和母线结构高效节能电解槽研发及示范应用项目、贵阳铝镁设计院有限公司原铝生产企业制造执行系统研发及应用等重大项目的建设。', '立足我省“天然药库”和民族药（苗药）特色及现有产业集群优势，加快益佰、同济堂、百灵制药生产基地和修文扎佐、乌当医药工业园区及中药材种植基地建设，做大做强医药保健品、仿制药、医疗器械等；抢抓国家新一轮GMP改造时机，强力推进药业企业兼并重组，促进药业企业向集约型和集团化发展；通过科技创新和新产品开发，巩固民族药（苗药）在全国民族药生产领域的领先地位；加快生物制药的研发和生产，逐步发展化学合成药，整体提升贵阳药业的竞争力。到2015年，现代药业工业总产值预计达到500亿元，年均增长36.3%，比“十一五”期末增长3.7倍，为我市药业向千亿元产业迈进奠定坚实基础；开发国家级新药10-15个，争取2-3个以上项目进入贵州省重大科技专项和国家科技重点项目。', '充分发挥本市民族药的传统优势和中草药的资源优势，立足于现有产业集群，依托中药现代化科技产业（贵州）基地，采用高新技术大力培育和创建苗药品牌，提升药业整体技术水平。以建设中国西部民族药制造基地为目标，加快修文扎佐、乌当、清镇等医药工业园区建设，不断壮大药业生产基地，积极发展地道中药材种植基地。加快益佰药业工业园区、同济堂生产基地建设，鼓励制药业向园区集中，实现研发、信息、生产与废弃物处理等的集中分布和规模化。', '重点抓好贵州圣济堂制药有限公司糖尿病医药项目、益佰医药产业园、贵州同济堂制药基地建设项目、贵州神奇集团治疗尿失禁药物“盐酸丙哌维林片”产业化及技改项目、贵州百灵制药有限公司修文苗药医药园等重点项目建设。', '重点支持现有龙头企业发展，积极引进国内外大企业、大品牌，推进特色食品产业结构优化。积极扶持卷烟、辣椒、乳制品、茶和白酒饮料等产业发展，充分挖掘地方特色传统风味产品，加强宣传推动，打造具有贵阳特色的全国驰名品牌。', '烟草业要以提升“贵烟”的品牌竞争力为目标，紧抓国家对卷烟行业调整扶优限劣的机遇，进一步加大产品结构调整力度，重点发展高档名牌香烟及与卷烟工业配套的辅料、包装印刷等配套产品，大力提高产品附加值。打造1-2个在全国具有较强竞争力的知名卷烟品牌，形成以卷烟制造、包装印刷、辅料制造为基本构架，烤烟种植、包装印刷和辅料生产集约配套的卷烟生产销售体系。', '特色食品加工要以南明龙洞堡、乌当食品工业园区建设为依托，打造一批知名品牌，加快推进规模化、集约化、生态化发展，重点发展调味品、乳制品、特色粮油食品及饮料、白酒等地方特色食品。积极培育做大龙头企业和企业集团化，支持地方特色传统风味产品的开发和产业化生产。重点抓好食品工业园、食品生产线扩能改造等项目建设。', '到2015年，烟草和特色食品业实现产值400亿元，年均增长20%。其中，烟草业实现工业总产值200亿元，年均增长13.8%，比“十一五”期末增长91.2%；特色食品业实现工业总产值200亿元，年均增长28.4%，比“十一五”期末增长2.5倍。打造1-2个在全国具有较强竞争力的知名卷烟品牌，形成以卷烟制造、包装印刷、辅料制造为基本构架，烤烟种植、包装印刷和辅料生产集约配套的卷烟生产销售体系。', '重点抓好南明龙洞堡食品轻工业园项目、贵州贵酒有限责任公司年产一万吨酱香型白酒生产线项目、贵州南明春梅酿造有限公司年产3万吨原生态酱腌菜扩能改造项目、贵州龙膳香坊食品有限公司特色系列食品扩能技改、贵州五福坊食品公司特色肉制品项目建设、贵州老干爹食品有限公司特色农产品综合开发项目等重点项目建设。', '加快淘汰落后产能，加强技术改造力度，全面提升企业整体实力，推进电力、建材、磨料、铁合金等产业发展。积极引导传统高载能产业向周边区县转移并形成集聚，加快推进新型工艺替代传统生产工艺，提高节能环保技术在产业中的应用，推动传统高耗能、高污染产业的快速转型升级。', '电力工业。以贵州华电清镇塘寨发电有限公司一期2×60万千瓦机组项目和煤电铝、煤电磷等自备电厂建设为依托，加快“以大代小、上大压小”的步伐，早日实现电力直供，加强发电与用电产业配套，形成相互间紧密的利益共同体，构建清镇-白云（高新）-息烽-开阳电力直供网；利用格里桥水电站、大花水水电站、构皮滩水电站、索风营水电站等水电优势，加强调度管理，形成水火互济的良好格局。以清镇到织金铁路、清镇到黔西高等级公路的建设为依托，在织金、黔西、清镇明确配套煤矿，为火电机组投产后的电煤供应提供保障。进一步加强和优化电网结构，加强供电可靠性，提升供电的智能化能力，按照服务于“十二五”及今后更长时期的要求，全面加强主网、城网及农村电网建设。2015年，电力工业完成投资151亿元，实现产值185亿元。完成主网新建、改造线路，新建、改造变电站19座，新增供电容量5250MVA；完成城网新建、改造线路，新建、改造变电站50座，新增供电容量7603MVA；完成农网新建、改造线路，新建、改造变电站59座，新增供电容量2239MVA。', '建材工业。按照“淘汰落后调结构、上大压小控总量、节能减排保环境”的思路，重点推进节能利废环保新型建材发展，提高产业集中度。2015年，规模以上建材工业实现总产值150亿元，年均增长20%以上。水泥总产量控制在1800万吨以内，其中新型干法水泥占90%以上；产能排前5位的企业产量占全市总量的65%以上；水泥散装率达到60%以上；新型墙体材料总产量12亿标砖以上，占墙体材料总产量的80%以上。', '磨料。按照淘汰落后、加大投入、加强技术改造和新产品开发、整合提升，适度发展、总量控制，促进向高端发展的思路，充分挖掘、发挥产品质量及市场、技术、人才等优势，强化行业基础，重点推进白刚玉、高性能棕刚玉、高档镀衣磨料、重负荷砂轮、超硬磨具、陶瓷结合剂砂轮、大气孔高速砂轮等新型磨料磨具发展，振兴磨料产业。', '铁合金。按照“产量不减、市场不丢、扶优汰劣、渐次调整”的思路，实施“等量置换”，淘汰落后产能，加强技术改造，推进整合、集聚，提高资源综合利用率，有效控制污染物排放和能源消耗总量。2015年，行业能耗、物耗进一步降低，环境污染得到改善，整体技术装备水平大幅提高，工艺装置实现大型化、清洁化、现代化，生产集中度进一步提高，低磷锰铁、低磷、低碳高硅锰铁合金以及合金粉剂等高纯度和多元复合优质铁合金实现快速发展，建成铁合金产业为主的高载能产业园区。', '装备制造企业以产品研发与设计、生产过程控制和产品智能化为重点。鼓励军工企业与地方企业联合，利用信息化手段提升装备设计能力、制造能力、整机集成和关键部件研发能力，应用先进的计算机控制、概念设计（Alias）、数字样机（DP）、柔性制造系统等技术对传统设备进行改造，推进机械装备的数字化。广泛采用嵌入式软件、无线传感器技术、工业控制技术、故障自动诊断技术和人工智能技术，提高产品信息技术含量。大力推广数控改造技术、模块化控制技术、可重组柔性生产线控制技术、网络化协同制造技术、无模制造技术等先进信息技术。', '原材料相关产业以节能减排为目标。加快原材料工业装备数字化、工艺优化及生产过程自动化改造，推广实时监测、能源管理、综合利用、故障诊断、预警和控制技术，提高煤、磷化工、铝及铝加工等优势原材料的提高生产和节能减排能力。', '消费品行业以质量控制和网上营销为重点。逐步提升烟草、特色食品、现代医药等消费品工业在关键生产工艺、专用设备及生产线的数字化控制水平，加强企业诚信体系与可追溯系统的建设。引导和督促企业应用原料检测、生产过程动态检测、产品出厂检测等先进自动化装置，改善质量安全保障条件。鼓励企业利用信息防伪技术进一步加强对贵州省驰名商标和名特优新产品的知识产权保护。', '加快战略性新兴产业和高新技术产业培育和发展，是贵阳调整产业结构，培育新的经济增长点，引领整个工业经济实现优化升级的必然选择。结合现有产业基础，切实做好企业科技人才引进、技术创新等引导扶持工作，使高新技术成为我市特色产业发展的助推器。积极引进和支持适合贵阳特点、符合国家产业导向的高新技术项目落户贵阳，实现倍增效应。着力推进科研院所、重点企业建立战略性新兴产业和高技术产业产业发展联盟。全面落实国家相关扶持政策，在我市已具有一定基础的新能源新材料、高端装备制造、生物医药、节能环保等领域，实施一批战略性新兴产业和高新技术产业重大专项，建设一批产业研发平台，突破一批核心技术和关键技术，培育一批创新能力强、具有核心竞争力的高新技术企业，建设一批战略性新兴产业产业化基地，战略性新兴产业和高新技术产业整体实力明显增强，在带动产业结构调整方面发挥重要作用。', '围绕贵阳国家级新材料产业化基地，重点支持复合反渗透膜、LED蓝宝石衬底材料、高强度石油压裂支撑剂、锂电池正极材料等现已开发出的一批具有高技术含量、市场前景广阔、处于国内先进水平的新材料产品，进一步加快车用铝合金材料、航空用轻金属合金、钎钢、钎杆、钎具等研发，加快新材料产业的培育和发展。着力推进贵阳市LED光电产业园区的建设，打造集人才培养、产品及工艺研发至下游封装应用的完整产业链条，加速光电产业集聚发展；加快建设LED蓝宝石衬底材料供应基地，使之尽快成为国内重要的蓝宝石衬底材料供应基地之一。2015年，新能源新材料产业力争实现产值400亿元。', '紧跟新能源汽车、混合动力汽车、纯电动汽车和燃料电池汽车等清洁无污染电动汽车的发展趋势及对电池、电机、电控系统的高要求和能源多元化、排放洁净化、燃料节约化的特征，结合我市在汽车及汽车零部件产品涉及整车及改装车、轮胎、散热器、汽车密封条、刮水器及车窗玻璃升降器、汽车起动机及汽车锁匙、螺旋锥齿轮、密封件、保险杠总成、汽车发动机配件及其他基础件等方面已具备的基础，着力推进混合动力车动力总成中的电机及控制系统、电源研究、电动车成套高压电缆关键技术攻关、智能环保安全气囊技术研究、LIN总线的电器开关控制系统技术攻关、电动车节能环保车锁系统技术攻关，重点发展电动车动力锂离子电池及正负极材料、电机及控制系统，建设新能源汽车产业基地。2015年，电动汽车关键零部件产业完成投资15亿元，实现产值50亿元。', '依托我省天然药库及已初步形成的“苗药”品牌基础，以及贵州省天然产物化学重点实验室、贵州省实验动物中心、贵州省中药临床药理基地、贵州省C02超临界萃取中心等多家中药现代化研究机构，以国家一类新药人参皂苷-Rd注射剂、国家生物制品一类新药人神经生长因子注射液、艾迪注射液的产业化为重点，大力推进生物医药开发生产、中成药和民族药（苗药）新药研发，实现生物技术及新药物研发的重大突破，积极推动我市药业整合及结构调整。', '按照资源节约型和环境友好型社会建设的要求，统筹考虑我市工业实现可持续发展、绿色发展的现实需要，重点支持磷煤化工、铝及铝加工、现代药业、特色食品等“三废”资源化利用、余热余压利用，支持相关支撑技术研究及推广应用，支持相关设备开发。2015年，环保产业完成投资15亿元，实现产值50亿元。', '利用贵阳城市规模适中的特点，初步建立“感知贵阳”体系，培育物联网产业，大力发展关键传感器件、监控设备、射频卡等物联网感知层设备及应用层服务，依托振华信息、中星微电子等企业，带动物联网产业链相关企业落户贵阳。以“三网融合”建设为契机，加大对集成电路、新型显示器件、“三网融合”专用电子设备和电子新材料等领域的支持，实现关键技术自主可控。2015年，电子信息产品制造工业产值达140亿元，年均增长达20%。', '围绕贵阳市五大重点产业的各个环节、三网融合和通信建设，支持终端设备和无线手持设备等的嵌入式软件产业；鼓励企业发展针对“云计算”的软件和系统集成相关项目。以创新发展、特色发展、联动发展为方向，整合现有软件园区资源，将麦架-沙文高新技术产业园区建成国内一流软件园区；自主知识产权的基础软件和核心技术取得重大突破，建成一批国家级和省级软件企业技术（研发）中心；促进软件外包服务业发展；加快动漫及网络游戏产业的发展。', '城镇化为工业化提供空间载体，工业化为城镇化提供发展动力。随着城镇化带动战略及工业强市战略的推进，老城区拓展、旧城改造及新城区打造与产业发展有机结合。通过构建贵阳—安顺产业带，重点发展装备制造、生物制药、旅游休闲等产业，发展西部城镇群；构建贵阳—遵义产业带，重点发展高新技术、装备制造、生物制药、特色食品、铝及铝加工、现代物流、旅游休闲等产业，发展北部城镇群；构建贵阳—都匀、凯里产业带，重点发展特色旅游、磷化工、区域加工制造等产业，发展东南部城镇群；构建贵阳—毕节产业带，重点发展能源、装备制造、旅游休闲等产业，发展西北部城镇群。全力推动城镇产业结构升级，优化产业空间布局。', '大力推动产学研结合，完善鼓励企业增加研发投入的机制，推进科技成果产业化；支持企业与高校、科研机构加强合作，引进战略投资，找准市场切入点，开发符合贵阳资源禀赋的高附加值产品；鼓励装备制造业进行集成创新，并带动相关产业创新发展。', '创新服务平台方面，开办科技成果、产学研合作推介会，聘请专家顾问团，邀请顶级专家面对面交流，引进知名的包括计算机、咨询、金融等生产性服务企业，为企业发展提供智力平台；积极建设创新型园区，通过创新型企业的认定和集聚，形成具有自主创新能力的园区平台；鼓励和支持企业联合高校、科研院所等单位共建科技创新研发平台；以工业园区为重点，构建面向科学理论研究、技术开发、产品开发、商业模式创新的第三方公共创新服务信息平台。', '严格按照《贵阳市铝资源开发利用和深度产业转化专项规划》、《贵阳市磷资源开发利用和深度产业转化专项规划》要求，加强资源管理，保护与合理开发并重。加大资源的勘探和保护力度，加强矿产品市场管理。在资源开采源头上，严控铝土矿、磷矿等矿产资源开采总量，加大资源整合力度，优化资源配置，实现资源合理开采及有效利用。加大资源整合力度，推进矿产资源向优势产业和重点企业配置。在资源开采过程，支持和鼓励铝土矿、磷矿等矿产资源开采加工企业提高采矿回收率、选矿回收率、共伴生矿综合利用率。加快利用共伴生资源的技术开发进度，提高资源价值。鼓励企业开发中低品位资源的工业化综合利用技术，充分利用矿产资源，最大限度地延长资源开发利用周期。', '大力实施重点节能改造工程，支持磷煤化工、铝及铝加工等高能耗、高污染行业在节能减排领域的试点应用，实现对高耗能高污染行业的能源资源消耗和污染排放联网的实时监测与控制。加强技术改造和配套产业引进力度，延伸产业链、拓宽产业幅，实现企业、工业园区、区域等生产循环和物料、能量平衡，强化污染物排放的过程控制，最大限度地提高资源利用率，减少污染物排放；大力推进粉煤灰、磷硫石膏、煤矸石、尾矿等工业废弃物资源化、规模化和产业化利用，提升资源综合利用水平，建设“贵阳市工业固体废物综合利用示范基地”。推动环保型、节能型信息技术产品的应用，推广发光二极管（LED）等节能照明，发展节能产业。', '按照产业发展规划，围绕“十大工业园区”，加强对产业空间布局的统筹规划。以六大特色优势产业为重点，通过产业空间布局调整和园区建设，支持和加快发展特色产业集群。创建国家级新型工业化产业示范基地，力争每年确定两个工业园区作为创建国家级新型工业化产业示范基地进行培育。以园区为载体和抓手，促进各种资源合理配置和产业分工，完善产业链条和区域配套。', '推进两化融合示范园区和数字园区建设。以小孟工业园、麦架-沙文工业园为数字园区试点，建设园区信息化的“网络通、信息通、政务通、市场通、生活通”和“一个统一、可靠、安全、高速、稳定的宽带网络平台”的“五通一平”高效信息化平台，重点发展为入驻企业提供技术开发、试验、推广及产品设计、加工、物流、检测、信息化等公共服务平台支持。把示范区建设成信息化水平高、自主创新能力强、辐射带动作用大、规模效益好、资源消耗低、环境污染少、公共服务体系完善的两化融合园区。', '以装备制造、磷煤化工、铝及铝加工、现代药业、烟草和特色食品等六大优势产业为重点，按照《贵阳市关于加快培育和发展大企业（集团）实施方案》，实施大企业（集团）培育计划，推动市内外行业龙头企业和优势企业进行联合重组，加速培育国内乃至世界一流大型企业和企业集团。重点将开磷集团、贵州中烟工业公司、中铝贵州分公司、昊华贵阳、首贵特钢、奇瑞客车、贵州轮胎等行业龙头企业培育为销售收入超百亿元的企业，充分发挥其龙头作用，带动产业实现跨越式发展。选择主业突出、拥有核心技术、具有较强市场竞争力的企业作为行业重点企业，采取融资帮扶、项目支撑、要素保障、人才引进、推动上市等措施，进行重点扶持，培育成为行业龙头企业。基于“十一五”企业信息化“1261”工程成果，以装备制造、磷煤化工、铝及铝加工、现代药业、烟草和特色食品业等支柱产业为重点，促进企业层面工业与信息化融合。围绕企业研发设计、过程控制、企业管理、物流、营销采购、人力资源开发、新型业态培育和技术改造等环节，选择50家大型企业作为两化融合示范企业，给予各方面支持，并完善示范企业经验共享机制，促进企业向高端制造和服务转型。', '发挥大企业大集团在规模、技术、管理、品牌、市场等方面的优势，通过产业价值链、技术传递链带动行业加快发展，在高新技术突破与产业升级、制度与品牌建设、企业信息化和企业家自身建设等方面，对全市中小微企业起到良好的辐射示范效应，带动传统产业改造升级。', '优化中小微企业发展环境，建立和完善有利于其发展的管理体制，理顺管理职能，简化审批程序；推动创业辅导、市场开拓、人才培训、管理咨询、公共信息、法律援助、技术创新和融资担保等服务平台建设。充分发挥市中小企业服务中心的作用，鼓励和支持区（市、县）建立中小企业服务中心，逐步健全完善市及区（市、县）两级服务于中小微企业的社会化服务网络体系，为中小微型企业提供高效、便捷的社会化服务。', '加强中小企业创业基地建设，支持中小企业技术创新项目和技术改造项目，提供科技孵化服务，加强对企业员工的管理与技能培训，积极搞好产业配套服务。加强创业孵化基地建设，支持小微型企业创业基地、大学生创业园、数字产业园建设,鼓励发展各具特色的创业孵化基地，以财政资金为引导，吸引各类投资公司、民间资本共同为小微型企业搭建聚集发展平台。', '着力解决中小微企业融资难问题，积极构建多层次、多元化的为中小微企业贷款支持的融资体系。与各商业银行开展多种形式合作，搭建政银企参与的旨在为中小微企业融资贷款的融资服务平台、产业发展基金等；引导和支持以民间资本为主体的担保、小额贷款公司的发展，充分发挥贵阳市担保行业协会和小额贷款行业协会作用，调动民间资金解决中小微企业融资问题；推动建立各种合作方式的担保紧密联盟，在紧密联盟基础上，探索建立以财政出资的融资性担保公司为主体、民间出资的担保公司为补充，多元化方式参与，现代企业制度健全的担保集团公司，实施再担保，提高担保公司对全市中小微企业的融资担保能力。', '紧紧围绕贵阳市特色产业和工业园区，大力发展研发设计、现代物流、信息服务、技术咨询、服务外包、商务服务、金融等生产性服务业，降低企业成本，提高效率，增强市场竞争力；完善园区基础设施，提升园区综合服务能力，充分发挥园区辐射带动作用。重点依托小河—孟关装备制造业生态工业园区，建设研发工程中心、物流和商贸服务中心；围绕麦架—沙文高新技术产业园区、花溪江苏“慧谷”信息产业园及高校聚集区高新技术生态IT产业群落，配套建设人才培养、软件服务外包、创意设计、分销中心和配送中心；依托铝及铝加工基地、铝煤基地、磷煤化工基地、药业、食品基地及首钢特殊钢公司新材料基地，建设物流配送中心、商贸服务中心、产品研发中心；以山水物流有限公司综合物流管理信息平台、贵州一品药业物流网络信息系统、贵阳软件园公共物流产品服务平台及联盟建设三个项目为试点，建立公共物流服务平台;依托六大产业及重点企业，建设技术服务中心、信息服务中心、产品研发中心等。鼓励和支持行业协会加强自身建设，充分发挥协会在联系政府和企业方面的桥梁作用，并在现代物流业、信息服务业、商务服务业等方面，为企业、产业的做大做强做优提供优质服务。', '坚持产业集聚、集约发展方向，探索完善体制机制，规划建设各类开发区和工业园区，促进工业用地向城镇和交通沿线集聚，形成若干工业集聚区，支持发展条件好的园区拓展综合服务功能，促进工业化与城镇化相互融合。', '加大优化整合力度，形成两个开发区、三个产业基地和若干工业园区的产业布局。贵阳国家高新技术产业开发区向沙文、麦架方向聚集和发展，推进形成产业转移承接区，并预留发展空间。小河国家经济技术开发区向南部孟关方向转移和延伸，打造小河—孟关装备制造业走廊。铝及铝加工产业向清镇和白云集中，磷及磷化工产业主要向开阳、息烽集中，煤及煤化工产业主要向清镇、息烽、开阳集中，现代制药产业主要向乌当、修文集中，食品加工产业主要向乌当、南明集中。加快推进十大工业园区建设，逐步形成若干各具特色的区域产业集群。', '用生态文明理念指导园区建设，把园区加速发展建立在层次高、效益好、能耗低、污染小的基础上，切实转变园区发展理念。分三个梯次建设和发展园区，第一梯次是发展以高端制造业与现代服务业紧密结合的工业园区，建设集知识密集、资金密集、商业繁荣、金融发达、信息流丰富等为一体的二、三产业充分融合的城市综合经济区，如高新区；第二梯次是以先进制造业和生产性服务业相结合的工业园区，形成工业化和城镇化结合的示范区，如小孟工业园区；第三梯次是重化工业区，主要发展资源型产业，延伸其产业链，电力、路网、通讯、水网等主要生产要素要与之配套，这些区域形成工业集镇，如息烽磷煤化工园区、开阳磷煤化工生态工业园区、清镇煤化工及铝加工工业园区等。', '贵阳国家高新技术产业开发区和国家级贵阳经济技术开发区作为贵阳的重点综合性工业园区，“十二五”期间，要按照一类工业园区建设目标，全面实现“八通一平”，成为我市高端产业的重点集聚区。', '开阳磷煤化工生态工业示范基地、息烽磷煤精细化工工业园、白云铝工业基地、清镇市铝工业及煤化工循环经济生态工业园及龙洞堡食品轻工业园、修文扎佐医药工业园、乌当医药食品工业园、花溪金石石材工业园区作为贵阳的特色专业性工业园区，“十二五”期间，要按照二类工业园区建设目标，全面实现“六通一平”，成为我市特色优势产业的主要集聚区。', '各类以企业为主体或各区（市、县）自建的工业园区，“十二五”期间，要按照三类工业园区建设目标，基本实现“五通一平”，作为贵阳工业园区发展格局的有力补充。', '加强电子政务建设，提升对工业发展的支持能力。建设市级集中的数据中心，加快基础数据库建设，完善政务信息资源共享与交换体系。深化信息资源综合利用，强化政府网站服务特征，深化专项系统应用，推进政务协同与电子监察广泛应用。完善政务信息安全体系。实施“金工工程”，提升政府经济运行监测与调节能力。推进“贵阳市综合应急指挥”系统建设，建立统一的城市应急指挥中心。实施感知贵阳行动计划，促进物联网技术在城市管理、智能交通、烟草行业、路网建设、机场、电网、危险品管理、地下管网、环保等十大领域的应用。', '推动社会信息化发展，提升市民“数字福利”。深化教育、医疗卫生、社区和农村管理等方面的信息化应用水平，推进“市民卡”工程。充分利用信息共享，创新社会服务。积极推进数字档案馆建设，到“十二五”末期，市档案馆馆藏目录数据达500万条以上、全文数据超过500万页。', '“十二五”时期，贵阳市将按照黔中经济区发展规划和战略布局，充分发挥贵安新区区位和资源优势，积极承接国际新兴产业、国家战略产业和东部沿海地区高端产业辐射和技术外溢。整合区域各类发展资源，构建“一核两基五带十园”布局框架，推动产业集聚、集约发展。', '围绕建设黔中经济区和贵安新区的机遇，发挥贵阳市在黔中经济区的核心优势和贵阳国家高新技术产业开发区与国家级贵阳经济技术开发区的政策功能平台优势，扩展两大开发区的发展空间，整合土地与政策资源、强化功能特色、形成发展合力，建立布局合理、层次有序的高端产业集聚发展格局，形成工业化、城镇化和信息化高度协调的高端产业功能区，提升核心区在黔中经济区的地位和竞争力。', '北部以贵阳国家高新技术产业开发区为依托，以麦架-沙文高新技术产业园建设为重点，重点推动先进装备制造、新材料、节能环保、新能源、生物制药等产业发展，培育战略新兴性产业。把高新区新兴产业的发展和金阳新区城市开发结合起来，建设集创新创业、科技商务、工业生产、生活居住、服务配套为一体的高新技术新城，带动北部修文—扎佐—久长—息烽—小寨坝城市带的协调发展。使之成为集知识密集型、资金密集型、商业繁荣、金融发达、信息流丰富等为一体的二、三产业充分融合的辐射黔中经济区的城市经济高地。', '南部以国家级贵阳经济技术开发区为依托，以小河—孟关装备制造生态工业园建设为重点，重点发展特种车辆、工程机械及矿用机械、新能源汽车及汽车零部件、航空航天等高端制造业，重点培育新材料、数控机床、医疗器械、风电设备、环保机械设备等产业，形成高端、高效、高辐射力的高端制造业产业集聚区。有效整合产业空间资源，向湖潮一带拓展，打造天河潭新城，形成贵阳经济技术开发区“一区多园”的布局结构。提升高端制造业的集聚和承载能力，使之成为黔中经济区高端制造业发展和对外辐射的重要承载区。', '利用格里桥水电站、大花水水电站、构皮滩水电站、索风营水电站等水电优势，加强调度管理，形成水火互济的良好格局。以清镇到织金铁路、清镇到黔西高等级公路的建设为依托，在织金、黔西、清镇明确配套煤矿，为火电机组投产后的电煤供应提供保障，为工业产业发展提供强有力的能源支撑。', '依托我市丰富的铝、磷、煤、电等资源，引导资源的合理配置，切实提高资源的就地转化，实现资源勘查、开发、利用和保护的协调发展，实现资源的可持续利用；积极延长产业链，提高产业技术水平，大力发展循环经济，形成煤电磷、煤电铝、煤电钢、煤电化的四个一体化发展，为工业产业发展提供强有力的支撑，将资源优势转化为经济优势，把贵阳打造成西部重要的生态型资源深加工基础平台。', '以小河—孟关装备制造生态工业园和麦架—沙文高新技术产业园建设为重点，大力发展工程机械、数控机床、特种车辆、汽车零部件、航空零部件、液压基础件、机电集成、电子信息等产业。以主机企业为龙头，延伸配套产业链，形成产业集聚，构建以贵阳为核心，遵义、安顺为两极，贵黄和黔渝高速公路为轴线的遵义-贵阳-安顺装备制造业产业带和贵阳小孟及高新区装备制造业核心簇团，打造具有中西部地区影响力的装备制造业基地。', '整合磷、煤资源，以清镇、开阳、息烽煤及煤化工循环经济生态工业园区建设、福泉磷化工基地为重点，沿金沙—息烽—开阳—瓮安—福泉布局建设产业带，打通金沙—息烽物流通道，提供磷化工产业的原料煤通道。并依托织金、黔西等地煤炭及煤层气资源，加快打通清镇到织金铁路、清镇到黔西高等级公路，建设以新型能源为主，煤电化、煤电铝联产的一体化生态工业新区，打造清镇—织金—黔西煤及煤化工金三角。形成以开磷集团和瓮福集团为“哑铃型”的磷化工核心簇团。', '以白云铝及铝加工基地、清镇铝煤化工基地建设为重点，以中铝贵州分公司、中铝遵义氧化铝公司、贵州广铝公司等龙头企业为带动，发展铝精深加工，延长产业链；采取强有力措施保护铝土矿资源，提高区域内的资源就地转化率；大力引进国内外关联企业，打造集铝土矿、煤炭、电力、电解铝、铝加工为一体的大型企业集团和产业集群，建设沿平坝—清镇—白云—修文—开阳—遵义的铝及铝加工产业带。尤其形成以清镇、白云、遵义为铝及铝加工核心，平坝、清镇、修文、开阳为铝土矿资源配置的产业带重点区。', '以修文扎佐、乌当、清镇医药工业园区和遵义GAP中药材种植基地建设为重点，完善药业种植、生产、研发、产业保障服务、市场信息服务网络体系建设，构建从药材种植到研发、生产、销售的完整产业链；强力推进药业企业兼并重组，促进药业企业向集约型和集团化发展。构建西秀-平坝-清镇-修文-乌当-龙里现代药业产业带，注重清镇、修文、乌当医药产业在该产业带的突出地位。', '以南明龙洞堡食品轻工业园、乌当医药食品工业园建设为重点，构建遵义-贵阳-安顺特色食品产业带。依托“老干妈”、“老干爹”、“味莼园”、“好一多”、“山花”、“黔五福”、“贵州龙”等一批省内外知名品牌，发挥贵阳在特色食品开发、市场建设、品牌推广、加工存储技术的龙头地位作用，形成行业优势企业为带动、以南明龙洞堡、乌当食品园为中心的集食品加工、商贸流通为一体的贵州特色食品集聚区，辐射带动遵义、安顺、都匀、凯里等地特色食品加工和特色农产品种植产业发展。', '以两个国家级开发区发展为核心，按照“工业园区化、园区标准化、布局专业化、机制市场化”的要求，进一步强化工业园区建设主体责任，形成产业分布合理、特色突出、功能完善、有较强配套能力的工业园区发展格局。各工业园区规模以上企业相对聚集，基础设施建设相对完善，生产型服务业相应发展，成为实现贵阳工业经济发展新突破的重要平台。到2012年十大工业园区基本建成，2013年基础设施建成，规模以上企业相对聚集，基本形成产业分布合理、特色突出、功能完善、有较强配套能力的工业园区发展格局。', '位于贵阳市中心城区北部、白云区沙文镇的金甲至苏庄一带。以发展高新技术产业为主导，集管理办公、研究开发、工业生产、科技商务、信息交流、服务展示、仓储转运、生活居住、服务配套为一体，着力打造新材料新能源、高端装备制造、生物医药、电子信息四大产业，推进产业集聚，不断优化产业结构。力争把园区打造成为综合性、园林式、生态型高新技术生产基地和现代化科技新城。力争2015年实现工业总产值500亿元。', '位于小河、花溪孟关区域，规划面积31.5平方公里，总投资规模50亿元：北至西南环线及南明河，南至花溪区青岩镇杨眉村，西至将军山，东至凤凰山。依托现有的产业基础，引进知名企业，形成产业集群。重点布局工程机械、特种车辆、矿用机械、汽车零部件、工业基础件、航空航天、电子信息、电力设备制造产业。逐步把园区建设成为配套设施完善、产业配套较为完整、产业链条较长的全省最大的装备制造业基地和西南地区乃至中西部地区重要的装备制造业基地。力争2015年实现工业总产值600亿元。', '位于白云区东北部，规划面积为2.83平方公里，总投资规模21亿元。以中铝贵州企业为依托，以高新技术产业为核心，以铝及铝加工产业为重点，规模发展高端铝及铝合金锭坯、新型高强度铸造铝合金材料、汽车轮毂等产业，逐步形成低成本、高效化、短流程、绿色环保的循环产业链。基地投资主要突出铝业特色，重点吸纳铝业深精度加工、铝业研发、工业物流、机械制造加工企业入驻基地，形成产业集群，培育完善商贸流通业、房地产业及社会性服务业。力争2015年实现工业总产值150亿元。', '位于清镇市站街—卫城—王庄一带，规划工业用地面积17.86平方公里，总投资规模130亿元，现有铝精深加工工业园、煤精细化工工业园、中八工业园、医药食品工业园。铝精深加工工业园依托资源、能源和现有产业基地优势，形成以采矿业—矿产品加工—氧化铝—铝冶炼—铝型材加工—铝镁合金产品制造的铝及铝加工主导产业，同时发展大量消化工业废渣及综合利用、“吃干榨尽”不同品位矿产资源的建材、耐火材料、陶瓷产品、磨料加工等辅助产业；煤精细化工工业园以城市燃气及配套产业为主导，以甲醇深加工产业、精细化工为延伸，兼容煤制烯烃、建材及其他相关产业；中八工业园以装备制造、机械加工、IT产业、轻型建材等轻型结构加工业为主导产业，并重点打造东部产业承接区；医药食品工业园以医药、医疗器械、输液软袋、食品等轻型结构加工产业为主导产业。力争2015年实现工业总产值400亿元。', '位于息烽县小寨坝镇西北侧，规划面积7.89平方公里，总投资规模104亿元，现有息烽小寨坝循环经济精细磷煤化工工业园、永靖镇食品医药工业园、温泉镇尹庵磷化工工业园等工业聚集区，依托现有产业基础，充分发挥自身和周边地区的资源优势，以磷化工、煤化工、氯碱化工、氟化工和硅化工为主线，重点发展电子级、食品级、特色精细化工和环保建材等产品，成为贵州省的一大综合性磷煤氯碱氟硅化生产基地和全市重要的食品医药、绿色食品、建材生产基地。力争2015年实现工业总产值180亿元。', '位于开阳县双流、永温、大水一带，规划面积19.7平方公里，总投资规模92亿元，由双流、城关、金中、永温四个片区组成。依托丰富的磷矿资源，大力开发资源综合利用技术，重点发展磷及磷化工、煤化工、氯碱化工、氟硅化工，促进磷煤化工耦合发展。积极开展工业园区内磷石膏、黄磷炉渣、黄磷尾气、磷矿渣、煤渣、电石渣等磷煤化工废弃物的资源化利用，拉长产业链，增加单位资源的产出。建设成为工业循环经济的示范地、贵阳市经济新增长极。力争2015年实现工业总产值300亿元。', '位于南明区龙洞堡一带，规划总面积9.05平方公里，总投资规模133亿元。产业布局以特色食品为主导，同时发展传统食品业、绿色食品工业、物流信息服务等产业。将致力于建设成集绿色食品和文化出版为主导产业发展，集仓储物流、孵化研发、教育培训、商贸展示、文化创意、工业旅游等园区服务为一体的新兴大型综合产业园区。园区抓住两大产业发展主线，依托一个综合服务平台。“两大产业发展主线”：一条是以软饮料、乳制品、调味品、糕点糖果等绿色食品先进制造为核心的产业发展群；一条是以文化出版产业为核心的包含编辑设计、印刷复制、出版发行、数字创意等业态的产业发展群；“一个综合服务平台”：同时为园区提供包含仓储物流、商贸展示、科教孵化、现代中介服务等在内的综合产业平台。力争2015年实现工业总产值200亿元。', '位于乌当区洛湾-云锦及火石坡一带，食品工业园区（洛湾—云锦）规划面积11.38平方公里，食品工业园区（火石坡）规划面积0.7平方公里，总投资规模15.8亿元。产业布局以现代制药业为主导，兼顾发展特色食品、高新技术产业。依托贵州民族药业的天然优势，实现药品制造产业集群，分为火石坡及洛湾云锦两个板块。火石坡片以特色食品加工产业为主，同时建成行政管理区、科研孵化区、商业区、居住区等为园区生产配套服务的配套设施。洛湾云锦片重点发展特色食品现代医药产业和新型电子元器件制造产业及与之相配套的包装、物流等新型工业产业。力争把园区建设成为设施完备、功能齐全、承载力强的食品工业发展平台，我市食品产业优先积聚、资源整合的产业基地。力争2015年实现工业总产值50亿元。', '位于修文县扎佐镇，规划面积为5.17平方公里，总投资规模12亿元。目前已初步形成以中成药为主，集生物制药、化学制药为一体产业群。现有龙场工业园、扎佐工业园和久长工业园。园区将逐步形成以首贵特钢及上下游产业等为主导的钢铁制造加工产业；以黔轮胎及配套项目等为主导的产业；以贵州百灵、贵州贵酒、贵阳统一、好一多等为主导的医药食品产业；以贵州诺亚精密铸造、龙翔集团机械加工等为主导的精密铸造和机械加工产业；以贵州自立、贵州泽西、贵州鑫益能等为主导的新材料产业；以贵州华飞等为主导的铝资源加工产业；以金久水泥为主导的建材产业等。力争2015年实现工业总产值600亿元。', '位于花溪区石板镇，规划面积5平方公里，总投资规模25亿元，由石材加工区，石材荒料展示交易区，钢材加工销售区，二手车及货车改装区，农副产品物流区几大板块组成。石材深加工区是园区的核心板块，主要集天然、人造石材建筑装饰板材生产加工，石材工艺品制造，石材制品交易，石材新产品、加工新技术研发，技术人才培训等为一体，打造贵州石材品牌，把园区建设成为西南地区重要的石材加工基地。力争2015年实现工业总产值150亿元。', '“十二五”期间，按照生态良好、用地集约、产业集聚、布局合理的原则，配合黔中经济区新产业园区的建设，以贵阳市二大开发区为核心，依托贵阳-安顺、贵阳-遵义、贵阳-毕节、贵阳-都匀、凯里四大城镇产业发展带，加快培育一批主导产业鲜明、产业链条完善、生态环境良好的特色产业园区，如花溪江苏“慧谷”信息产业园及高校聚集区高新技术生态IT产业群落，建设集软件研发、软件外包服务、技术支撑、人才培养、教育培训为一体的高科技产业发展基地，国内一流的以嵌入式软件等为主的特色软件产业园和国家级的数据备份（冗灾）基地，实现各功能区、基地、乡区县的协同发展，为承载高端、特色产业提供平台，增强黔中经济区造血能力。', '以抓重大项目建设为扩大工业经济总量和调整结构的根本路径，以增量的扩张实现工业经济总量的规模扩张，积极创新政府服务机制，推进重大项目建设。建立重点产业和产业链发展协调制，对主导产业、新兴产业和重点产业链发展，成立专门推进小组，负责制定并组织实施具体产业的发展规划和年度工作计划，负责策划产业发展重大建设项目并推进前期工作，及时协调及解决项目建设中存在的问题。改善和简化行政审批程序，保证重点项目推进。对关系长远发展的重大项目，坚持“特事特办、全程务”的原则，进一步加快有关手续办理。树立“全市一盘棋”的重大项目落地观念，强力推动工业项目按照园区定位分类进入相关园区，不断优化工业产业布局，构筑特色产业集群。强化和提升重点产业、重点项目各要素的配置服务能力。 在具备条件的政府部门推行政务信息化的集中服务，形成责任明确、层次清晰、管理顺畅、高效低成本的行政和技术工作体系。', '创新产业扶持和引导模式。建立重大科技成果产业化和产业项目统筹工作联席会议工作制度，健全相关职能部门在产业重大项目扶持方面的统筹工作机制，形成发展合力。创新首购、订购、首台（套）示范项目和推广应用等政策采购方式，扩大政府采购的试点范围和适用领域，加大对战略性新兴产业和自主创新产品引导。把贵阳产业发展放在全球坐标体系中进行比较、分析、研究，加强宏观经济形势分析预测。加强循环经济、清洁生产、节能降耗、环境保护的产业政策引导。重点支持煤化工、磷化工、铝工业循环经济项目开发和建设，积极推行和实施清洁生产，引导和鼓励使用清洁能源。支持企业研发生产节能环保型产品和专项设备，对可再生能源产品开发、资源综合利用、节水节能等有较大促进作用的项目和产品，给予一定金额贴息支持。围绕特色产业集聚发展，研究制定一系列专项扶持政策，鼓励产业链上下游企业集聚发展，形成现代生态工业体系。', '实行工业用地倾斜政策，在符合城市总体规划和土地利用规划前提下，年度用地指标优先安排工业用地。建立工业项目效益评价制度，对落户工业集中区的项目投资强度、单位土地产出率等制定控制指标。引导和鼓励工业企业通过提高项目容积率、建筑密度等方式，集约用地，切实降低工业用地成本。突出空间载体建设，坚持土地集约原则，建立投资强度、总收入、利润等控制性指标，加强园区用地调控。加强土地拆迁、一级开发、产业基础设施、公共配套环节建设，有序开发。', '加快配套体系建设，规划建设各园区连接中心城区的骨干路网或大型公交等公共交通系统，高标准建设水电气暖等市政基础设施。建设一批先进的公共科技基础条件平台，推进一流的文化、教育、医疗卫生等生活配套设施建设，建立支撑产业发展的商务服务体系和满足人民生活需要的便民服务体系，推动生产性服务业发展，完善配套产业业态布局。加强园区开发建设与城市建设统筹，推进农民拆迁安置、转工转居与农村保障体系建设。全面整合社会资源，优化要素配置，使园区建设和城镇群建设有机结合起来，认真做好园区内工厂职工住房的配套、水、电、路、气、教育、卫生、信息物流等基础设施的配套。优化工业园区整体配套环境，全面提升产业发展支撑水平，建设基础设施完备、配套功能齐全、人居环境优美的生态文明的工业园区。以技术研发中心、资源精深加工和装备制造总装线等相关项目为招商重点，结合各园区重点发展产业部署，打造一批规模化的高端产业集群，形成区域生态产业体系，提升工业规模、质量和层次。按照特色鲜明、用地集约的原则，大力培育优势突出、特色明显的产业集聚区，积极推动以产业链为纽带的产业集群建设，推动相关产业向特色工业园区集中，提高集约化水平，重点培育一批在自主创新、品牌质量、节能减排、服务体系建设等方面突出的新型工业化产业示范基地。', '加大政府财政对工业的投入，“十二五”期间，按贵阳市本级财政收入实际增长情况逐年增加财政扶持工业类和信息化预算资金。合理统筹安排技改资金、中小企业发展资金、应有技术研究与开发资金等各类财政性资金，提高资金的使用效率，增强对工业经济和信息化发展的扶持力度。科学推进国企改革、改制，从国有企业改制入手，加快企业改革步伐，着力推进企业、产业升级换代，通过对国企的改制重组，拿出部分资金，加强工业的投入。“十二五”期间，各区（市、县）要根据财力增长情况，增加工业和信息化发展专项资金。创新财政性资金引导和扶持模式，选择与国内外知名投资机构合作，设立产业专项投资引导基金，鼓励和引导外资、民营等多元化资本进入产业。引导多元资本参与园区建设，通过土地一级开发、公共服务配套等生产要素整合和配置，鼓励有实力的大型企业或投资机构投资园区基础设施建设，对于社会资金在园区内投资基础建设予以政策扶持、资金补贴、财税减免等方面的支持，形成全社会关注、支持贵阳工业园区发展的局面。支持企业直接融资，通过引入具备资质、业绩良好的企业上市顾问服务中介机构，对有条件的企业做好上市培育工作。鼓励具备条件的企业发行企业债券、上市，特别是积极利用好创业板上市融资，并对成功上市的企业给予一次性补贴。加强政银企沟通协调，由政府相关部门牵头，搭建政银企交流平台，加大对重点工业企业和项目的信贷投放力度，创新银行放贷模式，努力提高工业贷款在总信贷规模中的比重，及时为企业解决资金需求问题。改善和提升对融资性担保、小额贷款公司服务，加大对中小微企业信贷投放力度。', '紧紧抓住国家启动新一轮西部大开发战略的历史机遇，深化与黔中经济区内各市的全方位对接合作，拓展合作领域，创新合作方式，全面推进黔中经济一体化发展。积极承接珠三角、长三角等东部沿海地区的产业转移和经济辐射，有效借助外部资金加快贵阳自身发展。以发展外向型经济为重点，鼓励优势企业大力开拓国际市场。以科技交流活动为平台，引进实施科技合作项目，通过区域科技合作带动技术、项目和资本向我省转移。大力优化投资环境，坚持对内对外并举，外资外贸并进，软硬环境并重，以大开放推进大开发，以大开发促进新跨越。进一步加强重点产业招商工作，善于应用和整合整个社会资源，把工业投资和产业发展、招商引资与项目落地、政府采购与产业发展结合起来，进一步理清招商工作思路，明确招商工作的近期、中期和远期目标。提高招商的成功率，真正实现重点招商和专业招商，确保重点产业招商达到预期目标。', '建立多层次人才培养体系，着力培养专业技术人才、经营管理人才、高技能人才和信息技术人才。加大对特色产业、战略性新兴产业、中小微企业引智项目的支持力度，积极引进精细磷煤化工、高端装备制造、软件信息产业等行业紧缺人才。积极吸引海外高层次留学人才，加强留学人员创业园建设。完善对高级人才选拔任用、生活津贴和社会保障制度等政策。加快大学生创业园建设，吸引和激励大中专毕业生入园创业。着力提升干部队伍素质，以开放的眼光强化工业干部的培训，送一批干部出去挂职，加强考察学习，开阔干部队伍眼界，优化干部的岗位结构和素质。优待年龄大的同志，大胆使用年轻干部、中青年干部，通过腾出一批岗位，面向社会招考，竞争上岗。积极开展中、高等职业教育培训，加大对中、高级技能人才的培养。围绕贵阳市特色优势产业，开设相应的专业和课程，大力培养急需的装备制造业、铝精深加工、药业、食品加工和电子信息等各类专业技术人才。畅通人才流通渠道，选拔优秀中青年企业家到市级党政机关或事业单位任职，选派部分党政机关和事业单位优秀中青年干部到企业挂职任职。', '编制实施方案和年度计划落实规划，对规划确定的各项目标、任务和政策措施，有关职能部门都要制定相应的具体实施方案，并编制年度计划，建立严格的规划落实机制，确保规划落到实处。建立规划实施监测评估机制，强化对规划实施的监督指导，跟踪了解和评估检查规划实施情况，如遇宏观环境重大变化等重要原因，及时提出规划调整方案，按程序报市政府审议批准。建立工业发展激励机制，实施绩效评价和绩效考核。制订评价指标体系和考评奖励办法，强化发展目标专项考核。理顺和优化整个工业管理体系，建立市级领导和有关部门联系重点产业、重点企业和重大项目制度，强化“一个重大项目、一个领导挂帅、一个部门为主负责、一个专门班子具体抓”的工作机制，加强督查协调。各区（县、市）也要建立相应领导机制，加快推动本地经济的发展。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>245</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>胡忠雄深耕科技创新强化四城联动为因地制宜发展新质生产力提供有力支撑</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240319_83953511.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['胡忠雄：深耕科技创新 强化“四城”联动 为因地制宜发展新质生产力提供有力支撑 - 贵阳市人民政府', '3月18日，省委常委、市委书记胡忠雄率队在上海市杨浦区学习考察。他强调，要深入学习贯彻习近平总书记在全国两会期间的重要讲话精神，认真落实全国两会部署要求，深耕科技创新，强化“四城”联动，为贵阳贵安因地制宜发展新质生产力提供有力支撑。同济大学党委书记方守恩，杨浦区委副书记、区长周海鹰，省大数据发展管理局局长景亚萍参加。', '杨浦区委常委、常务副区长尼冰，省发展改革委副主任黄鹏举，省科技厅副厅长杨松，贵阳贵安领导吴宏春、刘岚参加。', '杨浦区地处上海东北部、黄浦江下游西北岸，是上海中心城区面积最大、人口最多，滨江岸线最长的中心城区。在上海技术交易所，胡忠雄认真听取交易所业务发展情况介绍，详细了解技术交易具体案例，现场观看有关系统平台功能演示，对交易所取得的系列成就表示祝贺。他强调，希望双方牢牢把握数字经济发展机遇，持续强化优势互补，深度发掘技术交易领域合作潜力，积极壮大技术交易产业生态，有效推动科技成果转移转化，共同开创更深层次、更宽领域合作共赢新局面。', '大创智创新发展示范园区，是杨浦区实践大学校区、科技园区、公共社区“三区联动”，学城、产城、创城“三城融合”理念的核心区域，是上海创新创业文化科技融合发展的地标之一。在创智天地，胡忠雄走进园区展厅，仔细听取讲解，认真察看园区规划布局，深入了解科技创新、产业发展等方面的经验举措。他指出，杨浦区“三区联动、三城融合”成效显著，十分值得学习借鉴。贵阳贵安要认真贯彻落实省委、省政府关于推动贵州科学城、贵阳大数据科创城、花溪大学城、清镇职教城“四城”联动发展的决策部署，深入学习杨浦区的好经验好做法，高起点做好“四城”联动规划，高质量推进“四城”联动发展，加快把“四城”建成培育和发展新质生产力的主阵地、支撑产业发展的人才库和青年就业、创业的沃土。', '经过多年发展，同济大学国家大学科技园初步形成了“一园多基地”的发展格局，相继培育出一大批高科技骨干企业。来到这里，胡忠雄认真听取讲解，详细询问园区运营机制、科创基金建设使用等方面情况。他指出，科技是第一生产力、人才是第一资源、创新是第一动力。贵阳贵安要把科技创新摆在更加重要位置，以“四城”联动为抓手，更好推动创新链、产业链、资金链、人才链深度融合，加快改造提升传统产业，培育壮大新兴产业，布局建设未来产业，不断完善现代化产业体系，为高质量发展注入强劲动能。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>245</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>马宁宇率队赴天津商业大学学习考察</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202406/t20240601_84714978.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['马宁宇：强化政校联动 搭建优质平台 吸引更多高校毕业生来贵阳贵安就业创业 - 贵阳市人民政府', '5月30日至31日，市委副书记、市长马宁宇率队赴天津商业大学学习考察，与天津商业大学党委书记张亚，党委副书记、校长葛宝臻进行座谈交流，并出席贵阳贵安“人才日”赴外引才活动。', '在座谈交流会上，马宁宇对天津商业大学给予的关心支持表示感谢。他说，当前，贵阳贵安正深入贯彻习近平总书记视察贵州重要讲话精神，认真落实“四主四市”工作思路，全力建设“四大产业基地”。希望双方建立常态化政校沟通合作机制，围绕人才、科研、培育基地等方面，深化务实合作。张亚、葛宝臻对马宁宇一行的到来表示欢迎，并简要介绍了学校建设发展情况。他们说，近年来，学校紧跟社会需求和产业需要，不断优化调整学科设置，力争培养更多高素质人才。贵阳贵安对人才工作的高度重视令人钦佩，学校将立足自身优势，积极推进与贵阳贵安的交流合作。', '在天津商业大学举办的贵阳贵安“人才日”赴外引才活动现场，马宁宇作人才招引推介，他说，贵阳贵安有追逐梦想、尽展才华的广阔舞台，有鼓励创新、开放包容的创业环境，有引才育才、用才留才的配套政策，有气候宜人、青春浪漫的多彩生活，将持续强化人才支持政策，提供最贴心的“一站式”服务，努力让各类人才在贵阳贵安创业安心、工作顺心、生活舒心。希望大家选择贵阳贵安，与我们携手并肩，一路“黔”行、共“筑”未来！张亚在致辞中表示，贵阳贵安发展迅速、潜力巨大。希望同学们珍惜难得的机遇，充分发挥专业所长，在贵阳贵安这个宜居宜业、充满朝气、大有可为的好地方，实现职业理想，让多彩的人生更加出彩。', '据悉，本场赴外引才活动共组织201家用人单位参加，提供岗位655个，涵盖教育医疗、科技研发、数字经济、农业发展等多个行业领域。活动现场气氛热烈，吸引2400余名天津各高校毕业生前来咨询。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>245</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>胡忠雄在乌兰察布与乌兰察布市委书记隋维钧举行会见</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202406/t20240627_84917862.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['6月26日，省委常委、市委书记、贵安新区党工委书记胡忠雄在乌兰察布与乌兰察布市委书记隋维钧举行会见。', '胡忠雄代表贵阳贵安对乌兰察布长期以来的支持表示感谢。他说，近年来，乌兰察布市深入贯彻落实习近平总书记对内蒙古的重要指示精神，大力发展传统产业、优势产业、新兴产业、未来产业，取得的显著成绩让我们深感钦佩、备受启发。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，大力实施数字活市战略，打造面向全国的算力保障基地。两市同为全国一体化算力网络国家枢纽节点城市，数字经济各具特色、各有所长，我们将把本次学习考察作为一次学习之旅、合作之旅，学习借鉴乌兰察布数字经济的发展定位、发展思路、发展目标、发展举措，希望两市深化数字经济、文旅经济合作，让“中国数谷”和“草原云谷”携手实现高水平互利共赢。', '隋维钧对代表团一行的到来表示欢迎。他说，贵阳数字经济支持政策好、产业生态好、发展态势好，是全国数字经济的领跑者，成绩令人瞩目。当前，乌兰察布市正在凝心聚力办好两件大事，积极推动传统产业转型升级、优势产业延链补链、新兴产业培育壮大、未来产业前瞻布局，同时以“一场一节点、一廊一集群”为基础，努力做多数据中心、做大算力规模、做足绿能成色、做活算力输出、做强算力产业，大力实施“绿色算力进京”，深入推动“云谷乌兰察布”建设。希望两地发挥各自优势，在政策制定争取、联系机制建立、文旅融合发展等方面开展务实合作，携手谱写数字经济高质量发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>245</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>胡忠雄在银川与宁夏回族自治区党委常委银川市委书记赵旭辉举行会见</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202406/t20240628_84924752.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['胡忠雄在银川与宁夏回族自治区党委常委、银川市委书记赵旭辉举行会见 - 贵阳市人民政府', '6月27日，省委常委、市委书记、贵安新区党工委书记胡忠雄在银川与宁夏回族自治区党委常委、银川市委书记赵旭辉举行会见。', '胡忠雄代表贵阳贵安对银川近年来发展取得的成效表示祝贺。他说，近年来，银川深入学习贯彻习近平总书记考察宁夏重要讲话指示批示精神，大力实施“强首府”战略，各项事业发展取得显著成效，令人由衷钦佩，值得贵阳贵安认真学习。当前，贵阳贵安正全面贯彻落实习近平总书记视察贵州重要讲话精神，深入实施“强省会”行动，推进中国式现代化贵阳贵安实践。贵阳与银川虽相隔千里，但情谊相连，我们将把本次学习考察作为一次学习之旅、合作之旅，认真学习借鉴银川在发展数字经济、工业经济、文旅经济等方面的好经验好做法，希望双方围绕数字经济平台打造、展会举办、标准制定，工业产业链协同发展，旅游客源互推互引等领域深化合作，推动“爽爽贵阳”与“大美银川”合作共赢迈上新台阶。', '赵旭辉对代表团一行的到来表示欢迎。他说，贵阳市在产业发展、城市建设等方面成效显著，特别是在数字经济发展上起步早、态势好，是全国数字经济的领跑者，许多宝贵经验值得银川市认真学习借鉴。当前，学习好、宣传好、贯彻好习近平总书记考察宁夏重要讲话精神是银川的头等大事和首要政治任务，全市上下正牢记嘱托、感恩奋进、主动作为，以建设黄河流域生态保护和高质量发展先行区为牵引，大力实施“强首府”战略，聚力打造“三都五基地”、建设“两地五中心”，构建“三新”产业主导、数字经济赋能、现代服务业激活的现代产业体系，奋力谱写中国式现代化银川新篇章。希望两地发挥各自优势，继续在数字经济、文旅产业等领域深化交流合作，共同推动高质量发展取得新进展、实现新突破。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>245</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>市第十五届人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2024-06-18</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/qtfdxx/szfcwhy/202406/t20240618_84883431.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['6月17日，市委副书记、市长，贵安新区党工委副书记、管委会主任马宁宇主持召开贵阳市政府常务会议、贵安新区管委会主任办公会议，传达学习省有关会议精神，研究部署近期重点工作。', '会议强调，要深入学习贯彻习近平总书记关于防汛救灾工作的重要指示精神，认真落实全省防汛工作调度会安排部署，时刻绷紧防汛备汛“安全弦”，始终坚持人民至上、生命至上，紧盯雨情、水情、汛情、险情、灾情“五情”，抓实抓细防灾减灾救灾各项工作，全力保障人民群众生命财产安全。要抓好重点领域风险防范，聚焦江河湖库山塘水库、地质灾害隐患点、道路交通、城市内涝、住建等重点，坚持人防、物防、技防相结合，全面排查整治各类风险隐患。要扣紧责任链条，严格执行领导干部到岗带班和24小时值班制度，加强会商研判，及时报送信息，完善应急预案，高标准做好各项准备工作。要严格落实预警叫应机制，确保发生险情能够快速响应、有效救援。', '会议强调，要抢抓省党政代表团赴广东、福建学习考察合作机遇，学习先进经验，深化改革开放，积极谋划推动重大项目落地，加快在建项目建设进度，更好服务全省高质量发展和现代化建设。要严格规范管理政府投资项目，坚持投资必问效、无效必问责，发挥政府投资撬动作用，激发民间投资活力，全力扩大有效投资。', '会议要求，要将党纪学习教育贯穿政府工作全过程各方面，深入开展群众身边不正之风和腐败问题集中整治，把当下改和长久立结合起来，全心全力把老百姓的事一件一件办好，不断增强人民群众获得感。', '会议以视频形式开至贵安新区及各区（市、县、开发区），市有关部门和企业负责人在主会场参加。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>245</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>胡忠雄在呼和浩特与内蒙古自治区党委常委呼和浩特市委书记包钢举行会见</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202406/t20240626_84913202.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['胡忠雄在呼和浩特与内蒙古自治区党委常委、呼和浩特市委书记包钢举行会见 - 贵阳市人民政府', '6月25日，省委常委、市委书记、贵安新区党工委书记胡忠雄在呼和浩特与内蒙古自治区党委常委、呼和浩特市委书记包钢举行会见。', '呼和浩特市委副书记、市长贺海东，市领导刘继英、朱建国；贵阳市领导刘本立、刘岚参加。', '包钢代表呼和浩特市委、市政府对贵阳贵安代表团来呼考察表示欢迎，并简要介绍了呼和浩特市经济社会发展情况。他说，当前，呼和浩特正在深入贯彻习近平总书记对内蒙古的重要指示精神，积极培育“六大产业集群”，重点布局人工智能等未来产业，加快构建现代化产业体系，全面建设现代化区域中心城市。贵阳市在产业发展、城市建设、基层治理等方面工作成效显著，特别是在数字经济发展上起步早、成效好，许多宝贵经验值得呼和浩特市认真学习借鉴。贵阳、呼和浩特同属国家“东数西算”枢纽节点城市，一南一北遥相呼应，合作前景广阔、潜力巨大，希望两市在算力产业、人工智能等方面进一步深化交流合作，携手推进高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>245</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>胡忠雄在海口与海南省委常委海口市委书记罗增斌举行会见</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202405/t20240515_84635931.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['5月14日，省委常委、市委书记、贵安新区党工委书记胡忠雄在海口与海南省委常委、海口市委书记罗增斌举行会见。', '胡忠雄代表贵阳贵安对海口长期以来给予的支持表示感谢。他说，海口是改革开放的桥头堡，近年来深入学习贯彻习近平总书记关于海南工作的系列重要讲话和指示批示精神，加快建设海南自由贸易港核心区和现代化国际化新海口，高质量发展有定力、有魄力、有活力、有潜力，我们倍感钦佩、深受启发。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，坚持“四主四市”工作思路，大力实施“强省会”行动，奋力谱写中国式现代化贵阳贵安实践新篇章。贵阳与海口同为省会城市，双方合作潜力大、优势互补强。贵阳贵安将把本次学习考察作为一次学习之旅、合作之旅，认真学习海口的发展理念、发展格局、发展思路、发展举措，持续加强双方各领域交流互动。希望双方围绕开放经济、文旅经济、数字经济、城市经济等领域深化务实合作，在主动服务和积极融入国家战略中实现共赢发展。', '罗增斌代表海口市委、市政府对贵阳贵安代表团一行表示欢迎，向贵阳长期以来给予的支持表示感谢。他说，贵阳资源富集、生态优良，是一座蓬勃发展的城市。近年来，贵阳深入学习贯彻习近平总书记视察贵州重要讲话精神和对贵州、贵阳贵安工作重要指示批示精神，解放思想、真抓实干，取得了令人瞩目的成就，许多宝贵经验值得海口认真学习借鉴。当前，海口正深入学习贯彻习近平总书记关于海南工作的系列重要讲话和指示批示精神，锚定“一本三基四梁八柱”战略框架，加快建设海南自由贸易港核心区和现代化国际化新海口，各项事业发展保持良好势头。海口、贵阳同为省会城市，分别是海南自由贸易港和西部陆海新通道建设的重要承载地，合作前景广阔、潜力巨大。希望以此次考察交流为契机，在改革开放、产业发展、文化旅游、城市建设等领域进一步深化交流合作，共同服务好国家重大战略。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>245</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>胡忠雄在三亚与海南省委常委三亚市委书记周红波举行会见</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202405/t20240516_84640390.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['5月15日，省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄在三亚与海南省委常委、三亚市委书记周红波举行会见。', '胡忠雄代表贵阳贵安对三亚长期以来给予的支持表示感谢。他说，近年来，三亚深入学习贯彻习近平总书记关于海南工作的系列重要讲话和指示批示精神，加快打造国际旅游胜地和自贸港科创高地，站位高、格局大、举措实，取得的成绩令人钦佩。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，坚持生态立市、工业强市、数字活市、人才兴市，大力实施“强省会”行动。贵阳贵安与三亚交流交往密切、功能互补性强、合作前景广阔。贵阳贵安将把本次学习考察作为一次学习之旅、合作之旅，充分学习借鉴三亚的发展理念、发展定位、发展格局、发展举措，不断丰富拓展文旅经济、种业经济、数字经济、绿色经济等领域务实合作，携手谱写两地共赢发展的新篇章。', '周红波代表三亚市委、市政府对胡忠雄一行的到来表示欢迎并简要介绍三亚经济社会发展情况。他说，当前，海南自贸港建设蓬勃兴起，三亚作为海南自贸港建设的前沿阵地和重要窗口，正锚定“一本三基四梁八柱”战略框架，大力发展旅游业、现代服务业、高新技术产业、热带特色高效农业四大主导产业和南繁种业、深海科技两个未来产业，加快构建现代化产业体系，因地制宜发展新质生产力，打造国际旅游胜地和自贸港科创高地。贵阳在生态文明建设、现代化产业体系构建、城市形象宣传等方面工作成效显著，值得三亚学习借鉴，希望两地在文旅产业、生态文明建设、种业资源共享、科技创新等领域进一步深化务实合作，推动形成更多高质量合作成果，更好实现共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>245</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>胡忠雄在哈尔滨与黑龙江省委常委哈尔滨市委书记于洪涛市委副书记市长张起翔举行会见</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202404/t20240424_84346520.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['胡忠雄在哈尔滨与黑龙江省委常委、哈尔滨市委书记于洪涛 市委副书记、市长张起翔举行会见 - 贵阳市人民政府', '胡忠雄在哈尔滨与黑龙江省委常委、哈尔滨市委书记于洪涛 市委副书记、市长张起翔举行会见', '胡忠雄代表贵阳贵安对哈尔滨长期以来给予的支持表示感谢。他说，近年来，哈尔滨深入学习贯彻习近平总书记视察黑龙江期间重要讲话重要指示精神，扛起建好建强“三基地、一屏障、一高地”的使命任务，经济社会发展取得显著成效，我们倍感钦佩、深受启发。当前，贵阳贵安正深入学习贯彻习近平总书记对贵州工作重要指示批示精神，大力实施“强省会”行动，奋力谱写中国式现代化贵阳贵安实践新篇章。贵阳贵安与哈尔滨虽远隔千里，但情谊绵长，合作共赢未来可期。贵阳贵安将把本次学习考察作为一次学习之旅、合作之旅，认真学习哈尔滨的发展定位、发展思路、发展动力、发展举措，持续加强与哈尔滨市、哈尔滨新区各领域交流互动。希望双方围绕工业经济、数字经济、文旅经济等领域深化务实合作，在双向奔赴、共同成就中加快高质量发展、推进现代化建设。', '于洪涛代表哈尔滨市委、市政府对胡忠雄一行来哈考察表示欢迎，对贵阳贵安长期以来给予哈尔滨的支持帮助表示感谢。他说，当前，哈尔滨正深入贯彻落实习近平总书记视察黑龙江期间重要讲话重要指示精神，抢抓新一轮东北全面振兴重大政策机遇，全力以赴抓产业项目建设，大力发展特色文化旅游，加快构建“4567”现代化产业体系，努力开创推动高质量发展、可持续振兴新局面。贵阳与哈尔滨同为省会城市，均有生态良好、气候清凉的优势，产业契合度较高，合作空间广阔。近年来贵阳贵安坚持生态立市、工业强市、数字活市、人才兴市，形成了“中国数谷”的硬核实力，叫响了“爽爽贵阳”城市名片，经济社会发展取得显著成效，许多好的经验做法，值得哈尔滨学习借鉴。希望双方在数字经济、文旅产业、新区建设等方面进一步深化交流合作，携手推进高质量发展，共同服务国家战略。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>245</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>贵阳市党政代表团赴遵学习考察</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202303/t20230309_78401013.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['3月8日，贵阳市党政代表团赴遵义市学习考察，双方召开座谈会，并签订战略合作协议。省委常委、贵阳市委书记胡忠雄，省委常委、遵义市委书记李睿讲话并共同见证签约。', '贵阳市人大常委会主任聂雪松，市政协主席石邦林，市委副书记陶平生，市领导刘本立、王嶒、龙丛、冉斌、宋旭升、付涛；遵义市人大常委会主任何薇，市委副书记王宏，市领导刘承东、向承强、杨游明、刘东明、曹鸣凤、陈松、周玉新参加。', '胡忠雄代表贵阳贵安对遵义给予的支持表示感谢，对遵义各项事业取得的显著成绩深表敬佩。他说，遵义是一座红色之城、文化之城、魅力之城，有很多好思路、好举措、好经验值得贵阳贵安学习借鉴。当前，贵阳贵安正深入学习贯彻落实党的二十大精神，坚持以高质量发展统揽全局，深入实施“强省会”行动，奋力当好全省高质量发展“排头兵”、现代化建设“领头羊”。贵阳遵义地缘相接、人缘相连、文缘相融，是情感共同体、命运共同体、发展共同体，本次学习考察是一次情感之旅、学习之旅、合作之旅，希望双方深化规划合作、黔中城市群合作、产业合作、生态合作、人才合作，更好实现优势互补、错位发展，共同为推动全省高质量发展作出新贡献。', '李睿代表遵义市委、市政府对贵阳市党政代表团莅遵交流考察表示热烈欢迎，对贵阳近年来经济社会发展取得的成绩表示诚挚祝贺。他说，贵阳与遵义山水相依、人文相亲，长期以来在各个领域互帮互助、交流合作，取得了非常好的成效。当前，遵义正深入学习贯彻落实党的二十大精神，牢牢把握国发〔2022〕2号文件重大机遇，坚定不移实施主战略实现主定位，全方位推进高质量发展，努力在推进中国式现代化的贵州实践中展现遵义作为。在加快高质量发展的过程中，筑遵携手并肩、深化协作，对两地乃至全省高质量发展都具有十分重大的意义。希望双方以此次签订战略合作协议为新起点，充分发挥各自优势，进一步深化交通互联互通、产业互利共赢、交流合作机制，奋力开创两市高质量发展新局面。', '学习考察期间，贵阳市党政代表团实地参观了苟坝会议会址，考察了花茂村、茅台生态循环经济产业示范园、贵州中航电梯有限责任公司、贵州珍酒酿酒有限公司。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>245</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>胡忠雄在合肥与安徽省委常委合肥市委书记张红文举行会见</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240321_83971092.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['3月19日，省委常委、市委书记、贵安新区党工委书记胡忠雄在合肥与安徽省委常委、合肥市委书记张红文举行会见。', '贵州省大数据发展管理局局长景亚萍，贵州省科技厅副厅长杨松，贵阳市委副书记滕伟华，合肥市领导张泉、单虎、赵明，贵阳贵安领导吴宏春、刘岚参加。', '胡忠雄代表贵阳贵安对合肥市高质量发展取得的显著成绩表示祝贺。他说，近年来，合肥市认真贯彻党中央决策部署，科创优势持续突显、新兴产业蓬勃发展、综合实力大幅提升，令人由衷钦佩。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，奋力谱写中国式现代化贵阳贵安实践新篇章。合肥与贵阳贵安产业互补性强、发展契合度高，合作前景广阔、未来可期。贵阳贵安将把本次学习考察作为一次情感之旅、学习之旅、合作之旅，持续巩固拓展两地交流交往，充分学习合肥在科技创新、产业发展、对外开放、基金运作中形成的好经验、好做法。希望双方强化优势互补，围绕数字经济、智能制造、文旅经济等领域深化务实合作，更好实现共赢发展。', '张红文代表合肥市委、市政府对贵阳贵安代表团的到来表示热烈欢迎。他说，近年来，贵阳贵安深入贯彻习近平总书记重要讲话重要指示精神，坚持生态立市、工业强市、数字活市、人才兴市，在数字经济、夜间经济、文化旅游、城市建设等方面创造了许多好经验好做法，值得学习借鉴。当前，合肥正深入学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，锚定打造“三地一区”战略定位、建设“七个强省”奋斗目标，坚持以科技创新推动产业创新，不断塑造发展新动能新优势。希望双方围绕大数据、人工智能、新材料、文旅融合等领域，立足实际，各扬所长，加强沟通对接，深化务实合作，携手推动高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>245</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>长沙市贵阳市合作交流座谈会召开</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240301_83868838.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['2月29日，长沙市·贵阳市合作交流座谈会在长沙召开，湖南省委常委、长沙市委书记吴桂英主持会议并讲话，贵州省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄讲话。', '贵阳市委副书记、市长，贵安新区党工委副书记、管委会主任马宁宇；长沙市委副书记，湖南湘江新区（长沙高新区）党工委书记，岳麓区委书记谭勇分别介绍两市经济社会发展情况。长沙市领导邹特、肖正波、张能峰、彭涛、李舜，贵阳贵安领导刘本立、黄波、杨志伟、黄成虹、王启云、龙丛、刘岚、付涛参加。', '座谈会上，吴桂英代表长沙市委、市政府对贵阳市党政代表团表示热忱欢迎，对贵阳发展取得的显著成效感到衷心钦佩，并感谢贵阳长期以来给予两地合作的关心支持。她说，长沙和贵阳同为中西部省会城市，地缘相近、人缘相亲，都是承东启西、连南通北的内陆腹地，承担着落实习近平总书记殷殷嘱托、促进区域协同发展、推动全省高质量发展和现代化建设的时代重任。近年来，贵阳贵安深入学习贯彻习近平总书记对贵州工作重要指示精神，以“强省会”战略为引领，全面推进美丽贵阳贵安建设和新型工业化高质量发展，铸就了“中国数谷”的硬核实力，实现了“高速平原”的精彩蝶变，打响了“爽爽贵阳”的闪亮名片，许多好经验好做法值得学习借鉴。长沙愿与贵阳一道，以更大力度拓宽合作领域、完善合作机制，携手推进重点产业升级、国家级新区发展、开放平台互通、文化旅游融合、民生服务共享，推动两地合作迈向更高水平、取得更大成果，共同谱写协同发展新篇章。', '胡忠雄代表贵阳贵安对长沙长期以来给予的支持表示感谢。他说，近年来，长沙市深入学习贯彻习近平总书记关于湖南工作的重要讲话和指示批示精神，全面落实“三高四新”美好蓝图，认真践行八个“走在前、作示范”和七个“坚定不移”要求，全力推动长沙高质量发展和现代化建设，经济社会发展取得显著成效，我们深受启发、倍感钦佩。当前，贵阳贵安正深入学习贯彻习近平总书记对贵州工作重要指示批示精神，大力实施“强省会”行动，奋力谱写中国式现代化贵阳贵安实践新篇章。贵阳与长沙交流交往源远流长，合作共赢未来可期。贵阳贵安将把本次学习考察作为一次情感之旅、学习之旅、合作之旅，认真学习长沙的发展理念、发展格局、发展思路、发展举措，持续加强与长沙市、湘江新区各领域交流互动。希望双方牢牢把握发展机遇，围绕产业经济、园区经济、数字经济、文旅经济、教育科技医疗等领域，不断丰富、拓展合作成果，共同开创更高质量互利共赢新局面。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>245</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>胡忠雄在重庆与西南大学党委书记张卫国举行会见</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202405/t20240515_84635908.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['5月14日，省委常委、市委书记、贵安新区党工委书记胡忠雄在重庆市与西南大学党委书记张卫国举行会见，并共同出席2024年贵阳贵安“人才日”赴外引才系列活动西南大学专场。', '西南大学党委副书记黄杰，西南大学党委常委、党委组织部部长李荣华，贵阳市领导刘本立、龙章怀参加。', '会见中，胡忠雄介绍了近年来贵阳贵安经济社会发展情况，对西南大学给予的支持表示感谢。他说，贵阳贵安是心学高地、避暑之都、中国数谷、工业新城，当前正深入学习贯彻习近平总书记关于做好新时代人才工作的重要思想，坚持人才兴市战略，大力实施“强省会”行动。西南大学学科特色明显、科研实力雄厚，发展成就令人钦佩。贵阳贵安将把本次学习考察和招才活动作为一次情感之旅、学习之旅、合作之旅，认真学习借鉴西南大学在办学实践、人才培养、学科建设、思政教育等方面的创新做法，巩固双方合作成果，拓展各领域交流交往。希望双方围绕人才、教育、科技、培训基地等领域深化务实合作，实现共赢发展。贵阳贵安将做好各项服务保障，推动双方合作形成更多丰硕成果，携手为推动新时代西部大开发贡献力量。', '张卫国对胡忠雄一行的到来表示欢迎，对贵阳市委长期以来对学校改革发展的支持和对广大师生的关爱表示感谢。张卫国介绍了学校的发展历程和办学特色，以及近年来与贵州省、贵阳市在各个合作领域取得的进展和成效。他谈到，近年来，贵阳在大数据、人工智能、新能源等领域率先布局，优势明显，高质量发展势头强劲，学校与贵阳的合作广度与深度不断拓展，越来越多毕业生选择到贵阳建功立业、实现梦想。他表示，学校将进一步巩固拓展现有合作成果，立足学校优势特色，进一步深化与贵阳在教育赋能、科技创新、乡村振兴等方面的合作，以实际行动为在中国式现代化建设中谱写西部大开发新篇章作出应有贡献。', '会见后，胡忠雄出席2024年贵阳贵安“人才日”赴外引才系列活动西南大学专场，张卫国致辞，龙章怀作人才招引推介，西南大学在筑就业创业毕业生和用人单位代表现场交流发言。胡忠雄走进招聘大厅，与用人单位、应聘学生亲切交流。他叮嘱贵阳贵安有关单位要大力推进送岗位、送政策、送服务，打好“卡、钱、户、房、岗”政策组合拳，为人才落户贵阳贵安、扎根贵阳贵安、建设贵阳贵安创造良好条件。', '据悉，本场赴外引才活动共组织187家用人单位参加，提供岗位607个，涵盖教育医疗、科技研发、数字经济、农业发展等多个行业领域。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>245</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>筑府发号关于印发贵阳市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2013-09-16</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qff/201309/t20130916_8177046.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['各区、市、县人民政府，高新开发区、经济技术开发区管委会，市政府各工作部门，市各直属事业单位：', '为使市人民政府各项工作法制化、规范化、制度化，进一步提高行政效能，根据《中华人民共和国宪法》和《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》，遵照《国务院工作规则》和《贵州省人民政府工作规则》，结合我市实际，制定本规则。', '市人民政府工作的指导思想是，高举中国特色社会主义伟大旗帜，以邓小平理论、“三个代表”重要思想、科学发展观为指导，认真贯彻执行党的路线方针政策，严格遵守宪法和法律法规，坚决执行党中央、国务院，省委、省政府和市委的指示、决定，贯彻执行市人民代表大会及其常务委员会的决议，全面履行政府职能，努力建设职能科学、结构优化、廉洁高效、人民满意的服务型政府。', '市人民政府组成人员要模范遵守宪法和法律法规，认真履行职责，为民务实，严守纪律，勤勉廉洁。', '市人民政府实行市长负责制，市长领导市人民政府的工作。副市长、市长助理、秘书长协助市长工作。市长因公外出期间，受市长委托，由市人民政府分管常务工作的副市长主持市人民政府的全面工作。', '市长召集和主持市人民政府全体会议、市人民政府常务会议、市长办公会议。市人民政府工作中的重大事项，必须经市人民政府全体会议或市人民政府常务会议讨论决定。', '副市长、市长助理按分工负责处理分管工作；受市长委托，负责其他方面的工作或专项任务，并可代表市人民政府进行外事活动。', '市人民政府各部门要各司其职，各负其责，顾全大局，协调配合，切实维护团结统一、政令畅通，坚决贯彻落实市委、市人民政府各项工作部署。市审计局在市长和上一级审计机关的领导下，依照法律规定独立行使审计监督职能，不受其他行政机关、社会团体和个人的干涉。', '市人民政府及各部门要加快职能转变，全面正确履行经济调节、市场监管、社会管理和公共服务职能，形成权界清晰、分工合理、权责一致、运转高效、法治保障的机构职能体系，创造良好发展环境，提供基本均等公共服务，维护社会公平正义。', '全面落实国家宏观调控政策措施，紧紧抓住国家深入实施西部大开发战略和《国务院关于进一步促进贵州经济社会又好又快发展的若干意见》（国发〔', '号）、批复实施《贵阳建设全国生态文明示范城市规划》机遇，坚持“加速发展、加快转型、推动跨越”主基调，坚定不移实施工业强市和城镇化带动战略，促进新型工业化、新型城镇化、信息化、农业现代化同步发展，主要运用经济、法律手段并辅之以必要的行政手段引导和调控经济运行，促进经济社会又好又快、更好更快发展，确保到', '依法严格市场监管，推进公平准入，完善监管体系，规范市场执法，鼓励创业、创新、创优，维护市场的统一开放、公平诚信、竞争有序，努力建设诚信贵阳、开放贵阳、法治贵阳。', '加强社会管理制度和能力建设，促进就业创业，健全社会保障体系，巩固和发展社会管理创新成果，完善基层社会管理服务，形成源头治理、动态管理、应急处置相结合的社会管理机制，维护社会公平正义与和谐稳定，努力建设平安贵阳、和谐贵阳。', '更加注重公共服务，完善公共政策，健全政府主导、社会参与、覆盖城乡、可持续的基本公共服务体系，增强基本公共服务能力，不断提供更多的社会公共产品，促进基本公共服务均等化，努力建设幸福贵阳。', '按照权责一致、分工合理、决策科学、执行顺畅、监督有力的原则，深化行政管理体制改革，强化行政审批规范化建设和监督力度，简政放权，优化服务，提高效率。', '市人民政府及各部门要带头维护宪法和法律法规权威，建设法治政府。按照合法行政、合理行政、程序正当、高效便民、诚实守信、权责统一的要求，行使权力，履行义务，承担责任。', '市人民政府根据国家法律、行政法规、部门规章和省地方性法规、规章的修订情况和我市经济社会发展需要，适时向市人民代表大会及其常务委员会提出制定、修改或废止地方性法规的议案，制定、修改或废止市人民政府规章、行政措施，发布决定、命令。', '提请市人民政府审议的地方性法规草案和规章草案，由市人民政府法制机构组织起草、审查，市人民政府规章的解释和翻译工作由市人民政府法制机构承办。', '市人民政府及各部门要坚持科学民主依法立法，不断提高政府立法质量，起草地方性法规草案和制定规章、规范性文件，要符合法律法规和国家有关规定的要求，坚持从实际出发，准确反映我市经济社会发展要求，充分反映人民群众意愿，使所确立的制度能够切实解决问题，备而不繁，简明易行。', '完善政府立法工作机制，扩大公众参与，除依法需要保密的外，所有地方性法规和市人民政府规章的草案要公开征求意见。加强立法协调，对经协调仍达不成一致意见的问题，市人民政府法制机构应当将主要问题、征求意见情况和法制机构意见，及时报市人民政府决定。', '重要规章和规范性文件实施后，制定机关或实施机关应当定期对其实施情况进行后评估，发现问题，及时完善。规章和市政府制定的规范性文件由实施机关进行评估后，将评估意见报送市人民政府。', '市人民政府及其部门制定的规范性文件，要符合法律法规、规章和国家、省有关规定要求，严格遵守法定权限和程序。', '涉及两个及以上部门职权范围的事项，要充分听取相关部门的意见。其中，涉及公众权益、社会关注度高的事项及重要涉外、涉港澳台侨事项的，应当事先请示市人民政府并经市人民政府批准。', '严格合法性审查，规范性文件不得设定行政许可、行政处罚、行政强制等事项，不得违法增加公民、法人和其他组织的义务。对违反法律法规、规章或国家和省有关规定，以及规定不适当的规范性文件，要依法责令制定部门纠正或由市人民政府予以改变、撤销。', '以市人民政府及市人民政府办公厅名义制定规范性文件，文件草案应在送审前先交由市人民政府法制机构进行合法性审查。市人民政府各部门制定的规范性文件，应经本部门法制工作机构进行合法性审查，在规定时限内报市人民政府法制机构备案。市人民政府法制机构负责规范性文件备案审查并定期向社会公布目录。', '市人民政府要加强依法行政工作考核，各部门要严格执法，健全规则，规范程序，落实责任，强化监督，做到有法必依、执法必严、违法必究，公正执法、文明执法，维护公共利益、人民群众权益和社会秩序。', '市人民政府及各部门应当完善行政决策规则，坚持民主、法治、公正、时机、择优的决策原则，把公众参与、专家论证、风险评估、合法性审查和集体讨论决定作为重大决策的必经程序，增强公共政策制定透明度和公众参与度。', '全市国民经济和社会发展规划、年度计划、财政预决算，市级经济发展、社会事务、地方性法规草案和市人民政府规章、重大政策规定、重大建设项目以及其他需要由市人民政府决策的重大事项，由市人民政府全体会议或市人民政府常务会议讨论和决定。', '市人民政府各部门提请市人民政府研究决定的重大事项，都必须经过深入调查研究，并进行合法性、必要性、科学性、可行性和可控性论证；涉及其他部门的，应充分协商；涉及区（市、县）人民政府的，应事先征求有关区（市、县）人民政府的意见；涉及重大公共利益和公众权益、容易引发社会稳定问题的，要进行社会稳定风险评估，并可采取听证会等多种形式听取各方面意见。', '在重大决策执行过程中，要跟踪决策的实施情况，了解利益相关方和社会公众对决策实施的意见和建议，全面评估决策执行效果，及时调整完善。', '市人民政府在作出重大决策前，根据需要通过多种方式，广泛听取民主党派、社会团体、专家学者、社会公众等方面的意见和建议。', '市人民政府及各部门要把公开透明作为政府工作的基本制度。深化政务公开，完善各类办事公开制度，健全政府信息发布制度，推进行政权力行使依据、过程、结果公开。', '市人民政府全体会议和常务会议讨论决定的事项、市人民政府及各部门制定的政策措施，除依法需要保密的外，应及时公布。凡涉及公共利益、公众权益、需要广泛知晓的事项和社会关切的事项，以及法律法规和市人民政府规定需要公开的事项，均应通过政府网站、政府公报、新闻发布会以及报刊、广播、电视、网络等方式，依法、及时、全面、准确、具体地向社会公开。', '按照统筹规划、整合资源、服务应用、确保安全的原则，加强政府网站建设，大力推行电子政务，扎实推进政府信息公开工作，切实提高政府工作效率。', '市人民政府要自觉接受市人民代表大会及其常务委员会的监督，认真负责地报告工作，接受询问和质询，依法备案市人民政府规章，及时办理市人大代表的建议、批评和意见；自觉接受市政协、各民主党派和群众团体的民主监督，虚心听取意见和建议，并依照有关规定及时办理提案和建议案。', '条市人民政府及各部门要依照有关法律规定接受人民法院依法实施的监督，做好行政应诉工作，尊重并自觉履行人民法院的生效判决、裁定。各部门要自觉接受监察、审计等部门的监督。对监督中发现的问题要认真整改并向市人民政府报告。', '市人民政府及各部门要严格执行行政复议法，加强行政复议指导监督，自觉履行行政复议决定，纠正违法或不当的行政行为，依法及时化解行政争议。', '市人民政府及各部门要接受社会公众和新闻舆论的监督，认真调查核实有关情况，及时依法处理和改进工作。重大问题要向社会公布处理结果。', '市人民政府及各部门要重视信访工作，进一步完善信访制度，健全“三级调处”，畅通和规范群众诉求表达、利益协调、权益保障渠道，推动“事要解决', '”；市人民政府领导及各部门负责人要亲自阅批重要的群众来信，定期接待群众来访，解决群众合理诉求。', '市人民政府及各部门要实行绩效管理制度和行政问责制度，加强对重大决策部署落实、部门职责履行、重点工作推进以及自身建设等方面的考核评估，健全督查和纠错制度，严格责任追究，提高政府执行力和公信力。', '市人民政府全体会议由市长、副市长、市长助理、秘书长和市人民政府组成部门主任、局长组成，由市长召集和主持。副秘书长列席会议，并根据需要安排有关部门、单位负责人列席会议。', '（一）传达贯彻党中央、国务院，省委、省政府和市委的重要指示、决定和会议精神，以及市人民代表大会及其常务委员会的重要决议、决定；', '市人民政府常务会议由市长、副市长、市长助理、秘书长组成，由市长或市长委托市人民政府分管常务工作的副市长召集和主持。副秘书长列席会议，并根据需要安排有关部门、单位负责人列席会议。', '市长办公会议由市长、副市长、市长助理、秘书长组成，由市长或市长委托市人民政府分管常务工作的副市长召集和主持。副秘书长列席，并根据需要安排有关部门、单位负责人列席会议。', '（二）讨论决定市人民政府各工作部门及各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会请示市人民政府的重要事项；', '（三）传达贯彻上级人民政府及其工作部门召开的，需要在相当范围内执行的工作会议精神；', '市人民政府全体会议、市人民政府常务会议、市长办公会议的议题，由市人民政府办公厅收集议题报市长确定，或者由市长根据工作需要提出议题。', '市人民政府全体会议、市人民政府常务会议、市长办公会议的组织工作由市人民政府办公厅负责。市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区提请市人民政府全体会议、市人民政府常务会议、市长办公会议审议的议题及其附件材料，应于会议召开前报市人民政府办公厅统筹安排。市人民政府办公厅将议题和有关会议文件于会前送达与会人员。', '市人民政府领导不能出席市人民政府全体会议、市人民政府常务会议、市长办公会议，向会议召集人请假。', '其他参加和列席会议的人员因故不能参加或列席上述会议，须向秘书长请假，并将安排参会的其他负责人的职务、姓名向市人民政府办公厅报告。', '市人民政府常务会议纪要、市长办公会议纪要，由秘书长签发，必要时报市长或市人民政府负责常务工作的副市长签发。', '市人民政府各部门召开的工作会议，要减少数量，控制规模，严格审批。应由市人民政府各部门召开的全市性会议，不以市人民政府名义召开，不邀请各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会负责人出席，确需邀请的须报市人民政府批准。确需以市人民政府名义召开的全市性会议，有关部门须提前', '天上报会议方案，由市人民政府办公厅审核提出意见后，报市长或市人民政府常务会议审定。全市性会议应尽可能采用视频会议形式召开。各类会议都要充分准备，提高效率和质量，重在解决问题。', '通过部门商洽在我市召开的全国性、全省性会议，有关部门需提前报告市人民政府，经同意后方可答复和安排。', '市政府要加强对市政府驻外机构的领导，每年至少召开一次驻外机构工作联席会议，总结工作，交流经验，研究问题，布置任务。市政府全体会议要通知驻外机构主要负责人参加。', '市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会报送市人民政府的公文，要符合《党政机关公文处理工作条例》和市人民政府有关行政机关公文处理的规定。除市人民政府领导交办事项和必须直接报送的绝密、紧急事项外，不得以本机关名义直接向市人民政府领导个人报送公文，也不得以本机关负责人的名义向市人民政府报送公文。各部门报送市人民政府的请示性公文，要提前做好调研和协调工作，凡涉及其他部门职权的，必须主动与相关部门充分协商，由主办部门主要负责人与相关部门负责人会签或联合报市人民政府审批。部门之间有分歧的，主办部门主要负责人要主动协商；协商后仍不能取得一致意见的，主办部门应列明各方理据，提出办理建议，与相关部门负责人会签后报市人民政府决定。属于各部门职权范围内的事项，无需报市人民政府。', '市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会报送市人民政府审批的公文，由市人民政府办公厅按照市人民政府领导分工呈批，并根据需要由市人民政府领导转请市人民政府其他领导核批，重大事项报市长审批。', '市人民政府发布的规章，向市人民代表大会及其常务委员会提出的人事任免议案，由市长签署。', '以市人民政府名义发出的重要公文和上行文，经市人民政府分管领导审核后，由市长签发；以市人民政府名义发出的其他公文，由市人民政府分管领导审核签发。', '以市人民政府办公厅名义发文，由秘书长签发；如有必要，报请市人民政府分管领导或市长签发。', '属部门职权范围内事务、应由部门自行发文或联合发文的，不再由市人民政府批转或市人民政府办公厅转发。', '凡法律法规和规章已作出明确规定的，一律不再制发文件。没有实质内容、可发可不发的文件简报，一律不发。', '市人民政府各部门和市人民政府办公厅要提高公文办理效率，公文运转的各个环节都要在规定的时限内完成。对属于急件的公文，即到即办。', '市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会对市人民政府批办和市人民政府办公厅转办并属于职权范围内的公文，有明确时限要求的，要在时限内办理完毕并回复办理结果；没有明确时限要求的，办理完毕后要及时回复办理结果，重要情况及时报告。', '市人民政府在处理政府工作事务中，有关全市国民经济和社会发展规划、财政预算的确定和调整，须经市人民政府常务会议审议通过后，提请市人民代表大会及其常务委员会审议；市人民政府各项工作管理体制的重大改革，各工作部门的设立、撤销和合并，涉及全市范围和广大群众切身利益的重大行政措施，重要外事活动以及按组织原则需由市委决定的，应提出意见报请市委审定。', '市人民政府各部门受市人民政府委托向市人民代表大会及其常务委员会报告工作，报告稿应先经市人民政府有关会议讨论或经市长、市人民政府分管领导审核。', '市人民政府各部门分别按半年和全年书面向市人民政府报告工作情况，经济运行、重点工作推进及其他重要情况要及时报告。市人民政府办公厅适时通报重要工作情况。', '市人民政府各部门要切实加强政务信息工作，及时向市人民政府报告政府工作及经济社会发展中的重要情况，为市人民政府领导科学民主决策提供依据。市人民政府办公厅负责组织开展政务信息的收集和报送工作。', '市人民政府各部门必须坚决贯彻落实市人民政府的决定，及时跟踪和反馈执行情况。市政府办公厅和市督办督查局负责全市政务督查工作的组织、指导、协调和检查，确保政令落实。', '对市人民政府的重要决策和市长、副市长重要批示件，各部门要明确相关负责人负责落实，办理完毕后向市人民政府报告办理情况，办理过程中的重要情况要及时报告。', '收到党中央、国务院，省委、省人民政府和市委领导的批示件，市人民政府办公厅要立即送呈有关领导阅批，按照分工转有关部门办理或直接组织办理，并严格按规定时限要求办结和上报办理情况。', '市人民政府组成人员要坚决贯彻执行党和国家的路线方针政策、工作部署以及省委、省人民政府和市委、市人民政府的工作部署和要求。严格遵守纪律，决不允许“上有政策、下有对策”，决不允许有令不行、有禁不止，决不允许在贯彻执行各项决策部署上打折扣、做选择、搞变通。', '市人民政府组成人员必须坚决执行市人民政府的决定，如有不同意见应当向市人民政府提出，在市人民政府没有重新作出决定前，不得有任何与市人民政府决定相违背的言论和行为；代表市人民政府发表讲话或文章，个人发表涉及未经市人民政府研究决定的重大问题及事项的讲话或文章，事先须经市人民政府同意。', '市人民政府组成人员要严格执行请销假制度。副市长、市长助理、秘书长离筑出差（出访）、学习、休假，应事先按程序请示市政府、市委主要领导批准同意，由市人民政府办公厅通报市人民政府其他领导。', '市人民政府各部门主要负责人离筑出差（出访）、学习、休假，应事先按程序请示分管副市长、市长和市委主要领导批准同意，并将行止日期、地点、事由报告市委办公厅和市人民政府办公厅。', '市人民政府组成人员外出参会、学习、考察、招商等，在销假后一周内向市政府党组书面报告有关情况。', '各区（市、县）长，高新技术开发区、经济技术开发区管委会主任，市人民政府各部门主要负责人，外出参会、学习、考察、招商等，在销假后一周内向市政府书面报告有关情况。', '市长外出期间，主持市政府工作的副市长，遇重大事项、重大活动、重要情况要及时向市长报告。', '市人民政府各部门发布涉及重要工作部署、经济社会发展重要问题的信息，要经过严格审定，重大情况要及时向市人民政府报告。', '市人民政府组成人员要严格遵守保密法律法规、保密纪律和外事纪律，严禁泄漏国家秘密、工作秘密或因履行职责掌握的商业秘密等，坚决维护国家的安全、荣誉和利益。', '市人民政府及各部门要严格执行改进工作作风、密切联系群众和廉洁从政的各项规定，切实加强廉政建设和作风建设。', '市人民政府及各部门要从严治政，全面推进政府系统惩治和预防腐败体系建设，做到干部清正、政府清廉、政治清明。严格规范权力行使，对职权范围内的事项要按程序和时限积极负责地办理，对不符合规定的事项要坚持原则不得办理；对因推诿、拖延等官僚作风及失职、渎职造成影响和损失的，要追究责任；对越权办事、以权谋私等违规、违纪、违法行为，要严肃查处。', '市人民政府及各部门要严格执行财经纪律，艰苦奋斗，勤俭节约，坚决制止奢侈浪费，提高政府公共资源使用效率；严格执行住房、办公用房、车辆配备等方面的规定；严格控制差旅、会议经费等一般性支出，各类会议活动经费全部纳入预算管理；规范公务接待，严肃整治公款大吃大喝和公款旅游行为；严格控制政府机关办公楼、接待场所等楼堂馆所建设，切实降低行政成本，建设节约型机关。', '市人民政府组成人员要廉洁从政，严格执行领导干部重大事项报告制度，不得利用职权和职务影响为本人或特定关系人谋取不正当利益；不得违反规定干预或插手市场经济活动；加强对亲属和身边工作人员的教育和约束，绝不允许搞特权。', '市人民政府组成人员要做学习的表率，市人民政府及各部门要全面加强自身建设，努力创建学习型、创新型、发展型、服务型机关。', '市人民政府领导要深入基层、深入群众、深入实际开展调查研究，选择工作好的典型，总结推广经验；多到困难问题比较多的地方指导工作，研究和解决实际问题，下基层要轻车简从，减少陪同，简化接待，减轻基层负担，不搞边界迎送。调研活动的新闻报道要突出主题，简明扼要，具有针对性和指导性。除工作需要外，不去名胜古迹、风景区参观。', '市人民政府各部门也要根据各自的工作重点制定每年的调研计划，认真抓好调研工作的落实。', '除市委、市人民政府统一组织安排的重要活动外，未经批准，市人民政府领导不出席各地、各部门、各单位举办的庆典、剪彩、奠基活动和庆祝会、纪念会、表彰会、博览会、研讨会及各类论坛等活动，不参加各类商业性会议和活动。未经市委统一安排，市人民政府领导不得以个人名义为上述各类活动题词、题字以及发贺信、贺电。因特殊需要发贺信、贺电和题词，一般不公开发表。', '审批管理规定。由市外事侨务办公室提出报告，经市人民政府研究确定，按规定程序逐案报批。', '市人民政府其他组成人员和各部门其他负责人出访，由市外事侨务办公室审核后按规定程序逐案报批。', '贵阳市人民政府办公厅关于转发市台办〈关于进一步规范贵阳市因公赴台管理工作的意见〉的通知》（筑党办发〔', '副厅级以上领导及各类组团、来宾来筑，要按程序向市政府市长、分管副市长报告，由市相应业务主管部门或市对口部门提出安排意见，报市人民政府办公厅按规定程序办理。', '外宾或国际知名人士、学者、企业家来筑，确需市人民政府领导出面会见、会谈或陪同的，由相应接待部门提出安排意见，市外事侨务办公室审核后报市人民政府办公厅按规定程序办理。', '香港、澳门特别行政区官方人员、重要知名人士和台胞、海外侨胞中的重要知名人士来筑，由相应接待部门提出安排意见，市外事侨务办公室、市台湾事务办公室审核后报市人民政府办公厅按规定程序办理。', '市人民政府领导参加的内事活动，由市人民政府办公厅协调安排；市人民政府领导参加的外事活动，由市外事侨务办公室和市人民政府办公厅共同协调安排。邀请市人民政府领导参加的重要活动，须提前', '市人民政府直属机构、派出机构、部门管理机构、直属事业单位、在筑省直管部门适用本规则。', '月《贵阳市人民政府办公厅工作规则》（修订本）中的《贵阳市人民政府工作规则》同时废止。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>245</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在南宁市学习考察</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202312/t20231220_83374075.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['12月18日至19日，贵阳贵安代表团在南宁市学习考察。省委常委、市委书记、贵安新区党工委书记胡忠雄，广西壮族自治区党委常委、南宁市委书记农生文参加。', '五象新区是中国与东盟合作交流的“南宁渠道”核心区域。来到位于新区的中国—东盟信息港股份有限公司，胡忠雄详细了解南宁市数字丝路产业发展情况，仔细听取信息港发展历程、东盟业务、基础设施建设和数字平台介绍。他强调，要学习借鉴南宁市在数字丝路产业发展中形成的好经验、好做法，强化双方优势互补、互利共赢，推动数字经济高质量发展。在广西华芯振邦半导体有限公司，胡忠雄详细了解南宁市产业规划、招商引资等工作，并实地考察企业生产经营情况。他要求贵阳贵安有关部门和企业创新思路、完善机制，深入推进产业链招商、基金招商，扎实做好园区规划、建设、招商、服务，让项目招得来、落得下、发展好。在中银香港东南亚业务营运中心，胡忠雄听取中心建设情况介绍，并观看智慧营运平台演示。他强调，贵阳贵安要深化与银行金融机构的交流合作，有效发挥跨境金融作用，更好支撑外向型经济高质量发展。', '南宁空港、南宁国际铁路港、南宁综合保税区“两港一区”是南宁市跨境产业融合发展的主要承载地。在辰瑞光学（南宁）有限公司，胡忠雄参观企业生产线。他叮嘱贵阳贵安有关部门，要强化创新要素保障，支持和鼓励企业开展技术攻坚，加快推动科技成果向现实生产力转化。在南宁国际铁路港，胡忠雄走进展厅，结合产业发展布局图，深入了解西部陆海新通道建设情况。他强调，要牢牢把握“一带一路”带来的发展新机遇，持续深化与南宁市在通道经济领域的务实合作，全力为企业产品走出国门创造良好条件。', '南宁东部新城是距离平陆运河起点最近的产业集聚区，也是南宁市产业发展的主阵地。来到这里，胡忠雄认真听取“一体两翼”产业发展格局、平陆运河规划建设等工作介绍。他指出，南宁“一体两翼”产业发展格局紧扣国家战略，立足当下又着眼长远，值得贵阳贵安认真学习借鉴。要坚持规划为先，更加突出规划的系统性、前瞻性、人民性，加快做强经济、开放、生态、城市“四大功能”，奋力开创贵阳贵安现代化建设新局面。在广西弗迪电池有限公司，胡忠雄走进企业车间，仔细听取项目整体情况介绍。他强调，要牢固树立产业链思维，紧盯上下游关键环节，持续推动建链、补链、延链、强链，不断壮大贵阳贵安产业生态。在太阳纸业林浆纸一体化技改及配套产业园，胡忠雄详细询问企业上下游产业、技术创新等方面情况，希望两地企业深化互学互鉴，着力强化新技术、新模式的落地应用，更好适应产业高质量发展需要。', '“三街两巷”是南宁规模最大的历史文化街区。来到这里，胡忠雄参观邓颖超纪念馆，并步行考察街区建设和运营情况。他强调，要认真学习南宁在加强历史文化街区修缮保护和开发利用等方面取得的成效，扎实做好“一河一道两片区”各项工作，不断提升“爽爽贵阳”的文化味烟火味人情味。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>245</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>胡忠雄率队在兰州市学习考察</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202307/t20230706_80700432.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['7月5日，省委常委、市委书记胡忠雄率队在兰州市学习考察。兰州市委副书记、市长刘建勋陪同。', '兰州市委副书记、市委统战部部长黄宝树，市委常委、兰州新区党工委书记杨建忠，市委常委、市委秘书长乔建新，副市长、市政府秘书长段廷智；贵阳市委常委、市委秘书长刘本立，市委常委、贵安新区党工委副书记、管委会副主任王嶒，副市长宋旭升参加。', '兰州是西部地区重要中心城市、丝绸之路经济带重要节点城市。当日，胡忠雄一行先后前往小兰社会治理综合指挥中心、望河亭、兰州城市规划展览馆等地，实地学习考察兰州社会治理、水体保护、国土空间规划、文旅融合等工作情况。随后，胡忠雄一行来到兰州新区，实地考察兰州兰石集团有限公司、重离子应用技术及装备制造产业基地、甘肃海亮新能源材料有限公司年产15万吨高性能铜箔材料项目、百万吨负极材料产业园、绿色化工园区智慧管理中心，深入了解兰州新区产业布局、管理机制、园区建设等情况，认真交流学习新区开发建设经验。', '考察中，胡忠雄对兰州市经济社会发展取得的成就表示祝贺。他表示，近年来，兰州全面推动经济总量和发展质量加速迈上新台阶，在科研创新、社会治理、产业发展等领域的先进经验、创新举措非常值得学习借鉴。当前，贵阳贵安正深入学习贯彻党的二十大和习近平总书记视察贵州重要讲话精神，围绕“四新”主攻“四化”，坚定不移落实“四主四市”工作思路，奋力当好全省高质量发展的“排头兵”、现代化建设的“领头羊”。贵阳与兰州都在推进“强省会”行动，双方互学互鉴范围广、产业合作潜力大。希望双方强化优势互补，持续巩固拓展各领域交流合作，加快把合作成效转化为发展实效，更好实现互利共赢。', '刘建勋对胡忠雄一行表示欢迎。他表示，兰州和贵阳都是西部省会城市，有着悠久的历史、深厚的文化底蕴、丰富的自然资源和相似的发展阶段，两座城市正在加快实施“强省会”战略。希望双方进一步加强交流、加深友谊，做互学互鉴的好朋友、互惠互利的好伙伴，抢抓战略机遇，加快后发赶超，携手推进两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>245</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在福州市福州新区学习考察</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202311/t20231103_82918440.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['11月2日，贵阳贵安代表团在福州市、福州新区学习考察，省委常委、市委书记、贵安新区党工委书记胡忠雄，福建省委常委、福州市委书记林宝金参加。', '福州市委副书记、福州新区党工委书记陈云水，福州市、福州新区领导黄建雄、陈斌，贵阳市、贵安新区领导刘本立、杨志荣参加。', '“3820”战略工程是习近平总书记在福州工作期间绘就的跨世纪宏伟蓝图。党的十八大以来，福州市坚持“3820”战略工程思想精髓，现代化国际城市建设取得显著成效。在福州市委党校参观“3820”战略工程实施30周年成就展后，胡忠雄说，本次观展是一次政治历练、党性锤炼，让人深受教育、备受启发。我们要学习福州坚定不移沿着习近平总书记指引的方向奋勇前进的政治自觉和政治定力，进一步增强坚决拥护“两个确立”、忠诚践行“两个维护”的政治自觉、思想自觉和行动自觉。在福山郊野公园，胡忠雄沿福道实地学习福州生态环境保护和智慧步道建设情况。他强调，贵阳贵安要坚定不移推进生态立市战略，加快建设生态文明建设示范区，以高水平生态环境支撑高质量发展。在福州软件园，胡忠雄走进“数字中国·实践起点”展厅、顶点软件股份有限公司，详细了解软件园发展历程，希望双方围绕软件和信息技术服务业，加强交流合作、深化优势互补，共同在高水平合作中实现高质量发展。来到三坊七巷历史文化街区，胡忠雄一路边走边看，实地了解南后街、郎官巷、衣锦巷等保护修复情况。他强调，要胸怀珍爱之心、尊崇之心，认真借鉴福州经验做法，聚焦文物保护、挖掘、利用、管理、转化等重点环节，切实保护好贵阳贵安的城市精神财富。', '福州新区是全国第十四个国家级新区，当前正坚定“东进南下、沿江向海”的城市发展方向，加快建设高品质现代化新区。来到新区滨海新城规划展示馆，胡忠雄认真听取讲解，通过一幅幅图片、一组组数据，详细了解福州新区发展历程。他指出，福州新区在高质量发展中取得的成绩，让人备受鼓舞、倍感钦佩。要坚持创新、协调、绿色、开放、共享的发展理念，认真学习借鉴福州新区发展经验，高起点规划、高标准建设、高效能治理贵安新区，推动高质量发展大踏步前进。在福州恒美偏光片项目、恒申控股集团有限公司，胡忠雄实地了解企业生产经营、技术优势、基金投入等方面情况。他强调，要把科技创新放在更加重要位置，有效激活市场主体创新活力，扎实推进产业关键核心技术和共性技术攻关，更好为产业高质量发展赋能添力。在数字福建云计算中心，胡忠雄实地察看中心机房，认真听取建设运行工作介绍。他要求贵阳贵安有关部门要牢牢把握国家战略机遇，高质量推进全国一体化算力网络国家（贵州）主枢纽中心建设和运营工作，为贵阳贵安数字经济发展作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>245</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>贵阳贵安代表团在南昌市赣江新区学习考察</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202312/t20231205_83202031.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['南昌市委副书记、市长万广明，赣江新区党工委副书记、管委会主任肖玉文，南昌市和赣江新区领导王万征、梅峰、陈江宁、赵捷，贵阳市和贵安新区领导刘本立、黄波、龙丛参加。', '南昌是长江中游地区重要的中心城市，当前正全面落实省会引领战略，加快推进“一枢纽四中心”建设。走进南昌市规划展示中心，胡忠雄认真听取讲解，详细了解南昌的自然山水、历史文化、现代成就、规划设计、产业发展、未来创新等方面情况。他指出，南昌的空间格局、产业格局让人深受启发。要深入贯彻习近平经济思想，认真学习借鉴南昌的发展理念、发展格局、发展思路、发展举措，坚持规划为先、功能为重、产业为要、民生为本，全力推动贵阳贵安高质量发展。在航空工业洪都公司，胡忠雄走进企业生产车间，一路边走边看，详细了解发展历程、技术工艺等方面情况，并对企业的发展成绩表示祝贺，希望两地企业牢牢把握发展机遇、持续深化务实合作、携手在发挥比较优势中实现互利共赢。在南昌华勤电子科技有限公司，胡忠雄走进企业展厅，详细询问科技创新、成本控制等方面情况，希望双方强化优势互补，深度挖掘数据中心等领域合作潜力，共享数字经济发展红利。在南昌中微半导体设备有限公司，胡忠雄仔细听取企业技术优势、产品研发等情况介绍，要求有关部门要深刻认识加快科技创新的重大战略意义，充分激发市场主体创新活力，加快谋划实施一批技术前沿、产业带动性强的优质项目。在江西豪驰实业有限公司，胡忠雄实地考察“5G+工业互联网”纺织生产线，现场观看创意文化衫设计制作，关切询问黔籍工人生活、就业等情况，他强调，要积极推动传统产业转型升级，加快促进数字经济和实体经济深度融合，更好适应新型工业化需要。在万寿宫历史文化街区，胡忠雄详细询问街区业态布局、数字技术应用等方面情况。他说，南昌是一座充满烟火味、文化味、人情味的城市，希望双方立足自身优势，共同挖掘红色文化、生态文化、民族文化价值，深化文旅产业合作，为两地群众推出更多高质量文化旅游产品。', '赣江新区是江西唯一的国家级新区，在全省发展大局中具有重要地位、承担重大使命。来到这里，胡忠雄深入了解新区发展规划、体制机制创新等工作，要求贵安新区紧扣“一极一高地两示范”四大定位，学习借鉴赣江新区先进经验，努力实现一年一个样、三年大变样。在江西华创新材有限公司，胡忠雄实地察看企业生产线运行情况，他叮嘱有关部门要增强坚定不移推进工业强市战略的信心决心，做强做优主导产业和特色产业，不断提升贵安新区的发展能级、创新活力、竞争实力。在欣旺达南昌动力电池生产基地，胡忠雄与项目负责人深入交流，详细了解产业趋势、产品工艺等情况，他强调，贵安新区要牢固树立产业链思维，持续推进产业链建链、强链、补链、延链，高质量推动产业集群发展。在南昌凯迅光电股份有限公司，胡忠雄走进企业展厅，深入了解企业发展、产品市场等方面情况，他强调，要坚持项目为大、项目为重、项目为王，深耕“贵人服务”品牌，用心用情用力做好项目全生命周期服务保障，让企业在贵阳贵安放心投资、安心发展。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>245</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>贵阳贵安党政代表团赴昆明市滇中新区学习考察</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202308/t20230823_81991500.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['昆明市委副书记、市长，滇中新区党工委副书记、管委会主任刘佳晨，昆明市和滇中新区领导吴世雄、尹凌云、陈伟、包旭、陈汉、赵明商陪同考察；贵阳市和贵安新区领导刘本立、黄波、吴宏春参加。', '云南滇中新区作为全国第15个国家级新区，正在围绕“一点一极两区”的目标定位，奋力在全省高质量发展中当先锋、打头阵。胡忠雄来到滇中新区规划展览馆，仔细聆听讲解，认真观看展板、图片、视频，详细了解滇中新区体制机制发展历程和规划建设情况。他指出，滇中新区在发展思路、发展体制、发展规划、发展举措等方面进行的积极探索让我们深受启发。贵安新区要紧扣“一极一高地两示范”四大定位，充分学习借鉴滇中新区发展经验，做强经济、开放、生态、城市四大功能，奋力推动新区发展一年一个样、三年大变样。', '近年来，滇中新区在发展中积极推行“产业强区”战略，培育了一批重点产业。学习考察期间，胡忠雄先后前往云南创视界光电科技有限公司、云南裕能新能源电池铁锂系正极材料项目、云南杉杉年产30万吨锂电池负极材料一体化项目，实地了解滇中新区产业发展情况。他说，滇中新区产业规划紧扣国家战略，立足自身资源优势，产业发展很有特色。贵安新区要全力抓好产业园区体制、规划、建设、服务、招商、项目各项工作，持续推进建链补链延链强链，加快形成产业集群，为新区高质量发展提供有力支撑。', '滇池环湖湿地在昆明滇池水环境保护、生物多样性保育、地方经济发展等方面发挥着重要作用。来到官渡区宝丰湿地，胡忠雄一路边走边看，与当地负责人面对面交流，观看湿地生物多样性展示，详细询问治理模式、村民迁出、水质提升等工作。他强调，优质的生态环境是贵阳贵安最鲜明的底色。要牢固树立和践行绿水青山就是金山银山的理念，坚定不移推进生态立市战略，扎实做好“一城一战一整改”各项工作，以高品质的生态环境支撑高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>245</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>胡忠雄积极互学互鉴推动务实合作为贵阳贵安高质量发展注入强大动力</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202307/t20230704_80662424.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['胡忠雄：积极互学互鉴 推动务实合作 为贵阳贵安高质量发展注入强大动力 - 贵阳市人民政府', '7月3日，省委常委、市委书记胡忠雄率队在西安学习考察。他强调，要深入学习贯彻党的二十大和习近平总书记关于区域协调发展的重要论述精神，积极互学互鉴，推动务实合作，为贵阳贵安高质量发展注入强大动力。', '西安经济技术开发区总规划面积272平方公里，聚集了陕汽、吉利、隆基乐叶、华天科技等一批行业领军企业。来到这里，胡忠雄先后前往西安经开区规划及产业展馆、隆基乐叶股份有限公司，详细了解经开区产业布局、交通区位和光伏产业创新发展等方面的情况。他叮嘱有关部门要牢固树立产业链思维，认真学习西安在产业园区规划、建设、招商、运营等方面的先进经验，积极推动与优强企业的务实合作，大力实施延链补链强链，努力把企业做成产业、把产业做成产业链、把产业链做成产业集群、把产业集群打造成产业生态圈，不断筑牢“强省会”的产业根基。', '西咸新区是国家批准设立的首个以创新城市发展方式为主题的国家级新区，正加快打造秦创原创新驱动平台总窗口。在这里，胡忠雄先后前往西咸新区规划展示馆、秦创原综合服务中心、陕西同力重工股份有限公司、陕西佰美基因股份有限公司，实地察看新区及新区企业发展情况，学习新区科技创新、招商引资、机制体制等方面经验。他强调，西咸新区与贵安新区是同批设立的国家级新区，共同肩负着重要的历史使命。贵安新区要坚持科技是第一生产力、人才是第一资源、创新是第一动力，认真学习西咸新区规划建设的先进经验和创新模式，推动创新链、产业链、资金链和人才链深度融合，积极打造创新孵化器、转化器、加速器，奋力推动贵安新区高质量发展。', '胡忠雄强调，本次学习考察是一次情感之旅、学习之旅、合作之旅。要强化创新驱动，抓创新型城市、创新型产业、创新型企业、科技平台、科技投入、科技人才，加快建设贵阳大数据科创城，努力把贵安打造成为全省的创新中心。要强化招商引资，打好央企招商、园区招商、基金招商、产业链招商、以商招商“组合拳”，招引和建设一批大项目、好项目、新项目。要强化交流学习，充分学习西安在产业发展、城市建设、文旅融合等方面的先进经验，强化数字经济、工业经济、文化旅游等方面的优势互补，携手在高质量发展中实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>245</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>胡忠雄认真学习借鉴浦东开发开放先进经验奋力推动贵阳贵安高质量发展再上新台阶</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-02-26</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202302/t20230226_78306493.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['胡忠雄：认真学习借鉴浦东开发开放先进经验 奋力推动贵阳贵安高质量发展再上新台阶 - 贵阳市人民政府', '2月25日，省委常委、市委书记胡忠雄率队赴上海市浦东新区学习考察。他强调，要深入学习贯彻党的二十大精神，认真学习借鉴浦东开发开放先进经验，奋力推动贵阳贵安高质量发展再上新台阶。', '浦东新区城市运行综合管理中心是浦东城市运行综合管理的统筹协调机构。来到这里，胡忠雄观看浦东“城市大脑”功能演示，听取中心体制机制、流程衔接、工作联动等方面情况介绍。他指出，此次考察是对城市运行安全管理的一次生动现场学习。贵阳贵安要始终坚持人民城市人民建、人民城市为人民，认真学习浦东城市智慧化治理等方面的先进经验，紧紧围绕数据中心、城市大脑、运行实体、指挥平台的功能定位，加快贵阳城市运行管理中心建设，更好推动“一网通办”“一网统管”，有效破解城市治理中的难点、堵点，持续提升城市治理精细化水平。', '胡忠雄随后来到浦东展览馆，参观“在国家战略的伟大旗帜下——浦东开发开放主题展”，通过一幅幅照片、一组组数据、一件件实物、一个个场景，详细了解浦东30多年来改革开放、上海自贸试验区创新发展的生动实践。他说，浦东开发开放取得了历史性成就，是我国推动高水平对外开放的标杆。贵阳贵安要认真学习浦东精神，进一步树牢开放发展理念，擦亮开放名片、高扬开放旗帜，不断拓展开放通道，做大做强开放平台，努力实现开放型经济新跨越，奋力建设内陆开放型经济新高地。', '张江科学城是我国四大综合性国家科学中心之一。胡忠雄来到张江人工智能岛，听取软件信息产业和人工智能产业发展情况介绍，实地考察人工智能在教育、医疗、制造等领域的应用场景。他指出，要认真学习张江科学城科学、产业与城市融合发展的先进经验，大力发展创新型城市、创新型产业、创新型企业，狠抓科技平台、科技投入、科技人才，把科技第一动力的引擎打造得更强。来到张江集成电路产业园，胡忠雄详细了解上海集成电路产业发展现状、成果应用、未来规划等情况，要求认真学习浦东勇担国家重大战略使命的责任担当，落实数字经济“一二三四”工作思路，紧紧围绕芯片、电子元器件、电路板、电子终端产品、服务器“五大板块”，促进电子信息制造业向中高端迈进。', '在沪期间，胡忠雄还考察了易商集团，同企业负责人就加快项目落地、扩大合作领域进行深入交流。他说，贵阳贵安人口规模、城镇规模、市场主体规模、数字经济规模、交通运输规模都在快速增长，希望企业进一步加大对贵阳贵安的投资布局，引导更多社会资本参与“强省会”建设。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>245</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>市委常委会召开会议学习习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2024-06-15</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202406/t20240615_84875614.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['6月14日，市委常委会召开会议，深入学习习近平总书记近期重要讲话精神，传达学习省委近期会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇讲话，市人大常委会主任聂雪松，市政协主席石邦林，市委副书记滕伟华，市委常委，市人大常委会、市政府、市政协、贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，要深入学习贯彻习近平总书记致中国工程院建院30周年的重要贺信精神，习近平总书记给中国科学院院士、清华大学教授姚期智的重要回信精神，坚持科技创新“3+3”的工作思路，着力强化创新主体培育、创新平台打造、创新成果转化，奋力打造全省创新中心。要深入学习贯彻习近平总书记给美国肯恩大学校长拉蒙·雷波列特的重要复信精神，持续加强与RCEP成员国、东南亚国家经贸交流，积极拓展与周边国家在文化、旅游、教育等领域的务实合作，推动贵阳贵安对外交流合作向更高水平、更深层次、更宽领域发展。要深入学习贯彻习近平总书记关于新时代公安工作的重要论述，落实全国公安工作会议精神，扎实推进公安工作现代化，全力维护政治安全、经济安全、社会安全、生产安全、网络安全，不断提高信访工作法治化水平，切实巩固好禁毒工作成效。', '会议强调，要深入学习贯彻习近平总书记关于巩固拓展脱贫攻坚成果的重要指示精神，落实省委常委会会议要求，强化动态监测，扎实抓好问题整改，深入推进产业、人才、文化、生态、组织“五个振兴”。要深入贯彻习近平总书记关于巡视工作的重要论述，按照省委部署，高质量完成巡察任务，高要求狠抓问题整改，高标准强化成果运用。要持续学习贯彻习近平总书记关于深化东西部协作的重要指示和在新时代推动西部大开发座谈会上的重要讲话精神，聚焦省党政代表团学习考察成果，项目化、清单化推动合作共识落地转化，为推动粤黔协作和闽黔合作贡献力量。要深入学习贯彻习近平总书记关于就业工作的重要论述，落实徐麟书记调研就业工作时的讲话要求，大力实施“六六就业稳岗计划”，抓拓岗、抓企业、抓政策、抓联动，持续促进就业质的有效提升和量的合理增长。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>245</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>胡忠雄马宁宇会见华东师范大学党委书记梅兵校长钱旭红一行</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2024-05-18</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/fzlm/jrgytp/202405/t20240518_84654950.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['5月17日，省委常委、市委书记胡忠雄，市委副书记、市长马宁宇在筑会见华东师范大学党委书记梅兵，校长、中国工程院院士钱旭红一行，双方就深化合作进行交流。', '胡忠雄、马宁宇对梅兵、钱旭红一行表示欢迎。他们说，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，奋力擦亮中国数谷、避暑之都、心学高地、工业新城四张城市名片。华东师范大学与贵阳贵安情谊深厚，希望双方巩固合作成果，落地更多项目，实现更高水平合作共赢。贵阳贵安将全力做好服务保障。', '梅兵、钱旭红感谢贵阳贵安对华东师范大学的关心支持。他们表示，华东师范大学对深化校地合作充满信心，希望双方聚焦基础教育、科技创新、人才培养等领域不断深化合作，助力地方经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>245</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>筑府办函号市人民政府办公厅关于印发贵阳市年应急管理科普宣传和教育培训工作实施方案的通知</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2017-03-28</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qfbh/201810/t20181002_9598950.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['筑府办函〔2017〕44号市人民政府办公厅关于印发贵阳市2017年应急管理科普宣传和教育培训工作实施方案的通知', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位，市管企业：', '《贵阳市2017年应急管理科普宣传和教育培训工作实施方案》已经市人民政府研究同意，现印发你们，请认真贯彻落实。', '为贯彻落实全市应急管理工作会议精神，深入开展面向全社会的应急科普宣传教育，做好预防、避险、自救、互救、减灾等应急防护知识的普及，增强公众的公共安全意识和社会责任意识，提高全社会应对突发事件的综合素质，根据《贵阳市2017年应急管理工作要点》的安排部署，特制定本实施方案。', '通过开展多层次、多形式、多渠道的应急管理科普宣传和教育培训活动，着力实现“三个明显提升”，即公众的公共安全意识明显提升，领导干部和管理部门对应急管理的重视程度明显提升，基层单位应急管理的意识明显提升，为贵阳创新型中心城市建设提供安全应急保障。', '（一）应急科普知识宣传。灾前教育以了解突发事件的种类、特点和危害为重点，掌握预防、避险的基本技能；灾中教育以自救、互救知识为重点，普及基本逃生手段和防护措施，告知公众在事发后第一时间如何迅速做出反应，如何开展自救、互救；灾后教育以经历过突发事件的公众为重点，抚平心理创伤，恢复正常社会生产生活秩序。', '二)应急管理法律法规及规章制度宣传。《中华人民共和国突发事件应对法》《国家突发事件应急体系建设“十三五”规划》《贵州省突发事件应急体系建设“十三五”规划》《贵阳市公共安全管理责任制暂行规定》等。', '提升贵阳应急科普宣教和预警信息发布系统的覆盖面，推进系统终端设备进医院、进学校等人员密集场所和应急管理重点监控部位，全年新增终端设备20000台以上。', '（三）开展应急公益宣传活动。围绕贵阳公共安全面临的形势和任务，策划拍摄应急公益广告宣传片和应急知识短片。', '（四）开辟应急管理科普知识专栏。在市级新闻媒体及新闻媒体所属网站上开辟专栏、专版、专题、专刊，全方位、多角度介绍普及应急知识。', '（六）开展公共安全知识进社区、进乡村、进企业、进学校活动。印发《应急科普知识读本》，制作张贴宣传海报、投放广告，在社区、高危企业、建筑群和车站、机场、商场、宾馆等公共场所设置应急标识；通过举办论坛讲座、演讲比赛、教学体验、科普展览和专题文艺晚会等多种形式，丰富基层应急科普宣传和教育培训内容。', '指导单位：市政府应急办、市住房城乡建设局、市民政局、市农委、市旅游产业发展委、市安监局、市民族宗教委、市公安局', '（七）组织开展公共安全系列主题宣传活动。通过“防灾减灾日”“全国安全生产月”“全国消防日”等，开展形式多样、内容丰富的公共安全主题宣传活动。', '牵头单位：市民政局、市安监局、市卫生计生委、市公安局、市水务管理局、市住房城乡建设局、市气象局等部门及市综合应急救援支队', '领导干部培训。邀请知名专家学者进行专题讲座，在市政府常务会议上进行1次应急管理专题讲座，各区（市、县）政府组织1次主要负责人参加的专题讲座，市应急委成员单位结合自身实际开展1次以上应急专题讲座，提高全市各级各部门领导干部的应急管理意识，促进领导干部的应急能力提升。（各级政府应急办、市应急委成员单位会同本级组织部门组织实施）', '专职应急管理干部培训。重点培训应急管理法律法规、公共安全形势与任务、应急预案及突发事件应对程序和方法、应急指挥新技术设备的使用等专业知识，强化对应急管理的宏观认识和依法实施管理意识。各区（市、县）政府组织3次以上应急值守、信息报送、基层应急管理规范化建设等方面的应急专题业务培训，市应急委成员单位组织1次以上应急业务能力和应急专业技能提升培训。（各级政府应急办、市应急委成员单位组织实施）', '基层应急管理人员培训。组织开展以应急管理基础知识、应急先期处置、应急信息报告、自救互救技能为重点的专题培训。（各区、市、县政府应急办会同有关部门组织实施）', '应急救援队伍培训。按行业分类别组织开展39支应急救援队伍的专业培训，提高专业应急能力；组织开展39支应急救援队伍的应急联动情景构建，检验应急救援队伍的应急处置能力。', '交流培训。采取参观考察与探讨交流相结合的方式，组织3次赴应急管理先进城市的学习考察活动，借鉴兄弟省市在应急管理工作中的先进经验和典型作法；组织2次市应急委成员单位和各区、市、县政府应急办的应急管理经验交流活动。（市政府应急办负责组织实施）', '（一）加强组织领导，确保工作落实。各区（市、县）政府及有关部门要根据职责任务，成立专门领导小组，高质量高标准组织开展各项应急科普宣传和教育培训工作，确保各项工作落到实处、取得实效，确保活动有力有序有效推进。', '（二）加强统筹协调，形成宣传合力。各区（市、县）政府及有关部门要根据工作方案的总体部署，一方面精心组织实施本单位、本系统的应急科普宣传教育工作，另一方面加强与牵头单位的协调配合，竭诚为牵头单位提供宣传教育信息资源，提供各项工作便利。', '（三）加强督促检查，确保宣教效果。将应急科普宣教纳入年度目标考核，市政府应急办会同市政府新闻办共同负责科普宣传和教育培训工作的指导和协调工作，对各地各有关部门科普宣教工作进行督查，确保科普宣教工作取得实效。', '（四）加强经费保障，确保顺利进行。各区（市、县）政府及有关部门要保障应急管理科普宣教工作所需经费，同级财政部门要给予大力支持，确保资金落实。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>245</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>贵阳国家高新区管理委员会关于印发贵阳国家高新区大数据人才精准培训试行方案的通知</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2017-07-18</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/gzhgfxwjsjk/gfxwjsjk/gxq_wnk/202401/t20240118_83559225.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['贵阳国家高新区管理委员会关于印发《贵阳国家高新区大数据人才精准培训试行方案》的通知', '《贵阳国家高新区大数据人才精准培训试行方案》已经工管委研究同意，现予印发，请遵照执行。', '为贯彻落实省、市对大数据人才队伍建设的总体要求和迅速补齐大数据人才短板的安排部署，抓紧抓实大数据发展新机遇，健全和完善大数据人才培训支持体系，大力开展大数据人才精准培训，努力在全省、全市迅速补齐大数据人才短板上快赶路、作示范。结合工作实际，特制定本实施方案。', '紧紧围绕大数据及关联产业，特别是数据中心、区块链技术及应用、大数据清洗加工等大数据产业发展重点领域的迫切需求，充分发挥高新区引领大数据技术创新、加快大数据产业聚集，打造创新型中心城市示范区的独特优势，主动担当，超前谋划，率先作为，迅速行动，充分运用天下英才云平台线上线下资源，整合NIIT、Infosys、国信优易大数据技术创新联盟、I-Future、高新翼云、北大青鸟等现有优势资源，积极争取全国全球最知名大数据培训机构、最知名大数据企业的大力支持，广泛动员全社会力量，全面开展覆盖全区全市乃至全省的大数据精准培训，促进大数据人才的快速成长，加快打造全方位、多层次、专业化的大数据人才队伍，确保达到公职人员熟知、企业骨干精通、在校学生了解、社会广泛知晓的良好效应，为建设国家大数据(贵州)综合试验区、国家内陆开放型经济试验区、国家生态文明试验区提供强有力的人才保障。', '着眼于政府和事业单位、大数据企业及传统企业、社会组织等各行业、多领域大数据人才的基础性培养和战略性开发相结合，开展重点突出、覆盖广泛、实效明显的大数据精准培训。', '(一)面向机关干部加大培训轮训力度。依托NIIT落户高新区，以及Infosys等全球最知名的培训机构，主攻机关干部大数据、区块链等相关知识培训。重点对高新区、白云区干部广泛开展大规模的轮训，提升干部大数据素养，培养干部运用大数据思维解决问题的能力和推动大数据产业发展能力。通过市委组织部、市大数据委，对全市市直机关干部及各区、县(市)机关干部进行培训；通过省委组织部、省大数据局，对全省省直机关干部和各个市、州，以及各个县(市、区)的机关干部进行大数据的普及性培训，大力培育大数据发展、生长的土壤。', '(二)面向社会人才打造多层次人才梯队。依托北大青鸟、I-Future等社会化培训机构，主攻企业、社会层面的人才培训。', '围绕大数据产业发展主攻领域，紧扣数据中心、区块链技术应用、大数据清洗加工等关联企业实际需求，深入开展订单式人才培训、人才招聘岗前培训、内部人才能力提升培训。着眼多层次大数据专业人才梯队打造，采取企业提出实际需求，政府购买社会化第三方服务等多种形式，高度定制化精准培训能用、好用、重用的大数据专业人才，满足区域产业发展需要，打通并拓宽大数据人才供给渠道。', '(三)面向高等院校开创培养新模式。依托翼云培训整合大数据技术产业联盟，以及国信优易等优势资源，围绕大数据分析师、大数据管理师、大数据挖掘师和区块链技术、程序开发、系统维护、硬件调试等人才，主攻高等院校学生培养，针对贵阳地区大学、职业院校学生特点和教学实际，积极探索定制化、学分置换、提前就业等植入式教学体系，以及“3+1”、“4+1”或者“3+0.5”、“4+0.5”的提升式人才培养新模式，在对学生进行专业性的大数据方面培训后，可以到高新区企业实训基地进行前置实习、岗前实习，大力破解初中级人才不足的难题。', '围绕以大数据为龙头的产业发展实际，以提升大数据人才未来竞争力和区域竞争力为目的，以需求为引领，以应用为导向，构建科学高效的大数据精准培训机制，大力聚集一批优质社会化大数据培训资源，广泛开展机关干部、专业人才数据中心、区块链技术应用、大数据清洗加工等大数据培训，迅速掀起全社会学习大数据知识的热潮，有效缓解大数据人才供需不平衡、信息不对称等难题，争取建成贵州省大数据人才基地，全面打造贵州乃至西部地区大数据优秀人才输出地。', '(一)完成机关干部大数据知识轮训。2017年在高新区、白云区机关干部中开展5-8期数据中心、区块链技术应用、大数据清洗加工等大数据基础知识区内培训活动，培训高新区机关干部500人次以上，白云区机关干部1500人次以上。举办3-4期赴国内发达城市学习培训专题班，力争组织赴发达国家学习考察。根据省直、市直相关部门对接情况，采取多种形式开展培训。', '(二)迅速开展大数据专业技术人才培训。力争2017年培训大数据专业人才3000人次以上，开设数据中心、区块链技术应用、大数据清洗加工等大数据技术专业人才专题培训班8班次以上，力争大数据专业技术职称人才达到100人以上，全年新增大数据人才达到7000人以上。到2020年，培训大数据专业人才1.5万人次以上，开设数据中心、区块链技术应用、大数据清洗加工等大数据技术专业人才专题培训班30班次以上，力争大数据专业技术职称人才达150人以上，新增大数据人才达3.5万人以上。', '(三)进一步深化在筑院校的创新合作。力争到2020年，围绕数据中心、区块链技术应用、大数据清洗加工等大数据发展重点领域，建成4家以上大数据培训示范基地，每学年开展植入式教学达到1500生次以上。依托大数据发展重点领域关联企业，建成大数据实训基地5家以上，建成毕业生见习基地4家以上，每学年吸纳学生实习、提前就业、见习2000生次以上。', '(四)聚集一批大数据人力资源服务专业机构。力争到2017年底，聚集大数据人才培训、区块链应用人才培训等人力资源服务及关联企业或机构达30家以上，人力资源产业营业收入或销售收入达5000万元以上。到2018年，聚集人力资源服务及关联企业或机构达40家以上，产业营业收入或销售收入突破亿元。', '结合发展实际，大力构建包含政府、企业、学校、社会等各领域在内的大数据人才培养体系，努力形成公职人员熟知、企业骨干精通、在校学生了解、社会广泛知晓的发展格局。', '1.针对高新区干部，每年定期组织干部区内、省外、境外专题班培训，将部门是否派出每名干部都参加大数据、数据中心、区块链基础知识轮训，以及干部参加培训出勤、测试和学习成效等情况纳入部门绩效考核，适时在全区进行通报。(责任部门：组织与人力资源部，党政办公室)', '2.针对白云区干部，充分运用两区融合发展体制优势，加强联系对接，及时制定全区干部年度培训计划，对不同单位和职业性质的干部，结合工作特点，分层次、分批次进行培训。在制定赴省外、国外培训计划时，充分整合资源，两区统筹安排，统一部署培训工作。(责任部门：白云区委组织部、产投集团)', '3.针对省市干部，积极采取多种方式，与组织部门、大数据发展部门对接，达成培训意向，可以采取先试点后推广等形式，广泛开展大数据、数据中心、区块链等基础知识培训。(责任部门：大数据发展办公室、组织与人力资源部、产投集团)', '1.鼓励大数据人才提升专业技术职称，大数据专业人才通过高新区申报并获得大数据职称的，按高级、中级、初级档次分别奖励个人5000元、3000元、2000元。大数据企业在岗职工参加技能培训，取得高级技师资格证书的每人奖励2000元，取得技师资格证书的每人奖励1600元，取得高级资格证书的每人奖励1400元，取得中级资格证书的每人奖励1200元，取得初级资格证书的每人奖励1000元。(责任部门：组织与人力资源部)', '2.鼓励大数据人才提高专业技能，园区人才参加区内培训机构专业认证培训，获得国际通用大数据专业认证、区块链核心技术专业认证的，可对培训对象的学费、考试费进行补贴，对每人单次培训相关费用在5000元内的全额补贴，超过5000元外的部分补贴80%，每家企业中每年累计补贴不超过10万元(含补贴个人的部分)。(责任部门：组织与人力资源部)', '3.鼓励提升大数据人才能力素质,鼓励园区企业与区内培训机构合作开展订单培训、岗前培训、企业内训等非认证型大数据培训，提升大数据人才综合素质。经认定的补贴企业50%培训费用，每年补贴不超过10万元。区内培训机构年培训区内外人才在100人以上，给予培训机构3万元奖励，每增加100人次追加奖励1万元，每家培训机构每年奖励不超过10万元，已签订招商引资协议并享受补贴或奖励的除外。(责任部门：组织与人力资源部)', '1.积极引进大型知名大数据培训机构，以大数据培训为主的主板、中小板、创业板上市或境外发达国家相同板上市的企业总部入驻，工商税收关系均在高新区的，实现合理营收后一次性给予主板、中小板100万元，创业板50万元一次性入驻奖励。以上企业在高新区设立西部大区、西南大区、贵州片区分支机构，并在高新区纳税的，实现合理营收后分别给予50万元、30万元、20万元一次性入驻奖励。(责任部门：大数据发展办公室、组织与人力资源部、投资促进局、财政局)', '2.支持大数据培训机构做大做强，大数据培训知名企业持中国驰名商标入住高新区，购置高新区内物业或租赁高新区自持物业(租期10年以上)，正常经营三年以上的，一次性给予50万元入驻奖励。经营五年内纳入规模以上企业统计的，追加100万元奖励。中小型大数据培训机构入驻高新区，首次营业额达到50万元、100万元的，一次性给予5万元、10万元奖励。被评为国家级、省级、市级、区级大数据培训或实训、见习示范基地的，一次性分别给予5万元、4万元、3万元、2万元奖励。(责任部门：组织与人力资源部)', '3.支持培训机构深化与在筑高等院校的合作，鼓励和支持培训机构与在筑高校联合设立大数据相关专业教学点，对培训机构独立获得国务院学位委员会批准增列博士、硕士专业教学点，在高新区内实地办学的，分别一次性奖励50万元、30万元；对联合设置专业教学点，获得博士、硕士、本科和大专校外教学资质并开展实质性教学，纳入高校教学体系的，一次性奖励20万元、15万元、10万元、5万元。(责任部门：组织与人力资源部)', '1.鼓励人力资源机构在贵阳国际人才城举办大数据专题大型人才招聘活动，促进大数据人才流动。对现场招聘企业达到30家以上，入场人数达到500人以上的营利性活动，非政府主办、承办的，给予举办方活动收入的20%不超过3万元奖励，公益性活动非政府主办、承办的，给予出资承办方实际开支80%不超过10万元奖励。(责任部门：组织与人力资源部)', '2.促进大数据人才合理流动。大数据人才申报区级相关人才政策，凡须审核园区内工作年限为条件的，人才在园区内不同用人单位工作年限可以累计计算。对获得本方案相关补贴、奖励的大数据人才，原则上应与原用人单位续签三年以上劳动合同并正常履职三年以上，对合同期内确须转变用人单位但劳动关系仍在高新区的可视为正常履职。(责任部门：组织与人力资源部)', '(五)加强社会公众大数据普及1.推进贵州大数据应用展示中心面向社会公众开放，中心每年组织园区社会公众大数据科普活动4场次以上，组织人数不少于200人次以上，接待其他机构组织的社会公众大数据科普活动5场次以上，接待人数不少于300人以上。(责任部门：大数据应用展示中心)', '2.支持区内企业、机构组织企业员工、园区社会公众举办大数据、数据中心、区块链等基础知识讲座和主题沙龙、公众论坛、实地观摩、知识竞赛等学习交流活动，对组织专题活动半天以上，企业员工和社会公众参加人数达到50人、100人、200人以上的，分别奖励出资组织方1000元、1500元、2000元，每家企业、机构每年奖励不超过5万元。(责任部门：组织与人力资源部)', '3.鼓励园区大数据和区块链企业、数据中心、大数据展示场馆所面向社会设立社会公众开放日，并在展示场地外墙明显位置悬挂开放公示牌，经认定为高新区大数据科普基地并开展实质性科普接待的开放场馆所，承接高新区或区内社会组织举办的30人以上公益性社会大众科普学习的，根据接待规模、时长等，经认定每场次奖励开放对象1000-5000元。(责任部门：大数据发展办公室、科技创新创业局、组织与人力资源部)', '4.创新形式开展大数据知识普及活动，鼓励园区数据中心、区块链技术应用、大数据清洗加工等大数据机构和大数据人才利用移动互联网等新兴媒介，通过H5、VR等技术手段开发大数据知识竞赛小游戏、宣传页面、体验游戏、点赞答题等，在园区社会公众中宣传普及大数据知识，对经认定参与人数超过10000人的，给予1万元奖励，每增加5000人增加奖励1000元，最高不超过3万元。(责任部门：大数据发展办公室、组织与人力资源部)', '(一)加强组织领导。大数据精准培训工作在区工管委的领导下，由区人才特区领导小组办公室组织实施，区属各有关部门、单位要高度重视，将此项工作列入部门重点工作中，结合部门职责和联系企业、人才实际，配合做好培训工作宣传、组织工作。', '(二)强化资金保障。区财政部门要根据工管委加强人才工作经费优先保障的要求，每年安排一定资金作为大数据精准培训专项资金，为大数据人才集聚、培养、储备、服务提供经费支持。', '(三)营造良好氛围。区宣传部门要牵头做好大数据精准培训宣传工作，加强和各级各类媒体的对接协调，适时策划开展大数据精准培训专题报道，努力营造精准大数据培训补齐大数据人才短板的良好舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>245</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>筑府办函号市人民政府办公厅关于印发贵阳市年应急管理工作要点的通知</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2017-03-08</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qfbh/201810/t20181002_9598960.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['筑府办函〔2017〕25号市人民政府办公厅关于印发贵阳市2017年应急管理工作要点的通知', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位，市管企业：', '《贵阳市2017年应急管理工作要点》已经市人民政府研究同意，现印发你们，请认真贯彻落实。', '2017年是十分重要的一年。党中央将召开第十九次代表大会，省委将召开第十二次代表大会，营造安全稳定的社会环境尤为重要，进一步加强应急管理体系建设任务艰巨，责任重大。2017年贵阳市应急管理工作的总体思路是，认真学习贯彻党的十八届六中全会、省委十一届八次全会、市第十次党代会精神，全面落实市委、市政府关于加强应急管理的有关重要决策部署，坚持“一个主题”即以应急演练为主题，抓住“四个重点”即以“应急平台建设、应急科普宣传、应急培训、基层应急管理规范化建设”为重点，完善“三大机制”即“风险隐患排查机制、信息报送机制、应急联动机制”，强化“三个保障”即组织领导保障、队伍建设保障、应急物资保障，有效提升预防和处置突发事件的能力，推动全市应急管理工作再上新台阶，以优异成绩迎接党的十九大胜利召开。', '年是十分重要的一年。党中央将召开第十九次代表大会，省委将召开第十二次代表大会，营造安全稳定的社会环境尤为重要，进一步加强应急管理体系建设任务艰巨，责任重大。', '年贵阳市应急管理工作的总体思路是，认真学习贯彻党的十八届六中全会、省委十一届八次全会、市第十次党代会精神，全面落实市委、市政府关于加强应急管理的有关重要决策部署，坚持“一个主题”即以应急演练为主题，抓住“四个重点”即以“应急平台建设、应急科普宣传、应急培训、基层应急管理规范化建设”为重点，完善“三大机制”即“风险隐患排查机制、信息报送机制、应急联动机制”，强化“三个保障”即组织领导保障、队伍建设保障、应急物资保障，有效提升预防和处置突发事件的能力，推动全市应急管理工作再上新台阶，以优异成绩迎接党的十九大胜利召开。', '（一）大力开展“2017应急演练年”系列主题活动,以应急演练促进“一案三制”和基层应急管理规范化建设，以应急演练推动宣传教育和队伍建设，以应急演练检验应急平台建设成效。', '以应急演练促进“一案三制”和基层应急管理规范化建设，以应急演练推动宣传教育和队伍建设，以应急演练检验应急平台建设成效。', '（二）制定出台“2017应急演练年”系列主题活动方案，突出应急演练的重点，着力抓好反恐防暴、消防安全、校园安全、旅游安全、森林防火、环境污染、建筑安全、特种设备安全等方面的应急演练工作。市公安、消防、教育、旅游、生态、安监、质监等市应急委成员单位至少开展1次以上应急预案演练活动；各区（市、县）政府要组织开展4次以上专项应急预案演练活动；各基层应急管理示范点要组织开展1次以上预案演练活动。', '应急演练年”系列主题活动方案，突出应急演练的重点，着力抓好反恐防暴、消防安全、校园安全、旅游安全、森林防火、环境污染、建筑安全、特种设备安全等方面的应急演练工作。市公安、消防、教育、旅游、生态、安监、质监等市应急委成员单位至少开展', '（三）根据应急演练成果，修改完善应急预案。新编、修编各级各类应急预案，丰富完善全市应急预案体系，实现应急预案的动态优化和科学管理。建立应急预案审批、备案和公布等工作制度，规范应急预案管理。修编《贵阳市总体应急预案》，编制《贵阳市轨道交通运营突发事件应急预案》，汇编贵阳市专项应急预案，建立贵阳市应急预案体系数据库。', '（四）2017年6月30日前完成市级应急平台建设，实现市政府应急平台与省政府应急平台、各区（市、县）政府应急平台的互联互通。12月31日前完成市政府应急平台与21个市级政府部门平台的互联互通，建成上下贯通、左右衔接、互为支撑、各有侧重、有机结合的市级应急平台体系。', '完成市级应急平台建设，实现市政府应急平台与省政府应急平台、各区（市、县）政府应急平台的互联互通。', '个市级政府部门平台的互联互通，建成上下贯通、左右衔接、互为支撑、各有侧重、有机结合的市级应急平台体系。', '（五）启动应急平台数据库建设，建立基础数据库、空间数据库、事件数据库、预案库、文档库等系统运行数据库，建成“一张图”应急工作系统。', '（六）制定应急平台安全运维规范和应用工作规范，组织2期应急平台功能使用业务培训，组织1次平台应用桌面推演，使应急平台有人管、会使用、起作用，确保应急平台体系安全可靠、运行稳定、应用广泛。', '次平台应用桌面推演，使应急平台有人管、会使用、起作用，确保应急平台体系安全可靠、运行稳定、应用广泛。', '（七）大力开展应急科普宣教“五进”活动，推进科普宣教进社区、进企业、进学校、进乡村、进机关，提高公众的公共安全意识和自我防护素质，营造关心、关注公共安全的良好社会氛围。', '（八）积极拓展科普宣教渠道，充分发挥传统媒体的作用，在《贵阳日报》、贵阳电视台开辟应急科普知识宣传专栏，在贵阳应急广播（FM102·7）开辟专家访谈、应急热线等专题节目，组织编写中小学及幼儿园公共安全课程教材。创新运用新兴媒体的优势，建立贵阳应急微信公众号，优化贵阳市应急管理网，升级改造贵阳应急科普宣教和预警信息发布系统，推进系统终端设备进医院、进学校等人员密集场所和应急管理重点监控部位，提高系统的覆盖面，全年新增终端设备20000台以上。', '（八）积极拓展科普宣教渠道，充分发挥传统媒体的作用，在《贵阳日报》、贵阳电视台开辟应急科普知识宣传专栏，在贵阳应急广播（', '）开辟专家访谈、应急热线等专题节目，组织编写中小学及幼儿园公共安全课程教材。创新运用新兴媒体的优势，建立贵阳应急微信公众号，优化贵阳市应急管理网，升级改造贵阳应急科普宣教和预警信息发布系统，推进系统终端设备进医院、进学校等人员密集场所和应急管理重点监控部位，提高系统的覆盖面，全年新增终端设备', '（九）创新应急科普宣教形式，通过知识竞赛、演讲比赛、教学体验、文艺演出等形式多样、喜闻乐见的应急科普宣教活动，借助“安全生产月”“消防日”“防灾减灾日”“食品安全宣传周”等重大活动，组织开展系列应急科普专题宣传活动。', '（十）加强领导干部的应急管理培训。邀请知名专家学者进行专题讲座，在市政府常务会议上进行1次应急管理专题讲座，各区（市、县）政府组织1次主要负责人参加的专题讲座，市应急委成员单位结合自身实际开展1次以上应急专题讲座，提高全市各级各部门领导干部的应急管理意识，促进领导干部的应急能力提升。', '（十）加强领导干部的应急管理培训。邀请知名专家学者进行专题讲座，在市政府常务会议上进行', '次以上应急专题讲座，提高全市各级各部门领导干部的应急管理意识，促进领导干部的应急能力提升。', '（十一）加强应急专职管理人员的培训。采取参观考察与探讨交流相结合的方式，组织2次赴应急管理先进城市的学习考察活动，借鉴兄弟省市在应急管理工作中的先进经验和典型作法。强化应急专职管理人员的业务能力和素质培训，分级、分类开展应急管理专题业务培训。各区（市、县）政府组织3次以上应急值守、信息报送、基层应急管理规范化建设等方面的应急专题业务培训，市应急委成员单位组织1次以上应急业务能力和应急专业技能提升培训。', '次赴应急管理先进城市的学习考察活动，借鉴兄弟省市在应急管理工作中的先进经验和典型作法。强化应急专职管理人员的业务能力和素质培训，分级、分类开展应急管理专题业务培训。各区（市、县）政府组织', '次以上应急值守、信息报送、基层应急管理规范化建设等方面的应急专题业务培训，市应急委成员单位组织', '（十二）加强基层应急管理人员的培训。居委会、村委会、企业、学校、医院等基层管理组织和单位每月组织开展以应急管理基础知识、应急先期处置、应急信息报告、自救互救技能为重点的专题培训。', '（十三）组织开展风险隐患大排查专项活动，落实突发事件风险隐患排查登记、分析评估、治理整改、统计汇总工作制度，建立健全风险隐患排查数据库和动态监控体系，从源头预防和减少突发事件的发生。', '（十四）开展经常性的风险隐患专项治理，实现隐患排查经常化、隐患整治责任化，重大隐患实行“挂账销号”和“限时”治理。', '（十五）强化风险隐患监测预警，确保及时、准确发布预警信息。通过已经组建的预警信息发布中心和行业主管部门已有的发布渠道，做好预警信息的统一发布，解决好信息发布“最后一公里”问题。', '（十六）健全风险管理制度，研究制定我市风险隐患管理办法，进一步明确风险隐患管理责任主体和责任追究制度。', '（十七）继续深入推进基层应急管理规范化示范点建设，巩固省、市级示范点成果，不断创新建设内容、提高建设标准，充分发挥基层应急管理示范点的辐射带动作用。', '（十八）全面推进全市各基层单位的应急管理规范化建设，对达到市级示范点建设标准的基层单位比照示范点单位给予创建工作补贴。各区（市、县）要按照乡（镇）、企业、医院、学校、民族村寨、旅游景区的示范点建设标准分类建成本区域基层应急管理示范单位，每个区（市、县）要有10个以上基层单位达到市级示范点标准；基层应急管理规范化建设的牵头部门市教育局、市卫生计生委、市旅游产业发展委、市工业和信息化委、市民族宗教事务委必须完成3个以上本部门的示范单位。', '（十八）全面推进全市各基层单位的应急管理规范化建设，对达到市级示范点建设标准的基层单位比照示范点单位给予创建工作补贴。各区（市、县）要按照乡（镇）、企业、医院、学校、民族村寨、旅游景区的示范点建设标准分类建成本区域基层应急管理示范单位，每个区（市、县）要有', '个以上基层单位达到市级示范点标准；基层应急管理规范化建设的牵头部门市教育局、市卫生计生委、市旅游产业发展委、市工业和信息化委、市民族宗教事务委必须完成', '（十九）进一步加强应急管理办事机构建设。认真落实《省人民政府办公厅关于进一步推进应急管理体系建设的意见》（黔府办发〔2015〕44号）文件中明确的“要健全完善专职应急管理机构，配齐配强专职人员，市（州）政府不少于10名，县级政府不少于5名，市（州）重点部门不少于3名，县级重点部门不少于2名”的要求，积极推进应急机构编制体系建设，确保应急机构人员编制与所履行的职责任务相适应。年底前，市级专项应急预案的牵头部门应急机构在编在岗人数不少于3人，各区（市、县）政府应急办在编在岗人数不少于5人（不含兼职），各区（市、县）专项应急预案的牵头部门应急机构在编在岗人数不少于2人，所需编制在本系统内部调剂解决。', '（十九）进一步加强应急管理办事机构建设。认真落实《省人民政府办公厅关于进一步推进应急管理体系建设的意见》（黔府办发〔', '号）文件中明确的“要健全完善专职应急管理机构，配齐配强专职人员，市（州）政府不少于', '名”的要求，积极推进应急机构编制体系建设，确保应急机构人员编制与所履行的职责任务相适应。年底前，市级专项应急预案的牵头部门应急机构在编在岗人数不少于', '（二十）加强应急救援队伍建设，组织开展全市应急救援队伍比武竞赛和集结演练，提高应急救援队伍的实战技能和快速集结能力，市综合应急救援支队（市公安消防支队）要举办1次市综合应急救援队伍的应急救援比武竞赛。', '（二十）加强应急救援队伍建设，组织开展全市应急救援队伍比武竞赛和集结演练，提高应急救援队伍的实战技能和快速集结能力，市综合应急救援支队（市公安消防支队）要举办', '（二十一）市级公安、消防、气象、卫计、安监等部门要组织开展专业救援装备的技能训练，提高应对反恐防暴、高层灭火、森林火灾、疾病防控、防汛抢险、矿山救援等突发事件的能力。组织开展1次应急处置和救援装备展示活动。', '（二十一）市级公安、消防、气象、卫计、安监等部门要组织开展专业救援装备的技能训练，提高应对反恐防暴、高层灭火、森林火灾、疾病防控、防汛抢险、矿山救援等突发事件的能力。组织开展', '（二十二）健全应急值守工作制度，健全应急值守领导责任制，严格执行领导带班和24小时值班制度，不断加强值班工作制度化、规范化建设，确保突发事件得到及时高效处置。完善值班信息汇总工作机制，着力提高应急值守人员应急信息的分析研判、报告编辑、处置建议能力。强化节假日、重要会议、重大活动期间和敏感时段值班检查抽查，促进政府系统应急值守工作落实。编制《贵阳市应急值守工作手册》。', '小时值班制度，不断加强值班工作制度化、规范化建设，确保突发事件得到及时高效处置。完善值班信息汇总工作机制，着力提高应急值守人员应急信息的分析研判、报告编辑、处置建议能力。强化节假日、重要会议、重大活动期间和敏感时段值班检查抽查，促进政府系统应急值守工作落实。编制《贵阳市应急值守工作手册》。', '（二十三）按照现场信息报送工作“快报事实、慎报原因、速报措施”的原则和“处早、处小、处快”的要求，健全重大突发事件现场信息联络员工作制度。', '（二十四）健全主要领导全面负责的应急管理责任制。各区（市、县）政府是本级应急管理的责任主体和行政领导机关，各区（市、县）政府主要负责人是本区域应急管理的第一责任人，分管领导是具体责任人；各行业主管部门的主要领导是本行业应急管理的第一责任人，分管领导是具体责任人；要切实履行相关责任，在人员、机构、资金等方面亲自研究，做好保障，为应急管理工作的开展创造条件。', '（二十五）强化对应急管理重点工作的督导。市政府应急办要将应急管理工作任务进行分解，建立督查和定期通报制度。市督办督查局要将应急管理工作纳入年度目标绩效考核，并配合开展相关督查工作，推动应急管理各项工作的落实。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>245</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>贵阳市民政局关于开展年社会组织等级评估工作的通知</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/mzsw_5617933/shzz/202108/t20210831_69821880.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为进一步提高社会组织公信力，促进社会组织规范化建设，推动社会组织健康有序发展，根据民政部《社会组织评估管理办法》的规定及民政部《关于探索建立社会组织第三方评估机制指导意见的通知》要求，决定开展2021年社会组织评估工作。现将有关事项通知如下:', '凡是2018年6月30日前在市级民政局注册登记，2018年度、2019年度年检合格的行业商会、协会、公益类、职业类（专业类）社会团体和民办非企业单位均应申请参加评估。学术类、联合类社会团体采取自愿申请评估方式进行。', '民办非企业单位实行规范化建设评估，评估内容包括基础条件、内部治理、业务活动和诚信建设及社会评价。', '1.2021年10月30日前，申请参加评估的社会组织填写《社会组织评估申报表》，报送市社会组织管理局进行资格审核。同时，申报单位对照评估指标和评估材料目录准备评估材料备查。', '2.2021年11月下旬至12月中旬，评估专家组上门对参评社会组织进行实地考察，作出初评结论。', '获得3A以上评估等级的社会组织，可以优先承接政府购买服务，可以优先获得政府奖励扶持。', '获得3A以上评估等级的慈善组织等公益性社会组织可以按照规定申请公益性捐赠税前扣除资格。', '社会组织评估工作，是促进社会组织健康发展的重要举措，对于推动社会组织的组织建设、制度建设和能力建设，增强社会组织服务社会的能力意义重大。评估结果是社会组织是否具备承接服务购买和政府职能转移能力的重要依据。各市本级相关社会组织应深刻认识，高度重视，积极组织评估申报，认真开展评估工作。凡达到条件应申报参加评估的社会组织未申报评估，2022年度年检作为重点现场检查对象，并不得推荐进入具备承接政府购买服务资格的社会组织目录。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>245</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>贵州省贵阳市发展和改革委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/sfzggw_5624391/202008/t20200806_62196066.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['1.拟订并组织实施全市国民经济和社会发展战略、中长期规划和年度计划，以及基础产业、支柱产业、高技术产业专项发展计划，衔接、平衡各主要行业的发展规划；统筹协调经济社会发展，研究分析经济形势，提出全市国民经济发展、价格总水平调控和优化重大经济结构的目标和政策；提出综合运用各种经济手段和政策的建议；受市人民政府委托向市人大提出全市国民经济和社会发展计划报告。', '2.负责监测宏观经济和社会发展态势；参与组织重要经济政策措施的贯彻实施；提出全市宏观经济政策、综合运用经济杠杆对经济运行及时调控的政策措施和建议；负责调节经济运行，协调解决经济运行中的重大问题。', '3.研究经济体制改革和对外开放重大问题；承担指导推进和综合协调全市经济体制改革的责任；组织拟订全市综合性经济体制改革方案，协调有关专项经济体制改革方案，会同有关部门搞好重要专项经济体制改革之间的衔接；统筹经济体制试点和改革试验区工作。', '4.承担规划重大建设项目和生产力布局的责任。研究提出全市固定资产投资总规模和资金投向的相关政策措施和建议，衔接平衡各种资金来源；指导协调矿产、能源、资源等领域重大项目的对外合作；安排市统筹、市财政自筹等财政性建设资金和项目，组织协调和申报国家、省的各项专项资金；按程序和管理权限负责基本建设项目的审批、核准、备案和上报；统筹市级政府投资项目融资借用还一体化工作，对市级政府投资项目建设实施综合监督管理；引导民间资金用于固定资产投资方向，指导全市工程咨询业发展，鼓励和引导工程咨询机构服务民间投资。研究提出全市利用外资、境外投资的发展战略；负责借用国外优惠贷款项目的申报和管理；按规定权限核准外商投资项目;编制市级重点建设项目计划，加强对国家、省级、市级重点建设项目的管理；实施重点项目管理，开展重大建设项目稽察。监督重点建设项目的招标投标情况和实施情况，协调解决重点建设项目建设过程中出现的重大问题；促进重点建设项目按设计要求竣工投产；负责重点建设项目的后评估工作。', '5.推进经济结构战略性调整。组织拟订综合性产业政策，负责协调第一、二、三产业发展的重大问题并衔接平衡相关发展规划和重大政策，做好与国民经济和社会发展规划、计划的衔接平衡；统筹服务业发展，会同有关部门拟订服务业发展战略、重大政策及规划;监测分析全市服务业发展情况，提出有关政策措施和建议；协调服务业发展中的重大问题，指导行业协会改革和发展；综合分析交通运输运行状况；统筹全市综合交通运输规划（含城市轨道交通）和邮政发展规划与国民经济和社会发展规划的衔接平衡；综合平衡交通项目建设资金。统筹推进战略性新兴产业发展，组织拟订高新技术产业发展、产业技术进步的战略、规划和重大政策；统筹信息化的发展规划与国民经济和社会发展规划、计划的衔接平衡。', '6.统筹推进城乡区域协调发展，推进落实区域发展总体战略和主体功能区战略。组织实施国家西部大开发战略及省的区域协调发展战略，组织协调重大基础设施项目的前期工作，负责区（市、县）经济协作的统筹协调工作。牵头组织特重大自然灾害的灾后恢复重建规划编制，协调有关重大问题。统筹推进全市各（市、县）合作发展工作。开展跨区域间发展战略和发展规划上的衔接，做好全面深化合作发展的顶层设计；研究拟订跨区域发展战略、规划和年度工作计划，并组织实施。', '7.研究分析国内外市场的供求状况，搞好市场预测；研究提出培育和完善市场体系的政策措施。', '8.研究制订全市社会发展战略，研究拟订人口发展战略、规划及人口政策，做好科学技术、教育、文化、卫生等社会事业与国民经济发展的衔接平衡工作；推进重大科技成果产业化；提出经济与社会协调发展、相互促进的政策，协调各项社会事业发展中的重大问题。统筹推进基本公共服务体系建设和收入分配制度改革。', '9.推进可持续发展战略。研究全市能源资源节约和综合利用的工作重点，参与组织全市社会能源资源节约和综合利用项目，配合开展项目的申报、审批和实施过程中的宣传、指导、检查、监督工作。提出建立健全生态补偿机制的政策措施；完善固定资产投资项目节能评估和审查制度；负责推进节能环保产业发展、重点用能单位节能管理、清洁生产、节能减排监察执法、能源行业行政执法有关工作。', '10.综合分析气候变化对经济社会发展的影响，组织拟订应对气候变化规划、政策并协调实施。', '11.指导、协调各区（市、县）、各部门、各行业的发展规划和计划工作，对国民经济和社会发展年度计划、中长期规划、重点产业专项规划执行情况进行检查并提出调整建议。研究拟订招投标政策措施及配套制度；监督、指导全市公共资源交易平台的日常工作。', '12.组织编制国民经济动员规划、计划，研究国民经济动员与国民经济、国防建设的关系，协调相关重大问题，组织实施国民经济动员有关工作。', '13.编制和执行价格调整改革规划；拟定并组织实施价格政策，监督检查价格政策的执行；管理国家、省列名管理的商品和服务价格；监测、预测重要商品和服务价格水平及变动趋势；综合运用经济、行政、法律等手段稳控物价总水平；监管实行市场调节价的商品和服务价格行为，负责价格监督检查、价格成本调查监审、价格认证等工作。', '本单位（部门）内设22个处室，下属4个单位。从预算单位构成看，贵州省贵阳市发展和改革委员会部门决算包括：本级决算、所属贵阳市重大项目建设管理办公室、贵阳市节能减排监察支队、贵阳市价格认证中心和贵阳市经济学会决算。', '（五）贵州省贵阳市发展和改革委员会2019年度一般公共预算财政拨款支出决算情况说明', '贵州省贵阳市发展和改革委员会2019年度一般公共预算财政拨款支出当年预算（调整预算）为6,677.63万元，支出决算为6,677.63万元，完成当年预算的100%。决算数等于预算数，主要原因是：根据人员变动、工作开展及项目推进情况实时调整年初预算，确保支出必有预算，有预算必执行。其中：', '（六）贵州省贵阳市发展和改革委员会2019年度一般公共预算财政拨款基本支出决算情况说明', '（七）贵州省贵阳市发展和改革委员会2019年度一般公共预算财政拨款“三公”经费支出决算情况说明', '2019年度“三公”经费财政拨款支出年初预算为45.2万元，支出决算为12.85万元，决算数小于年初预算数，主要原因是：年初预算是在2018年实际支出基础上适当上浮后确定的，2019年因公出国、公务用车及公务接待事项、车次、批次及人次均较上年减少，故支出决算数小于年初预算数。', '（1）因公出国（境）费支出0万元。贵州省贵阳市发展和改革委员会全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '（2）公务用车购置及运行维护费9.68万元,其中，公务用车购置0万元，购置公务用车0辆；公务用车运行维护费9.68万元。主要用于购买车辆保险、汽油、车辆维护维修等。2019年，单位开支财政拨款的公务用车保有量为11辆。', '国内公务接待支出3.16万元，主要是省内外发展改革系统来我市交流、学习、考察及调研等。贵州省贵阳市发展和改革委员会2019年国内公务接待25批次，258人次。', '根据财政预算管理要求，我单位组织对2019年度财政拨款项目支出开展了绩效自评工作。共计48个项目进行了绩效自评，涉及资金3192.46万元，自评覆盖率达到100%。', '见“五、附件 《贵阳市优化营商环境工作领导小组办公室工作经费项目绩效自评价报告》、《节能环资专项管理项目绩效自评价报告》”。', '2019年贵州省贵阳市发展和改革委员会政府采购支出总额2540.65万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出2540.65万元，授予中小企业合同金额2540.65万元，占政府采购支出总额的100%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '截至2019年12月31日，贵州省贵阳市发展和改革委员会共有车辆11辆，其中，主要领导干部用车0辆、机要通信用车2辆、应急保障用车1辆、执勤执法用车2辆、特种专业技术用车0辆、离退休干部用车3辆、其他用车3辆（其他用车主要是：下属事业单位日常工作用车）；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）一般公共服务支出（类）发展与改革事务（款）行政运行（项）指：行政单位的基本支出。', '（十八）一般公共服务支出（类）发展与改革事务（款）战略规划与实施（项）指：贵阳市发展和改革委员会拟订并组织实施国民经济和社会发展战略、中长期规划和年度计划，实施宏观管理与调控等方面的支出。', '（十九）一般公共服务支出（类）发展与改革事务（款）经济体制改革研究（项）指：贵阳市发展和改革委员会在经济体制改革与研究方面的支出。', '（二十）一般公共服务支出（类）发展与改革事务（款）物价管理（项）指：贵阳市发展和改革委员会物价管理方面的支出。', '（二十一）一般公共服务支出（类）发展与改革事务（款）事业运行（项）指：贵阳市发展和改革委员会下属事业单位的基本支出，不包括机关（包括公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。', '（二十二）一般公共服务支出（类）发展与改革事务（款）其他发展与改革事务支出（项）指：贵阳市发展和改革委员会除上述项目以外的其他发展与改革事务支出。', '（二十三）科学技术支出（类）技术研究与开发（款）科技成果转化与扩散（项）指：贵阳市发展和改革委员会在促进科技成果转化为现实生产力的应用、推广和引导性支出，以及基本建设支出中用于支持企业科技自主创新的支出。', '（二十四）社会保障和就业支出（类）行政事业单位离退休（款）机关事业单位基本养老保险缴费支出（项）指：贵阳市发展和改革委员会实施养老保险制度由单位缴纳的基本养老保险费支出。', '（二十五）社会保障和就业支出（类）行政事业单位离退休（款）其他社会保障和就业支出（项）指：贵阳市发展和改革委员会除上述项目以外其他用于社会保障和就业方面的支出。', '（二十六）卫生健康支出（类）行政事业单位医疗（款）行政单位医疗（项）指：财政部门安排行政单位基本医疗保险缴费经费。', '（二十七）卫生健康支出（类）行政事业单位医疗（款）事业单位医疗（项）指：财政部门安排事业单位基本医疗保险缴费经费。', '（二十八）卫生健康支出（类）行政事业单位医疗（款）公务员医疗补助（项）指：财政部门安排的公务员医疗补助经费。', '（二十九）节能环保支出（类）其他节能环保支出（款）其他节能环保支出（项）指：贵阳市发展和改革委员会用于节能环保支出类、款以外其他用于节能环保方面的支出。', '（三十）城乡社区支出（类）其他城乡社区支出（款）其他城乡社区支出（项）指：贵阳市发展和改革委员会用于城乡社区支出类、款以外其他用于城乡社区方面的支出。', '（三十一）住房保障支出住房改革支出住房公积金指：指贵阳市发展和改革委员会按照人力资源和社会保障部、财政部规定的基本工资和津贴补贴以及规定比例为职工缴纳的住房公积金。', '为全面贯彻落实党中央、国务院和省委、省政府关于优化提升营商环境建设的工作部署，深入推进“放管服”改革，持续深度优化营商环境，加快转变政府职能和工作作风，提升政府治理能力和水平，中共贵阳市委、市人民政府出台了《关于进一步优化提升营商环境的实施意见》，成立贵阳市优化营商环境工作领导小组，办公室设于贵阳市发展和改革委员会（以下简称营商办）。2019年，营商办申请工作经费100万元，用于支付2018年四季度暗访专题片费用，拍摄2019年一至四季度营商环境暗访调查专题片（每季度一部，共四部），完成2019年度营商环境第三方评估。', '2018年四季度暗访专题片费用已支付，2019年三季度营商环境暗访调查专题片已拍摄完成， 2019年度营商环境第三方评估未开展。', '2019年是贵阳市全面优化提升营商环境的起步之年，相关工作尚处于探索学习阶段，也未形成成熟的工作模式及流程，导致部分工作不能严格按计划推进，因此2019年一、二、四季度营商环境暗访专题片未如期拍摄；中央、省市各级部门高度重视贵阳市优化提升营商环境工作，2019年多次莅临相关企业调研、视察，为避免给企业正常生产经营造成干扰，第三方评估工作暂缓进行。', '按照《贵阳市应对气候变化“十三五”规划》及贵阳市人民政府《关于印发贵阳市“十三五”控制温室气体排放工作实施方案的通知》安排，持续推进应对气候变化工作，构建低碳产业体系，大力推广低碳能源，打造绿色低碳城市；根据试点情况逐步推广，提高节能审查审批效率；落实节能目标责任制；在贵阳市主城区及一市三县推动生活垃圾分类工作，明确示范片区创建标准，确定生活垃圾分类达标示范单位，以此引领全社会、各级部门规范投放生活垃圾，规范收运及终端处置。', '各项绩效目标均已完成，主要是：制定贵阳市生活垃圾处理设施建设规划方案1份，制定生活垃圾分类示范片区创建标准1套，组织完成2019年度节能宣传周活动。', '贵阳市发展和改革委员会2021年度市级部门预算、“三公”经费预算公开说明及填报口径说明']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>245</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>中共贵州省委办公厅贵州省人民政府办公厅印发关于减轻中小学教师负担进一步营造教育教学良好环境的实施意见的通知</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2020-06-17</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/jy_5617891/jsgz_5617896/202006/t20200617_61141487.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['中共贵州省委办公厅 贵州省人民政府办公厅印发《关于减轻中小学教师负担进一步营造教育教学良好环境的实施意见》的通知 - 贵阳市人民政府', '中共贵州省委办公厅 贵州省人民政府办公厅印发《关于减轻中小学教师负担进一步营造教育教学良好环境的实施意见》的通知', '各市(自治州)、县(市、区)党委和人民政府,省委各部委,省级国家机关各部门,省军区、武警贵州省总队党委,各人民团体:', '《关于减轻中小学教师负担进一步营造教育教学良好环境的实施意见》已经省委、省政府领导同志同意,现印发给你们，请结合实际认真贯彻落实。', '为认真贯彻落实《中共中央办公厅、国务院办公厅印发〈关于减轻中小学教师负担进一步营造教育教学良好环境的若干意见〉的通知》精神，切实减轻中小学教师负担，进一步营造全社会尊师重教的浓厚氛围，为教师安心、静心、舒心从教创造更加良好环境，结合我省实际提出以下实施意见。', '坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实习近平总书记关于教育的重要论述特别是关于教师工作的重要指示批示精神，遵循教育教学规律，聚焦教师立德树人、教书育人主责主业，坚持问题导向，强化举措，精准施策，统筹推进，规范督查检查评比考核、社会事务进校园、抽调中小学教师等事宜，严格清理规范与教育教学无关的事项，切实减轻中小学校和教师负担，为广大教师营造潜心教书育人的良好环境。', '1.全面清理精简现有督查检查评比考核事项。对涉及中小学校和教师的督查检查评比考核事项实行清单管理，县级以上党委和政府要组织开展“督查检查评比考核事项专项清理行动”，严格控制总量、层级、规模和频次，能取消的坚决取消，能合并的一律合并，确保对中小学校和教师的督查检查评比考核事项在现有基础上减少50%以上，清理后保留的事项实行清单管理。', '2.依法依规开展督查检查评比考核事项。各部门开展涉及中小学校和教师的督查检查评比考核事项，按照归口管理原则，实行年度计划和审批报备制度，每年1月20日前按程序经审核后报同级党委审批方可实施。除教育部门外，其他部门不得自行设置以中小学教师为对象的督查检查评比考核事项，确需开展的每年1月20日前商教育部门，按程序报批通过后实施。涉及中小学校和教师的督查检查评比考核事项，由同级教育部门统筹协调开展，内容相同相近事项合并进行，涉及多部门的联合开展，严格按要求按程序进行，不得层层加码、扩大范围、增加环节、延长时间，严禁对中小学校和教师随意提出要求。同类事项，有关部门开展督查检查形成的结果，部门之间要共享、互认。', '3.改进督查检查评比考核方式方法。各级党委和政府及有关部门要完善考核评价体系，不得多程序、多环节、多部门要求中小学校和教师填报或提供数据材料，减少不必要的环节和表格数据材料检查。不得简单以留痕作为评价工作成效的标准，不得以QQ、微信工作群、政务APP上传工作场景截图或录制视频等方式来代替实际工作评价，不能工作刚安排就开展督查检查评比考核，坚决杜绝形式主义，减少听取汇报、查阅资料等形式，严禁干扰正常教育教学活动。', '4.规范部署扶贫任务。各级党委和政府要引导广大教师立足教育教学岗位关心支持教育扶贫工作，充分运用校园和课堂教育帮助贫困地区学生坚定脱贫信念、认真学习、掌握本领、健康成长，通过扶志扶智方式为阻断贫困代际传递作贡献。', '5.合理安排留守儿童包保和控辍保学工作。各级党委和政府及有关部门要按照要求，引导教师加强对留守儿童的关心关爱，关注每一名学生的全面发展，提高课堂教学质量。厘清控辍保学职责边界，分清党委和政府、部门、学校、社会、教师的职责和家长的责任，不得硬性要求中小学教师反复填写表册资料、定期走访、上门合影拍照等与教育教学无关的“留痕”工作形式。', '6.合理安排专项任务。各级党委和政府统一部署的维护稳定、扫黑除恶、防灾减灾、消防安全、防艾等重要专项工作，确需中小学校和教师参与的，由教育部门严格按要求依程序统筹安排，不得影响正常教育教学，不得安排中小学教师到与教育教学无关的场所开展相关工作。如遇特殊时期、紧急情况，由教育部门根据上级要求统筹布置。', '7.合理安排城市创优评先任务。各级党委和政府统一部署开展的文明、卫生、绿色、宜居、旅游等城市创优评先活动，涉及中小学校的，由教育部门按要求按程序统筹安排，原则上不得安排教师上街执勤或做其他与教师职责无关的工作，不得影响正常教育教学。未经教育部门同意，其他单位和部门不得单独发文到学校开展创先评优等工作，不得擅自进校园要求教师开展相关工作。', '8.合理安排街道社区事务。乡镇、街道社区要通过积极发展社区教育助力区域内中小学校的教育教学工作，在不影响正常教育教学情况下，积极吸引中小学校参与社区建设相关活动。对教师参与此类活动提出不合理要求或所提要求影响正常教育教学的，学校有权拒绝。', '9.科学安排有关教育宣传活动。面向中小学生开展的教育宣传活动，要根据中小学生德智体美劳全面发展的需要，由教育部门整体规划、分类指导、统筹安排进入校园。如中小学课程已有类似内容，可根据实际需要合理融入教学安排，不得重复安排。', '10.坚决杜绝强制摊派无关事务。各级党委和政府要统筹规范社会事务进校园工作，建立各类“进校园”活动清单制度和审核备案制度，未列入清单、未经审核通过的不得开展，特别是不得把一些地方政府部门、单位或企业等与教育教学无关的活动或工作(如庆典、招商、拆迁等)强制摊派给学校，并向教师下达指令性任务，不得随意让学校停课出人出场地举办有关活动。严禁商业广告、商业活动进入校园。', '11.规范精简文件会议进校园。各级党委和政府要严格按照为基层减负的有关要求，与教育教学无关的文件不得向学校派发和对教师提出指令性要求。除教育行政部门外，其他部门召开的会议原则上不得安排学校和教师参加，与学校和教师有关的内容由教育行政部门负责传达，确需学校和教师参加的由教育行政部门统筹安排。开展相关校园活动，学校要根据自身实际，不盲目攀比，不搞形象工程。', '12.规范微信工作群、政务APP等管理使用。不得强制要求或通过与考核挂钩等变相要求学校和教师关注微信公众号、下载安装与教育教学无关的政务APP等进行点赞投票、网络答题、人物评选、问卷调查等，除国家有明确规定外，不得提出参与率、达标率等硬性要求。', '13.规范精简各类报表填写。各级党委和政府及教育部门要严格规范涉及中小学教师的有关报表填报工作，根据需要统筹安排各类报表填报工作，精简填写内容和上报次数，杜绝重复上报各种数据及多头填表格、报材料现象。', '14.严格规范教育统计和调研工作。严格落实《教育统计管理规定》要求，规范中小学校教育统计工作。除国家统计局外，其他部门开展涉及中小学校和教师的教育统计工作须向同级政府统计机构报请审批备案。针对中小学教师开展的调研活动，须按程序报经教育部门同意并部署，坚决杜绝不同部门多头、重复调研。', '15.提升数据采集信息化水平。各级教育部门和学校要建立健全各类教育信息数据库，各级各部门按照权限获取相应的数据，一次采集多次使用。充分利用现代信息技术特别是人工智能技术，提升教育管理工作的信息化、科学化水平，切实做到让信息多跑路、让教师少跑腿。', '16.合理制定考核评估标准。各级教育部门要精简繁冗，注重实效，杜绝与教育教学无关的考评细则，加大教育教学的实质性评价占比。结合学校实际，合理分配和明确教师工作量，科学配置师资，对教师考核评价要科学、合理，教案制作、作业批改等检查考核要实事求是，杜绝形式主义。', '17.提高学校管理水平。在不影响教师教学职责的前提下，鼓励教师参与学校管理，但是不得将属于学校管理范畴的行政事务摊派给教师。不得安排一线教师参与食堂管理、宿舍检查等后勤事务。学校承担的法定收费项目不得要求教师负责代收。', '18.严禁安排教师参加无关培训活动。教育部门和学校统筹安排教师培训活动。针对教师的专业培训，要结合教师工作和生活实际，优化内容、改进形式、合理开展，杜绝走形式、走过场。采取多形式做好对教师的教研指导，多维度观测教师教学水平，科学开展考核评估。对于非教育教学方面的培训，教育部门要严格把关，除人力资源社会保障部门依法依规开展的培训外，能取消的取消，能合并的合并，不得让教师拼凑充数，把无关培训摊派给教师。', '19.从严规范借用中小学教师行为。各级党委和政府对借用中小学教师要进行清理，限期清退。严格限制和规范有关部门对教师的借用。对借用中小学教师参与贯彻落实党和国家重大决策部署任务的，在不影响学校正常教育教学情况下，应经县级以上教育部门同意，并报同级党委审批备案，借用期限原则上不超过半年。', '20.从严控制抽调教师行为。不得随意抽派中小学教师参与与教育教学无关的会议会务、庆典等活动。确需参加的，在不影响学校教育教学的情况下，须经县级以上教育部门同意，并严格控制抽调时间和人数。', '21.依法保障教师待遇。各级党委和政府要按照关于进一步保障义务教育教师工资待遇有关要求，实现义务教育教师平均工资收入水平不低于当地公务员平均工资收入水平。落实连片特困地区乡村教师生活补助、乡镇工作补贴、艰苦边远地区津贴等政策，建立学校越边远艰苦补助越高的乡村教师待遇保障机制。绩效工资分配时向乡村教师、一线教师、班主任等岗位倾斜。', '22.完善教师关爱激励机制。加强乡村学校教师周转宿舍建设，各地要按规定将符合条件的乡村教师住房纳入当地住房保障体系，统筹予以解决。实施教师定期体检、心理疏导和困难教师资助救助制度。对推选认定的中小学优秀教师、教育工作先进个人、特级教师等，鼓励社会团体、企事业单位、民间组织出资奖励。依法依规妥善处理涉及学校和教师的矛盾纠纷，依法查处损害教师权益的行为。', '(一)加强组织领导。各级党委和政府要高度重视，把减轻中小学教师负担工作纳入重要议事日程，按照贵州省减轻中小学教师负担清单，严格落实审批和报备制度，明确路线图和时间表，层层压实责任，抓好贯彻落实。各级党委教育工作领导小组要加强统筹协调、宣传引导、督促落实。各级教育部门要在党委和政府的领导下，认真落实好组织实施工作，依法保障学校办学自主权和中小学教师各项权益。', '(二)加强督导检查。省政府教育督导委员会要把减轻中小学教师负担工作纳入对市级政府履行教育职责的评价内容，同时，要把减轻中小学教师负担作为教育督导和开学检查的重要内容。各级教育督导部门要坚持定期督导与长期监管相结合，将结果作为地方党政领导班子和有关领导干部综合考核评价、奖惩任免的重要参考，对于执行不力、落实不到位的要严肃问责。', '(三)加强宣传引导。各级党委和政府及教育部门要加大宣传力度，通过官网、微博微信客户端等渠道，及时宣传党的教育方针，广泛宣传中小学教师教书育人、培养社会主义建设者和接班人的神圣使命，大力倡导尊师重教，引导全社会进一步关心教育、关爱中小学教师，共同营造良好的教育教学环境。', '(四)加强动态监管。各级党委和政府要公布举报电话和信箱，引导社会共同监督减轻中小学教师负担工作落实。要建立减轻中小学教师负担动态监测机制，市(州)统筹，各县(市、区)按照城区、乡镇、村不同区域，中学(含中等职业学校)、小学和幼儿园各选1所学校作为减轻中小学教师负担监测点，并于每年12月1日前将本地区减轻中小学教师负担情况报省教育厅。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>245</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>贵州省贵阳市地方志编纂委员会办公室年度部门决算</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019-08-05</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgysdaj/202105/t20210530_68327527.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['．贯彻执行中央、省和市有关地方志工作的方针、政策和指示，拟定全市地方志工作规划和编纂方案、制定本市地方志书和年鉴编纂规范和标准。', '．组织编纂地方志书、地方综合年鉴；负责审查、验收和出版市志、部门志和专业志等各类志书及年鉴。', '．负责征集、保存地方志文献和资料，整理旧志；开展方志、年鉴理论研究与宣传工作；组织开展地方志工作经验交流。', '．组织开发利用地方志资源，通过建设网站及地方志全文数据库等方式，加强地方志工作信息化建设，推动社会读志用志，为全市经济建设和社会发展提供服务。', '本单位（部门）内设 4 个处室，无下属单位。从预算单位构成看，贵州省贵阳市地方志编纂委员会办公室部门决算包括：本级决算。', '（1）文化体育与传媒支出（类）其他文化体育与传媒（款）其他文化体育与传媒（项）。当年预算为648.76万元，支出决算为588.71万元，完成当年预算的90.74 %。主要由于今年预算安排“贵阳方志馆布展装修前期经费”50万元，由于贵阳方志馆基础建设还未完工，施工单位未交付使用，布展装修无法进行。今年该项目只安排人员参加了方志馆建设培训和学习考察，邀请相关专家、学者对设计方案进行研讨，初步确定了布展设计方案，实际拨款3万元。', '“三公”经费财政拨款支出预算为3.62万元，支出决算0.94万元，决算数小于预算数，主要原因是2018年车辆使用频率不高，而且未产生公务接待费。', '万元。主要用于区县地方志工作调研及到扶贫帮扶村走访用车及车辆修理等。2018年，单位开支财政拨款的公务用车保有量为1辆。', '年贵州省贵阳市地方志编纂委员会办公室机关运行经费支出24.03万元，比2017年减少0.76万元，降低3.07%，主要原因是公务用车减少，以及1人退休，公车补贴减少等。', '政府采购支出总额190万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出190万元，授予中小企业合同金额190万元，占政府采购支出总额的100%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '共有车辆1辆，其中：主要领导干部用车0辆、机要通信用车1辆、应急保障用车0辆、执法执勤用车0辆，特种专业技术用车0辆，离退休干部用车0辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上的专用设备0台（套）。', '根据财政预算管理要求，我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计7个项目进行了绩效自评，涉及资金311.80万元，自评覆盖率达到100%。', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为92分。发现的主要问题及原因：《人文贵阳》期刊一年出版四期，一季度一期。但在实际操作中，部分期刊由于未在有效期（本季度内）内完成工作任务，有跨季度出版现象。', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为92分。发现的主要问题及原因：由于该项工作目的是提高地方志编纂人员业务能力，不产生经济效益、生态效益，所以未进行社会公众或服务对象满意度调查', '不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）文化体育与传媒支出（类）其他文化体育与传媒（款）其他文化体育与传媒（项）：', '指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。）']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>245</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>原贵阳市质量技术监督局年度部门决算</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/scjgj/202001/t20200116_43376489.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['目 录 一、单位概况 （一）主要职能 （二）机构设置及部门决算单位构成 二、2018年度部门决算公开报表（见附表） 三、2018年度部门决算情况说明 （一）2018年度收入支出决算总体情况说明 （二）2018年度收入决算情况说明 （三）2018年度支出决算情况说明 （四）2018年度财政拨款收入支出决算总体情况说明 （五）2018年度一般公共预算财政拨款支出决算情况说明 （六）2018年度一般公共预算财政拨款基本支出决算情况说明 （七）2018年度一般公共预算财政拨款“三公”经费支出决算情况说明 （八）2018年度政府性基金预算收入支出决算情况说明 （九）其他重要事项的情况说明 四、名词解释 一、贵州省贵阳市质量技术监督局概况 （一）主要职能 1、负责贯彻执行国家、省、市质量技术监督法律、法规和方针、政策；负责全市质量技术监督行政管理和行政执法工作；指导区（市、县）质量技术监督管理工作，规范行政执法行为。 2、负责质量宏观管理工作，组织实施国务院《质量发展纲要》；推进质量强市工作；组织实施品牌发展战略；组织实施质量奖励、产品质量诚信体系建设工作；会同有关部门组织实施重大工程设备质量监理制度。 3、负责产品质量安全监督工作；贯彻执行产品质量安全监督工作制度；承担产品质量安全强制检验、风险防控、监督抽查、产品质量状况分析工作；组织协调重大产品质量事故的调查处理工作。 4、负责标准化工作；组织标准实施，并对实施情况进行监督检查；负责企业标准备案和登记工作；负责贵阳市地方标准立项、批准、发布工作；组织参与国际标准、国家标准、行业标准、地方标准的制（修）订工作；负责组织机构代码和商品条码管理工作。 5、负责计量管理工作；推进国家法定计量单位，组织实施国家计量制度；依法监督管理计量器具及量值传递和计量比对工作；对法定或授权的计量检定机构进行监督管理；承担能源、商品和市场计量行为的规范、监督工作。 6、负责监督管理和综合协调全市认证工作；监督管理强制性产品认证、自愿性产品认证；开展辖区内实验室资质认定，负责产品质量检验机构的监督管理；负责机动车安全技术检验机构资格许可及计量认证的监督管理工作；负责地理标志产品的申报和管理工作。 7、负责全市特种设备的安全监督管理工作；负责全市高耗能特种设备实施节能监督管理工作；负责对特种设备生产、经营、维修、改造、使用的单位和检验、检测机构实施监督管理工作；负责对全市特种设备一般事故进行调查处理。 8、承担省质监局委托下放的行政许可事项。 9、拟订全市质量技术监督事业发展、科技发展和质监技术机构建设规划；组织实施质量技术监督法律法规的宣传、教育、培训，推进质监信息化建设工作；配合实施相关专业职业资格工作。 10、承办市委、市政府和上级业务部门交办的其他事项。 （二）机构设置及部门决算单位构成 贵阳市质量技术监督局机关内设十处二室，即办公室、法规处、质量管理处、产品质量监督处、标准化处、计量处、认证监督管理处、特种设备安全监察处、科技计划财务处、人事处、离退休干部处、纪检监察室。下属一个直属行政机构贵阳市质量技术监督局稽查局；两个所属事业单位即：贵阳市质量技术监督局行政许可审核中心和贵阳市质量技术监督局信息中心；两个派出机构即：贵阳市质量技术监督局国家高新技术产业开发区分局和贵阳市质量技术监督局经济技术开发区分局。从预算单位构成看，贵阳市质量技术监督局部门决算包括：本级决算、直属行政机构贵阳市质量技术监督局稽查局、所属事业单位贵阳市质量技术监督局行政许可审核中心决算和贵阳市质量技术监督局信息中心决算。 二、贵州省贵阳市质量技术监督局2018年度部门决算公开报表（见附表） 三、贵州省贵阳市质量技术监督局2018年度部门决算情况说明 （一）贵州省贵阳市质量技术监督局2018年度收入支出决算总体情况说明 贵州省贵阳市质量技术监督局2018年度收支决算总计2,106.1万元，与2017年相比，减少798.67万元，降低27.5%。主要原因是：按照《国家质量监督检验检疫总局关于废止和修改部分规章的决定》（第196号）和《省人民政府关于公布行政系统评比达标表彰评估项目清理规范结果的通知》（黔府发[2013]31号）等文件要求，经市政府同意，不再继续开展贵阳市名牌评价工作，相关名牌奖励不再继续实施。 （二）贵州省贵阳市质量技术监督局2018年度收入决算情况说明 本年收入合计2,067.8万元，其中：财政拨款收入2,067.8万元，占100%；上级补助收入0万元，占0%；事业收入0万元，占0%；经营收入0万元，占0%；附属单位缴款0万元，占0%；其他收入0万元，占0%。 （三）贵州省贵阳市质量技术监督局2018年度支出决算情况说明 本年支出合计2,083.7万元，其中：基本支出1,363.12万元，占65.42%；项目支出720.58万元，占34.58%；上缴上级支出0万元，占0%；经营支出0万元，占0%；对附属单位补助支出0万元，占0%。 （四）贵州省贵阳市质量技术监督局2018年度财政拨款收入支出决算总体情况说明 贵州省贵阳市质量技术监督局2018年度财政拨款收支决算总计2,067.8万元。与2017年相比，减少768.45万元，降低27.09%。主要原因是：按照《国家质量监督检验检疫总局关于废止和修改部分规章的决定》（第196号）和《省人民政府关于公布行政系统评比达标表彰评估项目清理规范结果的通知》（黔府发[2013]31号）等文件要求，经市政府同意，不再继续开展贵阳市名牌评价工作，相关名牌奖励不再继续实施，减少相关奖励经费的开支。 （五）贵州省贵阳市质量技术监督局2018年度一般公共预算财政拨款支出决算情况说明 1、一般公共财政拨款支出决算总体情况 贵州省贵阳市质量技术监督局2018年度一般公共预算财政拨款支出2,049.6万元，占本年支出合计的98.36%。与2017年相比，一般公共预算财政拨款支出减少786.65万元，降低27.74%。主要原因是：按照《国家质量监督检验检疫总局关于废止和修改部分规章的决定》（第196号）和《省人民政府关于公布行政系统评比达标表彰评估项目清理规范结果的通知》（黔府发[2013]31号）等文件要求，经市政府同意，不再继续开展贵阳市名牌评价工作，相关名牌奖励不再继续实施，减少相关奖励经费的开支。 2、一般公共预算财政拨款支出决算结构情况 贵州省贵阳市质量技术监督局2018年度一般公共预算财政拨款支出2,049.6万元，主要用于以下方面：“一般公共服务支出”1970.25 万元，占96.13 %；“住房保障支出”79.35 万元，占3.87 %。 3、一般公共预算财政拨款支出决算具体情况 贵州省贵阳市质量技术监督局2018年度一般公共预算财政拨款支出当年预算为2067.8 万元，支出决算为2083.7 万元，完成当年预算的100.76 %。决算数大于预算数的主要原因是： 2017年度有结转结余。其中： （1）一般公共服务支出”科目（类）“质量技术监督与检验检疫事务”科目（款）“行政运行”科目（项）。当年预算为1098.9 万元，支出决算为1096.34万元，完成当年预算的99.77 %。决算数小于预算数的主要原因是：年终有结转结余到下一年度使用。 （2）“一般公共服务支出”科目（类）“质量技术监督与检验检疫事务”科目（款）“质量技术监督行政执法及业务管理”科目（项）。当年预算为551.01 万元，支出决算为560.7 万元，完成当年预算的101.76 %。决算数大于预算数的主要原因是：上年有结转结余。 （3）一般公共服务支出”科目（类）“质量技术监督与检验检疫事务”科目（款）“标准化管理”科目（项）。当年预算为9.07万元，支出决算为9.07万元，完成预算100%。 （4）一般公共服务支出”科目（类）“质量技术监督与检验检疫事务”科目（款）“信息化建设”科目（项）。当年预算为96.49万元，支出决算为96.49万元，完成预算100%。 （5）一般公共服务支出”科目（类）“质量技术监督与检验检疫事务”科目（款）“事业运行”科目（项）。当年预算为202.26万元，支出决算为187.73万元，完成预算92.67%，决算数小于预算数的主要原因是：年终有结转结余到下一年度使用。 （6）一般公共服务支出”科目（类）“质量技术监督与检验检疫事务”科目（款）“其他质量及时监督与检验检疫事物支出”科目（项）。当年预算为29.91万元，支出决算为54.33万元，完成预算181.64%，决算数大于预算数的主要原因是：2017年度经费有结余。 （5）“住房保障支出”科目（类）“住房改革支出”科目（款）“住房公积金”（项）。当年预算为80.15万元，支出79.35万元，完成预算的99%，决算数小于预算数的主要原因是：有结余到下一年度使用。 （六）贵州省贵阳市质量技术监督局2018年度一般公共预算财政拨款基本支出决算情况说明 贵州省贵阳市质量技术监督局2018年度一般公共预算财政拨款基本支出1,363.12万元，其中：人员经费1,229.71万元，主要包括基本工资、津贴补贴、离退休费等；公用经费133.41万元，主要包括办公费、水电费、差旅费等。 （七）贵州省贵阳市质量技术监督局2018年度一般公共预算财政拨款“三公”经费支出决算情况说明 2018年度“三公”经费一般公共预算财政拨款支出决算5.79万元，，比上年减少5.72万元，降低49.67%，减少原因是厉行节约，公车运行及维护费用减少，大力缩减公务接待费的开支。其中，因公出国（境）费支出0万元，占0%，比上年减少0万元，降低0%，与上年持平；公务用车购置及运行维护费支出4.9万元，占84.63%，比上年减少3.39万元，降低40.91%，减少原因是公车运行较少，运行成本及维护费减少；公务接待费支出0.89万元，占15.37%，比上年减少2.32万元，降低72.28%，减少原因是按照要求，厉行节约，大力减少公务接待支出。具体情况如下： （1）因公出国（境）费支出0万元。贵州省贵阳市质量技术监督局全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。 （2）公务用车购置及运行维护费4.9万元,其中，公务用车购置0万元，购置公务用车0辆；公务用车运行维护费4.9万元。主要用于行政单位公务用车及2个事业单位公车的运行维护、保养、保险等。2018年，单位开支财政拨款的公务用车保有量为19辆。 （3）公务接待费0.89万元。具体是： 国内公务接待支出0.89万元，主要是接待到我局学习调研电梯监管平台建设经验及学习考察如何开展“创建全国质量强市”的单位等。贵州省贵阳市质量技术监督局2018年国内公务接待11批次，93人次。 （八）政府性基金预算收入支出决算情况说明 贵州省贵阳市质量技术监督局2018年无政府性基金预算财政拨款收支。 （九）其他重要事项的情况说明 1、机关运行经费支出情况 2018年贵州省贵阳市质量技术监督局机关运行经费支出115.9万元，比2017年减少21万元，降低15.34%，主要原因是厉行节约，尽力减少办公用品、水电费、公车运行维护等物质和能源的消耗 。 2、政府采购支出情况 2018年贵州省贵阳市质量技术监督局政府采购支出总额 5.59万元，其中：政府采购货物支出5.59 万元，授予中小企业合同金额5.59 万元，占政府采购支出总额的100 %，其中：授予小微企业合同金额5.59 万元，占政府采购支出总额的100 %。 3、国有资产占用情况 截至2018年12月31日，贵州省贵阳市质量技术监督局共有车辆19辆，其中，主要领导干部用车0辆、机要通信用车1辆、应急保障用车0辆、执勤执法用车0辆、特种专业技术用车3辆、离退休干部用车0辆、其他用车15辆（其他用车主要是：其中11辆根据行政单位车改工作要求已交市机关事务管理局，资产待核销；1辆车辆已报废，相关手续已办结，资产待核销；3辆为事业单位用车）；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。 4、2019年度预算绩效情况说明 （1）预算绩效管理工作开展情况 根据财政预算管理要求，我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计18个项目进行了绩效自评，涉及资金720.57万元，自评覆盖率达到100%。 （2）部分项目支出绩效自评结果 项目一：工业产品质量监督抽查经费项目', '根据年初设定的绩效目标，本项目已完成全部（或部分）目标任务，自评得分为90分。发现的主要问题及原因：资金到位率、均衡性不够高，主要原因是，一是部分工业产品的抽检需在年终进行，检测机构的检测结果在12月前无法出具检测结果，无法形成经费开支。二是因生产企业停产停工等原因, 年初制定的抽检计划无法完成. 项目支出绩效自评表', '以抽检为主要的监督方式, 对市级生产的在建工程新型墙体材料、危险化学品、食品包装材料、水泥等14类工业产品,开展产品质量监督抽查.', '完成78个品种市级生产的在建工程新型墙体材料、危险化学品、食品包装材料、水泥等1585批次产品的抽检工作,工业产品抽检合格率为97.35%.', '项目二：市民质量满意的测评项目 根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为95分。发现的主要问题及原因：因测评工作需全年数据，经费支出时间集中。', '利用报刊、电视等宣传质监知识，进一步提升市民质量强市的知晓度等。贵阳市市民质量满意度85.4分（满分100分），高于全国平均水平。', '四、名词解释 （一）财政拨款收入：指同级财政当年拨付的资金。 （二）上级补助收入：指事业单位从主管部门和上级单位取得的非财政补助收入。 （三）事业收入：指事业单位开展专业业务活动及其辅助活动所取得的收入。 （四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。 （五）附属单位缴款：指事业单位附属的独立核算单位按有关规定上缴的收入。 （六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。 （七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 （八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （九）结余分配：反映单位当年结余的分配情况。 （十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 （十二）项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 （十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。 （十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。 （十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 （十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。 （十七）一般公共服务支出（类）质量技术监督与检验检疫事务（款）行政运行（项）：指贵阳市质量技术监督局（含下属行政单位）的基本支出。 （十八）一般公共服务支出（类）质量技术监督与检验检疫事务（款）质量技术监督行政执法及业务管理（项）：指贵阳市质量技术监督局依据法律、法规开展行政执法事务以及质量管理、质量监督、计量管理、标准化、特种设备安全监察、认证认可等业务管理事务的支出。 （十九）一般公共服务支出（类）质量技术监督与检验检疫事务（款）事业运行（项）：指贵阳市质量技术监督局下属事业单位的基本支出。 （二十）一般公共服务支出（类）质量技术监督与检验检疫事务（款）其他质量技术监督与检验检疫事务支出（项）：指除上述项目以外其他用于质量技术监督与检验检疫事务方面的支出。 （二十一） 住房保障支出（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。） 贵州省贵阳市质量技术监督局']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>245</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>贵州省贵阳市食品药品监督管理局年度部门决算</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/bmyjsjsgjf/scjgj/202001/t20200116_43376515.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['一、贵州省贵阳市食品药品监督管理局概况 （一）主要职能 （二）机构设置及部门决算单位构成 二、贵州省贵阳市食品药品监督管理局2017年度部门决算公开报表（见附表） 三、贵州省贵阳市食品药品监督管理局2017年度部门决算情况说明 （一）贵州省贵阳市食品药品监督管理局2017年度收入支出决算总体情况说明 （二）贵州省贵阳市食品药品监督管理局2017年度收入决算情况说明 （三）贵州省贵阳市食品药品监督管理局2017年度支出决算情况说明 （四）贵州省贵阳市食品药品监督管理局2017年度财政拨款收入支出决算总体情况说明 （五）贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款支出决算情况说明 （六）贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款基本支出决算情况说明 （七）贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款“三公”经费支出决算情况说明 （八）政府性基金预算收入支出决算情况说明 （九）其他重要事项的情况说明 四、名词解释 贵州省贵阳市食品药品监督管理局2017年度部门决算 一、贵州省贵阳市食品药品监督管理局概况 （一）主要职能 1、贯彻实施国家和省、市有关食品（含食品添加剂、保健食品、酒类,下同）安全、药品（含中药、民族药,下同）、医疗器械、化妆品监督管理的法律法规和方针政策。 2、参与起草食品安全、药品、医疗器械、化妆品监督管理的地方性法规、规章草案,拟定相关政策、规划并监督实施,推动建立食品安全企业主体责任、全市各级人民政府负总责的机制,建立食品药品重大信息直报制度,并组织实施和监督检查,着力防范区域性、系统性食品药品安全风险。 3、负责生产、流通、消费环节的食品安全监督管理。建立食品安全隐患排查治理机制,制定全市食品安全检查年度计划、重大整顿治理方案并组织落实。负责建立食品安全信息统一公布制度,公布重大食品安全信息。参与制定食品安全风险监测计划、食品安全标准,根据食品安全风险监测计划开展食品安全风险监测工作。 4、负责监督实施国家药典等药品和医疗器械标准、分类管理制度。监督实施药品和医疗器械生产、经营质量管理规范。负责药品、医疗器械监督管理。建立药品不良反应、医疗器械不良事件监测体系,并开展监测和处置工作。监督实施执业药师资格准入制度。配合有关部门实施国家基本药物制度。负责化妆品监督管理。 5、负责制定食品、药品、医疗器械、化妆品监督管理的稽查制度并组织实施,组织查处重大违法行为。监督实施问题产品召回和处置制度。 6、负责食品药品安全事故应急体系建设,开展食品药品安全事故应急处置和调查处理工作,监督事故查处落实情况。 7、参与制定食品药品安全科技发展规划并组织实施,推动食品药品检验检测体系、电子监管追溯体系和信息化建设。 8、负责开展食品药品安全宣传、教育培训、交流与合作。开展诚信体系建设。 9、指导全市食品药品监督管理工作,规范行政执法行为,完善行政执法与刑事司法衔接机制。 10、承担市人民政府食品安全委员会日常工作。负责食品安全监督管理综合协调,健全协调联动机制。督促检查区（市、县）人民政府履行食品安全监督管理职责并负责考核评价。11、承办市人民政府和省食品药品监督管理局以及市人民政府食品安全委员会交办的其他事项。 （二）机构设置及部门决算单位构成 市局本级内设13个处室,下属3个单位。从预算单位构成看,贵阳市食品药品监督管理局部门决算包括:本级决算、所属贵阳市食品药品监督管理局稽查局、贵阳市药品不良反应监测中心和贵阳市食品药品检验检测中心共4个单位的决算。 二、贵州省贵阳市食品药品监督管理局2017年度部门决算公开报表（见附表） 三、贵州省贵阳市食品药品监督管理局2017年度部门决算情况说明 （一）贵州省贵阳市食品药品监督管理局2017年度收入支出决算总体情况说明 贵州省贵阳市食品药品监督管理局2017年度收支决算总计6,563.82万元，与2016年相比，减少1,459.07万元，降低18.19%。主要原因是：2017年年底财政收回以前年度结转结余资金，调减年初结余结转数。 （二）贵州省贵阳市食品药品监督管理局2017年度收入决算情况说明 本年收入合计5,704.81万元，其中：财政拨款收入5,643.41万元，占98.92%；上级补助收入0万元，占0%；事业收入0万元，占0%；经营收入0万元，占0%；附属单位缴款0万元，占0%；其他收入61.4万元，占1.08%。 （三）贵州省贵阳市食品药品监督管理局2017年度支出决算情况说明 本年支出合计6,292.67万元，其中：基本支出1,865.39万元，占29.64%；项目支出4,427.28万元，占70.36%；上缴上级支出0万元，占0%；经营支出0万元，占0%；对附属单位补助支出0万元，占0%。 （四）贵州省贵阳市食品药品监督管理局2017年度财政拨款收入支出决算总体情况说明 贵州省贵阳市食品药品监督管理局2017年度财政拨款收支决算总计6,359.37万元。与2016年相比，减少1,223.35万元，降低16.13%。主要原因是：2017年年底财政收回以前年度结转结余资金，调减年初结余结转数。 （五）贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款支出决算情况说明 1、一般公共财政拨款支出决算总体情况 贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款支出6,206.08万元，占本年支出合计的98.62%。与2016年相比，一般公共预算财政拨款支出增加1,125.62万元，增长22.16%。主要原因是：一是本年预算增加，二是使用了以前年度结转结余中央资金。 2、一般公共预算财政拨款支出决算结构情况 贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款支出主要用于以下方面：医疗卫生与计划生育支出（类）支出 4657.77万元，占75.05%；住房保障支出（类）支出117.39万元，占1.89%；其他支出（类）支出1430.92万元，占23.06 %。 3、一般公共预算财政拨款支出决算具体情况 贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款支出当年预算为5818.27(年初预算数) 万元，支出决算为6206.08 万元，完成当年预算的106.67%。决算数大于预算数的主要原因是：1.上级转移支付补助地方专项资金,年初无预算;2.使用以前年度财政拨款结转结余资金。其中： （1）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）。当年预算为0万元，支出决算为573.63 万元，决算数大于预算数的主要原因是：上级转移支付补助地方专项资金,年初无预算。 （2）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）行政运行（项）。当年预算为1197.57万元，支出决算为1219.29 万元，完成当年预算的101.81 %。决算数大于预算数的主要原因是：人员增加等原因调整预算。 （3）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）药品事务（项）。当年预算为209.08万元，支出决算为252.33 万元，完成当年预算的120.69 %。决算数大于预算数的主要原因是：省级拨入药品监督抽验经费年初无预算。 （4）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）化妆品事务（项）。当年预算为55.32万元，支出决算为50 万元，完成当年预算的90.38 %。决算数小于预算数的主要原因是调整部分项目资金用于办公场所搬迁项目。 （5）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）医疗器械事务（项）。当年预算为66.05万元，支出决算为63.05 万元，完成当年预算的 95.46%。决算数小于预算数的主要原因是节约了部分支出。 （6）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全（项）。当年预算为1222.84万元，支出决算为1064.08 万元，完成当年预算的87.02 %。决算数小于预算数的主要原因是：1.财政转移支付了餐饮食品安全诚信示范街（店）、旅游景区示范店创建经费100万元到区（县、市）局；2. 财政转移支付了食品和食用农产品批发市场检验室及监测点快检经费补助项目50万元到区（县、市）局；3.节约了食品抽验费。 （7）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）事业运行（项）。当年预算为494.13万元，支出决算为527.68万元，完成当年预算的106.79%。决算数大于预算数的主要原因是人员增加等原因调整预算。 （8）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）其他食品和药品监督管理事务（项）。当年预算为959.52万元，支出决算为907.70万元，完成当年预算的94.60 %。决算数小于预算数的主要原因是检验检测中心食品实验室及能力提升改造 -设备配套（新址）项目未达到付款条件。 （9）住房保障支出（类）住房改革支出（款）住房公积金（项）。当年预算为113.76万元，支出决算为117.39万元，完成当年预算的103.19 %。决算数大于预算数的主要原因是人员增加调整预算。 （10）其他支出（类）其他支出（款）其他支出（项）。当年预算为1500万元，支出决算为1430.92万元，完成当年预算的95.39%。决算数小于预算数的主要原因是：1.财政转移支付了19.68万元到花溪区和南明区开展食用农产品快速检测项目建设；2.节约了创建国家食品安全示范城市-餐饮食品项目的抽验费。 （六）贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款基本支出决算情况说明 贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款基本支出1,864.36万元，其中：人员经费1,670.75万元，主要包括基本工资、津贴补贴、离退休费等；公用经费193.61万元，主要包括办公费、水电费、差旅费等。 （七）贵州省贵阳市食品药品监督管理局2017年度一般公共预算财政拨款“三公”经费支出决算情况说明 2017年度“三公”经费一般公共预算财政拨款支出决算15.39万元，，比上年增加4.55万元，增长41.96%，增加原因是公务车老旧，修理费增加，导致公务用车运行维护费增加。其中，因公出国（境）费支出0万元，占0%，与上年相比无增减；公务用车购置及运行维护费支出14.52万元，占94.34%，比上年增加5.18万元，增长55.43%，增加原因是公务车老旧，修理费增加；公务接待费支出0.87万元，占5.66%，比上年减少0.63万元，降低41.9%，减少原因是2017年较2016年接待活动减少。具体情况如下： （1）因公出国（境）费支出0万元。贵州省贵阳市食品药品监督管理局全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。 （2）公务用车购置及运行维护费14.52万元,其中，公务用车购置0万元，公务用车运行维护费14.52万元。主要用于车辆维修保养、保险、洗车、停车、过路过桥等。2017年，单位开支财政拨款的公务用车保有量为7辆。 （3）公务接待费0.87万元。具体是： 国内公务接待支出0.87万元，主要是创建国家食品安全示范城市接待国务院食品安全委员会督查、接待扬州市食药监局学习考察组、接待哈尔滨市食药监局到我局调研等。贵州省贵阳市食品药品监督管理局2017年国内公务接待10批次，93人次。 （八）政府性基金预算收入支出决算情况说明 贵州省贵阳市食品药品监督管理局2017年政府性基金预算财政拨款本年收入0万元，本年支出0万元。 （九）其他重要事项的情况说明 1、机关运行经费支出情况 2017年贵州省贵阳市食品药品监督管理局机关运行经费支出150.89万元，比2016年增加14.13万元，增长10.33%，主要原因是人员增加。 2、政府采购支出情况 2017年贵州省贵阳市食品药品监督管理局政府采购支出总额2465.46万元，其中：政府采购货物支出149.06万元、政府采购工程支出0 万元、政府采购服务支出2316.4 万元，授予中小企业合同金额0 万元，占政府采购支出总额的0 %，其中：授予小微企业合同金额 0万元，占政府采购支出总额的0 %。 3、国有资产占用情况 截至2017年12月31日，贵州省贵阳市食品药品监督管理局共有车辆11辆，其中， 一般公务用车1辆、一般执法执勤用车9辆、特种专业技术用车1辆、其他用车0辆；单位价值50万元以上通用设备3台（套），单位价值100万元以上专用设备1台（套）。 4、2017年度预算绩效情况说明 （1）预算绩效管理工作开展情况 根据财政预算管理要求，我单位组织对2017年度一般公共预算项目支出开展了绩效自评工作。共计53个项目进行了绩效自评，涉及资金4495.49万元，自评覆盖率达到100%。 （2）部分项目支出绩效自评结果 项目一：创建国家食品安全示范城市项目及流通环节食品和食用农产品质量安全抽样检测经费项目 根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为100分', '1.对全市400家企业、1100家小作坊生产的食品进行抽查、预计抽查1600批次；2.流通环节食品及食用农产品计划监督抽检4500批次，全年抽样检测计划于12月底前完成；3.开展食品安全示范城市创建工作。', '1.贵阳市生产加工环节食品安全监督抽检共抽检食品2600批次，抽检实物质量不合格93批次，总体抽检平均不合格率为3.6%； 2.流通环节食品和食用农产品计划抽检4500批次，实际完成4930批次，资金实际执行数为626.4万元，其中使用流通环节食品和食用农产品质量安全抽样检测经费项目232.5万元，使用创建国家食品安全示范城市项目资金393.9万元；3.完成了2017年创建食品安全城市宣传工作。', '四、名词解释 （一）财政拨款收入：指同级财政当年拨付的资金。 （二）上级补助收入：指事业单位从主管部门和上级单位取得的非财政补助收入。 （三）事业收入：指事业单位开展专业业务活动及其辅助活动所取得的收入。 （四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。 （五）附属单位缴款：指事业单位附属的独立核算单位按有关规定上缴的收入。 （六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。 （七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。 （八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （九）结余分配：反映单位当年结余的分配情况。 （十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。 （十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。 （十二）项目支出：指在基本支出之外为完成特定行政任务和事业发展目标所发生的支出。 （十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。 （十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。 （十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。 （十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。 （十七）医疗卫生与计划生育支出（类）公共卫生（款）重大公共卫生专项（项）：反映重大疾病预防控制等重大公共卫生服务项目支出。 （十八）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。 （十九）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）药品事务（项）：反映用于药品（含中药、民族药）监督管理方面的支出。 （二十）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）化妆品事务（项）：反映用于化妆品监督管理方面的支出。 （二十一）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）医疗器械事务（项）：反映用于医疗器械监督管理方面的支出。 （二十二）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）食品安全（项）：反映用于食品（含食品添加剂、保健食品）监督管理方面的支出。 （二十三）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）事业运行（项）：反映事业单位的基本支出，不包括行政单位（包括实行公务员管理的事业单位）后勤服务中心、医务室等附属事业单位。 （二十四）医疗卫生与计划生育支出（类）食品和药品监督管理事务（款）其他食品和药品监督管理事务（项）：反映除上述项目以外其他用于食品和药品监督管理事务方面的支出。 （二十五）住房保障支出（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。） （二十六）其他支出（类）其他支出（款）其他支出（项）：反映除上述以外其他不能划分到具体功能科目中的支出项目。 附件：决算公开-贵州省贵阳市食品药品监督管理局.XLS']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>245</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>贵阳市健康医疗大数据应用发展条例</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2018-10-09</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/bsfw/bsfwztfw/bsfwztfwylfw/bsfwztfwylfwypaq/202106/t20210603_68392751.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['第一条 为了满足人民群众健康医疗需求，加强和规范健康医疗大数据应用发展，整合、扩大健康医疗资源供给，提升健康医疗服务质量和效率，培育健康医疗大数据应用发展新业态，根据有关法律、法规规定，制定本条例。 第二条 本市行政区域内信息系统接入市级全民健康信息平台（以下简称“市级平台”）的医疗卫生机构、健康医疗服务企业等，从事健康医疗大数据应用发展活动，适用本条例。 第三条健康医疗大数据应用发展应当遵循政府主导、便民惠民、改革创新、规范有序、开放融合、共建共享、保障安全的原则。 第四条市人民政府统一领导全市健康医疗大数据应用发展工作。区（市、县）人民政府负责本行政区域内健康医疗大数据应用发展工作。 医疗卫生行政主管部门按照职责权限，负责健康医疗大数据应用发展的统筹协调、监督指导和组织实施工作。 大数据、人力资源社会保障、食品药品、公安、医保、发展改革、财政、环境保护、民政、体育、扶贫、旅游、教育等主管部门和乡（镇）人民政府、社区服务管理机构应当按照各自职责和本条例规定，做好健康医疗大数据应用发展的相关工作。 第五条医疗卫生行政主管部门应当建立健康医疗大数据应用发展诚信档案，记录医疗卫生机构、健康医疗服务企业及其相关从业人员的违法失信行为，纳入统一的信用信息共享平台管理。 第六条各级人民政府及其有关部门、社区服务管理机构、医疗卫生机构和健康医疗服务企业应当加强健康医疗大数据应用发展的宣传教育。 第七条 任何单位和个人有权投诉举报健康医疗大数据应用发展中的违法行为。 医疗卫生行政主管部门应当建立健康医疗大数据应用发展投诉举报制度，公布投诉举报方式等信息，及时登记、处理和回复投诉举报。 第二章 采集与汇聚 第八条 市医疗卫生行政主管部门负责统筹建设、管理、运行和维护市级全民健康信息平台，用于全市健康医疗数据的汇聚、存储和应用，并与省级全民健康信息平台互联互通。 区（市、县）医疗卫生行政主管部门按照职责做好市级平台的管理、运行和维护。 医疗卫生行政主管部门根据需要，可以通过依法委托、购买服务、协议合作等方式建设、管理、运行和维护市级平台。 第九条 市级及市级以下公办医疗卫生机构、国有健康医疗服务企业应当按照国家和地方相关目录、标准，采集公共卫生、计划生育、健康服务、医疗服务、医疗保障、药品供应、医疗器械、应急指挥、健康管理和综合管理等健康医疗数据，建设、改造、管理和维护自身信息系统，并与市级平台互联互通。 鼓励前款以外的医疗卫生机构和健康医疗服务企业等按照国家和地方标准采集健康医疗数据，建设、改造自身信息系统，接入市级平台。 第十条 医疗卫生机构和健康医疗服务企业等应当采集服务对象本人或者其监护人居民身份证号，作为电子病历、电子处方等健康医疗数据的标识。没有居民身份证的应当提供其他有效身份证明。服务对象本人或者其监护人应当提供真实有效的身份信息。 第十一条 医疗卫生等有关主管部门、医疗卫生机构和健康医疗服务企业应当按照有关数据标准、规范，将其依法履行职责、提供服务等业务活动产生的健康医疗数据汇聚、存储到市级平台。 鼓励医疗卫生机构、健康医疗服务企业等按照有关数据标准、规范，利用可穿戴设备、智能健康电子产品、健康医疗移动应用等采集相关健康医疗数据，汇聚、存储到市级平台。 鼓励医疗卫生机构、健康医疗服务企业按照国家和地方标准整理健康医疗存量数据，汇聚、存储到市级平台。 第十二条 医疗卫生等有关主管部门、医疗卫生机构和健康医疗服务企业应当按照谁主管谁负责、谁提供谁负责、谁运营谁负责的原则，对健康医疗数据进行更新，实行动态管理。 第三章 应用与发展 第十三条 市人民政府应当统筹推进智慧医保建设，组织人力资源社会保障、医疗卫生等有关主管部门整合新型农村合作医疗、城镇居民基本医疗保险等信息系统，对居民健康卡、社会保障卡等应用进行集成，实现一卡通用、诊间结算。 第十四条医疗卫生行政主管部门应当组织医疗卫生机构通过市级平台协同建立覆盖全人口的居民电子健康档案，明确数据信息使用权限，实现居民电子健康档案个人在线查询、下载、使用和授权医疗卫生机构调阅。 医疗卫生行政主管部门应当规范医疗物联网、视联网、智能卡、健康医疗应用程序等的设置和管理，推进互联网健康咨询、网上预约分诊、移动支付、候诊提醒、费用查询、物流查询、检查检验结果查询、随访跟踪和预警消息即时推送等应用，建立规范、共享、互信的诊疗流程。 第十五条 市医疗卫生行政主管部门应当通过市级平台建立医疗检查检验结果互认机制。 市医疗卫生行政主管部门应当会同有关部门推动同级医疗卫生机构之间、医联体内医疗卫生机构之间的检查检验结果互认，下级医疗卫生机构认同上级医疗卫生机构的检查检验结果。 第十六条 医疗卫生行政主管部门、医疗卫生机构和健康医疗服务企业应当通过市级平台和自身信息系统，改进服务管理流程，开展健康理念和知识的宣传、普及、应用，开展全生命周期的预防、治疗、康复和健康管理等服务。 鼓励有条件的医疗卫生机构应用健康医疗大数据开展辅助诊疗、慢性非传染性疾病诊疗和康复护理等专业服务。 第十七条 医疗卫生机构应当应用远程医疗网络和健康医疗大数据向下级医疗卫生机构提供远程医疗、健康医疗咨询、网上处方点评和检验检查质量控制等服务，促进优质医疗资源下沉。 第十八条 医疗卫生行政主管部门应当应用市级平台数据和居民电子健康档案，组织开展农村低收入困难群体因病致贫、因病返贫的调查与分析，核实患病家庭、人员、病种、诊治和健康情况，推进医疗服务、公共卫生、医疗救助协同联动，实施精准健康扶贫。 第十九条 医疗卫生行政主管部门应当推进健康医疗大数据在健康管理、疾病防控、妇幼保健、卫生监督、临床科研、医院评价、医疗机构监管、卫生应急、血液管理、药品耗材采购和医疗废物监管等方面的应用，提升管理能力和服务水平。 第二十条 医疗卫生、人力资源社会保障、发展改革等主管部门应当按照各自职责，应用健康医疗大数据对医疗卫生机构的医疗服务价格、居民医疗负担控制、医保支付、药品耗材使用等实时监测,对健康医疗服务活动全过程监督。 第四章 促进与保障 第二十一条 县级以上人民政府应当将健康医疗大数据应用发展纳入国民经济和社会发展规划以及卫生健康事业发展专项规划，实行年度目标绩效考核。 县级以上人民政府应当将需要由财政保障的健康医疗大数据应用发展项目建设资金和运行维护、人才培养等工作经费，列入同级财政预算。 第二十二条 县级以上人民政府应当采取资金扶持、优惠政策等措施，培育健康医疗大数据应用发展市场。 第二十三条 县级以上人民政府应当发展互联网+医疗健康的线上线下一体化医疗服务模式。 鼓励健康医疗业务与大数据技术深度融合，构建健康医疗大数据产业链，与养生、养老、家政、饮食、环境、旅游、休闲、健身等关联行业协同发展，创新发展健康医疗大数据应用新业态。 鼓励健康医疗服务企业利用市级平台进行数据挖掘、分析和应用，开展居家健康信息服务，规范网上药店和医药物流第三方配送等服务。 鼓励社会资本参与健康医疗大数据的基础工程、应用开发和运营服务。 鼓励商业保险、社会保险、医疗救助机构参与医疗卫生机构健康医疗信息化建设、资源共享，提供大病保险、基本医疗保险和医疗救助等一站式服务。 第二十四条 鼓励教学科研机构与医疗卫生等有关主管部门、医疗卫生机构和健康医疗服务企业合作,开展健康医疗大数据应用发展技术研究和成果转化,建立健康医疗大数据应用创新创业、教育培训和应用示范基地。 支持高等院校和职业学校开设与健康医疗大数据应用发展相关课程，组织优质师资推进网络医学教育资源开放共享和在线互动、远程培训、远程手术示范、学习成效评估等应用。 第二十五条 各级人民政府、医疗卫生行政主管部门、社区服务管理机构应当加强人才队伍建设，通过招录、招聘等方式配备健康医疗大数据应用发展专业人员。 第二十六条 医疗卫生等有关主管部门、医疗卫生机构和健康医疗服务企业应当根据《中华人民共和国网络安全法》《贵阳市大数据安全管理条例》等法律、法规的规定，建立、完善安全管理制度，落实安全责任、操作规程和技术规范，保障数据安全，保护个人隐私。 第五章 法律责任 第二十七条公办医疗卫生机构、国有健康医疗服务企业及其从业人员违反本条例规定，有下列情形之一的，由医疗卫生行政主管部门责令限期整改；拒不改正的，由其主管部门或者有关机关对直接负责的主管人员和其他直接责任人员依法予以处理： （一）未履行信息系统建设、改造、管理和维护义务，或者未将信息系统与市级平台互联互通的； （二）未按照国家和地方相关标准采集数据的； （三）未按照规定采集居民身份证号或者其他有效身份证明作为电子病历、电子处方等健康医疗数据标识的； （四）未将业务活动产生的健康医疗数据汇聚、存储到市级平台的； （五）未对健康医疗数据进行更新，实行动态管理的。 其他医疗卫生机构、健康医疗服务企业及其从业人员违反前款第三项、第四项、第五项规定的，由医疗卫生行政主管部门责令限期改正。 本条规定的行为，本市无管理权限的，报请有管理权限的省级有关部门依法处理。 第二十八条有关部门及其工作人员违反本条例规定，有下列情形之一的，由其上级主管部门或者有关机关责令改正；拒不改正的，对直接负责的主管人员和其他直接责任人员依法予以处理： （一）未公布投诉举报方式等信息，或者未登记、处理和回复投诉举报的； （二）未履行市级平台管理、运行和维护义务的； （三）未对健康医疗数据进行更新，实行动态管理的； （四）未组织建立覆盖全人口的居民电子健康档案的； （五）未按照规定组织实施精准健康扶贫的； （六）未履行实时监测或者全过程监督职责的； （七）其他未履行健康医疗大数据管理、服务职责的。 第二十九条 违反本条例规定，法律、法规有处罚规定的,从其规定。 第六章 附 则 第三十条 本条例所称健康医疗数据，主要包括医疗卫生等有关主管部门、医疗卫生机构、健康医疗服务企业依法履行职责和提供服务过程中产生的医疗服务、公共卫生、健康管理等方面的数据。 本条例所称医疗卫生机构，是指依照《医疗机构管理条例》的规定取得《医疗机构执业许可证》的机构和从事疾病预防控制、采供血、卫生监督等活动的机构。 第三十一条 本条例自2019年1月1日起施行。 关于《贵阳市健康医疗大数据应用发展条例》的说明 贵阳市人大常委会 贵州省人大常委会： 《贵阳市健康医疗大数据应用发展条例》（以下简称《条例》）已于2018年8月29日经贵阳市第十四届人民代表大会常务委员会第十五次会议审议通过。现就有关情况作如下说明： 一、制定的必要性 党的十九大提出“实施健康中国战略”，《中共中央国务院“健康中国2030”规划纲要》《国务院办公厅关于促进和规范健康医疗大数据应用发展的指导意见》《贵州省人民政府关于促进和规范健康医疗大数据应用发展的实施意见》，和《中共贵阳市委关于建设公平共享创新型中心城市的决定》等国家、省、市的系列文件对“互联网+健康医疗”、健康医疗大数据发展应用提出了具体要求，但在立法层面上看，这些方面尚缺乏顶层设计。我市作为国家大数据（贵州）综合试验区的核心区、聚集区，是大数据发展的主阵地，无论是在大数据应用发展方面，还是在大数据立法方面都承担着先行先试、引领发展的重大任务。为此，践行以人民为中心的发展理念，坚持发挥地方立法的引领推动作用，通过地方立法将我市贯彻执行健康中国战略的经验、措施和办法进行总结、固化，健全完善医疗卫生服务体系，利用大数据优化拓展服务渠道，延伸、丰富服务内容，满足人民群众多层次、多样化的健康医疗需求，坚持以法治思维和法治方式加快健康医疗大数据应用于发展，十分必要。 二、制定过程 2017年8月，市人大常委会专题听取开展大数据医疗管理立法前期分析论证有关情况汇报，经过审慎研究，决定抓紧推进该项立法的调研起草工作。10月17日，市十四届人大常委会第13次主任会议听取市卫计委关于开展大数据医疗管理立法的思考及工作情况汇报，确定将《贵阳市大数据医疗服务与应用条例（暂定名）》补充列入2017年立法计划。经过大量的立法调研、考察、咨询等工作，并由市卫计委委托贵阳大数据战略实验室、北京大成（贵阳）律师事务所、贵州朝华明鑫律师事务所分别起草建议稿，再以3个文本进行综合叠加修改形成初稿。2018年4月9日，市人民政府常务会议通过了关于提请审议《贵阳市健康医疗大数据应用发展条例（草案）》的议案。 2018年5月8日，市十四届人大常委会第十二次会议进行了初次审议。之后，常委会法工委会同教科文卫委根据常委会审议意见、教科文卫委初审意见对《条例（草案）》进行修改，形成了《条例（草案）》征求意见稿，于5月17日在贵阳日报、贵阳晚报和贵阳人大网进行公告，征求社会各方面意见，并发函征求了市直有关部门和各区（市、县）人大常委会的意见。5月26日，在2018中国国际大数据产业博览会期间举办行专题论证会，征求来自医疗卫生、大数据和法律领域的国内外权威专家的咨询论证意见。此后，还通过召开市人大常委会地方立法咨询专家征求意见座谈会，赴银川、常州、杭州、温州等城市学习考察，征求省人大法制委、教科文卫委、常委会法工委和省政府有关部门、省“两院”的意见，征求市人大各专门委员会、市政府及其有关部门、市政协和各区（市、县）人大常委会等意见，根据各方意见进行修改，形成《条例（草案二审稿）》。 8月7日，市人大法制委员会召开第12次全体会议，对《条例（草案）》进行统一审议，认为文本已经成熟，可以提交常委会会议审议和表决。8月14日，市十四届人大常委会第34次主任会议听取法制委员会关于《条例（草案）》审议修改情况汇报，决定提请市十四届人大常委会第十五次会议审议，并向市委作了专项报告。 三、需要说明的问题 《条例》共6章31条，现将有关问题说明如下： （一）关于适用范围 《条例》第二条规定了适用范围，仅限于贵阳市行政区域内信息系统接入市级全民健康信息平台（以下简称“市级平台”）的医疗卫生机构、健康医疗服务企业等，不特别指定哪类性质、哪个级别的医疗卫生机构和健康医疗服务企业。从贵阳市实际来看，如果调整范围包含行政区域内的所有医疗卫生机构和健康医疗服务企业，一方面由于主管部门的管理权限不能全覆盖；另一方面各医疗卫生机构和健康医疗服务企业的信息化程度不一，管理医疗数据的能力和手段有待进一步提升，管理经验和实践水平参差不齐，这既不利于有效实施规范管理，更不利于法规出台后的落地执行。从杭州、温州等外地发达城市的做法和经验来看，医疗数据的汇聚存储也是先从市及市以下公办医院开始，再逐步推进到民营医院、私营机构乃至省级医院。同时，在《条例》第九条规定，市级及市级以下公办医疗卫生机构和国有健康医疗服务企业必须按照国家和地方相关目录、标准，强制接入市级平台。为此，以信息系统接入市级平台为前提，来确定了适用对象和范围，更有利于法规的操作和执行。 （二）关于采集与汇聚 市级平台是汇聚、存储健康医疗数据及其应用发展的主要载体和基础。为夯实基础建设，实现健康医疗数据的“聚、通、用”，主要从以下方面进行了规范：一是为建设权威统一、互联互通的全民健康信息平台，避免盲目建设和重复投资，统一维护管理，畅通部门、区域、行业之间的健康医疗数据共享通道，消除数据壁垒，第八条、第九条对全民健康信息平台和其他信息系统的建设、管理、运行、维护的责任主体、强制接入平台和鼓励接入平台等措施进行了规定。二是为了最大限度采集、汇聚健康医疗数据，第十一条规定除了必须按照标准和要求向市级平台汇聚的健康医疗数据外，还鼓励将可穿戴设备、智能健康电子产品、健康医疗移动应用等采集的相关健康医疗数据和整理后的存量数据，汇聚、存储到市级平台。三是为确保向市级平台汇聚、存储的数据真实、准确、完整、及时，第十二条规定了健康医疗数据更新的动态管理制度。 （三）关于应用与发展 采集汇聚健康医疗大数据，最直接的目的就是为了运用大数据来促进健康医疗事业的进步和产业的发展。根据目前对健康医疗大数据的认知水平和贵阳市实际，《条例》第三章着重在应用与发展上作了以下规范： 一是推进智慧医保建设。从先进地区的经验来看，健康医疗大数据工作能否顺利、高效推进和运转，医保卡的集成运用在医疗数据的汇聚中起着核心和桥梁的作用。它不仅能推动实现实名就诊，还能减少病人在挂号、收费、医技检查窗口和医生诊室之间的往返，并在自主预约挂号、检查、住院和分级诊疗等方面能发挥作用；不仅能实现居民个人健康档案在平台上的查询和授权调阅，还可以倒逼尚未接入平台的机构和企业主动接入。为此，《条例》第十三条规定，市人民政府应当统筹推进智慧医保建设，组织人力资源社会保障、卫生计生等有关主管部门整合新农合、城镇居民基本医保等信息系统，对居民健康卡、社会保障卡等应用进行集成，实现一卡通用、诊间结算；第十四条规定建立覆盖全人口的居民电子健康档案，实现居民电子健康档案个人在线查询、下载、使用和授权医疗卫生机构调阅充分发挥医保卡的牵引、撬动作用，推动健康、医疗关联数据的汇聚、集成与融合，形成真正意义上的健康医疗大数据。 二是促进检查检验结果互认。检查检验结果互认是争议最多的问题，这主要源于标准的繁多和利益、责任等情形的复杂，需要通过时间和实践来逐渐解决。从杭州、温州等地的实践来看，检查结果互认主要在医联体内实行。不同医院之间的互认，可以借鉴杭州的模式通过医保结算方式加以制约。为此，《条例》第十五条规定卫生计生行政主管部门应当建立医疗检查检验结果互认机制，并会同有关主管部门推动同级医疗卫生机构之间、医联体内医疗卫生机构之间的检查检验结果互认，下级医疗卫生机构认同上级医疗卫生机构的检查检验结果。 三是强化重要领域和重点工作的应用服务。根据大扶贫战略实施的要求，《条例》第十八条规定利用健康医疗大数据实施精准扶贫。应用市级平台数据和居民电子健康档案，组织开展农村低收入困难群体因病致贫、因病返贫的调查与分析，核实患病家庭、人员、病种、诊治和健康情况，推进医疗服务、公共卫生、医疗救助协同联动，以更好的服务于实施精准健康扶贫工作。根据《国务院办公厅关于促进“互联网+医疗健康”发展的意见》等有关文件精神，《条例》第十九条、第二十条规定，推进健康医疗大数据在健康管理、疾病防控、妇幼保健、卫生监督、临床科研、医院评价、医疗机构监管、卫生应急、血液管理、药品耗材采购和医疗废物监管等方面的应用，同时应用健康医疗大数据对医疗卫生机构的医疗服务价格、居民医疗负担控制、医保支付、药品耗材使用等实时监测,对健康医疗服务活动全过程监督。 （四）关于促进与保障 第四章坚持政府主导、鼓励各方参与的原则，积极规范人、财、物和安全等方面的保障，有力促进健康医疗大数据应用与发展。一是为使国办发〔2016〕47号和黔府办发〔2017〕24号文关于“各地要重视健康医疗大数据应用发展，切实搞好总体规划”的要求具有刚性保障，第二十一条规定县级以上人民政府应当将健康医疗大数据应用发展纳入国民经济和社会发展规划以及卫生健康事业发展专项规划，并实行年度目标绩效考核。二是为鼓励和培育健康医疗大数据应用服务市场及新业态，创新便民惠民服务新模式，第二十二条至第二十四条规定了相应的保障、支持和鼓励的措施。如第二十三条中，在规定县级以上人民政府应当发展互联网+医疗健康的线上线下一体化医疗服务模式的同时，规定鼓励健康医疗业务与大数据技术深度融合，构建健康医疗大数据产业链，与养生、养老、家政、饮食、环境、旅游、休闲、健身等关联行业协同发展，创新发展健康医疗大数据应用新业态。 （五）关于法律责任 根据《条例》第二条及第九条明确规定的适用范围、不同医疗卫生机构和健康服务企业的数据汇聚要求等，在法律责任的设置上，主要针对公办医疗卫生机构、国有健康医疗服务企业及其从业人员、有关主管部门及其工作人员违反规定所应当承担的责任作了规定。 以上说明，连同《条例》文本请一并审议。 贵州省人民代表大会常务委员会关于批准 《贵阳市健康医疗大数据应用发展条例》 的决议 （2018年9月20日贵州省第十三届人民代表大会常务委员会第五次会议通过） 贵州省第十三届人民代表大会常务委员会第五次会议决定：批准《贵阳市健康医疗大数据应用发展条例》，由贵阳市人民代表大会常务委员会公布施行。 关于《贵阳市健康医疗大数据应用发展条例》审议意见的报告 省人大常委会： 本次会议对《贵阳市健康医疗大数据应用发展条例》（以下简称《条例》）和省人大法制委员会的审议结果报告进行了审议。常委会组成人员认为，《条例》的内容符合有关法律、法规的规定，同意本次会议予以批准，同意省人大法制委员会的审议结果报告。同时，常委会组成人员也提出了一些修改意见。省人大法制委员会对这些意见进行了认真研究，提出了修改建议。现将有关情况报告如下： 1.《条例》中的“卫生计生行政主管部门”修改为“医疗卫生行政主管部门”，“卫生计生等有关部门”、“卫生计生等有关主管部门”修改为“医疗卫生等有关主管部门”；第二十条中的“卫生计生”修改为“医疗卫生”。 2.第二十六条修改为：“医疗卫生等有关主管部门、医疗卫生机构和健康医疗服务企业应当根据《中华人民共和国网络安全法》《贵阳市大数据安全管理条例》等法律、法规的规定，建立、完善安全管理制度，落实安全责任、操作规程和技术规范，保障数据安全，保护个人隐私。” 3.第二十七条增加一款作为第二款，内容为：“其他医疗卫生机构、健康医疗服务企业及其从业人员违反前款第三项、第四项、第五项规定的，由医疗卫生行政主管部门责令限期改正。” 4.《条例》的施行日期明确为“2019年1月1日”。 此外，还对《条例》部分条款作了文字技术处理。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>245</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>贵阳市归国华侨联合会年部门预算及三公经费预算公开说明</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-03-30</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgysgghqlhh/201901/t20190123_32860147.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['贵阳市归国华侨联合会2017年部门预算及“三公”经费预算公开说明 - 贵阳市人民政府', '2017年部门预算经贵阳市第十四届人民代表大会第一次会议审议通过，按照财政信息公开的要求，现将我会2017年部门预算作如下说明：', '1.部门主要职能：贵阳市归国侨联合会是市委领导下的人民团体，是党和政府联系广大归侨、侨眷和海外侨胞的桥梁和纽带，是团结服务归侨侨眷的群众组织，成立于1982年。长期以来，市侨联围绕“六大职能”（服务经济、维护侨益、海外联谊、参政议政、对外宣传和社会建设），以《贵阳市侨联工作细则》为行动纲领，积极组织起来、活跃起来，用好侨资源、做好侨文章，努力为贵阳市社会经济社会又好又快发展发挥积极而又独特作用。', '“六大职能”（服务经济、维护侨益、海外联谊、参政议政、对外宣传和社会建设），以《贵阳市侨联工作细则》为行动纲领，积极组织起来、活跃起来，用好侨资源、做好侨文章，', '2.部门预算单位构成：从预算单位构成看，贵阳市归国华侨联合会部门预算包括本级预算，是财政全额补助的参公事业单位。', '3.部门人员构成：贵阳市归国华侨联合会现有编制数10名，内设办公室、经济联络部、文化交流部3个职能部（室），无下属单位。实有在职在编数8人（其中：参公事业编制7人，工勤编制1人），退休4人。', '2017年项目支出预算74.29万元，用于以下几个方面：侨界群众工作经费、开展侨资侨属企业调研经费、加强社区服务中心侨联组织建设经费、业务工作经费、接待经费、侨法宣传及侨联文化宣传工作经费、“亲情中华”行动工作经费、侨界困难群众关怀行动经费、贵阳市第八次归侨侨着代表大会、培训费等。', '74.29万元，用于以下几个方面：侨界群众工作经费、开展侨资侨属企业调研经费、加强社区服务中心侨联组织建设经费、业务工作经费、接待经费、侨法宣传及侨联文化宣传工作经费、“亲情中华”行动工作经费、侨界困难群众关怀行动经费、贵阳市第八次归侨侨着代表大会、培训费等。', '2017年度“三公”经费一般公共财政预算支出7.12万元，比上年度增加2.82万元，其中公务用车运行维护费较上年减少0.18万元，减少原因是按照要求控制减少；因公出国（境）费较上年增加3万元，增加原因是按照要求开展考察交流活动。', '2.82万元，其中公务用车运行维护费较上年减少0.18万元，减少原因是按照要求控制减少；', '（一）公务接待费。2017年度我会公务接待费支出预算2万元，较上年度无变化。我会公务接待费具体支出内容主要是外事接待和国内公务接待，开展业务活动发生的公务接待费用，邀请海外侨商、侨领和友好人士等来筑考察交流发生的接待费用，其他按规定开支的各类公务接待费用。', '2017年度我会公务接待费支出预算2万元，较上年度无变化。我会公务接待费具体支出内容', '（二）公务用车运行维护费。2017年度我会公务用车运行维护费支出预算2.12万元，较上年度减少0.18万元，减少原因是按照要求控制减少。该经费具体支出内容主要用于机要通信、应急用车等发生的公务用车运行维护支出和其他按规定开支的公务用车运行维护支出。', '2017年度我会公务用车运行维护费支出预算2.12万元，较上年度减少0.18万元，减少原因是按照要求控制减少。该经费具体支出内容主要用于机要通信、应急用车等发生的公务用车运行维护支出和其他按规定开支的公务用车运行维护支出。', '（三）公务用车购置费。2017年度我会公务用车购置费支出预算0万元，较上年度无变化。该预算由我市实行统筹管理、总额控制，2016年度我单位无预算。', '2017年度我会公务用车购置费支出预算0万元，较上年度无变化。该预算由我市实行统筹管理、总额控制，2016年度我单位无预算。', '（四）因公出国（境）费。2017年我会因公出国（境）费支出预算3万元，较上年度增加3万元，增加原因是按照活动要求开展。主要用于我会赴海外开展宣传及学习考察交流活动。', '3万元，增加原因是按照活动要求开展。主要用于我会赴海外开展宣传及学习考察交流活动。', '4、政府性基金预算支出情况的说明：贵阳市归国华侨联合会2017年没有使用政府性基金预算拨款安排的支出。', '1）机关运行经费：2017年我会机关本级单位的机关运行经费财政拨款预算12.2万元。', '（3）国有资产占有使用情况：贵阳市归国华侨联合会机关及其所属预算单位共有车辆1辆，其中，一般公务用车辆1辆。我会没有200万元以上大型设备。', '3）国有资产占有使用情况：贵阳市归国华侨联合会机关及其所属预算单位共有车辆1辆，其中，一般公务用车辆1辆。我会没有200万元以上大型设备。', '（2）一般公共服务支出（类）港澳台侨事务（款）行政运行（项）：指反映贵阳市归国华侨联合会的基本支出。', '2）一般公共服务支出（类）港澳台侨事务（款）行政运行（项）：指反映贵阳市归国华侨联合会的基本支出。', '（2）一般公共服务支出（类）港澳台侨事务（款）华侨事务（项）：指反映贵阳市归国华侨联合会的项目支出。', '2）一般公共服务支出（类）港澳台侨事务（款）华侨事务（项）：指反映贵阳市归国华侨联合会的项目支出。', '（3）住房保障支出(类)住房改革支出(款)住房公积金(项)：指按照《住房公积金管理条例》的规定，由单位为职工缴纳的住房公积金。', '3）住房保障支出(类)住房改革支出(款)住房公积金(项)：指按照《住房公积金管理条例》的规定，由单位为职工缴纳的住房公积金。', '（3）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（6）“三公”经费：纳入财政预决算管理的“三公”经费是指用财政拨款安排的因公出国(境)费、公务用车购置及运行维护费和公务接待费。其中，因公出国(境)费反映单位因公出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行维护费反映单位公务用车购置费及租用费、燃料费、过路过桥费、保险费、安全奖励费等支出;公务接待费指单位按规定开支的各类公务接待(含外宾接待)支出。', '6）“三公”经费：纳入财政预决算管理的“三公”经费是指用财政拨款安排的因公出国(境)费、公务用车购置及运行维护费和公务接待费。其中，因公出国(境)费反映单位因公出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行维护费反映单位公务用车购置费及租用费、燃料费、过路过桥费、保险费、安全奖励费等支出;公务接待费指单位按规定开支的各类公务接待(含外宾接待)支出。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>245</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>市人民政府办公厅关于印发贵阳市年应急管理科普宣传和教育培训工作实施方案的通知</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2017-03-29</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2017/201711/t20171116_11366250.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['市人民政府办公厅关于印发贵阳市2017年应急管理科普宣传和教育培训工作实施方案的通知 - 贵阳市人民政府公报', '市人民政府办公厅关于印发贵阳市2017年应急管理科普宣传和教育培训工作实施方案的通知', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位，市管企业：', '《贵阳市2017年应急管理科普宣传和教育培训工作实施方案》已经市人民政府研究同意，现印发你们，请认真贯彻落实。', '为贯彻落实全市应急管理工作会议精神，深入开展面向全社会的应急科普宣传教育，做好预防、避险、自救、互救、减灾等应急防护知识的普及，增强公众的公共安全意识和社会责任意识，提高全社会应对突发事件的综合素质，根据《贵阳市2017年应急管理工作要点》的安排部署，特制定本实施方案。', '通过开展多层次、多形式、多渠道的应急管理科普宣传和教育培训活动，着力实现“三个明显提升”，即公众的公共安全意识明显提升，领导干部和管理部门对应急管理的重视程度明显提升，基层单位应急管理的意识明显提升，为贵阳创新型中心城市建设提供安全应急保障。', '（一）应急科普知识宣传。灾前教育以了解突发事件的种类、特点和危害为重点，掌握预防、避险的基本技能；灾中教育以自救、互救知识为重点，普及基本逃生手段和防护措施，告知公众在事发后第一时间如何迅速做出反应，如何开展自救、互救；灾后教育以经历过突发事件的公众为重点，抚平心理创伤，恢复正常社会生产生活秩序。', '(二)应急管理法律法规及规章制度宣传。《中华人民共和国突发事件应对法》《国家突发事件应急体系建设“十三五”规划》《贵州省突发事件应急体系建设“十三五”规划》《贵阳市公共安全管理责任制暂行规定》等。', '2.提升贵阳应急科普宣教和预警信息发布系统的覆盖面，推进系统终端设备进医院、进学校等人员密集场所和应急管理重点监控部位，全年新增终端设备20000台以上。', '（三）开展应急公益宣传活动。围绕贵阳公共安全面临的形势和任务，策划拍摄应急公益广告宣传片和应急知识短片。', '（四）开辟应急管理科普知识专栏。在市级新闻媒体及新闻媒体所属网站上开辟专栏、专版、专题、专刊，全方位、多角度介绍普及应急知识。', '（六）开展公共安全知识进社区、进乡村、进企业、进学校活动。印发《应急科普知识读本》，制作张贴宣传海报、投放广告，在社区、高危企业、建筑群和车站、机场、商场、宾馆等公共场所设置应急标识；通过举办论坛讲座、演讲比赛、教学体验、科普展览和专题文艺晚会等多种形式，丰富基层应急科普宣传和教育培训内容。', '指导单位：市政府应急办、市住房城乡建设局、市民政局、市农委、市旅游产业发展委、市安监局、市民族宗教委、市公安局', '（七）组织开展公共安全系列主题宣传活动。通过“防灾减灾日”“全国安全生产月”“全国消防日”等，开展形式多样、内容丰富的公共安全主题宣传活动。', '牵头单位：市民政局、市安监局、市卫生计生委、市公安局、市水务管理局、市住房城乡建设局、市气象局等部门及市综合应急救援支队', '1.领导干部培训。邀请知名专家学者进行专题讲座，在市政府常务会议上进行1次应急管理专题讲座，各区（市、县）政府组织1次主要负责人参加的专题讲座，市应急委成员单位结合自身实际开展1次以上应急专题讲座，提高全市各级各部门领导干部的应急管理意识，促进领导干部的应急能力提升。（各级政府应急办、市应急委成员单位会同本级组织部门组织实施）', '2.专职应急管理干部培训。重点培训应急管理法律法规、公共安全形势与任务、应急预案及突发事件应对程序和方法、应急指挥新技术设备的使用等专业知识，强化对应急管理的宏观认识和依法实施管理意识。各区（市、县）政府组织3次以上应急值守、信息报送、基层应急管理规范化建设等方面的应急专题业务培训，市应急委成员单位组织1次以上应急业务能力和应急专业技能提升培训。（各级政府应急办、市应急委成员单位组织实施）', '3.基层应急管理人员培训。组织开展以应急管理基础知识、应急先期处置、应急信息报告、自救互救技能为重点的专题培训。（各区、市、县政府应急办会同有关部门组织实施）', '4.应急救援队伍培训。按行业分类别组织开展39支应急救援队伍的专业培训，提高专业应急能力；组织开展39支应急救援队伍的应急联动情景构建，检验应急救援队伍的应急处置能力。', '5.交流培训。采取参观考察与探讨交流相结合的方式，组织3次赴应急管理先进城市的学习考察活动，借鉴兄弟省市在应急管理工作中的先进经验和典型作法；组织2次市应急委成员单位和各区、市、县政府应急办的应急管理经验交流活动。（市政府应急办负责组织实施）', '（一）加强组织领导，确保工作落实。各区（市、县）政府及有关部门要根据职责任务，成立专门领导小组，高质量高标准组织开展各项应急科普宣传和教育培训工作，确保各项工作落到实处、取得实效，确保活动有力有序有效推进。', '（二）加强统筹协调，形成宣传合力。各区（市、县）政府及有关部门要根据工作方案的总体部署，一方面精心组织实施本单位、本系统的应急科普宣传教育工作，另一方面加强与牵头单位的协调配合，竭诚为牵头单位提供宣传教育信息资源，提供各项工作便利。', '（三）加强督促检查，确保宣教效果。将应急科普宣教纳入年度目标考核，市政府应急办会同市政府新闻办共同负责科普宣传和教育培训工作的指导和协调工作，对各地各有关部门科普宣教工作进行督查，确保科普宣教工作取得实效。', '（四）加强经费保障，确保顺利进行。各区（市、县）政府及有关部门要保障应急管理科普宣教工作所需经费，同级财政部门要给予大力支持，确保资金落实。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>245</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习省有关会议精神调度全市关心下一代工作和生态文明建设工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202303/t20230331_78825273.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习省有关会议精神 调度全市关心下一代工作和生态文明建设工作 - 贵阳市人民政府', '市委常委会和贵安新区党工委召开会议 传达学习省有关会议精神 调度全市关心下一代工作和生态文明建设工作', '3月30日，市委常委会和贵安新区党工委召开会议，传达学习近期省委常委会会议精神、2023年全省项目观摩暨“四新”“四化”重大项目建设推进大会、省委专题研究贵阳市城市规划建设工作会议精神，贵州省党政代表团赴广东、广西学习考察精神，调度全市关心下一代工作和生态文明建设工作。省委常委、市委书记胡忠雄主持并讲话。', '市政协主席石邦林，市委常委，市政府和贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议强调，要突出基层党建，坚持以“五个一”行动为总揽，统筹推进各领域基层党建工作，把基层党组织建设成为有效实现党的领导的坚强战斗堡垒。要突出城市规划，更加突出贵州省省会、西部地区重要增长极、全国综合交通枢纽等城市性质，更加彰显生态文明、数字创新、内陆开放、旅游集散等功能，提升国土空间总体规划的前瞻性，统筹抓好城市控制性详细规划、修建性详细规划的编制，聚焦产业、生态、交通、文物文脉等重点做好专项规划，推动形成多中心、分布式、网络化城市空间布局。要突出项目建设，围绕“三资”回答“三问”，狠抓项目谋划、招商、建设、管理和考评，谋划一批投资效益好、拉动效果强、命中率高的项目，积极引进大项目好项目，切实解决项目建设过程中的困难和问题，以“工匠精神”做实做优每个项目，紧盯项目目标任务落实抓督查，进一步推动项目投资建设取得更大成效。要突出对外合作，积极落实省党政代表团到广东、广西两省区学习考察合作共识，认真学习借鉴兄弟城市好经验好做法，加强产业发展合作、招商引资合作、开放平台合作。要突出清正廉洁，常修为政之德、常思贪欲之害、常怀律己之心，做到明大德、守公德、严私德，时刻绷紧抵御贪欲这根弦，严格管住自己、管紧家人、管好团队，以自身正、自身硬引领形成风清气正的政治生态。', '会议强调，关工委的工作事关党的事业薪火相传、后继有人，意义重大。要着力学习宣讲党的二十大精神，着力加强关心关爱青少年工作，着力服务“强省会”工作大局，着力抓实抓好组织建设，推动关心下一代工作再上新台阶。要坚定不移推进生态立市，强化政治意识、强化问题整改、强化系统治理、强化责任落实，扎实抓好突出生态环境问题整改和巩固提升，更好地实现经济发展质量、生态环境质量、人民生活质量同步提升。', '贵阳市各区（市、县、开发区），贵安新区各乡（镇、街道），贵阳贵安有关部门负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>245</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习习近平总书记近期重要贺信精神研究部署安全生产生态环保等工作</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202306/t20230622_80436944.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习习近平总书记近期重要贺信精神 研究部署安全生产生态环保等工作 - 贵阳市人民政府', '市委常委会和贵安新区党工委召开会议 传达学习习近平总书记近期重要贺信精神 研究部署安全生产生态环保等工作', '6月21日，市委常委会和贵安新区党工委召开会议，深入学习贯彻习近平总书记近期重要贺信精神，传达学习省委近期会议精神，调度安全生产、生态环保等工作。省委常委、市委书记胡忠雄主持并讲话。', '市人大常委会主任聂雪松，市政协主席石邦林，市委副书记滕伟华，市委常委，市政府和贵安新区有关领导同志参加。', '会议指出，要深入学习贯彻习近平总书记致全球人权治理高端论坛的重要贺信精神，大力推进城市“一圈两场三改”、农村“五治”和各项民生实事，持续加大对“一老一小”、城乡低收入群体、重度残疾人等人群的关心关注力度，严厉打击电信诈骗、毒品犯罪，多渠道增加城乡居民收入，全力惠民、便民、安民、富民，让城市有温度、生活有温馨、市民有温暖。要深入学习贯彻习近平总书记致第十五届海峡论坛的重要贺信精神，扎实做好民主党派、民族、宗教、党外知识分子和新的社会阶层人士统战、民营经济统战、港澳台海外统战和侨务等重点工作，积极引导各民主党派市委、市工商联持续聚焦“八个强”重点任务议政建言，全面加强统一战线自身建设,奋力推动新时代贵阳贵安统战工作再上新台阶。', '会议强调，要落实好贵州省党政代表团赴浙沪苏学习考察有关会议活动精神，扎实做好学习考察“后半篇文章”，认真学习先进做法、先进模式、先进经验，持续加强学习成果转化，主动跟进与浙沪苏各领域务实合作，推动贵阳贵安各项工作迈上新台阶。要落实好省委常委会会议精神，扎实做好数博会“后半篇文章”，坚定不移推进数字经济“一二三四”工作思路，加快推进数博会期间形成的招商合作成果落地转化，不断为数字经济发展注入强劲动力。要扎实做好国家考核评估反馈问题整改“后半篇文章”，带着责任、带着感情、带着良心，扎实推进巩固拓展脱贫攻坚成果同乡村振兴有效衔接，加快推进农业农村现代化。', '会议强调，要落实徐麟书记在主题教育专题党课上的讲话精神，围绕政绩为谁而树、树什么样的政绩、靠什么树政绩，牢固树立和践行与党的性质宗旨相一致、与人民群众根本利益相吻合，符合新发展理念、与高质量发展要求相适应，一切从实际出发、经得起实践人民历史检验的政绩观，以敢干实干快干会干加快把“强省会”美好蓝图变成现实图景。要深刻认识安全生产的极端重要性，做到脑中有弦、肩上有责、心中有数、手中有招，时刻绷紧安全生产这根弦，紧盯“立案数、处罚数、问责数”三个指标严格落实领导责任、部门责任、属地责任、企业责任，深入细致排查隐患点、风险点，着力提升落实整改、科学应对、有效处置能力，更好促进高质量发展与高水平安全良性互动。要狠抓国家生态文明建设示范区创建，进一步加大市级领导指导和督办力度，聚焦“三磷”、矿山修复、污水和垃圾处理等突出问题，扎实推进系统治理、源头治理，举一反三强化问题整改，更好满足人民群众日益增长的优美生态环境需要。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>245</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>揭晓南明区一圈两场三改年度关键词</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/hdjl/jdhyzxft/mtbd/202304/t20230417_79087175.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['15分钟能做什么？读几页书？喝上一杯咖啡？还是到家门口的农贸市场拎一袋新鲜蔬菜回家？', '在15分钟的畅想里，我们有关于生活的诸多想法：活力、创造力、多样性、创新……并希望它一一得到实现。', '去年以来，在市委、市政府统一部署下，南明区启动“一圈两场三改”建设。生活在南明的每一个人，在缓缓流淌的时间里感受着城市品质的提升，体味着生活的幸福与怡然。更让人欣喜的是，人们更加切身地体会到，城市更新发展要不断满足人民对美好生活的向往，而群众的积极性、主动性、创造性，也让这座城市愈加生动靓丽。', '临近岁末，南明区“一圈两场三改”阶段性工作告一段落，我们想从这三个关键词，带你看看南明的美好变化。', '在南明104.78万的常住人口中，60岁以上的老人占比接近15%，其中中心城区8个街道老龄化率均超过20%。当夕阳红遍布大街小巷，南明持续推进“15分钟养老服务圈”建设，用“1+18+N”三级综合养老服务体系串起最实在的幸福。', '走进市南路社区养老服务站，几位老人正展开一局象棋博弈。临近中午十二点，附近居民陆陆续续过来就餐，“他们这里餐食好、环境好，尤其是服务特别好。”服务站开业后，80岁的袁大爷和老伴经常过来吃饭。除了助餐、健身、文娱等基础服务，该服务站还贴心拓展理发服务，“又便宜、又方便”，居民很是满意。', '位于南明区山水黔城的赤菟是匹马智慧托育中心，是一家专注于0—3岁婴幼儿托育服务的专业机构。该中心由具有育婴师资格证的妈妈组成养育团队，由学前教育（婴幼儿照护）专业大学学历人员组成教育团队，同时还会不定期举行公益亲子活动、专题育儿讲座等活动，为有需要的家庭提供更系统、更精细、更高质量的社群式服务。', '“2018年，一对双胞胎的降临，让我们开始认真思考孩子的养育及教育问题。”据机构创始人黄鹃介绍，一开始只是希望自己的孩子能在人生关键1000天中进入一个专业、科学的环境全面健康的成长，期间通过多方面考察与学习，最终决定创办一个更适合中国宝宝成长的本土民族托育品牌，助力更多宝宝及家庭得到更加优质的服务与指导。', '今后，南明区还将逐步建设一批照护服务试点机构，提供就近就便的“全日托”“半日托”“临时托”“计时托”服务，进一步满足居民群众婴幼儿照护服务需求。', '当农贸市场实现“颜值”“内涵”双提升、当断头路被打通居民生活更便利、当日常停车不再是难事……一切为了群众就有了最直观的诠释。', '在南明，分布着大大小小的农贸市场，有的干净整洁，有的在长期运营中逐渐出现脏、乱、差等问题。今年南明区对17个农贸市场进行改造升级，卫生、安全、灯光、智能设备、功能分区……样样精心设置。当干净、明亮的市场重新回归生活，“不错、放心、买起安逸！”', '再说断头路。今年来，红岩北路、西南环线二戈寨立交EN匝道、车水路二期等道路正式通车……随着一条条断头路的打通，车跑得更快了，居民生活也更多了一份便捷。“最大的好处就是现在不用再绕路了。”当昔日的不便成为今日的畅通，城市发展更显活力。', '此外，“停车难”也一直是居民群众关心的老大难问题。下班回家晚了，没车位；出去逛街吃饭，没车位……“经常都在找车位确实让人心烦！”今年，南明区充分挖掘利用城市空间，新建了26个停车场，共计新增4800个停车位。并在茶花广场、南冲巷鱼石街智慧停车场、摆郎智慧停车场等停车场接入智慧停车系统，让越来越多的人享受掌上找车位的便利。', '一直以来，南明区不少老旧小区居民被基础设施老化、路灯缺失、管网堵塞、绿化缺失等问题困扰。随着老旧小区改造工程的持续推进，楼道穿上新装、电线整理上墙、管网更换、车位增加，不少小区连休闲运动区、智能充电桩等也一并配齐了，小区面貌焕然一新，居民幸福指数“原地”升级。', '12月中旬，南明区背街小巷改造也全面完成。在观风巷，只见空闲地、边角地之间见缝插绿，绿点、绿线、绿面相融，老街巷亮出新活力。', '棚户区、老旧小区、背街小巷改造是城市提质升级、人居环境改善的重要内容。据了解，今年南明区老旧小区改造涉及3个项目，背街小巷改造110条，中国铁建·铁建城、华润置地贵阳九悦等项目建设步伐不停。 此外，涉及老旧小区改造、特色街区打造和重点文保改造的南横街片区城市更新项目也在今年正式落地实施。', '走进电力巷，一眼望去的除了去年老旧小区改造后的宜人院落，还有街边风格各异的特色小店。', '转角一杯咖啡、品尝精致美食、寻觅人间茶味……隐藏在电力巷的各式宝藏店铺吸引大量年轻人的聚集。巷子里那座红色砖瓦的老式厂房，在不久的将来也会变成一个总建筑面积约1万平方米集主题酒店、餐饮、休闲娱乐、文化创意以及旅游商品为一体的创意街区。', '不远处的青云路步行街，同样在一年时间的改造中，成为了集文化体验、艺术休闲、商业购物等功能于一体传统与现代相交融的潮流文化街区。', '变的是城市样貌，不变的是为民初心。相信我们的生活，将在城市建设的点点滴滴中，变得更加幸福美好。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>245</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>胡忠雄在福州与福建省委常委福州市委书记林宝金举行会见</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202311/t20231103_82918630.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['11月2日，省委常委、市委书记、贵安新区党工委书记胡忠雄在福州与福建省委常委、福州市委书记林宝金举行会见。', '胡忠雄代表贵阳市、贵安新区对福州市、福州新区的精心安排表示感谢。他说，近年来，福州坚持“3820”战略工程思想精髓，坚定不移沿着习近平总书记擘画的宏伟蓝图奋勇前进，现代化国际城市建设成效显著、亮点纷呈，我们备受鼓舞、倍感钦佩。当前，贵阳贵安正深入学习习近平总书记视察贵州重要讲话精神，坚定不移推进生态立市、工业强市、数字活市、人才兴市，奋力谱写中国式现代化贵阳贵安实践新篇章。贵阳与福州情谊深厚，贵安新区与福州新区同为国家级新区，都承担着重要使命任务、合作潜力巨大，贵阳贵安将把本次学习考察作为一次学习之旅、情感之旅、合作之旅，充分学习借鉴福州发展理念、发展战略、发展思路、发展举措，巩固好、拓展好各领域交流互动，围绕数字经济、文旅经济、绿色经济等方面深化务实合作，在双向奔赴、共同成就中加快高质量发展、推进现代化建设。', '林宝金对胡忠雄一行到来表示欢迎，对贵阳市经济社会发展取得的成就表示祝贺。他说，贵阳是西南地区重要区域创新中心和生态旅游城市，近年来发展势头良好，经济社会发展成效明显。福州是习近平新时代中国特色社会主义思想的重要孕育地和实践地，全市上下秉承弘扬习近平总书记当年开创的重要理念、重大实践，以扎实开展主题教育为动力，坚持“3820”战略工程思想精髓，加快建设现代化国际城市，重点建设滨海新城等六个城，打响数字福州等五大国际品牌，持续深化教育、医疗、养老、住房等民生事业改革，让有福之州更好造福于民。福州与贵阳虽然远隔千里，但两市渊源深厚、情谊绵长，都肩负着国家赋予的重要战略、重大使命。希望两地发挥优势，在数字经济、生态文明、文旅融合以及城市可持续发展等方面进一步加强互学互鉴、交流合作，携手实现更高质量的发展，为推进中国式现代化贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>245</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>胡忠雄在南昌与江西省委常委南昌市委书记赣江新区党工委书记李红军举行会见</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202312/t20231205_83201492.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['胡忠雄在南昌与江西省委常委、南昌市委书记、 赣江新区党工委书记李红军举行会见 - 贵阳市人民政府', '赣江新区党工委副书记、管委会主任肖玉文，南昌市副市长赵捷；贵阳市委常委、市委秘书长刘本立，贵安新区党工委副书记黄波，副市长龙丛参加。', '胡忠雄代表贵阳贵安对南昌市、赣江新区给予的精心安排表示感谢。他说，近年来，南昌市、赣江新区深入学习贯彻习近平总书记考察江西重要讲话精神，完整、准确、全面贯彻新发展理念，各项事业发展取得显著成效，让我们深感钦佩、深受启发。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，大力实施“强省会”行动，奋力谱写中国式现代化贵阳贵安实践新篇章。南昌市、赣江新区与贵阳贵安人文相亲、发展相融，两地合作空间广阔。贵阳贵安将把本次学习考察作为一次学习之旅、合作之旅、情感之旅，认真学习借鉴南昌市、赣江新区的发展理念、发展格局、发展思路、发展举措。希望双方强化优势互补，围绕数字经济、文旅产业、生态文明建设等领域开展务实合作，共同为推动区域协调发展贡献力量。', '李红军对贵阳贵安代表团的到来表示欢迎。李红军说，近年来，贵阳、贵安新区在数字经济、产业创新、绿色发展、城市建设等各领域探索出许多好经验、好做法，值得南昌、赣江新区学习借鉴。当前，南昌正全面落实省会引领战略，加快推进“一枢纽四中心”建设，赣江新区正全力打造高质量发展的现代化新区，加快建设南昌都市圈至关重要的发展空间和新增长点。南昌和贵阳同属于长江经济带沿江省会城市，赣江新区和贵安新区同为国家级新区，在许多地方有相同之处，产业契合度高，经济互补性强，合作空间广阔。真诚希望与贵阳、贵安新区加强各领域合作交流，建立沟通互动机制，强化基础设施连通，加强产业发展和科技创新合作，深化商贸文旅协同，共同推进生态文明建设，携手推动两地高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>245</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>中共贵阳市委政法委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgyszfwyh/202008/t20200819_62566493.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['（七）中共贵阳市委政法委员会2019年度一般公共预算财政拨款“三公”经费支出决算情况说明', '2019年度“三公”经费财政拨款支出预算为16.4万元，支出决算为12.09万元，决算数小于预算数，降幅为26%。主要原因为公车使用效率增高，厉行节约；接待外省政法系统来筑学习考察团批次人数减少。', '（1）因公出国（境）费支出0万元。贵州省贵阳市中共贵阳市委政法委员会全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '（2）公务用车购置及运行维护费10.16万元,其中，公务用车购置0万元，购置公务用车0辆；公务用车运行维护费10.16万元。主要用于要用于公务车辆购油、保养维修、保险等。2019年，单位开支财政拨款的公务用车保有量为5辆。', '国内公务接待支出1.93万元，主要是省外政法部门来筑学习考察团队人员按标准接待就餐费用等。贵州省贵阳市中共贵阳市委政法委员会2019年国内公务接待14批次，139人次。', '根据财政预算管理要求，我单位组织对2019年度财政拨款项目支出开展了绩效自评工作。共计26个项目进行了绩效自评，涉及资金3978.67万元，自评覆盖率达到100%。', '见“五、附件 《禁毒工作经费项目支出绩效自评价报告》、《见义勇为工作经费项目支出绩效自评价报告》”。', '截至2019年12月31日，中共贵阳市委政法委员会共有车辆5辆，其中，主要领导干部用车0辆、机要通信用车1辆、应急保障用车0辆、执勤执法用车0辆、特种专业技术用车0辆、离退休干部用车1辆、其他用车3（其他用车主要是所属事业单位一般公务用车）；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '以贯彻落实党的十九大精神，落实习近平总书记提出的“加快社会治安防控体系建设，依法打击和惩治黄赌毒黑拐骗等违法犯罪活动，保护人民人身权、财产权、人格权”为契机,认真贯彻落实《中华人民共和国禁毒法》和《中共中央国务院关于加强禁毒工作的意见》， 着力解决我市存在的“毒源渠道广、吸毒人员多、社会危害大、合成毒品蔓延快”的毒情形势，推动禁毒工作长效常态标准化建设，切实找准路径、找好方法，为“平安贵阳”建设做出更大的贡献。', '进一步巩固深化禁毒工作成效，推动毒品问题系统治理、依法治理、综合治理、源头治理，最大限度遏制毒品来源、遏制吸毒人员滋生、遏制毒品社会危害，全面建设和谐稳定的社会环境。圆满完成2019年禁毒工作绩效目标。', '坚持预防为主，综合治理和禁种、禁制、禁贩、禁吸并举的方针，坚持党委、政府第一责任，深入推进新时代禁毒人民战争。', '禁毒人民战争取得阶段性成效；有效落实全市禁毒工作责任制，全面构建综合治理的良好局面', '见义勇为作为中华民族的道德精髓，在加强全民思想道德建设和精神文明建设中占有非常重要的位置。见义勇为英雄们的高尚壮举，深深扎根于人们的心中，成为指导人们日常行为规范的准则和判定是非的标准，同时也成为社会道德的风向标和社会风气的晴雨表。随着时代的不断变迁，见义勇为精神在不同时期有着不同的内涵，但是无论如何变化，见义勇为精神始终强调的是一种“利他”的关系，主张“义以为上”，体现的是对他人乃至整个社会的道德义务，反映的是植根于中华民族传统美德的一种“侠义”精神。正是这种“侠义”精神的存在，激发了许许多多的英雄人物为保卫国家、集体利益和他人的生命财产安全，不顾危险，挺身而出，与正在发生的违法犯罪行为或自然灾害作斗争，用鲜血乃至生命捍卫了法律的尊严，维护了社会的公平正义。他们的英勇事迹理应得到全社会的赞扬，他们的英勇行为理应得到全社会的褒奖，他们的合法权益保障理应得到全社会的关心和帮助。', '继承发扬中华民族传统美德，倡导正气弘扬见义勇为精神，奖励和保护见义勇为人员的合法权益，树立良好的社会道德风尚，提高社会效应、扩大社会影响、动员社会力量，鼓舞更多的人关心、爱护、支持和参与见义勇为事业，促进社会主义精神文明建设，推动社会主义文化大发展、大繁荣，为维护社会和谐稳定和推进“平安贵阳”、“和谐贵阳”、“幸福贵阳”创造良好的社会环境。', '大力宣传见义勇为英雄人物的先进事迹，及时表彰奖励、慰问、帮扶见义勇为人员，保障见义勇为人员的合法权益，在全市范围内不发生让见义勇为英雄“流血又流泪”的事件。', '自2012年以来，连续五年召开全市见义勇为表彰大会，表彰奖励见义勇为人员224人，发放见义勇为奖励金379.6万余元，慰问见义勇为人员246人，发放慰问金74.3万余元，帮扶救助见义勇为困难人员20余人，发放帮扶救助金10余万元，在全市范围内没有发生过让见义勇为英雄“流血又流泪”的事件。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>245</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>胡忠雄在南宁与广西壮族自治区党委常委南宁市委书记农生文举行会见</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202312/t20231220_83374027.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['胡忠雄在南宁与广西壮族自治区党委常委、南宁市委书记农生文举行会见 - 贵阳市人民政府', '12月19日，省委常委、市委书记、贵安新区党工委书记胡忠雄在南宁与广西壮族自治区党委常委、南宁市委书记农生文举行会见。', '胡忠雄对南宁长期以来给予贵阳贵安的关心和支持表示感谢。他说，近年来，南宁聚焦跨境产业融合发展与“向海图强”双向发力，构建“一体两翼”产业发展格局，取得的成绩让人深感钦佩、备受启发。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，大力实施“强省会”行动，推进中国式现代化贵阳贵安实践。贵阳与南宁地缘相近、人文相亲，互利共赢、互补发展未来可期。本次学习考察是一次情感之旅、学习之旅、合作之旅，贵阳贵安将充分学习借鉴南宁在高起点谋划、高效能建设、高水平招商、高质量开放中的好经验、好做法、好思路，巩固好、拓展好两地各领域交流交往。希望双方围绕通道经济、文旅经济、数字经济、开放经济，持续深化陆路、水路、航空、“网路”等领域合作，推动文旅市场的资源共享、客源互引，促进数字经济领域的优势互补，积极挖掘开放经济合作潜力，在双向奔赴、共同成就中实现更高质量发展。', '农生文代表南宁市委、市政府对贵阳贵安代表团表示欢迎。他说，当前，南宁市正深入贯彻落实习近平总书记对广西重大方略要求，聚焦国家赋予建设面向东盟开放合作的国际化大都市的新定位新使命，抢抓国家出台重要政策、全球产业链重构、平陆运河建设、深邕合作等重大机遇，坚持跨境产业融合发展与“向海图强”双向发力，狠抓“一体两翼”发展规划实施，运用产业链招商、基金招商等形式全力招大引强，着力构建以企业为主体的创新体系，全面深化园区、国企和投融资改革，大力营造良好产业生态，加快建设以先进制造业为骨干的现代化产业体系，推动经济循环向“产业-科技创新-金融”新循环转变。南宁与贵阳是地缘相近、文化相融、人文相亲的好邻居，同属于西部陆海新通道重要节点城市，我们愿与贵阳一道，认真贯彻落实习近平总书记重要指示精神和党中央决策部署，放眼全国、放眼东盟、放眼世界，在跨境产业、科技、交通、旅游、文化等领域全方位深化合作，共同在服务国家发展战略和实现高质量发展上展现更大担当作为。', '《“东数西算”工程算力保障报告（2023）》（绿皮书）和“东数西算”工程算力保障指数发布 贵安数据中心集群算力保障指数居全国之首']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>245</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>市委常委会召开会议学习贯彻习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202312/t20231201_83167290.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['11月30日，市委常委会召开会议，深入学习贯彻习近平总书记近期重要讲话精神，传达学习省委常委会会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市人大常委会主任聂雪松、市政协主席石邦林、市委副书记滕伟华、市委常委、市政府有关领导同志、市法院院长、市检察院检察长参加。', '会议指出，要深入学习贯彻11月27日中央政治局会议精神，积极抢抓长江经济带发展战略机遇，为“强省会”注入强大动力。要突出生态保护，坚持共抓大保护、不搞大开发，坚定不移实施生态立市战略，大力推进“一城一战一整改”，坚决筑牢长江上游生态安全屏障。要突出科技创新，坚定不移抓好创新型城市、创新型产业、创新型企业、科技平台、科技投入、科技人才，充分发挥科技创新的支撑引领作用，推动创新链产业链资金链人才链深度融合。要突出沟通协作，主动加强与长江经济带沿线发达城市的联系协调，更好在合作交流中实现互利共赢。', '会议强调，要深入学习贯彻习近平总书记在二十届中共中央政治局第十次集体学习时的重要讲话精神，充分发挥领导干部尊法、学法、守法、用法带头表率作用，扎实做好科学立法、严格执法、公正司法、全民守法各项工作，全力推进法治贵阳建设。要深入学习贯彻习近平总书记同美国总统拜登举行中美元首会晤时的重要讲话和在美国友好团体联合欢迎宴会上的重要演讲精神，习近平总书记在亚太经合组织第三十次领导人非正式会议期间的重要讲话精神，扎实推进外宣、外事、外经、外贸、外资“五外”联动，全力提升对外开放水平。要深入学习贯彻习近平总书记致第二届全球数字贸易博览会贺信精神，坚定不移落实数字经济“一二三四”工作思路，聚焦算力、赋能、产业，加快建设数字经济发展创新区核心区。要深入学习贯彻习近平总书记致世界中国学大会·上海论坛贺信精神，结合贵阳贵安实际，聚焦红色文化、阳明文化、民族文化、历史文化、三线文化等，保护好、传承好、展示好、挖掘好、利用好，扎实推动创造性转化、创新性发展，为“强省会”提供强大文化和精神支撑。要深入学习贯彻习近平总书记对山西吕梁市永聚煤矿一办公楼火灾事故作出的重要指示精神，按照李强总理批示要求，时刻绷紧安全生产这根弦，压紧压实领导、部门、属地、企业责任，落细落实国务院安委会安全生产“十五条硬措施”及省“六十条措施”，严肃追责问责，切实做到认识到位、责任到位、措施到位、问责到位，全力维护人民群众生命财产安全。', '会议强调，要深入学习贯彻习近平总书记关于区域协调发展的重要论述，深入学习先进经验和成功做法，着力强化与成渝地区双城经济圈等区域的对接合作，加快把合作共识转化为实实在在的新项目、好项目、大项目，奋力做好川渝学习考察“后半篇文章”。要深入学习贯彻习近平总书记关于加强和改进民族工作的重要思想，坚持一条主线、一个家园、一个主题、一个重点、一个体系、一个关键，把铸牢中华民族共同体意识作为新时代党的民族工作的主线，大力推进中华民族共有精神家园建设，认真践行“共同团结奋斗、共同繁荣发展”的民族工作主题，繁荣民族文化，建立健全民族事务治理体系，加强和完善党对民族工作的全面领导，奋力建设铸牢中华民族共同体意识模范市。要深入学习贯彻习近平总书记关于国有企业改革发展和党的建设的重要论述，聚焦国有企业主责主业，紧盯工作重点，合理设置工作目标、科学制定考核体系，进一步优化监管体系和收入分配机制，促进国有资产保值增值，奋力推进国企改革走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>245</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>贵州省贵阳市中共贵阳市委政法委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgyszfwyh/201908/t20190805_32860221.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['、准确了解掌握全市政法工作情况，研究制定全市政法工作的政策、措施，对一定时期内政法工作作出全局性的部署，并督促贯彻落实。', '、定期分析全市社会治安形势，组织开展“严打”斗争和专项治理，组织、协调、指导维护全市社会稳定工作。', '、定期不定期地检查政法各部门执行法律、法规和党的方针、政策的情况，结合实际，研究制定严肃执法和落实党的方针、政策的具体措施，严肃党纪、政纪和法纪，督促查处政法机关违法违纪案件和人员。', '、支持和督促政法各部门依法行使职权；指导和协调政法各部门在依法相互制约的同时，密切配合，督促推动大案要案的查处工作，研究、协调有争议的重大、疑难案件。', '、组织指导全市社会治安综合治理工作，研究制定社会治安综合治理法规、规章和需要采取的重大措施，并督促检查落实，组织开展社会治安综合治理的理论研究和宣传工作，推动各有关部门参与社会治安综合治理，表彰见义勇为和专群结合、群防群治先进集体及先进个人，激发广大群众同犯罪分子和自然灾害作斗争的积极性。', '、组织推动政法战线的调研工作，分析新情况，总结新经验，解决新问题，不断探索政法工作的新路子、新方法，使政法工作适应社会发展的新形势和新要求。', '、根据全市经济和社会发展的总体要求及治安形势，研究制定全市流动人口服务管理工作规划和方案，促进其规范化、法制化建设。', '、研究制定加强政法干部队伍建设和领导班子建设的具体措施，协助党委及其组织部门考察管理好政法各部门的领导班子和干部队伍，加强政治思想工作，加强党风廉政建设，全面提高政法队伍素质。', '本单位（部门）内设10个处室，下属3个单位。从预算单位构成看，贵州省贵阳市中共贵阳市委政法委员会部门决算包括：本级决算、所属贵阳市流动人口管理工作领导小组办公室、贵阳市法制教育培训中心、贵阳市维稳指挥调度中心（贵阳市政法干部培训中心）决算。', '年度一般公共预算财政拨款支出当年预算为5412.03万元，支出决算为5481.32万元，完成当年预算的101.28 %。决算数大于预算数的主要原因是：事业单位以前年度事业基金弥补收支差额。其中：一般公共服务预算财政拨款支出当年预算', '万元，支出决算27.38万元，支出决算比支出预算增加7.19万元，原因为实际接待批次数比预算数有所增加，车辆因老化等原因使用成本有所增加。支出决算较上年减少', '万元，降幅为31%。主要原因为公车使用效率增高，厉行节约；接待外省政法系统来筑学习考察团批次人数减少。其中：无因公出国（境）费支出；公务用车购置及运行维护费支出', '万元，占34%比上年减少9.61万元，降幅51%，减少原因是外省政法系统来筑学习考察团批次人数增加。', '应急处突、公务、机要通讯等车辆购油、保养维修、保险等。2018年，单位开支财政拨款的公务用车保有量为5 辆。', '共有车辆5 辆，其中，其中：主要领导干部用车0 辆、机要通信用车1辆、应急保障用车0辆、执法执勤用车0辆，特种专业技术用车0辆，离退休干部用车1辆、其他用车3 辆（其他用车主要是：所属事业单位一般公务用车 ）；单位价值50万元以上通用设备0 台（套），单位价值100万元以上的专用设备0 台（套）。', '根据财政预算管理要求，我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计30个项目进行了绩效自评，涉及资金3820.19万元，自评覆盖率达到100%。', '认真贯彻落实中央、省、市关于禁毒工作的决策部署，提高政治站位，突出政治担当，紧紧围绕建设公平共享创新型中心城市总目标，坚持高一格、快一步、深一层推动禁毒工作长效长态标准化建设，切实找准路径、找好方法，为“平安贵阳”建设做出更大的贡献。', '全市范围内构建完善的青少年毒品预防教育工作体系，形成分工明确、协作有效、监督到位、评估科学的工作机制；市民识毒、拒毒、防毒意识和能力得到明显增强；社区戒毒社区康复工作体系全面形成，社区戒毒社区康复专职工作人员队伍全面建立，各项戒毒康复措施全面落实，社区戒毒社区康复执行率稳步提高；强制隔离解毒场所的阵地堡垒作用得到进一步加强，切实做到“应收尽收”，继续深化“科学戒管”模式，戒毒场所与社区戒毒社区康复的衔接更加紧密有效；打击毒品违法犯罪水平得到进一步提升，借力“大数据”，真正形成对毒品违法犯罪分子的有效威慑；人民群众对禁毒工作满意率逐步提高，毒品问题综合治理取得阶段性成效。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>245</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>贵州省贵阳市中共贵阳市委政法委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgyszfwyh/201901/t20190123_32860175.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['（四）贵州省贵阳市中共贵阳市委政法委员会2017年度财政拨款收入支出决算总体情况说明', '（五）贵州省贵阳市中共贵阳市委政法委员会2017年度一般公共预算财政拨款支出决算情况说明', '（六）贵州省贵阳市中共贵阳市委政法委员会2017年度一般公共预算财政拨款基本支出决算情况说明', '（七）贵州省贵阳市中共贵阳市委政法委员会2017年度一般公共预算财政拨款“三公”经费支出决算情况说明', '2、准确了解掌握全市政法工作情况，研究制定全市政法工作的政策、措施，对一定时期内政法工作作出全局性的部署，并督促贯彻落实。', '3、定期分析全市社会治安形势，组织开展“严打”斗争和专项治理，组织、协调、指导维护全市社会稳定工作。', '4、定期不定期地检查政法各部门执行法律、法规和党的方针、政策的情况，结合实际，研究制定严肃执法和落实党的方针、政策的具体措施，严肃党纪、政纪和法纪，督促查处政法机关违法违纪案件和人员。', '5、支持和督促政法各部门依法行使职权；指导和协调政法各部门在依法相互制约的同时，密切配合，督促推动大案要案的查处工作，研究、协调有争议的重大、疑难案件。', '6、组织指导全市社会治安综合治理工作，研究制定社会治安综合治理法规、规章和需要采取的重大措施，并督促检查落实，组织开展社会治安综合治理的理论研究和宣传工作，推动各有关部门参与社会治安综合治理，表彰见义勇为和专群结合、群防群治先进集体及先进个人，激发广大群众同犯罪分子和自然灾害作斗争的积极性。', '7、组织推动政法战线的调研工作，分析新情况，总结新经验，解决新问题，不断探索政法工作的新路子、新方法，使政法工作适应社会发展的新形势和新要求。', '9、根据全市经济和社会发展的总体要求及治安形势，研究制定全市流动人口服务管理工作规划和方案，促进其规范化、法制化建设。', '10、研究制定加强政法干部队伍建设和领导班子建设的具体措施，协助党委及其组织部门考察管理好政法各部门的领导班子和干部队伍，加强政治思想工作，加强党风廉政建设，全面提高政法队伍素质。', '本单位（部门）内设10个处室，下属3个单位。从预算单位构成看，贵州省贵阳市中共贵阳市委政法委员会部门决算包括：本级决算、所属贵阳市流动人口管理工作领导小组办公室、贵阳市法制教育培训中心、贵阳市维稳指挥调度中心（贵阳市政法干部培训中心）决算。', '三、贵州省贵阳市中共贵阳市委政法委员会2017年度部门决算情况说明 （一）贵州省贵阳市中共贵阳市委政法委员会2017年度收入支出决算总体情况说明 贵州省贵阳市中共贵阳市委政法委员会2017年度收支决算总计4590.98万元，与2016年相比，增加339.01万元，增长7.97%。主要原因是：人员经费增加及政法相关数据运用平台建设。', '贵州省贵阳市中共贵阳市委政法委员会2017年度一般公共预算财政拨款支出当年预算为4531.64 万元，支出决算为4590.98万元，完成当年预算的101.31%。决算数大于预算数（决算数小于预算数）的主要原因是：人员经费增加及政法相关数据运用平台建设。其中：', '（2）公务用车购置及运行维护费21.51万元,其中，公务用车购置0万元，公务用车运行维护费21.51万元。主要用于应急处突、公务、机要通讯等车辆购油、保养维修、保险等。2017年，单位开支财政拨款的公务用车保有量为5辆。', '国内公务接待支出18.67万元，主要是省外政法部门来筑学习考察团队人员按标准接待就餐费用等。贵州省贵阳市中共贵阳市委政法委员会2017年国内公务接待189批次，2,048人次。', '2017年贵州省贵阳市中共贵阳市委政法委员会政府采购支出总额485.24万元，其中：政府采购货物支出 0万元、政府采购工程支出 0万元、政府采购服务支出0 万元，授予中小企业合同金额485.24 万元，占政府采购支出总额的100 %， 无授予小微企业合同金额 。', '截至2017年12月31日，贵州省贵阳市中共贵阳市委政法委员会共有车辆5辆，其中， 一般公务用车5辆、一般执法执勤用车0辆、特种专业技术用车0辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '根据财政预算管理要求，我单位组织对2017年度一般公共预算项目支出开展了绩效自评工作。共计25个项目进行了绩效自评，涉及资金3181.27万元，自评覆盖率达到100%。', '认真贯彻落实中央、省、市关于禁毒工作的决策部署，提高政治站位，突出政治担当，紧紧围绕建设公平共享创新型中心城市总目标，坚持高一格、快一步、深一层推动禁毒工作长效长态标准化建设，切实找准路径、找好方法，为“平安贵阳”建设做出更大的贡献。', '全市范围内构建完善的青少年毒品预防教育工作体系，形成分工明确、协作有效、监督到位、评估科学的工作机制；市民识毒、拒毒、防毒意识和能力得到明显增强；社区戒毒社区康复工作体系全面形成，社区戒毒社区康复专职工作人员队伍全面建立，各项戒毒康复措施全面落实，社区戒毒社区康复执行率稳步提高；强制隔离解毒场所的阵地堡垒作用得到进一步加强，切实做到“应收尽收”，继续深化“科学戒管”模式，戒毒场所与社区戒毒社区康复的衔接更加紧密有效；打击毒品违法犯罪水平得到进一步提升，借力“大数据”，真正形成对毒品违法犯罪分子的有效威慑；人民群众对禁毒工作满意率逐步提高，毒品问题综合治理取得阶段性成效。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>245</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>贵州省贵阳市信访局年度部门决算</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgysxfj/201908/t20190820_32861269.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['负责省委、省人民政府领导和省信访局及省委、省人民政府各部门批办、转办重要信访事宜的立案和督办。', '负责处理人民群众给市委、市人民政府及市委办公厅、市人民政府办公厅的来信，接待群众来访；及时、准确地向市委、市人民政府领导报告来信来访中提出的重要建议、意见和反映的重要问题。', '承办市委、市人民政府及市委办公厅、市人民政府办公厅领导交办的信访事项，督促检查领导有关批示件的办理落实情况；向区（市、县）和市直有关部门交办信访事项，检查督促重要信访事项的处理和落实。', '贯彻落实市信访工作领导小组、市处理信访突出问题及群体性事件联席会议关于处理重大信访问题和指导全市信访工作的意见；承担对中央、省重要信访案件和已办理件的复查复核工作；参与市委、市人民政府和市委办公厅、市人民政府办公厅有关文件或领导讲话的起草工作。', '协调处理跨地区、跨部门的重要信访问题；协调处理群众集体到京、到省和到市上访及异常、突发信访事件；检查协调各级党政部门和市直有关部门、单位的信访工作。', '指导全市信访业务工作；开展调查研究，综合分析全市信访形势和特点，开展综合预测研究，提出制定有关信访工作的政策建议，起草有关规章制度；编报重要信访信息；总结推广信访工作经验，提出改进和加强信访工作的意见和建议。', '组织开展信访宣传工作；组织信访理论研究，开展学术交流活动，编辑、印发信访宣传资料。', '承办市委、市人民政府和市委办公厅、市人民政府办公厅领导以及上级业务部门交办的其他事项。', '本单位（部门）内设7个处室，下属1单位（但未独立核算）。从预算单位构成看，贵州省贵阳市信访局部门决算即本级决算（包含下属未独立核算单位1户决算）。', '主要原因是“数据信访”大数据平台项目按合同约定本年支付数较上年减少，故预算的收入和支出都减少。', '一是，本年按文件对人员进行调资导致人员经费安排增加；二是，年初预算的公用经费中未包含车补，在预算调整时调增；三是，“数据信访”大数据平台项目未完成决算评审，故调减相应资金安排', '一是，本年按文件对人员进行调资导致人员经费安排增加；二是，年初预算的公用经费中未包含车补，在预算调整时调增，增加决算支出数。', '年度“三公”经费财政拨款支出预算为14.67万元，支出决算为3.39万元，决算数小于预算数，主要原因是厉行节约，严格执行相关规定，大力压缩相关经费支出。', '我局被国家信访局列为业务信访智能辅助系统开发建设试点单位，多地来我局学习考察，导致公务接待批次、人次较上年增均增加近一倍，相应费用增加，但全年“三公” 经费可控，未超本年预算数，未超上年决算数。支出', '万元。主要用于车辆维修、保险、过路费等。2018年，单位开支财政拨款的公务用车保有量为1辆。', '年贵州省贵阳市信访局通过交易中心的政府采购支出总额24.436万元，其中：政府采购货物支出24.436 万元、政府采购工程支出 0万元、政府采购服务支出0万元，授予中小企业合同金额24.436万元，占政府采购支出总额的100%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '截至2018年12月31日，贵州省贵阳市信访局共有车辆1辆，其中，主要领导干部用车0辆、机要通信用车1辆、应急保障用车0辆、执勤执法用车0辆、特种专业技术用车0辆、离退休干部用车0辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '根据财政预算管理要求，我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计12个项目进行了绩效自评，涉及预算资金1324.86万元，自评覆盖率达到100%。', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为93.42分。发现的主要问题及原因：针对单位新入驻窗口人员的岗前培训一般是在12月底开展，而此时财政资金将按计划关账，导致此培训的资金不能得到妥善保障。', '通过“省级指导、分级建设、标准统一、技术先进、全面覆盖、协同管理、四级联动”，实现远程接访、远程督查督办、视频培训会议功能，近而节约行政成本，提高行政效能。', '指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>245</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>马宁宇主持召开贵阳市政府贵安新区管委会党组会议传达学习省市有关会议精神</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202304/t20230404_78879824.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['马宁宇主持召开贵阳市政府贵安新区管委会党组会议 传达学习省市有关会议精神 - 贵阳市人民政府', '4月3日，市委副书记、市政府党组书记、市长，贵安新区党工委副书记、管委会党组书记、主任马宁宇主持召开贵阳市政府党组、贵安新区管委会党组会议，传达学习近期省委常委会会议精神，省委党的建设工作领导小组会议精神，贵州省党政代表团赴广东、广西学习考察精神，以及市委常委会会议精神，研究贯彻落实意见。', '会议强调，要深入贯彻落实习近平总书记关于深化东西部协作的重要指示精神，积极落实省党政代表团到广东、广西两省区学习考察合作共识，带头实施主战略、实现主定位，抢抓机遇、发挥优势，积极参与西部陆海新通道建设，主动融入粤港澳大湾区发展，全力推进新一轮产业大招商，加强数字经济和科技创新合作，积极推动一批项目落地、企业入驻，助力粤黔协作和黔桂合作不断取得更多更大成果，奋力当好全省高质量发展“排头兵”、现代化建设“领头羊”。', '会议强调，要牢牢守好发展和生态两条底线，坚持生态优先、绿色发展，坚定不移落实“一二三四”工作思路，大力发展绿色经济，扎实抓好突出生态环境问题整改和巩固提升，奋力在生态文明建设上出新绩。要扎实抓好“乙类乙管”常态化防控工作，加强常态化分级分层分流医疗卫生体系建设，强化医药物资储备，不断提高医疗卫生服务水平，切实维护人民群众健康福祉。要坚持人才兴市，大力实施人才引、育、用、留“四大工程”，持续抓好在黔高校毕业生留筑工作，打造全省人才蓄水池、全省科技创新策源地。', '会议要求，要全面加强青少年思想政治教育，持续优化青少年成长成才环境，推动关心下一代工作不断取得新成绩。要坚定不移把党的全面领导落实到基层，统筹推进农村、城市、机关、国企、高校、公立医院、两新组织等各领域基层党建工作，把基层党组织建设成为有效实现党的领导的坚强战斗堡垒。', '马宁宇主持召开贵阳市政府常务会议贵安新区管委会主任办公会议 研究部署安全生产和防火防汛等工作', '马宁宇主持召开贵阳市政府贵安新区管委会党组会议 深入学习贯彻习近平总书记重要讲话精神']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>245</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>市人民政府关于印发贵阳市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2013-06-27</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2013/201711/t20171120_11364586.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['各区、市、县人民政府，高新开发区、经济技术开发区管委会，市政府各工作部门，市各直属事业单位：', '《贵阳市人民政府工作规则》已经2013年6月18日市人民政府第31次常务会议通过，现印发给你们，请认真贯彻执行。', '第一条 为使市人民政府各项工作法制化、规范化、制度化，进一步提高行政效能，根据《中华人民共和国宪法》和《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》，遵照《国务院工作规则》和《贵州省人民政府工作规则》，结合我市实际，制定本规则。', '第二条 市人民政府工作的指导思想是，高举中国特色社会主义伟大旗帜，以邓小平理论、“三个代表”重要思想、科学发展观为指导，认真贯彻执行党的路线方针政策，严格遵守宪法和法律法规，坚决执行党中央、国务院，省委、省政府和市委的指示、决定，贯彻执行市人民代表大会及其常务委员会的决议，全面履行政府职能，努力建设职能科学、结构优化、廉洁高效、人民满意的服务型政府。', '第三条 市人民政府工作的准则是：执政为民，依法行政，实事求是，民主公开，务实清廉。', '第四条 市人民政府组成人员要模范遵守宪法和法律法规，认真履行职责，为民务实，严守纪律，勤勉廉洁。', '第五条 市人民政府实行市长负责制，市长领导市人民政府的工作。副市长、市长助理、秘书长协助市长工作。市长因公外出期间，受市长委托，由市人民政府分管常务工作的副市长主持市人民政府的全面工作。', '第六条 市长召集和主持市人民政府全体会议、市人民政府常务会议、市长办公会议。市人民政府工作中的重大事项，必须经市人民政府全体会议或市人民政府常务会议讨论决定。', '第七条 副市长、市长助理按分工负责处理分管工作；受市长委托，负责其他方面的工作或专项任务，并可代表市人民政府进行外事活动。', '第八条 秘书长在市长领导下，负责处理市人民政府的日常工作，协调落实市人民政府决定事项。', '市人民政府各部门要各司其职，各负其责，顾全大局，协调配合，切实维护团结统一、政令畅通，坚决贯彻落实市委、市人民政府各项工作部署。市审计局在市长和上一级审计机关的领导下，依照法律规定独立行使审计监督职能，不受其他行政机关、社会团体和个人的干涉。', '第十条 市人民政府及各部门要加快职能转变，全面正确履行经济调节、市场监管、社会管理和公共服务职能，形成权界清晰、分工合理、权责一致、运转高效、法治保障的机构职能体系，创造良好发展环境，提供基本均等公共服务，维护社会公平正义。', '第十一条 全面落实国家宏观调控政策措施，紧紧抓住国家深入实施西部大开发战略和《国务院关于进一步促进贵州经济社会又好又快发展的若干意见》（国发〔2012〕2号）、批复实施《贵阳建设全国生态文明示范城市规划》机遇，坚持“加速发展、加快转型、推动跨越”主基调，坚定不移实施工业强市和城镇化带动战略，促进新型工业化、新型城镇化、信息化、农业现代化同步发展，主要运用经济、法律手段并辅之以必要的行政手段引导和调控经济运行，促进经济社会又好又快、更好更快发展，确保到2015年在全省率先全面建成小康社会，到2020年建成全国生态文明示范城市。', '第十二条 依法严格市场监管，推进公平准入，完善监管体系，规范市场执法，鼓励创业、创新、创优，维护市场的统一开放、公平诚信、竞争有序，努力建设诚信贵阳、开放贵阳、法治贵阳。', '第十三条 加强社会管理制度和能力建设，促进就业创业，健全社会保障体系，巩固和发展社会管理创新成果，完善基层社会管理服务，形成源头治理、动态管理、应急处置相结合的社会管理机制，维护社会公平正义与和谐稳定，努力建设平安贵阳、和谐贵阳。', '第十四条 更加注重公共服务，完善公共政策，健全政府主导、社会参与、覆盖城乡、可持续的基本公共服务体系，增强基本公共服务能力，不断提供更多的社会公共产品，促进基本公共服务均等化，努力建设幸福贵阳。', '第十五条 按照权责一致、分工合理、决策科学、执行顺畅、监督有力的原则，深化行政管理体制改革，强化行政审批规范化建设和监督力度，简政放权，优化服务，提高效率。', '第十六条 市人民政府及各部门要带头维护宪法和法律法规权威，建设法治政府。按照合法行政、合理行政、程序正当、高效便民、诚实守信、权责统一的要求，行使权力，履行义务，承担责任。', '第十七条 市人民政府根据国家法律、行政法规、部门规章和省地方性法规、规章的修订情况和我市经济社会发展需要，适时向市人民代表大会及其常务委员会提出制定、修改或废止地方性法规的议案，制定、修改或废止市人民政府规章、行政措施，发布决定、命令。', '提请市人民政府审议的地方性法规草案和规章草案，由市人民政府法制机构组织起草、审查，市人民政府规章的解释和翻译工作由市人民政府法制机构承办。', '第十八条 市人民政府及各部门要坚持科学民主依法立法，不断提高政府立法质量，起草地方性法规草案和制定规章、规范性文件，要符合法律法规和国家有关规定的要求，坚持从实际出发，准确反映我市经济社会发展要求，充分反映人民群众意愿，使所确立的制度能够切实解决问题，备而不繁，简明易行。', '完善政府立法工作机制，扩大公众参与，除依法需要保密的外，所有地方性法规和市人民政府规章的草案要公开征求意见。加强立法协调，对经协调仍达不成一致意见的问题，市人民政府法制机构应当将主要问题、征求意见情况和法制机构意见，及时报市人民政府决定。', '重要规章和规范性文件实施后，制定机关或实施机关应当定期对其实施情况进行后评估，发现问题，及时完善。规章和市政府制定的规范性文件由实施机关进行评估后，将评估意见报送市人民政府。', '第十九条 市人民政府及其部门制定的规范性文件，要符合法律法规、规章和国家、省有关规定要求，严格遵守法定权限和程序。', '涉及两个及以上部门职权范围的事项，要充分听取相关部门的意见。其中，涉及公众权益、社会关注度高的事项及重要涉外、涉港澳台侨事项的，应当事先请示市人民政府并经市人民政府批准。', '严格合法性审查，规范性文件不得设定行政许可、行政处罚、行政强制等事项，不得违法增加公民、法人和其他组织的义务。对违反法律法规、规章或国家和省有关规定，以及规定不适当的规范性文件，要依法责令制定部门纠正或由市人民政府予以改变、撤销。', '以市人民政府及市人民政府办公厅名义制定规范性文件，文件草案应在送审前先交由市人民政府法制机构进行合法性审查。市人民政府各部门制定的规范性文件，应经本部门法制工作机构进行合法性审查，在规定时限内报市人民政府法制机构备案。市人民政府法制机构负责规范性文件备案审查并定期向社会公布目录。', '第二十条 市人民政府要加强依法行政工作考核，各部门要严格执法，健全规则，规范程序，落实责任，强化监督，做到有法必依、执法必严、违法必究，公正执法、文明执法，维护公共利益、人民群众权益和社会秩序。', '第二十一条 市人民政府及各部门应当完善行政决策规则，坚持民主、法治、公正、时机、择优的决策原则，把公众参与、专家论证、风险评估、合法性审查和集体讨论决定作为重大决策的必经程序，增强公共政策制定透明度和公众参与度。', '第二十二条 全市国民经济和社会发展规划、年度计划、财政预决算，市级经济发展、社会事务、地方性法规草案和市人民政府规章、重大政策规定、重大建设项目以及其他需要由市人民政府决策的重大事项，由市人民政府全体会议或市人民政府常务会议讨论和决定。', '第二十三条 市人民政府各部门提请市人民政府研究决定的重大事项，都必须经过深入调查研究，并进行合法性、必要性、科学性、可行性和可控性论证；涉及其他部门的，应充分协商；涉及区（市、县）人民政府的，应事先征求有关区（市、县）人民政府的意见；涉及重大公共利益和公众权益、容易引发社会稳定问题的，要进行社会稳定风险评估，并可采取听证会等多种形式听取各方面意见。', '在重大决策执行过程中，要跟踪决策的实施情况，了解利益相关方和社会公众对决策实施的意见和建议，全面评估决策执行效果，及时调整完善。', '第二十四条 市人民政府在作出重大决策前，根据需要通过多种方式，广泛听取民主党派、社会团体、专家学者、社会公众等方面的意见和建议。', '第二十五条 市人民政府及各部门要把公开透明作为政府工作的基本制度。深化政务公开，完善各类办事公开制度，健全政府信息发布制度，推进行政权力行使依据、过程、结果公开。', '第二十六条 市人民政府全体会议和常务会议讨论决定的事项、市人民政府及各部门制定的政策措施，除依法需要保密的外，应及时公布。凡涉及公共利益、公众权益、需要广泛知晓的事项和社会关切的事项，以及法律法规和市人民政府规定需要公开的事项，均应通过政府网站、政府公报、新闻发布会以及报刊、广播、电视、网络等方式，依法、及时、全面、准确、具体地向社会公开。', '第二十七条 按照统筹规划、整合资源、服务应用、确保安全的原则，加强政府网站建设，大力推行电子政务，扎实推进政府信息公开工作，切实提高政府工作效率。', '第二十八条 市人民政府要自觉接受市人民代表大会及其常务委员会的监督，认真负责地报告工作，接受询问和质询，依法备案市人民政府规章，及时办理市人大代表的建议、批评和意见；自觉接受市政协、各民主党派和群众团体的民主监督，虚心听取意见和建议，并依照有关规定及时办理提案和建议案。', '第二十九 条市人民政府及各部门要依照有关法律规定接受人民法院依法实施的监督，做好行政应诉工作，尊重并自觉履行人民法院的生效判决、裁定。各部门要自觉接受监察、审计等部门的监督。对监督中发现的问题要认真整改并向市人民政府报告。', '第三十条 市人民政府及各部门要严格执行行政复议法，加强行政复议指导监督，自觉履行行政复议决定，纠正违法或不当的行政行为，依法及时化解行政争议。', '第三十一条 市人民政府及各部门要接受社会公众和新闻舆论的监督，认真调查核实有关情况，及时依法处理和改进工作。重大问题要向社会公布处理结果。', '第三十二条 市人民政府及各部门要重视信访工作，进一步完善信访制度，健全“三级调处”，畅通和规范群众诉求表达、利益协调、权益保障渠道，推动“事要解决', '”；市人民政府领导及各部门负责人要亲自阅批重要的群众来信，定期接待群众来访，解决群众合理诉求。', '第三十三条 市人民政府及各部门要实行绩效管理制度和行政问责制度，加强对重大决策部署落实、部门职责履行、重点工作推进以及自身建设等方面的考核评估，健全督查和纠错制度，严格责任追究，提高政府执行力和公信力。', '第三十四条 市人民政府实行市人民政府全体会议、市人民政府常务会议、市长办公会议制度。', '第三十五条 市人民政府全体会议由市长、副市长、市长助理、秘书长和市人民政府组成部门主任、局长组成，由市长召集和主持。副秘书长列席会议，并根据需要安排有关部门、单位负责人列席会议。', '（一）传达贯彻党中央、国务院，省委、省政府和市委的重要指示、决定和会议精神，以及市人民代表大会及其常务委员会的重要决议、决定；', '第三十六条 市人民政府常务会议由市长、副市长、市长助理、秘书长组成，由市长或市长委托市人民政府分管常务工作的副市长召集和主持。副秘书长列席会议，并根据需要安排有关部门、单位负责人列席会议。', '第三十七条 市长办公会议由市长、副市长、市长助理、秘书长组成，由市长或市长委托市人民政府分管常务工作的副市长召集和主持。副秘书长列席，并根据需要安排有关部门、单位负责人列席会议。', '（二）讨论决定市人民政府各工作部门及各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会请示市人民政府的重要事项；', '（三）传达贯彻上级人民政府及其工作部门召开的，需要在相当范围内执行的工作会议精神；', '第三十八条 市人民政府全体会议、市人民政府常务会议、市长办公会议的议题，由市人民政府办公厅收集议题报市长确定，或者由市长根据工作需要提出议题。', '市人民政府全体会议、市人民政府常务会议、市长办公会议的组织工作由市人民政府办公厅负责。市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区提请市人民政府全体会议、市人民政府常务会议、市长办公会议审议的议题及其附件材料，应于会议召开前报市人民政府办公厅统筹安排。市人民政府办公厅将议题和有关会议文件于会前送达与会人员。', '第三十九条 市人民政府领导不能出席市人民政府全体会议、市人民政府常务会议、市长办公会议，向会议召集人请假。', '其他参加和列席会议的人员因故不能参加或列席上述会议，须向秘书长请假，并将安排参会的其他负责人的职务、姓名向市人民政府办公厅报告。', '第四十条 市人民政府常务会议纪要、市长办公会议纪要，由秘书长签发，必要时报市长或市人民政府负责常务工作的副市长签发。', '第四十一条 市人民政府各部门召开的工作会议，要减少数量，控制规模，严格审批。应由市人民政府各部门召开的全市性会议，不以市人民政府名义召开，不邀请各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会负责人出席，确需邀请的须报市人民政府批准。确需以市人民政府名义召开的全市性会议，有关部门须提前20天上报会议方案，由市人民政府办公厅审核提出意见后，报市长或市人民政府常务会议审定。全市性会议应尽可能采用视频会议形式召开。各类会议都要充分准备，提高效率和质量，重在解决问题。', '第四十二条 通过部门商洽在我市召开的全国性、全省性会议，有关部门需提前报告市人民政府，经同意后方可答复和安排。', '第四十三条 市政府要加强对市政府驻外机构的领导，每年至少召开一次驻外机构工作联席会议，总结工作，交流经验，研究问题，布置任务。市政府全体会议要通知驻外机构主要负责人参加。', '第四十四条 市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会报送市人民政府的公文，要符合《党政机关公文处理工作条例》和市人民政府有关行政机关公文处理的规定。除市人民政府领导交办事项和必须直接报送的绝密、紧急事项外，不得以本机关名义直接向市人民政府领导个人报送公文，也不得以本机关负责人的名义向市人民政府报送公文。各部门报送市人民政府的请示性公文，要提前做好调研和协调工作，凡涉及其他部门职权的，必须主动与相关部门充分协商，由主办部门主要负责人与相关部门负责人会签或联合报市人民政府审批。部门之间有分歧的，主办部门主要负责人要主动协商；协商后仍不能取得一致意见的，主办部门应列明各方理据，提出办理建议，与相关部门负责人会签后报市人民政府决定。属于各部门职权范围内的事项，无需报市人民政府。', '第四十五条 市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会报送市人民政府审批的公文，由市人民政府办公厅按照市人民政府领导分工呈批，并根据需要由市人民政府领导转请市人民政府其他领导核批，重大事项报市长审批。', '第四十六条 市人民政府发布的规章，向市人民代表大会及其常务委员会提出的人事任免议案，由市长签署。', '第四十七条 以市人民政府名义发出的重要公文和上行文，经市人民政府分管领导审核后，由市长签发；以市人民政府名义发出的其他公文，由市人民政府分管领导审核签发。', '以市人民政府办公厅名义发文，由秘书长签发；如有必要，报请市人民政府分管领导或市长签发。', '属部门职权范围内事务、应由部门自行发文或联合发文的，不再由市人民政府批转或市人民政府办公厅转发。', '凡法律法规和规章已作出明确规定的，一律不再制发文件。没有实质内容、可发可不发的文件简报，一律不发。', '第四十八条 市人民政府各部门和市人民政府办公厅要提高公文办理效率，公文运转的各个环节都要在规定的时限内完成。对属于急件的公文，即到即办。', '市人民政府各部门和各区（市、县）人民政府、高新技术开发区、经济技术开发区管委会对市人民政府批办和市人民政府办公厅转办并属于职权范围内的公文，有明确时限要求的，要在时限内办理完毕并回复办理结果；没有明确时限要求的，办理完毕后要及时回复办理结果，重要情况及时报告。', '第四十九条 市人民政府在处理政府工作事务中，有关全市国民经济和社会发展规划、财政预算的确定和调整，须经市人民政府常务会议审议通过后，提请市人民代表大会及其常务委员会审议；市人民政府各项工作管理体制的重大改革，各工作部门的设立、撤销和合并，涉及全市范围和广大群众切身利益的重大行政措施，重要外事活动以及按组织原则需由市委决定的，应提出意见报请市委审定。', '第五十条 市人民政府副市长参加对外活动或代表市政府作重要表态，要事前向市政府主要领导报告。', '市人民政府各部门受市人民政府委托向市人民代表大会及其常务委员会报告工作，报告稿应先经市人民政府有关会议讨论或经市长、市人民政府分管领导审核。', '市人民政府各部门分别按半年和全年书面向市人民政府报告工作情况，经济运行、重点工作推进及其他重要情况要及时报告。市人民政府办公厅适时通报重要工作情况。', '第五十二条 市人民政府各部门要切实加强政务信息工作，及时向市人民政府报告政府工作及经济社会发展中的重要情况，为市人民政府领导科学民主决策提供依据。市人民政府办公厅负责组织开展政务信息的收集和报送工作。', '第五十三条 市人民政府各部门必须坚决贯彻落实市人民政府的决定，及时跟踪和反馈执行情况。市政府办公厅和市督办督查局负责全市政务督查工作的组织、指导、协调和检查，确保政令落实。', '第五十四条 对市人民政府的重要决策和市长、副市长重要批示件，各部门要明确相关负责人负责落实，办理完毕后向市人民政府报告办理情况，办理过程中的重要情况要及时报告。', '第五十五条 收到党中央、国务院，省委、省人民政府和市委领导的批示件，市人民政府办公厅要立即送呈有关领导阅批，按照分工转有关部门办理或直接组织办理，并严格按规定时限要求办结和上报办理情况。', '第五十六条 市人民政府组成人员要坚决贯彻执行党和国家的路线方针政策、工作部署以及省委、省人民政府和市委、市人民政府的工作部署和要求。严格遵守纪律，决不允许“上有政策、下有对策”，决不允许有令不行、有禁不止，决不允许在贯彻执行各项决策部署上打折扣、做选择、搞变通。', '第五十七条 市人民政府组成人员必须坚决执行市人民政府的决定，如有不同意见应当向市人民政府提出，在市人民政府没有重新作出决定前，不得有任何与市人民政府决定相违背的言论和行为；代表市人民政府发表讲话或文章，个人发表涉及未经市人民政府研究决定的重大问题及事项的讲话或文章，事先须经市人民政府同意。', '第五十八条 市人民政府组成人员要严格执行请销假制度。副市长、市长助理、秘书长离筑出差（出访）、学习、休假，应事先按程序请示市政府、市委主要领导批准同意，由市人民政府办公厅通报市人民政府其他领导。', '市人民政府各部门主要负责人离筑出差（出访）、学习、休假，应事先按程序请示分管副市长、市长和市委主要领导批准同意，并将行止日期、地点、事由报告市委办公厅和市人民政府办公厅。', '第五十九条 市人民政府组成人员外出参会、学习、考察、招商等，在销假后一周内向市政府党组书面报告有关情况。', '各区（市、县）长，高新技术开发区、经济技术开发区管委会主任，市人民政府各部门主要负责人，外出参会、学习、考察、招商等，在销假后一周内向市政府书面报告有关情况。', '市长外出期间，主持市政府工作的副市长，遇重大事项、重大活动、重要情况要及时向市长报告。', '第六十条 市人民政府各部门发布涉及重要工作部署、经济社会发展重要问题的信息，要经过严格审定，重大情况要及时向市人民政府报告。', '第六十一条 市人民政府组成人员要严格遵守保密法律法规、保密纪律和外事纪律，严禁泄漏国家秘密、工作秘密或因履行职责掌握的商业秘密等，坚决维护国家的安全、荣誉和利益。', '第六十二条 市人民政府及各部门要严格执行改进工作作风、密切联系群众和廉洁从政的各项规定，切实加强廉政建设和作风建设。', '第六十三条 市人民政府及各部门要从严治政，全面推进政府系统惩治和预防腐败体系建设，做到干部清正、政府清廉、政治清明。严格规范权力行使，对职权范围内的事项要按程序和时限积极负责地办理，对不符合规定的事项要坚持原则不得办理；对因推诿、拖延等官僚作风及失职、渎职造成影响和损失的，要追究责任；对越权办事、以权谋私等违规、违纪、违法行为，要严肃查处。', '第六十四条 市人民政府及各部门要严格执行财经纪律，艰苦奋斗，勤俭节约，坚决制止奢侈浪费，提高政府公共资源使用效率；严格执行住房、办公用房、车辆配备等方面的规定；严格控制差旅、会议经费等一般性支出，各类会议活动经费全部纳入预算管理；规范公务接待，严肃整治公款大吃大喝和公款旅游行为；严格控制政府机关办公楼、接待场所等楼堂馆所建设，切实降低行政成本，建设节约型机关。', '第六十五条 市人民政府组成人员要廉洁从政，严格执行领导干部重大事项报告制度，不得利用职权和职务影响为本人或特定关系人谋取不正当利益；不得违反规定干预或插手市场经济活动；加强对亲属和身边工作人员的教育和约束，绝不允许搞特权。', '第六十六条 市人民政府组成人员要做学习的表率，市人民政府及各部门要全面加强自身建设，努力创建学习型、创新型、发展型、服务型机关。', '第六十七条 市人民政府领导要深入基层、深入群众、深入实际开展调查研究，选择工作好的典型，总结推广经验；多到困难问题比较多的地方指导工作，研究和解决实际问题，下基层要轻车简从，减少陪同，简化接待，减轻基层负担，不搞边界迎送。调研活动的新闻报道要突出主题，简明扼要，具有针对性和指导性。除工作需要外，不去名胜古迹、风景区参观。', '市人民政府各部门也要根据各自的工作重点制定每年的调研计划，认真抓好调研工作的落实。', '第六十八条 除市委、市人民政府统一组织安排的重要活动外，未经批准，市人民政府领导不出席各地、各部门、各单位举办的庆典、剪彩、奠基活动和庆祝会、纪念会、表彰会、博览会、研讨会及各类论坛等活动，不参加各类商业性会议和活动。未经市委统一安排，市人民政府领导不得以个人名义为上述各类活动题词、题字以及发贺信、贺电。因特殊需要发贺信、贺电和题词，一般不公开发表。', '第六十九条 市长、副市长根据工作需要合理制定出访计划，严格执行因公出国(境)审批管理规定。由市外事侨务办公室提出报告，经市人民政府研究确定，按规定程序逐案报批。', '市人民政府其他组成人员和各部门其他负责人出访，由市外事侨务办公室审核后按规定程序逐案报批。', '贵阳市人民政府办公厅关于转发市台办〈关于进一步规范贵阳市因公赴台管理工作的意见〉的通知》（筑党办发〔2012〕36号）办理。', '第七十条 副厅级以上领导及各类组团、来宾来筑，要按程序向市政府市长、分管副市长报告，由市相应业务主管部门或市对口部门提出安排意见，报市人民政府办公厅按规定程序办理。', '外宾或国际知名人士、学者、企业家来筑，确需市人民政府领导出面会见、会谈或陪同的，由相应接待部门提出安排意见，市外事侨务办公室审核后报市人民政府办公厅按规定程序办理。', '香港、澳门特别行政区官方人员、重要知名人士和台胞、海外侨胞中的重要知名人士来筑，由相应接待部门提出安排意见，市外事侨务办公室、市台湾事务办公室审核后报市人民政府办公厅按规定程序办理。', '第七十一条 市人民政府领导参加的内事活动，由市人民政府办公厅协调安排；市人民政府领导参加的外事活动，由市外事侨务办公室和市人民政府办公厅共同协调安排。邀请市人民政府领导参加的重要活动，须提前7天报市人民政府办公厅，由市人民政府办公厅按规定程序办理。', '第七十二条 市人民政府直属机构、派出机构、部门管理机构、直属事业单位、在筑省直管部门适用本规则。', '第七十三条 本规则自印发之日起施行。本规则执行过程中的问题由市人民政府办公厅负责解释。2003年5月《市人民政府关于印发〈贵阳市人民政府工作规则〉的通知》（筑府发〔2003〕55号）和2008年3月《贵阳市人民政府办公厅工作规则》（修订本）中的《贵阳市人民政府工作规则》同时废止。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>245</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>中共贵阳市委政策研究室年度部门决算</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2016-08-08</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszggyswzcyjs/201901/t20190123_32859871.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['1.围绕党的基本路线、党中央的重大决策，根据市委的工作部署，组织开展经济、社会发展和党建、精神文明建设等方面重要方针政策的调查研究，并提出供市委决策参考的意见和建议。', '2.参与研究制定全市经济和社会发展战略规划，就一些重大方针政策的贯彻执行情况进行调查研究，为市委制定、修改、补充、完善地方政策措施提出可供决策参考的意见。', '3.完成市委领导同志的重要讲话和市委有关综合性文件、意见、规定等政策性文件的起草工作。', '4.开展典型、专题和综合调查研究，及时反映有关情况和问题；参与市委关注的重点、热点、难点问题的调查研究，提出解决问题的对策和建议。', '5.组织、协调、指导全市调查研究工作，收集、整理全市改革和发展中的一些综合性、基础性、动态性重要情况和外地信息，为领导及有关部门提供具有参考价值的信息和资料。', '9. 承担市全面小康建设工作领导小组办公室的职能，负责对各区(市、县)的全面小康建设工作进行联络联系、协调指导。', '10. 承担市委全面深化改革领导小组办公室的职能，起草市委全面深化改革领导小组重要文件文稿，承办市委全面深化改革领导小组会议、改革办工作会议，制定阶段性和年度全面深化改革工作要点，统筹协调有关方面提出改革方案和措施，协调督促有关方面落实领导小组的决定事项、工作部署和要求，负责对各专项小组、专题组、市直相关部门，各区(市、县)全面深化改革领导小组及其办公室的联系沟通与工作指导，承担本办同省委改革办及各地各部门改革办的联络协调等工作，完成市委及领导小组交办的其他事项。', '11. 承担市委依法治市工作领导小组办公室职能，履行依法治市办公室的统筹、协调、督察职能，承担市委依法治市工作领导小组的决定、决议和有关指示意见文稿的起草，协调督促全面依法治市重大改革举措的落实，筹办依法治市工作的相关会议。', '中共贵阳市委政策研究室经中共贵阳市委编制委员会批准，有内设科级机构8个，无下级预算单位。从预算单位构成看，中共贵阳市委政策研究室部门决算只包括本级决算。', '三、中共贵阳市委政策研究室2015年度部门决算情况说明 （一）中共贵阳市委政策研究室2015年度收入支出决算总体情况说明 中共贵阳市委政策研究室2015年度收支决算总计811.34万元，与2014年相比，增加217.81万元，增长36.7%。主要原因是： 由于工资调整，在职和离退休人员的应发工资增加，补发调资工资，因工资变动引起公积金、社保缴存数增加等使得人员经费增加;因工作安排有新增项目经费；因科目调账使其他收入支出纳入部门年度收入支出统一核算增加了年度收支总数。 （二）中共贵阳市委政策研究室2015年度收入决算情况说明', '中共贵阳市委政策研究室2015年度财政拨款收支决算总计676.05万元。与2014年相比，增加82.52万元，增长13.9%。主要原因是：由于工资调整，在职和离退休人员的应发工资增加，补发调资工资，因工资变动引起公积金、社保缴存数增加等使得人员经费增加，因工作安排有新增项目经费。', '中共贵阳市委政策研究室2015年度一般公共预算财政拨款支出676.05万元，占本年支出合计的96.12%。与2014年相比，一般公共预算财政拨款支出增加82.52万元，增长13.9%。主要原因是：由于工资调整，在职和离退休人员的应发工资增加，补发调资工资，因工资变动引起公积金、社保缴存数增加等使得人员经费增加；因工作安排有新增项目经费。', '中共贵阳市委政策研究室2015年度一般公共预算财政拨款支出当年预算为677.52万元，支出决算为676.05万元，完成当年预算的99.79%。决算数小于预算数的主要原因是：由于工资调整，在职和离退休人员的应发工资增加，补发调资工资，因工资变动引起公积金、社保缴存数增加等使得人员经费增加。同时，由于部分项目经费减少用款计划，两项支出综合，使得本年预决算数有微小差距。其中：', '（1）一般公共服务支出（类）其他共产党事务支出（款）行政运行（项）：当年预算为404.52 万元，支出决算为436.63万元，完成当年预算的107.94%。决算数大于预算数的主要原因是：由于工资调整，在职和离退休人员的应发工资增加，补发调资工资，因工资变动引起公积金、社保缴存数增加等使得人员经费增加。', '（2）一般公共服务支出（类）其他共产党事务支出（款）一般行政管理事务（项）：当年预算为273万元，支出决算为239.42 万元，完成当年预算的87.70 %。决算数小于预算数的主要原因是：部分项目经费减少用款计划。', '中共贵阳市委政策研究室2015年度一般公共预算财政拨款基本支出436.63万元，其中：人员经费407.81万元，主要包括基本工资、津贴补贴、离退休费等；公用经费28.83万元，主要包括办公费、差旅费等。', '（七）中共贵阳市委政策研究室2015年度一般公共预算财政拨款“三公”经费支出决算情况说明', '（1）因公出国（境）费支出0万元。中共贵阳市委政策研究室全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '（2）公务用车购置及运行维护费9.96万元。其中，公务用车购置0万元，公务用车运行维护费9.96万元。主要用于日常公务用车、外出调研和接待用车等。2015年，单位开支财政拨款的公务用车保有量为5辆。', '（3）公务接待费4.69万元。具体是：主要用于支付接待考察人员用餐。国内公务接待支出4.69万元，主要是外来学习考察我市大数据、生态文明建设、改革等方面经验兄弟城市较多，接待任务较重。中共贵阳市委政策研究室2015年国内公务接待24批次，160人次。', '中共贵阳市委政策研究室2015年政府性基金预算财政拨款本年收入0万元，本年支出0万元。', '2015年中共贵阳市委政策研究室政府采购支出总额71.5万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出71.5万元，授予中小企业合同金额71.5万元，占政府采购支出总额的100%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '截至2015年12月31日，中共贵阳市委政策研究室共有车辆5辆，其中，一般公务用车5辆、一般执法执勤用车0辆、特种专业技术用车0辆、其他用车0辆；单位价值200万元以上大型设备0台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七） 用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）一般公共服务支出（类）其他共产党事务支出（款）行政运行（项）：指中共贵阳市委政策研究室的基本支出。', '（十八）一般公共服务支出（类）其他共产党事务支出（款）一般行政管理事务（项）：指中共贵阳市委政策研究室未单独设置项级科目的其他项目支出。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>245</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>中共贵阳市委政法委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2017-08-09</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsgyszfwyh/201901/t20190123_32860183.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['2、准确了解掌握全市政法工作情况，研究制定全市政法工作的政策、措施，对一定时期内政法工作作出全局性的部署，并督促贯彻落实。', '3、定期分析全市社会治安形势，组织开展“严打”斗争和专项治理；组织、协调、指导维护全市社会稳定工作，承担市维护社会稳定领导小组和市委处理“法轮功”和对社会有危害气功组织领导小组的日常工作；组织、协调、指导全市的禁毒工作，承担市禁毒委的日常工作。', '4、定期不定期地检查政法各部门执行法律、法规和党的方针、政策的情况，结合实际，研究制定严肃执法和落实党的方针、政策的具体措施，严肃党纪、政纪和法纪，督促查处政法机关违法违纪案件和人员。', '5、支持和督促政法各部门依法行使职权；指导和协调政法各部门在依法相互制约的同时，密切配合，督促推动大案要案的查处工作，研究、协调有争议的重大、疑难案件。推动司法体制改革,促进司法诚信体系的建设和完善。', '6、组织指导全市社会治安综合治理工作，研究制定社会治安综合治理法规、规章和需要采取的重大措施，并督促检查落实，组织开展社会治安综合治理的理论研究和宣传工作，推动各有关部门参与社会治安综合治理，表彰见义勇为和专群结合、群防群治先进集体及先进个人，激发广大群众同犯罪分子和自然灾害作斗争的积极性。', '7、组织推动政法战线的调研工作，分析新情况，总结新经验，解决新问题，不断探索政法工作的新路子、新方法，使政法工作适应社会发展的新形势和新要求。', '8、分析研判全市社会稳定状况，统一指挥调度各方力量，全力维护社会稳定。开展政法干部培训工作，提高全市政法干部、理论和业务能力。', '9、根据全市经济和社会发展的总体要求及治安形势，研究制定全市流动人口服务管理工作规划和方案，促进其规范化、法制化建设。', '10、研究制定加强政法干部队伍建设和领导班子建设的具体措施，协助党委及其组织部门考察管理好政法各部门的领导班子和干部队伍，加强政治思想工作和干部业务培训，加强党风廉政建设，全面提高政法队伍素质。', '贵阳市委政法委内设10个处室并与贵阳市禁毒办、贵阳市综合治理办公室等六个专办合署办公，下属单位3个。从预算单位构成看，贵阳市委政法委部门决算包括：本级决算及下属贵阳市法制教育培训中心、贵阳市政法干部培训中心、贵阳市流动人口服务管理领导小组办公室三个单位的决算。', '三、中共贵阳市委政法委员会2016年度部门决算情况说明 （一）中共贵阳市委政法委员会2016年度收入支出决算总体情况说明', '（七）中共贵阳市委政法委员会2016年度一般公共预算财政拨款“三公”经费支出决算情况说明', '（2）公务用车购置及运行维护费27.12万元,无公务用车购置费，公务用车运行维护费27.12万元。主要用于应急处突、公务、机要通讯等车辆购油、维修等。2016年，单位开支财政拨款的公务用车保有量为5辆。', '国内公务接待支出11.31万元，主要是省外政法部门来筑学习考察团队人员按标准接待就餐等。中共贵阳市委政法委员会和下属单位2016年国内公务接待139批次，1131人次。', '2016年中共贵阳市委政法委员会政府采购支出总额506.73万元，无政府采购货物支出、无政府采购工程支出、无政府采购服务支出，授予中小企业合同金额506.73万元，占政府采购支出总额的100%，无授予小微企业合同金额。', '贵阳市委政法委员会2016年度项目经费预算26项超300万项目有3项，都在年度预算时按规定对项目资金录入至少15个相关绩效评价指标，在后期开展绩效评价工作。我委综合治理工作在全省测评工作中获得第一名；禁毒管理工作得到了中央和省相关部门的肯定，成为了全国的贵阳模式；大数据建设也得到了上级相关部门的认可，成为兄弟省市学习的典范。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>245</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>贵阳市初中学生综合素质评价实施方案</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2019-11-28</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/jy_5617891/jcjy/202001/t20200107_41670918.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['根据《贵州省教育厅关于进一步推进高中阶段学校考试招生制度改革的实施意见》《贵阳市高中阶段学校考试招生制度综合改革试点工作实施意见》，按照教育综合改革的新任务、新要求，市教育局将对全市初中学生组织开展综合素质评价，具体实施方案如下。', '以习近平新时代中国特色社会主义思想和党的十九大精神为指导，坚持立德树人，遵循学生身心发展成长规律和教育规律，对学生在初中阶段德智体美劳各方面的发展情况进行全员、全方位、全过程综合衡量，为评价学校育人质量和学生发展情况提供依据，并运用到学生毕业和升学当中，以推进教育改革，深化中小学素质教育，引导社会、家庭树立正确的育人观，促进学生健康成长。', '（一）发展性原则。坚持用发展的视角评价学生，关注学生的发展现状及未来发展趋势，通过评价使学生明确自己努力奋斗的方向。', '（二）过程性原则。不搞“一考定终身”，关注学生平时表现，对学生在初中阶段的学习、生活、实践劳动等成长情况进行评价。', '（三）激励性原则。评价总体实行对正面行为积分的计分方式，通过正面引导，鼓励学生勇于进取，不断完善自我、发展自我，树立自信心，引导学生实现自我认识和自我教育。', '（四）自主性原则。兼顾城乡学校、公民办学校特点，尊重学校办学自主权，鼓励学校凸显地域和民族文化特色，自主完善评价记录要点和操作细则，形成本地（校）的学生综合素质评价指标体系。', '贵阳市初中学生综合素质评价包括思想道德、学业水平、身心健康、艺术素养、社会实践、特长发展等六个方面。', '1.思想道德。主要考察学生道德品质和公民素养两个方面；重点记录学生热爱中国共产党、热爱祖国、思想进步、品德发展、行为规范、诚信教育、生态文明教育和志愿服务等八个层面的情况。', '2.学业水平。主要考察学生学习表现和知识技能两个方面；重点记录学生学习习惯与学科水平两个层面的情况。', '3.身心健康。主要考察学生体质健康、运动技能、交往合作、健康生活方式等四个方面；重点记录学生在体质健康、阳光锻炼、良好人际交往、健康生活习惯等四个层面的情况。', '4.艺术素养。主要考察学生在艺术素养培养中形成的审美能力和艺术技能两个方面；重点记录参与各级各类艺术活动、掌握艺术技艺这两个层面的情况。', '5.社会实践。主要考察学生劳动能力、实践能力和创新能力三个方面，重点记录学生在劳动、实践、探究等层面的情况。', '学生就读期间，根据学校各学期、学年发布的评价内容，针对不同指标，分别实行计次（数）得分、积分制得分、主观得分、直接得分等计分方式，满分为150分。学生毕业时，汇总初中阶段（不含初三下学期）全部指标评价结果，对应不同评价需求分类运用。', '综合素质评价由学校、班级具体组织实施，学校成立综合素质评定工作委员会，制定具体实施细则，并向家长公示，公示期满报主管教育部门审定通过后，组织教师、家长、学生签订《承诺书》（附件3），安排班级建立评定工作小组，依托市教育局建立的学生数据统一管理系统——贵阳市初中生综合素质教育评价平台进行相关记录和评价。', '学校综合素质评定工作委员会由校主要领导牵头组织，召集分管领导、相关处室主要负责人、教师、部分家长代表等组成，有条件的学校可召集学生代表、社会实践基地等资源单位共同参与。委员会具体负责学校评价工作的统筹实施，研究制定本校学生综合素质评定的工作方案和操作实施细则，细化分值，明确实证材料汇总、录入等具体流程的规范，开展公示、报审、解读说明、核查实证材料、接受及办理投诉举报等工作。', '班级综合素质评定工作小组由班主任牵头组织，召集科任教师和家长、学生干部代表组成，人数5或7人（必须有音体美教师之一参加），经公示后确定。评定小组成员担任本班级学生授课的时间一般不能少于1学期。工作小组负责本班级评定工作，在规定时间内组织完成学生实证材料和班主任评语录入，形成各学期《贵阳市初中生综合素质评价报告单》，并及时公示。', '（一）2019年6月30日前，各区（市、县）教育局制定完成工作方案，指导区域内各学校制定完成学校评定工作方案,并对家长进行公示，审核汇总后报市教育局备案；组织完成学校、家长培训，各区（市、县）学校具体评定工作方案从2019年6月起在2018级学生中开始试行。', '自2019年起，每年9月30日前，学校完成汇总录入初中学生第二学期综合素质评价实证材料，形成《贵阳市初中生综合素质评价报告单》，逐步滚动至八年级。', '（三）自2020年起，每年3月30日前，学校完成汇总录入初中学生第一学期综合素质评价实证材料，形成《贵阳市初中生综合素质评价报告单》，逐步滚动至九年级。', '（四）自2021年起，每年4月30日前，学校汇总整理当年初中毕业学生的综合素质评价成绩和实证材料，形成《贵阳市初中生综合素质评价报告册》。评价结果在当年初中生毕业和升学中运用。', '（一）加强组织领导。市县两级教育部门要成立综合素质评价改革工作领导小组。市工作领导小组由市教育局分管领导及相关部门和各区（市、县）教育局主要负责人组成（附件1），负责工作整体规划，研究制定评价指标框架，开展政策研究、组织业务培训等工作。各区（市、县）工作领导小组成员由教育局主要负责人牵头，召集分管领导、相关部门、初中学校、资源单位主要负责人组成。负责制定区域内工作方案，指导并审核辖区学校评定工作方案，开展相关研究、管理、培训及投诉举报事项的处理等工作。', '（二）拓展教育资源。为保障学生全面而有个性发展需求，区（市、县）教育局和学校要加快区域内综合社会实践基地、专项社会实践基地、研学基地等建设工作，丰富育人资源，开展特色教育活动，为学生成长提供平台。', '（三）加强宣传引导。各区（市、县）教育局要做好本《实施方案》的宣传、学习与落实，组织开展政策解读和专题培训，加强分层分类指导和管理监督，组织开展必要的舆论宣传引导工作，保障学校评定工作方案的顺利实施。', '（四）加强督查问责。各级教育督导部门要将初中学生综合素质评价工作作为对区（市、县）和学校办学水平视导评估的重要内容，建全监督机制，畅通监督渠道，加大督查力度，每年抽查初中学校比例不低于50%；对评价过程中出现违规、违背诚信的有关责任人应及时启动问责机制，严肃处理。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>245</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>年民盟贵阳市委员会预算及三公经费预算公开说明</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2017-06-15</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszgmztmgyswyh/201901/t20190123_32859449.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['1、在中共贵阳市委的领导下，履行参政议政的职能。包括：参加我市的管理；参加政协组织，按政协章程开展工作；参与我市重要的人事协商；参与我市重大决策的协商；参与民主监督。', '2、对我市经济发展、社会进步、民主法制建设以及社会主义精神文明建设开展调查研究，为中共贵阳市委决策提供参考意见和建议。', '3、在中共贵阳市委领导下，高举邓小平建设有中国特色社会主义理论伟大旗帜，组织盟员学习贯彻党的路线、方针、政策和党的统战理论，维护安定团结的政治局面，积极投身于两个文明建设，鼓励盟员为富民兴筑作贡献。', '2017年项目支出预算34万元，用于以下方面：主委专项经费5万元；调研经费4万元；业务工作经费18万元；基层社员活动经费7万元。', '1、公务接待费支出预算1万元。具体支出内容：接待来本单位出席会议、考察调研、学习交流、检查指导等进行公务活动的人员按规定开支的交通、用餐、住宿等。2017年公务接待费预算支出较2016年公务接待费预算支出无增减。', '2、公务用车运行维护费支出预算 2.12万元。具体支出内容：公务用车的日常使用燃油费、保险费、保养及维修费用。2017年公务用车运行维护费较2016年预算调整减少0.18万元，主要由于按照国家规定压缩8%，我单位仅保留 1 辆通讯应急用车。', '3、因公出国（境）费、公务用车购置费均实行总额控制，年初未分配，年度间根据实际情况按照程序审批后据实列支。', '（2）国有资产占有使用情况：民盟贵阳市委员会机关及其所属预算单位共有车辆1辆，其中，一般公务用车 1辆。单位价值200 万元以上大型设备没有。', '②一般公共服务支出（类）民主党派及工商联事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '③一般公共服务支出（类）民主党派及工商联事务（款）参政议政（项）：反映各民主党派为参政议政进行的调研、会议、检查等方面的支出。', '④住房保障支出(类)住房改革支出(款)住房公积金(项)：指按照《住房公积金管理条例》的规定，由单位为职工缴纳的住房公积金。', '⑦“三公”经费：纳入财政预决算管理的“三公”经费是指用财政拨款安排的因公出国(境)费、公务用车购置及运行维护费和公务接待费。其中，因公出国(境)费反映单位因公出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行维护费反映单位公务用车购置费及租用费、燃料费、过路过桥费、保险费、安全奖励费等支出;公务接待费指单位按规定开支的各类公务接待(含外宾接待)支出。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>245</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>年民进贵阳市委员会预算及三公经费预算公开说明</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2017-06-15</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszgmzcjhgyswyh/201901/t20190123_32859577.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['1、在中共贵阳市委的领导下，履行参政议政的职能。包括：参加我市的管理；参加政协组织，按政协章程开展工作；参与我市重要的人事协商；参与我市重大决策的协商；参与民主监督。', '2、对我市经济发展、社会进步、民主法制建设以及社会主义精神文明建设开展调查研究，为中共贵阳市委决策提供参考意见和建议。', '3、在中共贵阳市委领导下，高举邓小平建设有中国特色社会主义理论伟大旗帜，组织会员学习贯彻党的路线、方针、政策和党的统战理论，维护安定团结的政治局面，积极投身于两个文明建设，鼓励会员为富民兴筑作贡献。', '1、公务接待费支出预算3万元；与上年持平。具体支出内容：接待来本单位出席会议、考察调研、学习交流、检查指导等进行公务活动的人员按规定开支的交通、用餐、住宿等。', '2、公务用车运行维护费支出预算 2.12万元。具体支出内容：公务用车的日常使用燃油费、保险费、保养及维修费用。2017年公务用车运行维护费较2016年预算调整减少0.18万元，主要由于按照国家规定压缩8%，我单位仅保留 1 辆通讯应急用车。', '3、因公出国（境）费、公务用车购置费均实行总额控制，年初未分配，年度间根据实际情况按照程序审批后据实列支。', '（3）国有资产占有使用情况：民进贵阳市委员会机关及其所属预算单位共有车辆1辆，其中，一般公务用车 1辆。单位价值200 万元以上大型设备没有。', '②一般公共服务支出（类）民主党派及工商联事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '③一般公共服务支出（类）民主党派及工商联事务（款）参政议政（项）：反映各民主党派为参政议政进行的调研、会议、检查等方面的支出。', '④住房保障支出(类)住房改革支出(款)住房公积金(项)：指按照《住房公积金管理条例》的规定，由单位为职工缴纳的住房公积金。', '⑦“三公”经费：纳入财政预决算管理的“三公”经费是指用财政拨款安排的因公出国(境)费、公务用车购置及运行维护费和公务接待费。其中，因公出国(境)费反映单位因公出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行维护费反映单位公务用车购置费及租用费、燃料费、过路过桥费、保险费、安全奖励费等支出;公务接待费指单位按规定开支的各类公务接待(含外宾接待)支出。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>245</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>九三学社贵阳市委年部门预算及三公经费预算信息</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2016-05-10</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsjsxsgyswyh/201901/t20190123_32859625.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['1、在中共贵阳市委的领导下，履行参政议政的职能。包括：参加我市的管理；参加政协组织，按政协章程开展工作；参与我市重要的人事协商；参与我市重大决策的协商；参与民主监督。', '2、对我市经济发展、社会进步、民主法制建设以及社会主义精神文明建设开展调查研究，为中共贵阳市委决策提供参考意见和建议。', '3、在中共贵阳市委领导下，高举邓小平建设有中国特色社会主义理论伟大旗帜，组织会员学习贯彻党的路线、方针、政策和党的统战理论，维护安定团结的政治局面，积极投身于两个文明建设，鼓励会员为富民兴筑作贡献。', '1、公务接待费支出预算1万元。具体支出内容：接待来本单位出席会议、考察调研、学习交流、检查指导等进行公务活动的人员按规定开支的交通、用餐、住宿等。', '2、公务用车运行维护费支出预算2.3万元。具体支出内容：公务用车的日常使用燃油费、保险费、保养及维修费用。2016年公务用车运行维护费较2015年预算调整减少6.9万元，主要由于当前我市实行了公务用车改革，我单位按照要求已将在编的4辆公务用车上交了3辆，仅保留1辆通讯应急用车。', '3、因公出国（境）费、公务用车购置费由我市实行统筹管理、总额控制，2016年我单位无预算。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>245</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>年九三学社贵阳市委员会预算及三公经费预算公开说明</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2017-06-14</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjsjsxsgyswyh/201901/t20190123_32859609.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['1、在中共贵阳市委的领导下，参政议政、民主监督，参加中国共产党领导的政治协商。包括：参加我市的管理；进行民主监督，参加政协组织，按政协章程开展工作；参与我市重要的人事、决策的协商。', '2、对我市经济建设、政治建设、文化建设、社会建设、生态文明建设开展调查研究，为中共贵阳市委、市政府决策提供参考意见和建议。', '3、紧密团结在以习近平同志为核心的党中央周围，在中共贵阳市委和九三学社贵州省委的领导下，紧紧围绕我市“一个目标、三个建设”的宏伟目标，努力开拓创新，大力弘扬爱国、民主、科学的优良传统，切实加强自身建设，增强政治意识、大局意识、看齐意识，不忘初心，携手前进，为打造创新型中心城市作出新的贡献。', '2017年项目支出预算 31万元，用于以下方面：主委专项经费5万元；调研经费4万元；业务工作经费18万元；基层社员活动经费5万元。', '1、公务接待费支出预算3万元。具体支出内容：接待来本单位出席会议、考察调研、学习交流等进行公务活动的人员按规定开支的交通、工作餐、住宿等。与2016年持平。', '2、公务用车运行维护费支出预算 2.12万元。具体支出内容：公务用车的日常使用燃油费、保险费、保养及维修费用。2017年公务用车运行维护费较2016年预算调整减少0.18万元，减少7.83%。主要由于按照国家规定压缩8%，我单位仅保留 1 辆通讯应急用车。', '3、因公出国（境）费、公务用车购置费均实行总额控制，年初未分配，年度间根据实际情况按照程序审批后据实列支。', '（2）国有资产占有使用情况：九三学社贵阳市委员会机关及其所属预算单位共有车辆1辆，其中，通讯应急用车 1辆。单位价值200 万元以上大型设备没有。', '②一般公共服务支出（类）民主党派及工商联事务（款）行政运行（项）：反映行政单位（包括实行公务员管理的事业单位）的基本支出。', '③一般公共服务支出（类）民主党派及工商联事务（款）参政议政（项）：反映各民主党派为参政议政进行的调研、会议、检查等方面的支出。', '④住房保障支出(类)住房改革支出(款)住房公积金(项)：指按照《住房公积金管理条例》的规定，由单位为职工缴纳的住房公积金。', '⑦“三公”经费：纳入财政预决算管理的“三公”经费是指用财政拨款安排的因公出国(境)费、公务用车购置及运行维护费和公务接待费。其中，因公出国(境)费反映单位因公出国(境)的住宿费、旅费、伙食补助费、杂费、培训费等支出;公务用车购置及运行维护费反映单位公务用车购置费及租用费、燃料费、过路过桥费、保险费、安全奖励费等支出;公务接待费指单位按规定开支的各类公务接待(含外宾接待)支出。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>245</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>民进贵阳市委年部门预算及三公经费预算信息</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2016-04-20</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszgmzcjhgyswyh/201901/t20190123_32859592.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['(一）部门主要职能: 1、在中共贵阳市委的领导下，履行参政议政的职能。包括：参加我市的管理；参加政协组织，按政协章程开展工作；参与我市重要的人事协商；参与我市重大决策的协商；参与民主监督。 2、对我市经济发展、社会进步、民主法制建设以及社会主义精神文明建设开展调查研究，为中共贵阳市委决策提供参考意见和建议。 3、在中共贵阳市委领导下，高举邓小平建设有中国特色社会主义理论伟大旗帜，组织会员学习贯彻党的路线、方针、政策和党的统战理论，维护安定团结的政治局面，积极投身于两个文明建设，鼓励会员为富民兴筑作贡献。 4、开展联谊活动，为祖国的和平统一大业作贡献。 （二）部门预算单位构成 民进贵阳市委为行政单位，经费由财政全额拨付。 （三）部门人员构成 现在职 6人（其中：行政编制 5人，工勤编制 1人），退休 5 人。 二、部门预算安排情况说明 （一）收支预算说明 2016年收入预算 173.29万元，全部为公共财政预算拨款收入。2016年支出预算173.29万元，其中：基本支出127.64 万元、公用经费 17.18 万元、项目支出28.47 万元。 （二）项目支出安排情况说明 2016年项目支出预算 28.47万元，用于以下方面：主委专项经费5万元；调研经费4万元；业务工作经费13.47万元；基层党员活动经费6万元。 （三）部门预算中“三公”经费情况说明 1、公务接待费支出预算1万元。具体支出内容：接待来本单位出席会议、考察调研、学习交流、检查指导等进行公务活动的人员按规定开支的交通、用餐、住宿等。 2、公务用车运行维护费支出预算 2.3 万元。具体支出内容：公务用车的日常使用燃油费、保险费、保养及维修费用。2016年公务用车运行维护费较2015年预算调整减少6.9万元，主要由于当前我市实行了公务用车改革，我单位按照要求已将在编的 4 辆公务用车上交了 3 辆，仅保留 1 辆通讯应急用车。 3、因公出国（境）费、公务用车购置费由我市实行统筹管理、总额控制，2016年我单位无预算。 附件：民进贵阳市委2016年部门预算公开表']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>245</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>民盟贵阳市委年部门预算及三公经费预算信息及填报口径说明</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2016-04-27</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszgmztmgyswyh/201901/t20190123_32859468.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['民盟贵阳市委2016年部门预算及“三公”经费预算信息及填报口径说明 - 贵阳市人民政府', '1、在中共贵阳市委的领导下，履行参政议政的职能。包括：参加我市的管理；参加政协组织，按政协章程开展工作；参与我市重要的人事协商；参与我市重大决策的协商；参与民主监督。', '2、对我市经济发展、社会进步、民主法制建设以及社会主义精神文明建设开展调查研究，为中共贵阳市委决策提供参考意见和建议。', '3、在中共贵阳市委领导下，高举邓小平建设有中国特色社会主义理论伟大旗帜，组织盟员学习贯彻党的路线、方针、政策和党的统战理论，维护安定团结的政治局面，积极投身于两个文明建设，鼓励盟员为富民兴筑作贡献。', '1、公务接待费支出预算1万元。具体支出内容：接待来本单位出席会议、考察调研、学习交流、检查指导等进行公务活动的人员按规定开支的交通、用餐、住宿等。', '2、公务用车运行维护费支出预算 2.3 万元。具体支出内容：公务用车的日常使用燃油费、保险费、保养及维修费用。2016年公务用车运行维护费较2015年预算调整减少6.9万元，主要由于当前我市实行了公务用车改革，我单位按照要求已将在编的 4 辆公务用车上交了 3 辆，仅保留 1 辆通讯应急用车。', '3、因公出国（境）费、公务用车购置费由我市实行统筹管理、总额控制，2016年我单位无预算。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>245</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>白云区多举措推进科技学习发展</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202304/t20230412_79010416.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['为推进科技学习发展，白云区组织区政府办、区教培中心、区文旅局、区城发集团、区旅投公司及白云区各大中小学近百名老师前往坝陵河贵州桥梁科技馆开展“国之重器”考察活动，深入感知贵州桥梁建设所取得的恢宏成就，学习宣传桥梁大国工匠精神。', '组织实地学习。考察组参观了以桥梁科技馆为主题的坝陵河贵州桥梁科技馆，详细了解贵州桥梁历史、建设成就及桥梁精神。并登上坝陵河大桥，深入了解世界首座山区峡谷千米级跨径桥梁，详细了解科技馆开发设计的以桥梁为主题的“STEAM研学课程”，聆听原高速公路集团总工程师、贵州大学教授梅世龙带来的“世界桥梁看中国，中国桥梁看贵州”主题讲座。', '坝陵河大桥作为国内少有的可进入桥体内部开展旅游观光的超级工程大桥，是世界首座山区跨峡谷千米级跨径桥梁，建成时是“国内第一，世界第六”的钢桁梁悬索桥，曾荣获中国建筑行业工程质量最高荣誉奖——中国建设工程鲁班奖（国家优质工程奖）。坝陵河贵州桥梁科技馆始建于2015年，2019年正式全面对外开放，展陈面积6350㎡，被授予“全国科普教育基地”“贵州省爱国主义教育基地”“贵州省科普教育基地”“全国公路科普教育基地”等称号。', '签订战略合作。白云区与贵州高速投资集团签订战略合作协议，把科学普及放在与科技创新同等重要的位置，切实在“双减”中做好科学教育，加强中小学科普和科学精神的培育，在深入宣传贵州桥梁建设所取得的恢宏成就，宣传桥梁大国工匠精神，彰显社会主义核心价值观的同时，努力将科学家精神融入教学工作当中，引导全区广大青少年学生树立崇尚科学、勇于创新的精神。双方就研学教育、科普宣传、社会实践等方面开展协同育人长效机制，此次考察组到坝陵河贵州桥梁科技馆开展“国之重器”考察活动，也是为了更好的推动战略合作协议的落实。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>245</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习省近期会议精神</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202309/t20230929_82544011.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['9月28日，市委常委会召开会议，传达学习贯彻省近期会议精神，徐麟书记、李炳军省长在贵阳调研时的讲话精神，安排部署国庆期间安全稳定工作，调度巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作。省委常委、市委书记胡忠雄主持并讲话。', '市人大常委会主任聂雪松，市政协主席石邦林，市委副书记滕伟华，市委常委，市人大常委会、市政府、市政协、贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议强调，要坚持统筹发展和安全“两件大事”，以“时时放心不下”的责任感，时刻绷紧安全稳定这根弦，防范化解重大风险，筑牢安全发展底线，切实维护政治安全、经济安全、生产安全、生命安全、公共安全。要做到思想紧而又紧，始终坚持人民至上、生命至上，牢固树立安全发展理念，时刻保持如临深渊、如履薄冰、如坐针毡的责任感紧迫感。要做到工作细而又细，对标对表党中央、国务院决策部署和省委、省政府工作安排，抓好安全生产、信访维稳、值班值守、市场保供、市场秩序等重点工作，确保人民群众度过一个安全祥和的假期。要做到责任实而又实，严格落实“党政同责、一岗双责、齐抓共管、失职追责”，层层压实责任、层层传导压力，坚决做到守土有责、守土负责、守土尽责。', '会议强调，要贯彻落实好徐麟书记、李炳军省长在贵阳调研时的讲话精神和省近期会议精神，全力服务和融入国家战略，找准定位、把准政策、精准发力，努力把比较优势转化为竞争优势、发展胜势。要全力做好学习考察“后半篇文章”，深刻认识深化滇黔合作的重要意义，把学到的好理念、好经验转化为发展的好思路、好招法，把合作协议转化为新项目、好项目、大项目，不断深化与昆明市、滇中新区的合作，努力实现互利共赢、共同发展。要全力抓好“城市大脑”建设，深化“一网总览、一网统管、一网通办、一网共享”，建设好、使用好、运维好“城市大脑”，以智慧城市建设提升城市治理现代化水平，努力为全省创造经验、作出示范。要全力推动经济平稳运行，突出问题导向，强化分析研判，狠抓工业产业、有效投资和项目建设，确保完成全年目标任务。要全力支持民营经济做大做强，推进一个领导小组、一个平台、一个机制、一个品牌、一个测评“五个一”行动，为民营经济高质量发展提供有力保障。要全力做好巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作，坚决守牢不发生规模性返贫底线，全力推进突出问题整改，动真碰硬追责问责，加快推动工作有力提升。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>245</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>毕节市党政代表团来筑考察交流</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2022-03-11</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202203/t20220311_72932008.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['3月9日至10日，毕节市党政代表团来筑考察交流。3月10日下午，两市领导在筑举行座谈，并共同见证双方签署有关合作协议。省委常委、毕节市委书记吴强，省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄，毕节市委副书记、市长吴东来，贵阳市委副书记、市长、贵安新区党工委副书记、管委会主任马宁宇，毕节市人大常委会主任张翊皓，毕节市政协主席杨宏远，贵阳市政协主席石邦林参加。', '毕节市领导周仕飞、陈宗俊、杨得志、梁铮、万艳、胡海，贵阳市、贵安新区领导陶平生、刘本立、刘俊、黄成虹、刘岚、冉斌参加有关活动。', '吴强代表毕节对贵阳市长期以来给予的大力支持和无私帮助表示衷心感谢。他说，近年来，贵阳市深入实施“强省会”战略，产业发展方兴未艾，城镇建设如火如荼，民生事业成色满满，干部群众干劲十足，通过学习考察，深切感受到贵阳市委、市政府在贯彻落实中央和省委决策部署中忠诚履职、勇挑重任的大担当，在推动贵阳市经济社会高质量发展中系统谋划、全面布局的大手笔，在围绕“四新”主攻“四化”中前瞻思考、抢占先机的大魄力，在推动民生事业发展中坚守初心、一心为民的大情怀，对我们是一次在思想、战略、措施、能力、作风上的全方位大示范。贵阳是全省的“首善之区”，是连接丝绸之路经济带和21世纪海上丝绸之路的重要门户；毕节是川、滇、黔之锁钥，西南地区区域性重要综合交通枢纽，两市开展深度合作意义十分重大、空间十分广阔。希望双方切实加强全方位协同，持续深化全领域合作，齐心协力推动区域一体化发展取得新的更大进展。我们将倍加珍惜两市合作机遇，坚持专班化、项目化、责任化抓落实，把已有的合作成果巩固好，把已签订的合作协议落实好，把当前正在做的事情推进好，把常态长效的合作机制建设好，让两市人民更早更多享受合作发展成果，为开创百姓富、生态美的多彩贵州新未来贡献两市力量。', '胡忠雄代表贵阳市、贵安新区对毕节市党政代表团一行的到来表示欢迎，对毕节给予贵阳贵安的支持表示感谢，对毕节经济社会发展所取得的成就表示祝贺。他说，毕节是一座光荣之城、红色之城、美丽之城、发展之城。近年来，毕节坚定沿着习近平总书记指引的方向奋勇前进，坚决打赢脱贫攻坚战，努力建设贯彻新发展理念示范区，经济社会保持了又好又快发展，很多好经验、好做法值得贵阳贵安认真学习借鉴。当前，贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，抢抓新国发2号文件的重大机遇，按照“四主四市”工作思路，聚焦“一个高于，五个走前列、作表率”奋斗目标，紧盯“八个强”重点工作和“五个方面”党建工作抓落实，奋力谱写新时代“强省会”新篇章。贵阳贵安与毕节地缘相近、经济相融、人文相亲，经济联系越来越紧密、交通设施越来越便利、合作空间越来越广阔，两地加快推进一体化发展其时已至、其势已成。本次毕节党政代表团的到来是一次情感之旅、交流之旅、合作之旅，希望双方持续深化交流合作，心往一处想、智往一处谋、劲往一处使，共担使命、共商规划、共谋产业、共享设施、共护生态、共建平台，携手推动黔中城市群建设，共同打造全省高质量发展的重要支撑。', '座谈期间，在吴强、胡忠雄、吴东来、马宁宇的共同见证下，双方签订了合作框架协议和相关合作项目协议，两市有关区、市签订了合作协议。', '在筑期间，毕节市党政代表团先后考察了贵州轮胎股份有限公司、贵阳农产品物流园、贵州黔兆光电科技有限公司、贵州同创新材料技术有限公司、贵州中晟泰科智能技术有限公司、贵阳弗迪电池有限公司、恒力（贵阳）产业园项目、贵阳大数据科创城、宁德时代贵州新能源动力及储能电池生产制造基地项目、华为七星湖数据储存中心、青云路改造项目、轨道交通3号线项目、贵阳朗玛信息技术股份有限公司。', '毕节市、贵阳市有关区（市、县、开发区）负责人，毕节市、贵阳市、贵安新区有关部门和企业负责人参加。', '贵阳贵安“筑人才·强省会”2022届在黔高校毕业生就业创业行动贵州医科大学招引活动线下招聘会举行']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>245</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习省有关会议精神调度全市精神文明建设和法治建设工作</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202304/t20230414_79048824.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习省有关会议精神 调度全市精神文明建设和法治建设工作 - 贵阳市人民政府', '市委常委会和贵安新区党工委召开会议 传达学习省有关会议精神 调度全市精神文明建设和法治建设工作', '4月13日，市委常委会和贵安新区党工委召开会议，传达学习近期省委常委会会议精神、全省学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议精神，省委书记徐麟、省长李炳军在贵阳市调研时的讲话精神，调度全市精神文明建设和法治建设工作。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇讲话，市人大常委会主任聂雪松，市政协主席石邦林，市委常委，市人大常委会、市政府、市政协、贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议强调，要奋力抢抓东西部协作重大机遇，积极落实省党政代表团到广东、广西学习考察合作共识，在推动协作合作事项落实上走前列、作表率，加强与两省区的对接交流，清单化、责任化推动项目落地，突出园区平台载体作用，吸引更多新项目、好项目、大项目在贵阳贵安落地见效。要奋力在实施数字经济战略上抢新机，按照数字经济“一二三四”工作思路，坚定不移推动“数字活市”，主攻“一硬一软”两大产业，狠抓数据“存起来、跑起来、用起来”，打响“一会一所一城一中心”品牌。要奋力开创贵阳贵安乡村振兴工作新局面，突出“五个关键”抓稳产保供，突出“五个一”抓乡村产业，突出“五治”抓乡村建设，突出“五个一”行动抓基层党建，突出“四大经营主体”抓体系建设，突出“四块地”抓农村改革，全面推动贵阳贵安乡村产业振兴、人才振兴、文化振兴、生态振兴、组织振兴。', '会议强调，要全力抓好全国文明城市巩固提升和全国文明典范城市创建工作，强化目标导向、问题导向、责任导向、工作导向、结果导向，紧盯争创全国文明城市“五连冠”目标，年度化、项目化、数字化推进各项任务，加快补齐公共设施、公共服务等方面存在的短板弱项，努力让文明成为贵阳贵安最鲜明的精神底色和城市品格。要全力提升贵阳贵安法治工作能力，坚持以习近平法治思想为指引，扛牢法治建设政治责任，加快补齐短板弱项，狠抓问题整改推进，建立健全长效机制，全面提升依法行政质效，以高质量的法治工作服务保障经济社会高质量发展。', '马宁宇主持召开贵阳市政府贵安新区管委会党组会议 学习贯彻习近平总书记近期重要讲话精神']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>245</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>弘扬传统文化筑强人才根基贵阳市年文化人才非遗类回访调研之清镇篇</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtbmdt/202302/t20230224_78297664.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['弘扬传统文化 筑强人才根基——贵阳市2022年文化人才（非遗类）回访调研之清镇篇 - 贵阳市人民政府', '为贯彻落实文化和旅游部办公厅、财政部办公厅下发的《2021—2022年文化人才服务支持艰苦边远地区和基层一线专项实施方案》《文化和旅游部办公厅 人力资源和社会保障部办公厅 国家乡村振兴局综合司关于持续推动非遗工坊建设助力乡村振兴的通知》等文件要求，全面系统了解和掌握2022年选派的20位文化人才（非遗类）相关情况，2月15日，贵阳市非物质文化遗产保护中心主任张彬带领回访调研队前往清镇市，在胡一雕非遗民族文化展示馆内对胡家文、吴英才、刘吉武、王以4位文化人才（非遗类）进行实地座谈回访调研。', '座谈会上，回访调研组认真听取了文化人才（非遗类）就2022年开展的教育培训活动次数、非遗文创产品设计开发数量、带动就业以及配合参与非遗展示宣传等工作的开展情况，从业务能力、带动非遗传承等进行多角度全方位了解核实。回访中，调研组肯定了清镇市文化人才（非遗类）在非遗保护传承和对外开放工作、文创成果等方面的工作，并对文化人才（非遗类）对贵阳市非遗保护工作的支持表示感谢。', '文化人才（非遗类）作为对外展示非遗魅力的窗口之一在助力乡村振兴、营造非遗保护的良好社会氛围、大力推动非遗助力“爽爽贵阳”城市品牌打造方面发挥重要作用。今后，贵阳市非遗中心将依托全市优质非遗资源，在建立非遗传承基地、传习所、文创工作室等方向持续发力，积极探索非遗旅游路线、非遗研学路线、对外学习考察等有效路径，扎实有效推动非遗系统性保护工作，更好地展现贵阳非遗的独特魅力，助推清镇市文旅融合和文旅经济高质量发展。', '访谈结束后，回访调研组一行来到刘吉武木雕艺术馆参观，现场感受非遗的传统魅力，并听取传承人的优秀作品介绍、展馆建设情况和艺术创作过程，详细了解非遗项目在传承发展中存在的困难，鼓励传承人继续探索让非遗“活起来”的新方向和路径，创造更多社会效益。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>245</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>中共贵阳市委政策研究室年一般公共预算三公经费预算补充说明</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2016-05-24</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszggyswzcyjs/201901/t20190123_32859874.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['中共贵阳市委政策研究室2015年一般公共预算“三公”经费预算补充说明 - 贵阳市人民政府', '中共贵阳市委政策研究室2015年一般公共预算“三公”经费预算为19.5万元，与2014年相比较增加3.3万元，增加20.37%，原因是公务用车运行费增加3.3万元。增加原因：一是现有公务用车使用年限较长，车况较差，维修成本增加；二是根据市委中心工作安排，我室调研任务较重，用车较多；三是外来学习考察我市大数据、生态文明建设、改革、小康等方面先进经验的兄弟城市较多，接待任务较重，车辆使用率高，用油成本增加。', '19.5万元，与2014年相比较增加3.3万元，增加20.37%，原因是公务用车运行费增加3.3万元。增加原因：一是现有公务用车使用年限较长，车况较差，维修成本增加；二是根据市委中心工作安排，我室调研任务较重，用车较多；三是外来学习考察我市大数据、生态文明建设、改革、小康等方面先进经验的兄弟城市较多，接待任务较重，车辆使用率高，用油成本增加。', '因我市本级因公出国(境)费、公务车购置费实行总额控制，年初并未分配到市委政研室，目前这两项经费预算暂无数据。', '(境)费、公务车购置费实行总额控制，年初并未分配到市委政研室，目前这两项经费预算暂无数据。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>245</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>中共贵阳市委政策研究室年公共预算财政拨款三公经费决算补充说明</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2016-05-24</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszggyswzcyjs/201901/t20190123_32859876.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['中共贵阳市委政策研究室2014年公共预算财政拨款“三公”经费决算补充说明 - 贵阳市人民政府', '中共贵阳市委政策研究室2014年公共预算财政拨款“三公”经费决算为13.19万元，与上年比较减少20.81万元，下降比率为61.2%，减少原因是我室本年度未安排公务用车购置计划以及因公出国（境）市级统筹安排计划数减少。', '2014年公共预算财政拨款“三公”经费决算为13.19万元，与上年比较减少20.81万元，下降比率为61.2%，减少原因是我室本年度未安排公务用车购置计划以及因公出国（境）市级统筹安排计划数减少。', '公务用车购置数0 辆，年末公务用车保有量5辆，公务用车购置费为0万元，与上年比较持平。', '国内公务接待17批次，接待人次95人,接待费总额2.67万元，与上年比较增加2.08万元，增长比率为352.54%，增加原因是前来我市学习考察大数据、生态文明城市建设等方面先进经验的考察组较多，增加了接待费的支出。', '17批次，接待人次95人,接待费总额2.67万元，与上年比较增加2.08万元，增长比率为352.54%，增加原因是前来我市学习考察大数据、生态文明城市建设等方面先进经验的考察组较多，增加了接待费的支出。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>245</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>市人民政府办公厅关于印发贵阳市年应急管理工作要点的通知</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2017-03-08</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzfgb/zwgkzfgb2017/201711/t20171115_11366239.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['市人民政府办公厅关于印发贵阳市2017年应急管理工作要点的通知 - 贵阳市人民政府公报', '各区、市、县人民政府，高新开发区、经济技术开发区、贵阳综合保税区、贵州双龙航空港经济区管委会，市政府各工作部门，市各直属事业单位，市管企业：', '《贵阳市2017年应急管理工作要点》已经市人民政府研究同意，现印发你们，请认真贯彻落实。', '2017年是十分重要的一年。党中央将召开第十九次代表大会，省委将召开第十二次代表大会，营造安全稳定的社会环境尤为重要，进一步加强应急管理体系建设任务艰巨，责任重大。2017年贵阳市应急管理工作的总体思路是，认真学习贯彻党的十八届六中全会、省委十一届八次全会、市第十次党代会精神，全面落实市委、市政府关于加强应急管理的有关重要决策部署，坚持“一个主题”即以应急演练为主题，抓住“四个重点”即以“应急平台建设、应急科普宣传、应急培训、基层应急管理规范化建设”为重点，完善“三大机制”即“风险隐患排查机制、信息报送机制、应急联动机制”，强化“三个保障”即组织领导保障、队伍建设保障、应急物资保障，有效提升预防和处置突发事件的能力，推动全市应急管理工作再上新台阶，以优异成绩迎接党的十九大胜利召开。', '（一）大力开展“2017应急演练年”系列主题活动,以应急演练促进“一案三制”和基层应急管理规范化建设，以应急演练推动宣传教育和队伍建设，以应急演练检验应急平台建设成效。', '（二）制定出台“2017应急演练年”系列主题活动方案，突出应急演练的重点，着力抓好反恐防暴、消防安全、校园安全、旅游安全、森林防火、环境污染、建筑安全、特种设备安全等方面的应急演练工作。市公安、消防、教育、旅游、生态、安监、质监等市应急委成员单位至少开展1次以上应急预案演练活动；各区（市、县）政府要组织开展4次以上专项应急预案演练活动；各基层应急管理示范点要组织开展1次以上预案演练活动。', '（三）根据应急演练成果，修改完善应急预案。新编、修编各级各类应急预案，丰富完善全市应急预案体系，实现应急预案的动态优化和科学管理。建立应急预案审批、备案和公布等工作制度，规范应急预案管理。修编《贵阳市总体应急预案》，编制《贵阳市轨道交通运营突发事件应急预案》，汇编贵阳市专项应急预案，建立贵阳市应急预案体系数据库。', '（四）2017年6月30日前完成市级应急平台建设，实现市政府应急平台与省政府应急平台、各区（市、县）政府应急平台的互联互通。12月31日前完成市政府应急平台与21个市级政府部门平台的互联互通，建成上下贯通、左右衔接、互为支撑、各有侧重、有机结合的市级应急平台体系。', '（五）启动应急平台数据库建设，建立基础数据库、空间数据库、事件数据库、预案库、文档库等系统运行数据库，建成“一张图”应急工作系统。', '（六）制定应急平台安全运维规范和应用工作规范，组织2期应急平台功能使用业务培训，组织1次平台应用桌面推演，使应急平台有人管、会使用、起作用，确保应急平台体系安全可靠、运行稳定、应用广泛。', '（七）大力开展应急科普宣教“五进”活动，推进科普宣教进社区、进企业、进学校、进乡村、进机关，提高公众的公共安全意识和自我防护素质，营造关心、关注公共安全的良好社会氛围。', '（八）积极拓展科普宣教渠道，充分发挥传统媒体的作用，在《贵阳日报》、贵阳电视台开辟应急科普知识宣传专栏，在贵阳应急广播（FM102·7）开辟专家访谈、应急热线等专题节目，组织编写中小学及幼儿园公共安全课程教材。创新运用新兴媒体的优势，建立贵阳应急微信公众号，优化贵阳市应急管理网，升级改造贵阳应急科普宣教和预警信息发布系统，推进系统终端设备进医院、进学校等人员密集场所和应急管理重点监控部位，提高系统的覆盖面，全年新增终端设备20000台以上。', '（九）创新应急科普宣教形式，通过知识竞赛、演讲比赛、教学体验、文艺演出等形式多样、喜闻乐见的应急科普宣教活动，借助“安全生产月”“消防日”“防灾减灾日”“食品安全宣传周”等重大活动，组织开展系列应急科普专题宣传活动。', '（十）加强领导干部的应急管理培训。邀请知名专家学者进行专题讲座，在市政府常务会议上进行1次应急管理专题讲座，各区（市、县）政府组织1次主要负责人参加的专题讲座，市应急委成员单位结合自身实际开展1次以上应急专题讲座，提高全市各级各部门领导干部的应急管理意识，促进领导干部的应急能力提升。', '（十一）加强应急专职管理人员的培训。采取参观考察与探讨交流相结合的方式，组织2次赴应急管理先进城市的学习考察活动，借鉴兄弟省市在应急管理工作中的先进经验和典型作法。强化应急专职管理人员的业务能力和素质培训，分级、分类开展应急管理专题业务培训。各区（市、县）政府组织3次以上应急值守、信息报送、基层应急管理规范化建设等方面的应急专题业务培训，市应急委成员单位组织1次以上应急业务能力和应急专业技能提升培训。', '（十二）加强基层应急管理人员的培训。居委会、村委会、企业、学校、医院等基层管理组织和单位每月组织开展以应急管理基础知识、应急先期处置、应急信息报告、自救互救技能为重点的专题培训。', '（十三）组织开展风险隐患大排查专项活动，落实突发事件风险隐患排查登记、分析评估、治理整改、统计汇总工作制度，建立健全风险隐患排查数据库和动态监控体系，从源头预防和减少突发事件的发生。', '（十四）开展经常性的风险隐患专项治理，实现隐患排查经常化、隐患整治责任化，重大隐患实行“挂账销号”和“限时”治理。', '（十五）强化风险隐患监测预警，确保及时、准确发布预警信息。通过已经组建的预警信息发布中心和行业主管部门已有的发布渠道，做好预警信息的统一发布，解决好信息发布“最后一公里”问题。', '（十六）健全风险管理制度，研究制定我市风险隐患管理办法，进一步明确风险隐患管理责任主体和责任追究制度。', '（十七）继续深入推进基层应急管理规范化示范点建设，巩固省、市级示范点成果，不断创新建设内容、提高建设标准，充分发挥基层应急管理示范点的辐射带动作用。', '（十八）全面推进全市各基层单位的应急管理规范化建设，对达到市级示范点建设标准的基层单位比照示范点单位给予创建工作补贴。各区（市、县）要按照乡（镇）、企业、医院、学校、民族村寨、旅游景区的示范点建设标准分类建成本区域基层应急管理示范单位，每个区（市、县）要有10个以上基层单位达到市级示范点标准；基层应急管理规范化建设的牵头部门市教育局、市卫生计生委、市旅游产业发展委、市工业和信息化委、市民族宗教事务委必须完成3个以上本部门的示范单位。', '（十九）进一步加强应急管理办事机构建设。认真落实《省人民政府办公厅关于进一步推进应急管理体系建设的意见》（黔府办发〔2015〕44号）文件中明确的“要健全完善专职应急管理机构，配齐配强专职人员，市（州）政府不少于10名，县级政府不少于5名，市（州）重点部门不少于3名，县级重点部门不少于2名”的要求，积极推进应急机构编制体系建设，确保应急机构人员编制与所履行的职责任务相适应。年底前，市级专项应急预案的牵头部门应急机构在编在岗人数不少于3人，各区（市、县）政府应急办在编在岗人数不少于5人（不含兼职），各区（市、县）专项应急预案的牵头部门应急机构在编在岗人数不少于2人，所需编制在本系统内部调剂解决。', '（二十）加强应急救援队伍建设，组织开展全市应急救援队伍比武竞赛和集结演练，提高应急救援队伍的实战技能和快速集结能力，市综合应急救援支队（市公安消防支队）要举办1次市综合应急救援队伍的应急救援比武竞赛。', '（二十一）市级公安、消防、气象、卫计、安监等部门要组织开展专业救援装备的技能训练，提高应对反恐防暴、高层灭火、森林火灾、疾病防控、防汛抢险、矿山救援等突发事件的能力。组织开展1次应急处置和救援装备展示活动。', '（二十二）健全应急值守工作制度，健全应急值守领导责任制，严格执行领导带班和24小时值班制度，不断加强值班工作制度化、规范化建设，确保突发事件得到及时高效处置。完善值班信息汇总工作机制，着力提高应急值守人员应急信息的分析研判、报告编辑、处置建议能力。强化节假日、重要会议、重大活动期间和敏感时段值班检查抽查，促进政府系统应急值守工作落实。编制《贵阳市应急值守工作手册》。', '（二十三）按照现场信息报送工作“快报事实、慎报原因、速报措施”的原则和“处早、处小、处快”的要求，健全重大突发事件现场信息联络员工作制度。', '（二十四）健全主要领导全面负责的应急管理责任制。各区（市、县）政府是本级应急管理的责任主体和行政领导机关，各区（市、县）政府主要负责人是本区域应急管理的第一责任人，分管领导是具体责任人；各行业主管部门的主要领导是本行业应急管理的第一责任人，分管领导是具体责任人；要切实履行相关责任，在人员、机构、资金等方面亲自研究，做好保障，为应急管理工作的开展创造条件。', '（二十五）强化对应急管理重点工作的督导。市政府应急办要将应急管理工作任务进行分解，建立督查和定期通报制度。市督办督查局要将应急管理工作纳入年度目标绩效考核，并配合开展相关督查工作，推动应急管理各项工作的落实。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>245</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>筑府发号关于印发贵阳市贯彻落实省人民政府关于坚持科学发展安全发展促进安全生产形势持续稳定好转的实施意见的工作方案的通知</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2012-07-02</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zfxxgks/fdzdgknr/lzyj/gfxwj/szfgfxwj/qff/201207/t20120702_8176974.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['筑府发〔２０１２〕４６号关于印发贵阳市贯彻落实省人民政府关于坚持科学发展安全发展促进安全生产形势持续稳定好转的实施意见的工作方案的通知', '各区、市、县人民政府，金阳新区管委会，市政府各工作部门，市各直属事业单位、市管企业：', '《贵阳市贯彻落实省人民政府关于坚持科学发展安全发展促进安全生产形势持续稳定好转的实施意见的工作方案》已经市人民政府研究同意，现印发给你们，请结合自身工作，抓好落实。', '为深入贯彻落实《国务院关于坚持科学发展安全发展促进安全生产形势持续稳定好转的意见》（国发〔2011〕40号）、《国务院关于进一步促进贵州经济社会又好又快发展的若干意见》（国发〔2012〕2号）、《省人民政府关于坚持科学发展安全发展促进安全生产形势持续稳定好转的实施意见》（黔府发〔2012〕8号）等文件及市第九次党代会精神，坚持走科学发展路、加快建生态文明市和实施“两加一推”战略目标，全面提升我市安全生产水平，进一步促进我市安全生产形势持续稳定好转，实现安全生产与全市经济社会同步协调发展，制订本工作方案。', '牢固树立以人为本、科学发展、安全发展的理念。围绕加速发展、加快转型、推动跨越主基调，在坚持走科学发展路，加快建生态文明市，大力实施工业强市和城镇化带动战略中，必须始终坚持“安全第一、预防为主、综合治理”的方针，坚持速度、质量、效益与安全有机统一，坚持统筹兼顾、协调发展，依法治安、突出预防、落实责任，依靠科技、夯实基础和坚持创新管理的基本原则，以进一步强化和落实政府监管主体责任、企业安全生产主体责任为重点，以进一步预防和减少事故为主攻方向，以规范生产经营建设行为为保障，以推进科技进步为支撑，以安全生产标准化建设为抓手，全面落实安全生产法律法规和政策措施，标本兼治、综合治理，促进我市安全生产与经济社会同步协调和快速发展。', '安全生产各项指标控制在省下达的年度安全生产控制考核指标内。全面完成我市安全生产“十二五”规划各项目标任务，减少事故起数和死亡人数，有效防范较大事故，坚决遏制重特大事故，持续实现事故起数、死亡人数“双降”。到“十二五”末，反映安全发展的各项相对指标走在全省前列，其中亿元GDP死亡率在0\ue01013以下，煤炭百万吨死亡率在0\ue0105以下，其它相对控制考核指标均在省下达指标范围内。全市安全生产水平明显提升，为2020年与全省同步实现安全生产形势根本好转、全面实现小康社会打下坚实基础。', '成立以分管安全生产工作的市政府副市长为组长，市政府分管副秘书长、市安委办主任为副组长，市安委会成员单位为成员的工作领导小组，负责组织实施本工作方案相关工作。领导小组办公室设在市安委办，办公室主任由市安委办主任兼任。领导小组办公室负责具体组织实施好本工作方案，并做好综合协调和督促检查。', '．加强安全生产法制建设。加快推进《贵阳市安全生产事故报告和调查处理实施办法》、《贵阳市危险化学品经营安全管理规定》等相关政府规章的制订工作。结合我市经济社会加速发展的新要求，陆续制订《贵阳市安全生产监管执法规定》、《贵阳市建设项目“三同时”管理规定》、《贵阳市职业卫生“三同时”管理规定》等一批政府规章，进一步建立健全我市安全生产法制体系。同时进一步建立和完善安全生产奖惩考核、“一票否决”等制度，形成规范有力的安全生产激励约束制度和保障机制。', '．依法严肃查处事故。严格按照“科学严谨、依法依规、实事求是、注重实效”和“四不放过”原则，认真调查每一起生产安全事故，及时查明事故原因，督促落实整改措施，依法追究事故责任，严厉查处事故背后的腐败行为，并及时向社会公布调查处理结果。认真实施我市生产安全事故查处挂牌督办制度和约谈制度。对未履行或未正确履行职责，导致发生较大及以上生产安全事故或生产安全事故超过控制指标、未及时排除治理重大安全隐患，未按时完成安全生产重要工作任务的有关区（市、县）、乡（镇、街道办事处）和有关部门及生产经营单位负责人，要严肃问责，进行诫勉或警示谈话。建立健全市、县两级生产安全事故分级警示通报制度，市安委会办公室对较大以上事故在全市通报，县级安委会办公室对一般事故在全县（区、市）通报。严格落实事故防范的对策措施，并建立健全责任追究和防范措施落实情况的反馈制度。对不落实、故意拖延落实或者未经事故调查报告批复机关同意，擅自改变事故责任追究处理意见的，要严肃追究有关责任人员的责任。', '．认真落实企业安全生产主体责任。我市行政区域内的生产经营单位必须严格遵守国家、省、市的安全生产法律法规、规章和政策及国家标准、行业标准，按照国家和省、市加强生产经营建设单位安全生产主体责任的规定，建立健全并严格执行安全生产责任制、安全生产目标管理、安全文化企业创建、安全生产承诺、领导班子成员带班、隐患排查治理、安全生产投入、建设项目安全设施“三同时”、安全生产标准化、安全生产技术管理和设备安全管理、安全教育培训、班组安全建设、应急救援、重大危险源监控、紧急情况的撤人避险、职业卫生、企业管理人员和特种作业人员安全资格、安全风险抵押金、安全费用、出租（发包、外包）项目工程、场所、设施、设备的安全管理、安全绩效工资、安全生产信用等制度，依法依规组织生产经营和建设。企业主要负责人、实际控制人要依法承担安全生产第一责任人的责任，对本单位的安全生产工作全面负责，必须带头执行现场带班制度，切实加强现场安全管理。企业要健全安全生产管理机构和配齐专（兼）职安全管理人员并提供履行职责的条件。要强化企业技术负责人安全生产的技术决策和指挥权，充分发挥注册安全工程师对企业安全状况诊断、评估、整改及其他安全管理方面的作用。企业主要负责人、安全管理人员、特种作业人员一律要依法参加资格培训并持证上岗。企业用工必须严格依照《劳动合同法》的规定与职工签订劳动合同，并经培训合格后上岗。要按照安全教育培训的规定落实日常“三级”安全教育培训，提高从业人员安全素质和岗位操作技能，切实维护从业人员安全保障的合法权益。', '．认真落实部门安全生产监督管理职责。认真贯彻市人民政府关于加强各部门（行业）安全生产监督管理责任的规定，按照《市人民政府办公厅关于进一步明确有关部门安全生产管理职责的通知》（筑府办发〔2011〕110号）等文件的要求，健全完善安全生产综合监管与行业监管相结合的工作机制，强化安全生产监管部门综合监管职责，认真按照“谁主管、谁负责，谁审批、谁负责，谁发证、谁负责”的原则，落实行业主管部门的行业管理、专业监管职责，形成协调配合、齐抓共管的工作局面。认真落实煤矿驻矿安全监管员管理责任，建立和健全管理、考核、激励机制，充分发挥驻矿安全监管员煤矿安全监管预防事故的第一道防线作用。严格执行重大安全隐患治理逐级挂牌督办和公告制度，对挂牌督办的重大安全隐患，区（市、县）人民政府和负有安全生产监督管理职责的部门（行业）要对治理情况及时跟踪，并加强协调指导，督促整改到位。', '．积极开拓创新，强化安全监管。要不断探索和勇于创新与经济运行、社会管理相适应的安全监管模式，按照国家和省的规定，认真实行与企业信誉、项目核准、用地审批、证券融资、银行贷款等方面相挂钩的规定，建立健全安全生产激励约束机制。', '．严格安全生产准入条件。要认真执行安全生产许可制度和产业政策，严格技术和安全质量标准。要依法严格执行新建、改建、扩建项目安全设施与主体工程同时设计、同时施工、同时投产和使用的“三同时”制度，强化建设项目安全核准，依法把安全生产条件作为高危行业建设项目审批的前置条件，未通过安全评估的不准立项，未经批准擅自开工建设的，要责令整改，拒不整改的要依法取缔。要认真执行高危行业从业人员资格标准，切实提高从业人员素质。要加强安全生产专业服务机构管理，实行严格的从业行为过程管理，确保其评价、评估、检测结果的专业性和客观性。', '．加强安全生产风险监控管理。认真实施国家安监总局颁布的《安全生产事故隐患排查和治理暂行规定》（国家安监总局令第16号）及省的有关规定，充分运用科技和信息手段，建立健全安全生产隐患排查治理体系，强化监测监控、预警预报，及时发现和消除隐患。县、乡两级政府要对重大隐患实行挂牌督办，加强协调、指导，确保监控、整改、防范等措施落实到位。安全监管部门、行业主管部门、企业要建立健全重大危险源管理档案，实施动态全程监控，认真按规定组织开展重大危险源普查登记、分级分类、检测检验和安全评估，切实加强重大危险源安全监督管理，建立健全重大危险源辨识登记、安全评估、报告备案、监控整改、应急救援等工作机制和管理制度，实施有效管理。企业要认真落实重大危险源监控制度，定期进行安全风险评估分析，设立重大危险源警示标志，并将本单位重大危险源及有关管理措施、应急预案等信息及时报安全监管和行业主管部门备案。有重大危险源失控或重大隐患出现事故苗头时，企业要立即采取有力措施及时预警预报，组织撤离人员、停止运行，并加强监控，防止隐患导致事故发生和扩大损失。', '．加大交通运输安全综合治理力度。加快制定并实施我市道路交通安全的相关规划，提高道路建设质量，完善安全防护设施。加强公路危险路段和水域危险航道的专项整治，强化桥梁、隧道、航道、码头等的安全隐患排查治理工作。不具备车船安全通行条件的道路和水域，要设置禁行警示标志。要严格实施交通运输部、公安部、安监总局《关于印发道路旅客运输企业安全管理规范（试行）的通知》（交运发〔2012〕33号），强化“三关一监督”措施的落实，督促交通运输企业切实落实安全主体责任，严格运输工具安全技术条件，逐步淘汰安全性能差的运营车型。要加强监管，禁止客运车辆挂靠运营，禁止非法改装车辆从事旅客运输，严格长途客运驾驶人资格准入。超长线客运车辆要严格按要求配备驾驶员，建立和落实长途客运车驾驶人强制休息制度，严防疲劳驾驶；严把客运站、码头源头关，严禁带病车船和超员、超载车船出站离岸；要加强危险物品进站检查，严禁携带危险物品乘坐客运车船。加强路面巡查，持续开展专项行动，严厉打击超员、超速、超载、超限、酒后驾驶、无证驾驶、疲劳驾驶和高速公路违法停车等行为。要督促客运、危货运输企业加强运输车辆动态监控工作，严格按规定安装和使用具有行驶记录功能的卫星定位装置，完善值守制度，配足值守人员，及时处理监控发现的违法行为。对不符合标准的终端和平台，要及时改造升级，实现企业、行业联网联控。要强化危险物品运输车安全监管。严格危险物品运输企业、车辆、驾驶人的资质、资格许可，严厉打击不具备安全技术条件的车辆运输危险物品和危险物品运输车超载、不按规定路线行驶、不按规定地点停放等行为。夯实农村道路交通安全基础，加强农村道路交通安全监管。充分发挥乡镇派出所和交通安全协管员作用，对摩托车、低速货车、农民自用船等实行登记造册有效管理。重点打击违法载人、非法营运、无证驾驶、酒后驾驶等行为。要认真宣传和贯彻落实《校车安全管理条例》，强化校车管理，严查校车违法行为，落实防范措施，严防事故发生，确保安全行驶。', '．严格危险化学品安全管理。认真贯彻落实新修订的《危险化学品安全管理条例》，加强危险化学品安全管理。建立健全危险化学品安全管理信息系统。加强对重点危险化学工艺、危险化学品和重大危险源的监控。继续推进化工装置自动控制系统改造，提高重要装置、重要设施、重点部位安全可靠性。优化化工企业布局，科学规划化工园区，严格控制城镇涉及危险化学品的建设项目。加快推进城市规划区内安全防护距离不足的危险化学品企业搬迁工作。加快我市化工产品专营市场建设，尽快形成仓储、配送、物流、销售和商品展示为一体的危险化学品集中交易市场，制订和落实相关安全管理规定，实现科学管理、规范管理。加强城市区域危险物品整治，严肃查处城区非法、违规储存危险物品行为。组织开展地下危险化学品输送管道设施安全整治，加强和规范城镇地面开挖作业管理，有效防范开挖作业引起危险化学品管道损坏事故。切实加强烟花爆竹生产、经营、储存、运输、燃放等环节的安全监管，深入开展超范围、超定员、超药量、擅自改变工房用途（三超一改）和礼花弹等高危产品专项治理，防止含氯酸钾产品和礼花弹等A级产品流入市场。完成烟花爆竹批发企业储存仓库的提升改造，提升安全保障水平。要加强烟花爆竹限放安全监管，严防烟花爆竹伤亡事故发生。严格民爆物品安全监管，严把生产、经营、储存、运输、使用、回收等环节监管关，严防失控、漏管和事故。', '．加强非煤矿山安全整治。严把非煤矿山安全准入关，新建非煤矿山的规模与服务年限应符合我市矿产资源总体规划规定，凡不符合相关规定的不予办理有关行政许可。坚决淘汰不具备安全生产条件的矿山。积极推行尾矿库一次性筑坝、干式排放、尾矿充填、在线监测等先进适用技术，着力推行尾矿库安装和使用在线监测系统，实施有效监控。鼓励将尾矿回采再利用后进行回填。按照国家、省金属非金属地下矿山安全避险“六大系统”工作的要求，全力推进“六大系统”建设工作，积极推行机械通风、中深孔爆破、高边坡安全监测等先进适用技术。组织实施好非煤矿山采空区监测监控等科技示范工程建设工程。', '．加强消防安全管理。县级人民政府要把消防规划纳入当地城乡规划并积极实施，切实加强公共消防设施建设。大力实施社会消防安全防火墙工程，落实建设项目安全设施审核、验收和备案抽查制度，严禁使用不符合消防安全要求的装修装饰材料和建筑外保温材料。全力推进农村村寨消防设施的寨改、房改、灶改、水改、电改、路改工程建设，指导50户以上木瓦结构连片村寨建立农村社会消防安全防范机制，修建消防水池、成立义务消防队，并加强演练。加强火灾隐患的排查治理，特别是重点防火单位的火灾隐患排查治理。对存在火灾隐患的要督促责任单位整改，及时消除火患。对违反消防法规的行为要坚决打击。严格实行重大火灾隐患挂牌督办制度，加强整改督查、整改验收，督促整改到位。严格落实人员密集场所、大型集会活动等安全责任制，严防火灾和拥挤踩踏等事故。', '．强化建筑施工安全管理。按照“谁发证、谁审批、谁负责”的原则，进一步落实建筑工程招投标、资质审批、施工许可、现场作业等各环节的安全监管责任。严厉打击超越资质范围承揽工程、违法分包、转包、肢解工程等非法违法行为，严肃处理未经许可施工、不按施工组织方案施工等行为。强化建筑工程建设单位、施工单位、监理单位等参建各方及企业的安全生产主体责任。严密排查和治理起重机械、脚手架等设施设备安全隐患，推广塔吊远程监控技术。加强高边坡、深基坑、隧道、高墩、桥梁等危险性较大的分部、分项工程施工的安全监管，严防各类事故。建立建筑工程安全生产信息系统，健全施工企业和从业人员安全信用体系，完善失信惩戒制度。建立完善铁路、公路、水利等重点工程项目安全风险评估制度，落实预防事故措施，防患于未然。', '．加强冶金等其他行业领域的安全监管。加强冶金、有色等其他行业领域的日常安全监管。对建设项目安全设施“三同时”工作，要加大备案核查力度，对不符合国家规定的，要及时责令改正。要加强监管、指导，积极帮助冶金、有色、建材、机械、铸造、军工民品及高新产业开发区、工业园区、物流园区等建设项目的安全设施建设工作。要加强各类经济开发区、工业园区、物流园区的安全管理，建立安全管理机构，明确安全管理职责，落实安全管理工作，消除安全管理“空白”。', '．加强压力容器、电梯、游乐设施等特种设备和铁路、电力、旅游、农机、渔业船舶等行业领域的安全管理，整体推进安全生产工作。', '．持续加大安全生产投入。建立和完善地方、行业、企业和社会共同承担安全生产投入的机制，切实落实有利安全生产的财政税收、信贷政策，强化政府投资对安全生产投入的引导和带动作用，积极争取中央、省预算内投资。用好煤矿安全专项资金、安全生产专项资金，推动和引导政府、行业、企业加大安全投入。企业要认真执行财政部、国家安监总局下发的《安全生产费用提取和使用管理办法》（财企〔2012〕16号）的规定，在年度财务计划中必须制定安全投入计划，提足、用好安全生产费用。完善和认真落实工伤保险制度。在煤矿、非煤矿山、危险化学品、烟花爆竹等高危行业积极稳妥推行安全生产责任保险制度，充分发挥保险机制预防事故和促进安全生产的积极作用。要多渠道筹资建立安全生产专项资金，进一步加强安全生产保障能力建设，积极推进重大事故隐患治理、安全生产技术改造、应急救援平台和基地、安全宣传教育、安全监管执法装备、安全生产科技支撑体系、安全生产技术研发、安全生产信息系统等项目的建设。', '．充分发挥科技支撑作用。充分发挥科研单位和企业在技术改造、科技创新、成果推广应用及转化的主力军作用，加大安全生产技术改造，推进安全生产技术创新和科技进步，加快安全生产技术支撑、安全监管执法装备、安全生产信息系统的建设，形成国家、地方、企业三级安全科技支撑体系。组织引导企业联合科研院所和高等院校进行科技攻关，要突出高危行业领域，实施安全更新工程，强制淘汰落后的技术、工艺、装备，加大安全生产科技攻关和成果推广应用工作力度，重点是：推广煤矿瓦斯高效抽放和防突技术与装备、煤矿安全综合监测监控和井下人员定位监测系统、非煤井工矿山机械通风和露天开采矿山中深孔爆破技术、危险物品及客运车辆行驶监控技术、高安全性烟花爆竹药剂与生产技术、重大危险源监控与预警及应急救援辅助决策系统、生产过程高可靠性安全管理体系等安全生产科技成果。加强政策引导，加大资金投入，大力培养和大胆使用安全生产专业技术人才，形成结构合理、有创新活力的科研团队，积极推进科研和推广应用安全性能可靠、先进适用的新技术、新工艺、新设备和新材料，努力提升安全生产保障能力的科学性、先进性，有力地促进安全生产保障水平。', '．加强安全生产人才及监管执法机构、队伍建设。鼓励市属普通高校和职业技术院校、中等技术学校等教育机构根据安全生产工作实际，科学设置安全基础专业、高危行业的安全专业和技能教育等学科，并采取校企合作办学、对口单招、订单式培养等方式，帮助企业解决高危行业专业人才和技术工人短缺问题。县级政府及相关部门要采取以安全监管执法所需的专业技术为主的对口招录、招聘、选调等形式，吸收专业型安全监管执法人才，充实安全监管执法队伍，加快安全监管执法队伍建设专业化，增强安全监管执法队伍专业技术能力。要进一步健全完善安全监管执法机构，加强和完善市、县、乡及社区四级安全监管体系和网络。要积极推进社会管理创新，强化安全生产管理，加强组织机构建设，充实基层监管力量，进一步明确职责，配齐人员。加强监管执法人员业务培训，改善监管执法装备和条件，要加强安全监管执法人才培养，建立科学实用的考核奖惩提拔、交流制度，不断探索和创新监管执法机制，提升安监执法人员依法履职能力，做到依法、公正、廉洁、文明，着力提高安全监管执法水平。', '．完善应急救援机制和基础条件。建立健全市、县两级安全生产应急指挥或管理中心，加强应急平台建设，切实做到人员、装备和经费落实。加强在筑中央、省属企业安全生产应急建设，并加强与市、县安全生产应急指挥机构协调、配合，完善生产安全事故应急救援协调联动机制。建立健全自然灾害预报预警联合处置机制，加强安监、气象、地震、公安、海事等部门的协调配合，严防自然灾害引发事故灾难。建立完善企业安全生产动态监控及预警预报体系，及时发布安全生产预警信息。要强化各级领导干部安全生产应急责任意识，严格执行《省人民政府办公厅关于印发贵州省行政机关领导干部及时赶赴现场处置生产安全事故规定的通知》（黔府办发〔2011〕82号），及时赶赴事故现场，有效协调指挥、科学处置生产安全事故。', '．加强预案管理和应急演练。健全完善我市矿山、危险化学品、建筑施工、道路交通等事故灾难应急预案和各类应急预案，加强企业、行业、政府各类预案的衔接和动态管理并及时修订完善。要按照有关法律、法规和规章，落实市、县两级安全生产预案评审、报备制度。加强组织领导，积极组织开展演练。市、县和行业要根据安全生产实际，适时组织应急救援培训和演练，检验市、县和行业应急救援的组织、协调能力，提升应急管理水平。要加强对企业负责人处置突发事件、组织应急救援的培训，每年汛期前，所有煤矿和非煤矿山企业都要组织开展停产撤人演练活动，其他企业、高层建筑、地下商场、学校、医院等人员密集场所每年要开展不少于1次、高危企业每年不少于2次的应急救援演练，有效检验应急预案的科学性、严谨性、针对性、可操作性和相互衔接性，提高对突发事故的应急处置、自救互救能力。要认真落实企业领导班子成员现场带班制度，生产现场带班人员、班组长和调度人员在遇到险情时，应当按照规定，立即组织停产撤人，避免或减少事故损失。', '．加强安全宣传教育。充分利用电视、互联网、报纸、广播等多种形式和手段广泛普及安全常识，不断增强全社会对科学发展、安全发展理念的认识。广泛宣传和贯彻落实安全生产法律法规和方针政策，不断强化企业安全生产主体责任和政府及有关部门安全监管主体责任及广大群众安全生产意识。全面开展安全生产、应急避险和职业健康知识进企业、进学校、进乡村、进社区、进家庭的“五进”活动，努力提升全民安全素质。在中小学校广泛开展安全知识基础教育，组织避险逃身自救演练。积极营造“关注安全、关爱生命”的社会氛围。', '．加强安全培训。重点落实企业负责人、安全管理人员、特种作业人员安全培训（复训）工作，安全培训和持证上岗率达100%。认真开展其他从业人员日常安全培训和公司（厂）、分公司（车间）、工段（班组）“三级教育”活动，努力提升广大员工安全生产意识和安全操作技能。大力推进企业全员安全培训，强化高危行业和中小企业一线员工安全培训。完善农民工向产业工人转化过程中的安全教育培训机制，全面落实先培训后上岗，不培训不能上岗的规定。有条件的大中型企业要建立健全安全培训机构，紧密联系企业实际，开展形式多样的教育培训。加强地方政府及有关部门分管安全生产领导的安全培训。要认真制订和实施县、乡两级政府负责人及市、县两级有关行业部门负责人、安全管理人员安全培训计划，要通过党校（行政学院）办班培训、送培、自主培训等方式进行安全生产法律法规和政策及安全生产综合管理、行业管理等方面知识的培训，强化有关人员安全监管主体责任意识，认真履行安全监管职责，提高安全管理水平。', '．积极开展安全文化活动。充分调动和发挥社会各界的积极性。加强组织引导，运用市场机制，加大投入力度，培育和发展安全文化产业，促进安全文化市场繁荣。要按照安全文化“五个一批”建设的要求，认真抓紧、抓好安全文化工程建设，努力创作一批安全文化产品、积极创新一批安全文化模式、着力推行一批安全文化载体、加快建设一批安全宣传教育基地、全力推进一批安全文化社区和安全园区建设。加强安全生产的公益宣传，创新安全文化活动。组织开展好“安全生产年”和“安全生产月”、“安康杯竞赛”等活动，开展好走进生产一线关注安全生产、青年安全示范岗、温馨安全家庭、安全生产区（县）行、安全生产矿山行、安全生产建筑工地行等群众性宣传教育活动，注重实效，促进安全文化进入社会各行业和领域。要认真收集、挖掘一批在基层、企业、厂矿、学校、社区等单位从事安全文化和安全生产的先进模范，树立典型，充分发挥示范作用，推广先进经验和做法。着力推进创建安全文化示范企业和安全发展单位、社区、城市的工作。', '．加强舆论宣传。要加强对安全生产领域违法行为、事故背后的腐败、事故查处结果及重大事故隐患的跟踪报道，营造新闻媒体、社会公众广泛参与安全生产宣传教育和舆论正确导向的社会监督氛围，共同营造“关注安全、关爱生命”的安全文化。', '．健全完善安全生产工作格局。要进一步健全完善“政府统一领导、部门依法监管、企业全面负责、群众参与监督、全社会广泛支持”的安全生产工作格局，形成齐抓共管的强大合力。各级政府要切实加强对安全生产工作的组织领导，充分发挥安全生产委员会及其办公室的指导协调作用。要认真制订和切实落实县、乡级人民政府和市有关行业部门安全生产职责，全面落实安委会成员单位工作责任。市、县、乡三级人民政府要依法健全完善安全生产、职业健康监管体系。加强安全监管执法机构及队伍建设，对从事安全监管执法的人员要在政治上关心、待遇上从优、工作条件上保障，并建立和完善管理、考核的激励机制。乡、镇（街道办事处）要加强安全监管机构和监管力量建设，确保安全生产工作有机构管、工作有人做、责任有人负、管理无空白。各级政府要及时召开安全生产专题会议，分析安全生产形势，剖析存在的问题，查找薄弱环节，研究改进工作的措施和办法，部署和检查工作任务并督促工作任务完成和目标的实现。', '．加强安全生产绩效考核。各级政府和有关行业部门要把安全生产考核控制指标纳入本地、本行业经济社会发展考核评价指标体系，加大各级领导干部政绩、业绩考核中安全生产的权重和考核力度。把安全生产工作纳入本地、本行业社会主义精神文明和党风廉政建设、社会管理综合治理体系之中，并与经济社会建设和精神文明建设、党风廉政建设、社会管理综合治理工作任务同计划、同部署、同考核、同推进。要修订和严格执行我市安全生产工作绩效考核奖惩的有关规定，对认真履职、成效显著的单位和个人要予以表扬和奖励；对履行职责不到位、突破安全生产考核控制指标、未按时完成安全生产工作任务的政府和相关部门及单位的负责人，要按规定进行问责谈话；对违法违规、失职渎职的，依法追究责任。', '．发挥社会公众参与和监督作用。积极推进安全生产政务公开、办事公开，接受社会监督，落实安全生产新闻发布制度。对安全生产控制指标实施、较大及以上事故处理结果和重大隐患查处、安全生产重大活动等重要事项，要及时在主流媒体上向社会公布或召开新闻通气会及时发布，接受和加强社会监督、舆论监督及群众监督。支持工会、共青团、妇联等组织动员广大职工开展群众性安全生产监督和隐患排查活动。安监部门要设立安全生产“ 12350”举报电话和举报信箱，畅通监督渠道。要建立和健全隐患、事故举报的奖励制度，鼓励广大群众积极举报安全生产重大隐患和违法行为，并对举报及时核实，对有功人员给予奖励，努力营造全社会关心、支持和参与安全生产工作的良好氛围。', '市、县、乡三级安全监管等部门要认真贯彻落实国发〔2012〕2号、国发〔2010〕23号及国发〔2011〕40号等重要文件精神，围绕贯彻落实国发〔2012〕2号文件，在实施“二加一推”发展战略中，进一步强化服务意识，加强服务指导，努力提升我市安全生产基础水平，促进经济社会建设与安全生产同步发展。要认真研究和制定有利于科学发展安全发展、标本兼治的政策措施，不断完善安全生产法制体制、机制和制度建设，强化基层、基础建设。', '要按照精简、高效、便民原则，进一步加强和改进安全生产行政许可工作，对重大项目、重要项目要按特事特办的要求，设立“绿色通道”。积极创造条件建立网上申请、受理、审批制度。加快审查、审批、颁证速度，进一步缩短审批时限，全部审查、审批时限均在法定时限内缩短50%，能快则快，方便企业和群众，为我市经济社会跨越式发展提供及时、高效的安全生产服务。要紧密结合安全生产工作，进一步强化指导服务，在安全教育培训、隐患排查、应急救援、矿山开采、技术咨询等方面予以协调帮助，将服务指导寓于安全监管执法工作中，切实提高安全生产工作的针对性和实效性，有效防范和遏制事故发生，进一步促进我市安全生产形势持续稳定好转，全力推进坚持走科学发展路、加快建生态文明市战略的实施，为全市经济社会又快又好、更快更好发展创造一个良好的安全生产环境。', '各区、市、县人民政府，金阳新区管委会，市有关行业主管部门及有关单位，要强化贯彻国家、省重要文件精神的高度政治责任感、工作责任感、使命感和紧迫感，切实认真抓紧、抓实、抓好国发〔2011〕40号和黔府发〔2012〕8号文件的学习、宣传和贯彻落实，并结合本地、本行业（部门）实际，认真将本工作方案明确的工作目标、工作任务进一步分解细化，并督促落实，确保工作到位、目标实现。', '要强化安全生产工作的大局意识，狠抓本工作方案实施的工作进度和工作质量，确保工作方案的落实。市安委会将本工作方案的实施情况列入年度目标考核的重要内容，同时将组织专项督查组进行督促检查，对督查情况及时予以通报。对未按要求落实工作任务或存在推诿扯皮行为的要严肃批评、予以处分；对发生事故的要从严处罚和问责。', '实施本工作方案进度情况，要按规定上报市安委办，由市安委办汇总上报市政府和省安委办。对在实施本方案中发现的新情况、新问题及建议意见要及时向市安委办反馈。', '附件：贵阳市贯彻落实《省人民政府关于坚持科学发展安全发展促进安全生产形势持续稳定好转的实施意见》重点工作和责任分工表']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>245</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>开阳县年全县及县本级财政预算执行情况及年全县及县本级财政预算报告</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2009-04-30</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qsxyjsjsgjf/kyx_5624447/202007/t20200706_61339552.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['开阳县2008年全县及县本级财政预算执行情况及2009年全县及县本级财政预算报告 - 贵阳市人民政府', '受县人民政府委托，向大会报告开阳县2008年全县及县本级财政预算执行情况及2009年全县及县本级财政预算（草案），请予审议，并请政协委员和其他列席会议的同志提出宝贵意见。 一、2008年财政预算执行情况 2008年，我县财政工作在县委的坚强领导下，在县人大、县政协的监督指导下，坚持以党的十七大为指针，以科学发展观为统领，以促进发展为第一要务，以增收节支为主线，努力克服百年不遇的雪凝灾害和全球金融风暴的影响，切实转变财政职能，创新发展思路，调整和优化支出结构，大力保障和改善民生，财政工作取得了新的成绩，并圆满完成了县第十五届人民代表大会第三次会议和县第十五届人大常委会第十六次会议确定的各项目标任务。 （一）收入完成情况 1、一般预算收入完成情况 2008年初，我县第十五届人民代表大会第三次会议批准的全县财政总收入预算为74,200万元，增长18%，年末实际完成84,518万元，分别为年初预算数和调整预算数（县人大常委会10月份通过的调整预算数为81,413万元）的113.9%和103.8%，比上年增加收入21,637万元，增长34.4%，；地方财政收入年初预算35,490万元，年末实际完成36,534万元，分别为年初预算数和调整预算数（县人大常委会10月份通过的调整预算数为35,950万元）的102.94%和101.6%，比上年增加收入6,201万元，增长20.4%。 （1）地方财政收入中分收入类型完成情况 ——税收收入完成27,800万元，为年度预算25,850万元的107.5%，增长34%，增加收入7,059万元。 ——非税收入完成8,734万元，为年度预算9,640万元的90.6%，下降9.8%，减少收入858万元。 （2）地方财政收入分部门完成情况 ——国税部门完成7,013万元，占预算的105.3%，增长57%，增加2,547万元。其中：增值税15%部分完成5,700万元（总额完成38,000万元），占预算的101.3%，增长45.4%。 ——地税部门完成21,807万元，占预算的101.7%，增长28.6%，增加4,847万元。其中：地方各税完成20,440万元，增长101.7%，城镇教育附加完成1,367万元，增长49.8%。 ——财政部门完成7,713万元，占预算的99%，下降13.4%，减少1,195万元。其中：耕地占用税、契税完成345万元，增长52%；行政性收费收入完成2,841万元，下降4%；罚没收入完成379万元，下降45%；专项收入完成977万元，增长520.4%；国有资产经营收益完成1,469万元，下降61.8%；其他收入完成1,703万元，增长66.4%。 2、基金收入完成情况 2008年全县基金预算收入完成2,970万元，为预算的7倍，下降15.4%，减少542万元。其中：地方教育附加完成461万元，增长51.15%，土地出让收入完成2,449万元，下降12.78%，残疾人就业保证金收入完成42万元，下降30%。 （一）支出完成情况 1、一般预算支出完成情况 2008年初，我县第十五届人民代表大会第三次会议批准的县本级财政一般预算支出预算为40,026万元（含乡镇10,000万元总计为50,026万元），加上超收财力、上级追加我县财力性转移支付及各项专项补助，县本级财力支出总预算为76,658万元，年末实际完成支出76,053万元（含乡镇级支出10,812万元共计完成86,865万元），为支出总预算的99.21%，比上年增加25,282万元，增长49.8%。 县本级支出的76,053万元中，剔除专款支出29,080万元和教育转移性支出3,342万元后，实际支出是43,631万元，比上年增加7,048万元，增长19.3%，各项支出按功能分类完成情况具体为： ——一般公共服务支出7,624万元，占指标的100%，增长10.2%。 ——国防支出305万元，占指标的100%，增长122.6%。 ——公共安全支出3,156万元，占指标的99.9%，增长15.8%。 ——教育支出17,224万元，占指标的99.8%，增长34.1% ——科学技术支出840万元，占指标的100%，增长19%。 ——文化体育与传媒支出1,187万元，占指标的97.4%，增长124.8%。 ——社会保障和就业支出1,434万元，占指标的89.7%，增长74.7%。 ——医疗卫生支出4,117万元，占指标的100%，增长30.7%。 ——环境保护支出255万元，占指标的40.87%，下降36.1%，其中：排污费结转支出369万元。 ——城乡社区服务支出265万元，占指标的100%，下降17.2%。 ——农林水事务支出2,206万元，占指标的100%，增长25.2%。 ——交通运输支出353万元，占指标的100%，增长23%。 ——工业商业金融等事务支出1,931万元，占指标的100%，增长121.4%。 ——其他支出2,735万元，占指标的99.7%，下降46.5%。 2、基金支出完成情况 2008年全县基金预算支出5,250万元，为预算的86.04%，增长13.76%，增加635万元。其中：地方教育附加支出522万元，城社区事务支出3,724万元，农业土地开发资金支出376万元，农林水事务支出443万元，文化体育与传媒支出5万元，彩票公益金支出110万元，残疾人就业保障金支出70万元。 （一）财政收支平衡情况 1、一般预算收支平衡情况 2008年，财政总财力为88,205万元，其中：地方财政收入36,534万元，上级各项补助收入51,000万元（税收返还补助2,285万元，所得税基数返还838万元，民族地区转移支付补助2,632万元，工资性转移支付补助6,843万元，农村税改转移支付补助1,287万元，一般性转移支付补助904万元，取消农业税转移支付补助1,179万元，缓解县乡财政困难补助2,330万元，结算补助-121万元，专款补助29,281万元，农村义务教育补助3,342万元，其他补助200万元），上年结余671万元。财政总支出为87,600万元，其中，一般预算支出86,865万元，上解支出735万元，收支相抵后，滚存结余605万元，其中：结转下年的支出598万元，净结余7万元。 2、基金收支平衡情况 2008年，基金预算收入2,970万元，加上级各项基金补助收入2,352万元，加上年基金预算结余780万元，减当年基金支出5,250万元，基金预算滚存结余852万元。 二、2008年主要工作措施 （一）围绕收入任务，强化措施，加强征管，财政收入再上新台阶得以顺利实现 2008年，为保证财政收入任务的实现，财税系统广大干部职工紧紧围绕县委、县政府确定的目标任务，在“早、管、析”上狠下功夫，确保了全年收入目标的顺利实现并跃上了新台阶。一是“早”：按照人代会通过的收入预算，及时将目标任务分解到各征收机关、各乡镇、各部门，层层落实目标责任制。二是“管”：充分发挥协税护税网络的作用，加强对重点税源和主要税种的监控，强化对纳税大户的监管，加大清理欠税和打击偷、逃、漏税的力度，尽可能把实现的税收清缴入库。三是“析”：面对年初雪凝灾害和下半年的全球金融风暴，县委、县政府沉着应对，财税部门认真分析当年经济形势，及时研究收入的变化趋势，分析发生变化的具体原因，加强协调与配合，抓好收入分析和预测，落实相应措施，强化目标管理，做到了“以旬保月、以月保季、以季保年”，努力保证税收收入按进度均衡入库。 （二）围绕夯实税基，加强协调，争取支持，全县税源基数得以明显增加 我县是以磷矿石采掘业及其加工业为主导产业的县份之一，特别是磷矿石采掘所产生的税收占财政收入的比重较大。但是，由于税收体制的不合理性，资源税税率偏低，企业税负较轻。针对此种情况，县委、县政府高度重视，财税部门对此展开调研，并主动向上级财税部门汇报，最终得到了财政部、国家税务总局的认可，决定从2008年10月1日对磷矿石资源税税率由3元/吨提高到15元/吨。该项税收政策的出台，为地方在正常情况下增加税收4300万元左右，有力地夯实了我县的税源基础。 （三）围绕发展大局，发挥职能，狠抓融资，经济社会发展的资金需求得以保障 在2008年的工作中，我们始终把支持经济社会发展作为财政工作的要务，通过向企业提供担保贷款等方式支持企业发展。同时，财政部门按照县委、县政府对融资工作的安排部署，在面对银根紧缩、融资平台脆弱、融资渠道单一的情况下，积极主动与各金融机构协调，千方百计筹措资金支持经济社会加快发展。一年来，我县通过各种渠道筹集融资资金18,746 万元，分别用于农业、水利、城建、移民搬迁、新农村建设等各项基础设施建设和国企改革改制以及循环经济等实体性项目和重点项目，尽可能的为各项社会经济发展提供了资金保障。 （四）围绕灾后重建，紧急行动，努力筹资，全县生产生活秩序得以尽快恢复 2008年初，我县遭遇了百年以来罕见的雪凝灾害，给全县经济社会发展和人民群众生产生活带来了严重影响。同时也给财政工作提出了严峻的考验，面对如此巨大的资金需求，财政部门按照县委、县政府的统一部署，把筹集抗灾救灾和灾后恢复重建资金作为当前工作的重中之重。通过各级各部门的共同努力，共筹集到救灾及灾后重建资金6238万元，其中：县财政安排2194万元，向国家开发银行贷款960万元，上级补助3084万元。最大限度降低了人民群众的损失和保证了人民群众的生产生活秩序。同时，由于工农业生产得到了较快的恢复，有力促进了全县经济的平稳增长和财政收入的圆满完成。 （五）围绕以人为本，提高认识，加大投入，民生问题得以有效解决 2008年，全县财政支出在保证工资、运转、法定支出和利息支出的同时，重点向民生倾斜，支持以民生为主的社会事业发展。一是启动了在职职工住房增量补贴，扩大了住房公积金保障范围，将原没有纳入保障范围的乡镇教师和乡镇机关干部职工全部纳入，并提高了离退休人员的住房增量补贴标准（已达到规定标准），全年共拨付住房增量补贴4000余万元；二是完善社会保障体系，启动城镇医疗保险。全年共拨付社会保障资金6215万元，增长78.2%,增加2727万元；三是切实支持安居工程建设。全年共拨付廉租房建设资金203万元，逐步解决低收入群体住房难的问题；四是加大教育投入，教育投入(不含专款)增长34.05%，按可比口径（剔除拨补1584万元）增长21.72%；五是各项惠农政策得以全面落实。全年通过农民补贴网为农民兑现各种涉农补贴资金4782万元，受益农民35.67万人，农民人均增收134元；六是强力推进新型农村合作医疗制度改革，全年共拨付农村合作医疗补贴2606万元；七是共给双流茶场、县磨料厂、百货公司、县砖厂、五金公司五户企业职工缴纳企业职工医疗保险金538万元，兑现县砖厂、磨料厂、五金公司三户改制企业职工安置费710万元，兑现双永林场、杠寨林场离退休职工养老保险、医疗保险、西部补贴、增量补贴共计161.8万元等；八是共投入“温暖工程”资金140余万元，保证了农村困难群众顺利过冬。 （六）围绕改革创新，加大力度，积极探索，财政各项改革工作得以进一步深化 一是积极探索国库集中收付制度改革，不断建立健全现代财政国库管理制度，提升财政国库管理水平，积极推进会计核算中心向国库集中收付转轨工作。二是政府采购工作进一步加强，政府采购范围和规模不断扩大，采购资金财政直接拨付金额不断增加，规章制度不断完善，监督管理不断加强。全年共组织实施政府采购68次，实现采购合同1470万元，节约资金209万元，资金节约率为14.2%。三是积极推进部门预算改革试点，强化预算刚性。四是积极推进金财工程建设。五是继续做好农村税费改革转入农村综合改革新阶段后的有关工作，积极探索“乡财县管乡用”和“村财乡（镇）代管村用”改革试点。 （七）围绕反腐倡廉，强化监管，完善制度，财政资金使用的效益性和安全性得以体现 一是分解和督促落实各项反腐败工作。二是制定和完善财政专项资金管理制度，努力构建财政监督新机制。三是组织开展各项财政监督检查工作，促进全县财政部门依法行政。四是落实执法责任，加强制度建设和法制监督。五是加强了会计监督和“收支两条线”执行力度，严格控制“坐支”现象和“白条”入帐，进一步严肃财经纪律。六是逐步推进了项目追踪问效和反馈机制，对国债项目、农发项目、小城镇建设项目以及由县财政承贷的贷款资金等加大督促力度，确保财政资金及时足额到位，安全有效使用。七是加强工程项目招投标管理，严格控制工程预算。2008年，共委托中介机构或专家评审施工图预算86个，送审金额为17376.49万元，核定金额为14025.88万元，审减金额3356.61万元，审减率达19%。八是加强票据管理，有效防止乱收费行为及坐收坐支的发生。 总的来看，过去的一年，我县在面对特大自然灾害和经济形势极为严峻的情况下，所取得的成绩令人欣慰。在充分肯定我县财政工作成绩的同时，我们还必须保持清醒头脑，充分认识当前我县财政工作中存在的突出矛盾和问题：一是财政收入结构不够合理，收入基础脆弱，新的支柱税源较少。二是财政收支矛盾依然十分突出，财政资金绩效和引导作用不够理想。三是政府债务负担较重，防范和化解财政风险的任务艰巨。四是财政管理法制化、规范化、精细化、科学化程度有待进一步加强，特别是预算执行刚性约束的力度还需加大，理财水平有待进一步提高等等。对于这些问题，我们都必须在今后的工作中高度重视，深入思考，积极应对，坚持用深化改革和科学发展的办法来着力加以解决。 三、2009年全县经济财政形势、财政工作总体要求和预算安排情况 （一）2009年全县经济财政形势 在今年年初召开的县委十届六次全会上，对当前我县所面临经济形势作了深入细致的分析，并全面部署了今年全县的经济工作，同时对财政工作也提出了明确的要求。会议分析指出，今年，我县经济社会发展面临的形势既有挑战，更有机遇。我们一定要沉着应对挑战，抢抓中央扩大投资、扩大信贷规模和国内外市场需求变化的机遇，提升经济发展质量。 今年，将是财政工作十分困难的一年，预计全县财政收入增幅将明显下滑，同时支出压力将进一步加大，财政收支矛盾将更加突出。一方面，由于经济增长放缓，部分行业和企业生产困难加剧，尤其是企业效益大幅下滑，财政收入来源减少，加上全面实施增值税转型改革和一系列减免税政策，经济下行与政策性减收两项因素叠加，将使财政收入增幅大幅下降；另一方面，在抢抓国家扩大内需、实施扩大内需项目，增加政府投资规模，切实保障和改善民生，财政投入向经济社会发展的薄弱环节和重点领域倾斜，实现基本公共服务均等化等方面，都要求财政部门要进一步加大对交通、“三农”、教育、社保、卫生、科技、节能减排、生态建设等方面的投入，财政支出压力进一步加大。在充分估计困难的同时，我们也应看到经济社会发展的有利条件，在国家财政实力持续壮大的基础上，宏观调控经验不断丰富，调控能力显著增强，财政、货币政策和扩大内需政策措施的落实，都将对促进经济平稳增长发挥重要作用。 （二）2009年财政工作的总体要求 根据全国、全省和全市财政工作会议精神以及县委十届六次全会对财政工作的要求，2009年我县财政工作的总体要求是：以邓小平理论和“三个代表”重要思想为指导，深入贯彻学习实践科学发展观，全面贯彻党的十七大、十七届三中全会和县委十届六次全会精神，坚持增收节支、统筹兼顾方针，合理安排预算收支规模；落实积极财政政策，发挥财政杠杆作用，促进经济平稳增长；继续调整和优化支出结构，严格控制一般性支出，重点保障和改善民生，重点支持扩大内需项目、重大项目、实事项目；牢固树立过紧日子的指导思想，集中财力办大事；继续深化预算制度改革，强化财政监督职能，提高预算管理的规范化、制度化、精细化和科学化，切实增强财政资金使用的经济效益和社会效益。 （三）2009年全县财政收支预算安排 按照上述总体要求，结合我县实际，综合考虑经济发展速度放缓、减收增支等因素，对2009年财政收支预算提出如下安排意见： 1、一般预算收支安排 （1）收入安排情况 2009年，我县财政总收入预算94,660万元，增长12%，增加10,142万元；地方财政收入预算40,918万元，增长12%，增加4,384万元，其中：税收收入预算33,000万元，增长18.7%，增加5,201万元，非税收入预算7,918万元，下降9.4%，减少817万元。地方财政收入分部门预算情况为： ——国税部门预算8,200万元，增长16.9%，其中，增值税15%部分预算6750万元，增长18.4%，所得税预算1,450万元。 ——地税部门县级收入预算26,300万元，增长20.6%。 ——财政部门预算6,418万元，下降16.8%。 （2）支出安排 2009年，按现行财政体制测算我县财力预计为59,382万元，具体构成为：地方财政收入40,918万元，加中央转移支出补助相对固定部分18,531万元（不含专款，含税收返还补助2411万元，民族地区转移支付补助2075万元，所得税基数返还838万元，调整工资转移支付补助6,843万元，农村税改转移支付补助1,287万元，一般性支付补助904万元，取消农业税中央转移支付补补助1179万元，缓解县乡财政困难转移支付1500万元，农村义务教育补助1,415万元，其他补助收入79万元），加上年结余605万元，减上解支出672万元。根据“量入为出、统筹兼顾、突出重点、收支平衡，不出赤字”的原则，2009年支出预算安排59,382万元,比上年预算数增长18.7%（其中:县本级47,882万元，比上年预算数增长19.63%,乡镇级预留11,500万元, 比上年预算数增长15%），保持当年财政收支预算平衡。县本级主要支出项目预算安排情况为： ——基本公共管理与服务安排6766万元，比上年预算数增长21.76%，增加1209万元。 ——公共安全安排2655万元，与上年预算数基本持平。 ——教育安排17836万元，比上年预算数增长15.68%，增加2418万元。 ——科学技术安排918万元，比上年预算数增长12.09%，增加99万元。 ——文化体育与传媒安排515万元，比上年预算数增长11.96%，增加55万元。 ——社会保障和就业安排2395万元，比上年预算数增长89.18%，增加1129万元。其中，人劳局个人支出上年列入“基本公共管理与服务”支出科目，今年列入该科目增加366万元；农村危房改造县级匹配资金预算288.2万元,农村最低生活保障县级匹配预算159万元,上年专款结转列入今年预算165.22万元. ——医疗卫生安排3801万元，比上年预算数增长5.79%，增加208万元。 ——环境保护安排443万元，比上年预算数下降17.96%，减少97万元。其中，排污费支出当年安排300万元，另269万元结转下年安排。剔除结转因素，实际增长31.9%。 ——城乡社区服务安排595万元，比上年预算数增长114.8%，增加318万元，其中，含上年结转专款256万元,实际增加62万元，同口径增长22.38%。 ——农林水事务安排2473万元，比上年预算数增长38.93%，增加693万元。 ——交通运输安排343万元，比上年预算数增长37.75%，增加94万元。 ——采掘电力信息等事务安排407万元，比上年预算数增长3.3%，增加13万元。 ——粮油物资储备及金融监管等事务安排349万元，比上年预算数增长11.86%，增加37万元。 ——国债事务安排3000万元（政府债务利息支出），比上年预算数增长200%，增加2000万元。 ——其他支出安排5386万元，比上年预算数下降5.77%，减少330万元。其中:非税收入安排支出预留1000万元,行政事业单位正常晋升工资预留400万元，目标奖预留830万元,上级专款需县级匹配资金预留300万元，学习、考察、培训经费预留50万元，住房改革支出安排1239万元，项目申报及项目前期工作经费等预留300万元，会议费预留200万元,总预备费安排1000万元，其他支出安排67万元（移民局工资等）。 2、基金预算收支安排 2009年，我县政府性基金预算收入安排550万元，其中：地方教育附加安排500万元，残疾人就业保障金收入安排50万元。 2009年，我县政府性基金预算支出安排1,402万元（含上年结转852万元），其中：地方教育附加安排500万元，国有土地使用权出让金支出安排847万元，残疾人就业保障金支出安排55万元。 （三）2009年财政工作主要措施 2009年，我县财政工作必须紧紧围绕全县经济社会大局，认真落实积极的财政政策，进一步完善公共财政体系，统筹兼顾、突出重点，着力抓好以下五个方面的工作。 1、狠抓增收节支，强化预算管理，确保圆满完成全年预算任务 增收节支是财政工作永恒的主题。我县新形势下的增收节支，一是进一步提高税收征管的质量和效益，确保税收收入随着经济发展实现平稳较快增长。二是坚持依法治税，认真做好增值税转型的落实工作，全面规范税收执法行为，做到应收尽收。三是要坚持保证重点、控制一般，严格执行《预算法》，强化预算刚性。大力弘扬艰苦奋斗精神，牢固树立过紧日子、勤俭办一切事业的思想。严格控制公务购车、会议费、公务接待费、出国经费等，县直部门一般共用支出实行“零增长”。三是强化预算执行管理，提高年初预算到位率。同时，加强预算执行情况分析，及时解决预算执行中存在的问题。 2、抓住工作重点，强化工作措施，确保积极的财政政策落到实处 坚持抓住关键、突出重点，集中财力办大事，把支持交通、水利为重点的基础设施作为头等大事。一是积极组织协调各种资金支持永久铁路、城际铁路、息开高速路建设。二是大力支持水利建设，重点支持农村安全饮水、烟水配套、病险水库治理和以云湾水库为代表的水利工程建设。三是积极推进税制改革工作。落实税收优惠政策，减轻企业税收负担。四是努力提高低收入群体收入，落实好财政补贴的“家电下乡”工程实施，发挥消费对经济的拉动作用。五是紧紧抓住中央扩大政府投资的良好机遇，搞好项目库建设，配合做好项目筛选和申报工作，加强与上级部门的汇报衔接工作。六是加强对中央扩大内需资金的监督管理，确保资金安全、合规、有效。七是配合落实好中央取消100项、省取消49项行政性收费政策。 3、突出公共财政，加大三项投入，确保财政支持向重点领域倾斜 一是建立健全支农资金稳定增长机制，加大对农业的投入。二是以保障和改善民生为重点，加大对民生的投入。三是提高对基本公共服务均等化的保障能力，加大对社会事业的投入。 4、加强支出管理，强化财政监督，确保财政收支活动实现全程监管 对财政收支活动的监督检查，是实现财政管理目标的重要保证，要进一步完善监督检查机制，建立覆盖财政收入、支出、管理全过程的监督管理体系，保证所有财政收支活动全部纳入监督视野。一是推进财政科学化、精细化管理。逐步建立一套监督有力、评价科学、问责有效的监督考核体系。二是认真贯彻落实《预算法》、《会计法》、《政府采购法》、《行政许可法》等财经法律法规，加大执法力度，健全财政监管机制。三是要加强对政府债务的管理，积极规避和消化财政风险。探索建立政府债务良性循环机制，做到举债有度、用债有效、还债有信、管理有方。 5、增强创新意识，深化财政改革，确保财政工作“四化”要求得到落实 一是着力构建有利于科学发展的财政体制机制。县级财政将紧紧抓住今年省、市政府完善财政体制和规范转移支付制度的机遇，积极支持配合好各种调研以及数据测算工作，并适时调整和完善县乡财政体制。二是继续深化部门预算改革。进一步促进部门预算编制的科学化和精细化，增强预算执行的严肃性和权威性，尽量减少预算执行中的追加行为。三是要积极探索国库管理制度改革，力争推行国库集中收付制度。四是要不断完善政府采购制度。五是要积极探索“乡财县管乡用”和“村财镇管村用”改革试点工作。六是要搞好支农资金整合改革试点。七是继续做好财政系统“金财工程”建设，推动财政工作信息化。八是要进一步加强财政干部队伍自身建设。 各位代表：全面完成2009年财政收支预算，实现财政收支平衡，搞好各项财政工作，任务相当艰巨。我们坚信，在县委的正确领导下，在县人大的法律监督、工作监督和县政协的民主监督下，我们将牢固树立科学发展观，进一步解放思想，振奋精神，求真务实，顽强拼搏，为构建和谐开阳和促进我县经济社会事业的跨越式发展作出新的、更大的贡献。', '开阳县2009年全县及县本级财政预算执行情况与2010年全县及县本级财政预算（草案）报告']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>245</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议学习贯彻习近平总书记近期重要讲话精神传达学习李强总理在贵州调研时的讲话精神</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202404/t20240429_84374274.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 学习贯彻习近平总书记近期重要讲话精神 传达学习李强总理在贵州调研时的讲话精神 - 贵阳市人民政府', '市委常委会和贵安新区党工委召开会议 学习贯彻习近平总书记近期重要讲话精神 传达学习李强总理在贵州调研时的讲话精神', '4月28日，市委常委会和贵安新区党工委召开会议，深入学习习近平总书记在新时代推动西部大开发座谈会上的重要讲话、在重庆考察时的重要讲话精神，传达学习李强总理在贵州调研时的讲话精神，落实全国和省近期会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市政协主席石邦林，市委副书记滕伟华，市委常委，市政府和贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，习近平总书记在新时代推动西部大开发座谈会上的重要讲话，深刻阐述了事关西部地区高质量发展的根本性、全局性、长远性问题，为进一步推动西部大开发形成新格局指明了前进方向、提供了根本遵循、注入了强大动力。要坚定不移推动产业转型升级，加快改造提升传统产业，培育壮大新兴产业，布局建设未来产业。要坚定不移实施生态立市战略，狠抓“六个生态”建设，深入推进“一城一战一整改”。要坚定不移扩大对外开放，积极拓宽开放通道、培育开放主体、建强开放平台、优化开放环境，以高水平开放促进高质量发展。要坚定不移统筹发展和安全，围绕能源资源安全保障能力，强化精确探矿、精准配矿、精细开矿、精深用矿，高质量抓好“富矿精开”。要坚定不移加强民生保障，持续推进城市“一圈两场三改”、农村“五治”和为民办实事，不断增进民生福祉、提高人民生活品质。要坚定不移铸牢中华民族共同体意识，积极构建大统战工作格局，全力维护民族团结、抓好宗教工作，凝聚“强省会”强大合力。', '会议强调，要深入学习贯彻习近平总书记关于巩固拓展脱贫攻坚成果的重要指示精神，认真落实李强总理在贵州调研时的讲话精神，扎实推动政策落地、措施落细、任务落实。要持续巩固拓展脱贫攻坚成果，严守不发生规模性返贫底线，持续抓牢“3+1”保障，有效通过发展产业带动更多就业。要持续推动乡村全面振兴，狠抓产业、人才、文化、生态、组织“五个振兴”，加快促进农业高质高效、乡村宜居宜业、农民富裕富足。要持续压紧压实责任，全面落实乡村振兴责任制，抓好领导、部门和属地责任落实，形成齐抓共管良好格局。', '会议强调，要认真学习2024年全国、全省“扫黄打非”工作会议精神，深刻认识“扫黄打非”工作的重要性，持续加大综合整治、源头整治、系统整治力度，深入推进“扫黄打非”进基层工作，切实提升工作整体效能。要认真学习省委常委会会议精神，毫不放松坚持党的领导、加强党的建设，持续深化整治形式主义为基层减负，奋发有为推进贵阳贵安现代化建设。', '胡忠雄：做足“吃住行游购娱”精细化服务文章 持续提升“爽爽贵阳”城市品牌知名度美誉度']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>245</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议学习贯彻习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240326_83992935.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 学习贯彻习近平总书记近期重要讲话精神 - 贵阳市人民政府', '3月25日，市委常委会和贵安新区党工委召开会议，深入学习贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话和在湖南考察时的重要讲话精神，传达学习全国、全省组织部长会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市人大常委会主任聂雪松，市政协主席石邦林，市委副书记滕伟华，市委常委，市人大常委会、市政府、市政协、贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，要深入学习贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话和在湖南考察时的重要讲话精神，深刻认识科技创新是发展新质生产力的核心要素，奋力谱写中国式现代化贵阳贵安实践新篇章。要全力推进现代化产业体系建设，牢固树立产业链思维，持续培育壮大“1+7+1”产业，加快构建现代产业体系，不断夯实“强省会”的产业基础。要全力推进乡村振兴，扎实推动乡村产业、人才、文化、生态、组织振兴，加快促进农业高质高效、乡村宜居宜业、农民富裕富足。要全力推进生态文明建设，深入实施生态立市战略，扎实抓好“一城一战一整改”，奋力当好在生态文明建设上出新绩的排头兵。要全力推进文化贵阳建设，深度挖掘红色文化、阳明文化、民族文化、群众文化等文化资源，大力推动文化事业和文化产业繁荣发展，为中国式现代化贵阳贵安实践注入精神动力。', '会议强调，要深入学习贯彻习近平总书记关于党的建设的重要思想，落实全国、全省组织部长会议精神，奋力推动组织工作高质量发展。要突出思想认识，深刻把握最高原则、根本使命、重大任务，更好服务保障贵阳贵安高质量发展和现代化建设。要突出工作重点，不折不扣抓好理论武装、干部队伍、组织建设、人才工作，更好把组织力量、组织优势有效转化为贵阳贵安的发展动力、发展优势。要突出自身建设，认真落实“六个最讲”要求，努力建设讲政治、重公道、业务精、作风好的模范部门。', '贵阳市各区（市、县、开发区），贵安新区各乡镇（街道），贵阳贵安有关部门负责人参加。', '市委常委会和贵安新区党工委召开会议 传达学习省委近期会议精神 研究调度贵阳贵安法治建设']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>245</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>杨德学</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2022-12-30</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/ztzl/rdzt/ztzlwmcsrmcwmcgrrx/ztzlwmcsrmcwmcgrrxhrhs/ztzlwmcsrmcwmcgrrxhrhsjyfx/202302/t20230228_78323693.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['杨德学，男，1970年2月生，中共党员，贵州省贵阳市息烽县石硐镇前丰村党支部书记。', '2013年，杨德学被推选为村支书。他利用远程教育自学种植技术，多次往返重庆、广东、广西等地学习考察，根据村实际选定西红柿作为产业发展。带头成立息烽县大地农丰蔬菜种植农民专业合作社，向村民们详细讲解产业发展和蔬菜种植前景，提高村民参与合作社的积极性。鼓励村民以土地入股，提供技术和资金，指导村民发展西红柿种植产业。在他的带领下，合作社发展社员127户，蔬菜种植面积500亩以上，年创收300万余元，人均增收2万元。2021年，合作社实现年利润50万元以上，吸纳周边农户用工1000余人次，农户年人均务工收入增加8000余元。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>245</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化四川新篇章返京途中在陕西汉中考察</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2023-07-30</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/qgyw/202307/t20230730_81345455.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察 - 贵阳市人民政府', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察 蔡奇陪同考察', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是25日下午，习近平在广元市剑阁县翠云廊考察。', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆文物保护与修复馆，同现场工作人员亲切交流。', '中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '7月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是26日下午，习近平在位于德阳市广汉市的三星堆博物馆新馆参观。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '7月29日，中共中央总书记、国家主席、中央军委主席习近平在四川考察结束返京途中，来到陕西省汉中市考察。这是习近平参观汉中市博物馆有关历史文物展陈。', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>245</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习贯彻习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202204/t20220420_73507344.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习贯彻习近平总书记考察海南时的重要讲话精神 - 贵阳市人民政府', '市委常委会和贵安新区党工委召开会议 传达学习贯彻习近平总书记考察海南时的重要讲话精神', '4月19日，市委常委会和贵安新区党工委召开会议，传达学习习近平总书记考察海南时的重要讲话精神，《信访工作条例》精神，谌贻琴同志调研威宁县、李炳军同志调研贵州磷化集团时的讲话精神和近期批示指示精神，以及省有关会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇，市人大常委会主任聂雪松，市政协主席石邦林，市委副书记陶平生，市委常委，市人大常委会、市政府、市政协和贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，习近平总书记考察海南时的重要讲话，高瞻远瞩、思想深刻、内涵丰富，对我们抓好各项工作具有重要指导意义。各级各部门要把学习贯彻落实习近平总书记考察海南时的重要讲话精神与贯彻落实习近平总书记视察贵州重要讲话精神结合起来，抢抓新国发2号文件重大机遇，深化改革开放，切实抓好城市“一圈两场三改”和农村“五治”等民生实事，坚持以党的政治建设为统领推进党的各方面建设，持之以恒推进全面从严治党，坚定不移推动贵阳贵安高质量发展。', '会议强调，要坚定不移抓好信访维稳，把学习宣传贯彻《信访工作条例》作为一项重要政治任务，压紧压实责任，强化基层工作，提高服务本领，全面落实“三到位一处理”要求，加强源头预防和基层治理，打造一支对党忠诚可靠、恪守为民之责、善做群众工作的高素质信访工作队伍，以高质量信访工作保障贵阳贵安高质量发展。要坚定不移推动乡村全面振兴，坚持以乡村振兴统揽新发展阶段“三农”工作，紧盯强农业、强民生、强基础，突出“五个关键”，培育壮大“四大新型农业经营主体”，深化农村“四块地”改革，扎实开展农村“五治”工作，加快建设一支懂农业、爱农村、爱农民的“三农”工作队伍，推动乡村振兴取得更大成效。', '会议强调，要坚定不移促进居民增收，大力实施促进居民增收三年行动，着力扩规模、拓渠道、强保障，围绕提高居民工资性、经营性、财产性、转移性收入精准施策，以强产业扩大就业规模，以扩大就业带动城乡居民增收，稳步提高城乡低收入群体政策兜底保障水平，在做大做好“蛋糕”的同时把“蛋糕”切好分好。要坚定不移推动档案工作高质量发展，全面加强党对档案工作的领导，履行好为党管档、为国守史、为民服务的职责使命，强化学习、强化安全、强化责任，以对历史高度负责的态度做好档案资料的收集工作，记录好“强省会”的奋斗历史，更好发挥档案工作存史资政育人的重要作用。', '会议强调，要坚定不移推动工业大突破，切实增强发展工业特别是制造业的紧迫感、使命感和责任感，统筹好发展和安全，抓紧抓牢“风口”机遇加快发展新能源产业，下大力气解决企业投资生产经营中的“堵点”“痛点”问题，全力以赴做大做强制造业，为“强省会”提供有力支撑。要坚定不移抓好疫情防控，坚持“外防输入、内防反弹”总策略和“动态清零”总方针，压实“四方”责任，落实“四早”要求，准确把握疫情动态走势，坚决守好外防输入防线，保持防控指挥体系处于激活状态，保障好群众日常生活需求和正常就医需求，从严从紧从快从细落实各项防控举措，为党的二十大和省第十三次党代会胜利召开营造良好环境。', '市委常委会和贵安新区党工委召开会议 研究中央生态环保督察反馈问题整改和闲置低效旅游项目盘活工作']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>245</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>贵安新区年面向全省公开考聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2023-10-14</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/gaxq/202310/t20231014_82752507.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['为进一步加强新时代贵安新区人才队伍建设，优化人员结构，根据《关于进一步加强和改进干部调配工作的通知》（黔组通〔2010〕81号）、《关于进一步做好我省事业单位公开招聘相关工作的通知》（黔人社厅通〔2017〕584号）规定，经研究，决定面向全省开展公开考聘事业单位人员工作,现将有关事项公告如下：', '本次共计划考聘事业单位工作人员55名，其中：管理岗位人员45名，专业技术岗位人员10名。具体情况详见《贵安新区2023年面向全省公开考聘事业单位工作人员岗位一览表》（附件1）。', '贵州省范围内已进行公务员登记在编在岗的公务员（含参照公务员法管理机关〈单位〉已进行参照登记在编在岗的工作人员）中，自愿放弃公务员（或参公）身份的人员。', '中央在黔单位、省内各级机关（单位）垂直管理单位和派出机构符合条件的人员可参加考聘。', '政治立场坚定、政治素质过硬，增强“四个意识”、坚定“四个自信”、做到“两个维护”。', '基层工作经历是指在县（市、区）、乡（镇、街道）党政机关,村（社区）党组织或村（居）委会,以及各类企业、事业单位工作的经历。军队转业干部在军队团和相当于团以下单位工作的经历,退役士兵在军队服现役经历,可视为基层工作经历。', '乡（镇、街道）领导班子成员符合条件报考的,按干部管理权限报上级党（工）委组织人事部门审批同意。', '年龄要求：一般应在35周岁及以下；具有硕士研究生学历学位或中级职称专业技术任职资格的，年龄可放宽至40周岁；具有博士研究生学历学位或副高级及以上职称专业技术任职资格的，年龄可放宽至45周岁。', '学历要求：普通高等院校大学本科以上学历（取得相应学士学位证书）；国（境）外毕业生须取得教育部国（境）外学历学位认证。', '进入机关事业单位以来历年考核应为称职（合格）及以上等次（试用期考核除外）且未受过党纪、政纪处分。', '报名人员除应当具备《党政领导干部选拔任用工作条例》《贵州省事业单位领导人员管理办法》等法律法规要求的基本条件外,还应当具备以下任职资格:', '报考事业单位八级、七级管理岗位领导职务的,应当具有4年以上工作经历。其中,报考事业单位七级管理岗位的管理人员，应现担任事业单位七级以上管理岗位领导职务，或担任八级管理岗位2年以上领导职务。报考事业单位八级管理岗位的管理人员，应现担任事业单位八级以上管理岗位领导职务，或在九级管理岗位上工作3年以上。报考事业单位七级管理岗位的专业技术人员,应现担任副高级专业技术职务,或担任2年以上中级专业技术职务;报考事业单位八级管理岗位的专业技术人员,应现担任中级专业技术职务,或担任3年以上初级专业技术职务。', '公务员（参照公务员法管理的人员）报名参加公开考聘的，应具备管理岗位的相当职务职级层次、任职资格条件，或专业技术岗位的专业技术资格。', '尚在试用期或者提拔担任领导职务未满1年的。乡（镇、街道）党政领导班子成员任职不满3年的。', '受处分期间或未满影响期限或涉嫌违纪违法正在接受有关专门机关审查调查尚未作出结论的。', '聘用后即构成回避关系的。报名人员不得报考任职后即构成公务员法第七十四条第一款所列情形的考聘职位，也不得报考与本人有夫妻关系、直系血亲关系、三代以内旁系血亲关系以及近姻亲关系的人员担任领导成员的用人单位的职位。', '任职（工作）或服役期间发生重大责任事件；曾因贪污、行贿受贿、泄露国家机密等原因受到过党纪、政纪处分的。', '报考人员只能选择一个岗位进行报名，报名与考试时使用的本人有效居民身份证信息必须一致。报名时，报考人员须仔细阅读《考聘公告》，如实填写《贵安新区2023年公开考聘事业单位工作人员报名信息表》（以下简称《报名表》，示例见附件2），上传的考生照片必须是10M以内、jpg、jpeg格式的一寸免冠电子照片。所填信息及照片（近期免冠照片）核对无误后，必须点击“提交报名表”提交报名信息。提交的报考申请材料应当真实、准确、完整。报考人员因身份证过期、信息填写失误、照片模糊变形等原因，导致网上资格审核不通过或后续考试过程中出现无法通过资格审查等问题的，后果自负。', '，如实填写、提交本人的有关信息和材料。报考人员提供虚假报考信息、材料的，任何阶段一经查实，即取消进入下一招聘环节的资格，责任由报考人员自负。', '本次公开考聘不收取报名费。每人限报一个岗位，多报无效。因错报、误报或瞒报造成的一切后果，由报考人员自负。', '资格初审在新区考聘工作领导小组的统一组织下，由新区考聘办具体负责。负责资格初审的人员根据报考人员填写的信息，对照《考聘公告》和考聘岗位所需的资格条件进行资格初审，对报考人员提交的《报名表》必须在提交后24小时之内审核完毕。经审查合格的予以确认；对审查不合格的说明理由；对照片质量不符合要求的提示报考人员重新上传照片。通过资格初审的人员，须自行下载并打印留存报考人员的《报名表》，供资格复审环节时使用。资格初审时间为2023年10月16日9:00至10月21日16:00。', '报名结束后，《岗位一览表》中岗位报名人数与岗位计划考聘人数达不到3:1比例的岗位，其考聘计划数予以减少或取消。考聘计划数减少的，报考该岗位的考生所报岗位不再进行调整；考聘计划取消的，由报考该岗位的考生本人申请，经新区考聘办同意后，予以改报其他岗位。改报时间为2023年10月22日9:00至12:00，逾期不再受理改报申请。', '《笔试准考证》是考生参加笔试、面试、体检、考核等考聘环节的重要凭证，请考生务必妥善保管。', '笔试类别：综合管理类。主要测试考生政策理论水平、分析和解决实际问题的能力、文字写作能力等综合素质及相关专业知识，满分为100分，时间为120分钟。', '地点见《笔试准考证》。考生须同时持有效二代《居民身份证》（或社会保障卡）和《笔试准考证》方能进入考场参加笔试。', '笔试结束后，由新区考聘办确定“最低笔试合格分数线”（即考生按笔试成绩可进入下一招聘环节的最低分数线）。', '资格复审在新区考聘工作领导小组的指导下，由新区考聘办负责。资格复审采取现场审查的方式进行，', '按照笔试成绩从高到低的顺序，各考聘岗位按照1:3的比例确定进入资格复审人员名单，进入资格复审最后一名成绩并列者，一并进入资格复审环节。因实际参加笔试人数减少导致未达到规定比例的，可适当降低进入资格复审人员比例，但比例不得低于1∶2。', '资格复审根据《考聘公告》和考生填写的《报名表》及提供的相关资料，对考生是否符合报考岗位所需的资格条件进行复审。经复审，对符合报考条件的考生，由负责资格复审的部门和人员签署意见，并加盖公章；对不符合报考条件的考生，取消其进入下一考聘环节的资格。因考生放弃资格复审或资格复审不符合报考条件的岗位，在报考该岗位最低笔试成绩合格分数线以上的考生中，按笔试成绩由高到低依次递补，递补可进行两轮。', '通过资格复审人数与岗位考聘计划数之比达不到3︰1的，减少该岗位考聘计划数（例：某岗位招聘计划数为2,通过资格复审人数为4或5,则该岗位招聘计划数减少为1,依此类推），减少后仍达不到3︰1的，报考该岗位考生是否进入下一考聘环节，由新区考聘办研究确定；岗位无考生通过资格复审的，取消该岗位考聘计划。', '资格复审合格人员名单由新区考聘办核准后，在“贵安新区官网”进行公示。资格复审合格人员名单公布后不再进行递补。', '资格复审贯穿公开考聘工作全过程，任何环节发现不符合资格条件者，取消其进入下一考聘环节的资格。', '参加资格复审的考生需对照报考岗位考聘条件要求，携带下列相关证件和材料，按规定时间到指定地点参加资格复审：', '（3）本人《干部人事档案专项审核认定表》《年度考核表》复印件（加盖“与原件一致”字样及档案管理单位公章）等考聘岗位要求的有关资格条件的证明材料；', '（5）本人所在单位根据干部管理权限报人事主管部门审核盖章的同意报考证明（示例见附件3）；', '未在规定时间参加资格复审或递补复审，或新区考聘办24小时内无法联系到递补复审人员的，视为自动放弃。', '资格复审合格者，进入面试；资格复审不符合报考条件或未按规定时间到指定地点参加资格复审的，取消进入面试资格。', '面试人员名单公布后不再进行递补。如果进入面试环节时，末位考生考试成绩并列的，同时参加面试。因考生个人原因未参加面试，导致参加人数未达招考比例的，不再减少考聘岗位计划数。', '面试满分为100分，设最低合格分数线为70分，面试成绩未达最低合格分数线者不能进入下一考聘环节。', '笔试、面试的成绩和总成绩得分均按“四舍五入法”保留小数点后两位数字，同一岗位应聘人员总成绩末位并列的，按实际成绩计算。', '体检在新区考聘工作领导小组监督指导下，由新区考聘办负责统一组织，在县级以上综合性医院、规定时间内进行并出具体检结论，其他体检结论、鉴定一律不予认可。体检标准按《公务员录用体检通用标准（试行）》（国人部发〔2005〕1号）、《关于修订〈公务员录用体检通用标准（试行）〉及〈公务员录用体检操作手册〉（试行）有关内容的通知》（人社部发〔2016〕140号）、《关于印发公务员录用体检特殊标准（试行）的通知》（人社部发〔2010〕82号）、《关于公安机关网络安全与执法等岗位录用体检视力项目适用标准的复函》（国公综函〔2014〕24号）和我省的有关规定执行。对主检医生认为需要做进一步检查方能出判断的，由新区考聘办研究同意后可进行复查。', '参加各岗位考聘体检的考生按照拟聘用人数2∶1的比例，根据总成绩从高分到低分确定。若同一岗位末位考生总成绩出现并列的，以面试成绩高的人员确定为体检对象。如笔试成绩、面试成绩、总成绩均相同，需重新组织面试，以新一轮面试成绩高者确定为体检对象。', '体检结束后，考生对体检结果有疑义的，在国家体检标准规定允许复检的项目内，考生应在接到体检结果通知3日内书面提出复检申请，经新区考聘办同意后组织复检。超过3日提交的复检申请不予受理，复检只能进行一次，体检结果以复检结论为准。', '体检时已怀孕的，暂不进行妇科和X光等项目检查，不做出体检是否合格结论，可继续进行考核，如考核中发现有影响聘用的问题，不予办理聘用手续；如考核合格的，待考生孕期结束后再进行相关检查并做出结论。', '体检医院在体检中不得擅自提供乙肝项目检测。因职业特殊需要在体检时作乙肝项目检测的，由新区考聘办确定。', '因考生放弃体检或体检不合格的，取消进入下一环节资格，产生的岗位空缺一律不予递补。体检和复检费用由考生自理，体检人员名单、时间将在“贵安新区官网”另行通知。', '根据总成绩从高到低的顺序确定考核对象;考察采取差额考核的方式进行,考聘计划数为1人的,考核对象与考聘计划数的比例为2:1;考聘计划数为2人及以上的,考核对象与考聘计划数的比例不低于1.5:1。同一职位报考人员总成绩末位并列的,面试成绩高的确定为考核对象,如面试成绩相同,则另行研究决定。', '新区组织人事部派出2名及以上人员组成的考察组，对考核对象的德、能、勤、绩、廉情况及其政治业务素质与考聘职位的适合程度进行全面考察，突出政治标准，深入考察政治忠诚、政治定力、政治担当、政治能力、政治自律等方面的情况，重点考察政治理论学习情况、制度执行力、履职能力、工作实绩和群众公认程度，严把政治关、品行关、能力关、作风关、廉洁关。', '考核不合格的，由考察组报新区考聘办审定并确认后，取消进入下一考聘环节资格。考核结束后,职位计划出现空缺的,根据该职位报考人员总成绩从高到低的顺序依次进行递补考核。', '根据考察情况和职位匹配情况，在考核合格的人员中按照干部管理权限集体讨论、择优确定拟聘用人员，不唯分取人，并分别在“贵安新区官网”和拟聘用人员原单位进行公示，公示期为5个工作日。', '公示期满,对反映有严重问题并查有实据的,取消考聘资格。没有问题或反映问题不影响聘用的,考聘机关（单位）安排试岗,试岗期为3个月。试岗期内,拟聘用人员在原工作单位的人事工资关系、待遇不变。试岗期满考核合格的,按照相关规定办理调动手续;考核不合格的,回原单位工作,相关情况报送贵阳市人力资源和社会保障局。', '认真落实《事业单位公开招聘人员暂行规定》关于回避制度的规定，对违反回避规定的公开招聘行为，及时予以纠正，造成不良影响的，对有关责任人进行严肃处理。', '考聘工作接受纪检监察部门以及社会各界监督。工作人员和考生要严格遵守有关规定和要求，如有违反或弄虚作假的，一经查实，将按照有关规定严肃处理。', '（六）本次考聘工作未尽事宜，由贵安新区事业单位公开考聘工作领导小组办公室研究确定。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>245</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>马宁宇认真学习借鉴科学谋划推动努力为推动高质量发展积蓄后劲</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202304/t20230413_79015209.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['马宁宇：认真学习借鉴 科学谋划推动 努力为推动高质量发展积蓄后劲 - 贵阳市人民政府', '4月10日至12日，市委副书记、市长，贵安新区党工委副书记、管委会主任马宁宇率队赴上海市考察招商，先后与上海市有关部门、企业、院校进行座谈交流，就深化务实合作达成系列共识。', '上海市人民政府副秘书长、上海市城市运行管理中心主任徐惠丽，上海市人民政府办公厅副主任盛强，中国太平洋保险（集团）股份有限公司总裁傅帆，上海张江（集团）有限公司董事长袁涛，上海电影艺术职业学院院长江泊，市政府秘书长李昂参加。', '马宁宇先后来到浦东新区改革开放展览馆、浦东城市规划和公共艺术中心，详细了解浦东30多年来改革开放、上海自贸试验区创新发展的生动实践和城市规划建设。他说，要认真学习借鉴浦东开发开放先进经验，进一步树牢开放发展理念，在产业园区、东数西算等领域与浦东新区深化合作，奋力打造内陆开放型经济新高地先行区。在上海市城市运行管理中心，马宁宇认真听取机制运行、平台建设等情况介绍，观摩浦东“城市大脑”功能演示。他指出，要把上海市智慧城市管理等方面先进经验，充分融入到贵阳城市运行管理中心建设中，大力推进城市运行“一网通办、一网统管、一网协同”，持续提升城市治理精细化水平。', '在沪期间，马宁宇分别与中国太平洋保险（集团）股份有限公司、上海张江（集团）有限公司、上海电影艺术职业学院负责人座谈交流，积极推介贵阳市、贵安新区。他说，当前，贵阳贵安正深入学习贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，深入实施“强省会”行动，发展速度快，投资潜力大。希望加强与企业、院校沟通对接，共同挖掘更多合作契机，务实推动合作项目尽快见效。我们将全方位做好服务保障，努力实现更高层次互利共赢发展。', '各企业和院校负责人对贵阳贵安未来发展前景充满期待，表示将充分发挥自身优势，积极推动项目建设，持续拓宽合作领域，助力贵阳贵安经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>245</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>胡忠雄做优合作存量扩大合作增量为高质量实现共赢发展奠定坚实基础</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202308/t20230824_82012306.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['胡忠雄：做优合作存量 扩大合作增量 为高质量实现共赢发展奠定坚实基础 - 贵阳市人民政府', '8月23日，省委常委、市委书记胡忠雄率队在昆明市考察招商。他强调，要深入学习贯彻党的二十大精神和习近平总书记关于区域协调发展的重要指示精神，坚定不移做优合作存量、扩大合作增量，为高质量实现共赢发展奠定坚实基础。', '云南云内动力集团有限公司党委书记、董事长，昆明云内动力股份有限公司董事长杨波，云南云内动力集团有限公司党委副书记、总经理王洪亮；中国对外翻译有限公司执行董事王剑辉，中译语通科技股份有限公司总经理王丹颖；贵阳贵安领导刘本立、黄波、吴宏春参加。', '云南云内动力集团有限公司是国有大一型企业，产业涉及柴油发动机、汽车零部件、农业机械、金融投资、新型能源汽车和节能材料等多个领域。在认真听取企业发展情况介绍后，胡忠雄对企业科技创新、精细化管理等方面取得的成果表示钦佩。他说，当前贵阳贵安正坚定不移推进工业强市、加快发展壮大主导产业和特色产业、着力打造“强省会”的核心引擎。希望双方在做强做优现有合作项目的基础上，围绕企业重点发展的产业板块，积极寻找新的合作机遇，不断巩固务实合作成果。贵阳贵安将紧扣企业发展所需，及时跟进服务配套，让企业安心投资、放心发展。杨波对胡忠雄一行的到来表示欢迎。在简要介绍企业发展情况后，他说，企业将用好用足贵阳贵安的配套支持政策，加快推动现有合作项目转型升级，积极发掘合作新契机、新领域，为地方制造业发展贡献更多力量。', '中译语通科技股份有限公司经过多年发展积淀，已自主研发了包括机器翻译、大数据、知识图谱、人工智能生成、人机交互和大模型等方向的关键技术。来到这里，胡忠雄步入企业展厅，详细了解企业技术优势、发展历程等方面情况，并与企业负责人交流座谈。胡忠雄对企业给予的关心关注表示感谢。他说，当前，贵阳贵安正大力实施数字活市战略、全力擦亮“中国数谷”城市名片。希望双方做好“一个顶层设计”、建好“一个工作专班”、谋划“一批合作项目”，围绕产业招商、数据交易、数据中心等领域，年度化、项目化推动合作走深走实。贵阳贵安将围绕“一套政策”，做好配套政策供给，用心用情为企业项目落地做好服务保障。王剑辉对贵阳给予的关注与支持表示感谢，他说，企业将把握机遇、发挥优势，加快把合作共识转化为合作方案、具体项目和发展成效，携手贵阳共同构建更全面、更深入、更持久的合作关系。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>245</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>马宁宇率队赴上海市考察招商</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/ldzc/sz_new/mny/ldhd_5885860/202304/t20230413_79016657.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['4月10日至12日，市委副书记、市长，贵安新区党工委副书记、管委会主任马宁宇率队赴上海市考察招商，先后与上海市有关部门、企业、院校进行座谈交流，就深化务实合作达成系列共识。', '上海市人民政府副秘书长、上海市城市运行管理中心主任徐惠丽，上海市人民政府办公厅副主任盛强，中国太平洋保险（集团）股份有限公司总裁傅帆，上海张江（集团）有限公司董事长袁涛，上海电影艺术职业学院院长江泊，市政府秘书长李昂参加。', '马宁宇先后来到浦东新区改革开放展览馆、浦东城市规划和公共艺术中心，详细了解浦东30多年来改革开放、上海自贸试验区创新发展的生动实践和城市规划建设。他说，要认真学习借鉴浦东开发开放先进经验，进一步树牢开放发展理念，在产业园区、东数西算等领域与浦东新区深化合作，奋力打造内陆开放型经济新高地先行区。在上海市城市运行管理中心，马宁宇认真听取机制运行、平台建设等情况介绍，观摩浦东“城市大脑”功能演示。他指出，要把上海市智慧城市管理等方面先进经验，充分融入到贵阳城市运行管理中心建设中，大力推进城市运行“一网通办、一网统管、一网协同”，持续提升城市治理精细化水平。', '在沪期间，马宁宇分别与中国太平洋保险（集团）股份有限公司、上海张江（集团）有限公司、上海电影艺术职业学院负责人座谈交流，积极推介贵阳市、贵安新区。他说，当前，贵阳贵安正深入学习贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，深入实施“强省会”行动，发展速度快，投资潜力大。希望加强与企业、院校沟通对接，共同挖掘更多合作契机，务实推动合作项目尽快见效。我们将全方位做好服务保障，努力实现更高层次互利共赢发展。', '各企业和院校负责人对贵阳贵安未来发展前景充满期待，表示将充分发挥自身优势，积极推动项目建设，持续拓宽合作领域，助力贵阳贵安经济社会高质量发展。', '马宁宇主持召开贵阳市政府贵安新区管委会党组会议 学习贯彻习近平总书记近期重要讲话精神']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>245</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>胡忠雄深化交流合作强化优势互补更好在高质量发展中实现互利共赢</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202307/t20230705_80681100.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['胡忠雄：深化交流合作 强化优势互补 更好在高质量发展中实现互利共赢 - 贵阳市人民政府', '7月4日，省委常委、市委书记胡忠雄率队在西安市考察招商。他强调，要深入学习贯彻党的二十大和习近平总书记关于区域协调发展的重要指示精神，深化交流合作，强化优势互补，更好在高质量发展中实现互利共赢。', '西部超导材料科技股份有限公司董事长冯勇、总经理杜予晅；西安正道能源机械设备有限公司董事长刘越浪、总经理王勇；贵阳贵安领导刘本立、王嶒、宋旭升参加。', '西部超导是国内领先、国际先进的超导材料、超导磁体、高端钛合金、高性能高温合金创新研发生产企业。来到这里，胡忠雄走进企业陈列馆，详细了解企业发展历程、产品优势等方面情况。在双方交流座谈中，胡忠雄对企业的家国情怀、使命担当、技术创新、战略谋划表示钦佩。他说，贵阳贵安正加快打造面向全国的算力保障基地，新能源汽车、电池及材料生产基地，全国重要的产业备份基地，双方合作市场有需求、服务有保障。希望企业紧扣国家战略，找准与贵阳贵安的合作契合点、着力点，持续深化交流合作，为壮大地方产业生态贡献力量。', '西安正道能源机械设备有限公司是由黔籍乡贤创办的国家高新技术企业。在这里，胡忠雄与企业负责人面对面交流座谈，仔细听取企业发展情况介绍。胡忠雄代表贵阳贵安对企业发展取得的成就表示祝贺。他说，贵阳贵安正加快发展以先进装备制造业为重点的制造业，加快打造现代产业体系，奋力当好全省高质量发展的“排头兵”、现代化建设的“领头羊”。希望企业坚定发展信心、把握发展机遇，扎实推进能源钻探、城市建设、生态环保等领域务实合作，立足贵阳贵安的产业生态和人才聚集优势推进企业数字化智能化建设，为家乡建设贡献更多力量。贵阳贵安将深耕“贵人服务”品牌，全力为企业拓展市场做好服务。', '考察招商中，企业纷纷表示，贵阳贵安产业生态完备、投资前景广阔。他们将牢牢把握发展机遇，用好用足贵阳贵安的比较优势，积极以务实合作融入地方产业生态建设，更好实现共赢发展。', '贵阳贵安开展2023年避暑季推介活动，向多地游客发出邀请——吹北纬26度的风 许你清凉一“夏”']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>245</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>胡忠雄强化优势互补深化互利共赢共同在务实合作中实现高质量发展</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202305/t20230512_79669385.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['胡忠雄：强化优势互补 深化互利共赢 共同在务实合作中实现高质量发展 - 贵阳市人民政府', '5月10日至11日，省委常委、市委书记胡忠雄率队赴武汉市开展考察招商。他强调，要深入学习贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，强化优势互补、深化互利共赢，共同在务实合作中实现高质量发展。', '楚能新能源股份有限公司董事长代德明，佳海产业发展集团股份有限公司董事长袁化，市委常委、市委秘书长刘本立，副市长宋旭升参加。', '楚能新能源股份有限公司是面向全球的新能源锂离子电池创新科技公司。来到这里，胡忠雄走进企业生产车间、企业展厅，详细了解企业发展战略、技术创新等情况。在双方座谈中，胡忠雄代表贵阳贵安感谢楚能新能源股份有限公司给予的支持，对企业战略眼光、创新理念、技术成果表示钦佩。他说，当前，贵阳贵安正深入贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，全力以赴围绕“四新”主攻“四化”，奋力推进高质量发展。我们高度重视双方务实合作，希望双方深度挖掘合作潜力，积极围绕汽车销售、电池制造等寻找合作机遇，共同让互利共赢的道路越走越宽。贵阳贵安将扎实做好双方合作顶层设计，加快组建工作专班，全力强化配套政策供给，更好助力企业发展。', '佳海产业发展集团股份有限公司是国内领先的产业园区开发运营服务商。在这里，胡忠雄与企业负责人座谈，详细了解企业优势、发展历程等情况。他代表市委、市政府对佳海产业发展集团股份有限公司给予贵阳贵安产业发展的关心关注表示感谢。他说，当前，贵阳贵安正深入实施“强省会”行动，坚定不移推进工业强市，正处于快速发展的重要阶段。佳海产业发展集团股份有限公司有着丰富的创新、管理、机制优势。希望双方围绕拓宽合作范围、突出合作重点、创新合作机制、加快合作项目，进一步丰富完善合作顶层设计，切实找准产业发展着力点，最大限度发挥双方优势，推动各阶段目标任务保质保量顺利实现，共同探索出一条中西部园区建设运营之路。贵阳贵安将积极做好园区服务配套，为企业加快发展创造良好条件。', '考察招商中，企业对贵阳贵安给予的支持表示感谢。他们表示，贵阳贵安营商环境优、投资潜力大，对贵阳贵安产业发展前景充满信心。将充分发挥专业技术优势，投资贵阳贵安、布局贵阳贵安，以实际行动积极参与“强省会”行动，为壮大地方产业生态贡献更多力量。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>245</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>胡忠雄推动合作向深层次多领域拓展为强省会提供更多更优的项目支撑</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2023-02-25</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202302/t20230225_78303090.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['胡忠雄：推动合作向深层次多领域拓展 为“强省会”提供更多更优的项目支撑 - 贵阳市人民政府', '2月24日，省委常委、市委书记胡忠雄率队赴杭州市开展考察招商。他强调，要深入学习贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，推动合作向深层次、多领域拓展，为“强省会”提供更多更优的项目支撑。', '传化集团董事长徐冠巨，传化集团总裁、新安化工集团董事长吴建华；杭州费尔斯通科技有限公司（火石创造）董事长金霞，火石创造首席执行官杨红飞；杭州锦江集团董事局主席钭正刚，杭州锦江集团总经理张建阳；贵阳贵安领导刘本立、毛胤强、宋旭升、付涛参加。', '传化集团有限公司的业态涵盖化学与新材料、智能物流、现代农业、科创产城领域，目前已发展为全球化、多品牌、多业务的千亿级产业集团。来到这里，胡忠雄详细了解企业的业务范围、技术优势、发展历程等方面情况，并与企业负责人座谈。胡忠雄代表贵阳贵安对企业为地方经济社会发展作出的贡献表示感谢，他说，贵阳贵安与企业在发展方向上有着较高的契合度，希望双方立足企业发展战略和贵阳贵安实际，加快完善长远合作顶层设计，迅速组建工作专班，积极在物流、化工等领域寻找合作机遇，让合作共赢发展之路越走越宽。贵阳贵安将强化配套政策供给，全力为企业做好服务。', '杭州费尔斯通科技有限公司（火石创造）是国内领先的现代产业数据智能服务商、中国产业大脑和产业大数据领域的准独角兽企业。在这里，胡忠雄现场观看企业有关系统平台演示，仔细听取数据驱动产业发展等方面介绍，并就双方加强全方位合作进行座谈。胡忠雄对企业近年来快速发展所取得的成绩表示祝贺。他说，当前，贵阳贵安正抢抓新国发2号文件重大机遇，坚定不移推进数字活市，加快促进数字经济和实体经济深度融合，着力打造具有竞争力的数字产业集群。希望企业尽快完善在筑组织架构，依托自身技术优势积极参与贵阳贵安园区数字化建设和产业大脑建设，探索数据价值化路径，共同实现更高质量发展。', '杭州锦江集团有限公司是一家主营环保能源、有色金属、化工新材料的现代大型民营企业集团。来到这里，胡忠雄仔细观看企业宣传片，详细听取企业发展情况介绍，对企业为贵阳贵安产业发展作出的贡献表示感谢。他说，企业经历的3次重大转型，充分展现了企业独特的战略眼光，贵阳贵安高度重视与企业的务实合作，希望依托企业的市场、管理、技术优势，积极推动铝加工产业建链补链延链强链，深度挖掘双方在生态环保、化工等领域的合作潜力，努力推出更多竞争力强、附加值高的产品，进一步助力贵阳贵安产业集群发展。', '考察招商中，企业对贵阳贵安未来发展前景充满期待，纷纷表示将立足贵阳贵安实际，充分发挥自身优势，牢牢把握发展机遇，认真谋划好、落实好双方形成的合作共识，持续巩固好现有合作，积极拓宽务实合作领域，努力为贵阳贵安经济社会发展贡献力量。', '马宁宇主持召开贵阳市政府常务会议贵安新区管委会主任办公会议 研究部署安全生产 民生保障 春耕备耕等工作']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>245</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>关于充分发挥人才公寓引才留才积极作用的建议</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2022-10-17</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytarddbjywfws/zwgkzdlyxxgkjytarddbjywfwsgys/202210/t20221017_76753921.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['人才公寓是一个地区为高层次人才而提供的短期居住周转房，目的是为吸引、凝聚优秀人才有一个良好的创新创业居所，人才安居到位就能让招才引智更有实效，从而可以通过人才资源的核心驱动推动经济社会又好又快发展。', '我市的人才公寓政策及落实情况还并不乐观，导致吸引人才、留住人才，发挥人才集聚效应的成效也不明显。因为受政策、规划、管理、资金等多种因素限制，人才公寓的入住率并不高，人才公寓的作用并没有充分发挥，一些问题急需解决，突出表现在以下方面：', '门槛高导致可望而不可及。目前的人才公寓申请条件是根据学历、职称等内容作为初选条件，要求的学历和职称都比较高，将很多高技能人才、高级职业经理、重点企业中高层全部挡在门外。', '需求与供给的矛盾。在我市创新创业的人才中，有很大一部分来自于城区外，在重点企业就业的中高层白领大部分都是从外部引进过来，人才公寓需求量很大，但是人才公寓数量明显不足。', '公寓规划不科学。人才公寓虽然在地理位置、交通便利上符合需求，但是并没有规划设计出大、中、小相配套的组合式公寓模式，大的套间过于浪费闲置，符合单身人才需求的小套间量太少。', '人才公寓总量上要跟进。充分整合公租房、廉租房、征地安置房闲置资源，以租赁的形式纳入到人才公寓管理，即可以解决被征地农民房租出租问题，又可以降低人才公寓运营成本，人才也可以实现对人才公寓的地域选择。', '人才公寓建设规划上要科学。在规划设计中，要综合考虑大、中、小各种套间，同时也要建设如同宿舍公寓式的', '对人才公寓政策上进行适当调整。根据目前的实际需求适当调整政策，将申请入住的条件放低、申请入住程序简化、完善准入退出机制，形成具有我市特色的高、中、低端人才公寓入住新貌，成为吸引人才汇聚的重要砝码。', '人才公寓管理上要强化。各级主管部门要帮助人才公寓成立由人才组成的业主管理委员会，制定公寓文明公约，每月评选公寓文明之星和不文明行为，在公寓公示栏公示。或者直接采取第三方运营的模式对人才公寓进行管理，为人才安居提供优质的服务。', '等模式建设人才公寓公寓，实现政府补贴一部分、企业承担一部分、科技人员自己承担一部分的人才公寓运行模式，在降低财政支出的同时扩量提质。', '您提出《关于充分发挥人才公寓引才留才积极作用的建议》收悉。感谢对人才住房保障工作的关心。收到您的建议后，市人大、市政府高度重视，将此建议列为市人大选任联委督办件。现将办理情况答复如下：', '（一）加快建设。我市明确“十四五”期间计划筹建不少于10万套（间）保障性租赁住房，其中70%用于各类人才住房保障的目标任务。目前，市直有关部门正严格按照目标任务和时间节点，细化工作任务，加快推进项目落地建设，确保人才公寓供应得到保障。', '（二）盘活存量。对全市的住房租赁需求和存量房屋情况进行摸底，鼓励企业、高等院校等通过购买、租赁闲置厂房、办公用房、仓储用房和其他商业用房等非居住类房屋进行改建，改造作为人才公寓。', '（一）科学规划布局。坚持规划引领布局，项目优先选择交通便利、公共服务配套完善等区域布点规划。同时，满足就医、入学以及休闲等生活娱乐多样化需求。', '（二）合理确定户型面积。目前人才公寓的规划设计主要结合市场需求进行配置，主要以30—70平方米左右小户型为主。后续，将根据需求实际合理配备一定比例的套三户型，满足居住需要。', '（三）完善配套服务。依托我市“一圈两场三改”建设工作，结合“十五分钟生活圈”打造人才公寓项目周边的生活配套及交通、教育、卫生、托幼、便民生鲜超市等公共服务设施，进一步提升人才居住环境，增强留筑人才的幸福感、获得感、安全感。', '目前，我市人才公寓申请条件：青年人才公寓，申请人需同时满足：有大专及以上学历;年龄40岁及以下;本市内个人及配偶无房产;在贵阳市就业或自主创业。市级高级人才公寓，申请人及其配偶在贵阳市无住房，且没有享受省市区相关住房补贴政策;符合国际顶尖人才(A类)、国家级领军人才(B类)、省部级领军人才(C类)、在贵阳贵安创业、工作期间业绩显著、贡献突出的人才。此外，人才也可申请保障性租赁住房，其准入资格一是取消了申请人才公寓的年龄限制；二是对学历进行了放宽，不仅面向大专以上学历人才，产业园区技能人才也可申请入住。', '下一步，我市将继续探索放宽人才公寓入住条件、简化申请审批流程等，让贵阳留筑人才“租得到”，享受最全面、更便捷的住房居住体验。', '为了提高人才公寓服务质量，我市设立了专业的人才公寓运营管理单位即贵阳市人才安居服务有限公司，在公共区域配套了休闲娱乐、文体健身、生活服务等多功能区域，并安排楼栋管家为入住人才提供管家式服务，提供舒适温馨的居住环境。', '近期，市人力资源社会保障局组织市人才安居服务有限公司、市城投公司赴成都市实地考察万科泊寓项目，认真学习其运营管理经验。下一步，我市将不断完善人才公寓的服务品质，为各类人才提供高品质的居住空间与更优质的服务体验。', '目前，我市在加大保障性租赁住房建设力度的同时，继续加大政策宣传力度，通过联合房地产协会、租赁协会等多渠道筹集优惠房源及符合条件的居民自有房屋租赁，做大房源“蓄水池”，满足不同梯次人才的住房需求。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>245</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>胡忠雄坚定发展信心把握发展机遇更好在务实合作中实现政企互利共赢</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202302/t20230228_78320054.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['胡忠雄：坚定发展信心 把握发展机遇 更好在务实合作中实现政企互利共赢 - 贵阳市人民政府', '2月27日，省委常委、市委书记胡忠雄率队赴上海市开展考察招商。他强调，要深入学习贯彻党的二十大精神和习近平总书记视察贵州重要讲话精神，坚定发展信心，把握发展机遇，更好在务实合作中实现政企互利共赢。', '贵州数据宝董事长汤寒林，上海丰树管理有限公司首席执行官李沃文；市委副书记陶平生，贵阳贵安领导刘本立、毛胤强、宋旭升参加。', '贵州数据宝网络科技有限公司成立并孵化于贵安新区，2016年在上海成立分公司，为贵州公司提供研发远程支撑，开展技术、数据产品研发和拓展渠道资源。来到这里，胡忠雄仔细听取企业发展历程、经营管理、技术优势、股权结构等情况介绍，并与企业负责人交流座谈。胡忠雄说，数据是重要的生产要素，当前，贵阳贵安正坚定不移推进数字活市，加快促进数字经济和实体经济深度融合，推动贵阳贵安数字经济发展再上新台阶。希望企业抢抓贵阳贵安大数据发展的机遇，不断拓展业务范围，积极参与大数据交易，帮助地方培养更多大数据人才，努力实现企业高质量发展。贵阳贵安将持续做好服务保障，为企业在筑发展提供良好条件。', '上海丰树管理有限公司是一家多元化地产开发、投资、资本和物业管理公司，在亚太、欧洲、英国和美国市场拥有多样化的投资资产组合。在与企业座谈过程中，胡忠雄积极向企业推介贵阳贵安。他说，近年来，贵阳贵安始终坚持强省会首先强产业，产业园区发展迅速，政策支持日趋完善，主导产业持续壮大。贵阳贵安的发展理念与企业投资方向、经营理念、管理模式十分契合，希望企业把握发展机遇，持续做优合作存量，有效扩大合作增量，为地方经济社会发展贡献更多力量。贵阳贵安将提供最优质的“贵人服务”，让企业安心投资、放心发展。', '考察招商中，企业对贵阳贵安给予的支持表示感谢，对贵阳贵安发展充满信心。他们纷纷表示，将保持与贵阳贵安的良好沟通互动，充分发挥企业的技术优势、人才优势、管理优势，全力助推产业发展、人才培育，为地方现代化建设贡献更多力量。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>245</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>胡忠雄全力以赴营造优质营商环境为引进更多优质项目提供有力保障</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2022-08-20</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202208/t20220820_76135320.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['胡忠雄：全力以赴营造优质营商环境 为引进更多优质项目提供有力保障 - 贵阳市人民政府', '8月18日至19日，省委常委、市委书记、贵安新区党工委书记胡忠雄率队赴成都开展考察招商。他强调，要深入学习贯彻习近平总书记视察贵州重要讲话精神，抢抓新国发2号文件重大机遇，做优“贵人服务”品牌，着力营造优质营商环境，为引进更多优质项目提供有力保障。', '迈普通信技术股份有限公司总经理谭军，华西希望集团副董事长、总裁、特驱事业创始人王德根，桃子健康集团董事长、首席执行官吴浩；市委常委、市委秘书长刘本立，副市长宋旭升参加。', '迈普通信技术股份有限公司是中国电子信息产业集团有限公司网络安全与信息化领域的战略核心企业。来到这里，胡忠雄走进企业展厅详细了解企业发展和产品研发情况，并与企业负责人座谈交流。胡忠雄说，贵阳贵安与中国电子有着良好的合作关系，希望双方在此基础上，积极谋划合作顶层设计，进一步细化具体合作方案，加快推动产业项目落地，积极在地方高校学科建设、人才培训等方面寻找合作机遇，以实际行动将双方合作引向深入。谭军代表企业对胡忠雄一行的到来表示欢迎。他表示，企业技术优势与贵阳贵安发展高度契合，期待通过全方位的合作，深层次参与贵阳贵安数字经济发展，努力为地方信创产业发展贡献更多力量。', '在特驱集团，胡忠雄与企业负责人座谈交流，仔细听取企业业务发展情况介绍，并就下步合作达成系列共识。他代表贵阳贵安对企业长期以来为地方农业现代化作出的贡献表示感谢，他说，当前，贵阳贵安正积极培育引进新型农业经营主体，加快构建现代农业产业体系、生产体系、经营体系，具有广阔投资空间和发展机遇。希望双方聚焦合作目标，不断深化种植业、养殖业、加工业、教育业和智慧农业等领域合作，实现高质量共赢发展。贵阳贵安将加大支持力度，强化要素保障，集中优势资源助力企业在筑项目发展壮大。王德根对贵阳贵安给予企业的支持和帮助表示感谢。他说，贵阳贵安是投资兴业的沃土，是企业发展的福地，对于未来的合作充满信心，将抓紧制定有关工作方案和清单，持续加大投资力度，为助力贵阳贵安农业现代化贡献力量。', '桃子健康集团是一家以科技驱动的健康产业集团，来到这里，胡忠雄走进企业办公区，仔细听取企业经营状况介绍，并与企业负责人座谈交流。胡忠雄对企业发展所取得的成绩表示祝贺。他说，数字医疗发展前景广阔，希望双方牢牢把握发展机遇，共同落实健康中国战略，进一步扩大现有合作成果，加快组建工作专班、完善工作清单，推动贵阳贵安医疗服务质量提升，以实际行动让更多群众享受更高水平的医疗服务。贵阳贵安将全力支持企业发展，积极在医院、医疗、医生、医药、医保等方面推动场景开放，为企业发展提供支持。吴浩对胡忠雄一行的到来表示欢迎。他说，企业将保持与贵阳贵安的沟通协作，积极挖掘双方合作潜力，加快推动合作项目落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>245</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>胡忠雄聚焦主导产业引进优质项目不断推动产业大招商取得新成效</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2022-08-18</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202208/t20220818_76116684.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['胡忠雄：聚焦主导产业引进优质项目 不断推动产业大招商取得新成效 - 贵阳市人民政府', '8月17日，省委常委、市委书记、贵安新区党工委书记胡忠雄率队赴重庆开展考察招商。他强调，要深入学习贯彻习近平总书记视察贵州重要讲话精神，抢抓新国发2号文件重大机遇，强化区域产业协作，聚焦主导产业引进优质项目，不断推动产业大招商取得新成效。', '重庆长安汽车股份有限公司总裁王俊，海扶医疗董事长、超声医学工程国家重点实验室主任、超声医疗国家工程研究中心主任王智彪，重庆海扶医疗科技股份有限公司总经理、超声医疗国家工程研究中心执行主任蒋钢，深圳市南方同正投资有限公司董事长刘悉承，重庆特瑞电池材料股份有限公司董事长邱晓微，贵阳市、贵安新区领导刘本立、宋旭升参加。', '胡忠雄一行来到长安汽车全球研发中心，实地参观最新产品展示，详细了解新能源汽车电动动力系统、无线充电系统、发动机和新车研发设计等情况。他说，重庆长安汽车股份有限公司是国内知名汽车制造企业，近年来正积极向智能低碳出行科技公司转型，新能源汽车产销增长势头强劲，对长安汽车改革发展所取得的成就，我们深表钦佩。当前，新能源电池及材料产业正处在行业“风口”，贵阳贵安具有独特的矿产资源优势和产业基础。希望双方进一步立足自身优势，积极在新能源动力电池产业配套等领域探索合作方式，共同推动新能源汽车产业高质量协同发展。王俊介绍了重庆长安汽车股份有限公司的发展理念、产业布局和创新成果。他表示，贵阳贵安有着良好的营商环境、产业配套、矿产资源，正处于加快发展的黄金机遇期，将充分发挥自身优势，进一步强化沟通对接，探索在产业链分工、供应链协同等方面的合作，为贵阳贵安高质量发展贡献力量。', '重庆海扶医疗科技股份有限公司是一家从事超声波治疗研发、制造、销售的医疗设备和综合解决方案提供商。胡忠雄实地参观企业，详细了解企业技术优势和市场推广情况，并与企业负责人座谈。他强调，要加大对原创性技术创新的扶持，支持企业在贵阳贵安加大市场推广，推动生产和研发基地加快落户贵阳，让更多先进医疗技术服务贵阳贵安群众。王智彪介绍了企业研发创新和生产经营情况，表示将积极寻求与贵阳贵安的合作，加大企业技术创新和产品研发力度，更好地服务患者和促进地方经济社会发展。', '重庆特瑞电池材料股份有限公司主要从事锂电池正极材料研发、生产和销售。胡忠雄与企业负责人进行交流座谈，双方就加快项目建设、深化务实合作形成系列共识。他指出，希望双方坚定合作信心、加快合作进度、优化合作内容、成立合作专班，完善合作的顶层设计，推动贵阳贵安矿产资源优势与企业技术优势深度融合，加快推动合作项目落地。刘悉承对贵阳贵安给予企业发展的支持表示感谢。他说，将全力加快项目前期工作进度，持续强化沟通对接，力争合作项目早落地、早开工、早建成、早投产。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>245</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>胡忠雄率队赴深圳市考察招商</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2022-07-12</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220712_75508718.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['7月11日，省委常委、市委书记、贵安新区党工委书记胡忠雄率队赴深圳市部分企业考察招商。他强调，要深入学习贯彻习近平总书记视察贵州重要讲话精神，认真贯彻落实省第十三次党代会精神，唱好招商引资重头戏，提升产业大招商质效，加快推动更多优质项目落地见效，为粤黔东西部协作贡献贵阳贵安力量。', '宝润科技有限公司董事长、总经理李树峰，研祥高科技控股集团有限公司董事局主席陈志列，深圳科技工业园（集团）有限公司董事长何景成、总经理林展伟；市委常委、市委秘书长刘本立，市委常委、副市长林平，副市长宋旭升参加。', '当天，胡忠雄一行首先来到宝润科技有限公司，走进企业展厅听取产品研发、市场布局、应用场景等情况介绍，与企业相关负责人座谈。胡忠雄对企业技术创新、人才培育等方面工作所取得的成绩表示赞赏。他说，宝润科技是集医疗器械产品研发、生产、销售和服务于一体的技术型企业，具有良好成长性，希望双方积极落实建设“健康中国”的决策部署，牢牢把握粤黔东西部协作机遇，坚定发展方向，加快项目建设进度，进一步扩大产业规模，持续把合作成果巩固好拓展好。贵阳贵安将全力为企业项目和人才做好服务保障，为企业又好又快发展营造良好环境。', '在研祥智能科技股份有限公司，胡忠雄一行实地参观企业展厅，仔细听取企业产品和技术介绍，并就深化务实合作与企业负责人座谈交流。胡忠雄代表贵阳贵安对企业给予的关心关注表示感谢。他说，研祥智能科技股份有限公司是所属行业领域的领头企业、带头企业、龙头企业。贵阳贵安将学习研祥，认真学习企业创新思路、高效管理和企业文化；合作研祥，以本轮合作为起点，积极开拓合作领域；服务研祥，为企业在筑发展开辟绿色通道，加快推动合作走深走实，努力让合作共赢之路越走越宽。', '深筑产业园是深圳与贵阳贵安合作共建产业园区的平台载体，来到负责实施共建任务的深圳科技工业园（集团）有限公司，胡忠雄详细了解企业发展情况，同企业负责人交流座谈，对企业及产业生态伙伴给予贵阳贵安的支持表示感谢。他说，规划建设深筑产业园，是贵阳贵安深入落实粤黔东西部协作共识的重要举措，要坚持“政府引导、市场导向、企业主体、合作共赢”的原则，加快推进园区规划建设取得新成效。坚持高站位谋划好，以创新为引领，按照“一园一企一基金一政策包”模式，不断扩大合作共建范围，把深筑产业园打造成辐射带动周边发展的重要产业平台。坚持高起点规划好，精准做好产业规划、融资规划、空间规划，真正做到谋定而后动。坚持高标准建设好，紧盯建设项目、建设质量、建设进度，在确保品质品位的前提下以快制快、以快制胜。坚持高水平运营好，按照高端化、绿色化、集约化主攻方向，不断提升园区绿色化、数字化、智能化水平，为园区产业高质量发展营造良好环境。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>245</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>胡忠雄率队赴深圳考察招商</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220714_75544388.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['7月12日至13日，省委常委、市委书记、贵安新区党工委书记胡忠雄率队赴深圳考察招商。他强调，要深入学习贯彻习近平总书记视察贵州重要讲话精神，加大招商引资力度，进一步优化营商环境，让广大企业坚定投资贵阳贵安的信心，在“强省会”中实现更高水平政企双赢。', '海王集团股份有限公司党委书记王骥，安仕新能源科技有限公司董事长赵振超、总经理黄泰光，国中资本首席合伙人、董事长施安平，华安保险董事长李光荣，大普微电子科技有限公司董事长杨亚飞，广东国鸿氢能科技有限公司总经理杨泽云；市委常委、市委秘书长刘本立，市委常委、副市长林平，副市长宋旭升参加。', '在海王集团股份有限公司，胡忠雄一行实地了解企业业务发展、产品研发等方面情况，并与企业相关负责人座谈。胡忠雄代表贵阳贵安对企业给予的关心关注表示感谢。他说，当前贵阳贵安正认真贯彻落实健康中国战略，将健康医药产业作为主导产业之一重点打造，推动卫生健康事业高质量发展。海王集团是全产业链综合性医药健康企业，旗下产业完全契合贵阳贵安产业发展导向。希望双方坚定值得干的信心，找准合作干的路径，实现干得好的目标，厘清双方权责关系，加强项目风险管控，明确产品盈利模式，更好实现互利共赢。贵阳贵安将加大要素供给力度，全力为企业发展和项目落地做好服务保障。', '在安仕新能源科技有限公司，胡忠雄实地参观企业生产车间并与企业负责人座谈。他指出，当前贵阳贵安正坚定不移推进工业强市，着力围绕新能源动力电池及材料产业链上下游环节，扎实推进建链补链延链强链。希望企业抢抓行业“风口”机遇，充分发挥自身特色优势，在贵阳贵安打造产业链、构建产业生态过程中奋力抢占市场先机。贵阳贵安将着力营造市场化、法治化、国际化的一流营商环境，全力支持企业在筑实现更大发展。', '在国中资本，胡忠雄观看企业宣传视频，深入了解企业投资项目情况，并与企业及生态合作伙伴座谈。他说，国中经营发展取得了骄人业绩，发展理念与贵阳贵安“四主四市”战略十分契合，我们点赞国中资本、合作国中资本、服务国中资本。当前，贵阳贵安正大力实施“强省会”行动，需要大量“金融活水”为实体经济发展提供有力支撑。希望双方在推动国家级绿色基金落地、基金招商、构建基金生态链等方面，开展更宽领域、更深层次、更高水平的务实合作，共同开创发展共赢新局面。贵阳贵安将全力为国中资本提供优质服务，支持企业和合作伙伴拓展在筑发展空间，实现政金企的高效互动。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>245</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>胡忠雄奋力推动产业大招商实现新突破为贵阳贵安高质量发展注入强大动力</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202201/t20220113_72300018.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['胡忠雄： 奋力推动产业大招商实现新突破 为贵阳贵安高质量发展注入强大动力 - 贵阳市人民政府', '1月11日至12日，省委常委、市委书记胡忠雄率队到北京市考察招商，他强调，要深入学习贯彻党的十九届六中全会精神和习近平总书记视察贵州重要讲话精神，坚持“四主四市”工作思路，全力加强招商引资，奋力推动产业大招商实现新突破，为贵阳贵安高质量发展注入强大动力。中国节能环保集团有限公司党委书记、董事长宋鑫参加。', '中国节能党委常委、副总经理刘大军，中节能建筑节能有限公司党委书记、董事长、总经理曾武，中国水环境集团董事长侯锋，副总裁陈铭、房勇，北京联东集团董事长刘振东、副总裁段朝晖，市委副书记陶平生，贵阳市、贵安新区领导刘本立、毛胤强、宋旭升参加。', '胡忠雄一行来到中国节能环保集团有限公司，双方举行座谈交流。胡忠雄对中国节能长期以来对贵阳贵安生态文明建设作出的积极贡献表示感谢。他说，当前，我们正深入贯彻落实习近平总书记视察贵州重要讲话精神，把生态保护作为第一要求，做好绿水青山就是金山银山这篇大文章，奋力在生态文明建设上出新绩。中国节能是节能环保领域的国家队和主力军，在工业节能、清洁能源开发利用、污水固废处理等方面具有雄厚的技术实力和市场影响力，双方合作空间十分广阔、合作前景大有可为。希望双方全面落实战略合作协议，深化合作机制，推动落地一批制造业节能环保项目，打造一批具有广泛影响力的央地合作示范点，实现更高质量的互利共赢。宋鑫对胡忠雄一行的到访表示欢迎，并感谢贵阳贵安对企业的关心支持。他说，贵阳贵安发展势头强劲、营商环境良好，希望双方抓住生态环保发展的良好机遇,加强在节能、环保、清洁能源、环境治理等方面的合作，为贵阳贵安高质量发展作出积极贡献。', '在中国水环境集团，双方举行座谈交流。胡忠雄对中国水环境集团为贵阳贵安生态环境治理所作出的积极贡献表示感谢。他说，当前，我们正深入践行绿水青山就是金山银山发展理念，牢牢守好发展和生态两条底线，大力推进南明河流域等水生态环境综合治理，坚决打赢污染防治攻坚战，不断满足人民群众对美好生态环境的需要。中国水环境集团是国投集团旗下专业化科技投资平台，与贵阳贵安有着坚实的合作基础。希望双方围绕生态修复、污水污泥处置、智慧城市建设、创建污水资源化国家示范城市等方面创新合作、务实合作、深入合作，加快推动一批项目落地贵阳贵安，共同开创合作共赢新局面。侯锋对贵阳贵安长期以来为企业在筑发展所给予的支持和帮助表示感谢，他表示，将在前期良好合作的基础上，充分发挥自身优势，积极参与贵阳贵安绿色发展实践，不断拓展深化务实合作，为贵阳贵安生态文明建设作出新的更大贡献。', '在北京联东集团，胡忠雄一行考察联东U谷品牌体验馆和金桥科技产业园。他说，当前，我们正把新型工业化作为第一工程，坚持高端化、绿色化、集约化，以工业大突破夯实“强省会”的产业基础。联东集团在园区运营、产业培育等方面具有强大综合实力。希望双方深化拓展务实合作，强化沟通协调对接，在园区标准厂房建设上探索创新更多合作模式，招引更多优质项目落地贵阳贵安，助力贵阳贵安产业集群发展。我们将全力提供一流的营商环境和全方位服务保障，为企业发展创造良好环境。刘振东对胡忠雄一行的到来表示欢迎，在介绍企业运营情况后，他表示，贵阳贵安发展潜力十足、产业优势明显，将强化务实合作，科学规划产业园区空间布局，积极引入优质企业到贵阳贵安投资兴业，促进产业集聚，共同打造一流现代化产业园区。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>245</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202202/t20220208_72471504.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习习近平总书记近期重要讲话精神 - 贵阳市人民政府', '2月7日，市委常委会和贵安新区党工委召开会议，传达学习习近平总书记在省部级主要领导干部学习贯彻党的十九届六中全会精神专题研讨班开班式、在十九届中央纪委六次全会、在中共中央政治局第三十六次集体学习、在山西考察时的重要讲话精神及省有关会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇，市人大常委会主任聂雪松，市政协主席石邦林，市委副书记陶平生，市委常委，市人大常委会、市政府、市政协和贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，要认真学习贯彻习近平总书记在省部级主要领导干部学习贯彻党的十九届六中全会精神专题研讨班上的重要讲话精神，深入学习领会总书记关于“五个重大问题”的重要论述，切实把党的十九届六中全会精神的学习成果转化为干事创业的实际成效。要突出理论武装，与时俱进学习习近平新时代中国特色社会主义思想中的新理念、新观点、新论断，做到内化于心、外化于行。要突出中心任务，牢记“国之大者”，全力围绕“四新”主攻“四化”，举全市之力推进“强省会”行动。要突出战略引领，不折不扣贯彻党中央和省委战略决策，推动“四主四市”发展思路落地落实。要突出管党治党，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，坚定不移推进全面从严治党。要突出学史力行，把党史总结、学习、教育、宣传不断引向深入，推动全市党史学习教育常态化长效化。', '会议强调，要深入学习贯彻习近平总书记在中共中央政治局第三十六次集体学习时的重要讲话精神，进一步强化生态立市、重点任务、组织领导，坚持降碳、减污、扩绿、增长协同推进，加快形成节约资源和保护环境的产业结构、生产方式、生活方式、空间格局，在推动绿色发展上见实效。要认真学习贯彻习近平总书记在山西考察调研时的重要讲话精神，坚持以人民为中心的发展思想，统筹发展和安全，有效防范化解各类重大风险，切实做好城市“一圈两场三改”、农村“五治”和民生实事，促进文旅融合发展，在保安全、促民生、兴文化上见实效。要坚持党对政法工作的绝对领导，持续巩固政法队伍教育整顿成果，建设更高水平平安贵阳、法治贵阳；深入贯彻新时代党的建设总要求，加强党建课题研究，积极推进研究成果转化应用；坚持大统战工作格局，引导各民主党派、工商联和无党派人士凝心聚力、同心协力，共同书写“强省会”的精彩篇章，真正在加强党的领导上见实效。', '会议强调，要深入学习贯彻习近平总书记在十九届中央纪委六次全会上的重要讲话精神，打好党风廉政建设和反腐败斗争攻坚战、持久战，让各级党组织、党员干部队伍更加纯洁、更加坚定、更有战斗力。要加大政治监督力度，认真及时深入学习习近平总书记重要指示批示和党中央重大决策部署，加大对违反政治纪律和政治规矩行为的查处力度，确保条条落实、件件落地、事事见效。要加大反腐办案力度，坚持不敢腐、不能腐、不想腐一体推进，惩治震慑、制度约束、提高觉悟一体发力，做到有案必查、一查到底。要加大作风整肃力度，认真落实“六个大力整治”要求，切实改进作风、狠抓落实，让干事创业、担当奉献蔚然成风。要加大责任追究力度，盯紧盯牢“一把手”履行好“一岗双责”，层层传导压力，确保对“一把手”监督有力、有序、有效。', '市委常委会和贵安新区党工委召开会议 认真学习贯彻省两会精神 推动“强省会”迈出新步伐、见到新气象']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>245</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>胡忠雄深化政企协作推进科技创新为推动强省会注入强大动能</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2022-07-28</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220728_75807987.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['胡忠雄：深化政企协作 推进科技创新 为推动“强省会”注入强大动能 - 贵阳市人民政府', '7月26日至27日，省委常委、市委书记、贵安新区党工委书记胡忠雄率队赴北京市部分企业考察招商。他强调，要深入学习贯彻习近平总书记视察贵州重要讲话精神，牢牢把握新国发2号文件的重大机遇，坚持创新是第一动力、人才是第一资源，深化政企协作，推进科技创新，为推动“强省会”注入强大动能。', '信良记食品科技（北京）有限公司董事长李剑，爱思益普生物科技有限公司董事长闫励，爱思益普生物科技有限公司总经理李英骥；贵阳市、贵安新区领导刘本立、黄成虹、宋旭升参加。', '来到信良记食品科技（北京）有限公司，胡忠雄与企业座谈，仔细听取企业经营理念、业务发展情况介绍。胡忠雄说，当前，贵阳贵安正深入学习贯彻习近平总书记关于食品安全工作重要指示批示精神，强化科技赋能，加快转型升级，大力发展食品加工产业，奋力做大做强做优生态特色食品产业。信良记食品科技（北京）有限公司发展前景广阔，发展势头良好，与贵阳贵安产业发展战略十分契合。我们将用好用活各类产业发展政策，加强服务配套供给，积极助力企业发展壮大，推动产业园落地，与企业携手推动上中下游产业链布局，助力“黔货出山”，更好推动生态特色食品产业高质量发展。', '在爱思益普生物科技有限公司，胡忠雄仔细观看企业宣传片，深入了解企业技术优势，并就下步合作进行深入交流。胡忠雄说，爱思益普生物科技有限公司创新优势、人才优势突出，呈现出良好的发展态势，双方具有共同的合作愿景、互补的合作优势、真挚的合作诚意，对未来深化合作我们充满期待、充满信心。希望双方深入贯彻落实健康中国战略，持续拓展全方位、深层次合作，加快推动项目落地见效，更好赋能地方产业发展。贵阳贵安将持续做优“贵人服务”品牌，用好用足各项惠企政策，深化政企协作，积极帮助企业拓宽市场空间，全力做好要素保障，为企业加快发展营造良好环境。', '马宁宇主持召开贵阳市政府贵安新区管委会党组会议 深入学习贯彻习近平总书记重要讲话精神']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>245</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>胡忠雄抢抓数字经济发展新机遇共同推进更广领域更深层次更高效益务实合作</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2022-07-28</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220728_75807995.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['胡忠雄：抢抓数字经济发展新机遇 共同推进更广领域更深层次更高效益务实合作 - 贵阳市人民政府', '7月26日，省委常委、市委书记、贵安新区党工委书记胡忠雄率队赴北京市部分企业考察招商。他强调，要深入学习贯彻习近平总书记视察贵州重要讲话精神，牢牢把握新国发2号文件的重大机遇，全面落实省第十三次党代会精神，抢抓数字经济发展新机遇，共同推进更广领域、更深层次、更高效益务实合作。', '华软投资创始人唐敏，华软投资合伙人、永中软件董事长许勇强，世纪互联宽带数据中心有限公司集团创始人、执行董事长陈升；贵阳市、贵安新区领导刘本立、毛胤强、宋旭升参加。', '来到北京华软投资管理有限公司，胡忠雄与企业负责人面对面交流座谈，详细了解企业投资理念、业务发展等情况。胡忠雄对企业发展成就表示敬意，对企业给予贵阳贵安的关注表示感谢。他指出，当前，贵阳贵安正坚定不移推进数字活市战略，加快“一硬一软”两大产业发展，奋力当好在实施数字经济战略上抢新机的排头兵。我们高度重视与华软投资管理有限公司、永中软件全方位务实合作，将强化政企协作，用好各类产业发展政策，积极拓展应用场景和市场空间，全力为企业发展壮大营造良好环境，加快推动产业园在贵阳贵安落地见效，实现更高水平的共同发展和互利共赢。', '在世纪互联宽带数据中心有限公司，胡忠雄实地参观企业经营场所，现场观摩有关系统平台功能演示，并就深化务实合作、拓宽合作领域与企业座谈。胡忠雄对企业给予贵阳贵安的关心关注表示感谢，由衷为企业敬业精神、创新情怀、发展业绩点赞。他说，双方的合作顺应国家数字经济发展战略，与贵州省大数据战略行动、贵阳贵安数字活市战略高度契合，具有十分重要意义。希望双方聚焦合作意义、合作内容、合作政策，进一步明确任务书、时间表、路线图、责任人，加快推动个人数据中心、超互联影视云、城市算力新基建、投资基金等领域务实合作，更好在数字经济高质量发展中实现合作共赢。贵阳贵安将以做就做好的态度、马上就办的效率，营造一流营商环境，全力支持企业在筑实现更大发展。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>245</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>关于把东林公园打造成贵阳市一号文化会客厅的建议</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2020-11-10</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkzdlyxxgkjyta/zwgkzdlyxxgkjytazxtawfws/zwgkzdlyxxgkjytazxtawfwsgys/202011/t20201110_65117852.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['文化是一座城市的灵魂，放眼国内外知名城市，无不是因特色文化凝聚人气商机，成就城市的形象和名片。然而，对于有着600余年城市发展史，面貌日新月异、名气越来越大的贵阳来说，却没有一个具有排它性文化元素、能代表贵阳形象的“会客厅”，这不能不说是一大憾事。 赵德明书记在市委十届七次全会上指出，要启动新一轮“千园之城”建设，让全市各类公园达到2000个以上，在城市公园建设的基础上使贵阳变为“公园中的城市”。当前，“千园之城”建设取得了有目共睹的成绩，建成了包括花溪湿地公园、小车河湿地公园、观山湖公园、登高云山森林公园等各类公园660个，使我市公园总数达1025个。但是，不论是对贵阳本土市民而言，还是对于外地来筑旅游考察的人而言，都缺乏一个在主城区范围内不加思索的游玩或考察“首选地”。不论是大数据展示中心、城乡规划馆、博物馆等考察“热点”地，还是青岩古镇、黔灵山公园、天河潭等旅游闲逛目的地，都分别存在距离较远、步行不便、可看点不多、特色不鲜明等不利因素。目前贵阳最具人气的贵钢花鸟市场，也因布局老旧、规范零乱、摊贩嘈杂、品位不高，一直往往只限老城人闲逛。这种情况下，一个既方便出行、又具独特色的高端文化主题公园，成了广大贵阳人民的心声和愿望。 为此，由蔡心红、牟雪松等市政协委员牵头，会同贵阳市观赏石协会，对贵阳市主城区主要公园进行了广泛调研，提出了在观山湖东林公园建设以石文化为主题的特色文化公园的建议，具体思路和理由如下。 定位：贵阳石文化主题公园 特点：以贵州丰富的观赏石资源为依托，建设大型石文化展馆及交易地场，打造一张贵阳乃至贵州、全国 独一无二的靓丽明片。 经济社会效益： 1.社会效益：本文化主题公园建设成后，不仅可以提高贵阳市东林公园周边的文化旅游品质，还能为广大市民和学校、科研机构、外地考察团提供一个鉴赏、交流、学习石文化的基地，大力提升“爽爽贵阳”文化内涵，使公园成为一扇能展现贵阳文化、代表贵阳颜值的新窗口。 2.经济效益：满足市民游园休闲的刚性需求，整合东林寺的文化底蕴和人气，通过奇石附加产业（根艺、书画、古玩等）的交易，每日可接待流园及考察团队1万人次，年交易额能达到10亿元以上。目前，贵州（贵阳）成功推介了关于生态、气候、民族文化的三张“金质名片”，而石资源及其产业还是一座尚未正式开采的富矿，是能够快速打响的第四张“金质名片”。以广西柳州市为例，“中华石都”是柳州市一张闪亮的城市名片，柳州赏石市场作为东南亚最大的奇石交易市场，每年的奇石交易量都在30万方以上，成交额500余亿元，带动2万余人从业创业。其中贵州石种约占柳州奇石市场的37%，交易额约占33%。加上其他关联产业，石产业总产值可达3000亿元以上。 具体内容： 主要是两部分：一是建设一个大型综合的展示馆。即通过展示贵州独有而丰富的奇石与古生物的实物化石样品，建成一个大型科普教育基地，突出贵州“古生物王国，沉积王国”的文化特色，展现地球的演化史，让游人和孩子们“一园阅尽贵州及地球地质演变史”，了解地球及生命进化历程；二是建设一个综合文化交易交流市场，达到吸引人气、带动文化产业发展的效果，使公园成为既有人气流量、又有经济质量的代表贵阳形象的后花园、会客厅。 选址原因： 通过多方考察反复对比，联名委员们最终把东林公园作为建设石文化主题公园的首选场地，主要是基于以下原因，或者说，是东林公园具有以下优势：一是资源优势：建馆必须得有资源支撑。贵州观赏石、古生物化石资源全国第一，尤其三叠纪龙化石、海百合化石为世界独有。目前有乌江石、马场石等备受藏石界青睐的观赏石30多种，矿物晶簇104种，誉满全球。但很多藏品都流失在外，为他人作嫁衣。虽然目前也还有很多藏品在省内收藏家手里，但因贵州、贵阳没有一个综合的集中展区，其科普价值和经济价值没有得到充分体现。二是区位优势：每个地方的市民和外地游客都有逛花鸟古玩市场的习惯，其首要条件就是要交通方便。综合来看，东林公园比邻地铁一号线，并多条市内公交专线经过，交通非常便捷。同时，交通方便也利于各种观赏石、古生物化石的运输。三是综合优势：东林公园周边高端小区环绕，学校、医院、金融、商场、超市等配备齐全，具备大量的消费人群与强劲的消费实力，且与东林寺一体，在人气上具有其他地方不可比拟的优势。', '一、成立专题工作组牵头开展工作。建议由观山湖区政府牵头，协请贵阳市观赏石协会参与，成立东林石文化主题公园建设专题工作组，整合全市观赏石藏家和藏品资源，尽快开展论证、规划、招商等工作。 二、着眼长远，高端打造。开展对东林公园二期建设的修订论证工作，使相关规划与石文化主题公园契合，提升公园的整体品质品位。', '你们提出的《关于把东林公园打造成贵阳市“一号”文化会客厅的建议》收悉，感谢你们对我市公园建设工作的关心。收到你们的提案后，市政府、市政协高度重视，将此提案列为市政协人资环委督办件，并督促相关部门认真落实该提案的办理，现将办理情况答复如下：', '观山湖区东林公园位于金朱东路南侧，西侧为贵州省教育厅、石标路，东侧为北师大附中，南侧为金华园C区。项目总用地面积19.41公顷，建设内容主要包括下湖消防通道以及连接金朱东路的道路、山门殿拱桥、下湖人行吊桥、绿化工程（以恢复原有植物景观为主，保留现状“柏、松”，并增植“枫、竹、柳、花”等）、广场、景观步道、景观小品、管理用房、公厕、地下停车场、排水系统及电气等配套工程，项目总投资2.6亿元。东林公园建成后，一是生态保护与生态意识双向促进。在生态环境效益方面，可通过项目的建设涵养水源，保护动植物，由于园内丰富的植物资源，造就了独特而秀丽的自然景观，可提供多用途的娱乐场所和舒适环境，还能使市民普遍重视旅游资源保护和生态环境建设，让本地居民自觉维护生态平衡，从而最大限度的协调好人与自然的关系;二是经济与社会效益双重叠加。在社会效益方面，该公园项目建成后，其周边地区将成为延伸城市游憩旅游、休闲度假、生态绿核功能的城市新区，有利于改善投资环境，扩大对外开放，提高知名度，改善人民生活水平质量，还将促进社会稳定，推动当地传统文化的弘扬发展。', '东林公园一期建设项目尚未完全完工，建设单位正在完善东林公园地下停车场、雨污管网等配套设施，待一期项目全部完工后，我市将根据实际情况决定是否启动东林公园二期建设工作。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>245</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>贵阳市中小学教师减负清单公布</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2023-11-25</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202311/t20231125_83143030.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['为切实减轻中小学教师负担，营造良好教育教学环境，近日，贵阳市教育局公布了《贵阳市减轻中小学教师负担清单》，并面向社会公开监督举报电话、邮箱，征集线索，接受广大群众监督。', '清单共有20条内容，具体包括：未经县级以上党委审批通过的进校园督查、检查、评估、考核、评比活动；与教育教学无关的各类示范学校（基地）、先进案例等创建活动；与教育教学无关的创先争优活动；未经县级以上党委、政府和教育行政部门同意的公益活动；未经县级以上党委、政府和教育行政部门同意的图书征订、读书活动；与教育教学无关的各种投票活动；与教育教学无关的各种微信公众号关注，App网络调查、测评、答题等活动；与教育教学无关的各种宣传、教育活动；与教育教学无关的各种“小手牵大手”活动；与教育教学无关的庆典、招商、拆迁事务；与教育教学无关的各种上街执勤、值守工作；与教育教学无关的产业发展、民生保障等包保工作；与教育教学无关的信访、维稳工作；未经同意抽调借用中小学教师；与教育教学无关的文件、会议、集中学习；与教育教学无关的各种普查、统计活动；与教育教学无关的各种报表填报、信息报送工作；非教育教学方面的培训、考察、调研；与教育教学无关的各种学习、竞赛活动；未经同意的其他与教育教学无关事项。', '此外，贵阳市教育局还明确了减轻中小学教师负担“五必须五严禁”，包括督导检查评比考核必须实行清单管理，由党委审批，教育部门统筹，严禁其他任何部门自行设置并实施；社会事务进校园必须与教育教学相关且由教育部门统一安排，严禁影响正常教育教学秩序；各类报表填写必须由教育部门统筹，严禁教育、统计以外的任何部门要求学校或教师填报；有关文件、会议、学习培训必须结合学校教育教学管理或教师专业发展，严禁走形式，走过场，摊派无关的工作任务；抽调借用教师必须从严管理，审批报备，到期回校，严禁抽调教师参加与教育教学无关的事务。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>245</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>胡忠雄在杭州与浙江省委副书记杭州市委书记刘捷举行会见</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202403/t20240321_83971069.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['3月20日，省委常委、市委书记、贵安新区党工委书记胡忠雄在杭州与浙江省委副书记、杭州市委书记刘捷举行会见。', '杭州市领导朱华，贵州省大数据发展管理局局长景亚萍，贵州省科技厅副厅长杨松，贵阳市委副书记滕伟华，贵阳贵安领导吴宏春、刘岚参加。', '刘捷说，杭州正在深入学习贯彻习近平总书记考察浙江重要讲话精神，按照浙江省委实施三个“一号工程”、全面加强“三支队伍”建设等部署，围绕“深化改革、强基固本”主题主线，着力推动数字经济二次攀登，大力发展新质生产力。希望与贵阳在更高层次、更宽领域开展务实合作，携手实现高质量发展。', '胡忠雄说，杭州取得的成绩令人钦佩。贵阳贵安正深入学习贯彻习近平总书记视察贵州重要讲话精神，落实贵州省委部署，全力做强新兴产业引领、创新发展策源、资源要素集聚、开放枢纽门户、城市综合服务“五大功能”。希望与杭州深化数字经济、文旅经济等领域合作，在区域协作中加快发展新质生产力。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>245</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>贵州省贵阳市委组织部年度部门决算</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszggyswzzb/201908/t20190807_32860534.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['．负责研究和指导党的组织制度建设工作；负责全市党员发展和管理工作、组织员队伍建设、党员教育基地建设的宏观指导。', '．负责督促指导市直部门及区（市、县）落实党建工作责任制；负责全市同步小康驻村工作的组织协调及管理工作。', '．指导全市各级领导班子和领导干部的考核工作；负责市委管理的领导班子和干部的考核考察；负责全市县级后备干部的培养选拔工作和市委交办的市级后备干部的有关工作；负责乡科级干部的宏观管理；负责全市六大类机关公务员管理和参照管理工作。', '本单位（部门）内设15个处室，下属2个单位。从预算单位构成看，中共贵阳市委组织部部门决算包括：本级决算、所属', '年度“三公”经费一般公共预算财政拨款支出预算为162.92万元，支出决算为147.96万元，决算数小于预算数主要原因:一是公务用车购置费预算含车辆购置税等，由于所购车辆为新能源车，无需上交车辆购置税，较公务用车购置费预算资金减少2.32万元；二是严格按照厉行节约相关规定，提倡爱车节油，节约公务用车运行费0.44万元；三是接待批次和人数较上年减少，接待费较预算资金减少12.2万元。', '年度“三公经费”一般公共预算财政拨款支出决算数147.96万元，较上年增长132.47万元。增长855.20%。增长主要原因是本年度增加出国培训班一个及报废更新公务车辆一辆所致。其中：因公出国（境）费支出119.69万元，占80.89%，比上年增加119.69万元。2018年，经国家外国专家局批准，举办贵阳市“基于共享经济和智慧社区建设与治理创新专题培训班”一期，选派由市直部门及相关区县、国有企业组成的20名学员赴美国开展培训，所涉及的境外培训费用、住宿费用、伙食费用、公杂费等均按照国家财政部、国家外国专家局的因公出国（境）培训培训费用标准执行。除代收各单位培训费外，由市财政统一划拨，市委组织部支付经费为118.57万元。另外，经批准部机关人员参加省公务员管理局组织的赴香港参加人力资源开发及管理第一期、第二专题培训班，支付差旅费1.12万元；公务用车购置及运行维护费支出23.59万元，占15.94%，比上年增加17.73万元，增长302.56%，增长原因是2018年报废更新公务用车一辆，购置费增加17.68万元；公务接待费支出4.68万元，占3.16%，比上年减少4.95万元，降低51.4%，减少原因是接待批次和人数较上年减少。具体情况如下：', '全年使用一般公共预算财政拨款安排的出国（境）团组3个，累计24人次。开支内容包括：(1)贵阳市“基于共享经济和智慧社区建设与治理创新专题培训班”所涉及的由市财政统一拨款，组织部支付的境外培训费用、住宿费用、伙食费用、公杂费等118.57万元；(2)部机关人员经批准参加省公务员管理局组织的赴香港参加人力资源开发及管理第一期、第二专题培训班，支付差旅费1.12万元。', '其中，公务用车购置17.68万元，购置一辆公务用车；公务用车运行维护费5.91万元。主要用于公务车辆燃油费、过路费等。2018年，单位开支财政拨款的公务用车保有量为3辆。', '国内公务接待支出4.68万元，主要是接待上级部门考察、调研；省外相关部门来筑调研、学习等。', '共有车辆3辆。其中：主要领导干部用车0辆、机要通信用车1辆、应急保障用车1辆、执法执勤用车0辆、特种专业技术用车0辆、离退休干部用车1辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '根据财政预算管理要求，及部门预期目标设定情况，审定有关对应的业务资料及财务资料。对项目的发展进行实地和资料查看，按照自评方案对履职效益的质量做出评判。', '我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计24个项目进行了绩效自评，涉及资金2802.67万元，自评覆盖率100%。', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为96分。发现的主要问题及原因：一是启动时间较晚，下半年支出压力大；二是部分单位申报人才资源开发经费预算不够精准。', '深入落实《关于深化人才发展体制机制改革加快建设公平共享创新型中心城市的实施意见》，将109条具体任务纳入人才目标考核，强化行业主管部门、用人单位在人才发展中的主导作用。2.分类建立贵阳市人才信息库，促进人才资源共享。新建金融人才、外语人才信息库，入库人才分别为896人、2827人；3.不断完善黔籍人才信息库，新增入库人才5783人。加大人才经费投入保障，实行人才开发资金项目化管理，推进人才开发资金向大数据、大扶贫、大健康和生态、旅游产业集中。', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为97分。发现的主要问题及原因是培训经费预算不够精准，部分培训班经费有所结余。', '把习近平新时代中国特色社会主义思想、党的十九大精神和习近平总书记在贵州省代表团重要讲话精神作为党委（党组）理论学习中心组学习主要内容，作为市县两级党校和网络在线学习的主课，全面纳入教学计划和教学布局。充分用好新时代文明实践中心（站、所）、“新时代学习大讲堂”、“党建红云”微信公众号、远程教育站点等阵地和平台，构建层层推进、梯次延伸、全面覆盖的大学习大培训格局。落实好政治教育二十条措施，市级层面举办有习近平新时代中国特色社会主义思想、党的十九大精神、习近平总书记在贵州省代表团重要讲话精神等内容的培训班、讲座', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为95分。发现的主要问题及原因是脱贫攻坚工作投入力度仍待加强。', '把创新型党组织创建作为当前抓基层党建工作的总载体来抓，牵头抓总、统筹指导，推动创新型党组织建设工作有序推进。', '聚焦工作实效，完善运行机制。2.聚焦能力提升，夯实基层基础。3.聚焦民众福祉，构建服务体系。', '建立和完善运行机制，切实为加强城市基层党建、引领推动社会治理提供制度保障。一是统筹协调机制。二是学习观摩机制。三是督查考核机制。2.加强城市基层党组织建设，着力提高党组织抓城市基层党建、引领推动社会治理的能力。一是强化社区党委的领导。二是建强居委会党组织。三是推行网格化党建。3.以增进民众的福祉为目标，加强服务体系建设，使为群众办实事办好事成为党组织联系群众、凝聚人心的过程，成为树立党组织形象威信的过程。一是推动服务升级。二是推进困难群体增收。三是促进社会和谐。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）一般公共服务支出（类）组织事务（款）行政运行（项）:指贵州省贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的基本支出。', '（十八）一般公共服务支出（类）组织事务（款）一般行政管理事务（项）：指贵州省贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的项目支出。', '（十九）一般公共服务支出（类）组织事务（款）事业运行（项）：指贵州省贵阳市委组织部下属全额事业单位贵阳市领导干部有关事项查核中心的基本支出。', '（二十）一般公共服务支出（类）组织事务(款）其他组织事务支出（项）：指贵州省贵阳市委组织部下属全额事业单位贵阳市领导干部有关事项查核中心的项目支出。', '（二十一）城乡社区支出（类）城乡社区管理事务（款）一般行政管理事务支出（项）：指贵州省贵阳市委组织部机关项目支出。', '（二十二）农林水支出（类）林业（款）其他林业支出（项）：指贵州省贵阳市委组织部机关项目支出。', '指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。）']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>245</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>贵州省贵阳市委组织部年度部门决算</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszggyswzzb/202008/t20200818_62554082.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['（一）贵州省贵阳市委组织部2019年度收入支出决算总体情况说明 贵州省贵阳市委组织部2019年度收支决算总计4710.95万元，与2018年相比，增加503.66万元，增长11.97%。主要原因是：一是根据工作安排，对部机关部分办公用房进行搬迁，新增维修改造办公用房经费约130万元；二是开展主题教育，较上年增加专项经费约98万元；三是贵阳市智慧党建云平台工程建设启动一期工程，支付建设资金约175万元；四是由于机构改革原因，原人社局部分干部职工及工作职能划转部机关，增加人员经费及专项经费约100万元。', '贵州省贵阳市委组织部2019年度财政拨款收支决算总计4710.95万元。与2018年相比，增加508.66万元，增长12.1%。主要原因是：一是根据工作安排，对部机关部分办公用房进行搬迁，新增维修改造办公用房经费约130万元；二是开展主题教育，较上年增加专项经费约98万元；三是贵阳市智慧党建云平台工程建设启动一期工程，支付建设资金约175万元；四是由于机构改革原因，原人社局部分干部职工及工作职能划转部机关，增加人员经费及专项经费约100万元；五是部机关上年度划转下属单位的开办费，下属单位列入其他收入科目入账。', '贵州省贵阳市委组织部2019年度一般公共预算财政拨款支出4710.86万元，占本年支出合计的100%。与2018年相比，一般公共预算财政拨款支出增加516.36万元，增长12.31%。主要原因是：一是根据工作安排，对部机关部分办公用房进行搬迁，新增维修改造办公用房经费约130万元；二是开展主题教育，较上年增加专项经费约98万元；三是贵阳市智慧党建云平台工程建设启动一期工程，支付建设资金约175万元；四是由于机构改革原因，原人社局部分干部职工及工作职能划转部机关，增加人员经费及专项经费约100万元；五是部机关上年度划转下属单位的开办费，下属单位列入其他收入科目入账；六是消化上年结余。', '（6）一般公共服务支出（类）组织事务（款）其他组织事务支出（项）。当年预算为18万元，支出决算为15.71万元，完成当年预算的87.28%。决算数小于预算数的主要原因为项目经费使用根据工作实际使用情况调减。', '（七）贵州省贵阳市委组织部2019年度一般公共预算财政拨款“三公”经费支出决算情况说明', '2019年度“三公”经费财政拨款支出预算为141.15万元，支出决算为125.32万元，决算数小于预算数，主要原因：一是严格按照厉行节约相关规定，提倡爱车节油，节约公务用车运行费3.54万元；二是接待批次和人数较上年减少，接待费较预算资金减少12.28万元。', '（1）因公出国（境）费支出119.92万元。贵州省贵阳市委组织部全年使用一般公共预算财政拨款安排的出国（境）团组2个，累计38人次。开支内容包括：一是赴日本中高端制造业专项招商人才专题培训班机票款、培训费22.9万元；二是赴德国国际陆海跨境贸易人才培养专题培训班机票款、培训费97.02万元。', '（2）公务用车购置及运行维护费2.81万元。其中：公务用车购置0万元；公务用车运行维护费2.81万元。主要用于公务车辆燃油费、过路费等。2019年，单位开支财政拨款的公务用车保有量为3辆。', '（3）公务接待费2.6万元。具体是：国内公务接待支出2.6万元，主要是接待上级部门考察、调研；省外相关部门来筑调研、学习等。贵州省贵阳市委组织部2019年国内公务接待20批次，190人次。', '贵州省贵阳市委组织部2019年政府性基金预算财政拨款本年收入0万元，本年支出0万元。', '根据财政预算管理要求，我单位组织对2019年度财政拨款项目支出开展了绩效自评工作。共计17个项目进行了绩效自评，涉及资金2481.99万元，自评覆盖率100%。', '截至2019年12月31日，贵州省贵阳市委组织部共有车辆3辆。其中：主要领导干部用车0辆、机要通信用车1辆、应急保障用车1辆、执法执勤用车0辆、特种专业技术用车0辆、离退休干部用车1辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）一般公共服务支出（类）人力资源事务（款）一般行政管理事务（项）。指贵州省贵阳市委组织部的项目支出。', '（十八）一般公共服务支出（类）组织事务（款）行政运行（项）。指贵州省贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的基本支出。', '（十九）一般公共服务支出（类）组织事务（款）一般行政管理事务（项）。指贵州省贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的项目支出。', '（二十）一般公共服务支出（类）组织事务（款）公务员事务（项）。指贵州省贵阳市委组织部的项目支出。', '（二十一）一般公共服务支出（类）组织事务（款）事业运行（项）。指贵阳市干部事项管理服务中心的基本支出。', '（二十二）一般公共服务支出（类）组织事务(款）其他组织事务支出（项）。指贵阳市干部事项管理服务中心的项目支出。', '（二十三）社会保障和就业支出（类）行政事业单位离退休（款）机关事业单位基本养老保险缴费支出（项）。指贵州省贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的职工养老保险。', '（二十四）社会保障和就业支出（类）其他社会保障和就业支出（款）其他社会保障和就业支出（项）。贵阳市干部事项管理服务中心的职工工伤险及失业险。', '（二十五）卫生健康支出（类）行政事业单位医疗（款）行政单位医疗（项）。指贵州省贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的职工医保费。', '（二十六）卫生健康支出（类）行政事业单位医疗（款）事业单位医疗（项）。贵阳市干部事项管理服务中心职工医保费。', '（二十七）卫生健康支出（类）行政事业单位医疗（款）公务员医疗补助（项）。指贵州省贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室、事业单位贵阳市干部事项管理服务中心）职工公务员医疗补助费。', '（二十八）住房保障支出（类）住房改革支出（款）住房公积金（项）。指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。', '根据《中共贵阳市委 贵阳市人民政府 关于实施人才兴市战略加强产业人才队伍建设的决定》（筑党发〔2013〕3号）——市、区（市、县）两级财政分别按不低于每年一般性财政预算收入（不包含非税收入）的3%以上设立人才发展专项资金，用于高层次人才引进、培养、使用的激励等。部机关统筹全市人才资源开发资金，部机关使用的人才专项经费列入部机关部门预算。', '发现的主要问题：一是启动时间较晚，下半年支出压力大；二是申报人才资源开发经费预算明细项目不够精准。', '需提前谋化开展人才资金预算工作，注意侧重对高层次人才引进、培养、使用的激励。监督预算执行的合理及可行性，及时分析总结人才经费使用绩效成果。', '坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻全国、全省组织部长会议和市委十届五次、六次、七次、八次全会精神，坚持党管人才、继续深化人才体制机制改革，积极创机关报工作举措、强化平台载体建设、大力引才育才、优化服务水平，推动人才工作取得新成效，为坚持高标准要求、加快高水平开放、推动高质量发展提供了坚强人才保证和智力支撑。', '一是在增量提升上有突破。实施引领性产业人才专项计划，以产业企业自身发展需要为主要导向，分类制定引才方案，主动到产业集聚地和重点高校招才引智，做大增量。二是在存量培育上有突破。针对产业发展需要，实施系列人才培育计划和培养工程，做优存量。三是在平台创建上有突破。以产业发展为导向，以“4+6”开发区为主载体，以项目建设为主抓手，大力实施创优工程，创建人才创新创业平台。四是引进国内外人才项目。人博会期间，接待洽谈人才30963人，现场签约1777人；数博会期间，吸引包括20名两院院士、129名专家在内的全球行业精英26000余人参会，成功引进高层次人才110名；五是实施“对外开放培养计划”。实施“3个50”对外开放国际人才培养计划，遴选一批具有一定外语基础的青年人才，先后在省内、省外、国外进行培训。六是探索建立全球招才引智网络。依托市政府驻北京、上海、广州、武汉、重庆共5个办事处设立招才引智工作站。七是在服务保障上做文章。根据全市打造一流营商环境总体安排，以打造市、县两级人才服务综合平台为重点，提供并优化人才绿卡办理、创新创业服务、政策兑现等67项公共服务。', '根据中共贵阳市委组织部关于印发《中共贵阳市委关于贯彻落实&lt;2018—2022贵州省干部教育培训规划&gt;的实施意见》”五项重点工作计划实施方案”的通知：各级财政要将干部教育培训经费纳入财政年度预算，保证干部教育培训工作的需要。市财政局负责做好市级干部教育培训经费保障工作，负责指导市级各部门培训经费管理和规范使用。部机关统筹管理全市干部教育培训经费，部机关自主办班的培训费列入部机关部门预算。', '结合培训新要求，提前思考及谋化下一年培训班次及计划，提出细化的绩效目标便于年终绩效目标评审工作的开展，推进干部教育培训工作科学化、制度化、规范化。', '围绕中心、服务大局，以提高干部素质、增强干部能力为核心，以建设高素质专业化的干部队伍为目标，努力为我市经济社会发展提供坚强有力的人才保证和智力支持。', '持续深化习近平新时代中国特色社会主义思想学习培训，把学习贯彻习近平新时代中国特色社会主义思想、党的十九大和习近平总书记关于贵州工作的重要指示精神作为干部教育培训首要内容，作为各级党委（党组）理论学习中心组学习主要内容，作为市县两级党校和网络在线学习的主课，把宪法法律、党史新中国史、意识形态、国家安全形势等作为主体班内容，全面纳入教学计划和教学布局，有计划安排各级干部参加专题培训学习。', '全年共培训各级各类干部40万人。其中，市级层面安排有习近平新时代中国特色社会主义思想、党的十九大精神、习近平总书记关于贵州工作的重要指示精神等内容的培训班、讲座400余期，培训干部5万余人次。举办9期市委党校主体班（4期县干班、2期中青班、1期乡镇培训班、1期社区班、1期公务员任职班），培训各类干部447人。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>245</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>贵州省贵阳市委组织部年度部门决算</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszggyswzzb/201901/t20190123_32860508.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['（七）贵州省贵阳市委组织部2017年度一般公共预算财政拨款“三公”经费支出决算情况说明', '1．贯彻落实党的组织、干部、人才路线、方针、政策；研究和指导全市干部人事制度改革。', '2．负责研究和指导党的组织制度建设工作；负责全市党员发展和管理工作、组织员队伍建设、党员教育基地建设的宏观指导。', '3．负责督促指导市直部门及区（市、县）落实党建工作责任制；负责全市同步小康驻村工作的组织协调及管理工作。', '4．指导全市各级领导班子和领导干部的考核工作；负责市委管理的领导班子和干部的考核考察；负责全市县级后备干部的培养选拔工作和市委交办的市级后备干部的有关工作；负责乡科级干部的宏观管理；负责全市六大类机关公务员管理和参照管理工作。', '本单位（部门）内设15个处室，下属1个单位。从预算单位构成看，中共贵阳市委组织部部门决算包括：本级决算、所属贵阳市远程教育办公室（参公事业单位）单位决算。', '1.因公出国（境）费支出0万元。贵州省贵阳市委组织部全年使用一般公共预算财政拨款安排的出国（境）团组0个，累计0人次。', '2.公务用车购置及运行维护费5.86万元,其中，公务用车购置0万元，公务用车运行维护费5.86万元。主要用于公务车辆燃油费、过路费等。2017年，单位开支财政拨款的公务用车保有量为3辆。', '3.公务接待费9.63万元。具体是：国内公务接待支出9.63万元，主要是接待上级部门考察、调研；省外相关部门来筑调研、学习等。贵州省贵阳市委组织部2017年国内公务接待52批次，525人次。', '贵州省贵阳市委组织部2017年政府性基金预算财政拨款本年收入0万元，本年支出0万元。', '截至2017年12月31日，贵州省贵阳市委组织部共有车辆4辆。其中，一般公务用车4辆、一般执法执勤用车0辆、特种专业技术用车0辆、其他用车0辆；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '根据年初设定的绩效目标，本项目已完成全部（或部分）目标任务，自评得分为95分。发现的主要问题及原因：一是启动时间较晚，下半年支出压力大；二是部分单位申报人才资源开发经费预算不够精准。', '1.大力引进“高精尖缺”人才。依托实体经济和产业园区广泛聚才，全年引进高层次人才和急需紧缺人才834名。', '2.加快培养创新创业人才。开展百个机关联系服务百家大数据（互联网）企业工作，协调解决企业人才和发展等方面的困难问题。成立贵阳区块链应用技术学院，大力培养区块链专业技术人才。', '3.提升创新创业服务水平。制定出台《关于深化人才发展体制机制改革推动创新型中心城市建设的实施意见》，协调推进大生态、大扶贫、大数据、大旅游、大健康等重点领域人才发展。', '根据年初设定的绩效目标，本项目已完成全部（或部分）目标任务，自评得分为95分。发现的主要问题及原因是培训经费预算不够精准，部分培训班经费有所结余。', '1. 扎实抓好思想政治教育。举办8期市委党校主体班、3期县级干部学习贯彻省第十二次党代会精神轮训班，培训干部1700余名。', '2.精准实施专业能力培训。围绕深入推进大扶贫、大数据、大生态“三大战略”行动，突出抓好新发展理念、供给侧结构性改革、创新驱动发展战略、脱贫攻坚、大数据、大生态等专题培训，连续举办4期脱贫攻坚秋季攻势“三变”改革专题培训班，集中培训各级各类领导干部1900余人。', '3．创新推动培训提质增效。制定下发《关于实施干部素质能力提升工程的实施方案》，为加快建设公平共享创新型中心城市提供思想政治保证、人才保证和智力支持。', '（四）经营收入：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动取得的收入。', '（六）其他收入：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '（七）用事业基金弥补收支差额：指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '（八）上年结转和结余：指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十）年末结转和结余：指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '（十一）基本支出：指为保障机构正常运转、完成日常工作任务而发生的人员支出和公用支出。', '（十三）经营支出：指事业单位在专业业务活动及其辅助活动之外开展非独立核算经营活动发生的支出。', '（十四）对附属单位补助支出：指事业单位发生的用非财政预算资金对附属单位的补助支出。', '（十五）“三公”经费：纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '（十六）机关运行经费：为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '（十七）一般公共服务支出（类）组织事务（款）行政运行（项）:指中共贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的基本支出。', '（十八）一般公共服务支出（类）组织事务（款）一般行政管理事务（项）：指中共贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的专项支出。', '（十九）农林水支出（类）农村综合改革（款）对村民委员会和村党支部的补助（项）：指中共贵阳市委组织部（包括下属参照公务员管理事业单位贵阳市远程教育办公室）的专项支出。', '（二十）住房保障支出（类）住房改革支出（款）住房公积金（项）：指按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%）。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>245</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>关于举办贵阳市非物质文化遗产保护创新工作能力提升培训班的通知</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/whly/fwzwhyc/202309/t20230915_82416296.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['为学习和落实文旅部、省文旅厅和市委市政府关于非遗保护发展的要求和安排部署，切实提升全市非遗工作者的能力，提升非遗工坊发展水平，推进全市非遗保护传承工作，根据年度工作安排，经市委组织部同意，决定举办“贵阳市非物质文化遗产保护创新工作能力提升培训班”。现将有关事项通知如下：', '1.端正学习态度。培训时参训人员要按时参加集中学习（或活动），不得无故缺席，不得迟到早退。培训时参训人员要安下心来，认真学习。', '2.严守学习纪律。参训人员要严格遵守学习培训和廉洁自律的各项规定，认真完成培训学习。', '贵阳市非物质文化遗产保护中心关于2023年度非物质文化遗产理论研究课题立项结果的公告']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>245</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习习近平总书记近期重要讲话重要指示精神</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202208/t20220829_76270378.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习习近平总书记近期重要讲话重要指示精神 - 贵阳市人民政府', '8月28日，市委常委会和贵安新区党工委召开会议，传达学习习近平总书记在辽宁考察时的重要讲话精神，近期重要指示和重要回信、重要贺信精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇，市人大常委会主任聂雪松，市政协主席石邦林，市委副书记陶平生，市委常委，市人大常委会、市政府、市政协和贵安新区有关领导同志参加。', '会议指出，要认真学习贯彻习近平总书记在辽宁考察时的重要讲话精神，扎实做好“强省会”各项工作，全面推动贵阳贵安高质量发展。要推进科技创新，狠抓创新型城市、创新型产业、创新型企业、科技平台、科技投入、科技人才，更好让科技创新这个“关键变量”转化为“强省会”的“最大增量”。要保障和改善民生，聚焦短板弱项，扎实推进城市“一圈两场三改”、农村“五治”、为民办“十件实事”，让老百姓的幸福在家门口升级。要加强生态文明建设，坚持“生态立市”，高质量建设生态文明示范城市，深入打好污染防治攻坚战，扎实抓好中央生态环境保护督察反馈问题整改，奋力当好在生态文明建设上出新绩的排头兵。要传承红色基因，推进党史学习教育常态化长效化，把伟大建党精神和共产党人的精神谱系传承下去、发扬光大，努力在“强省会”主战场上建功立业。', '会议强调，要深入贯彻落实习近平总书记近期重要指示和重要回信、重要贺信精神，全面深化对外交流合作，持续扩大国际文化交流，推动职业教育国际化发展，构建全方位对外交流格局，充分发挥数博会、生态文明贵阳国际论坛、中国-东盟教育交流周等平台作用，让贵阳贵安的“朋友圈”越来越大、好伙伴越来越多。要深入贯彻落实习近平总书记给“中国好人”李培生胡晓春的回信精神，全面加强新时代精神文明建设，大力唱响“好人赞歌”，选树好典型，培育好风尚，发挥好作用，带动更多人见贤思齐、争当先进，为实施“强省会”提供强大的精神动力。', '市委常委会和贵安新区党工委召开会议 传达学习贯彻省委常委会会议精神 研究部署防灾减灾、疫情防控等重点工作']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>245</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习贯彻习近平总书记近期重要指示精神</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2022-07-22</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220722_75662103.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习贯彻习近平总书记近期重要指示精神 - 贵阳市人民政府', '7月21日，市委常委会和贵安新区党工委召开会议，传达学习贯彻习近平总书记在新疆考察时的重要讲话精神，给参加海峡青年论坛的台湾青年、中国国家博物馆老专家的回信精神，致世界互联网大会国际组织成立、全球重要农业文化遗产大会的贺信精神，中办转发《中央宣传部、中央组织部关于认真组织学习〈习近平谈治国理政〉第四卷的通知》精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市人大常委会主任聂雪松，市政协主席石邦林，市委副书记陶平生，市委常委，市人大常委会、市政府、市政协和贵安新区有关领导同志参加。', '会议指出，要深入学习贯彻习近平总书记在新疆考察时的重要讲话精神，准确把握实践要求，不折不扣抓好落实。要铸牢中华民族共同体意识，坚持党对民族工作的全面领导，全力做强一批民族团结进步创新示范项目，建设一批民族特色小镇，发展一批民族药业，提升一批民族传统手工业，挖掘一批民族非遗产品，打造一批民族特色村寨旅游精品。要提升宗教事务治理能力，聚焦宗教干部队伍建设、团结教育引导宗教群众、规范管理宗教场所宗教团体宗教活动等重点，统筹做好各项宗教工作，实现宗教健康发展。要推动发展成果惠及民生，加快推进城市“一圈两场三改”、农村“五治”、为民办实事等民生工作，不断提高人民群众获得感、幸福感、安全感。要纵深推进全面从严治党，坚决向“庸、懒、散、软、浮、推”等作风顽疾亮剑宣战，不断营造干部清正、政府清廉、政治清明的良好发展生态。', '会议强调，要把学习《习近平谈治国理政》第四卷作为重大政治任务，精心组织学、融会贯通学、联系实际学，认真谋划学习培训和宣讲宣传工作，把《习近平谈治国理政》第四卷与第一卷、第二卷、第三卷，与习近平总书记对贵州对贵阳贵安工作的重要指示批示精神结合起来学，突出学以致用，注重知行合一，不断把学习成效转化为推动高质量发展的强大力量和生动实践。要深入学习贯彻习近平总书记给参加海峡青年论坛的台湾青年回信精神，依托贵阳孔学堂海峡两岸交流基地、阳明文化等搭建交流平台，深化教科文卫等领域互学互鉴，拓展经贸交流，加强台企服务，持续做好新形势下对台青年交流工作。要深入学习贯彻习近平总书记给中国国家博物馆老专家回信精神和习近平总书记致全球重要农业文化遗产大会贺信精神，进一步提升文物保护水平，全力激发历史文物资源的生命力，深入挖掘农业文化遗产价值，更好发挥省级和民间博物馆作用，持续推动文博事业高质量发展。要深入学习贯彻习近平总书记致世界互联网大会国际组织成立贺信精神，坚定不移实施数字活市战略，持续推动“一硬一软”两大产业加快发展，全力激活“数据中心、网络设施、政策支持”三个要素，着力打造“一会一所一城一中心”四个品牌，切实筑牢网络安全屏障，奋力在实施数字经济战略上抢新机。', '贵阳市各区（市、县、开发区），贵安新区各乡镇（街道），贵阳贵安有关单位主要负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>245</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习贯彻习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2022-06-21</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202206/t20220621_75092923.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习贯彻习近平总书记近期重要讲话精神 - 贵阳市人民政府', '6月20日，贵阳市委常委会和贵安新区党工委召开会议，传达学习贯彻习近平总书记在四川考察时的重要指示精神，在中共中央政治局第四十次集体学习时的重要讲话精神，出席第二十五届圣彼得堡国际经济论坛全会时的致辞精神，致《大公报》创刊120周年重要贺信精神，6月17日中共中央政治局会议精神，以及省有关会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇，市人大常委会主任聂雪松，市政协主席石邦林，市委副书记陶平生，市委常委，市政府、市政协和贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，要深入学习贯彻习近平总书记在四川考察时的重要指示精神，坚定不移推动高质量发展，高效统筹疫情防控和经济社会发展，加快推动乡村全面振兴，持续推进生态文明建设，大力传承弘扬中华优秀传统文化，持之以恒保障和改善民生，努力保持平稳健康的经济环境、国泰民安的社会环境、风清气正的政治环境。要深入学习贯彻习近平总书记在中共中央政治局会议上的重要讲话精神，坚定不移走中国特色金融发展之路，坚持和加强党对金融工作的领导，有效防控金融风险，持续加强金融干部队伍建设，奋力推动贵阳贵安金融业快速健康发展。', '会议强调，要深入学习贯彻习近平总书记在中央政治局第四十次集体学习时的重要讲话精神，坚定不移推进反腐败斗争，多措并举加大不敢腐的震慑、健全不能腐的机制、构建不想腐的防线，全面打赢反腐败斗争攻坚战、持久战。要深入学习贯彻习近平总书记致《大公报》创刊120周年重要贺信精神，坚定不移加强宣传思想工作，围绕举旗帜、聚民心、育新人、兴文化、展形象使命任务，推动宣传思想工作守正创新，进一步坚定主心骨、打好主动仗、唱响主旋律、筑牢主阵地，凝聚起推动“强省会”的强大力量。要深入学习贯彻习近平总书记在第二十五届圣彼得堡国际经济论坛全会上的致辞精神，坚定不移扩大对外开放，扎实做好培育开放主体、畅通开放通道、营造开放环境、提升开放层次等工作，为建设内陆开放型经济新高地作出省会贡献。', '会议强调，要落实好省委常委会会议安排部署，立足于防大汛、抗大险、救大灾，进一步增强忧患意识、强化指挥调度，扎实抓好隐患排查，真正把“人民至上、生命至上”刻在防汛救灾第一线，确保人民群众生命财产安全。要落实好谌贻琴同志到贵阳市开展稳增长稳市场主体保就业专项督查时的指示精神，聚焦省专项督查指出的问题强化整改措施、压实工作责任，发挥“贵商易”平台作用，用足用好稳经济一揽子政策措施，坚决稳住经济社会发展良好态势，以“强省会”的实际成效为全省高质量发展贡献力量。', '市委常委会和贵安新区党工委召开会议 安排部署平安贵阳建设、生态文明建设、食品安全和知识产权保护工作']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>245</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>马宁宇主持召开贵阳市政府贵安新区管委会党组会议深入学习贯彻习近平总书记重要讲话精神</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2022-07-28</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220728_75807981.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['马宁宇主持召开贵阳市政府贵安新区管委会党组会议 深入学习贯彻习近平总书记重要讲话精神 - 贵阳市人民政府', '马宁宇主持召开贵阳市政府贵安新区管委会党组会议 深入学习贯彻习近平总书记重要讲话精神', '7月27日，市委副书记、市政府党组书记、市长，贵安新区党工委副书记、管委会党组书记、主任马宁宇主持召开贵阳市政府党组、贵安新区管委会党组会议，深入学习贯彻习近平总书记在新疆考察时的重要讲话精神，中办转发《中央宣传部、中央组织部关于认真组织学习〈习近平谈治国理政〉第四卷的通知》精神，传达学习省、市有关会议精神，研究贯彻落实意见。', '会议要求，要深入学习贯彻习近平总书记在新疆考察时的重要讲话精神，按照党中央和省委、市委决策部署，铸牢中华民族共同体意识，提升民族宗教事务治理能力，解决好各族群众所期所盼，推动贵阳贵安民族宗教工作高质量发展。要以迎接、宣传、贯彻党的二十大为主线，把学习贯彻《习近平谈治国理政》第四卷作为重大政治任务，融会贯通学、联系实际学、精心组织学，持续推动党的创新理论武装入脑入心、走深走实。', '会议强调，要大力实施以大数据为引领的创新驱动发展战略，加快国家大数据综合试验区核心区建设，打造数据中心、智能终端、数据应用三大千亿级产业集群。要深耕文化资源禀赋优势，加强青岩古镇、息烽集中营革命历史纪念馆等资源保护利用，用好省级和民间博物馆，更好满足人民群众精神文化需求。要坚决扛起粮食安全政治责任，坚决防止耕地“非农化”“非粮化”，确保粮食播种面积和产量。要落实好河长制、林长制，扎实推进生态文明建设。要加强地方智库建设，为实施“强省会”行动提供有力支撑。', '会议要求，要认真履行党建工作责任，自觉接受纪检监察机关派驻监督，强化巡视巡察整改和成果运用，做到守土有责、守土负责、守土尽责。要加强法治政府建设，持续推进科学立法、严格执法、公正司法、全民守法，传递守护群众美好生活的法治温度。', '各区（市、县、开发区）、市直有关部门和企业，贵安新区有关部门、企业和乡（镇）负责人参加。', '马宁宇主持召开贵阳市政府常务会议贵安新区管委会主任办公会议 传达学习全国全省有关会议精神 研究部署下半年经济工作']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>245</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在京召开</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/qgyw/202402/t20240205_83789823.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在京召开 - 贵阳市人民政府', '日前，中共中央总书记、国家主席、中央军委主席习近平在主持中央政治局会议审议主题教育总结报告和关于巩固拓展主题教育成果的意见时发表了重要讲话。他指出，主题教育启动以来，全党紧扣“学思想、强党性、重实践、建新功”总要求，聚焦主题主线，明确目标任务，突出以学铸魂、以学增智、以学正风、以学促干，与做好开局之年工作紧密结合，特别是着力解决制约高质量发展问题、群众急难愁盼问题、党的建设突出问题，达到预期目的，取得明显成效。', '习近平强调，要巩固拓展主题教育成果，抓好意见落实，形成长效机制。要持续加强理论武装，教育引导党员干部通过坚持学习党的创新理论，悟规律、明方向、学方法、增智慧，固本培元、凝心铸魂，进一步打牢党的团结统一的思想基础。要持续推动解决问题，继续抓好整改整治、建章立制，让人民群众切实感受到解决问题的实际成效，让人民群众有获得感。要持续改进作风，落实“四下基层”，坚持和发展新时代“枫桥经验”，走好新时代群众路线，纠治形式主义、官僚主义，切实抓好整治形式主义为基层减负工作。要大兴务实之风、清廉之风、俭朴之风，发扬自我革命精神，在全党组织开展好集中性纪律教育。要持续夯实基层基础，推进以党建引领基层治理，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用，推进基层治理体系和治理能力现代化。要持续抓好落实，树牢正确政绩观，坚持问题导向，实事求是、因地制宜，重实干、做实功、求实效，更好将主题教育成果转化为推动高质量发展的成效。各级党委（党组）要把巩固拓展主题教育成果作为重大政治任务，扛起主体责任，不折不扣抓好落实。', '2月4日，学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在北京召开。中共中央政治局常委、中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组组长蔡奇出席会议并讲话。', '中共中央政治局常委、中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组组长蔡奇出席会议并讲话。他强调，习近平总书记的重要讲话，充分肯定主题教育取得的明显成效，对巩固拓展主题教育成果提出明确要求。我们要深刻领会，认真贯彻落实。', '蔡奇指出，这次主题教育之所以能够取得明显成效，根本在于党中央的坚强领导，在于习近平总书记亲自谋划、直接领导、全程指导、示范引领。习近平总书记出席主题教育工作会议并作动员部署，主持召开中央政治局常委会会议、中央政治局会议审议相关文件，围绕主题教育主持中央政治局集体学习和专题民主生活会，并多次实地考察调研，对主题教育提出要求、作出一系列重要论述，为主题教育高质量开展指明了方向、提供了重要遵循。', '蔡奇强调，这次主题教育为新时代开展党内集中教育积累了新经验，主要包括：坚持把理论学习贯穿始终、突出问题导向、服务中心任务、力戒形式主义、以上率下示范引领等，要注意总结好、运用好。', '蔡奇指出，要不断巩固拓展主题教育成果，坚定不移全面从严治党，全面推进党的自我净化、自我完善、自我革新、自我提高。要夯实全党团结统一的思想基础，坚持不懈抓好党的创新理论武装，推动广大党员、干部真正把马克思主义看家本领学到手。要激发全党创造活力，把全党的智慧和力量凝聚到新时代新征程党的中心任务上来。要走好新时代群众路线，运用好“四下基层”经验，把我们党密切联系群众的优良作风发扬光大。要严明党的纪律，在全党开展集中性纪律教育，推动广大党员、干部自觉把铁的纪律转化为日常习惯和行动准绳。要提高制度治党、依规治党水平。要把学习贯彻习近平新时代中国特色社会主义思想不断引向深入，为以中国式现代化全面推进强国建设、民族复兴伟业而不懈奋斗。', '中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组成员及办公室负责同志，各省区市和副省级城市、新疆生产建设兵团党委组织部部长，中央和国家机关各部门、各人民团体，中央管理的金融机构、部分企业和高校，中央军委机关有关部门负责同志，中央巡回指导组和省级巡回督导组组长、副组长等参加会议。会议以电视电话会议形式召开，各省区市和新疆生产建设兵团设分会场。', '学习贯彻习近平新时代中国特色社会主义思想主题教育从去年4月开始，自上而下分两批进行，目前已基本结束。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>245</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议深入学习贯彻习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202305/t20230519_79803002.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 深入学习贯彻习近平总书记近期重要讲话精神 - 贵阳市人民政府', '5月18日，市委常委会和贵安新区党工委召开会议，深入学习习近平总书记近期重要讲话精神，传达省委近期会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市政协主席石邦林，市委常委，市人大常委会、市政府、市政协、贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，要深入学习贯彻习近平总书记在二十届中央财经委员会第一次会议上的重要讲话精神，抢抓机遇、真抓实干，高标准高质量推进中国式现代化的贵阳贵安实践。要全面加强党对经济工作的领导，不断完善党委领导经济工作的机制，切实发挥好市委财经委员会的职能作用，确保“强省会”各项工作任务落到实处、见到实效。要全面建设现代化产业体系，坚持把发展经济的着力点放在实体经济上，加快打造具有竞争力和影响力的现代化产业体系，为贵阳贵安高质量发展注入强劲动力。要全面提升人口整体素质，深刻认识、正确看待人口发展新形势，千方百计把人口、人才工作做深做实，以人口高质量发展支撑和推动城市高质量发展。', '会议强调，要深入学习贯彻习近平总书记在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时的重要讲话精神，与学习贯彻习近平总书记对贵安新区的重要指示精神结合起来，坚持高端化、绿色化、集约化，推动贵安新区实现裂变式增长、引领性突破。要狠抓城市建设，精细抓好“三城两组团”规划建设，更好推动实现城与城、产与城、人与城、城与景的深度融合。要狠抓产业发展，坚持产业为要，全力以赴做强做大做优工业经济，加快推动现代农业和现代服务业高质量发展。要狠抓项目建设，进一步加强项目全生命周期服务管理，全力推动项目建设提速提质提效。要狠抓民生保障，用心用情用力做好城市“一圈两场三改”、农村“五治”、为民办实事等民生工作，让发展成果更多更公平惠及新区群众。要狠抓风险防范，全力统筹发展和安全，坚决维护社会大局和谐稳定，更好实现高质量发展和高水平安全良性互动。', '会议强调，要深入学习贯彻习近平总书记在河北考察并主持召开深入推进京津冀协同发展座谈会时的重要讲话精神，紧扣省委、省政府关于加快构建 “一群三带”城镇空间格局的部署要求，扎实推进规划共商、产业共谋、生态共护，努力以省会的发展辐射带动周边城市发展。要深入学习贯彻习近平总书记致海军潜艇部队某艇员队的回信精神，全力落实为军惠军政策、营造尊军崇军氛围、巩固拥军爱军关系，以实际行动续写贵阳贵安军爱民、民拥军的新篇章。', '会议强调，要全力建好建强各级领导班子和干部队伍，围绕强忠诚、强能力、强作风、强廉洁，坚定不移以政治建设淬炼忠诚，久久为功提升管权管事管人工作水平，持之以恒整肃“庸、懒、散、软、浮、推”作风顽疾，持续巩固发展风清气正的良好政治生态，为贵阳贵安高质量发展和现代化建设提供坚强保证。要全力推进政法工作现代化，扎实推进政治建设、平安贵阳建设、法治贵阳建设、服务“强省会”行动、基层基础建设各项工作，奋力推动政法工作再上新台阶。', '贵阳市各区（市、县、开发区）、贵安新区各乡镇（街道），贵阳贵安有关部门负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>245</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>市委常委会召开会议学习贯彻习近平总书记近期重要讲话重要指示精神</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202309/t20230929_82544013.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['市委常委会召开会议 学习贯彻习近平总书记近期重要讲话重要指示精神 - 贵阳市人民政府', '9月28日，市委常委会召开会议，传达学习习近平总书记在黑龙江考察时的重要讲话和在新时代推动东北全面振兴座谈会上的重要讲话精神，在浙江考察时的重要讲话、在山东省枣庄市考察时的重要讲话精神，以及近期重要讲话重要指示精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市人大常委会主任聂雪松，市政协主席石邦林，市委副书记滕伟华，市委常委，市人大常委会、市政府、市政协、贵安新区有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，要奋力谱写中国式现代化贵阳贵安实践新篇章，以发展民营经济、工业经济、农业经济、文旅经济、城市经济、数字经济、绿色经济“七大经济”为突破，全面构建现代化产业体系。要全面推动创新驱动发展，以改革引领创新、以开放带动创新、以科技促进创新、以人才激活创新。要全面推进乡村振兴，坚持问题导向、突出实绩实效，推进产业、人才、文化、生态、组织“五个振兴”。要全面提升市域治理现代化水平，一体推进亲商贵阳、法治贵阳、平安贵阳、数治贵阳、文化贵阳建设。', '会议强调，要弘扬中华体育精神，全力创建全国全民运动健身模范城市，协同推进体育事业和体育产业发展，打造全民体育活动、具有贵阳贵安特色的山地体育活动、具有影响力的专业品牌赛事活动。要推进新型工业化，坚持以企促产、以产立园、以园兴工，狠抓责任落实、工业目标、工业要素、工业招商、工业产业和工业园区，加快打造全国重要的新能源动力电池及材料研发生产基地、面向全国的算力保障基地、全国重要的资源精深加工基地、全国重要的产业备份基地。要提高对外交流合作水平，做实国际友城工作，用好数博会、生态文明贵阳国际论坛、酒博会、中国—东盟教育交流周等重要对外交流平台，深化产业发展、经贸往来、环境保护等领域的对外交流合作。', '会议强调，要办好人民满意的教育，强化教育优先发展，推动学前教育普惠优质、义务教育优质均衡、普通高中全面提质、职业教育强基提质、高等教育特色发展、特殊教育高质量发展、教师队伍发展壮大、职业技能学历双提升，发挥好名校长、名教师、名班主任“三名工程”作用。要提升办公厅（室）履职能力，提高政治站位、强化政治担当、提升政治能力、落实政治责任，充分发挥统筹协调、参谋助手、督促检查、服务保障等职能作用，持续提升“三服务”质效，建设让党放心、让人民满意的模范机关。要开创党管武装工作新局面，扛牢党管武装政治责任，做好“一城两兵三融合”工作，为驻筑部队建设创造有利条件。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>245</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>李强主持召开国务院常务会议研究优化调整稳就业政策措施审议通过商用密码管理条例修订草案</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/qgyw/202304/t20230415_79064189.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['李强主持召开国务院常务会议 研究优化调整稳就业政策措施 审议通过《商用密码管理条例（修订草案）》 - 贵阳市人民政府', '李强主持召开国务院常务会议 研究优化调整稳就业政策措施 审议通过《商用密码管理条例（修订草案）》', '国务院总理李强4月14日主持召开国务院常务会议。会议强调，要认真学习贯彻习近平总书记近日考察广东重要讲话精神，锚定强国建设、民族复兴目标，围绕高质量发展这个首要任务和构建新发展格局这个战略任务，在全面深化改革、扩大高水平对外开放、提升科技自立自强能力、建设现代化产业体系、促进城乡区域协调发展等方面不断取得新突破，扎实推进中国式现代化，让现代化建设成果更多更公平惠及全体人民。', '会议听取了当前就业形势和优化调整稳就业政策措施的汇报。会议指出，就业是民生之本。要进一步强化政策引导，在保持稳就业政策总体稳定的同时，有针对性优化调整阶段性政策并加大薄弱环节支持力度，确保就业大局稳定。要突出稳存量、扩增量、保重点，既有力有效实施稳岗支持和扩岗激励措施，更大程度调动企业用人积极性，又认真做好高校毕业生、农民工等重点群体就业服务，进一步稳定政策性岗位规模，多渠道拓宽就业空间。对失业和其他就业困难人员要分类予以帮扶。要着力破解结构性就业矛盾，采取务实管用措施稳定制造业、外贸企业等就业规模，突出就业导向优化高校专业设置，面向市场需求提升职业教育和技能培训质量。要强化宏观政策、产业政策等支持，通过扩大有效需求、提振市场信心、稳定企业经营带动更多就业，推动就业增长与经济发展互促共进。', '会议审议通过《商用密码管理条例（修订草案）》。会议指出，近年来，商用密码应用愈发广泛，在保障网络和信息安全、维护公民和法人权益方面的重要性日益凸显。要全面贯彻总体国家安全观，进一步规范商用密码应用和管理，督促平台企业依法履行用户密码保护责任，确保个人隐私、商业秘密和政府敏感数据的安全。要更好顺应数字经济快速发展趋势，建立健全商用密码科技创新促进机制，推动商用密码科技成果转化和产业化应用，促进商用密码市场持续健康发展。', '习近平在广东考察时强调 坚定不移全面深化改革扩大高水平对外开放 在推进中国式现代化建设中走在前列']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>245</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2023-07-16</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202307/t20230716_80975295.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['7月15日，市委常委会召开会议，深入学习贯彻中央政治局会议精神和习近平总书记近期重要讲话精神，传达学习中共中央政治局委员、国务院副总理刘国中在2023年生态文明贵阳国际论坛上的主旨讲话精神，中共中央政治局委员、广东省委书记黄坤明率广东省党政代表团在贵州考察时的讲话要求，省委近期会议精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇，市人大常委会主任聂雪松，市政协主席石邦林，市委常委，市人大常委会、市政府、市政协有关领导同志，市法院院长、市检察院检察长参加。', '会议指出，要认真学习贯彻6月30日中央政治局会议精神，紧密结合贯彻落实习近平总书记对贵安新区重要指示精神，认真学习先进新区的新理念好做法，加快推动贵安新区高质量发展大踏步前进，努力实现一年一个样、三年大变样。要认真学习贯彻习近平总书记在中央政治局第六次集体学习时的重要讲话精神，深刻把握习近平新时代中国特色社会主义思想的真理力量和实践伟力，扎实抓好传达学习、教育培训、研究阐释、宣传宣讲，引导党员干部做到政治认同、思想认同、理论认同、情感认同。要认真学习贯彻习近平总书记在江苏考察时的重要讲话精神，突出科技创新、产业发展、文化保护、民生保障，持续提高科技成果转化和产业化水平，加快壮大产业生态，不断提升城市文化内涵和竞争力，全力惠民、便民、安民、富民，奋力当好全省高质量发展的“排头兵”、现代化建设的“领头羊”。', '会议强调，要认真学习贯彻习近平总书记在上海合作组织成员国元首理事会第二十三次会议上的重要讲话精神和近期重要贺信、重要回信精神，立足实际拓宽航空、高铁、高速公路、水运等开放通道，积极培育外贸、外资、外经开放主体，充分发挥贵阳综保区、贵安综保区的“桥头堡”功能，着力擦亮“贵人服务”品牌，更好以高水平开放促进高质量发展。要认真学习贯彻习近平总书记对防汛救灾工作作出的重要指示精神，及时掌握雨情、水情、汛情、险情、灾情“五情”，深入排查各领域风险隐患，严格执行汛期领导带班和专人值班制度，统筹做好抗旱准备，确保贵阳贵安安全度汛。要认真贯彻落实习近平主席视察东部战区机关重要讲话精神，做好“一城两兵三融合”各项工作，为驻筑部队建设发展创造有利条件，奋力推动国防动员事业再上新台阶。', '会议强调，要认真学习贯彻习近平生态文明思想，落实刘国中同志主旨讲话精神，扎实做好2023年生态文明贵阳国际论坛“后半篇文章”，加快吸收创新成果、用好招商成果、提升品牌成果、巩固示范成果。要认真学习贯彻习近平总书记关于深化东西部协作的重要指示精神，落实黄坤明同志率广东省党政代表团在贵州考察时的讲话要求，以共建产业园区为纽带，充分学习借鉴先进经验，加快推动项目落地，为打造东西部协作典范贡献更多力量。', '会议强调，要落实省委理论学习中心组集中研讨会精神，进一步从党的创新理论中悟规律、明方向、学方法、增智慧，着力提升政治能力、思维能力、实践能力。要落实全省基层党建工作会议精神，围绕“为什么抓、抓什么、谁来抓、怎么抓、抓得怎么样”，把基层党组织建强，把基础工作做扎实，奋力推动基层党建高质量发展。要落实徐麟同志在省委常委班子开展“七一”主题党日活动时的讲话精神，以敢干实干快干会干走好新时代赶考路。要一刻不停推进全面从严治党，树立正确权力观、政绩观、事业观，始终公正用权、依法用权、为民用权、廉洁用权，切实处理好公与私、上与下、大与小、远与近、尽力而为与量力而行、干净与干事的关系，更好以实干实绩实效为民造福。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>245</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>贵州省贵阳市中国共产主义青年团贵阳市委员会年度部门决算</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zdlyxxgkx/czxx_5617879/qtxgdwyjs/zwgkzdlyxxgkczxxxgdwyjszggczyqntgyswyh/201908/t20190803_32859821.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['贵州省贵阳市中国共产主义青年团贵阳市委员会2018年度部门决算 - 贵阳市人民政府', '中国共产主义青年团是中国共产党领导的先进青年群众组织，是广大青年在实践中学习共产主义的学校，是党的助手和后备军，是党联系青年的桥梁和纽带，是国家政权的重要社会支柱之一。团市委由中共贵阳市委领导，接受共青团贵州省委指导。主要工作职责是：', '、行使市委赋予的领导全市共青团和青联、少先队工作的职权，对全市性的青年社团组织进行指导和管理，指导直属单位的工作。', '、参与拟定全市青少年事业发展规划和青少年工作方针、政策和法规、规章，并组织实施，参与拟定有关青年统战工作的方针、政策。', '、协助处理和协调与青少年利益相关的事务，调查青年思想动态和青年工作情况，研究青少年运动的理论和思想教育问题，反映青少年的利益要求和意见，并提出相应的政策意见或建议。', '、组织带领广大青年积极投身西部大开发、富民兴筑的宏伟事业，根据青年特点开展各项活动，在“两个文明”和“强市升位”的 实践中充分发挥生力军和突击队的作用。', '、制定共青团组织建设的有关政策、规划，组织和实施团员发展、团干培训、推优入党等工作，做好对下一级团委领导班子的协管工作。', '、协助有关部门做好大、中、小学学生的培养、教育、管理工作，维护学校稳定和社会安定团结。', '、做好青年统战对象的团结教育工作，维护民族团结、促进祖国统一。做好全市青少年外事工作，加强管理和提供服务，开展对外交流和宣传工作。', '本单位（部门）内设9个处室，下属2个单位。从预算单位构成看，贵州省贵阳市中国共产主义青年团贵阳市委员会部门决算包括：本级决算、所属', '一般公共服务支出（类）群众团体事务（款）事业运行（项）。当年预算为388.27万元，支出决算为453.35万元，完成当年预算的116.76%。决算数大于预算数的主要原因是：因2018年增加机关事业单位基本养老险、职业年金、职工基本医疗保险费等支出。', '万元。主要用于公务车的过路费、油费、修理费等。2018年，单位开支财政拨款的公务用车保有量为6辆。', '国内公务接待支出2.87万元，主要是用于接待团中央、河南团省委及郑州团市委考察团、来宾团市委、来筑实习香港大学生、香港半岛青年商会代表团等就餐费、考察租车费等。', '年贵州省贵阳市中国共产主义青年团贵阳市委员会政府采购支出总额0万元，其中：政府采购货物支出0万元、政府采购工程支出0万元、政府采购服务支出0万元，授予中小企业合同金额0万元，占政府采购支出总额的0%，其中：授予小微企业合同金额0万元，占政府采购支出总额的0%。', '截至2018年12月31日，贵州省贵阳市中国共产主义青年团贵阳市委员会共有车辆6辆，其中，主要领导干部用车0辆、机要通信用车5辆、应急保障用车0辆、执勤执法用车0辆、特种专业技术用车0辆、离退休干部用车0辆、其他用车1辆（其他用车主要是：一般公务用车）；单位价值50万元以上通用设备0台（套），单位价值100万元以上专用设备0台（套）。', '根据财政预算管理要求，我单位组织对2018年度一般公共预算项目支出开展了绩效自评工作。共计12个项目进行了绩效自评，涉及资金476.25万元，自评覆盖率达到100%。', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为95分。发现的主要问题及原因：', '根据年初设定的绩效目标，本项目已完成全部目标任务，自评得分为92分。发现的主要问题及原因：一是对预算绩效管理工作重视不够；二是预算绩效管理制度建立不够完善；三是预算绩效管理工作及制度学习不够深入。', '贵阳市青少年活动中心最高效率运转。使贵阳市青少年活动中心最高效率运转,实现更好服务青少年的目标', '：指除上述“财政拨款收入”、“事业收入”、“经营收入”、“附属单位缴款”等之外取得的收入。', '指事业单位在当年的“财政拨款收入”、“财政拨款结转和结余资金”、“事业收入”、“事业单位经营收入”、“其他收入”不足以安排当年支出的情况下，使用以前年度积累的事业基金（即事业单位当年收支相抵后按国家规定提取、用于弥补以后年度收支差额的基金）弥补本年度收支缺口的资金。', '指以前年度支出预算因客观条件变化未执行完毕、结转到本年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '指本年度或以前年度预算安排、因客观条件发生变化无法按原计划实施，需要延迟到以后年度按有关规定继续使用的资金，既包括财政拨款结转和结余，也包括事业收入、经营收入、其他收入的结转和结余。', '纳入同级财政预决算管理的“三公”经费是指用一般公共预算财政拨款安排的因公出国（境）费、公务用车购置及运行费和公务接待费。其中，因公出国（境）费反映单位公务出国（境）的住宿费、旅费、伙食补助费、杂费、培训费等支出；公务用车购置及运行费反映单位公务用车购置费及租用费、燃料费、维修费、过路过桥费、保险费、安全奖励费用等支出；公务接待费反映单位按规定开支的各类公务接待（含外宾接待）支出。', '为保障行政单位（含参照公务员法管理的事业单位）运行用于购买货物和服务的各项资金，包括办公及印刷费、邮电费、差旅费、会议费、福利费、日常维修费、专用材料及一般设备购置费、办公用房水电费、办公用房取暖费、办公用房物业管理费、公务用车运行维护费以及其他费用。', '反映中国共产主义青年团贵阳市委员会下属事业单位贵阳市青少年宫及贵阳市青年志愿者指导中心的基本支出，不包括行政单位后勤服务中心、医务室等附属事业单位。', '反映中国共产主义青年团贵阳市委员会下属事业单位贵阳市青少年宫及贵阳市青年志愿者指导中心除上述项目以外其他用于群众团体事务方面的支出。', '指中国共产主义青年团贵阳市委员会按照《住房公积金管理条例》和其他相关规定，由单位及其在职职工以职工工资为缴存基数，分别按照一定比例缴存的长期住房储金。行政单位缴存基数包括国家统一规定的公务员职务工资、级别工资、机关工人岗位工资和技术等级（职务）工资、年终一次性奖金、特殊岗位津贴、规范后发放的工作性津贴和生活性补贴等；事业单位缴存基数包括国家统一规定的岗位工资、薪级工资、绩效工资、特殊岗位津贴等。单位和职工住房公积金缴存比例均不得低于5%，不得高于12%。）']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>245</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>马宁宇主持召开贵阳市政府贵安新区管委会党组会议传达学习贯彻习近平总书记重要讲话精神</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202204/t20220419_73491185.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['马宁宇主持召开贵阳市政府贵安新区管委会党组会议 传达学习贯彻习近平总书记重要讲话精神 - 贵阳市人民政府', '马宁宇主持召开贵阳市政府贵安新区管委会党组会议 传达学习贯彻习近平总书记重要讲话精神', '4月18日，市委副书记、市政府党组书记、市长，贵安新区党工委副书记、管委会党组书记、主任马宁宇主持召开贵阳市政府党组、贵安新区管委会党组会议，传达学习习近平总书记重要讲话精神，以及省、市有关会议精神，研究贯彻落实意见。', '会议指出，贵阳市、贵安新区各级各部门要认真学习领会习近平总书记在北京冬奥会、冬残奥会总结表彰大会上的重要讲话精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，大力弘扬北京冬奥会、冬残奥会精神，不断完善全民健身体系、残疾人社会保障制度和关爱服务体系，积极创建全民运动健身模范城市，推动体育事业高质量发展。要深入学习贯彻习近平总书记在海南考察时的重要讲话精神，把新发展理念贯穿发展全过程各领域，坚定走生态优先、绿色发展之路，不断丰富对外开放载体，深入贯彻党的群众路线，更好统筹疫情防控和经济社会发展、统筹发展和安全。', '会议强调，要全面推进乡村振兴，把增加脱贫群众收入作为根本措施，严格落实“四个不摘”要求，继续抓好就业产业、增收工作、考核评估、示范引领等工作，持续巩固拓展脱贫攻坚成果，坚决守住不发生规模性返贫的底线。要纵深推进全面从严治党，严格落实“一岗双责”，坚决抓好巡视巡察问题整改。要认真落实《中央生态环境保护督察整改工作办法》，加快推进中央环保督察发现问题、生态环境警示片曝光问题整改。要大力推进精细磷化工等产业发展，加快布局新能源电池及材料产业，优化服务保障，提高项目质量，努力打造国内一流产业集群。要加强新时代党内法规制度建设，认真学习和开展党内法规宣传教育，建立完善制定会商、审查联动、工作通报、执行监督等制度，着力提升党内法规工作水平。', '会议要求，要全力做好能源供应，加强成品油、天然气等储备能力建设，大力发展循环经济，建设生态工业园区，严格落实能源消费总量和强度“双控”制度，在确保煤矿安全生产前提下做好煤电稳定供应。要推进全面深化改革走深走实，按照“一市一示范”、“一县一试点”要求，细化任务分解，压实工作责任，强化统筹调度，加强跟踪督办，确保新国发2号文件明确的改革事项加快落地落实。', '各区（市、县、开发区）、市直有关部门和企业，贵安新区有关部门、企业和乡（镇）负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>245</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>马宁宇主持召开贵阳市政府贵安新区管委会党组会议</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2023-10-21</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202310/t20231021_82825177.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['10月20日，市委副书记、市政府党组书记、市长，贵安新区党工委副书记、管委会党组书记、主任马宁宇主持召开贵阳市政府党组、贵安新区管委会党组会议，深入学习贯彻习近平总书记在江西考察时、在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，在第三届“一带一路”国际合作高峰论坛开幕式上的主旨演讲精神，以及对宣传思想文化工作作出的重要指示精神，传达学习国务院重要会议精神，研究部署相关工作。', '市政府党组副书记、党组成员出席，非党员副市长列席。贵安新区管委会党组副书记、党组成员参加。', '会议强调，要毫不动摇坚持共抓大保护、不搞大开发，统筹推进生态环境保护和经济社会发展，协同推进降碳、减污、扩绿、增长，筑牢长江上游生态屏障。要坚持生态优先、绿色发展，把产业绿色转型升级作为重中之重，加强产业链协同合作，积极承接东部产业转移，推动传统产业改造升级和战略性新兴产业发展壮大，加快构建现代化产业体系。要聚焦算力、赋能、产业三大关键，认真落实“一二三四”工作思路，大力推进数字科技创新突破，促进数字经济和实体经济深度融合，加快打造全国数字经济技术模式、商业模式的首选试验田。要实施高水平对外开放，积极参与西部陆海新通道建设，主动融入粤港澳大湾区发展，为高质量共建“一带一路”贡献更多力量。要大力推进农业产业化，因地制宜发展林下经济、开发森林食品，积极培育生态旅游、森林康养等新业态，推动农村一二三产业融合发展。', '会议强调，要深入学习贯彻习近平文化思想，深入挖掘红色文化、阳明文化、民族文化、“三线”文化等资源，进一步丰富产品供给、促进文旅融合，推动文化事业和文化产业繁荣发展。要结合省属高校布局优化调整，强化在筑高校服务保障，支持市属高校优化学科结构，推进科教融合、产教融合，推动高等教育高质量发展。', '会议要求，要牢牢把握主题教育的总要求和目标任务，理论学习要学深悟透，调查研究要深入一线，高质量发展要唯实唯干，检视整改要动真碰硬，建章立制要务实管用，全力推动主题教育取得实实在在成效。', '会议以视频形式开至贵安新区及各区（市、县、开发区），市有关部门和企业负责人在主会场参加。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>245</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>马宁宇主持召开贵阳市政府贵安新区管委会党组会议深入学习贯彻习近平总书记近期重要讲话致信回信精神</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202309/t20230923_82476243.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['马宁宇主持召开贵阳市政府贵安新区管委会党组会议 深入学习贯彻习近平总书记近期重要讲话致信回信精神 - 贵阳市人民政府', '马宁宇主持召开贵阳市政府贵安新区管委会党组会议 深入学习贯彻习近平总书记近期重要讲话致信回信精神', '9月22日，市委副书记、市政府党组书记、市长，贵安新区党工委副书记、管委会党组书记、主任马宁宇主持召开贵阳市政府党组、贵安新区管委会党组会议，深入学习贯彻习近平总书记在黑龙江考察、在新时代推动东北全面振兴座谈会上的重要讲话精神，向全国优秀教师代表的重要致信精神，给东北大学全体师生的回信精神，对新时代办公厅工作作出的重要指示精神，传达学习近期省市有关会议精神，研究贯彻落实意见。', '市政府党组副书记、党组成员出席；非党员副市长列席。贵安新区管委会党组副书记、党组成员参加。', '会议强调，要坚持以科技创新推动产业发展，加快构建现代化产业体系，大力实施人才兴市战略，全面扩大高水平对外开放，奋力开创贵阳贵安现代化建设新局面。要坚持把教育事业放在优先发展地位，深入实施整体提升教育水平攻坚行动“七大提升工程”，深化办学体制和教育管理改革，办好人民满意的教育。要加快推进农业农村现代化，做优现代山地高效农业，坚决守住耕地保护红线和粮食安全底线。要发挥好政府系统办公厅（室）统筹协调、参谋助手、督促检查、服务保障等职能作用，全面提高“三服务”工作能力水平，努力建设让党放心让人民满意的模范机关。', '会议强调，要坚定不移支持民营经济发展壮大，始终坚持“两个毫不动摇”“三个没有变”“两个健康”，大兴调查研究之风，及时解决民营企业发展面临的困难问题。要坚定不移推进旅游产业化，大力推进市场主体培育、业态升级、服务质量提升、项目提质增效“四大行动”，强化阳明文化的转化运用，打造具有国际影响力的旅游名城。要学习借鉴云南省在产业发展、对外开放、生态文明建设等方面的经验做法，强化与云南相关产业的优势互补，加强对外贸易合作，推动贵阳贵安高质量发展。', '会议要求，要扎实开展第二批主题教育,坚持读原著、学原文、悟原理，深入开展调查研究，推动主题教育走深走实。要抓实抓细安全生产、信访维稳等各项工作，确保中秋国庆假期社会大局平安祥和稳定有序。', '会议以视频形式开至贵安新区、各区（市、县、开发区），市有关部门和企业负责人在主会场参加。', '胡忠雄：坚决守牢耕地保护红线和粮食安全底线 为贵阳贵安高质量发展和现代化建设提供有力支撑', '马宁宇主持召开贵阳市政府常务会议贵安新区管委会主任办公会议 研究部署新型城镇化等工作']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>245</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>市委常委会和贵安新区党工委召开会议传达学习贯彻习近平总书记近期重要讲话重要指示精神</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2022-07-11</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202207/t20220711_75494403.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['市委常委会和贵安新区党工委召开会议 传达学习贯彻习近平总书记近期重要讲话重要指示精神 - 贵阳市人民政府', '市委常委会和贵安新区党工委召开会议 传达学习贯彻习近平总书记近期重要讲话重要指示精神', '7月10日，市委常委会和贵安新区党工委召开会议，传达学习贯彻习近平总书记在庆祝香港回归祖国25周年大会暨香港特别行政区第六届政府就职典礼上的重要讲话精神，在湖北省武汉市考察时的重要指示精神，给安徽省太和县种粮大户徐淙祥的回信精神和致“全球发展：共同使命与行动价值”智库媒体高端论坛贺信精神，研究贯彻落实措施。省委常委、市委书记胡忠雄主持并讲话。', '市委副书记、市长马宁宇，市人大常委会主任聂雪松，市政协主席石邦林，市委常委，市政府和贵安新区有关领导同志参加。', '会议指出，要深入学习贯彻习近平总书记在香港发表的重要讲话精神，坚决落实党中央决策部署，更好服从服务“一国两制”伟大实践。要增强制度自信,坚定不移全面准确贯彻“一国两制”方针，深刻认识中国特色社会主义制度的本质特征和优越性，汇聚奋进力量。要深化交流合作，加强与包括香港在内的粤港澳大湾区在经贸、产业、文旅、科技创新等方面的务实合作，努力构建全方位宽领域多层次的立体开放格局。要充分学习借鉴，认真学习香港在打造营商环境和开放平台等方面的成功经验做法，深化“放管服”改革，建强用好“贵商易”平台，不断丰富“贵人服务”内涵，更好激发市场活力，为推动经济社会高质量发展提供有力支撑。', '会议强调，要深入学习贯彻习近平总书记在湖北省武汉市考察时的重要指示精神，完整准确全面贯彻新发展理念，奋力在新时代“强省会”赶考路上展现新作为、干出新气象。要推进科技创新，狠抓创新型城市、创新型产业、创新型企业、科技平台、科技投入、科技人才，更好让科技创新这个“关键变量”转化为“强省会”的“最大增量”。要做好疫情防控，毫不动摇坚持“外防输入、内防反弹”总策略和“动态清零”总方针，不断提高防控措施的针对性、精准性、有效性，坚决巩固好来之不易的疫情防控成果。要夯实基层基础，以“五个一”行动总揽基层党建，强化社区党组织的政治功能和组织功能，切实提升基层社会治理和公共服务水平，让社区成为居民最放心、最安心的港湾。', '会议强调，要深入学习贯彻习近平总书记给安徽省太和县种粮大户徐淙祥的回信精神，把“稳粮”作为“三农”工作的重要抓手，坚定不移守好粮食安全底线。要扛起责任，严格落实粮食安全党政同责，推动粮食生产责任、举措、工作全面落实到位。要科技赋能，充分运用良种、良技、良法，加强优良种苗的研发和运用，更好将农业科技转化为现实生产力。要藏粮于地，严守耕地和永久基本农田保护红线，严把耕地用途关、利用关、监管执法关，坚决遏制耕地“非农化”“非粮化”。要培育主体，大力培育种养大户、家庭农场、专业合作社、农业龙头企业等新型农业经营主体，充分激发活力、增强发展能力，有力有效保障群众餐桌需求。', '会议强调，要深入学习贯彻习近平总书记致“全球发展：共同使命与行动价值”智库媒体高端论坛贺信精神，充分汇聚智库力量，为“强省会”提供强有力的决策咨询和智力支持。要用好外力，积极推动与国家智库、省内智库的合作，谋划实施一批技术前沿、产业带动性强的优质项目，实现借力发展。要练好内力，市内智库要紧紧围绕市委中心工作，深入开展调查研究，提出可操作性强、具有针对性的对策建议。要形成合力，推进校（院）地智库跨学科、跨部门、跨地域的互动合作，健全决策咨询体系，推动智库研究成果转化应用，以科学咨询支撑科学决策。', '市委常委会和贵安新区党工委召开会议 传达学习贯彻《中国共产党政治协商工作条例》 研究部署党建乡村振兴安全生产等工作']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>245</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>马宁宇主持召开贵阳市政府党组会议传达学习贯彻习近平总书记近期重要讲话精神</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202308/t20230812_81710212.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['马宁宇主持召开贵阳市政府党组会议 传达学习贯彻习近平总书记近期重要讲话精神 - 贵阳市人民政府', '8月11日，市委副书记、市政府党组书记、市长马宁宇主持召开贵阳市政府党组会议，传达学习习近平总书记近期重要讲话精神和中共中央政治局会议、国务院常务会议精神，研究贯彻落实意见。', '会议指出，要深入学习贯彻习近平总书记在7月24日中央政治局会议上的重要讲话精神，切实把思想和行动统一到中央、省、市关于经济工作的最新判断、最新部署上来，着力扩大内需、提振信心、防范风险，全力做强实体经济、扩大有效投资、恢复和扩大消费，推动经济实现质的有效提升和量的合理增长。要深入学习贯彻习近平总书记在中央财经委员会第二次会议上的重要讲话精神，坚决扛起耕地保护和粮食安全重大政治责任，大力推进土地整治和高标准农田建设，完善种粮保障机制，牢牢守住耕地保护和粮食安全底线。要全面贯彻落实习近平总书记关于防汛救灾工作的重要指示精神和安全生产的重要论述，以“时时放心不下”的责任感抓好防汛抗旱救灾和安全生产工作，做到思想认识到位、工作措施到位、人员责任到位，全力保障人民群众生命财产安全和社会大局稳定。', '会议强调，要深入学习贯彻习近平总书记在四川、陕西汉中考察时的重要讲话重要指示精神，始终牢记嘱托、感恩思进、感恩奋进，为谱写中国式现代化贵州实践新篇章贡献省会力量。要协同推进科技创新和科技成果转化，加快开辟发展新领域新赛道、塑造发展新动能新优势。要加快构建现代化产业体系，大力发展重点产业，全力打造“四大产业基地”。要全力推进巩固拓展脱贫攻坚成果同乡村振兴有效衔接，提升农村“五治”工作质效，加快建设宜居宜业和美乡村。要切实抓好历史文脉传承保护和利用，加快创建国家历史文化名城。要牢牢把握主题教育总体要求、目标任务和重点措施，谋划做好各项准备工作。', '会议要求，要深入学习贯彻习近平强军思想，尽好国防建设领域应尽的责任，扎实做好“一城两兵三融合”各项工作，为实现建军一百年奋斗目标作出贵阳贡献。要认真学习贯彻习近平总书记在成都第三十一届世界大学生夏季运动会开幕式欢迎宴会上的致辞精神，加快推动全市体育事业健康发展，持续推进青年发展型城市建设试点，突出“年轻化、新玩法”办好各类文旅活动。', '会议以视频形式开至有关区（市、县、开发区），贵阳贵安有关部门和企业负责人在主会场参加。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>245</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>马宁宇主持召开贵阳市政府贵安新区管委会党组会议</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>https://www.guiyang.gov.cn/zwgk/zwgkxwdt/zwgkxwdtjrgy/202206/t20220615_74913939.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['6月14日，市委副书记、市政府党组书记、市长，贵安新区党工委副书记、管委会党组书记、主任马宁宇主持召开贵阳市政府党组、贵安新区管委会党组会议，传达学习贯彻习近平总书记近期重要讲话、贺信精神，以及省、市有关会议精神，研究贯彻落实意见。', '会议强调，要深入学习贯彻习近平总书记在四川省考察时的重要讲话精神，深入贯彻新发展理念，主动融入新发展格局，高效统筹疫情防控和经济社会发展，全心全力办好民生实事，努力保持平稳健康的经济环境、国泰民安的社会环境、风清气正的政治环境，以优异成绩迎接党的二十大胜利召开。要抓紧抓牢粮食生产，组织好“三夏”工作，守牢粮食安全底线。要大力推进科技创新，积极培育高精尖特企业。要认真落实援企稳岗各项政策，全力支持在黔高校毕业生来筑就业创业。要继承和弘扬中华优秀传统文化，不断增强历史自觉、坚定文化自信。要加强新时代廉洁文化和家庭家教家风建设，做到清白做人、勤俭齐家、干净做事、廉洁从政。要持续加强重点行业领域安全隐患排查整治，一以贯之抓好防汛抗旱各项工作，毫不放松抓好常态化疫情防控工作，确保人民群众生命财产安全。', '会议要求，要认真落实习近平总书记致2022年六五环境日国家主场活动的贺信精神，深入推进生态立市，扎实抓好中央生态环境保护督察反馈问题整改，大力发展绿色生产、绿色建筑、绿色能源、绿色金融、绿色交通、绿色消费，奋力当好在生态文明建设上出新绩的排头兵。', '会议强调，要积极抢抓粤黔东西部协作发展机遇，加快推进“东数西算”，谋划引进一批产业链长、关联度高、带动力强的项目落地贵阳贵安。要扎实做好2022数博会后半篇文章，加快成果转化运用，推动数字经济高质量发展。要积极发展公益慈善事业，加强慈善教育和慈善知识宣传普及。要落实立德树人根本任务，优化教育资源供给，强化教师队伍建设，积极引导广大少年儿童德智体美劳全面发展。', '各区（市、县、开发区）、市直有关部门和企业，贵安新区有关部门、企业和乡（镇）负责人参加。']</t>
         </is>
